--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.07298259999999999</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0712097</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0720215</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07002460000000001</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.07065929999999999</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0691763</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.069092</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0684944</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.115878</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.117685</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.1186</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.1155</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.113595</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.112053</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.109475</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.104355</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.103223</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.100759</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.100441</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0955406</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0911791</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.08682579999999999</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.148212</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.145319</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.141998</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.138009</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.134231</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.130514</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.126506</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.122291</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.11783</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114431</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.109948</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.105186</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100624</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0959555</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.157587</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.153443</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.149937</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.146009</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.14224</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.137723</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.133037</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.128788</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.123822</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.118769</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.114002</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109192</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.104531</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0996165</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0948362</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.157976</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.153996</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.149528</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.145596</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.140822</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.135951</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.131123</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.126374</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.121305</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.116495</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.111464</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.106716</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.101772</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0969164</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.160412</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.156466</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.152037</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.14759</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.142785</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.138176</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.133128</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128401</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.123305</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.11846</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.113486</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.108753</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103937</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.09895329999999999</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.161644</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.157522</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.153763</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.148679</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.143658</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.138768</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.133847</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.128948</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.123949</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.118963</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.114122</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.109185</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.10437</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0993728</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.162574</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.158918</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.154482</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.149841</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.14528</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.140161</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.135249</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.13029</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.125136</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.120032</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.115112</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.110139</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.105322</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.100479</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0955894</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.159496</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.155377</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.150752</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.145881</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.140855</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.135861</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.130875</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.125921</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.121079</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116102</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.111233</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106304</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.101443</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.09654890000000001</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.168509</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.15894</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.159678</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.154228</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.149536</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.144239</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.138932</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.133429</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.128395</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.123232</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.118089</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.113005</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.107832</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.102694</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.170691</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.166121</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.161407</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.156126</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.151131</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.145778</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.159279</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.159531</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.159916</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.160172</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.159857</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160431</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160459</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.1601</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.166565</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.166562</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.16622</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.165699</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.165521</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.165454</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.165168</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.164658</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164322</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.163931</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165298</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164945</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163782</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164364</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.172161</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.171462</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.170652</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.169522</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17035</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.170091</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.169297</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168455</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.167498</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.167514</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.167451</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167303</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.166371</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.166033</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.17866</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.177651</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.177156</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.176345</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.176385</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.174149</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.173298</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17212</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.171601</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.170988</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.170721</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.169977</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.168594</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.168177</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167535</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.181227</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.180451</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179182</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178048</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.176419</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176194</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.174844</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.173852</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173038</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172028</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170938</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.170107</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.169121</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.168199</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.182993</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.181934</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.180638</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.179527</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178266</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177121</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176114</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174714</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173737</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172755</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171706</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170994</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.169972</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.168926</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.183782</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182529</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181218</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.179982</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178765</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177541</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.1765</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175436</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174395</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173401</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.172322</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.171258</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.170221</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.169131</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184458</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.18311</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.181756</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180597</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179423</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.178165</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176992</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175876</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174754</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173655</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.172532</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.17148</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.170395</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.169389</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.16831</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183651</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.18219</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180908</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179663</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178378</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177238</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.176057</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.17496</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173839</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172867</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171748</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.17071</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.169544</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.168514</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.183801</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182276</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.180973</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179958</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178678</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177433</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176289</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.175285</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.17403</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.173003</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17193</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170909</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.169769</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.168699</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.194357</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.192211</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.191134</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.188527</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186944</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.185369</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.160451</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.15984</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.161571</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.160516</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.161304</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.16031</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160728</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.16767</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167619</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167533</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.167202</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.16666</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.166507</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.166204</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166124</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165371</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.165339</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164874</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165097</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164838</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.164653</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173555</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.176318</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.172962</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.176583</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.176767</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.169927</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.173282</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.170005</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.171421</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.167568</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.166847</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.168985</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.166699</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.16564</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.182958</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.180524</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.180934</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.178236</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.179629</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.175988</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.176036</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.174811</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174144</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.17122</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.171525</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.171157</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.168175</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.167485</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.185418</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.183989</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.183393</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.182403</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.180173</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178858</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.178373</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176503</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.175602</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.174485</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173374</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172095</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170832</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169611</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168477</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.186075</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.184581</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.183152</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.181904</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.180499</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.179412</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.178134</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176731</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.175547</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.174379</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.173069</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.172081</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.171065</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.169639</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.187025</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.18549</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.18413</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.182823</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.181306</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.179973</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.178672</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.177535</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.176267</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.175118</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173816</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.172616</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.171558</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.170172</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.187555</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.186034</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.184566</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.183157</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.181734</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.180416</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.17923</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.177932</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.176684</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.175445</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.174226</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.173033</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.17175</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.170555</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.188015</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.186469</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.185059</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.183606</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.18225</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.180794</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.179529</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.178203</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.17689</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.17571</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.174486</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.173255</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.172019</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.170723</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.169479</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.186924</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.185162</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.183692</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.18229</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.181036</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.179695</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.178428</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.17726</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.175945</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.174664</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.173481</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.172301</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.171083</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.169795</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196592</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.194563</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.192833</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.190933</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.189234</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.187425</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.185808</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0758843</v>
+        <v>0.0686629</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161517</v>
+        <v>0.187735</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160011</v>
+        <v>0.160776</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0735374</v>
+        <v>0.0692012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.161284</v>
+        <v>0.187441</v>
       </c>
       <c r="D3" t="n">
-        <v>0.159645</v>
+        <v>0.160988</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0747241</v>
+        <v>0.0688373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161565</v>
+        <v>0.187546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160429</v>
+        <v>0.160946</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0728557</v>
+        <v>0.068678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.161071</v>
+        <v>0.187159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16075</v>
+        <v>0.160654</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0725507</v>
+        <v>0.0681345</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160359</v>
+        <v>0.186718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160315</v>
+        <v>0.161012</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0714322</v>
+        <v>0.068346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160506</v>
+        <v>0.186873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159973</v>
+        <v>0.160721</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0708246</v>
+        <v>0.06792189999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.15986</v>
+        <v>0.186577</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160079</v>
+        <v>0.159849</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0693053</v>
+        <v>0.0674733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.159816</v>
+        <v>0.198123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168025</v>
+        <v>0.168476</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124614</v>
+        <v>0.115346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168688</v>
+        <v>0.197891</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168796</v>
+        <v>0.167974</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123047</v>
+        <v>0.117599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.169131</v>
+        <v>0.196775</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167658</v>
+        <v>0.167846</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122218</v>
+        <v>0.114127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168269</v>
+        <v>0.195811</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168587</v>
+        <v>0.167408</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.118435</v>
+        <v>0.114368</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167974</v>
+        <v>0.195523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.167476</v>
+        <v>0.167202</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.116689</v>
+        <v>0.111186</v>
       </c>
       <c r="C14" t="n">
-        <v>0.166866</v>
+        <v>0.194616</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167025</v>
+        <v>0.166855</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115717</v>
+        <v>0.109364</v>
       </c>
       <c r="C15" t="n">
-        <v>0.165758</v>
+        <v>0.194277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166834</v>
+        <v>0.165788</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.109993</v>
+        <v>0.105041</v>
       </c>
       <c r="C16" t="n">
-        <v>0.165987</v>
+        <v>0.193303</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166437</v>
+        <v>0.165535</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.107112</v>
+        <v>0.102917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.165494</v>
+        <v>0.192484</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165414</v>
+        <v>0.165001</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.105066</v>
+        <v>0.0996663</v>
       </c>
       <c r="C18" t="n">
-        <v>0.16521</v>
+        <v>0.191765</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165111</v>
+        <v>0.164103</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09945279999999999</v>
+        <v>0.09967579999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.164933</v>
+        <v>0.191912</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165088</v>
+        <v>0.164773</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.096415</v>
+        <v>0.09578109999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165109</v>
+        <v>0.191099</v>
       </c>
       <c r="D20" t="n">
-        <v>0.165158</v>
+        <v>0.164134</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.095169</v>
+        <v>0.0927427</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164374</v>
+        <v>0.190391</v>
       </c>
       <c r="D21" t="n">
-        <v>0.165465</v>
+        <v>0.163354</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0909674</v>
+        <v>0.0898193</v>
       </c>
       <c r="C22" t="n">
-        <v>0.16526</v>
+        <v>0.18955</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163999</v>
+        <v>0.162799</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0868884</v>
+        <v>0.08647920000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.16427</v>
+        <v>0.203696</v>
       </c>
       <c r="D23" t="n">
-        <v>0.183329</v>
+        <v>0.174103</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.151432</v>
+        <v>0.148471</v>
       </c>
       <c r="C24" t="n">
-        <v>0.178874</v>
+        <v>0.202501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.179675</v>
+        <v>0.17511</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147713</v>
+        <v>0.145541</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177374</v>
+        <v>0.201702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178149</v>
+        <v>0.173385</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.144473</v>
+        <v>0.142324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.174788</v>
+        <v>0.2007</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177462</v>
+        <v>0.172079</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.139768</v>
+        <v>0.137788</v>
       </c>
       <c r="C27" t="n">
-        <v>0.175042</v>
+        <v>0.199431</v>
       </c>
       <c r="D27" t="n">
-        <v>0.17597</v>
+        <v>0.171266</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.136365</v>
+        <v>0.133967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.173708</v>
+        <v>0.198113</v>
       </c>
       <c r="D28" t="n">
-        <v>0.175113</v>
+        <v>0.17065</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132397</v>
+        <v>0.129701</v>
       </c>
       <c r="C29" t="n">
-        <v>0.172923</v>
+        <v>0.196901</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174344</v>
+        <v>0.170345</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.128003</v>
+        <v>0.125646</v>
       </c>
       <c r="C30" t="n">
-        <v>0.171732</v>
+        <v>0.196009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.173993</v>
+        <v>0.169123</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.123668</v>
+        <v>0.121042</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171195</v>
+        <v>0.194266</v>
       </c>
       <c r="D31" t="n">
-        <v>0.171814</v>
+        <v>0.168463</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11902</v>
+        <v>0.117802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170385</v>
+        <v>0.193786</v>
       </c>
       <c r="D32" t="n">
-        <v>0.170931</v>
+        <v>0.169417</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114459</v>
+        <v>0.113657</v>
       </c>
       <c r="C33" t="n">
-        <v>0.16947</v>
+        <v>0.196191</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170148</v>
+        <v>0.169603</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.110177</v>
+        <v>0.109273</v>
       </c>
       <c r="C34" t="n">
-        <v>0.169146</v>
+        <v>0.195421</v>
       </c>
       <c r="D34" t="n">
-        <v>0.169615</v>
+        <v>0.17067</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105099</v>
+        <v>0.104529</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167972</v>
+        <v>0.195342</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168269</v>
+        <v>0.169544</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100138</v>
+        <v>0.09914480000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167047</v>
+        <v>0.197189</v>
       </c>
       <c r="D36" t="n">
-        <v>0.16735</v>
+        <v>0.171606</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0948865</v>
+        <v>0.0958783</v>
       </c>
       <c r="C37" t="n">
-        <v>0.166171</v>
+        <v>0.213309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.184032</v>
+        <v>0.187593</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.159129</v>
+        <v>0.157598</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182408</v>
+        <v>0.203828</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182749</v>
+        <v>0.179285</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.155682</v>
+        <v>0.154113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180152</v>
+        <v>0.203014</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181447</v>
+        <v>0.178643</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.151681</v>
+        <v>0.150215</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179135</v>
+        <v>0.201707</v>
       </c>
       <c r="D40" t="n">
-        <v>0.179598</v>
+        <v>0.177421</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.147442</v>
+        <v>0.146226</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177671</v>
+        <v>0.200601</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178697</v>
+        <v>0.176635</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142735</v>
+        <v>0.142004</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176913</v>
+        <v>0.199328</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177654</v>
+        <v>0.17585</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138002</v>
+        <v>0.137827</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175601</v>
+        <v>0.197996</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176255</v>
+        <v>0.174054</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.13371</v>
+        <v>0.133428</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175113</v>
+        <v>0.196861</v>
       </c>
       <c r="D44" t="n">
-        <v>0.175428</v>
+        <v>0.173413</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128795</v>
+        <v>0.12846</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173758</v>
+        <v>0.195781</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17424</v>
+        <v>0.172559</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124254</v>
+        <v>0.123495</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172944</v>
+        <v>0.194838</v>
       </c>
       <c r="D46" t="n">
-        <v>0.172949</v>
+        <v>0.171605</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119526</v>
+        <v>0.118487</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172182</v>
+        <v>0.193748</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171806</v>
+        <v>0.170688</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114363</v>
+        <v>0.11376</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170881</v>
+        <v>0.19275</v>
       </c>
       <c r="D48" t="n">
-        <v>0.170594</v>
+        <v>0.16986</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109704</v>
+        <v>0.109179</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170105</v>
+        <v>0.19185</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170093</v>
+        <v>0.169028</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104862</v>
+        <v>0.103938</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169022</v>
+        <v>0.190998</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168872</v>
+        <v>0.168049</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09999089999999999</v>
+        <v>0.09876310000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.167998</v>
+        <v>0.206612</v>
       </c>
       <c r="D51" t="n">
-        <v>0.185726</v>
+        <v>0.184588</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0946162</v>
+        <v>0.0937767</v>
       </c>
       <c r="C52" t="n">
-        <v>0.166696</v>
+        <v>0.205125</v>
       </c>
       <c r="D52" t="n">
-        <v>0.183999</v>
+        <v>0.183111</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15835</v>
+        <v>0.15856</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182395</v>
+        <v>0.203797</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182938</v>
+        <v>0.181435</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.15497</v>
+        <v>0.154558</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181008</v>
+        <v>0.202199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181135</v>
+        <v>0.180166</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150224</v>
+        <v>0.150263</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179806</v>
+        <v>0.201143</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179973</v>
+        <v>0.179121</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146313</v>
+        <v>0.145916</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17875</v>
+        <v>0.199694</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178698</v>
+        <v>0.177961</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141574</v>
+        <v>0.141058</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177572</v>
+        <v>0.198771</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177695</v>
+        <v>0.176859</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136479</v>
+        <v>0.136121</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176431</v>
+        <v>0.197545</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176204</v>
+        <v>0.17578</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131705</v>
+        <v>0.131199</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175317</v>
+        <v>0.196177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175252</v>
+        <v>0.174813</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126692</v>
+        <v>0.126192</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174244</v>
+        <v>0.19521</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174049</v>
+        <v>0.17365</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121648</v>
+        <v>0.121196</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173258</v>
+        <v>0.194107</v>
       </c>
       <c r="D61" t="n">
-        <v>0.172976</v>
+        <v>0.17264</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.117033</v>
+        <v>0.116353</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172136</v>
+        <v>0.193338</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171947</v>
+        <v>0.17172</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.11206</v>
+        <v>0.111436</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171204</v>
+        <v>0.192273</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170843</v>
+        <v>0.170564</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106931</v>
+        <v>0.106505</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1701</v>
+        <v>0.191392</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169567</v>
+        <v>0.1694</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102032</v>
+        <v>0.101801</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168996</v>
+        <v>0.190574</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168423</v>
+        <v>0.168365</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09696100000000001</v>
+        <v>0.0965514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.167839</v>
+        <v>0.206062</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18501</v>
+        <v>0.184979</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160578</v>
+        <v>0.161119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183252</v>
+        <v>0.204428</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183444</v>
+        <v>0.183715</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156625</v>
+        <v>0.157211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.181965</v>
+        <v>0.203133</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182209</v>
+        <v>0.182244</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152507</v>
+        <v>0.152742</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1809</v>
+        <v>0.201724</v>
       </c>
       <c r="D69" t="n">
-        <v>0.180939</v>
+        <v>0.180959</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147923</v>
+        <v>0.148363</v>
       </c>
       <c r="C70" t="n">
-        <v>0.17956</v>
+        <v>0.200451</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179538</v>
+        <v>0.179789</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143473</v>
+        <v>0.143591</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178444</v>
+        <v>0.199346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178374</v>
+        <v>0.17847</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13856</v>
+        <v>0.138616</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177204</v>
+        <v>0.198085</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177105</v>
+        <v>0.177243</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133469</v>
+        <v>0.133479</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176229</v>
+        <v>0.196954</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176068</v>
+        <v>0.17605</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128556</v>
+        <v>0.128594</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175094</v>
+        <v>0.196019</v>
       </c>
       <c r="D74" t="n">
-        <v>0.17492</v>
+        <v>0.175189</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.12351</v>
+        <v>0.123561</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173923</v>
+        <v>0.194716</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173763</v>
+        <v>0.174059</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118643</v>
+        <v>0.118499</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172914</v>
+        <v>0.193959</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172585</v>
+        <v>0.172922</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113741</v>
+        <v>0.113636</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171849</v>
+        <v>0.193037</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171417</v>
+        <v>0.171741</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108914</v>
+        <v>0.108754</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170806</v>
+        <v>0.192001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170196</v>
+        <v>0.170473</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10394</v>
+        <v>0.103793</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169616</v>
+        <v>0.191236</v>
       </c>
       <c r="D79" t="n">
-        <v>0.168965</v>
+        <v>0.169158</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0991664</v>
+        <v>0.0989679</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168566</v>
+        <v>0.206179</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185483</v>
+        <v>0.185971</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161075</v>
+        <v>0.16173</v>
       </c>
       <c r="C81" t="n">
-        <v>0.183672</v>
+        <v>0.204869</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184099</v>
+        <v>0.184547</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157541</v>
+        <v>0.15785</v>
       </c>
       <c r="C82" t="n">
-        <v>0.182468</v>
+        <v>0.203298</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182697</v>
+        <v>0.183083</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153279</v>
+        <v>0.153258</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181136</v>
+        <v>0.202043</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181365</v>
+        <v>0.181693</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148419</v>
+        <v>0.148741</v>
       </c>
       <c r="C84" t="n">
-        <v>0.179973</v>
+        <v>0.200856</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180176</v>
+        <v>0.180404</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143563</v>
+        <v>0.143694</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178796</v>
+        <v>0.199579</v>
       </c>
       <c r="D85" t="n">
-        <v>0.178976</v>
+        <v>0.17916</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138814</v>
+        <v>0.139082</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177617</v>
+        <v>0.198272</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177749</v>
+        <v>0.177882</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134187</v>
+        <v>0.133993</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176429</v>
+        <v>0.197414</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176552</v>
+        <v>0.176674</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129007</v>
+        <v>0.129113</v>
       </c>
       <c r="C88" t="n">
-        <v>0.17535</v>
+        <v>0.196454</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175408</v>
+        <v>0.175506</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.12419</v>
+        <v>0.124223</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174264</v>
+        <v>0.195314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174248</v>
+        <v>0.174302</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.11903</v>
+        <v>0.119221</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173141</v>
+        <v>0.194511</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172985</v>
+        <v>0.173096</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114376</v>
+        <v>0.114156</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172009</v>
+        <v>0.193451</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171824</v>
+        <v>0.171919</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109255</v>
+        <v>0.109213</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17091</v>
+        <v>0.192569</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170566</v>
+        <v>0.17069</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104203</v>
+        <v>0.104396</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169647</v>
+        <v>0.191857</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169184</v>
+        <v>0.169453</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994004</v>
+        <v>0.09942330000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.168518</v>
+        <v>0.206221</v>
       </c>
       <c r="D94" t="n">
-        <v>0.185985</v>
+        <v>0.186347</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162128</v>
+        <v>0.16259</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184283</v>
+        <v>0.204778</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184496</v>
+        <v>0.184728</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158397</v>
+        <v>0.158971</v>
       </c>
       <c r="C96" t="n">
-        <v>0.182809</v>
+        <v>0.20336</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183031</v>
+        <v>0.183343</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154147</v>
+        <v>0.154391</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181471</v>
+        <v>0.201978</v>
       </c>
       <c r="D97" t="n">
-        <v>0.181718</v>
+        <v>0.181998</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14983</v>
+        <v>0.149874</v>
       </c>
       <c r="C98" t="n">
-        <v>0.18041</v>
+        <v>0.200638</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180566</v>
+        <v>0.180607</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144916</v>
+        <v>0.144868</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179197</v>
+        <v>0.199374</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179185</v>
+        <v>0.179359</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140152</v>
+        <v>0.140126</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177969</v>
+        <v>0.198168</v>
       </c>
       <c r="D100" t="n">
-        <v>0.177916</v>
+        <v>0.178082</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134967</v>
+        <v>0.134882</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176773</v>
+        <v>0.197054</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176813</v>
+        <v>0.176846</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13013</v>
+        <v>0.130026</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175576</v>
+        <v>0.195924</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175551</v>
+        <v>0.1756</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125065</v>
+        <v>0.124951</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174482</v>
+        <v>0.194847</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174353</v>
+        <v>0.1744</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120187</v>
+        <v>0.120075</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173485</v>
+        <v>0.19394</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173202</v>
+        <v>0.173294</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11521</v>
+        <v>0.11517</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172365</v>
+        <v>0.193011</v>
       </c>
       <c r="D105" t="n">
-        <v>0.171937</v>
+        <v>0.172061</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110418</v>
+        <v>0.110203</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171213</v>
+        <v>0.192029</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17075</v>
+        <v>0.17086</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105437</v>
+        <v>0.105361</v>
       </c>
       <c r="C107" t="n">
-        <v>0.170121</v>
+        <v>0.191296</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169515</v>
+        <v>0.169568</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100497</v>
+        <v>0.100375</v>
       </c>
       <c r="C108" t="n">
-        <v>0.168956</v>
+        <v>0.206549</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186463</v>
+        <v>0.186597</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955758</v>
+        <v>0.0954917</v>
       </c>
       <c r="C109" t="n">
-        <v>0.167807</v>
+        <v>0.205097</v>
       </c>
       <c r="D109" t="n">
-        <v>0.184955</v>
+        <v>0.18507</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159347</v>
+        <v>0.15958</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183413</v>
+        <v>0.203662</v>
       </c>
       <c r="D110" t="n">
-        <v>0.18356</v>
+        <v>0.183641</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155292</v>
+        <v>0.155688</v>
       </c>
       <c r="C111" t="n">
-        <v>0.181973</v>
+        <v>0.202272</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182079</v>
+        <v>0.18219</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150618</v>
+        <v>0.151039</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180669</v>
+        <v>0.200857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180726</v>
+        <v>0.180863</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.145909</v>
+        <v>0.146003</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17938</v>
+        <v>0.19966</v>
       </c>
       <c r="D113" t="n">
-        <v>0.17949</v>
+        <v>0.179568</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140882</v>
+        <v>0.141028</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178213</v>
+        <v>0.19847</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178267</v>
+        <v>0.178455</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135883</v>
+        <v>0.136273</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177024</v>
+        <v>0.197213</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177074</v>
+        <v>0.177096</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130815</v>
+        <v>0.130937</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1759</v>
+        <v>0.196201</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175816</v>
+        <v>0.175923</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125838</v>
+        <v>0.125934</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174756</v>
+        <v>0.195251</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174614</v>
+        <v>0.174734</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121049</v>
+        <v>0.120984</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173618</v>
+        <v>0.194072</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173493</v>
+        <v>0.17354</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.115996</v>
+        <v>0.116169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172618</v>
+        <v>0.193222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172224</v>
+        <v>0.172371</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111038</v>
+        <v>0.111194</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171472</v>
+        <v>0.192222</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171118</v>
+        <v>0.171099</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106266</v>
+        <v>0.106351</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170374</v>
+        <v>0.191437</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169817</v>
+        <v>0.169924</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101484</v>
+        <v>0.101453</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169252</v>
+        <v>0.190559</v>
       </c>
       <c r="D122" t="n">
-        <v>0.168563</v>
+        <v>0.168659</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965124</v>
+        <v>0.0965062</v>
       </c>
       <c r="C123" t="n">
-        <v>0.167996</v>
+        <v>0.205498</v>
       </c>
       <c r="D123" t="n">
-        <v>0.18529</v>
+        <v>0.185416</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16875</v>
+        <v>0.16994</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183665</v>
+        <v>0.20395</v>
       </c>
       <c r="D124" t="n">
-        <v>0.183782</v>
+        <v>0.183889</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165253</v>
+        <v>0.166716</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182248</v>
+        <v>0.202497</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182436</v>
+        <v>0.182473</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160171</v>
+        <v>0.160855</v>
       </c>
       <c r="C126" t="n">
-        <v>0.180916</v>
+        <v>0.201095</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181045</v>
+        <v>0.181152</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155079</v>
+        <v>0.155589</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179671</v>
+        <v>0.199848</v>
       </c>
       <c r="D127" t="n">
-        <v>0.17969</v>
+        <v>0.179949</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.150172</v>
+        <v>0.149874</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178468</v>
+        <v>0.198725</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178501</v>
+        <v>0.178777</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144364</v>
+        <v>0.144961</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177247</v>
+        <v>0.197746</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177279</v>
+        <v>0.177267</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.13909</v>
+        <v>0.139257</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176109</v>
+        <v>0.196447</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176081</v>
+        <v>0.176072</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133975</v>
+        <v>0.133968</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174977</v>
+        <v>0.195329</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174818</v>
+        <v>0.174935</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128653</v>
+        <v>0.129016</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173851</v>
+        <v>0.194163</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173736</v>
+        <v>0.173646</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.123312</v>
+        <v>0.129633</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172825</v>
+        <v>0.195101</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1725</v>
+        <v>0.173823</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118196</v>
+        <v>0.129732</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171717</v>
+        <v>0.195583</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17131</v>
+        <v>0.173381</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.113081</v>
+        <v>0.121947</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170493</v>
+        <v>0.191543</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170121</v>
+        <v>0.170111</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107936</v>
+        <v>0.103478</v>
       </c>
       <c r="C136" t="n">
-        <v>0.16948</v>
+        <v>0.190793</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168793</v>
+        <v>0.168913</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102763</v>
+        <v>0.100335</v>
       </c>
       <c r="C137" t="n">
-        <v>0.168276</v>
+        <v>0.242713</v>
       </c>
       <c r="D137" t="n">
-        <v>0.194838</v>
+        <v>0.201478</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170695</v>
+        <v>0.187145</v>
       </c>
       <c r="C138" t="n">
-        <v>0.194016</v>
+        <v>0.222149</v>
       </c>
       <c r="D138" t="n">
-        <v>0.192446</v>
+        <v>0.184245</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16605</v>
+        <v>0.164341</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191328</v>
+        <v>0.209381</v>
       </c>
       <c r="D139" t="n">
-        <v>0.189943</v>
+        <v>0.187938</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.159252</v>
+        <v>0.158824</v>
       </c>
       <c r="C140" t="n">
-        <v>0.189598</v>
+        <v>0.208054</v>
       </c>
       <c r="D140" t="n">
-        <v>0.188461</v>
+        <v>0.186831</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.154279</v>
+        <v>0.153696</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188097</v>
+        <v>0.207244</v>
       </c>
       <c r="D141" t="n">
-        <v>0.187379</v>
+        <v>0.185884</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.149255</v>
+        <v>0.148934</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186404</v>
+        <v>0.206442</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18564</v>
+        <v>0.18538</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.143908</v>
+        <v>0.144287</v>
       </c>
       <c r="C143" t="n">
-        <v>0.18492</v>
+        <v>0.204968</v>
       </c>
       <c r="D143" t="n">
-        <v>0.184108</v>
+        <v>0.184027</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0686629</v>
+        <v>0.0651186</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187735</v>
+        <v>0.160065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.160776</v>
+        <v>0.159405</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0692012</v>
+        <v>0.06491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187441</v>
+        <v>0.159878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160988</v>
+        <v>0.160571</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0688373</v>
+        <v>0.0652199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187546</v>
+        <v>0.160538</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160946</v>
+        <v>0.160805</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.068678</v>
+        <v>0.0648502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187159</v>
+        <v>0.160359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160654</v>
+        <v>0.160597</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0681345</v>
+        <v>0.0649016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.186718</v>
+        <v>0.16044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161012</v>
+        <v>0.160668</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.068346</v>
+        <v>0.0651308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.186873</v>
+        <v>0.160342</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160721</v>
+        <v>0.15965</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06792189999999999</v>
+        <v>0.06574240000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.186577</v>
+        <v>0.160289</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159849</v>
+        <v>0.159672</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0674733</v>
+        <v>0.06617969999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198123</v>
+        <v>0.168433</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168476</v>
+        <v>0.169604</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115346</v>
+        <v>0.09079429999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.197891</v>
+        <v>0.169168</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167974</v>
+        <v>0.16868</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.117599</v>
+        <v>0.0899455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.196775</v>
+        <v>0.168479</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167846</v>
+        <v>0.168322</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.114127</v>
+        <v>0.0908101</v>
       </c>
       <c r="C12" t="n">
-        <v>0.195811</v>
+        <v>0.168076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167408</v>
+        <v>0.168136</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114368</v>
+        <v>0.0904605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.195523</v>
+        <v>0.169342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.167202</v>
+        <v>0.168114</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.111186</v>
+        <v>0.08882569999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.194616</v>
+        <v>0.167172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166855</v>
+        <v>0.167442</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109364</v>
+        <v>0.0885615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.194277</v>
+        <v>0.167017</v>
       </c>
       <c r="D15" t="n">
-        <v>0.165788</v>
+        <v>0.166841</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.105041</v>
+        <v>0.0883929</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193303</v>
+        <v>0.166216</v>
       </c>
       <c r="D16" t="n">
-        <v>0.165535</v>
+        <v>0.166694</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.102917</v>
+        <v>0.0883536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192484</v>
+        <v>0.165895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165001</v>
+        <v>0.165661</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0996663</v>
+        <v>0.08931070000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191765</v>
+        <v>0.167223</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164103</v>
+        <v>0.167678</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09967579999999999</v>
+        <v>0.0895418</v>
       </c>
       <c r="C19" t="n">
-        <v>0.191912</v>
+        <v>0.169327</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164773</v>
+        <v>0.166857</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09578109999999999</v>
+        <v>0.0866618</v>
       </c>
       <c r="C20" t="n">
-        <v>0.191099</v>
+        <v>0.16627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164134</v>
+        <v>0.164385</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0927427</v>
+        <v>0.0843214</v>
       </c>
       <c r="C21" t="n">
-        <v>0.190391</v>
+        <v>0.164547</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163354</v>
+        <v>0.163921</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0898193</v>
+        <v>0.08201070000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.18955</v>
+        <v>0.163137</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162799</v>
+        <v>0.162811</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08647920000000001</v>
+        <v>0.0797793</v>
       </c>
       <c r="C23" t="n">
-        <v>0.203696</v>
+        <v>0.179388</v>
       </c>
       <c r="D23" t="n">
-        <v>0.174103</v>
+        <v>0.180112</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.148471</v>
+        <v>0.128262</v>
       </c>
       <c r="C24" t="n">
-        <v>0.202501</v>
+        <v>0.179556</v>
       </c>
       <c r="D24" t="n">
-        <v>0.17511</v>
+        <v>0.179338</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.145541</v>
+        <v>0.127895</v>
       </c>
       <c r="C25" t="n">
-        <v>0.201702</v>
+        <v>0.181564</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173385</v>
+        <v>0.18015</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142324</v>
+        <v>0.127859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2007</v>
+        <v>0.181109</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172079</v>
+        <v>0.180767</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137788</v>
+        <v>0.125603</v>
       </c>
       <c r="C27" t="n">
-        <v>0.199431</v>
+        <v>0.174796</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171266</v>
+        <v>0.175203</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.133967</v>
+        <v>0.121274</v>
       </c>
       <c r="C28" t="n">
-        <v>0.198113</v>
+        <v>0.17529</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17065</v>
+        <v>0.175945</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.129701</v>
+        <v>0.118557</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196901</v>
+        <v>0.173751</v>
       </c>
       <c r="D29" t="n">
-        <v>0.170345</v>
+        <v>0.174204</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.125646</v>
+        <v>0.115447</v>
       </c>
       <c r="C30" t="n">
-        <v>0.196009</v>
+        <v>0.174026</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169123</v>
+        <v>0.173835</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.121042</v>
+        <v>0.112727</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194266</v>
+        <v>0.172845</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168463</v>
+        <v>0.171718</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.117802</v>
+        <v>0.110721</v>
       </c>
       <c r="C32" t="n">
-        <v>0.193786</v>
+        <v>0.171103</v>
       </c>
       <c r="D32" t="n">
-        <v>0.169417</v>
+        <v>0.171917</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.113657</v>
+        <v>0.107507</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196191</v>
+        <v>0.170896</v>
       </c>
       <c r="D33" t="n">
-        <v>0.169603</v>
+        <v>0.170073</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109273</v>
+        <v>0.103619</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195421</v>
+        <v>0.169422</v>
       </c>
       <c r="D34" t="n">
-        <v>0.17067</v>
+        <v>0.169046</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104529</v>
+        <v>0.09956139999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195342</v>
+        <v>0.167924</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169544</v>
+        <v>0.168227</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09914480000000001</v>
+        <v>0.09474779999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197189</v>
+        <v>0.166985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.171606</v>
+        <v>0.166737</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0958783</v>
+        <v>0.0910195</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213309</v>
+        <v>0.184452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187593</v>
+        <v>0.184848</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157598</v>
+        <v>0.151337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.203828</v>
+        <v>0.183159</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179285</v>
+        <v>0.181683</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154113</v>
+        <v>0.148314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.203014</v>
+        <v>0.181747</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178643</v>
+        <v>0.181349</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150215</v>
+        <v>0.145149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.201707</v>
+        <v>0.180549</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177421</v>
+        <v>0.180353</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146226</v>
+        <v>0.141542</v>
       </c>
       <c r="C41" t="n">
-        <v>0.200601</v>
+        <v>0.179464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176635</v>
+        <v>0.179114</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142004</v>
+        <v>0.137432</v>
       </c>
       <c r="C42" t="n">
-        <v>0.199328</v>
+        <v>0.177787</v>
       </c>
       <c r="D42" t="n">
-        <v>0.17585</v>
+        <v>0.178015</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137827</v>
+        <v>0.133797</v>
       </c>
       <c r="C43" t="n">
-        <v>0.197996</v>
+        <v>0.176833</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174054</v>
+        <v>0.176008</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133428</v>
+        <v>0.129953</v>
       </c>
       <c r="C44" t="n">
-        <v>0.196861</v>
+        <v>0.175576</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173413</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.12846</v>
+        <v>0.125343</v>
       </c>
       <c r="C45" t="n">
-        <v>0.195781</v>
+        <v>0.17449</v>
       </c>
       <c r="D45" t="n">
-        <v>0.172559</v>
+        <v>0.174312</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123495</v>
+        <v>0.120794</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194838</v>
+        <v>0.173381</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171605</v>
+        <v>0.173029</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118487</v>
+        <v>0.116661</v>
       </c>
       <c r="C47" t="n">
-        <v>0.193748</v>
+        <v>0.172509</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170688</v>
+        <v>0.172401</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11376</v>
+        <v>0.11185</v>
       </c>
       <c r="C48" t="n">
-        <v>0.19275</v>
+        <v>0.171271</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16986</v>
+        <v>0.171008</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109179</v>
+        <v>0.107205</v>
       </c>
       <c r="C49" t="n">
-        <v>0.19185</v>
+        <v>0.1703</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169028</v>
+        <v>0.169987</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103938</v>
+        <v>0.102937</v>
       </c>
       <c r="C50" t="n">
-        <v>0.190998</v>
+        <v>0.168919</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168049</v>
+        <v>0.168942</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09876310000000001</v>
+        <v>0.0974853</v>
       </c>
       <c r="C51" t="n">
-        <v>0.206612</v>
+        <v>0.185942</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184588</v>
+        <v>0.185844</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0937767</v>
+        <v>0.0926078</v>
       </c>
       <c r="C52" t="n">
-        <v>0.205125</v>
+        <v>0.184289</v>
       </c>
       <c r="D52" t="n">
-        <v>0.183111</v>
+        <v>0.184402</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15856</v>
+        <v>0.156397</v>
       </c>
       <c r="C53" t="n">
-        <v>0.203797</v>
+        <v>0.18314</v>
       </c>
       <c r="D53" t="n">
-        <v>0.181435</v>
+        <v>0.182828</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154558</v>
+        <v>0.152806</v>
       </c>
       <c r="C54" t="n">
-        <v>0.202199</v>
+        <v>0.181699</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180166</v>
+        <v>0.181522</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150263</v>
+        <v>0.14861</v>
       </c>
       <c r="C55" t="n">
-        <v>0.201143</v>
+        <v>0.180377</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179121</v>
+        <v>0.180118</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145916</v>
+        <v>0.14452</v>
       </c>
       <c r="C56" t="n">
-        <v>0.199694</v>
+        <v>0.179202</v>
       </c>
       <c r="D56" t="n">
-        <v>0.177961</v>
+        <v>0.178802</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141058</v>
+        <v>0.139844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.198771</v>
+        <v>0.178029</v>
       </c>
       <c r="D57" t="n">
-        <v>0.176859</v>
+        <v>0.17766</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136121</v>
+        <v>0.135048</v>
       </c>
       <c r="C58" t="n">
-        <v>0.197545</v>
+        <v>0.176681</v>
       </c>
       <c r="D58" t="n">
-        <v>0.17578</v>
+        <v>0.176465</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131199</v>
+        <v>0.130315</v>
       </c>
       <c r="C59" t="n">
-        <v>0.196177</v>
+        <v>0.175639</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174813</v>
+        <v>0.175469</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126192</v>
+        <v>0.125373</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19521</v>
+        <v>0.174418</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17365</v>
+        <v>0.174451</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121196</v>
+        <v>0.120527</v>
       </c>
       <c r="C61" t="n">
-        <v>0.194107</v>
+        <v>0.173579</v>
       </c>
       <c r="D61" t="n">
-        <v>0.17264</v>
+        <v>0.173216</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116353</v>
+        <v>0.115755</v>
       </c>
       <c r="C62" t="n">
-        <v>0.193338</v>
+        <v>0.172296</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17172</v>
+        <v>0.172044</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111436</v>
+        <v>0.110806</v>
       </c>
       <c r="C63" t="n">
-        <v>0.192273</v>
+        <v>0.171256</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170564</v>
+        <v>0.171009</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106505</v>
+        <v>0.10619</v>
       </c>
       <c r="C64" t="n">
-        <v>0.191392</v>
+        <v>0.169699</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1694</v>
+        <v>0.169754</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101801</v>
+        <v>0.101351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.190574</v>
+        <v>0.168555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168365</v>
+        <v>0.16843</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965514</v>
+        <v>0.0964401</v>
       </c>
       <c r="C66" t="n">
-        <v>0.206062</v>
+        <v>0.185461</v>
       </c>
       <c r="D66" t="n">
-        <v>0.184979</v>
+        <v>0.18529</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.161119</v>
+        <v>0.160859</v>
       </c>
       <c r="C67" t="n">
-        <v>0.204428</v>
+        <v>0.184249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183715</v>
+        <v>0.183791</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157211</v>
+        <v>0.156716</v>
       </c>
       <c r="C68" t="n">
-        <v>0.203133</v>
+        <v>0.182727</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182244</v>
+        <v>0.18221</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152742</v>
+        <v>0.152284</v>
       </c>
       <c r="C69" t="n">
-        <v>0.201724</v>
+        <v>0.181556</v>
       </c>
       <c r="D69" t="n">
-        <v>0.180959</v>
+        <v>0.18101</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.148363</v>
+        <v>0.147636</v>
       </c>
       <c r="C70" t="n">
-        <v>0.200451</v>
+        <v>0.180265</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179789</v>
+        <v>0.179775</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143591</v>
+        <v>0.143119</v>
       </c>
       <c r="C71" t="n">
-        <v>0.199346</v>
+        <v>0.178908</v>
       </c>
       <c r="D71" t="n">
-        <v>0.17847</v>
+        <v>0.178481</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138616</v>
+        <v>0.138071</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198085</v>
+        <v>0.177525</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177243</v>
+        <v>0.177328</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133479</v>
+        <v>0.133052</v>
       </c>
       <c r="C73" t="n">
-        <v>0.196954</v>
+        <v>0.176269</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17605</v>
+        <v>0.176102</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128594</v>
+        <v>0.128218</v>
       </c>
       <c r="C74" t="n">
-        <v>0.196019</v>
+        <v>0.175105</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175189</v>
+        <v>0.174911</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123561</v>
+        <v>0.123821</v>
       </c>
       <c r="C75" t="n">
-        <v>0.194716</v>
+        <v>0.175471</v>
       </c>
       <c r="D75" t="n">
-        <v>0.174059</v>
+        <v>0.175918</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118499</v>
+        <v>0.1207</v>
       </c>
       <c r="C76" t="n">
-        <v>0.193959</v>
+        <v>0.176431</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172922</v>
+        <v>0.17632</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113636</v>
+        <v>0.115727</v>
       </c>
       <c r="C77" t="n">
-        <v>0.193037</v>
+        <v>0.1753</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171741</v>
+        <v>0.174489</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108754</v>
+        <v>0.110409</v>
       </c>
       <c r="C78" t="n">
-        <v>0.192001</v>
+        <v>0.174571</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170473</v>
+        <v>0.172656</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103793</v>
+        <v>0.106404</v>
       </c>
       <c r="C79" t="n">
-        <v>0.191236</v>
+        <v>0.174941</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169158</v>
+        <v>0.174786</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0989679</v>
+        <v>0.101093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.206179</v>
+        <v>0.18623</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185971</v>
+        <v>0.185704</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16173</v>
+        <v>0.162012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.204869</v>
+        <v>0.184703</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184547</v>
+        <v>0.184262</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.15785</v>
+        <v>0.157463</v>
       </c>
       <c r="C82" t="n">
-        <v>0.203298</v>
+        <v>0.183254</v>
       </c>
       <c r="D82" t="n">
-        <v>0.183083</v>
+        <v>0.182892</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153258</v>
+        <v>0.153114</v>
       </c>
       <c r="C83" t="n">
-        <v>0.202043</v>
+        <v>0.181823</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181693</v>
+        <v>0.18147</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148741</v>
+        <v>0.148654</v>
       </c>
       <c r="C84" t="n">
-        <v>0.200856</v>
+        <v>0.180624</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180404</v>
+        <v>0.180206</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143694</v>
+        <v>0.143943</v>
       </c>
       <c r="C85" t="n">
-        <v>0.199579</v>
+        <v>0.1794</v>
       </c>
       <c r="D85" t="n">
-        <v>0.17916</v>
+        <v>0.17888</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139082</v>
+        <v>0.138987</v>
       </c>
       <c r="C86" t="n">
-        <v>0.198272</v>
+        <v>0.178142</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177882</v>
+        <v>0.177695</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133993</v>
+        <v>0.133964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.197414</v>
+        <v>0.177065</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176674</v>
+        <v>0.176568</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129113</v>
+        <v>0.129036</v>
       </c>
       <c r="C88" t="n">
-        <v>0.196454</v>
+        <v>0.175934</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175506</v>
+        <v>0.175299</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124223</v>
+        <v>0.123958</v>
       </c>
       <c r="C89" t="n">
-        <v>0.195314</v>
+        <v>0.174786</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174302</v>
+        <v>0.174125</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119221</v>
+        <v>0.119092</v>
       </c>
       <c r="C90" t="n">
-        <v>0.194511</v>
+        <v>0.173501</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173096</v>
+        <v>0.17297</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114156</v>
+        <v>0.114081</v>
       </c>
       <c r="C91" t="n">
-        <v>0.193451</v>
+        <v>0.172342</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171919</v>
+        <v>0.171909</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109213</v>
+        <v>0.109142</v>
       </c>
       <c r="C92" t="n">
-        <v>0.192569</v>
+        <v>0.171278</v>
       </c>
       <c r="D92" t="n">
-        <v>0.17069</v>
+        <v>0.170677</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104396</v>
+        <v>0.104264</v>
       </c>
       <c r="C93" t="n">
-        <v>0.191857</v>
+        <v>0.170108</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169453</v>
+        <v>0.169388</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.09942330000000001</v>
+        <v>0.0993073</v>
       </c>
       <c r="C94" t="n">
-        <v>0.206221</v>
+        <v>0.186417</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186347</v>
+        <v>0.186211</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16259</v>
+        <v>0.162652</v>
       </c>
       <c r="C95" t="n">
-        <v>0.204778</v>
+        <v>0.184876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184728</v>
+        <v>0.184779</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158971</v>
+        <v>0.158678</v>
       </c>
       <c r="C96" t="n">
-        <v>0.20336</v>
+        <v>0.183374</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183343</v>
+        <v>0.183353</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154391</v>
+        <v>0.15444</v>
       </c>
       <c r="C97" t="n">
-        <v>0.201978</v>
+        <v>0.182026</v>
       </c>
       <c r="D97" t="n">
-        <v>0.181998</v>
+        <v>0.182001</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149874</v>
+        <v>0.149871</v>
       </c>
       <c r="C98" t="n">
-        <v>0.200638</v>
+        <v>0.180684</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180607</v>
+        <v>0.180638</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144868</v>
+        <v>0.14502</v>
       </c>
       <c r="C99" t="n">
-        <v>0.199374</v>
+        <v>0.179369</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179359</v>
+        <v>0.179337</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140126</v>
+        <v>0.140143</v>
       </c>
       <c r="C100" t="n">
-        <v>0.198168</v>
+        <v>0.178063</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178082</v>
+        <v>0.178059</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134882</v>
+        <v>0.135157</v>
       </c>
       <c r="C101" t="n">
-        <v>0.197054</v>
+        <v>0.17682</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176846</v>
+        <v>0.176836</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130026</v>
+        <v>0.130171</v>
       </c>
       <c r="C102" t="n">
-        <v>0.195924</v>
+        <v>0.175622</v>
       </c>
       <c r="D102" t="n">
-        <v>0.1756</v>
+        <v>0.175616</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124951</v>
+        <v>0.125214</v>
       </c>
       <c r="C103" t="n">
-        <v>0.194847</v>
+        <v>0.174485</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1744</v>
+        <v>0.174472</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120075</v>
+        <v>0.120221</v>
       </c>
       <c r="C104" t="n">
-        <v>0.19394</v>
+        <v>0.173322</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173294</v>
+        <v>0.173308</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11517</v>
+        <v>0.115208</v>
       </c>
       <c r="C105" t="n">
-        <v>0.193011</v>
+        <v>0.172132</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172061</v>
+        <v>0.17213</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110203</v>
+        <v>0.110335</v>
       </c>
       <c r="C106" t="n">
-        <v>0.192029</v>
+        <v>0.170931</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17086</v>
+        <v>0.17085</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105361</v>
+        <v>0.105367</v>
       </c>
       <c r="C107" t="n">
-        <v>0.191296</v>
+        <v>0.169644</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169568</v>
+        <v>0.169662</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100375</v>
+        <v>0.10059</v>
       </c>
       <c r="C108" t="n">
-        <v>0.206549</v>
+        <v>0.186539</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186597</v>
+        <v>0.186553</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0954917</v>
+        <v>0.0955742</v>
       </c>
       <c r="C109" t="n">
-        <v>0.205097</v>
+        <v>0.18505</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18507</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.15958</v>
+        <v>0.159597</v>
       </c>
       <c r="C110" t="n">
-        <v>0.203662</v>
+        <v>0.183632</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183641</v>
+        <v>0.183571</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155688</v>
+        <v>0.155363</v>
       </c>
       <c r="C111" t="n">
-        <v>0.202272</v>
+        <v>0.182258</v>
       </c>
       <c r="D111" t="n">
-        <v>0.18219</v>
+        <v>0.182256</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.151039</v>
+        <v>0.150802</v>
       </c>
       <c r="C112" t="n">
-        <v>0.200857</v>
+        <v>0.180891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180863</v>
+        <v>0.180883</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146003</v>
+        <v>0.146059</v>
       </c>
       <c r="C113" t="n">
-        <v>0.19966</v>
+        <v>0.17958</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179568</v>
+        <v>0.179548</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141028</v>
+        <v>0.141098</v>
       </c>
       <c r="C114" t="n">
-        <v>0.19847</v>
+        <v>0.178395</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178455</v>
+        <v>0.178257</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136273</v>
+        <v>0.136191</v>
       </c>
       <c r="C115" t="n">
-        <v>0.197213</v>
+        <v>0.177117</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177096</v>
+        <v>0.177036</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130937</v>
+        <v>0.131111</v>
       </c>
       <c r="C116" t="n">
-        <v>0.196201</v>
+        <v>0.175928</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175923</v>
+        <v>0.175878</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.125934</v>
+        <v>0.126172</v>
       </c>
       <c r="C117" t="n">
-        <v>0.195251</v>
+        <v>0.174672</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174734</v>
+        <v>0.174709</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.120984</v>
+        <v>0.12113</v>
       </c>
       <c r="C118" t="n">
-        <v>0.194072</v>
+        <v>0.17348</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17354</v>
+        <v>0.173512</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116169</v>
+        <v>0.116145</v>
       </c>
       <c r="C119" t="n">
-        <v>0.193222</v>
+        <v>0.172349</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172371</v>
+        <v>0.172397</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111194</v>
+        <v>0.111181</v>
       </c>
       <c r="C120" t="n">
-        <v>0.192222</v>
+        <v>0.171112</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171099</v>
+        <v>0.17107</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106351</v>
+        <v>0.106339</v>
       </c>
       <c r="C121" t="n">
-        <v>0.191437</v>
+        <v>0.169962</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169924</v>
+        <v>0.16998</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101453</v>
+        <v>0.101423</v>
       </c>
       <c r="C122" t="n">
-        <v>0.190559</v>
+        <v>0.168712</v>
       </c>
       <c r="D122" t="n">
-        <v>0.168659</v>
+        <v>0.168518</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965062</v>
+        <v>0.09647269999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.205498</v>
+        <v>0.185292</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185416</v>
+        <v>0.185248</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.16994</v>
+        <v>0.188441</v>
       </c>
       <c r="C124" t="n">
-        <v>0.20395</v>
+        <v>0.185294</v>
       </c>
       <c r="D124" t="n">
-        <v>0.183889</v>
+        <v>0.186578</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.166716</v>
+        <v>0.180143</v>
       </c>
       <c r="C125" t="n">
-        <v>0.202497</v>
+        <v>0.182578</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182473</v>
+        <v>0.182703</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160855</v>
+        <v>0.15706</v>
       </c>
       <c r="C126" t="n">
-        <v>0.201095</v>
+        <v>0.181776</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181152</v>
+        <v>0.181249</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155589</v>
+        <v>0.14705</v>
       </c>
       <c r="C127" t="n">
-        <v>0.199848</v>
+        <v>0.179886</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179949</v>
+        <v>0.179837</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149874</v>
+        <v>0.142087</v>
       </c>
       <c r="C128" t="n">
-        <v>0.198725</v>
+        <v>0.178544</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178777</v>
+        <v>0.17853</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144961</v>
+        <v>0.136944</v>
       </c>
       <c r="C129" t="n">
-        <v>0.197746</v>
+        <v>0.177382</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177267</v>
+        <v>0.177368</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139257</v>
+        <v>0.132021</v>
       </c>
       <c r="C130" t="n">
-        <v>0.196447</v>
+        <v>0.176271</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176072</v>
+        <v>0.176071</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133968</v>
+        <v>0.127026</v>
       </c>
       <c r="C131" t="n">
-        <v>0.195329</v>
+        <v>0.174968</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174935</v>
+        <v>0.174902</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.129016</v>
+        <v>0.122045</v>
       </c>
       <c r="C132" t="n">
-        <v>0.194163</v>
+        <v>0.173831</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173646</v>
+        <v>0.173667</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.129633</v>
+        <v>0.117135</v>
       </c>
       <c r="C133" t="n">
-        <v>0.195101</v>
+        <v>0.172618</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173823</v>
+        <v>0.172543</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.129732</v>
+        <v>0.112227</v>
       </c>
       <c r="C134" t="n">
-        <v>0.195583</v>
+        <v>0.171434</v>
       </c>
       <c r="D134" t="n">
-        <v>0.173381</v>
+        <v>0.171477</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.121947</v>
+        <v>0.107296</v>
       </c>
       <c r="C135" t="n">
-        <v>0.191543</v>
+        <v>0.170174</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170111</v>
+        <v>0.170133</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.103478</v>
+        <v>0.102429</v>
       </c>
       <c r="C136" t="n">
-        <v>0.190793</v>
+        <v>0.169056</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168913</v>
+        <v>0.168932</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.100335</v>
+        <v>0.0976115</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242713</v>
+        <v>0.185628</v>
       </c>
       <c r="D137" t="n">
-        <v>0.201478</v>
+        <v>0.185707</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.187145</v>
+        <v>0.161146</v>
       </c>
       <c r="C138" t="n">
-        <v>0.222149</v>
+        <v>0.18424</v>
       </c>
       <c r="D138" t="n">
-        <v>0.184245</v>
+        <v>0.184203</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.164341</v>
+        <v>0.157102</v>
       </c>
       <c r="C139" t="n">
-        <v>0.209381</v>
+        <v>0.182776</v>
       </c>
       <c r="D139" t="n">
-        <v>0.187938</v>
+        <v>0.182819</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.158824</v>
+        <v>0.152529</v>
       </c>
       <c r="C140" t="n">
-        <v>0.208054</v>
+        <v>0.181476</v>
       </c>
       <c r="D140" t="n">
-        <v>0.186831</v>
+        <v>0.181399</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.153696</v>
+        <v>0.147925</v>
       </c>
       <c r="C141" t="n">
-        <v>0.207244</v>
+        <v>0.180126</v>
       </c>
       <c r="D141" t="n">
-        <v>0.185884</v>
+        <v>0.180076</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.148934</v>
+        <v>0.143076</v>
       </c>
       <c r="C142" t="n">
-        <v>0.206442</v>
+        <v>0.178899</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18538</v>
+        <v>0.178849</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.144287</v>
+        <v>0.138026</v>
       </c>
       <c r="C143" t="n">
-        <v>0.204968</v>
+        <v>0.177598</v>
       </c>
       <c r="D143" t="n">
-        <v>0.184027</v>
+        <v>0.177606</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0651186</v>
+        <v>0.065287</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160065</v>
+        <v>0.160231</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159405</v>
+        <v>0.159916</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06491</v>
+        <v>0.06519899999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.159878</v>
+        <v>0.160133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160571</v>
+        <v>0.160289</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0652199</v>
+        <v>0.0654063</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160538</v>
+        <v>0.160514</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160805</v>
+        <v>0.160491</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0648502</v>
+        <v>0.06501750000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160359</v>
+        <v>0.160526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160597</v>
+        <v>0.160175</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0649016</v>
+        <v>0.0652417</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16044</v>
+        <v>0.160517</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160668</v>
+        <v>0.160183</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651308</v>
+        <v>0.06568</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160342</v>
+        <v>0.16045</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15965</v>
+        <v>0.159731</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06574240000000001</v>
+        <v>0.065613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160289</v>
+        <v>0.160364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159672</v>
+        <v>0.16001</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06617969999999999</v>
+        <v>0.066674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168433</v>
+        <v>0.168546</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169604</v>
+        <v>0.168219</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09079429999999999</v>
+        <v>0.0891261</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169168</v>
+        <v>0.169253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16868</v>
+        <v>0.168084</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0899455</v>
+        <v>0.0891266</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168479</v>
+        <v>0.168676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.168322</v>
+        <v>0.167434</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0908101</v>
+        <v>0.0898301</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168076</v>
+        <v>0.167899</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168136</v>
+        <v>0.168433</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0904605</v>
+        <v>0.08890380000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.169342</v>
+        <v>0.167315</v>
       </c>
       <c r="D13" t="n">
-        <v>0.168114</v>
+        <v>0.167964</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08882569999999999</v>
+        <v>0.08933199999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167172</v>
+        <v>0.167196</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167442</v>
+        <v>0.16704</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0885615</v>
+        <v>0.088061</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167017</v>
+        <v>0.167001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166841</v>
+        <v>0.167107</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0883929</v>
+        <v>0.0874144</v>
       </c>
       <c r="C16" t="n">
-        <v>0.166216</v>
+        <v>0.167168</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166694</v>
+        <v>0.166641</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0883536</v>
+        <v>0.0877728</v>
       </c>
       <c r="C17" t="n">
-        <v>0.165895</v>
+        <v>0.166382</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165661</v>
+        <v>0.166036</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08931070000000001</v>
+        <v>0.0887476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.167223</v>
+        <v>0.167277</v>
       </c>
       <c r="D18" t="n">
-        <v>0.167678</v>
+        <v>0.166829</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0895418</v>
+        <v>0.0883681</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169327</v>
+        <v>0.168584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.166857</v>
+        <v>0.165393</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0866618</v>
+        <v>0.0862711</v>
       </c>
       <c r="C20" t="n">
-        <v>0.16627</v>
+        <v>0.167045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164385</v>
+        <v>0.166522</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0843214</v>
+        <v>0.08408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164547</v>
+        <v>0.166567</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163921</v>
+        <v>0.16791</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08201070000000001</v>
+        <v>0.0831447</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163137</v>
+        <v>0.166968</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162811</v>
+        <v>0.163644</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0797793</v>
+        <v>0.0821503</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179388</v>
+        <v>0.179377</v>
       </c>
       <c r="D23" t="n">
-        <v>0.180112</v>
+        <v>0.18066</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.128262</v>
+        <v>0.130133</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179556</v>
+        <v>0.179431</v>
       </c>
       <c r="D24" t="n">
-        <v>0.179338</v>
+        <v>0.183221</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.127895</v>
+        <v>0.129083</v>
       </c>
       <c r="C25" t="n">
-        <v>0.181564</v>
+        <v>0.177699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.18015</v>
+        <v>0.178955</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.127859</v>
+        <v>0.126147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.181109</v>
+        <v>0.176376</v>
       </c>
       <c r="D26" t="n">
-        <v>0.180767</v>
+        <v>0.17713</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.125603</v>
+        <v>0.124088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.174796</v>
+        <v>0.177909</v>
       </c>
       <c r="D27" t="n">
-        <v>0.175203</v>
+        <v>0.177169</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121274</v>
+        <v>0.121115</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17529</v>
+        <v>0.174826</v>
       </c>
       <c r="D28" t="n">
-        <v>0.175945</v>
+        <v>0.17559</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118557</v>
+        <v>0.118417</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173751</v>
+        <v>0.174844</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174204</v>
+        <v>0.174718</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115447</v>
+        <v>0.115952</v>
       </c>
       <c r="C30" t="n">
-        <v>0.174026</v>
+        <v>0.173537</v>
       </c>
       <c r="D30" t="n">
-        <v>0.173835</v>
+        <v>0.174687</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112727</v>
+        <v>0.112966</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172845</v>
+        <v>0.171807</v>
       </c>
       <c r="D31" t="n">
-        <v>0.171718</v>
+        <v>0.171952</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110721</v>
+        <v>0.110297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171103</v>
+        <v>0.171385</v>
       </c>
       <c r="D32" t="n">
-        <v>0.171917</v>
+        <v>0.170766</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107507</v>
+        <v>0.106728</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170896</v>
+        <v>0.170716</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170073</v>
+        <v>0.170098</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103619</v>
+        <v>0.103544</v>
       </c>
       <c r="C34" t="n">
-        <v>0.169422</v>
+        <v>0.170231</v>
       </c>
       <c r="D34" t="n">
-        <v>0.169046</v>
+        <v>0.168864</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09956139999999999</v>
+        <v>0.0987667</v>
       </c>
       <c r="C35" t="n">
-        <v>0.167924</v>
+        <v>0.168684</v>
       </c>
       <c r="D35" t="n">
-        <v>0.168227</v>
+        <v>0.167672</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09474779999999999</v>
+        <v>0.0945738</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166985</v>
+        <v>0.166796</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166737</v>
+        <v>0.166743</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0910195</v>
+        <v>0.0905765</v>
       </c>
       <c r="C37" t="n">
-        <v>0.184452</v>
+        <v>0.184233</v>
       </c>
       <c r="D37" t="n">
-        <v>0.184848</v>
+        <v>0.184043</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.151337</v>
+        <v>0.150896</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183159</v>
+        <v>0.182764</v>
       </c>
       <c r="D38" t="n">
-        <v>0.181683</v>
+        <v>0.182847</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.148314</v>
+        <v>0.147915</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181747</v>
+        <v>0.180734</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181349</v>
+        <v>0.181268</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145149</v>
+        <v>0.14617</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180549</v>
+        <v>0.180618</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180353</v>
+        <v>0.180055</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141542</v>
+        <v>0.141351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179464</v>
+        <v>0.17912</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179114</v>
+        <v>0.179016</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.137432</v>
+        <v>0.138028</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177787</v>
+        <v>0.177684</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178015</v>
+        <v>0.177685</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133797</v>
+        <v>0.133783</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176833</v>
+        <v>0.176229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176008</v>
+        <v>0.176665</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129953</v>
+        <v>0.129829</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175576</v>
+        <v>0.175539</v>
       </c>
       <c r="D44" t="n">
-        <v>0.17559</v>
+        <v>0.174908</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125343</v>
+        <v>0.125487</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17449</v>
+        <v>0.17461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174312</v>
+        <v>0.174121</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.120794</v>
+        <v>0.121112</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173381</v>
+        <v>0.172818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173029</v>
+        <v>0.173091</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116661</v>
+        <v>0.116796</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172509</v>
+        <v>0.172366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172401</v>
+        <v>0.171906</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11185</v>
+        <v>0.112148</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171271</v>
+        <v>0.171216</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171008</v>
+        <v>0.171058</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107205</v>
+        <v>0.107724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1703</v>
+        <v>0.170014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169987</v>
+        <v>0.169859</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102937</v>
+        <v>0.10289</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168919</v>
+        <v>0.168835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168942</v>
+        <v>0.168751</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0974853</v>
+        <v>0.09756099999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185942</v>
+        <v>0.186416</v>
       </c>
       <c r="D51" t="n">
-        <v>0.185844</v>
+        <v>0.18572</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0926078</v>
+        <v>0.0924861</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184289</v>
+        <v>0.184512</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184402</v>
+        <v>0.184294</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156397</v>
+        <v>0.156552</v>
       </c>
       <c r="C53" t="n">
-        <v>0.18314</v>
+        <v>0.183089</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182828</v>
+        <v>0.182943</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152806</v>
+        <v>0.152936</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181699</v>
+        <v>0.181633</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181522</v>
+        <v>0.18136</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14861</v>
+        <v>0.14872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180377</v>
+        <v>0.180481</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180118</v>
+        <v>0.180261</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.14452</v>
+        <v>0.144329</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179202</v>
+        <v>0.179156</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178802</v>
+        <v>0.178882</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.139844</v>
+        <v>0.13979</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178029</v>
+        <v>0.177907</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17766</v>
+        <v>0.177679</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135048</v>
+        <v>0.135136</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176681</v>
+        <v>0.177196</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176465</v>
+        <v>0.176358</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130315</v>
+        <v>0.130206</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175639</v>
+        <v>0.175645</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175469</v>
+        <v>0.175407</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125373</v>
+        <v>0.125356</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174418</v>
+        <v>0.174351</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174451</v>
+        <v>0.174253</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120527</v>
+        <v>0.120724</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173579</v>
+        <v>0.173189</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173216</v>
+        <v>0.173266</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115755</v>
+        <v>0.115946</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172296</v>
+        <v>0.172073</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172044</v>
+        <v>0.171852</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110806</v>
+        <v>0.110857</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171256</v>
+        <v>0.170912</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171009</v>
+        <v>0.171085</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10619</v>
+        <v>0.106235</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169699</v>
+        <v>0.169857</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169754</v>
+        <v>0.169681</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101351</v>
+        <v>0.101461</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168555</v>
+        <v>0.168635</v>
       </c>
       <c r="D65" t="n">
-        <v>0.16843</v>
+        <v>0.168552</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0964401</v>
+        <v>0.0965411</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185461</v>
+        <v>0.185316</v>
       </c>
       <c r="D66" t="n">
-        <v>0.18529</v>
+        <v>0.185117</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160859</v>
+        <v>0.160201</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184249</v>
+        <v>0.184019</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183791</v>
+        <v>0.183725</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156716</v>
+        <v>0.156251</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182727</v>
+        <v>0.182763</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18221</v>
+        <v>0.182232</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152284</v>
+        <v>0.151943</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181556</v>
+        <v>0.181232</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18101</v>
+        <v>0.18088</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147636</v>
+        <v>0.147103</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180265</v>
+        <v>0.179713</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179775</v>
+        <v>0.179507</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143119</v>
+        <v>0.142395</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178908</v>
+        <v>0.178576</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178481</v>
+        <v>0.178442</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138071</v>
+        <v>0.137929</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177525</v>
+        <v>0.177657</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177328</v>
+        <v>0.177497</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133052</v>
+        <v>0.133294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176269</v>
+        <v>0.17657</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176102</v>
+        <v>0.176629</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128218</v>
+        <v>0.128599</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175105</v>
+        <v>0.179601</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174911</v>
+        <v>0.179217</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123821</v>
+        <v>0.125932</v>
       </c>
       <c r="C75" t="n">
-        <v>0.175471</v>
+        <v>0.174411</v>
       </c>
       <c r="D75" t="n">
-        <v>0.175918</v>
+        <v>0.173867</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1207</v>
+        <v>0.118062</v>
       </c>
       <c r="C76" t="n">
-        <v>0.176431</v>
+        <v>0.172992</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17632</v>
+        <v>0.172751</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115727</v>
+        <v>0.113379</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1753</v>
+        <v>0.171966</v>
       </c>
       <c r="D77" t="n">
-        <v>0.174489</v>
+        <v>0.171588</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110409</v>
+        <v>0.108337</v>
       </c>
       <c r="C78" t="n">
-        <v>0.174571</v>
+        <v>0.170626</v>
       </c>
       <c r="D78" t="n">
-        <v>0.172656</v>
+        <v>0.170429</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.106404</v>
+        <v>0.103371</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174941</v>
+        <v>0.169514</v>
       </c>
       <c r="D79" t="n">
-        <v>0.174786</v>
+        <v>0.169061</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.101093</v>
+        <v>0.0987992</v>
       </c>
       <c r="C80" t="n">
-        <v>0.18623</v>
+        <v>0.186144</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185704</v>
+        <v>0.185773</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.162012</v>
+        <v>0.161233</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184703</v>
+        <v>0.184552</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184262</v>
+        <v>0.1842</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157463</v>
+        <v>0.157356</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183254</v>
+        <v>0.183175</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182892</v>
+        <v>0.182778</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153114</v>
+        <v>0.153163</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181823</v>
+        <v>0.181827</v>
       </c>
       <c r="D83" t="n">
-        <v>0.18147</v>
+        <v>0.181327</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148654</v>
+        <v>0.148673</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180624</v>
+        <v>0.180555</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180206</v>
+        <v>0.180115</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143943</v>
+        <v>0.143758</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1794</v>
+        <v>0.179244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.17888</v>
+        <v>0.178813</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138987</v>
+        <v>0.138953</v>
       </c>
       <c r="C86" t="n">
-        <v>0.178142</v>
+        <v>0.17796</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177695</v>
+        <v>0.177627</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133964</v>
+        <v>0.13414</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177065</v>
+        <v>0.176775</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176568</v>
+        <v>0.176418</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129036</v>
+        <v>0.129098</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175934</v>
+        <v>0.175692</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175299</v>
+        <v>0.175306</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123958</v>
+        <v>0.124132</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174786</v>
+        <v>0.17457</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174125</v>
+        <v>0.174117</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119092</v>
+        <v>0.119272</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173501</v>
+        <v>0.173366</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17297</v>
+        <v>0.172924</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114081</v>
+        <v>0.114229</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172342</v>
+        <v>0.172212</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171909</v>
+        <v>0.171837</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109142</v>
+        <v>0.109308</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171278</v>
+        <v>0.171105</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170677</v>
+        <v>0.170641</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104264</v>
+        <v>0.104303</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170108</v>
+        <v>0.169875</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169388</v>
+        <v>0.169353</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993073</v>
+        <v>0.0993248</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186417</v>
+        <v>0.18626</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186211</v>
+        <v>0.186213</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162652</v>
+        <v>0.162739</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184876</v>
+        <v>0.184922</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184779</v>
+        <v>0.184711</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158678</v>
+        <v>0.158671</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183374</v>
+        <v>0.183399</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183353</v>
+        <v>0.183326</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15444</v>
+        <v>0.154445</v>
       </c>
       <c r="C97" t="n">
-        <v>0.182026</v>
+        <v>0.181966</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182001</v>
+        <v>0.181994</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149871</v>
+        <v>0.149886</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180684</v>
+        <v>0.180688</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180638</v>
+        <v>0.180602</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14502</v>
+        <v>0.14506</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179369</v>
+        <v>0.179342</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179337</v>
+        <v>0.179373</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140143</v>
+        <v>0.140149</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178063</v>
+        <v>0.178104</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178059</v>
+        <v>0.178057</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135157</v>
+        <v>0.135171</v>
       </c>
       <c r="C101" t="n">
-        <v>0.17682</v>
+        <v>0.176811</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176836</v>
+        <v>0.176869</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130171</v>
+        <v>0.130163</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175622</v>
+        <v>0.175618</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175616</v>
+        <v>0.175598</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125214</v>
+        <v>0.125182</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174485</v>
+        <v>0.174562</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174472</v>
+        <v>0.174432</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120221</v>
+        <v>0.120363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173322</v>
+        <v>0.173368</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173308</v>
+        <v>0.173265</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115208</v>
+        <v>0.115323</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172132</v>
+        <v>0.172083</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17213</v>
+        <v>0.172038</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110335</v>
+        <v>0.110283</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170931</v>
+        <v>0.170951</v>
       </c>
       <c r="D106" t="n">
-        <v>0.17085</v>
+        <v>0.170943</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105367</v>
+        <v>0.105456</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169644</v>
+        <v>0.169648</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169662</v>
+        <v>0.16959</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.10059</v>
+        <v>0.100451</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186539</v>
+        <v>0.186637</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186553</v>
+        <v>0.186649</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955742</v>
+        <v>0.0955202</v>
       </c>
       <c r="C109" t="n">
-        <v>0.18505</v>
+        <v>0.185094</v>
       </c>
       <c r="D109" t="n">
-        <v>0.185</v>
+        <v>0.18509</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159597</v>
+        <v>0.159499</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183632</v>
+        <v>0.183613</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183571</v>
+        <v>0.183617</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155363</v>
+        <v>0.155347</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182258</v>
+        <v>0.182281</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182256</v>
+        <v>0.182178</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150802</v>
+        <v>0.150738</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180891</v>
+        <v>0.180907</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180883</v>
+        <v>0.180834</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146059</v>
+        <v>0.14609</v>
       </c>
       <c r="C113" t="n">
-        <v>0.17958</v>
+        <v>0.179599</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179548</v>
+        <v>0.179558</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141098</v>
+        <v>0.141121</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178395</v>
+        <v>0.178313</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178257</v>
+        <v>0.178323</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136191</v>
+        <v>0.136107</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177117</v>
+        <v>0.177099</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177036</v>
+        <v>0.177099</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131111</v>
+        <v>0.131068</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175928</v>
+        <v>0.175952</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175878</v>
+        <v>0.175854</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126172</v>
+        <v>0.126068</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174672</v>
+        <v>0.174785</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174709</v>
+        <v>0.174621</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12113</v>
+        <v>0.121103</v>
       </c>
       <c r="C118" t="n">
-        <v>0.17348</v>
+        <v>0.173551</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173512</v>
+        <v>0.17349</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116145</v>
+        <v>0.116157</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172349</v>
+        <v>0.172307</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172397</v>
+        <v>0.172168</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111181</v>
+        <v>0.11112</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171112</v>
+        <v>0.171211</v>
       </c>
       <c r="D120" t="n">
-        <v>0.17107</v>
+        <v>0.171094</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106339</v>
+        <v>0.107511</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169962</v>
+        <v>0.172588</v>
       </c>
       <c r="D121" t="n">
-        <v>0.16998</v>
+        <v>0.172898</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101423</v>
+        <v>0.102945</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168712</v>
+        <v>0.171976</v>
       </c>
       <c r="D122" t="n">
-        <v>0.168518</v>
+        <v>0.172649</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09647269999999999</v>
+        <v>0.0987976</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185292</v>
+        <v>0.190281</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185248</v>
+        <v>0.189628</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.188441</v>
+        <v>0.19386</v>
       </c>
       <c r="C124" t="n">
-        <v>0.185294</v>
+        <v>0.184104</v>
       </c>
       <c r="D124" t="n">
-        <v>0.186578</v>
+        <v>0.18404</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.180143</v>
+        <v>0.162086</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182578</v>
+        <v>0.182577</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182703</v>
+        <v>0.182523</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.15706</v>
+        <v>0.151669</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181776</v>
+        <v>0.181233</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181249</v>
+        <v>0.181188</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.14705</v>
+        <v>0.146887</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179886</v>
+        <v>0.179828</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179837</v>
+        <v>0.179808</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142087</v>
+        <v>0.142076</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178544</v>
+        <v>0.178561</v>
       </c>
       <c r="D128" t="n">
-        <v>0.17853</v>
+        <v>0.178614</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.136944</v>
+        <v>0.137086</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177382</v>
+        <v>0.177397</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177368</v>
+        <v>0.177342</v>
       </c>
     </row>
     <row r="130">
@@ -5042,10 +5042,10 @@
         <v>0.132021</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176271</v>
+        <v>0.176146</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176071</v>
+        <v>0.176093</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127026</v>
+        <v>0.127012</v>
       </c>
       <c r="C131" t="n">
         <v>0.174968</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174902</v>
+        <v>0.174981</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122045</v>
+        <v>0.122017</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173831</v>
+        <v>0.173762</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173667</v>
+        <v>0.173658</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117135</v>
+        <v>0.117074</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172618</v>
+        <v>0.172626</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172543</v>
+        <v>0.172534</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112227</v>
+        <v>0.112202</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171434</v>
+        <v>0.171442</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171477</v>
+        <v>0.171395</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107296</v>
+        <v>0.107327</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170174</v>
+        <v>0.170201</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170133</v>
+        <v>0.170153</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102429</v>
+        <v>0.102479</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169056</v>
+        <v>0.168889</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168932</v>
+        <v>0.168901</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0976115</v>
+        <v>0.0974521</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185628</v>
+        <v>0.185724</v>
       </c>
       <c r="D137" t="n">
-        <v>0.185707</v>
+        <v>0.185705</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161146</v>
+        <v>0.161134</v>
       </c>
       <c r="C138" t="n">
-        <v>0.18424</v>
+        <v>0.184198</v>
       </c>
       <c r="D138" t="n">
-        <v>0.184203</v>
+        <v>0.184227</v>
       </c>
     </row>
     <row r="139">
@@ -5168,10 +5168,10 @@
         <v>0.157102</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182776</v>
+        <v>0.182797</v>
       </c>
       <c r="D139" t="n">
-        <v>0.182819</v>
+        <v>0.18275</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152529</v>
+        <v>0.152658</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181476</v>
+        <v>0.181445</v>
       </c>
       <c r="D140" t="n">
-        <v>0.181399</v>
+        <v>0.18152</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.147925</v>
+        <v>0.148011</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180126</v>
+        <v>0.180139</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180076</v>
+        <v>0.180108</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143076</v>
+        <v>0.143024</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178899</v>
+        <v>0.178816</v>
       </c>
       <c r="D142" t="n">
-        <v>0.178849</v>
+        <v>0.178862</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138026</v>
+        <v>0.138106</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177598</v>
+        <v>0.17766</v>
       </c>
       <c r="D143" t="n">
-        <v>0.177606</v>
+        <v>0.177571</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.065287</v>
+        <v>0.06514209999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160231</v>
+        <v>0.160547</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159916</v>
+        <v>0.279168</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06519899999999999</v>
+        <v>0.0646888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160133</v>
+        <v>0.15973</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160289</v>
+        <v>0.281786</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0654063</v>
+        <v>0.0647631</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160514</v>
+        <v>0.160588</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160491</v>
+        <v>0.283512</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06501750000000001</v>
+        <v>0.064111</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160526</v>
+        <v>0.160445</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160175</v>
+        <v>0.28496</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652417</v>
+        <v>0.06420380000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160517</v>
+        <v>0.160192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160183</v>
+        <v>0.285631</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06568</v>
+        <v>0.06460630000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16045</v>
+        <v>0.160213</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159731</v>
+        <v>0.274944</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065613</v>
+        <v>0.065148</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160364</v>
+        <v>0.160092</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16001</v>
+        <v>0.275954</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.066674</v>
+        <v>0.065887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168546</v>
+        <v>0.168084</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168219</v>
+        <v>0.274606</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0891261</v>
+        <v>0.0887059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169253</v>
+        <v>0.167852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168084</v>
+        <v>0.278916</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0891266</v>
+        <v>0.0899031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168676</v>
+        <v>0.168048</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167434</v>
+        <v>0.281139</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0898301</v>
+        <v>0.0896067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.167899</v>
+        <v>0.168336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168433</v>
+        <v>0.281362</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08890380000000001</v>
+        <v>0.0881233</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167315</v>
+        <v>0.167812</v>
       </c>
       <c r="D13" t="n">
-        <v>0.167964</v>
+        <v>0.283914</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08933199999999999</v>
+        <v>0.0885856</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167196</v>
+        <v>0.167109</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16704</v>
+        <v>0.286102</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.088061</v>
+        <v>0.0878598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167001</v>
+        <v>0.16623</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167107</v>
+        <v>0.287227</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0874144</v>
+        <v>0.0890312</v>
       </c>
       <c r="C16" t="n">
-        <v>0.167168</v>
+        <v>0.166871</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166641</v>
+        <v>0.288543</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0877728</v>
+        <v>0.0888992</v>
       </c>
       <c r="C17" t="n">
-        <v>0.166382</v>
+        <v>0.166478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.166036</v>
+        <v>0.288696</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0887476</v>
+        <v>0.0874554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.167277</v>
+        <v>0.165707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.166829</v>
+        <v>0.290398</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0883681</v>
+        <v>0.0861986</v>
       </c>
       <c r="C19" t="n">
-        <v>0.168584</v>
+        <v>0.165031</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165393</v>
+        <v>0.290918</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0862711</v>
+        <v>0.08517719999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167045</v>
+        <v>0.1649</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166522</v>
+        <v>0.294304</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08408</v>
+        <v>0.0834608</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166567</v>
+        <v>0.164776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16791</v>
+        <v>0.281251</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0831447</v>
+        <v>0.0819814</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166968</v>
+        <v>0.163625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163644</v>
+        <v>0.281687</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0821503</v>
+        <v>0.080834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179377</v>
+        <v>0.178868</v>
       </c>
       <c r="D23" t="n">
-        <v>0.18066</v>
+        <v>0.285584</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.130133</v>
+        <v>0.131692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179431</v>
+        <v>0.179678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183221</v>
+        <v>0.288282</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129083</v>
+        <v>0.129644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177699</v>
+        <v>0.178316</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178955</v>
+        <v>0.293925</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.126147</v>
+        <v>0.131203</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176376</v>
+        <v>0.179476</v>
       </c>
       <c r="D26" t="n">
-        <v>0.17713</v>
+        <v>0.28808</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124088</v>
+        <v>0.124779</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177909</v>
+        <v>0.17654</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177169</v>
+        <v>0.287253</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121115</v>
+        <v>0.122183</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174826</v>
+        <v>0.17461</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17559</v>
+        <v>0.288906</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118417</v>
+        <v>0.120451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174844</v>
+        <v>0.173279</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174718</v>
+        <v>0.291093</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115952</v>
+        <v>0.117679</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173537</v>
+        <v>0.173751</v>
       </c>
       <c r="D30" t="n">
-        <v>0.174687</v>
+        <v>0.292102</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112966</v>
+        <v>0.114215</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171807</v>
+        <v>0.170825</v>
       </c>
       <c r="D31" t="n">
-        <v>0.171952</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110297</v>
+        <v>0.111054</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171385</v>
+        <v>0.170453</v>
       </c>
       <c r="D32" t="n">
-        <v>0.170766</v>
+        <v>0.29395</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106728</v>
+        <v>0.107336</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170716</v>
+        <v>0.169678</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170098</v>
+        <v>0.296171</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103544</v>
+        <v>0.102908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170231</v>
+        <v>0.168909</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168864</v>
+        <v>0.296375</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0987667</v>
+        <v>0.0980835</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168684</v>
+        <v>0.1673</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167672</v>
+        <v>0.284355</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0945738</v>
+        <v>0.0948746</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166796</v>
+        <v>0.166577</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166743</v>
+        <v>0.284807</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0905765</v>
+        <v>0.0908819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.184233</v>
+        <v>0.182873</v>
       </c>
       <c r="D37" t="n">
-        <v>0.184043</v>
+        <v>0.286368</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150896</v>
+        <v>0.152468</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182764</v>
+        <v>0.182937</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182847</v>
+        <v>0.286301</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147915</v>
+        <v>0.149102</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180734</v>
+        <v>0.181548</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181268</v>
+        <v>0.287581</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14617</v>
+        <v>0.145484</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180618</v>
+        <v>0.180155</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180055</v>
+        <v>0.289046</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141351</v>
+        <v>0.142152</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17912</v>
+        <v>0.178188</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179016</v>
+        <v>0.289677</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138028</v>
+        <v>0.138137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177684</v>
+        <v>0.178144</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177685</v>
+        <v>0.29157</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133783</v>
+        <v>0.134765</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176229</v>
+        <v>0.176424</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176665</v>
+        <v>0.292293</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129829</v>
+        <v>0.130662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175539</v>
+        <v>0.174992</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174908</v>
+        <v>0.294612</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125487</v>
+        <v>0.125975</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17461</v>
+        <v>0.174189</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174121</v>
+        <v>0.294556</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121112</v>
+        <v>0.121565</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172818</v>
+        <v>0.173002</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173091</v>
+        <v>0.295616</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116796</v>
+        <v>0.117221</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172366</v>
+        <v>0.17202</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171906</v>
+        <v>0.29718</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112148</v>
+        <v>0.112501</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171216</v>
+        <v>0.170973</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171058</v>
+        <v>0.297434</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107724</v>
+        <v>0.107345</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170014</v>
+        <v>0.170013</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169859</v>
+        <v>0.299725</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10289</v>
+        <v>0.102426</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168835</v>
+        <v>0.169078</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168751</v>
+        <v>0.286811</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09756099999999999</v>
+        <v>0.0976356</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186416</v>
+        <v>0.185746</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18572</v>
+        <v>0.288448</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0924861</v>
+        <v>0.0924672</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184512</v>
+        <v>0.184696</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184294</v>
+        <v>0.288918</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156552</v>
+        <v>0.15662</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183089</v>
+        <v>0.182971</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182943</v>
+        <v>0.290886</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152936</v>
+        <v>0.153117</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181633</v>
+        <v>0.181617</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18136</v>
+        <v>0.29162</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14872</v>
+        <v>0.149105</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180481</v>
+        <v>0.180312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180261</v>
+        <v>0.292324</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144329</v>
+        <v>0.144688</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179156</v>
+        <v>0.178947</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178882</v>
+        <v>0.2942</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13979</v>
+        <v>0.140245</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177907</v>
+        <v>0.17791</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177679</v>
+        <v>0.294805</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135136</v>
+        <v>0.135367</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177196</v>
+        <v>0.176813</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176358</v>
+        <v>0.29628</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130206</v>
+        <v>0.130521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175645</v>
+        <v>0.175509</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175407</v>
+        <v>0.297725</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125356</v>
+        <v>0.12587</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174351</v>
+        <v>0.174262</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174253</v>
+        <v>0.29819</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120724</v>
+        <v>0.120977</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173189</v>
+        <v>0.173234</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173266</v>
+        <v>0.300805</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115946</v>
+        <v>0.116081</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172073</v>
+        <v>0.172265</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171852</v>
+        <v>0.300675</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110857</v>
+        <v>0.111088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170912</v>
+        <v>0.170923</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171085</v>
+        <v>0.303057</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106235</v>
+        <v>0.106201</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169857</v>
+        <v>0.169855</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169681</v>
+        <v>0.293829</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101461</v>
+        <v>0.101215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168635</v>
+        <v>0.168538</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168552</v>
+        <v>0.297261</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965411</v>
+        <v>0.0972933</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185316</v>
+        <v>0.187522</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185117</v>
+        <v>0.313275</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160201</v>
+        <v>0.163331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184019</v>
+        <v>0.18675</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183725</v>
+        <v>0.318938</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156251</v>
+        <v>0.159673</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182763</v>
+        <v>0.186339</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182232</v>
+        <v>0.339623</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151943</v>
+        <v>0.156736</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181232</v>
+        <v>0.186911</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18088</v>
+        <v>0.303013</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147103</v>
+        <v>0.14762</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179713</v>
+        <v>0.180146</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179507</v>
+        <v>0.305083</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142395</v>
+        <v>0.143127</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178576</v>
+        <v>0.178878</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178442</v>
+        <v>0.306569</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137929</v>
+        <v>0.138317</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177657</v>
+        <v>0.177773</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177497</v>
+        <v>0.308859</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133294</v>
+        <v>0.1333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17657</v>
+        <v>0.176452</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176629</v>
+        <v>0.311401</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128599</v>
+        <v>0.128451</v>
       </c>
       <c r="C74" t="n">
-        <v>0.179601</v>
+        <v>0.175288</v>
       </c>
       <c r="D74" t="n">
-        <v>0.179217</v>
+        <v>0.322085</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125932</v>
+        <v>0.123598</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174411</v>
+        <v>0.174134</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173867</v>
+        <v>0.321141</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118062</v>
+        <v>0.118686</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172992</v>
+        <v>0.173057</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172751</v>
+        <v>0.321192</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113379</v>
+        <v>0.11356</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171966</v>
+        <v>0.171904</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171588</v>
+        <v>0.320741</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108337</v>
+        <v>0.108773</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170626</v>
+        <v>0.170816</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170429</v>
+        <v>0.313758</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103371</v>
+        <v>0.103816</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169514</v>
+        <v>0.169596</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169061</v>
+        <v>0.313304</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0987992</v>
+        <v>0.0990196</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186144</v>
+        <v>0.186275</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185773</v>
+        <v>0.313135</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161233</v>
+        <v>0.161203</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184552</v>
+        <v>0.184867</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1842</v>
+        <v>0.31294</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157356</v>
+        <v>0.157427</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183175</v>
+        <v>0.183395</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182778</v>
+        <v>0.31279</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153163</v>
+        <v>0.153291</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181827</v>
+        <v>0.181873</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181327</v>
+        <v>0.320675</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148673</v>
+        <v>0.148637</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180555</v>
+        <v>0.180652</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180115</v>
+        <v>0.319912</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143758</v>
+        <v>0.143993</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179244</v>
+        <v>0.179425</v>
       </c>
       <c r="D85" t="n">
-        <v>0.178813</v>
+        <v>0.320792</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138953</v>
+        <v>0.139036</v>
       </c>
       <c r="C86" t="n">
-        <v>0.17796</v>
+        <v>0.178242</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177627</v>
+        <v>0.321485</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13414</v>
+        <v>0.134011</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176775</v>
+        <v>0.177184</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176418</v>
+        <v>0.321351</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129098</v>
+        <v>0.129041</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175692</v>
+        <v>0.175864</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175306</v>
+        <v>0.325599</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124132</v>
+        <v>0.124071</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17457</v>
+        <v>0.174882</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174117</v>
+        <v>0.334543</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119272</v>
+        <v>0.119132</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173366</v>
+        <v>0.173752</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172924</v>
+        <v>0.333373</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114229</v>
+        <v>0.114314</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172212</v>
+        <v>0.1725</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171837</v>
+        <v>0.332218</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109308</v>
+        <v>0.109231</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171105</v>
+        <v>0.171347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170641</v>
+        <v>0.302307</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104303</v>
+        <v>0.104396</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169875</v>
+        <v>0.170199</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169353</v>
+        <v>0.308574</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993248</v>
+        <v>0.0994418</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18626</v>
+        <v>0.186323</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186213</v>
+        <v>0.308391</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162739</v>
+        <v>0.162412</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184922</v>
+        <v>0.184726</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184711</v>
+        <v>0.308094</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158671</v>
+        <v>0.158677</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183399</v>
+        <v>0.183371</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183326</v>
+        <v>0.308255</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154445</v>
+        <v>0.154426</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181966</v>
+        <v>0.181997</v>
       </c>
       <c r="D97" t="n">
-        <v>0.181994</v>
+        <v>0.315231</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149886</v>
+        <v>0.149842</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180688</v>
+        <v>0.180644</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180602</v>
+        <v>0.315597</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14506</v>
+        <v>0.144781</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179342</v>
+        <v>0.179187</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179373</v>
+        <v>0.315973</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140149</v>
+        <v>0.141629</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178104</v>
+        <v>0.180805</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178057</v>
+        <v>0.33104</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135171</v>
+        <v>0.13847</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176811</v>
+        <v>0.18046</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176869</v>
+        <v>0.333239</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130163</v>
+        <v>0.133091</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175618</v>
+        <v>0.179176</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175598</v>
+        <v>0.332252</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125182</v>
+        <v>0.127714</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174562</v>
+        <v>0.178397</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174432</v>
+        <v>0.338597</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120363</v>
+        <v>0.124488</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173368</v>
+        <v>0.179759</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173265</v>
+        <v>0.348329</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115323</v>
+        <v>0.115669</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172083</v>
+        <v>0.172124</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172038</v>
+        <v>0.330354</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110283</v>
+        <v>0.110413</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170951</v>
+        <v>0.170854</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170943</v>
+        <v>0.329578</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105456</v>
+        <v>0.105489</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169648</v>
+        <v>0.16969</v>
       </c>
       <c r="D107" t="n">
-        <v>0.16959</v>
+        <v>0.309496</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100451</v>
+        <v>0.100512</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186637</v>
+        <v>0.186605</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186649</v>
+        <v>0.309787</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955202</v>
+        <v>0.0956983</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185094</v>
+        <v>0.185136</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18509</v>
+        <v>0.313472</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159499</v>
+        <v>0.159396</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183613</v>
+        <v>0.18361</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183617</v>
+        <v>0.312655</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155347</v>
+        <v>0.155243</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182281</v>
+        <v>0.182228</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182178</v>
+        <v>0.315875</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150738</v>
+        <v>0.150783</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180907</v>
+        <v>0.180855</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180834</v>
+        <v>0.315474</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14609</v>
+        <v>0.146049</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179599</v>
+        <v>0.179611</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179558</v>
+        <v>0.319134</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141121</v>
+        <v>0.141094</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178313</v>
+        <v>0.17834</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178323</v>
+        <v>0.323312</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136107</v>
+        <v>0.136194</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177099</v>
+        <v>0.177104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177099</v>
+        <v>0.323677</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131068</v>
+        <v>0.131178</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175952</v>
+        <v>0.175923</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175854</v>
+        <v>0.326275</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126068</v>
+        <v>0.126183</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174785</v>
+        <v>0.17472</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174621</v>
+        <v>0.329586</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121103</v>
+        <v>0.121141</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173551</v>
+        <v>0.173557</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17349</v>
+        <v>0.330913</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116157</v>
+        <v>0.116219</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172307</v>
+        <v>0.172486</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172168</v>
+        <v>0.331416</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11112</v>
+        <v>0.111305</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171211</v>
+        <v>0.171126</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171094</v>
+        <v>0.32976</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.107511</v>
+        <v>0.106494</v>
       </c>
       <c r="C121" t="n">
-        <v>0.172588</v>
+        <v>0.169954</v>
       </c>
       <c r="D121" t="n">
-        <v>0.172898</v>
+        <v>0.310192</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102945</v>
+        <v>0.101612</v>
       </c>
       <c r="C122" t="n">
-        <v>0.171976</v>
+        <v>0.168715</v>
       </c>
       <c r="D122" t="n">
-        <v>0.172649</v>
+        <v>0.312781</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0987976</v>
+        <v>0.0967018</v>
       </c>
       <c r="C123" t="n">
-        <v>0.190281</v>
+        <v>0.185407</v>
       </c>
       <c r="D123" t="n">
-        <v>0.189628</v>
+        <v>0.314642</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.19386</v>
+        <v>0.169744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184104</v>
+        <v>0.184197</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18404</v>
+        <v>0.317251</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.162086</v>
+        <v>0.165135</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182577</v>
+        <v>0.182592</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182523</v>
+        <v>0.318172</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151669</v>
+        <v>0.160388</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181233</v>
+        <v>0.181172</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181188</v>
+        <v>0.319593</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146887</v>
+        <v>0.155819</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179828</v>
+        <v>0.179824</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179808</v>
+        <v>0.321859</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142076</v>
+        <v>0.164654</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178561</v>
+        <v>0.181327</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178614</v>
+        <v>0.334552</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.137086</v>
+        <v>0.155278</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177397</v>
+        <v>0.184076</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177342</v>
+        <v>0.349017</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.132021</v>
+        <v>0.132116</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176146</v>
+        <v>0.176121</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176093</v>
+        <v>0.330436</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127012</v>
+        <v>0.127121</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174968</v>
+        <v>0.175</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174981</v>
+        <v>0.331659</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122017</v>
+        <v>0.122251</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173762</v>
+        <v>0.173795</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173658</v>
+        <v>0.333584</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117074</v>
+        <v>0.117233</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172626</v>
+        <v>0.172613</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172534</v>
+        <v>0.33289</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112202</v>
+        <v>0.112327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171442</v>
+        <v>0.171437</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171395</v>
+        <v>0.333662</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107327</v>
+        <v>0.107307</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170201</v>
+        <v>0.170207</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170153</v>
+        <v>0.311584</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102479</v>
+        <v>0.102502</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168889</v>
+        <v>0.168897</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168901</v>
+        <v>0.314202</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0974521</v>
+        <v>0.0975835</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185724</v>
+        <v>0.185757</v>
       </c>
       <c r="D137" t="n">
-        <v>0.185705</v>
+        <v>0.316001</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161134</v>
+        <v>0.161148</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184198</v>
+        <v>0.184278</v>
       </c>
       <c r="D138" t="n">
-        <v>0.184227</v>
+        <v>0.317938</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157102</v>
+        <v>0.15778</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182797</v>
+        <v>0.182785</v>
       </c>
       <c r="D139" t="n">
-        <v>0.18275</v>
+        <v>0.318881</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152658</v>
+        <v>0.154339</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181445</v>
+        <v>0.182179</v>
       </c>
       <c r="D140" t="n">
-        <v>0.18152</v>
+        <v>0.320274</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148011</v>
+        <v>0.151117</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180139</v>
+        <v>0.182545</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180108</v>
+        <v>0.322765</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143024</v>
+        <v>0.146988</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178816</v>
+        <v>0.181802</v>
       </c>
       <c r="D142" t="n">
-        <v>0.178862</v>
+        <v>0.325335</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138106</v>
+        <v>0.14255</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17766</v>
+        <v>0.181858</v>
       </c>
       <c r="D143" t="n">
-        <v>0.177571</v>
+        <v>0.328026</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0758843</v>
+                  <v>0.06514209999999999</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0735374</v>
+                  <v>0.0646888</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0747241</v>
+                  <v>0.0647631</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0728557</v>
+                  <v>0.064111</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0725507</v>
+                  <v>0.06420380000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0714322</v>
+                  <v>0.06460630000000001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0708246</v>
+                  <v>0.065148</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0693053</v>
+                  <v>0.065887</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.124614</v>
+                  <v>0.0887059</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.123047</v>
+                  <v>0.0899031</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.122218</v>
+                  <v>0.0896067</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.118435</v>
+                  <v>0.0881233</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.116689</v>
+                  <v>0.0885856</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.115717</v>
+                  <v>0.0878598</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.109993</v>
+                  <v>0.0890312</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.107112</v>
+                  <v>0.0888992</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.105066</v>
+                  <v>0.0874554</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09945279999999999</v>
+                  <v>0.0861986</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.096415</v>
+                  <v>0.08517719999999999</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.095169</v>
+                  <v>0.0834608</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0909674</v>
+                  <v>0.0819814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0868884</v>
+                  <v>0.080834</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.151432</v>
+                  <v>0.131692</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.147713</v>
+                  <v>0.129644</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.144473</v>
+                  <v>0.131203</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.139768</v>
+                  <v>0.124779</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.136365</v>
+                  <v>0.122183</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.132397</v>
+                  <v>0.120451</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.128003</v>
+                  <v>0.117679</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.123668</v>
+                  <v>0.114215</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.11902</v>
+                  <v>0.111054</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114459</v>
+                  <v>0.107336</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.110177</v>
+                  <v>0.102908</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.105099</v>
+                  <v>0.0980835</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100138</v>
+                  <v>0.0948746</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0948865</v>
+                  <v>0.0908819</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.159129</v>
+                  <v>0.152468</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.155682</v>
+                  <v>0.149102</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.151681</v>
+                  <v>0.145484</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.147442</v>
+                  <v>0.142152</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.142735</v>
+                  <v>0.138137</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.138002</v>
+                  <v>0.134765</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.13371</v>
+                  <v>0.130662</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.128795</v>
+                  <v>0.125975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.124254</v>
+                  <v>0.121565</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.119526</v>
+                  <v>0.117221</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.114363</v>
+                  <v>0.112501</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109704</v>
+                  <v>0.107345</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.104862</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.09999089999999999</v>
+                  <v>0.0976356</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0946162</v>
+                  <v>0.0924672</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.15835</v>
+                  <v>0.15662</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.15497</v>
+                  <v>0.153117</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.150224</v>
+                  <v>0.149105</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.146313</v>
+                  <v>0.144688</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.141574</v>
+                  <v>0.140245</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.136479</v>
+                  <v>0.135367</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.131705</v>
+                  <v>0.130521</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.126692</v>
+                  <v>0.12587</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.121648</v>
+                  <v>0.120977</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.117033</v>
+                  <v>0.116081</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.11206</v>
+                  <v>0.111088</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.106931</v>
+                  <v>0.106201</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.102032</v>
+                  <v>0.101215</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09696100000000001</v>
+                  <v>0.0972933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.160578</v>
+                  <v>0.163331</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.156625</v>
+                  <v>0.159673</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.152507</v>
+                  <v>0.156736</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.147923</v>
+                  <v>0.14762</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.143473</v>
+                  <v>0.143127</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.13856</v>
+                  <v>0.138317</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.133469</v>
+                  <v>0.1333</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128556</v>
+                  <v>0.128451</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.12351</v>
+                  <v>0.123598</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.118643</v>
+                  <v>0.118686</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.113741</v>
+                  <v>0.11356</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.108914</v>
+                  <v>0.108773</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.10394</v>
+                  <v>0.103816</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0991664</v>
+                  <v>0.0990196</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.161075</v>
+                  <v>0.161203</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.157541</v>
+                  <v>0.157427</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.153279</v>
+                  <v>0.153291</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.148419</v>
+                  <v>0.148637</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.143563</v>
+                  <v>0.143993</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.138814</v>
+                  <v>0.139036</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.134187</v>
+                  <v>0.134011</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.129007</v>
+                  <v>0.129041</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.12419</v>
+                  <v>0.124071</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.11903</v>
+                  <v>0.119132</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.114376</v>
+                  <v>0.114314</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.109255</v>
+                  <v>0.109231</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.104203</v>
+                  <v>0.104396</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0994004</v>
+                  <v>0.0994418</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.162128</v>
+                  <v>0.162412</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.158397</v>
+                  <v>0.158677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.154147</v>
+                  <v>0.154426</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.14983</v>
+                  <v>0.149842</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.144916</v>
+                  <v>0.144781</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.140152</v>
+                  <v>0.141629</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.134967</v>
+                  <v>0.13847</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.13013</v>
+                  <v>0.133091</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.125065</v>
+                  <v>0.127714</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.120187</v>
+                  <v>0.124488</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.11521</v>
+                  <v>0.115669</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.110418</v>
+                  <v>0.110413</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.105437</v>
+                  <v>0.105489</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.100497</v>
+                  <v>0.100512</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0955758</v>
+                  <v>0.0956983</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.159347</v>
+                  <v>0.159396</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.155292</v>
+                  <v>0.155243</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.150618</v>
+                  <v>0.150783</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.145909</v>
+                  <v>0.146049</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.140882</v>
+                  <v>0.141094</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.135883</v>
+                  <v>0.136194</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.130815</v>
+                  <v>0.131178</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.125838</v>
+                  <v>0.126183</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.121049</v>
+                  <v>0.121141</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.115996</v>
+                  <v>0.116219</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.111038</v>
+                  <v>0.111305</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106266</v>
+                  <v>0.106494</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.101484</v>
+                  <v>0.101612</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0965124</v>
+                  <v>0.0967018</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.16875</v>
+                  <v>0.169744</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.165253</v>
+                  <v>0.165135</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.160171</v>
+                  <v>0.160388</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.155079</v>
+                  <v>0.155819</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.150172</v>
+                  <v>0.164654</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.144364</v>
+                  <v>0.155278</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.13909</v>
+                  <v>0.132116</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.133975</v>
+                  <v>0.127121</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.128653</v>
+                  <v>0.122251</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.123312</v>
+                  <v>0.117233</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.118196</v>
+                  <v>0.112327</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.113081</v>
+                  <v>0.107307</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.107936</v>
+                  <v>0.102502</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.102763</v>
+                  <v>0.0975835</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.170695</v>
+                  <v>0.161148</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.16605</v>
+                  <v>0.15778</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.159252</v>
+                  <v>0.154339</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.154279</v>
+                  <v>0.151117</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.149255</v>
+                  <v>0.146988</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.143908</v>
+                  <v>0.14255</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.161517</v>
+                  <v>0.160547</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.161284</v>
+                  <v>0.15973</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.161565</v>
+                  <v>0.160588</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.161071</v>
+                  <v>0.160445</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160359</v>
+                  <v>0.160192</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160506</v>
+                  <v>0.160213</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.15986</v>
+                  <v>0.160092</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.159816</v>
+                  <v>0.168084</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.168688</v>
+                  <v>0.167852</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.169131</v>
+                  <v>0.168048</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.168269</v>
+                  <v>0.168336</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.167974</v>
+                  <v>0.167812</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.166866</v>
+                  <v>0.167109</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.165758</v>
+                  <v>0.16623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.165987</v>
+                  <v>0.166871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165494</v>
+                  <v>0.166478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.16521</v>
+                  <v>0.165707</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164933</v>
+                  <v>0.165031</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165109</v>
+                  <v>0.1649</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164374</v>
+                  <v>0.164776</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.16526</v>
+                  <v>0.163625</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.16427</v>
+                  <v>0.178868</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.178874</v>
+                  <v>0.179678</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.177374</v>
+                  <v>0.178316</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.174788</v>
+                  <v>0.179476</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.175042</v>
+                  <v>0.17654</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.173708</v>
+                  <v>0.17461</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.172923</v>
+                  <v>0.173279</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.171732</v>
+                  <v>0.173751</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.171195</v>
+                  <v>0.170825</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.170385</v>
+                  <v>0.170453</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.16947</v>
+                  <v>0.169678</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.169146</v>
+                  <v>0.168909</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.167972</v>
+                  <v>0.1673</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.167047</v>
+                  <v>0.166577</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.166171</v>
+                  <v>0.182873</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.182408</v>
+                  <v>0.182937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.180152</v>
+                  <v>0.181548</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.179135</v>
+                  <v>0.180155</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.177671</v>
+                  <v>0.178188</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.176913</v>
+                  <v>0.178144</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.175601</v>
+                  <v>0.176424</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.175113</v>
+                  <v>0.174992</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.173758</v>
+                  <v>0.174189</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.172944</v>
+                  <v>0.173002</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.172182</v>
+                  <v>0.17202</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.170881</v>
+                  <v>0.170973</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.170105</v>
+                  <v>0.170013</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.169022</v>
+                  <v>0.169078</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.167998</v>
+                  <v>0.185746</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.166696</v>
+                  <v>0.184696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.182395</v>
+                  <v>0.182971</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.181008</v>
+                  <v>0.181617</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179806</v>
+                  <v>0.180312</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.17875</v>
+                  <v>0.178947</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.177572</v>
+                  <v>0.17791</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176431</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.175317</v>
+                  <v>0.175509</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.174244</v>
+                  <v>0.174262</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173258</v>
+                  <v>0.173234</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172136</v>
+                  <v>0.172265</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.171204</v>
+                  <v>0.170923</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.1701</v>
+                  <v>0.169855</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168996</v>
+                  <v>0.168538</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.167839</v>
+                  <v>0.187522</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.183252</v>
+                  <v>0.18675</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.181965</v>
+                  <v>0.186339</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.1809</v>
+                  <v>0.186911</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.17956</v>
+                  <v>0.180146</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178444</v>
+                  <v>0.178878</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177204</v>
+                  <v>0.177773</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176229</v>
+                  <v>0.176452</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.175094</v>
+                  <v>0.175288</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173923</v>
+                  <v>0.174134</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172914</v>
+                  <v>0.173057</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171849</v>
+                  <v>0.171904</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170806</v>
+                  <v>0.170816</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.169616</v>
+                  <v>0.169596</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.168566</v>
+                  <v>0.186275</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.183672</v>
+                  <v>0.184867</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182468</v>
+                  <v>0.183395</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181136</v>
+                  <v>0.181873</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.179973</v>
+                  <v>0.180652</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178796</v>
+                  <v>0.179425</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177617</v>
+                  <v>0.178242</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.176429</v>
+                  <v>0.177184</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.17535</v>
+                  <v>0.175864</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174264</v>
+                  <v>0.174882</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173141</v>
+                  <v>0.173752</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.172009</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.17091</v>
+                  <v>0.171347</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169647</v>
+                  <v>0.170199</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168518</v>
+                  <v>0.186323</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184283</v>
+                  <v>0.184726</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.182809</v>
+                  <v>0.183371</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.181471</v>
+                  <v>0.181997</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.18041</v>
+                  <v>0.180644</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179197</v>
+                  <v>0.179187</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.177969</v>
+                  <v>0.180805</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176773</v>
+                  <v>0.18046</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175576</v>
+                  <v>0.179176</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174482</v>
+                  <v>0.178397</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173485</v>
+                  <v>0.179759</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.172365</v>
+                  <v>0.172124</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.171213</v>
+                  <v>0.170854</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.170121</v>
+                  <v>0.16969</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.168956</v>
+                  <v>0.186605</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167807</v>
+                  <v>0.185136</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183413</v>
+                  <v>0.18361</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.181973</v>
+                  <v>0.182228</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180669</v>
+                  <v>0.180855</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.17938</v>
+                  <v>0.179611</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178213</v>
+                  <v>0.17834</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177024</v>
+                  <v>0.177104</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.1759</v>
+                  <v>0.175923</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.174756</v>
+                  <v>0.17472</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173618</v>
+                  <v>0.173557</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172618</v>
+                  <v>0.172486</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171472</v>
+                  <v>0.171126</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.170374</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.169252</v>
+                  <v>0.168715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.167996</v>
+                  <v>0.185407</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.183665</v>
+                  <v>0.184197</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182248</v>
+                  <v>0.182592</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.180916</v>
+                  <v>0.181172</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179671</v>
+                  <v>0.179824</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178468</v>
+                  <v>0.181327</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177247</v>
+                  <v>0.184076</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176109</v>
+                  <v>0.176121</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.174977</v>
+                  <v>0.175</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173851</v>
+                  <v>0.173795</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.172825</v>
+                  <v>0.172613</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.171717</v>
+                  <v>0.171437</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170493</v>
+                  <v>0.170207</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.16948</v>
+                  <v>0.168897</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.168276</v>
+                  <v>0.185757</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.194016</v>
+                  <v>0.184278</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.191328</v>
+                  <v>0.182785</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.189598</v>
+                  <v>0.182179</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.188097</v>
+                  <v>0.182545</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186404</v>
+                  <v>0.181802</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.18492</v>
+                  <v>0.181858</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.160011</v>
+                  <v>0.279168</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.159645</v>
+                  <v>0.281786</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.160429</v>
+                  <v>0.283512</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.16075</v>
+                  <v>0.28496</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160315</v>
+                  <v>0.285631</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.159973</v>
+                  <v>0.274944</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160079</v>
+                  <v>0.275954</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.168025</v>
+                  <v>0.274606</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.168796</v>
+                  <v>0.278916</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167658</v>
+                  <v>0.281139</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.168587</v>
+                  <v>0.281362</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.167476</v>
+                  <v>0.283914</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.167025</v>
+                  <v>0.286102</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.166834</v>
+                  <v>0.287227</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166437</v>
+                  <v>0.288543</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165414</v>
+                  <v>0.288696</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.165111</v>
+                  <v>0.290398</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.165088</v>
+                  <v>0.290918</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.165158</v>
+                  <v>0.294304</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.165465</v>
+                  <v>0.281251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163999</v>
+                  <v>0.281687</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.183329</v>
+                  <v>0.285584</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.179675</v>
+                  <v>0.288282</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.178149</v>
+                  <v>0.293925</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.177462</v>
+                  <v>0.28808</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.17597</v>
+                  <v>0.287253</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.175113</v>
+                  <v>0.288906</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.174344</v>
+                  <v>0.291093</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.173993</v>
+                  <v>0.292102</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.171814</v>
+                  <v>0.2932</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.170931</v>
+                  <v>0.29395</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.170148</v>
+                  <v>0.296171</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.169615</v>
+                  <v>0.296375</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.168269</v>
+                  <v>0.284355</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.16735</v>
+                  <v>0.284807</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.184032</v>
+                  <v>0.286368</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.182749</v>
+                  <v>0.286301</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.181447</v>
+                  <v>0.287581</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.179598</v>
+                  <v>0.289046</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.178697</v>
+                  <v>0.289677</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.177654</v>
+                  <v>0.29157</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.176255</v>
+                  <v>0.292293</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.175428</v>
+                  <v>0.294612</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17424</v>
+                  <v>0.294556</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.172949</v>
+                  <v>0.295616</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.171806</v>
+                  <v>0.29718</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.170594</v>
+                  <v>0.297434</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.170093</v>
+                  <v>0.299725</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.168872</v>
+                  <v>0.286811</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.185726</v>
+                  <v>0.288448</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.183999</v>
+                  <v>0.288918</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.182938</v>
+                  <v>0.290886</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.181135</v>
+                  <v>0.29162</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179973</v>
+                  <v>0.292324</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178698</v>
+                  <v>0.2942</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.177695</v>
+                  <v>0.294805</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176204</v>
+                  <v>0.29628</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.175252</v>
+                  <v>0.297725</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.174049</v>
+                  <v>0.29819</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.172976</v>
+                  <v>0.300805</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.171947</v>
+                  <v>0.300675</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170843</v>
+                  <v>0.303057</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169567</v>
+                  <v>0.293829</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168423</v>
+                  <v>0.297261</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.18501</v>
+                  <v>0.313275</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.183444</v>
+                  <v>0.318938</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.182209</v>
+                  <v>0.339623</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.180939</v>
+                  <v>0.303013</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.179538</v>
+                  <v>0.305083</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178374</v>
+                  <v>0.306569</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177105</v>
+                  <v>0.308859</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176068</v>
+                  <v>0.311401</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.17492</v>
+                  <v>0.322085</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173763</v>
+                  <v>0.321141</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172585</v>
+                  <v>0.321192</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171417</v>
+                  <v>0.320741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170196</v>
+                  <v>0.313758</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.168965</v>
+                  <v>0.313304</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.185483</v>
+                  <v>0.313135</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.184099</v>
+                  <v>0.31294</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182697</v>
+                  <v>0.31279</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181365</v>
+                  <v>0.320675</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.180176</v>
+                  <v>0.319912</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178976</v>
+                  <v>0.320792</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177749</v>
+                  <v>0.321485</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.176552</v>
+                  <v>0.321351</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175408</v>
+                  <v>0.325599</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174248</v>
+                  <v>0.334543</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.172985</v>
+                  <v>0.333373</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171824</v>
+                  <v>0.332218</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.170566</v>
+                  <v>0.302307</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169184</v>
+                  <v>0.308574</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.185985</v>
+                  <v>0.308391</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184496</v>
+                  <v>0.308094</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183031</v>
+                  <v>0.308255</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.181718</v>
+                  <v>0.315231</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180566</v>
+                  <v>0.315597</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179185</v>
+                  <v>0.315973</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.177916</v>
+                  <v>0.33104</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176813</v>
+                  <v>0.333239</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175551</v>
+                  <v>0.332252</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174353</v>
+                  <v>0.338597</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173202</v>
+                  <v>0.348329</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.171937</v>
+                  <v>0.330354</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.17075</v>
+                  <v>0.329578</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.169515</v>
+                  <v>0.309496</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.186463</v>
+                  <v>0.309787</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.184955</v>
+                  <v>0.313472</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.18356</v>
+                  <v>0.312655</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.182079</v>
+                  <v>0.315875</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180726</v>
+                  <v>0.315474</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.17949</v>
+                  <v>0.319134</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178267</v>
+                  <v>0.323312</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177074</v>
+                  <v>0.323677</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.175816</v>
+                  <v>0.326275</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.174614</v>
+                  <v>0.329586</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173493</v>
+                  <v>0.330913</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172224</v>
+                  <v>0.331416</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171118</v>
+                  <v>0.32976</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.169817</v>
+                  <v>0.310192</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.168563</v>
+                  <v>0.312781</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.18529</v>
+                  <v>0.314642</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.183782</v>
+                  <v>0.317251</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182436</v>
+                  <v>0.318172</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.181045</v>
+                  <v>0.319593</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.17969</v>
+                  <v>0.321859</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178501</v>
+                  <v>0.334552</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177279</v>
+                  <v>0.349017</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176081</v>
+                  <v>0.330436</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.174818</v>
+                  <v>0.331659</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173736</v>
+                  <v>0.333584</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.1725</v>
+                  <v>0.33289</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17131</v>
+                  <v>0.333662</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170121</v>
+                  <v>0.311584</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.168793</v>
+                  <v>0.314202</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.194838</v>
+                  <v>0.316001</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.192446</v>
+                  <v>0.317938</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.189943</v>
+                  <v>0.318881</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.188461</v>
+                  <v>0.320274</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.187379</v>
+                  <v>0.322765</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.18564</v>
+                  <v>0.325335</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.184108</v>
+                  <v>0.328026</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2824,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.3"/>
+          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.065287</v>
+        <v>0.0708934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160231</v>
+        <v>0.159848</v>
       </c>
       <c r="D2" t="n">
-        <v>0.159916</v>
+        <v>0.166013</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06519899999999999</v>
+        <v>0.0715543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160133</v>
+        <v>0.160569</v>
       </c>
       <c r="D3" t="n">
-        <v>0.160289</v>
+        <v>0.165091</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0654063</v>
+        <v>0.06952609999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160514</v>
+        <v>0.160744</v>
       </c>
       <c r="D4" t="n">
-        <v>0.160491</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06501750000000001</v>
+        <v>0.0689367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160526</v>
+        <v>0.160929</v>
       </c>
       <c r="D5" t="n">
-        <v>0.160175</v>
+        <v>0.164835</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0652417</v>
+        <v>0.0686856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160517</v>
+        <v>0.160315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.160183</v>
+        <v>0.163831</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06568</v>
+        <v>0.0689727</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16045</v>
+        <v>0.160309</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159731</v>
+        <v>0.163062</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065613</v>
+        <v>0.0681732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160364</v>
+        <v>0.159775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16001</v>
+        <v>0.162488</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.066674</v>
+        <v>0.0677967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168546</v>
+        <v>0.167824</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168219</v>
+        <v>0.175621</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0891261</v>
+        <v>0.117242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169253</v>
+        <v>0.168918</v>
       </c>
       <c r="D10" t="n">
-        <v>0.168084</v>
+        <v>0.175798</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0891266</v>
+        <v>0.115529</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168676</v>
+        <v>0.168748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167434</v>
+        <v>0.174713</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0898301</v>
+        <v>0.115568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.167899</v>
+        <v>0.169258</v>
       </c>
       <c r="D12" t="n">
-        <v>0.168433</v>
+        <v>0.174543</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08890380000000001</v>
+        <v>0.114128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167315</v>
+        <v>0.167118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.167964</v>
+        <v>0.173782</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08933199999999999</v>
+        <v>0.113196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167196</v>
+        <v>0.167145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.16704</v>
+        <v>0.173382</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.088061</v>
+        <v>0.109335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167001</v>
+        <v>0.16628</v>
       </c>
       <c r="D15" t="n">
-        <v>0.167107</v>
+        <v>0.172821</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0874144</v>
+        <v>0.106013</v>
       </c>
       <c r="C16" t="n">
-        <v>0.167168</v>
+        <v>0.166358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166641</v>
+        <v>0.171331</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0877728</v>
+        <v>0.102842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.166382</v>
+        <v>0.165728</v>
       </c>
       <c r="D17" t="n">
-        <v>0.166036</v>
+        <v>0.170732</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0887476</v>
+        <v>0.100171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.167277</v>
+        <v>0.165242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.166829</v>
+        <v>0.169964</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0883681</v>
+        <v>0.096872</v>
       </c>
       <c r="C19" t="n">
-        <v>0.168584</v>
+        <v>0.165124</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165393</v>
+        <v>0.1691</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0862711</v>
+        <v>0.0940666</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167045</v>
+        <v>0.164136</v>
       </c>
       <c r="D20" t="n">
-        <v>0.166522</v>
+        <v>0.168146</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08408</v>
+        <v>0.0933155</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166567</v>
+        <v>0.165301</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16791</v>
+        <v>0.168771</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0831447</v>
+        <v>0.0894184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166968</v>
+        <v>0.164045</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163644</v>
+        <v>0.165967</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0821503</v>
+        <v>0.0865802</v>
       </c>
       <c r="C23" t="n">
-        <v>0.179377</v>
+        <v>0.1826</v>
       </c>
       <c r="D23" t="n">
-        <v>0.18066</v>
+        <v>0.18397</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.130133</v>
+        <v>0.148083</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179431</v>
+        <v>0.179124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.183221</v>
+        <v>0.18218</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129083</v>
+        <v>0.144766</v>
       </c>
       <c r="C25" t="n">
-        <v>0.177699</v>
+        <v>0.179373</v>
       </c>
       <c r="D25" t="n">
-        <v>0.178955</v>
+        <v>0.180672</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.126147</v>
+        <v>0.141379</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176376</v>
+        <v>0.178056</v>
       </c>
       <c r="D26" t="n">
-        <v>0.17713</v>
+        <v>0.179712</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124088</v>
+        <v>0.137976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177909</v>
+        <v>0.177907</v>
       </c>
       <c r="D27" t="n">
-        <v>0.177169</v>
+        <v>0.178366</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.121115</v>
+        <v>0.134106</v>
       </c>
       <c r="C28" t="n">
-        <v>0.174826</v>
+        <v>0.175444</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17559</v>
+        <v>0.17823</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118417</v>
+        <v>0.13022</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174844</v>
+        <v>0.174726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.174718</v>
+        <v>0.176459</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.115952</v>
+        <v>0.126462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173537</v>
+        <v>0.172677</v>
       </c>
       <c r="D30" t="n">
-        <v>0.174687</v>
+        <v>0.175459</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.112966</v>
+        <v>0.122279</v>
       </c>
       <c r="C31" t="n">
-        <v>0.171807</v>
+        <v>0.17174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.171952</v>
+        <v>0.173804</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110297</v>
+        <v>0.118352</v>
       </c>
       <c r="C32" t="n">
-        <v>0.171385</v>
+        <v>0.170806</v>
       </c>
       <c r="D32" t="n">
-        <v>0.170766</v>
+        <v>0.172607</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106728</v>
+        <v>0.113365</v>
       </c>
       <c r="C33" t="n">
-        <v>0.170716</v>
+        <v>0.169799</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170098</v>
+        <v>0.170879</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.103544</v>
+        <v>0.109141</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170231</v>
+        <v>0.16979</v>
       </c>
       <c r="D34" t="n">
-        <v>0.168864</v>
+        <v>0.171459</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0987667</v>
+        <v>0.106086</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168684</v>
+        <v>0.169299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.167672</v>
+        <v>0.170753</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0945738</v>
+        <v>0.101299</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166796</v>
+        <v>0.169559</v>
       </c>
       <c r="D36" t="n">
-        <v>0.166743</v>
+        <v>0.17025</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0905765</v>
+        <v>0.09586210000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.184233</v>
+        <v>0.187561</v>
       </c>
       <c r="D37" t="n">
-        <v>0.184043</v>
+        <v>0.187966</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.150896</v>
+        <v>0.160283</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182764</v>
+        <v>0.185682</v>
       </c>
       <c r="D38" t="n">
-        <v>0.182847</v>
+        <v>0.186557</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.147915</v>
+        <v>0.157111</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180734</v>
+        <v>0.185523</v>
       </c>
       <c r="D39" t="n">
-        <v>0.181268</v>
+        <v>0.185591</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.14617</v>
+        <v>0.154836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180618</v>
+        <v>0.186266</v>
       </c>
       <c r="D40" t="n">
-        <v>0.180055</v>
+        <v>0.186622</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.141351</v>
+        <v>0.150542</v>
       </c>
       <c r="C41" t="n">
-        <v>0.17912</v>
+        <v>0.179426</v>
       </c>
       <c r="D41" t="n">
-        <v>0.179016</v>
+        <v>0.1799</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138028</v>
+        <v>0.142274</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177684</v>
+        <v>0.178196</v>
       </c>
       <c r="D42" t="n">
-        <v>0.177685</v>
+        <v>0.178354</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.133783</v>
+        <v>0.13775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176229</v>
+        <v>0.176956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.176665</v>
+        <v>0.17765</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129829</v>
+        <v>0.133473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175539</v>
+        <v>0.175571</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174908</v>
+        <v>0.176446</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125487</v>
+        <v>0.128537</v>
       </c>
       <c r="C45" t="n">
-        <v>0.17461</v>
+        <v>0.174241</v>
       </c>
       <c r="D45" t="n">
-        <v>0.174121</v>
+        <v>0.175071</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121112</v>
+        <v>0.123648</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172818</v>
+        <v>0.173749</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173091</v>
+        <v>0.173983</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.116796</v>
+        <v>0.118854</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172366</v>
+        <v>0.172304</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171906</v>
+        <v>0.172789</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112148</v>
+        <v>0.114049</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171216</v>
+        <v>0.171394</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171058</v>
+        <v>0.17162</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107724</v>
+        <v>0.109213</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170014</v>
+        <v>0.170089</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169859</v>
+        <v>0.170361</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.10289</v>
+        <v>0.104318</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168835</v>
+        <v>0.16906</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168751</v>
+        <v>0.169147</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09756099999999999</v>
+        <v>0.09946049999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186416</v>
+        <v>0.18594</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18572</v>
+        <v>0.18604</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0924861</v>
+        <v>0.0946116</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184512</v>
+        <v>0.184499</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184294</v>
+        <v>0.184567</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.156552</v>
+        <v>0.15802</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183089</v>
+        <v>0.182919</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182943</v>
+        <v>0.183223</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.152936</v>
+        <v>0.154056</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181633</v>
+        <v>0.181745</v>
       </c>
       <c r="D54" t="n">
-        <v>0.18136</v>
+        <v>0.181891</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.14872</v>
+        <v>0.149567</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180481</v>
+        <v>0.180381</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180261</v>
+        <v>0.180633</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144329</v>
+        <v>0.145338</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179156</v>
+        <v>0.17889</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178882</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13979</v>
+        <v>0.140432</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177907</v>
+        <v>0.177886</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177679</v>
+        <v>0.17818</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135136</v>
+        <v>0.135937</v>
       </c>
       <c r="C58" t="n">
-        <v>0.177196</v>
+        <v>0.176684</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176358</v>
+        <v>0.176891</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130206</v>
+        <v>0.130828</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175645</v>
+        <v>0.175611</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175407</v>
+        <v>0.175789</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125356</v>
+        <v>0.125897</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174351</v>
+        <v>0.174401</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174253</v>
+        <v>0.17452</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120724</v>
+        <v>0.121193</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173189</v>
+        <v>0.173434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173266</v>
+        <v>0.173408</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.115946</v>
+        <v>0.116145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172073</v>
+        <v>0.172126</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171852</v>
+        <v>0.172298</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.110857</v>
+        <v>0.111407</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170912</v>
+        <v>0.171084</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171085</v>
+        <v>0.171051</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106235</v>
+        <v>0.106531</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169857</v>
+        <v>0.169952</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169681</v>
+        <v>0.169867</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101461</v>
+        <v>0.101604</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168635</v>
+        <v>0.168703</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168552</v>
+        <v>0.168654</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0965411</v>
+        <v>0.0967838</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185316</v>
+        <v>0.18556</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185117</v>
+        <v>0.185528</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160201</v>
+        <v>0.160833</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184019</v>
+        <v>0.184143</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183725</v>
+        <v>0.184063</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156251</v>
+        <v>0.157014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182763</v>
+        <v>0.182822</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182232</v>
+        <v>0.182604</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151943</v>
+        <v>0.152701</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181232</v>
+        <v>0.18149</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18088</v>
+        <v>0.181251</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147103</v>
+        <v>0.147945</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179713</v>
+        <v>0.180084</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179507</v>
+        <v>0.179901</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142395</v>
+        <v>0.143024</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178576</v>
+        <v>0.178964</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178442</v>
+        <v>0.178678</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137929</v>
+        <v>0.138297</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177657</v>
+        <v>0.177739</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177497</v>
+        <v>0.177512</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133294</v>
+        <v>0.133623</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17657</v>
+        <v>0.176532</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176629</v>
+        <v>0.176207</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128599</v>
+        <v>0.128315</v>
       </c>
       <c r="C74" t="n">
-        <v>0.179601</v>
+        <v>0.175401</v>
       </c>
       <c r="D74" t="n">
-        <v>0.179217</v>
+        <v>0.175079</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125932</v>
+        <v>0.123444</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174411</v>
+        <v>0.174116</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173867</v>
+        <v>0.17388</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118062</v>
+        <v>0.118822</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172992</v>
+        <v>0.173072</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172751</v>
+        <v>0.172674</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113379</v>
+        <v>0.113751</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171966</v>
+        <v>0.17188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171588</v>
+        <v>0.171562</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108337</v>
+        <v>0.109034</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170626</v>
+        <v>0.170719</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170429</v>
+        <v>0.170376</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103371</v>
+        <v>0.104159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169514</v>
+        <v>0.169425</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169061</v>
+        <v>0.169115</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0987992</v>
+        <v>0.09928679999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186144</v>
+        <v>0.186181</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185773</v>
+        <v>0.185819</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161233</v>
+        <v>0.161653</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184552</v>
+        <v>0.184584</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1842</v>
+        <v>0.184283</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157356</v>
+        <v>0.157557</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183175</v>
+        <v>0.183184</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182778</v>
+        <v>0.182942</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153163</v>
+        <v>0.153415</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181827</v>
+        <v>0.181776</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181327</v>
+        <v>0.181556</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148673</v>
+        <v>0.148266</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180555</v>
+        <v>0.180213</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180115</v>
+        <v>0.180155</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143758</v>
+        <v>0.143508</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179244</v>
+        <v>0.178965</v>
       </c>
       <c r="D85" t="n">
-        <v>0.178813</v>
+        <v>0.180298</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138953</v>
+        <v>0.140921</v>
       </c>
       <c r="C86" t="n">
-        <v>0.17796</v>
+        <v>0.181018</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177627</v>
+        <v>0.180676</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13414</v>
+        <v>0.136677</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176775</v>
+        <v>0.181757</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176418</v>
+        <v>0.181282</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129098</v>
+        <v>0.133144</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175692</v>
+        <v>0.182203</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175306</v>
+        <v>0.181864</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124132</v>
+        <v>0.128807</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17457</v>
+        <v>0.18082</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174117</v>
+        <v>0.17461</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119272</v>
+        <v>0.119015</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173366</v>
+        <v>0.173543</v>
       </c>
       <c r="D90" t="n">
-        <v>0.172924</v>
+        <v>0.173004</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114229</v>
+        <v>0.114142</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172212</v>
+        <v>0.172362</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171837</v>
+        <v>0.171858</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109308</v>
+        <v>0.109176</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171105</v>
+        <v>0.171261</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170641</v>
+        <v>0.170588</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104303</v>
+        <v>0.104223</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169875</v>
+        <v>0.170112</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169353</v>
+        <v>0.16941</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0993248</v>
+        <v>0.0992827</v>
       </c>
       <c r="C94" t="n">
-        <v>0.18626</v>
+        <v>0.186327</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186213</v>
+        <v>0.186235</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162739</v>
+        <v>0.162558</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184922</v>
+        <v>0.18483</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184711</v>
+        <v>0.184786</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158671</v>
+        <v>0.15855</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183399</v>
+        <v>0.183448</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183326</v>
+        <v>0.183345</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154445</v>
+        <v>0.15421</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181966</v>
+        <v>0.182149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.181994</v>
+        <v>0.182054</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149886</v>
+        <v>0.149811</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180688</v>
+        <v>0.180657</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180602</v>
+        <v>0.180634</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14506</v>
+        <v>0.14473</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179342</v>
+        <v>0.179458</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179373</v>
+        <v>0.179315</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140149</v>
+        <v>0.139808</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178104</v>
+        <v>0.178098</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178057</v>
+        <v>0.17802</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135171</v>
+        <v>0.135003</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176811</v>
+        <v>0.176852</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176869</v>
+        <v>0.176792</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130163</v>
+        <v>0.130111</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175618</v>
+        <v>0.175771</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175598</v>
+        <v>0.175656</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125182</v>
+        <v>0.124919</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174562</v>
+        <v>0.174541</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174432</v>
+        <v>0.174437</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120363</v>
+        <v>0.120152</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173368</v>
+        <v>0.173366</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173265</v>
+        <v>0.173239</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115323</v>
+        <v>0.115189</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172083</v>
+        <v>0.172181</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172038</v>
+        <v>0.172101</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110283</v>
+        <v>0.110329</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170951</v>
+        <v>0.170887</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170943</v>
+        <v>0.170848</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105456</v>
+        <v>0.105435</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169648</v>
+        <v>0.169664</v>
       </c>
       <c r="D107" t="n">
-        <v>0.16959</v>
+        <v>0.169652</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100451</v>
+        <v>0.100551</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186637</v>
+        <v>0.18666</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186649</v>
+        <v>0.186627</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955202</v>
+        <v>0.0955686</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185094</v>
+        <v>0.185136</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18509</v>
+        <v>0.185128</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159499</v>
+        <v>0.159889</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183613</v>
+        <v>0.18369</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183617</v>
+        <v>0.183602</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155347</v>
+        <v>0.155638</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182281</v>
+        <v>0.182266</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182178</v>
+        <v>0.182185</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150738</v>
+        <v>0.150711</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180907</v>
+        <v>0.180957</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180834</v>
+        <v>0.180854</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14609</v>
+        <v>0.146361</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179599</v>
+        <v>0.179677</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179558</v>
+        <v>0.17956</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141121</v>
+        <v>0.140975</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178313</v>
+        <v>0.178398</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178323</v>
+        <v>0.178272</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136107</v>
+        <v>0.135982</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177099</v>
+        <v>0.177113</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177099</v>
+        <v>0.177057</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131068</v>
+        <v>0.130947</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175952</v>
+        <v>0.175859</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175854</v>
+        <v>0.1759</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126068</v>
+        <v>0.126259</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174785</v>
+        <v>0.174744</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174621</v>
+        <v>0.174665</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121103</v>
+        <v>0.121146</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173551</v>
+        <v>0.173529</v>
       </c>
       <c r="D118" t="n">
-        <v>0.17349</v>
+        <v>0.173508</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116157</v>
+        <v>0.116182</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172307</v>
+        <v>0.172318</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172168</v>
+        <v>0.172298</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.11112</v>
+        <v>0.111193</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171211</v>
+        <v>0.17112</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171094</v>
+        <v>0.171179</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.107511</v>
+        <v>0.106272</v>
       </c>
       <c r="C121" t="n">
-        <v>0.172588</v>
+        <v>0.170011</v>
       </c>
       <c r="D121" t="n">
-        <v>0.172898</v>
+        <v>0.16989</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102945</v>
+        <v>0.101416</v>
       </c>
       <c r="C122" t="n">
-        <v>0.171976</v>
+        <v>0.168694</v>
       </c>
       <c r="D122" t="n">
-        <v>0.172649</v>
+        <v>0.16865</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0987976</v>
+        <v>0.0965094</v>
       </c>
       <c r="C123" t="n">
-        <v>0.190281</v>
+        <v>0.185464</v>
       </c>
       <c r="D123" t="n">
-        <v>0.189628</v>
+        <v>0.185387</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.19386</v>
+        <v>0.169756</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184104</v>
+        <v>0.184031</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18404</v>
+        <v>0.183907</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.162086</v>
+        <v>0.165414</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182577</v>
+        <v>0.182543</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182523</v>
+        <v>0.18247</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.151669</v>
+        <v>0.160393</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181233</v>
+        <v>0.181192</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181188</v>
+        <v>0.181165</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.146887</v>
+        <v>0.155339</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179828</v>
+        <v>0.179889</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179808</v>
+        <v>0.179897</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.142076</v>
+        <v>0.149868</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178561</v>
+        <v>0.17863</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178614</v>
+        <v>0.178537</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.137086</v>
+        <v>0.144258</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177397</v>
+        <v>0.177418</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177342</v>
+        <v>0.177456</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.132021</v>
+        <v>0.139377</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176146</v>
+        <v>0.176243</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176093</v>
+        <v>0.17617</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127012</v>
+        <v>0.133819</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174968</v>
+        <v>0.175051</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174981</v>
+        <v>0.17493</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122017</v>
+        <v>0.128982</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173762</v>
+        <v>0.173837</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173658</v>
+        <v>0.173817</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117074</v>
+        <v>0.1233</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172626</v>
+        <v>0.172624</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172534</v>
+        <v>0.17267</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112202</v>
+        <v>0.118302</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171442</v>
+        <v>0.171409</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171395</v>
+        <v>0.171478</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107327</v>
+        <v>0.112984</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170201</v>
+        <v>0.170161</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170153</v>
+        <v>0.170134</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102479</v>
+        <v>0.107961</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168889</v>
+        <v>0.16897</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168901</v>
+        <v>0.168969</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0974521</v>
+        <v>0.102858</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185724</v>
+        <v>0.195305</v>
       </c>
       <c r="D137" t="n">
-        <v>0.185705</v>
+        <v>0.195033</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161134</v>
+        <v>0.170634</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184198</v>
+        <v>0.193127</v>
       </c>
       <c r="D138" t="n">
-        <v>0.184227</v>
+        <v>0.192993</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157102</v>
+        <v>0.166157</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182797</v>
+        <v>0.191504</v>
       </c>
       <c r="D139" t="n">
-        <v>0.18275</v>
+        <v>0.191298</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152658</v>
+        <v>0.16138</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181445</v>
+        <v>0.189951</v>
       </c>
       <c r="D140" t="n">
-        <v>0.18152</v>
+        <v>0.189498</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148011</v>
+        <v>0.156289</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180139</v>
+        <v>0.188007</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180108</v>
+        <v>0.187881</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143024</v>
+        <v>0.151038</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178816</v>
+        <v>0.18651</v>
       </c>
       <c r="D142" t="n">
-        <v>0.178862</v>
+        <v>0.18624</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138106</v>
+        <v>0.14585</v>
       </c>
       <c r="C143" t="n">
-        <v>0.17766</v>
+        <v>0.184688</v>
       </c>
       <c r="D143" t="n">
-        <v>0.177571</v>
+        <v>0.18471</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0708934</v>
+        <v>0.06945949999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.159848</v>
+        <v>0.162871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.166013</v>
+        <v>0.165147</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0715543</v>
+        <v>0.06943580000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160569</v>
+        <v>0.162419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.165091</v>
+        <v>0.16534</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06952609999999999</v>
+        <v>0.07095659999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160744</v>
+        <v>0.162933</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165</v>
+        <v>0.165282</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0689367</v>
+        <v>0.0703821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160929</v>
+        <v>0.162415</v>
       </c>
       <c r="D5" t="n">
-        <v>0.164835</v>
+        <v>0.16462</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0686856</v>
+        <v>0.0700447</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160315</v>
+        <v>0.162141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.163831</v>
+        <v>0.164083</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0689727</v>
+        <v>0.0692905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160309</v>
+        <v>0.161498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163062</v>
+        <v>0.163417</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0681732</v>
+        <v>0.06888569999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.159775</v>
+        <v>0.161208</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162488</v>
+        <v>0.162509</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0677967</v>
+        <v>0.0691049</v>
       </c>
       <c r="C9" t="n">
-        <v>0.167824</v>
+        <v>0.17</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175621</v>
+        <v>0.175565</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.117242</v>
+        <v>0.115671</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168918</v>
+        <v>0.169428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175798</v>
+        <v>0.175929</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.115529</v>
+        <v>0.115489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168748</v>
+        <v>0.169178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.174713</v>
+        <v>0.1749</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.115568</v>
+        <v>0.11372</v>
       </c>
       <c r="C12" t="n">
-        <v>0.169258</v>
+        <v>0.168356</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174543</v>
+        <v>0.174723</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.114128</v>
+        <v>0.112742</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167118</v>
+        <v>0.167874</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173782</v>
+        <v>0.173657</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.113196</v>
+        <v>0.109963</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167145</v>
+        <v>0.167274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173382</v>
+        <v>0.173383</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109335</v>
+        <v>0.107557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16628</v>
+        <v>0.167261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172821</v>
+        <v>0.172513</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.106013</v>
+        <v>0.105649</v>
       </c>
       <c r="C16" t="n">
-        <v>0.166358</v>
+        <v>0.166616</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171331</v>
+        <v>0.171423</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.102842</v>
+        <v>0.102617</v>
       </c>
       <c r="C17" t="n">
-        <v>0.165728</v>
+        <v>0.166196</v>
       </c>
       <c r="D17" t="n">
-        <v>0.170732</v>
+        <v>0.17103</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.100171</v>
+        <v>0.09909610000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.165242</v>
+        <v>0.165496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.169964</v>
+        <v>0.170126</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.096872</v>
+        <v>0.09644519999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.165124</v>
+        <v>0.16491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1691</v>
+        <v>0.168639</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0940666</v>
+        <v>0.09659189999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.164136</v>
+        <v>0.165526</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168146</v>
+        <v>0.168492</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0933155</v>
+        <v>0.0924191</v>
       </c>
       <c r="C21" t="n">
-        <v>0.165301</v>
+        <v>0.167424</v>
       </c>
       <c r="D21" t="n">
-        <v>0.168771</v>
+        <v>0.167446</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0894184</v>
+        <v>0.0906898</v>
       </c>
       <c r="C22" t="n">
-        <v>0.164045</v>
+        <v>0.167133</v>
       </c>
       <c r="D22" t="n">
-        <v>0.165967</v>
+        <v>0.166228</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0865802</v>
+        <v>0.0875754</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1826</v>
+        <v>0.174452</v>
       </c>
       <c r="D23" t="n">
-        <v>0.18397</v>
+        <v>0.183715</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.148083</v>
+        <v>0.149421</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179124</v>
+        <v>0.174968</v>
       </c>
       <c r="D24" t="n">
-        <v>0.18218</v>
+        <v>0.181866</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.144766</v>
+        <v>0.14597</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179373</v>
+        <v>0.175874</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180672</v>
+        <v>0.180869</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.141379</v>
+        <v>0.142786</v>
       </c>
       <c r="C26" t="n">
-        <v>0.178056</v>
+        <v>0.173712</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179712</v>
+        <v>0.179788</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.137976</v>
+        <v>0.138083</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177907</v>
+        <v>0.173218</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178366</v>
+        <v>0.178215</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134106</v>
+        <v>0.134162</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175444</v>
+        <v>0.172232</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17823</v>
+        <v>0.177899</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.13022</v>
+        <v>0.130087</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174726</v>
+        <v>0.173033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176459</v>
+        <v>0.176491</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126462</v>
+        <v>0.125961</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172677</v>
+        <v>0.170832</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175459</v>
+        <v>0.175569</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122279</v>
+        <v>0.122039</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17174</v>
+        <v>0.170213</v>
       </c>
       <c r="D31" t="n">
-        <v>0.173804</v>
+        <v>0.174443</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118352</v>
+        <v>0.117589</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170806</v>
+        <v>0.16953</v>
       </c>
       <c r="D32" t="n">
-        <v>0.172607</v>
+        <v>0.17318</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.113365</v>
+        <v>0.112886</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169799</v>
+        <v>0.169965</v>
       </c>
       <c r="D33" t="n">
-        <v>0.170879</v>
+        <v>0.171729</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109141</v>
+        <v>0.108391</v>
       </c>
       <c r="C34" t="n">
-        <v>0.16979</v>
+        <v>0.168208</v>
       </c>
       <c r="D34" t="n">
-        <v>0.171459</v>
+        <v>0.170784</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.106086</v>
+        <v>0.103699</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169299</v>
+        <v>0.168504</v>
       </c>
       <c r="D35" t="n">
-        <v>0.170753</v>
+        <v>0.169533</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101299</v>
+        <v>0.0985883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.169559</v>
+        <v>0.167538</v>
       </c>
       <c r="D36" t="n">
-        <v>0.17025</v>
+        <v>0.168166</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09586210000000001</v>
+        <v>0.0943638</v>
       </c>
       <c r="C37" t="n">
-        <v>0.187561</v>
+        <v>0.181433</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187966</v>
+        <v>0.185307</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.160283</v>
+        <v>0.157615</v>
       </c>
       <c r="C38" t="n">
-        <v>0.185682</v>
+        <v>0.180366</v>
       </c>
       <c r="D38" t="n">
-        <v>0.186557</v>
+        <v>0.18398</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.157111</v>
+        <v>0.154057</v>
       </c>
       <c r="C39" t="n">
-        <v>0.185523</v>
+        <v>0.179605</v>
       </c>
       <c r="D39" t="n">
-        <v>0.185591</v>
+        <v>0.182333</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.154836</v>
+        <v>0.150049</v>
       </c>
       <c r="C40" t="n">
-        <v>0.186266</v>
+        <v>0.177416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.186622</v>
+        <v>0.181331</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150542</v>
+        <v>0.146387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.179426</v>
+        <v>0.176944</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1799</v>
+        <v>0.17981</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142274</v>
+        <v>0.142243</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178196</v>
+        <v>0.176451</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178354</v>
+        <v>0.178634</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13775</v>
+        <v>0.137555</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176956</v>
+        <v>0.175825</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17765</v>
+        <v>0.177569</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133473</v>
+        <v>0.133099</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175571</v>
+        <v>0.174466</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176446</v>
+        <v>0.176433</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128537</v>
+        <v>0.128176</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174241</v>
+        <v>0.173454</v>
       </c>
       <c r="D45" t="n">
-        <v>0.175071</v>
+        <v>0.17513</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123648</v>
+        <v>0.123515</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173749</v>
+        <v>0.172613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173983</v>
+        <v>0.173899</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118854</v>
+        <v>0.118795</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172304</v>
+        <v>0.172026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172789</v>
+        <v>0.172858</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114049</v>
+        <v>0.113774</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171394</v>
+        <v>0.17126</v>
       </c>
       <c r="D48" t="n">
-        <v>0.17162</v>
+        <v>0.171613</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109213</v>
+        <v>0.108958</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170089</v>
+        <v>0.170415</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170361</v>
+        <v>0.170421</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104318</v>
+        <v>0.1037</v>
       </c>
       <c r="C50" t="n">
-        <v>0.16906</v>
+        <v>0.169402</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169147</v>
+        <v>0.169161</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09946049999999999</v>
+        <v>0.0986138</v>
       </c>
       <c r="C51" t="n">
-        <v>0.18594</v>
+        <v>0.184722</v>
       </c>
       <c r="D51" t="n">
-        <v>0.18604</v>
+        <v>0.186115</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0946116</v>
+        <v>0.09380189999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184499</v>
+        <v>0.183565</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184567</v>
+        <v>0.184662</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15802</v>
+        <v>0.158524</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182919</v>
+        <v>0.182024</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183223</v>
+        <v>0.183274</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154056</v>
+        <v>0.154459</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181745</v>
+        <v>0.181014</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181891</v>
+        <v>0.181909</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149567</v>
+        <v>0.150031</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180381</v>
+        <v>0.179625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180633</v>
+        <v>0.180596</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145338</v>
+        <v>0.145783</v>
       </c>
       <c r="C56" t="n">
-        <v>0.17889</v>
+        <v>0.178669</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1794</v>
+        <v>0.179411</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140432</v>
+        <v>0.140748</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177886</v>
+        <v>0.177674</v>
       </c>
       <c r="D57" t="n">
-        <v>0.17818</v>
+        <v>0.178182</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135937</v>
+        <v>0.136164</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176684</v>
+        <v>0.176617</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176891</v>
+        <v>0.176935</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130828</v>
+        <v>0.131234</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175611</v>
+        <v>0.175358</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175789</v>
+        <v>0.175808</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.125897</v>
+        <v>0.12621</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174401</v>
+        <v>0.174462</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17452</v>
+        <v>0.174595</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121193</v>
+        <v>0.121343</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173434</v>
+        <v>0.173355</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173408</v>
+        <v>0.173339</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116145</v>
+        <v>0.116429</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172126</v>
+        <v>0.172557</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172298</v>
+        <v>0.172345</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111407</v>
+        <v>0.111583</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171084</v>
+        <v>0.171283</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171051</v>
+        <v>0.171101</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106531</v>
+        <v>0.106704</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169952</v>
+        <v>0.170241</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169867</v>
+        <v>0.169784</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101604</v>
+        <v>0.1016</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168703</v>
+        <v>0.16913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168654</v>
+        <v>0.168632</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0967838</v>
+        <v>0.09669320000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18556</v>
+        <v>0.185775</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185528</v>
+        <v>0.185525</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160833</v>
+        <v>0.161042</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184143</v>
+        <v>0.184582</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184063</v>
+        <v>0.184039</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157014</v>
+        <v>0.157224</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182822</v>
+        <v>0.183189</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182604</v>
+        <v>0.182632</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152701</v>
+        <v>0.152845</v>
       </c>
       <c r="C69" t="n">
-        <v>0.18149</v>
+        <v>0.181742</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181251</v>
+        <v>0.18109</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147945</v>
+        <v>0.147765</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180084</v>
+        <v>0.180704</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179901</v>
+        <v>0.180016</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143024</v>
+        <v>0.143171</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178964</v>
+        <v>0.179219</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178678</v>
+        <v>0.178707</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138297</v>
+        <v>0.138283</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177739</v>
+        <v>0.178096</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177512</v>
+        <v>0.177477</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133623</v>
+        <v>0.133613</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176532</v>
+        <v>0.176994</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176207</v>
+        <v>0.176227</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128315</v>
+        <v>0.128544</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175401</v>
+        <v>0.175733</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175079</v>
+        <v>0.175088</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123444</v>
+        <v>0.123559</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174116</v>
+        <v>0.174607</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17388</v>
+        <v>0.17387</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118822</v>
+        <v>0.118777</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173072</v>
+        <v>0.173293</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172674</v>
+        <v>0.172682</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113751</v>
+        <v>0.113656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.17188</v>
+        <v>0.171981</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171562</v>
+        <v>0.171462</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.109034</v>
+        <v>0.108574</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170719</v>
+        <v>0.170865</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170376</v>
+        <v>0.170228</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.104159</v>
+        <v>0.104781</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169425</v>
+        <v>0.172171</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169115</v>
+        <v>0.171246</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09928679999999999</v>
+        <v>0.0999014</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186181</v>
+        <v>0.19098</v>
       </c>
       <c r="D80" t="n">
-        <v>0.185819</v>
+        <v>0.190142</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161653</v>
+        <v>0.165279</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184584</v>
+        <v>0.191552</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184283</v>
+        <v>0.190867</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157557</v>
+        <v>0.16342</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183184</v>
+        <v>0.190109</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182942</v>
+        <v>0.186679</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153415</v>
+        <v>0.153294</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181776</v>
+        <v>0.182434</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181556</v>
+        <v>0.181631</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148266</v>
+        <v>0.148862</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180213</v>
+        <v>0.180969</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180155</v>
+        <v>0.180432</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143508</v>
+        <v>0.143843</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178965</v>
+        <v>0.179964</v>
       </c>
       <c r="D85" t="n">
-        <v>0.180298</v>
+        <v>0.179106</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.140921</v>
+        <v>0.139542</v>
       </c>
       <c r="C86" t="n">
-        <v>0.181018</v>
+        <v>0.178781</v>
       </c>
       <c r="D86" t="n">
-        <v>0.180676</v>
+        <v>0.177809</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136677</v>
+        <v>0.133801</v>
       </c>
       <c r="C87" t="n">
-        <v>0.181757</v>
+        <v>0.177536</v>
       </c>
       <c r="D87" t="n">
-        <v>0.181282</v>
+        <v>0.176532</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.133144</v>
+        <v>0.129032</v>
       </c>
       <c r="C88" t="n">
-        <v>0.182203</v>
+        <v>0.176407</v>
       </c>
       <c r="D88" t="n">
-        <v>0.181864</v>
+        <v>0.175434</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.128807</v>
+        <v>0.123971</v>
       </c>
       <c r="C89" t="n">
-        <v>0.18082</v>
+        <v>0.175191</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17461</v>
+        <v>0.174162</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119015</v>
+        <v>0.118985</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173543</v>
+        <v>0.173998</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173004</v>
+        <v>0.173036</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114142</v>
+        <v>0.114212</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172362</v>
+        <v>0.172861</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171858</v>
+        <v>0.171778</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109176</v>
+        <v>0.109213</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171261</v>
+        <v>0.171688</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170588</v>
+        <v>0.170608</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104223</v>
+        <v>0.104322</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170112</v>
+        <v>0.170446</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16941</v>
+        <v>0.169458</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0992827</v>
+        <v>0.0994313</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186327</v>
+        <v>0.186895</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186235</v>
+        <v>0.186238</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162558</v>
+        <v>0.162676</v>
       </c>
       <c r="C95" t="n">
-        <v>0.18483</v>
+        <v>0.185387</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184786</v>
+        <v>0.184752</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.15855</v>
+        <v>0.158645</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183448</v>
+        <v>0.183884</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183345</v>
+        <v>0.183357</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15421</v>
+        <v>0.154302</v>
       </c>
       <c r="C97" t="n">
-        <v>0.182149</v>
+        <v>0.182492</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182054</v>
+        <v>0.181994</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149811</v>
+        <v>0.150079</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180657</v>
+        <v>0.181175</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180634</v>
+        <v>0.18063</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14473</v>
+        <v>0.145021</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179458</v>
+        <v>0.179841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179315</v>
+        <v>0.179339</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139808</v>
+        <v>0.139812</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178098</v>
+        <v>0.178631</v>
       </c>
       <c r="D100" t="n">
-        <v>0.17802</v>
+        <v>0.178041</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135003</v>
+        <v>0.134926</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176852</v>
+        <v>0.177384</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176792</v>
+        <v>0.1768</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130111</v>
+        <v>0.129704</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175771</v>
+        <v>0.176191</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175656</v>
+        <v>0.175616</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124919</v>
+        <v>0.124931</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174541</v>
+        <v>0.174862</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174437</v>
+        <v>0.174385</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.120152</v>
+        <v>0.12001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173366</v>
+        <v>0.173639</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173239</v>
+        <v>0.173309</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115189</v>
+        <v>0.115125</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172181</v>
+        <v>0.172465</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172101</v>
+        <v>0.172058</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110329</v>
+        <v>0.110259</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170887</v>
+        <v>0.171266</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170848</v>
+        <v>0.170839</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105435</v>
+        <v>0.1053</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169664</v>
+        <v>0.169978</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169652</v>
+        <v>0.169671</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100551</v>
+        <v>0.100447</v>
       </c>
       <c r="C108" t="n">
-        <v>0.18666</v>
+        <v>0.187229</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186627</v>
+        <v>0.186611</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955686</v>
+        <v>0.0955492</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185136</v>
+        <v>0.185644</v>
       </c>
       <c r="D109" t="n">
-        <v>0.185128</v>
+        <v>0.185067</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159889</v>
+        <v>0.1597</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18369</v>
+        <v>0.184225</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183602</v>
+        <v>0.183625</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155638</v>
+        <v>0.155082</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182266</v>
+        <v>0.182829</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182185</v>
+        <v>0.182207</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150711</v>
+        <v>0.150681</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180957</v>
+        <v>0.181336</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180854</v>
+        <v>0.180883</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146361</v>
+        <v>0.14574</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179677</v>
+        <v>0.180048</v>
       </c>
       <c r="D113" t="n">
-        <v>0.17956</v>
+        <v>0.179596</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.140975</v>
+        <v>0.14092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178398</v>
+        <v>0.178808</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178272</v>
+        <v>0.178291</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135982</v>
+        <v>0.135872</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177113</v>
+        <v>0.177542</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177057</v>
+        <v>0.177036</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.130947</v>
+        <v>0.131135</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175859</v>
+        <v>0.176284</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1759</v>
+        <v>0.175882</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126259</v>
+        <v>0.126138</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174744</v>
+        <v>0.175105</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174665</v>
+        <v>0.174604</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121146</v>
+        <v>0.121112</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173529</v>
+        <v>0.173925</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173508</v>
+        <v>0.173533</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116182</v>
+        <v>0.116171</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172318</v>
+        <v>0.172728</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172298</v>
+        <v>0.17237</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111193</v>
+        <v>0.111243</v>
       </c>
       <c r="C120" t="n">
-        <v>0.17112</v>
+        <v>0.171534</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171179</v>
+        <v>0.171188</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106272</v>
+        <v>0.106344</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170011</v>
+        <v>0.170285</v>
       </c>
       <c r="D121" t="n">
-        <v>0.16989</v>
+        <v>0.169874</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101416</v>
+        <v>0.10146</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168694</v>
+        <v>0.169043</v>
       </c>
       <c r="D122" t="n">
-        <v>0.16865</v>
+        <v>0.168654</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965094</v>
+        <v>0.0965761</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185464</v>
+        <v>0.186135</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185387</v>
+        <v>0.185438</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169756</v>
+        <v>0.169953</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184031</v>
+        <v>0.184499</v>
       </c>
       <c r="D124" t="n">
-        <v>0.183907</v>
+        <v>0.183974</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165414</v>
+        <v>0.16464</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182543</v>
+        <v>0.182994</v>
       </c>
       <c r="D125" t="n">
-        <v>0.18247</v>
+        <v>0.182502</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160393</v>
+        <v>0.163011</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181192</v>
+        <v>0.181508</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181165</v>
+        <v>0.181006</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155339</v>
+        <v>0.15892</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179889</v>
+        <v>0.183185</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179897</v>
+        <v>0.182836</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.149868</v>
+        <v>0.165178</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17863</v>
+        <v>0.1833</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178537</v>
+        <v>0.182579</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.144258</v>
+        <v>0.159269</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177418</v>
+        <v>0.182528</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177456</v>
+        <v>0.181012</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.139377</v>
+        <v>0.152522</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176243</v>
+        <v>0.179749</v>
       </c>
       <c r="D130" t="n">
-        <v>0.17617</v>
+        <v>0.178391</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.133819</v>
+        <v>0.146857</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175051</v>
+        <v>0.179259</v>
       </c>
       <c r="D131" t="n">
-        <v>0.17493</v>
+        <v>0.178194</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.128982</v>
+        <v>0.143743</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173837</v>
+        <v>0.17518</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173817</v>
+        <v>0.174646</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.1233</v>
+        <v>0.117161</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172624</v>
+        <v>0.172999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17267</v>
+        <v>0.172539</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.118302</v>
+        <v>0.11221</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171409</v>
+        <v>0.171746</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171478</v>
+        <v>0.171419</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.112984</v>
+        <v>0.107297</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170161</v>
+        <v>0.170568</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170134</v>
+        <v>0.170206</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.107961</v>
+        <v>0.102352</v>
       </c>
       <c r="C136" t="n">
-        <v>0.16897</v>
+        <v>0.169254</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168969</v>
+        <v>0.168936</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.102858</v>
+        <v>0.097479</v>
       </c>
       <c r="C137" t="n">
-        <v>0.195305</v>
+        <v>0.186267</v>
       </c>
       <c r="D137" t="n">
-        <v>0.195033</v>
+        <v>0.185786</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.170634</v>
+        <v>0.161373</v>
       </c>
       <c r="C138" t="n">
-        <v>0.193127</v>
+        <v>0.184772</v>
       </c>
       <c r="D138" t="n">
-        <v>0.192993</v>
+        <v>0.184293</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.166157</v>
+        <v>0.157186</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191504</v>
+        <v>0.183284</v>
       </c>
       <c r="D139" t="n">
-        <v>0.191298</v>
+        <v>0.182858</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16138</v>
+        <v>0.152681</v>
       </c>
       <c r="C140" t="n">
-        <v>0.189951</v>
+        <v>0.181914</v>
       </c>
       <c r="D140" t="n">
-        <v>0.189498</v>
+        <v>0.181496</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.156289</v>
+        <v>0.147809</v>
       </c>
       <c r="C141" t="n">
-        <v>0.188007</v>
+        <v>0.18066</v>
       </c>
       <c r="D141" t="n">
-        <v>0.187881</v>
+        <v>0.180149</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.151038</v>
+        <v>0.142982</v>
       </c>
       <c r="C142" t="n">
-        <v>0.18651</v>
+        <v>0.179278</v>
       </c>
       <c r="D142" t="n">
-        <v>0.18624</v>
+        <v>0.178783</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14585</v>
+        <v>0.138127</v>
       </c>
       <c r="C143" t="n">
-        <v>0.184688</v>
+        <v>0.178135</v>
       </c>
       <c r="D143" t="n">
-        <v>0.18471</v>
+        <v>0.177581</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06945949999999999</v>
+        <v>0.06475499999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.162871</v>
+        <v>0.163079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.165147</v>
+        <v>0.164967</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06943580000000001</v>
+        <v>0.0640626</v>
       </c>
       <c r="C3" t="n">
-        <v>0.162419</v>
+        <v>0.162565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.16534</v>
+        <v>0.164664</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07095659999999999</v>
+        <v>0.0639574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.162933</v>
+        <v>0.162974</v>
       </c>
       <c r="D4" t="n">
-        <v>0.165282</v>
+        <v>0.165644</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0703821</v>
+        <v>0.0639812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.162415</v>
+        <v>0.162549</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16462</v>
+        <v>0.164777</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0700447</v>
+        <v>0.0640879</v>
       </c>
       <c r="C6" t="n">
-        <v>0.162141</v>
+        <v>0.162096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.164083</v>
+        <v>0.164203</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0692905</v>
+        <v>0.0645651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.161498</v>
+        <v>0.161768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.163417</v>
+        <v>0.162614</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06888569999999999</v>
+        <v>0.0650847</v>
       </c>
       <c r="C8" t="n">
-        <v>0.161208</v>
+        <v>0.161511</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162509</v>
+        <v>0.162686</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0691049</v>
+        <v>0.06565840000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.17</v>
+        <v>0.170251</v>
       </c>
       <c r="D9" t="n">
-        <v>0.175565</v>
+        <v>0.175637</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.115671</v>
+        <v>0.0914451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.169428</v>
+        <v>0.169435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175929</v>
+        <v>0.175704</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.115489</v>
+        <v>0.0931627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.169178</v>
+        <v>0.169282</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1749</v>
+        <v>0.174415</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.11372</v>
+        <v>0.09296749999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168356</v>
+        <v>0.168794</v>
       </c>
       <c r="D12" t="n">
-        <v>0.174723</v>
+        <v>0.174192</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.112742</v>
+        <v>0.0930082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167874</v>
+        <v>0.168143</v>
       </c>
       <c r="D13" t="n">
-        <v>0.173657</v>
+        <v>0.173534</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.109963</v>
+        <v>0.0914768</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167274</v>
+        <v>0.167659</v>
       </c>
       <c r="D14" t="n">
-        <v>0.173383</v>
+        <v>0.173445</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107557</v>
+        <v>0.09137919999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167261</v>
+        <v>0.167111</v>
       </c>
       <c r="D15" t="n">
-        <v>0.172513</v>
+        <v>0.172574</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.105649</v>
+        <v>0.0892778</v>
       </c>
       <c r="C16" t="n">
-        <v>0.166616</v>
+        <v>0.166688</v>
       </c>
       <c r="D16" t="n">
-        <v>0.171423</v>
+        <v>0.171693</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.102617</v>
+        <v>0.08699759999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.166196</v>
+        <v>0.166066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.17103</v>
+        <v>0.170749</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.09909610000000001</v>
+        <v>0.0861315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.165496</v>
+        <v>0.165393</v>
       </c>
       <c r="D18" t="n">
-        <v>0.170126</v>
+        <v>0.169932</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.09644519999999999</v>
+        <v>0.0837639</v>
       </c>
       <c r="C19" t="n">
-        <v>0.16491</v>
+        <v>0.164973</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168639</v>
+        <v>0.16867</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09659189999999999</v>
+        <v>0.0843844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.165526</v>
+        <v>0.164668</v>
       </c>
       <c r="D20" t="n">
-        <v>0.168492</v>
+        <v>0.16871</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0924191</v>
+        <v>0.08239349999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167424</v>
+        <v>0.165057</v>
       </c>
       <c r="D21" t="n">
-        <v>0.167446</v>
+        <v>0.167473</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0906898</v>
+        <v>0.08134230000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.167133</v>
+        <v>0.166427</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166228</v>
+        <v>0.165834</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0875754</v>
+        <v>0.0785566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.174452</v>
+        <v>0.175369</v>
       </c>
       <c r="D23" t="n">
-        <v>0.183715</v>
+        <v>0.182706</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149421</v>
+        <v>0.135047</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174968</v>
+        <v>0.174131</v>
       </c>
       <c r="D24" t="n">
-        <v>0.181866</v>
+        <v>0.182309</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14597</v>
+        <v>0.133324</v>
       </c>
       <c r="C25" t="n">
-        <v>0.175874</v>
+        <v>0.17441</v>
       </c>
       <c r="D25" t="n">
-        <v>0.180869</v>
+        <v>0.179549</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.142786</v>
+        <v>0.129807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.173712</v>
+        <v>0.173293</v>
       </c>
       <c r="D26" t="n">
-        <v>0.179788</v>
+        <v>0.179105</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.138083</v>
+        <v>0.12675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.173218</v>
+        <v>0.171561</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178215</v>
+        <v>0.178521</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.134162</v>
+        <v>0.123267</v>
       </c>
       <c r="C28" t="n">
-        <v>0.172232</v>
+        <v>0.172163</v>
       </c>
       <c r="D28" t="n">
-        <v>0.177899</v>
+        <v>0.177267</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.130087</v>
+        <v>0.120161</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173033</v>
+        <v>0.171011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.176491</v>
+        <v>0.176741</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.125961</v>
+        <v>0.11815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.170832</v>
+        <v>0.170777</v>
       </c>
       <c r="D30" t="n">
-        <v>0.175569</v>
+        <v>0.175089</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.122039</v>
+        <v>0.115228</v>
       </c>
       <c r="C31" t="n">
-        <v>0.170213</v>
+        <v>0.170867</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174443</v>
+        <v>0.17421</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.117589</v>
+        <v>0.112044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.16953</v>
+        <v>0.169635</v>
       </c>
       <c r="D32" t="n">
-        <v>0.17318</v>
+        <v>0.173253</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.112886</v>
+        <v>0.109127</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169965</v>
+        <v>0.169902</v>
       </c>
       <c r="D33" t="n">
-        <v>0.171729</v>
+        <v>0.171845</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.108391</v>
+        <v>0.104253</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168208</v>
+        <v>0.169104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.170784</v>
+        <v>0.170394</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.103699</v>
+        <v>0.0998117</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168504</v>
+        <v>0.169031</v>
       </c>
       <c r="D35" t="n">
-        <v>0.169533</v>
+        <v>0.169132</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0985883</v>
+        <v>0.09560780000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167538</v>
+        <v>0.166157</v>
       </c>
       <c r="D36" t="n">
-        <v>0.168166</v>
+        <v>0.167869</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0943638</v>
+        <v>0.09076770000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.181433</v>
+        <v>0.182087</v>
       </c>
       <c r="D37" t="n">
-        <v>0.185307</v>
+        <v>0.185392</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157615</v>
+        <v>0.15346</v>
       </c>
       <c r="C38" t="n">
-        <v>0.180366</v>
+        <v>0.180411</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18398</v>
+        <v>0.184022</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154057</v>
+        <v>0.15085</v>
       </c>
       <c r="C39" t="n">
-        <v>0.179605</v>
+        <v>0.178886</v>
       </c>
       <c r="D39" t="n">
-        <v>0.182333</v>
+        <v>0.182421</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150049</v>
+        <v>0.147267</v>
       </c>
       <c r="C40" t="n">
-        <v>0.177416</v>
+        <v>0.178025</v>
       </c>
       <c r="D40" t="n">
-        <v>0.181331</v>
+        <v>0.18132</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146387</v>
+        <v>0.143537</v>
       </c>
       <c r="C41" t="n">
-        <v>0.176944</v>
+        <v>0.177379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.17981</v>
+        <v>0.179913</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142243</v>
+        <v>0.139376</v>
       </c>
       <c r="C42" t="n">
-        <v>0.176451</v>
+        <v>0.17524</v>
       </c>
       <c r="D42" t="n">
-        <v>0.178634</v>
+        <v>0.17867</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137555</v>
+        <v>0.135343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.175825</v>
+        <v>0.174654</v>
       </c>
       <c r="D43" t="n">
-        <v>0.177569</v>
+        <v>0.177423</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133099</v>
+        <v>0.131136</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174466</v>
+        <v>0.173803</v>
       </c>
       <c r="D44" t="n">
-        <v>0.176433</v>
+        <v>0.176368</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128176</v>
+        <v>0.126557</v>
       </c>
       <c r="C45" t="n">
-        <v>0.173454</v>
+        <v>0.172791</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17513</v>
+        <v>0.175185</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123515</v>
+        <v>0.121871</v>
       </c>
       <c r="C46" t="n">
-        <v>0.172613</v>
+        <v>0.171867</v>
       </c>
       <c r="D46" t="n">
-        <v>0.173899</v>
+        <v>0.173909</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118795</v>
+        <v>0.117354</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172026</v>
+        <v>0.17088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.172858</v>
+        <v>0.172807</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113774</v>
+        <v>0.112468</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17126</v>
+        <v>0.169715</v>
       </c>
       <c r="D48" t="n">
-        <v>0.171613</v>
+        <v>0.171486</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108958</v>
+        <v>0.108057</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170415</v>
+        <v>0.169317</v>
       </c>
       <c r="D49" t="n">
-        <v>0.170421</v>
+        <v>0.170426</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1037</v>
+        <v>0.103124</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169402</v>
+        <v>0.16861</v>
       </c>
       <c r="D50" t="n">
-        <v>0.169161</v>
+        <v>0.169176</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0986138</v>
+        <v>0.0980134</v>
       </c>
       <c r="C51" t="n">
-        <v>0.184722</v>
+        <v>0.184753</v>
       </c>
       <c r="D51" t="n">
-        <v>0.186115</v>
+        <v>0.186104</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09380189999999999</v>
+        <v>0.09289650000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.183565</v>
+        <v>0.183399</v>
       </c>
       <c r="D52" t="n">
-        <v>0.184662</v>
+        <v>0.184603</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158524</v>
+        <v>0.156841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182024</v>
+        <v>0.182004</v>
       </c>
       <c r="D53" t="n">
-        <v>0.183274</v>
+        <v>0.183312</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154459</v>
+        <v>0.153253</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181014</v>
+        <v>0.180775</v>
       </c>
       <c r="D54" t="n">
-        <v>0.181909</v>
+        <v>0.18177</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150031</v>
+        <v>0.148993</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179625</v>
+        <v>0.179502</v>
       </c>
       <c r="D55" t="n">
-        <v>0.180596</v>
+        <v>0.18058</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145783</v>
+        <v>0.144202</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178669</v>
+        <v>0.178454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179411</v>
+        <v>0.179348</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140748</v>
+        <v>0.139963</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177674</v>
+        <v>0.177354</v>
       </c>
       <c r="D57" t="n">
-        <v>0.178182</v>
+        <v>0.178135</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136164</v>
+        <v>0.135309</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176617</v>
+        <v>0.176479</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176935</v>
+        <v>0.176912</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131234</v>
+        <v>0.130359</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175358</v>
+        <v>0.175334</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175808</v>
+        <v>0.175827</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12621</v>
+        <v>0.125589</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174462</v>
+        <v>0.17429</v>
       </c>
       <c r="D60" t="n">
-        <v>0.174595</v>
+        <v>0.174625</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121343</v>
+        <v>0.120834</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173355</v>
+        <v>0.173249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.173339</v>
+        <v>0.173944</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116429</v>
+        <v>0.11588</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172557</v>
+        <v>0.172319</v>
       </c>
       <c r="D62" t="n">
-        <v>0.172345</v>
+        <v>0.172218</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111583</v>
+        <v>0.110973</v>
       </c>
       <c r="C63" t="n">
-        <v>0.171283</v>
+        <v>0.171074</v>
       </c>
       <c r="D63" t="n">
-        <v>0.171101</v>
+        <v>0.170948</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106704</v>
+        <v>0.106231</v>
       </c>
       <c r="C64" t="n">
-        <v>0.170241</v>
+        <v>0.170074</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169784</v>
+        <v>0.169787</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1016</v>
+        <v>0.101488</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16913</v>
+        <v>0.169018</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168632</v>
+        <v>0.168575</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09669320000000001</v>
+        <v>0.0964626</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185775</v>
+        <v>0.185715</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185525</v>
+        <v>0.185495</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.161042</v>
+        <v>0.160298</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184582</v>
+        <v>0.184618</v>
       </c>
       <c r="D67" t="n">
-        <v>0.184039</v>
+        <v>0.18401</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.157224</v>
+        <v>0.156405</v>
       </c>
       <c r="C68" t="n">
-        <v>0.183189</v>
+        <v>0.183099</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182632</v>
+        <v>0.182625</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.152845</v>
+        <v>0.152173</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181742</v>
+        <v>0.181851</v>
       </c>
       <c r="D69" t="n">
-        <v>0.18109</v>
+        <v>0.181254</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147765</v>
+        <v>0.147576</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180704</v>
+        <v>0.180471</v>
       </c>
       <c r="D70" t="n">
-        <v>0.180016</v>
+        <v>0.179927</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143171</v>
+        <v>0.14299</v>
       </c>
       <c r="C71" t="n">
-        <v>0.179219</v>
+        <v>0.179037</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178707</v>
+        <v>0.178686</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138283</v>
+        <v>0.138313</v>
       </c>
       <c r="C72" t="n">
-        <v>0.178096</v>
+        <v>0.177577</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177477</v>
+        <v>0.177296</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133613</v>
+        <v>0.133224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176994</v>
+        <v>0.176475</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176227</v>
+        <v>0.176046</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128544</v>
+        <v>0.128255</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175733</v>
+        <v>0.175402</v>
       </c>
       <c r="D74" t="n">
-        <v>0.175088</v>
+        <v>0.174952</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123559</v>
+        <v>0.123222</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174607</v>
+        <v>0.174273</v>
       </c>
       <c r="D75" t="n">
-        <v>0.17387</v>
+        <v>0.173728</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118777</v>
+        <v>0.118123</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173293</v>
+        <v>0.173162</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172682</v>
+        <v>0.172574</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113656</v>
+        <v>0.11298</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171981</v>
+        <v>0.171992</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171462</v>
+        <v>0.17155</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108574</v>
+        <v>0.108326</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170865</v>
+        <v>0.171182</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170228</v>
+        <v>0.17038</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.104781</v>
+        <v>0.103367</v>
       </c>
       <c r="C79" t="n">
-        <v>0.172171</v>
+        <v>0.16978</v>
       </c>
       <c r="D79" t="n">
-        <v>0.171246</v>
+        <v>0.169107</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0999014</v>
+        <v>0.0984786</v>
       </c>
       <c r="C80" t="n">
-        <v>0.19098</v>
+        <v>0.186706</v>
       </c>
       <c r="D80" t="n">
-        <v>0.190142</v>
+        <v>0.185789</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.165279</v>
+        <v>0.161431</v>
       </c>
       <c r="C81" t="n">
-        <v>0.191552</v>
+        <v>0.185097</v>
       </c>
       <c r="D81" t="n">
-        <v>0.190867</v>
+        <v>0.184281</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.16342</v>
+        <v>0.157523</v>
       </c>
       <c r="C82" t="n">
-        <v>0.190109</v>
+        <v>0.183679</v>
       </c>
       <c r="D82" t="n">
-        <v>0.186679</v>
+        <v>0.18288</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153294</v>
+        <v>0.153199</v>
       </c>
       <c r="C83" t="n">
-        <v>0.182434</v>
+        <v>0.182328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181631</v>
+        <v>0.181556</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148862</v>
+        <v>0.14877</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180969</v>
+        <v>0.180997</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180432</v>
+        <v>0.180222</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143843</v>
+        <v>0.143818</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179964</v>
+        <v>0.179608</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179106</v>
+        <v>0.178956</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139542</v>
+        <v>0.138836</v>
       </c>
       <c r="C86" t="n">
-        <v>0.178781</v>
+        <v>0.17838</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177809</v>
+        <v>0.17768</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133801</v>
+        <v>0.133957</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177536</v>
+        <v>0.177089</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176532</v>
+        <v>0.176476</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129032</v>
+        <v>0.128973</v>
       </c>
       <c r="C88" t="n">
-        <v>0.176407</v>
+        <v>0.175959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175434</v>
+        <v>0.175263</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.123971</v>
+        <v>0.12427</v>
       </c>
       <c r="C89" t="n">
-        <v>0.175191</v>
+        <v>0.174735</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174162</v>
+        <v>0.174163</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.118985</v>
+        <v>0.119186</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173998</v>
+        <v>0.173514</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173036</v>
+        <v>0.172983</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114212</v>
+        <v>0.11421</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172861</v>
+        <v>0.172259</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171778</v>
+        <v>0.171886</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109213</v>
+        <v>0.109218</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171688</v>
+        <v>0.171042</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170608</v>
+        <v>0.170599</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104322</v>
+        <v>0.104344</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170446</v>
+        <v>0.169893</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169458</v>
+        <v>0.169386</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994313</v>
+        <v>0.0994405</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186895</v>
+        <v>0.186909</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186238</v>
+        <v>0.186281</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162676</v>
+        <v>0.162442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.185387</v>
+        <v>0.185321</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184752</v>
+        <v>0.184714</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158645</v>
+        <v>0.15843</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183884</v>
+        <v>0.183842</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183357</v>
+        <v>0.18331</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154302</v>
+        <v>0.154001</v>
       </c>
       <c r="C97" t="n">
-        <v>0.182492</v>
+        <v>0.182447</v>
       </c>
       <c r="D97" t="n">
-        <v>0.181994</v>
+        <v>0.181971</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.150079</v>
+        <v>0.149699</v>
       </c>
       <c r="C98" t="n">
-        <v>0.181175</v>
+        <v>0.181089</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18063</v>
+        <v>0.180614</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145021</v>
+        <v>0.144972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179841</v>
+        <v>0.17981</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179339</v>
+        <v>0.179273</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.139812</v>
+        <v>0.140005</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178631</v>
+        <v>0.178499</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178041</v>
+        <v>0.178023</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.134926</v>
+        <v>0.135089</v>
       </c>
       <c r="C101" t="n">
-        <v>0.177384</v>
+        <v>0.177245</v>
       </c>
       <c r="D101" t="n">
-        <v>0.1768</v>
+        <v>0.176828</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.129704</v>
+        <v>0.130143</v>
       </c>
       <c r="C102" t="n">
-        <v>0.176191</v>
+        <v>0.175948</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175616</v>
+        <v>0.175601</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.124931</v>
+        <v>0.125173</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174862</v>
+        <v>0.174837</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174385</v>
+        <v>0.174451</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12001</v>
+        <v>0.12009</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173639</v>
+        <v>0.173604</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173309</v>
+        <v>0.173178</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115125</v>
+        <v>0.115177</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172465</v>
+        <v>0.172397</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172058</v>
+        <v>0.172062</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110259</v>
+        <v>0.110205</v>
       </c>
       <c r="C106" t="n">
-        <v>0.171266</v>
+        <v>0.171175</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170839</v>
+        <v>0.17081</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1053</v>
+        <v>0.10534</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169978</v>
+        <v>0.169942</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169671</v>
+        <v>0.169687</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100447</v>
+        <v>0.10049</v>
       </c>
       <c r="C108" t="n">
-        <v>0.187229</v>
+        <v>0.187238</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186611</v>
+        <v>0.186643</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0955492</v>
+        <v>0.09554849999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185644</v>
+        <v>0.185558</v>
       </c>
       <c r="D109" t="n">
-        <v>0.185067</v>
+        <v>0.185099</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.1597</v>
+        <v>0.159439</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184225</v>
+        <v>0.184216</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183625</v>
+        <v>0.183607</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155082</v>
+        <v>0.155465</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182829</v>
+        <v>0.182705</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182207</v>
+        <v>0.182155</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150681</v>
+        <v>0.15081</v>
       </c>
       <c r="C112" t="n">
-        <v>0.181336</v>
+        <v>0.181262</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180883</v>
+        <v>0.180769</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.14574</v>
+        <v>0.145946</v>
       </c>
       <c r="C113" t="n">
-        <v>0.180048</v>
+        <v>0.179965</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179596</v>
+        <v>0.179541</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14092</v>
+        <v>0.141208</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178808</v>
+        <v>0.178711</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178291</v>
+        <v>0.178224</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135872</v>
+        <v>0.136144</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177542</v>
+        <v>0.177463</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177036</v>
+        <v>0.177052</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131135</v>
+        <v>0.131083</v>
       </c>
       <c r="C116" t="n">
-        <v>0.176284</v>
+        <v>0.176233</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175882</v>
+        <v>0.175826</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126138</v>
+        <v>0.126001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.175105</v>
+        <v>0.175048</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174604</v>
+        <v>0.174627</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121112</v>
+        <v>0.121107</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173925</v>
+        <v>0.173795</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173533</v>
+        <v>0.173519</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116171</v>
+        <v>0.116124</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172728</v>
+        <v>0.172706</v>
       </c>
       <c r="D119" t="n">
-        <v>0.17237</v>
+        <v>0.1724</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111243</v>
+        <v>0.111219</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171534</v>
+        <v>0.171471</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171188</v>
+        <v>0.171139</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106344</v>
+        <v>0.106339</v>
       </c>
       <c r="C121" t="n">
-        <v>0.170285</v>
+        <v>0.170154</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169874</v>
+        <v>0.169865</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.10146</v>
+        <v>0.101461</v>
       </c>
       <c r="C122" t="n">
-        <v>0.169043</v>
+        <v>0.168919</v>
       </c>
       <c r="D122" t="n">
-        <v>0.168654</v>
+        <v>0.16864</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0965761</v>
+        <v>0.0965102</v>
       </c>
       <c r="C123" t="n">
-        <v>0.186135</v>
+        <v>0.185978</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185438</v>
+        <v>0.185416</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169953</v>
+        <v>0.169621</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184499</v>
+        <v>0.1846</v>
       </c>
       <c r="D124" t="n">
-        <v>0.183974</v>
+        <v>0.18396</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.16464</v>
+        <v>0.165562</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182994</v>
+        <v>0.182916</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182502</v>
+        <v>0.182459</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163011</v>
+        <v>0.160362</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181508</v>
+        <v>0.181582</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181006</v>
+        <v>0.181097</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15892</v>
+        <v>0.155342</v>
       </c>
       <c r="C127" t="n">
-        <v>0.183185</v>
+        <v>0.180295</v>
       </c>
       <c r="D127" t="n">
-        <v>0.182836</v>
+        <v>0.179773</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.165178</v>
+        <v>0.149777</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1833</v>
+        <v>0.178959</v>
       </c>
       <c r="D128" t="n">
-        <v>0.182579</v>
+        <v>0.178539</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.159269</v>
+        <v>0.144543</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182528</v>
+        <v>0.177706</v>
       </c>
       <c r="D129" t="n">
-        <v>0.181012</v>
+        <v>0.177317</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.152522</v>
+        <v>0.139171</v>
       </c>
       <c r="C130" t="n">
-        <v>0.179749</v>
+        <v>0.17646</v>
       </c>
       <c r="D130" t="n">
-        <v>0.178391</v>
+        <v>0.176082</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.146857</v>
+        <v>0.13377</v>
       </c>
       <c r="C131" t="n">
-        <v>0.179259</v>
+        <v>0.175247</v>
       </c>
       <c r="D131" t="n">
-        <v>0.178194</v>
+        <v>0.174938</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.143743</v>
+        <v>0.128449</v>
       </c>
       <c r="C132" t="n">
-        <v>0.17518</v>
+        <v>0.174038</v>
       </c>
       <c r="D132" t="n">
-        <v>0.174646</v>
+        <v>0.173818</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117161</v>
+        <v>0.123497</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172999</v>
+        <v>0.172938</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172539</v>
+        <v>0.172495</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11221</v>
+        <v>0.118264</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171746</v>
+        <v>0.171656</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171419</v>
+        <v>0.17131</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107297</v>
+        <v>0.113075</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170568</v>
+        <v>0.170453</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170206</v>
+        <v>0.170109</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102352</v>
+        <v>0.107903</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169254</v>
+        <v>0.169129</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168936</v>
+        <v>0.168911</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.097479</v>
+        <v>0.10277</v>
       </c>
       <c r="C137" t="n">
-        <v>0.186267</v>
+        <v>0.195771</v>
       </c>
       <c r="D137" t="n">
-        <v>0.185786</v>
+        <v>0.194996</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161373</v>
+        <v>0.170869</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184772</v>
+        <v>0.193607</v>
       </c>
       <c r="D138" t="n">
-        <v>0.184293</v>
+        <v>0.192914</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.157186</v>
+        <v>0.166217</v>
       </c>
       <c r="C139" t="n">
-        <v>0.183284</v>
+        <v>0.192036</v>
       </c>
       <c r="D139" t="n">
-        <v>0.182858</v>
+        <v>0.191177</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152681</v>
+        <v>0.161839</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181914</v>
+        <v>0.190141</v>
       </c>
       <c r="D140" t="n">
-        <v>0.181496</v>
+        <v>0.189478</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.147809</v>
+        <v>0.156526</v>
       </c>
       <c r="C141" t="n">
-        <v>0.18066</v>
+        <v>0.188377</v>
       </c>
       <c r="D141" t="n">
-        <v>0.180149</v>
+        <v>0.187903</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.142982</v>
+        <v>0.15133</v>
       </c>
       <c r="C142" t="n">
-        <v>0.179278</v>
+        <v>0.186769</v>
       </c>
       <c r="D142" t="n">
-        <v>0.178783</v>
+        <v>0.186124</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.138127</v>
+        <v>0.145558</v>
       </c>
       <c r="C143" t="n">
-        <v>0.178135</v>
+        <v>0.18521</v>
       </c>
       <c r="D143" t="n">
-        <v>0.177581</v>
+        <v>0.184602</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06514209999999999</v>
+        <v>0.0735305</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160547</v>
+        <v>0.160141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.279168</v>
+        <v>0.268553</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0646888</v>
+        <v>0.0741001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.15973</v>
+        <v>0.160472</v>
       </c>
       <c r="D3" t="n">
-        <v>0.281786</v>
+        <v>0.269722</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0647631</v>
+        <v>0.0730386</v>
       </c>
       <c r="C4" t="n">
-        <v>0.160588</v>
+        <v>0.161119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.283512</v>
+        <v>0.272464</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.064111</v>
+        <v>0.071105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160445</v>
+        <v>0.159921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28496</v>
+        <v>0.274381</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06420380000000001</v>
+        <v>0.0712026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160192</v>
+        <v>0.160344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.285631</v>
+        <v>0.275667</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06460630000000001</v>
+        <v>0.07014339999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.160213</v>
+        <v>0.159987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.274944</v>
+        <v>0.2687</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.065148</v>
+        <v>0.0687593</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160092</v>
+        <v>0.160084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.275954</v>
+        <v>0.268734</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.065887</v>
+        <v>0.0677582</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168084</v>
+        <v>0.168215</v>
       </c>
       <c r="D9" t="n">
-        <v>0.274606</v>
+        <v>0.269008</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0887059</v>
+        <v>0.124654</v>
       </c>
       <c r="C10" t="n">
-        <v>0.167852</v>
+        <v>0.168182</v>
       </c>
       <c r="D10" t="n">
-        <v>0.278916</v>
+        <v>0.274179</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0899031</v>
+        <v>0.123627</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168048</v>
+        <v>0.168387</v>
       </c>
       <c r="D11" t="n">
-        <v>0.281139</v>
+        <v>0.274984</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0896067</v>
+        <v>0.122994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168336</v>
+        <v>0.168378</v>
       </c>
       <c r="D12" t="n">
-        <v>0.281362</v>
+        <v>0.278414</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0881233</v>
+        <v>0.120607</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167812</v>
+        <v>0.167399</v>
       </c>
       <c r="D13" t="n">
-        <v>0.283914</v>
+        <v>0.280117</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0885856</v>
+        <v>0.117375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167109</v>
+        <v>0.167153</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286102</v>
+        <v>0.281164</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0878598</v>
+        <v>0.115594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.16623</v>
+        <v>0.167094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.287227</v>
+        <v>0.282979</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0890312</v>
+        <v>0.112974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.166871</v>
+        <v>0.169417</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288543</v>
+        <v>0.283526</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0888992</v>
+        <v>0.110372</v>
       </c>
       <c r="C17" t="n">
-        <v>0.166478</v>
+        <v>0.169144</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288696</v>
+        <v>0.283447</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0874554</v>
+        <v>0.107904</v>
       </c>
       <c r="C18" t="n">
-        <v>0.165707</v>
+        <v>0.168538</v>
       </c>
       <c r="D18" t="n">
-        <v>0.290398</v>
+        <v>0.284191</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0861986</v>
+        <v>0.103817</v>
       </c>
       <c r="C19" t="n">
-        <v>0.165031</v>
+        <v>0.167123</v>
       </c>
       <c r="D19" t="n">
-        <v>0.290918</v>
+        <v>0.286785</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08517719999999999</v>
+        <v>0.09864050000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1649</v>
+        <v>0.167472</v>
       </c>
       <c r="D20" t="n">
-        <v>0.294304</v>
+        <v>0.288881</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0834608</v>
+        <v>0.09455379999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.164776</v>
+        <v>0.166164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.281251</v>
+        <v>0.278793</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0819814</v>
+        <v>0.0900735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.163625</v>
+        <v>0.165728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.281687</v>
+        <v>0.278811</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.080834</v>
+        <v>0.08621379999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.178868</v>
+        <v>0.182769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.285584</v>
+        <v>0.279515</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.131692</v>
+        <v>0.150464</v>
       </c>
       <c r="C24" t="n">
-        <v>0.179678</v>
+        <v>0.180094</v>
       </c>
       <c r="D24" t="n">
-        <v>0.288282</v>
+        <v>0.280252</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.129644</v>
+        <v>0.147249</v>
       </c>
       <c r="C25" t="n">
-        <v>0.178316</v>
+        <v>0.179058</v>
       </c>
       <c r="D25" t="n">
-        <v>0.293925</v>
+        <v>0.281799</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.131203</v>
+        <v>0.143715</v>
       </c>
       <c r="C26" t="n">
-        <v>0.179476</v>
+        <v>0.176486</v>
       </c>
       <c r="D26" t="n">
-        <v>0.28808</v>
+        <v>0.283353</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.124779</v>
+        <v>0.140284</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17654</v>
+        <v>0.17608</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287253</v>
+        <v>0.283768</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122183</v>
+        <v>0.135856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.17461</v>
+        <v>0.175044</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288906</v>
+        <v>0.285697</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120451</v>
+        <v>0.132244</v>
       </c>
       <c r="C29" t="n">
-        <v>0.173279</v>
+        <v>0.174862</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291093</v>
+        <v>0.288034</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.117679</v>
+        <v>0.127797</v>
       </c>
       <c r="C30" t="n">
-        <v>0.173751</v>
+        <v>0.172771</v>
       </c>
       <c r="D30" t="n">
-        <v>0.292102</v>
+        <v>0.289162</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114215</v>
+        <v>0.12367</v>
       </c>
       <c r="C31" t="n">
-        <v>0.170825</v>
+        <v>0.172113</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2932</v>
+        <v>0.290686</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111054</v>
+        <v>0.118988</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170453</v>
+        <v>0.170972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.29395</v>
+        <v>0.292408</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.107336</v>
+        <v>0.114619</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169678</v>
+        <v>0.169696</v>
       </c>
       <c r="D33" t="n">
-        <v>0.296171</v>
+        <v>0.291707</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102908</v>
+        <v>0.109809</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168909</v>
+        <v>0.168886</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296375</v>
+        <v>0.293692</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0980835</v>
+        <v>0.105259</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1673</v>
+        <v>0.166926</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284355</v>
+        <v>0.282325</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0948746</v>
+        <v>0.0995543</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166577</v>
+        <v>0.166019</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284807</v>
+        <v>0.283833</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0908819</v>
+        <v>0.093958</v>
       </c>
       <c r="C37" t="n">
-        <v>0.182873</v>
+        <v>0.183138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286368</v>
+        <v>0.284924</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.152468</v>
+        <v>0.157665</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182937</v>
+        <v>0.182034</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286301</v>
+        <v>0.286561</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.149102</v>
+        <v>0.154776</v>
       </c>
       <c r="C39" t="n">
-        <v>0.181548</v>
+        <v>0.180738</v>
       </c>
       <c r="D39" t="n">
-        <v>0.287581</v>
+        <v>0.288186</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.145484</v>
+        <v>0.151233</v>
       </c>
       <c r="C40" t="n">
-        <v>0.180155</v>
+        <v>0.179826</v>
       </c>
       <c r="D40" t="n">
-        <v>0.289046</v>
+        <v>0.287683</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.142152</v>
+        <v>0.14686</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178188</v>
+        <v>0.178956</v>
       </c>
       <c r="D41" t="n">
-        <v>0.289677</v>
+        <v>0.289446</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.138137</v>
+        <v>0.142947</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178144</v>
+        <v>0.177692</v>
       </c>
       <c r="D42" t="n">
-        <v>0.29157</v>
+        <v>0.291125</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.134765</v>
+        <v>0.13816</v>
       </c>
       <c r="C43" t="n">
-        <v>0.176424</v>
+        <v>0.17647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292293</v>
+        <v>0.291378</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130662</v>
+        <v>0.133527</v>
       </c>
       <c r="C44" t="n">
-        <v>0.174992</v>
+        <v>0.175181</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294612</v>
+        <v>0.293288</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.125975</v>
+        <v>0.129022</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174189</v>
+        <v>0.174224</v>
       </c>
       <c r="D45" t="n">
-        <v>0.294556</v>
+        <v>0.293439</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.121565</v>
+        <v>0.123772</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173002</v>
+        <v>0.173047</v>
       </c>
       <c r="D46" t="n">
-        <v>0.295616</v>
+        <v>0.294289</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.117221</v>
+        <v>0.119223</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17202</v>
+        <v>0.17228</v>
       </c>
       <c r="D47" t="n">
-        <v>0.29718</v>
+        <v>0.295224</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112501</v>
+        <v>0.114055</v>
       </c>
       <c r="C48" t="n">
-        <v>0.170973</v>
+        <v>0.1713</v>
       </c>
       <c r="D48" t="n">
-        <v>0.297434</v>
+        <v>0.295278</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.107345</v>
+        <v>0.109144</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170013</v>
+        <v>0.170293</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299725</v>
+        <v>0.296947</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.102426</v>
+        <v>0.104385</v>
       </c>
       <c r="C50" t="n">
-        <v>0.169078</v>
+        <v>0.168898</v>
       </c>
       <c r="D50" t="n">
-        <v>0.286811</v>
+        <v>0.285663</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0976356</v>
+        <v>0.09888710000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185746</v>
+        <v>0.185761</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288448</v>
+        <v>0.286772</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0924672</v>
+        <v>0.0933316</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184696</v>
+        <v>0.184343</v>
       </c>
       <c r="D52" t="n">
-        <v>0.288918</v>
+        <v>0.287247</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15662</v>
+        <v>0.158422</v>
       </c>
       <c r="C53" t="n">
-        <v>0.182971</v>
+        <v>0.183136</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290886</v>
+        <v>0.289012</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.153117</v>
+        <v>0.154371</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181617</v>
+        <v>0.181618</v>
       </c>
       <c r="D54" t="n">
-        <v>0.29162</v>
+        <v>0.290163</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.149105</v>
+        <v>0.150294</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180312</v>
+        <v>0.180366</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292324</v>
+        <v>0.291063</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.144688</v>
+        <v>0.145994</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178947</v>
+        <v>0.178986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2942</v>
+        <v>0.293206</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.140245</v>
+        <v>0.14124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17791</v>
+        <v>0.177661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294805</v>
+        <v>0.294591</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135367</v>
+        <v>0.136167</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176813</v>
+        <v>0.176747</v>
       </c>
       <c r="D58" t="n">
-        <v>0.29628</v>
+        <v>0.295072</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130521</v>
+        <v>0.131288</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175509</v>
+        <v>0.175425</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297725</v>
+        <v>0.297586</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12587</v>
+        <v>0.126366</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174262</v>
+        <v>0.174464</v>
       </c>
       <c r="D60" t="n">
-        <v>0.29819</v>
+        <v>0.298118</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.120977</v>
+        <v>0.121349</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173234</v>
+        <v>0.173251</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300805</v>
+        <v>0.29844</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116081</v>
+        <v>0.116743</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172265</v>
+        <v>0.172324</v>
       </c>
       <c r="D62" t="n">
-        <v>0.300675</v>
+        <v>0.298999</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111088</v>
+        <v>0.111693</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170923</v>
+        <v>0.170961</v>
       </c>
       <c r="D63" t="n">
-        <v>0.303057</v>
+        <v>0.30028</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106201</v>
+        <v>0.106813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169855</v>
+        <v>0.16985</v>
       </c>
       <c r="D64" t="n">
-        <v>0.293829</v>
+        <v>0.292347</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101215</v>
+        <v>0.101686</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168538</v>
+        <v>0.168651</v>
       </c>
       <c r="D65" t="n">
-        <v>0.297261</v>
+        <v>0.294414</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0972933</v>
+        <v>0.0968991</v>
       </c>
       <c r="C66" t="n">
-        <v>0.187522</v>
+        <v>0.185544</v>
       </c>
       <c r="D66" t="n">
-        <v>0.313275</v>
+        <v>0.295888</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163331</v>
+        <v>0.160506</v>
       </c>
       <c r="C67" t="n">
-        <v>0.18675</v>
+        <v>0.184132</v>
       </c>
       <c r="D67" t="n">
-        <v>0.318938</v>
+        <v>0.297876</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159673</v>
+        <v>0.156363</v>
       </c>
       <c r="C68" t="n">
-        <v>0.186339</v>
+        <v>0.182622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.339623</v>
+        <v>0.300145</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.156736</v>
+        <v>0.151925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.186911</v>
+        <v>0.181524</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303013</v>
+        <v>0.302279</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.14762</v>
+        <v>0.147478</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180146</v>
+        <v>0.179974</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305083</v>
+        <v>0.304423</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143127</v>
+        <v>0.142698</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178878</v>
+        <v>0.178791</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306569</v>
+        <v>0.306245</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138317</v>
+        <v>0.138277</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177773</v>
+        <v>0.177672</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308859</v>
+        <v>0.309261</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.1333</v>
+        <v>0.133304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176452</v>
+        <v>0.17647</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311401</v>
+        <v>0.311644</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128451</v>
+        <v>0.128214</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175288</v>
+        <v>0.175243</v>
       </c>
       <c r="D74" t="n">
-        <v>0.322085</v>
+        <v>0.315284</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.123598</v>
+        <v>0.1233</v>
       </c>
       <c r="C75" t="n">
-        <v>0.174134</v>
+        <v>0.173832</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321141</v>
+        <v>0.317174</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118686</v>
+        <v>0.118266</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173057</v>
+        <v>0.173038</v>
       </c>
       <c r="D76" t="n">
-        <v>0.321192</v>
+        <v>0.32112</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11356</v>
+        <v>0.113544</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171904</v>
+        <v>0.171977</v>
       </c>
       <c r="D77" t="n">
-        <v>0.320741</v>
+        <v>0.322361</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.108773</v>
+        <v>0.10858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170816</v>
+        <v>0.170742</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313758</v>
+        <v>0.313215</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103816</v>
+        <v>0.103654</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169596</v>
+        <v>0.169798</v>
       </c>
       <c r="D79" t="n">
-        <v>0.313304</v>
+        <v>0.315604</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0990196</v>
+        <v>0.09890889999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186275</v>
+        <v>0.186704</v>
       </c>
       <c r="D80" t="n">
-        <v>0.313135</v>
+        <v>0.319295</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161203</v>
+        <v>0.161471</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184867</v>
+        <v>0.184461</v>
       </c>
       <c r="D81" t="n">
-        <v>0.31294</v>
+        <v>0.313723</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.157427</v>
+        <v>0.15752</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183395</v>
+        <v>0.183137</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31279</v>
+        <v>0.314651</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.153291</v>
+        <v>0.152823</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181873</v>
+        <v>0.18168</v>
       </c>
       <c r="D83" t="n">
-        <v>0.320675</v>
+        <v>0.316476</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148637</v>
+        <v>0.14833</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180652</v>
+        <v>0.180336</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319912</v>
+        <v>0.318039</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143993</v>
+        <v>0.143902</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179425</v>
+        <v>0.179097</v>
       </c>
       <c r="D85" t="n">
-        <v>0.320792</v>
+        <v>0.319876</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139036</v>
+        <v>0.138758</v>
       </c>
       <c r="C86" t="n">
-        <v>0.178242</v>
+        <v>0.1779</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321485</v>
+        <v>0.321468</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.134011</v>
+        <v>0.133893</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177184</v>
+        <v>0.176713</v>
       </c>
       <c r="D87" t="n">
-        <v>0.321351</v>
+        <v>0.323762</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.129041</v>
+        <v>0.128766</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175864</v>
+        <v>0.175666</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325599</v>
+        <v>0.325713</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124071</v>
+        <v>0.124222</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174882</v>
+        <v>0.174588</v>
       </c>
       <c r="D89" t="n">
-        <v>0.334543</v>
+        <v>0.329931</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119132</v>
+        <v>0.119257</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173752</v>
+        <v>0.173416</v>
       </c>
       <c r="D90" t="n">
-        <v>0.333373</v>
+        <v>0.330324</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114314</v>
+        <v>0.114203</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1725</v>
+        <v>0.172222</v>
       </c>
       <c r="D91" t="n">
-        <v>0.332218</v>
+        <v>0.330288</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109231</v>
+        <v>0.109303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171347</v>
+        <v>0.171008</v>
       </c>
       <c r="D92" t="n">
-        <v>0.302307</v>
+        <v>0.298708</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104396</v>
+        <v>0.104371</v>
       </c>
       <c r="C93" t="n">
-        <v>0.170199</v>
+        <v>0.169835</v>
       </c>
       <c r="D93" t="n">
-        <v>0.308574</v>
+        <v>0.301161</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994418</v>
+        <v>0.0994279</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186323</v>
+        <v>0.186244</v>
       </c>
       <c r="D94" t="n">
-        <v>0.308391</v>
+        <v>0.302203</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162412</v>
+        <v>0.162439</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184726</v>
+        <v>0.184795</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308094</v>
+        <v>0.303784</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158677</v>
+        <v>0.158522</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183371</v>
+        <v>0.183333</v>
       </c>
       <c r="D96" t="n">
-        <v>0.308255</v>
+        <v>0.305254</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154426</v>
+        <v>0.154163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181997</v>
+        <v>0.18203</v>
       </c>
       <c r="D97" t="n">
-        <v>0.315231</v>
+        <v>0.307516</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149842</v>
+        <v>0.149889</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180644</v>
+        <v>0.180567</v>
       </c>
       <c r="D98" t="n">
-        <v>0.315597</v>
+        <v>0.309117</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.144781</v>
+        <v>0.145347</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179187</v>
+        <v>0.179269</v>
       </c>
       <c r="D99" t="n">
-        <v>0.315973</v>
+        <v>0.311309</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.141629</v>
+        <v>0.140414</v>
       </c>
       <c r="C100" t="n">
-        <v>0.180805</v>
+        <v>0.178129</v>
       </c>
       <c r="D100" t="n">
-        <v>0.33104</v>
+        <v>0.314691</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13847</v>
+        <v>0.135335</v>
       </c>
       <c r="C101" t="n">
-        <v>0.18046</v>
+        <v>0.176816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.333239</v>
+        <v>0.317274</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133091</v>
+        <v>0.130186</v>
       </c>
       <c r="C102" t="n">
-        <v>0.179176</v>
+        <v>0.175584</v>
       </c>
       <c r="D102" t="n">
-        <v>0.332252</v>
+        <v>0.319355</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127714</v>
+        <v>0.125137</v>
       </c>
       <c r="C103" t="n">
-        <v>0.178397</v>
+        <v>0.174476</v>
       </c>
       <c r="D103" t="n">
-        <v>0.338597</v>
+        <v>0.322519</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.124488</v>
+        <v>0.12008</v>
       </c>
       <c r="C104" t="n">
-        <v>0.179759</v>
+        <v>0.173294</v>
       </c>
       <c r="D104" t="n">
-        <v>0.348329</v>
+        <v>0.322795</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.115669</v>
+        <v>0.11519</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172124</v>
+        <v>0.172143</v>
       </c>
       <c r="D105" t="n">
-        <v>0.330354</v>
+        <v>0.324435</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110413</v>
+        <v>0.110313</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170854</v>
+        <v>0.170816</v>
       </c>
       <c r="D106" t="n">
-        <v>0.329578</v>
+        <v>0.325043</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.105489</v>
+        <v>0.10543</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16969</v>
+        <v>0.169507</v>
       </c>
       <c r="D107" t="n">
-        <v>0.309496</v>
+        <v>0.30022</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100512</v>
+        <v>0.100467</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186605</v>
+        <v>0.186732</v>
       </c>
       <c r="D108" t="n">
-        <v>0.309787</v>
+        <v>0.302346</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0956983</v>
+        <v>0.0957543</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185136</v>
+        <v>0.185243</v>
       </c>
       <c r="D109" t="n">
-        <v>0.313472</v>
+        <v>0.304765</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159396</v>
+        <v>0.159955</v>
       </c>
       <c r="C110" t="n">
-        <v>0.18361</v>
+        <v>0.184048</v>
       </c>
       <c r="D110" t="n">
-        <v>0.312655</v>
+        <v>0.306359</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155243</v>
+        <v>0.155769</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182228</v>
+        <v>0.182411</v>
       </c>
       <c r="D111" t="n">
-        <v>0.315875</v>
+        <v>0.307474</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150783</v>
+        <v>0.150833</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180855</v>
+        <v>0.180939</v>
       </c>
       <c r="D112" t="n">
-        <v>0.315474</v>
+        <v>0.30874</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146049</v>
+        <v>0.146181</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179611</v>
+        <v>0.179582</v>
       </c>
       <c r="D113" t="n">
-        <v>0.319134</v>
+        <v>0.311162</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141094</v>
+        <v>0.141356</v>
       </c>
       <c r="C114" t="n">
-        <v>0.17834</v>
+        <v>0.178303</v>
       </c>
       <c r="D114" t="n">
-        <v>0.323312</v>
+        <v>0.314343</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.136194</v>
+        <v>0.135942</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177104</v>
+        <v>0.177081</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323677</v>
+        <v>0.316767</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131178</v>
+        <v>0.131163</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175923</v>
+        <v>0.175871</v>
       </c>
       <c r="D116" t="n">
-        <v>0.326275</v>
+        <v>0.319639</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.126183</v>
+        <v>0.12599</v>
       </c>
       <c r="C117" t="n">
-        <v>0.17472</v>
+        <v>0.174671</v>
       </c>
       <c r="D117" t="n">
-        <v>0.329586</v>
+        <v>0.322019</v>
       </c>
     </row>
     <row r="118">
@@ -4874,10 +4874,10 @@
         <v>0.121141</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173557</v>
+        <v>0.173527</v>
       </c>
       <c r="D118" t="n">
-        <v>0.330913</v>
+        <v>0.323348</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116219</v>
+        <v>0.116427</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172486</v>
+        <v>0.172275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.331416</v>
+        <v>0.324757</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111305</v>
+        <v>0.111238</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171126</v>
+        <v>0.171115</v>
       </c>
       <c r="D120" t="n">
-        <v>0.32976</v>
+        <v>0.325095</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106494</v>
+        <v>0.106424</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169954</v>
+        <v>0.169861</v>
       </c>
       <c r="D121" t="n">
-        <v>0.310192</v>
+        <v>0.302643</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101612</v>
+        <v>0.101497</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168715</v>
+        <v>0.16862</v>
       </c>
       <c r="D122" t="n">
-        <v>0.312781</v>
+        <v>0.304149</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0967018</v>
+        <v>0.0966014</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185407</v>
+        <v>0.185465</v>
       </c>
       <c r="D123" t="n">
-        <v>0.314642</v>
+        <v>0.305565</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.169744</v>
+        <v>0.161475</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184197</v>
+        <v>0.183921</v>
       </c>
       <c r="D124" t="n">
-        <v>0.317251</v>
+        <v>0.307751</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.165135</v>
+        <v>0.158635</v>
       </c>
       <c r="C125" t="n">
-        <v>0.182592</v>
+        <v>0.18263</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318172</v>
+        <v>0.309716</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.160388</v>
+        <v>0.154433</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181172</v>
+        <v>0.181161</v>
       </c>
       <c r="D126" t="n">
-        <v>0.319593</v>
+        <v>0.310448</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.155819</v>
+        <v>0.150955</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179824</v>
+        <v>0.179881</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321859</v>
+        <v>0.31273</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.164654</v>
+        <v>0.146306</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181327</v>
+        <v>0.178553</v>
       </c>
       <c r="D128" t="n">
-        <v>0.334552</v>
+        <v>0.31595</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.155278</v>
+        <v>0.14095</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184076</v>
+        <v>0.177368</v>
       </c>
       <c r="D129" t="n">
-        <v>0.349017</v>
+        <v>0.31871</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.132116</v>
+        <v>0.136951</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176121</v>
+        <v>0.176203</v>
       </c>
       <c r="D130" t="n">
-        <v>0.330436</v>
+        <v>0.321446</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.127121</v>
+        <v>0.132626</v>
       </c>
       <c r="C131" t="n">
-        <v>0.175</v>
+        <v>0.174971</v>
       </c>
       <c r="D131" t="n">
-        <v>0.331659</v>
+        <v>0.323841</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.122251</v>
+        <v>0.127083</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173795</v>
+        <v>0.173824</v>
       </c>
       <c r="D132" t="n">
-        <v>0.333584</v>
+        <v>0.32491</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.117233</v>
+        <v>0.122907</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172613</v>
+        <v>0.172561</v>
       </c>
       <c r="D133" t="n">
-        <v>0.33289</v>
+        <v>0.326171</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.112327</v>
+        <v>0.117875</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171437</v>
+        <v>0.171227</v>
       </c>
       <c r="D134" t="n">
-        <v>0.333662</v>
+        <v>0.326629</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.107307</v>
+        <v>0.117007</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170207</v>
+        <v>0.170016</v>
       </c>
       <c r="D135" t="n">
-        <v>0.311584</v>
+        <v>0.302905</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102502</v>
+        <v>0.102414</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168897</v>
+        <v>0.168962</v>
       </c>
       <c r="D136" t="n">
-        <v>0.314202</v>
+        <v>0.304874</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975835</v>
+        <v>0.0975625</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185757</v>
+        <v>0.185708</v>
       </c>
       <c r="D137" t="n">
-        <v>0.316001</v>
+        <v>0.306343</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.161148</v>
+        <v>0.160978</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184278</v>
+        <v>0.184157</v>
       </c>
       <c r="D138" t="n">
-        <v>0.317938</v>
+        <v>0.307788</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15778</v>
+        <v>0.15709</v>
       </c>
       <c r="C139" t="n">
-        <v>0.182785</v>
+        <v>0.18289</v>
       </c>
       <c r="D139" t="n">
-        <v>0.318881</v>
+        <v>0.308975</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.154339</v>
+        <v>0.152717</v>
       </c>
       <c r="C140" t="n">
-        <v>0.182179</v>
+        <v>0.181398</v>
       </c>
       <c r="D140" t="n">
-        <v>0.320274</v>
+        <v>0.310895</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.151117</v>
+        <v>0.148127</v>
       </c>
       <c r="C141" t="n">
-        <v>0.182545</v>
+        <v>0.180143</v>
       </c>
       <c r="D141" t="n">
-        <v>0.322765</v>
+        <v>0.313346</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.146988</v>
+        <v>0.143014</v>
       </c>
       <c r="C142" t="n">
-        <v>0.181802</v>
+        <v>0.178804</v>
       </c>
       <c r="D142" t="n">
-        <v>0.325335</v>
+        <v>0.31593</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14255</v>
+        <v>0.137925</v>
       </c>
       <c r="C143" t="n">
-        <v>0.181858</v>
+        <v>0.177532</v>
       </c>
       <c r="D143" t="n">
-        <v>0.328026</v>
+        <v>0.318424</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0735305</v>
+        <v>0.069234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160141</v>
+        <v>0.160931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268553</v>
+        <v>0.27003</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0741001</v>
+        <v>0.0684091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160472</v>
+        <v>0.161608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269722</v>
+        <v>0.271377</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0730386</v>
+        <v>0.0687445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161119</v>
+        <v>0.161662</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272464</v>
+        <v>0.275068</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071105</v>
+        <v>0.06952990000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159921</v>
+        <v>0.161287</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274381</v>
+        <v>0.276016</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0712026</v>
+        <v>0.06875439999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160344</v>
+        <v>0.161077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.275667</v>
+        <v>0.276222</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07014339999999999</v>
+        <v>0.0674481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159987</v>
+        <v>0.161294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2687</v>
+        <v>0.269873</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0687593</v>
+        <v>0.0665101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160084</v>
+        <v>0.161327</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268734</v>
+        <v>0.270236</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0677582</v>
+        <v>0.06687269999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168215</v>
+        <v>0.169755</v>
       </c>
       <c r="D9" t="n">
-        <v>0.269008</v>
+        <v>0.272199</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124654</v>
+        <v>0.113709</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168182</v>
+        <v>0.168848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274179</v>
+        <v>0.275669</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123627</v>
+        <v>0.116542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168387</v>
+        <v>0.169664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274984</v>
+        <v>0.276275</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122994</v>
+        <v>0.115552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168378</v>
+        <v>0.168577</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278414</v>
+        <v>0.277074</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.120607</v>
+        <v>0.112849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167399</v>
+        <v>0.168367</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280117</v>
+        <v>0.279857</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117375</v>
+        <v>0.110881</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167153</v>
+        <v>0.168279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281164</v>
+        <v>0.28023</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115594</v>
+        <v>0.107835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167094</v>
+        <v>0.167695</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282979</v>
+        <v>0.282539</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112974</v>
+        <v>0.107323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169417</v>
+        <v>0.168505</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283526</v>
+        <v>0.284362</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110372</v>
+        <v>0.104766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169144</v>
+        <v>0.167597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283447</v>
+        <v>0.284701</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.107904</v>
+        <v>0.102694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.168538</v>
+        <v>0.167448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284191</v>
+        <v>0.285735</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103817</v>
+        <v>0.0989332</v>
       </c>
       <c r="C19" t="n">
-        <v>0.167123</v>
+        <v>0.169122</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286785</v>
+        <v>0.286865</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09864050000000001</v>
+        <v>0.0961984</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167472</v>
+        <v>0.167247</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288881</v>
+        <v>0.287801</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09455379999999999</v>
+        <v>0.09122180000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166164</v>
+        <v>0.165374</v>
       </c>
       <c r="D21" t="n">
-        <v>0.278793</v>
+        <v>0.278578</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0900735</v>
+        <v>0.0875698</v>
       </c>
       <c r="C22" t="n">
-        <v>0.165728</v>
+        <v>0.165791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.278811</v>
+        <v>0.279266</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08621379999999999</v>
+        <v>0.0823696</v>
       </c>
       <c r="C23" t="n">
-        <v>0.182769</v>
+        <v>0.178213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279515</v>
+        <v>0.280142</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150464</v>
+        <v>0.147738</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180094</v>
+        <v>0.178116</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280252</v>
+        <v>0.28265</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147249</v>
+        <v>0.144774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179058</v>
+        <v>0.177851</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281799</v>
+        <v>0.284249</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.143715</v>
+        <v>0.142107</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176486</v>
+        <v>0.17648</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283353</v>
+        <v>0.284801</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140284</v>
+        <v>0.138344</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17608</v>
+        <v>0.175159</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283768</v>
+        <v>0.28647</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135856</v>
+        <v>0.135511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175044</v>
+        <v>0.175676</v>
       </c>
       <c r="D28" t="n">
-        <v>0.285697</v>
+        <v>0.290185</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132244</v>
+        <v>0.132872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174862</v>
+        <v>0.176707</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288034</v>
+        <v>0.29042</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.127797</v>
+        <v>0.126719</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172771</v>
+        <v>0.174656</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289162</v>
+        <v>0.289757</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12367</v>
+        <v>0.122342</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172113</v>
+        <v>0.173522</v>
       </c>
       <c r="D31" t="n">
-        <v>0.290686</v>
+        <v>0.291533</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118988</v>
+        <v>0.118402</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170972</v>
+        <v>0.173127</v>
       </c>
       <c r="D32" t="n">
-        <v>0.292408</v>
+        <v>0.292434</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114619</v>
+        <v>0.114469</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169696</v>
+        <v>0.171818</v>
       </c>
       <c r="D33" t="n">
-        <v>0.291707</v>
+        <v>0.292578</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109809</v>
+        <v>0.109489</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168886</v>
+        <v>0.170874</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293692</v>
+        <v>0.294251</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105259</v>
+        <v>0.104528</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166926</v>
+        <v>0.169276</v>
       </c>
       <c r="D35" t="n">
-        <v>0.282325</v>
+        <v>0.282534</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0995543</v>
+        <v>0.09943490000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166019</v>
+        <v>0.168092</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283833</v>
+        <v>0.283925</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.093958</v>
+        <v>0.09478540000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183138</v>
+        <v>0.184948</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284924</v>
+        <v>0.285511</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157665</v>
+        <v>0.15731</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182034</v>
+        <v>0.184338</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286561</v>
+        <v>0.285581</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154776</v>
+        <v>0.154047</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180738</v>
+        <v>0.182678</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288186</v>
+        <v>0.286576</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.151233</v>
+        <v>0.150317</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179826</v>
+        <v>0.180914</v>
       </c>
       <c r="D40" t="n">
-        <v>0.287683</v>
+        <v>0.28768</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14686</v>
+        <v>0.146169</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178956</v>
+        <v>0.1802</v>
       </c>
       <c r="D41" t="n">
-        <v>0.289446</v>
+        <v>0.289769</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142947</v>
+        <v>0.141861</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177692</v>
+        <v>0.178441</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291125</v>
+        <v>0.290776</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13816</v>
+        <v>0.137579</v>
       </c>
       <c r="C43" t="n">
-        <v>0.17647</v>
+        <v>0.177678</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291378</v>
+        <v>0.292992</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133527</v>
+        <v>0.133054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175181</v>
+        <v>0.176571</v>
       </c>
       <c r="D44" t="n">
-        <v>0.293288</v>
+        <v>0.293465</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129022</v>
+        <v>0.128361</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174224</v>
+        <v>0.175558</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293439</v>
+        <v>0.294059</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123772</v>
+        <v>0.123697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173047</v>
+        <v>0.174132</v>
       </c>
       <c r="D46" t="n">
-        <v>0.294289</v>
+        <v>0.295045</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119223</v>
+        <v>0.118531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17228</v>
+        <v>0.173297</v>
       </c>
       <c r="D47" t="n">
-        <v>0.295224</v>
+        <v>0.295942</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114055</v>
+        <v>0.113803</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1713</v>
+        <v>0.172171</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295278</v>
+        <v>0.295534</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109144</v>
+        <v>0.109122</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170293</v>
+        <v>0.171189</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296947</v>
+        <v>0.297166</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104385</v>
+        <v>0.104117</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168898</v>
+        <v>0.169943</v>
       </c>
       <c r="D50" t="n">
-        <v>0.285663</v>
+        <v>0.286021</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09888710000000001</v>
+        <v>0.0984286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185761</v>
+        <v>0.186852</v>
       </c>
       <c r="D51" t="n">
-        <v>0.286772</v>
+        <v>0.28729</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0933316</v>
+        <v>0.0933968</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184343</v>
+        <v>0.184911</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287247</v>
+        <v>0.287845</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158422</v>
+        <v>0.15783</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183136</v>
+        <v>0.183911</v>
       </c>
       <c r="D53" t="n">
-        <v>0.289012</v>
+        <v>0.289354</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154371</v>
+        <v>0.153858</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181618</v>
+        <v>0.182382</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290163</v>
+        <v>0.291007</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150294</v>
+        <v>0.149645</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180366</v>
+        <v>0.18128</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291063</v>
+        <v>0.292068</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145994</v>
+        <v>0.145438</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178986</v>
+        <v>0.17991</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293206</v>
+        <v>0.293367</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14124</v>
+        <v>0.140952</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177661</v>
+        <v>0.178695</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294591</v>
+        <v>0.294515</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136167</v>
+        <v>0.136069</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176747</v>
+        <v>0.177618</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295072</v>
+        <v>0.295483</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131288</v>
+        <v>0.131305</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175425</v>
+        <v>0.176264</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297586</v>
+        <v>0.297081</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126366</v>
+        <v>0.126164</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174464</v>
+        <v>0.175182</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298118</v>
+        <v>0.297876</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121349</v>
+        <v>0.121182</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173251</v>
+        <v>0.174089</v>
       </c>
       <c r="D61" t="n">
-        <v>0.29844</v>
+        <v>0.29955</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116743</v>
+        <v>0.116132</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172324</v>
+        <v>0.17294</v>
       </c>
       <c r="D62" t="n">
-        <v>0.298999</v>
+        <v>0.300045</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111693</v>
+        <v>0.111272</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170961</v>
+        <v>0.171668</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30028</v>
+        <v>0.300816</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106813</v>
+        <v>0.106158</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16985</v>
+        <v>0.170348</v>
       </c>
       <c r="D64" t="n">
-        <v>0.292347</v>
+        <v>0.293508</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101686</v>
+        <v>0.101026</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168651</v>
+        <v>0.169843</v>
       </c>
       <c r="D65" t="n">
-        <v>0.294414</v>
+        <v>0.299155</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968991</v>
+        <v>0.0964439</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185544</v>
+        <v>0.186476</v>
       </c>
       <c r="D66" t="n">
-        <v>0.295888</v>
+        <v>0.30545</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160506</v>
+        <v>0.162738</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184132</v>
+        <v>0.188272</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297876</v>
+        <v>0.325193</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156363</v>
+        <v>0.16111</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182622</v>
+        <v>0.187195</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300145</v>
+        <v>0.300719</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151925</v>
+        <v>0.152758</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181524</v>
+        <v>0.182183</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302279</v>
+        <v>0.302788</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147478</v>
+        <v>0.147863</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179974</v>
+        <v>0.180843</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304423</v>
+        <v>0.304417</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142698</v>
+        <v>0.143403</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178791</v>
+        <v>0.179494</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306245</v>
+        <v>0.306853</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138277</v>
+        <v>0.138221</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177672</v>
+        <v>0.178337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.309261</v>
+        <v>0.308649</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133304</v>
+        <v>0.133384</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17647</v>
+        <v>0.177048</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311644</v>
+        <v>0.311668</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128214</v>
+        <v>0.128215</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175243</v>
+        <v>0.175994</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315284</v>
+        <v>0.312672</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1233</v>
+        <v>0.12346</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173832</v>
+        <v>0.17483</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317174</v>
+        <v>0.314648</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118266</v>
+        <v>0.118315</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173038</v>
+        <v>0.173642</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32112</v>
+        <v>0.316388</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113544</v>
+        <v>0.113477</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171977</v>
+        <v>0.172486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322361</v>
+        <v>0.318834</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10858</v>
+        <v>0.108614</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170742</v>
+        <v>0.171271</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313215</v>
+        <v>0.310192</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103654</v>
+        <v>0.10376</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169798</v>
+        <v>0.16984</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315604</v>
+        <v>0.3115</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09890889999999999</v>
+        <v>0.0988964</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186704</v>
+        <v>0.186832</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319295</v>
+        <v>0.312643</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161471</v>
+        <v>0.161837</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184461</v>
+        <v>0.185319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.313723</v>
+        <v>0.313863</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.15752</v>
+        <v>0.157624</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183137</v>
+        <v>0.183871</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314651</v>
+        <v>0.314635</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.152823</v>
+        <v>0.153323</v>
       </c>
       <c r="C83" t="n">
-        <v>0.18168</v>
+        <v>0.182515</v>
       </c>
       <c r="D83" t="n">
-        <v>0.316476</v>
+        <v>0.314573</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14833</v>
+        <v>0.14853</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180336</v>
+        <v>0.181154</v>
       </c>
       <c r="D84" t="n">
-        <v>0.318039</v>
+        <v>0.316017</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143902</v>
+        <v>0.143711</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179097</v>
+        <v>0.179832</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319876</v>
+        <v>0.318663</v>
       </c>
     </row>
     <row r="86">
@@ -4426,10 +4426,10 @@
         <v>0.138758</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1779</v>
+        <v>0.178621</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321468</v>
+        <v>0.320878</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133893</v>
+        <v>0.133705</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176713</v>
+        <v>0.177522</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323762</v>
+        <v>0.323716</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128766</v>
+        <v>0.12889</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175666</v>
+        <v>0.176331</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325713</v>
+        <v>0.324877</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124222</v>
+        <v>0.12382</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174588</v>
+        <v>0.175067</v>
       </c>
       <c r="D89" t="n">
-        <v>0.329931</v>
+        <v>0.325364</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119257</v>
+        <v>0.118892</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173416</v>
+        <v>0.173974</v>
       </c>
       <c r="D90" t="n">
-        <v>0.330324</v>
+        <v>0.326586</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114203</v>
+        <v>0.113894</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172222</v>
+        <v>0.172736</v>
       </c>
       <c r="D91" t="n">
-        <v>0.330288</v>
+        <v>0.328382</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109303</v>
+        <v>0.10896</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171008</v>
+        <v>0.171551</v>
       </c>
       <c r="D92" t="n">
-        <v>0.298708</v>
+        <v>0.297152</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104371</v>
+        <v>0.104181</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169835</v>
+        <v>0.170305</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301161</v>
+        <v>0.298021</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994279</v>
+        <v>0.0993111</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186244</v>
+        <v>0.187004</v>
       </c>
       <c r="D94" t="n">
-        <v>0.302203</v>
+        <v>0.299841</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162439</v>
+        <v>0.162641</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184795</v>
+        <v>0.18552</v>
       </c>
       <c r="D95" t="n">
-        <v>0.303784</v>
+        <v>0.301485</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158522</v>
+        <v>0.15886</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183333</v>
+        <v>0.184064</v>
       </c>
       <c r="D96" t="n">
-        <v>0.305254</v>
+        <v>0.303441</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154163</v>
+        <v>0.154517</v>
       </c>
       <c r="C97" t="n">
-        <v>0.18203</v>
+        <v>0.182671</v>
       </c>
       <c r="D97" t="n">
-        <v>0.307516</v>
+        <v>0.303615</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149889</v>
+        <v>0.149887</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180567</v>
+        <v>0.181261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.309117</v>
+        <v>0.305708</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145347</v>
+        <v>0.144787</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179269</v>
+        <v>0.179916</v>
       </c>
       <c r="D99" t="n">
-        <v>0.311309</v>
+        <v>0.308397</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140414</v>
+        <v>0.139943</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178129</v>
+        <v>0.178707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314691</v>
+        <v>0.310427</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135335</v>
+        <v>0.135309</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176816</v>
+        <v>0.177419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.317274</v>
+        <v>0.313713</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130186</v>
+        <v>0.129889</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175584</v>
+        <v>0.176166</v>
       </c>
       <c r="D102" t="n">
-        <v>0.319355</v>
+        <v>0.316559</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125137</v>
+        <v>0.124956</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174476</v>
+        <v>0.175061</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322519</v>
+        <v>0.317472</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12008</v>
+        <v>0.119983</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173294</v>
+        <v>0.173796</v>
       </c>
       <c r="D104" t="n">
-        <v>0.322795</v>
+        <v>0.318806</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11519</v>
+        <v>0.11502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172143</v>
+        <v>0.17262</v>
       </c>
       <c r="D105" t="n">
-        <v>0.324435</v>
+        <v>0.319493</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110313</v>
+        <v>0.11009</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170816</v>
+        <v>0.171401</v>
       </c>
       <c r="D106" t="n">
-        <v>0.325043</v>
+        <v>0.321931</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10543</v>
+        <v>0.105229</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169507</v>
+        <v>0.170191</v>
       </c>
       <c r="D107" t="n">
-        <v>0.30022</v>
+        <v>0.296341</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100467</v>
+        <v>0.100309</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186732</v>
+        <v>0.187416</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302346</v>
+        <v>0.298522</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0957543</v>
+        <v>0.0954409</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185243</v>
+        <v>0.185852</v>
       </c>
       <c r="D109" t="n">
-        <v>0.304765</v>
+        <v>0.300085</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159955</v>
+        <v>0.159432</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184048</v>
+        <v>0.184387</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306359</v>
+        <v>0.301409</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155769</v>
+        <v>0.155578</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182411</v>
+        <v>0.182993</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307474</v>
+        <v>0.30248</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150833</v>
+        <v>0.150913</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180939</v>
+        <v>0.181593</v>
       </c>
       <c r="D112" t="n">
-        <v>0.30874</v>
+        <v>0.304707</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146181</v>
+        <v>0.14605</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179582</v>
+        <v>0.180259</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311162</v>
+        <v>0.306143</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141356</v>
+        <v>0.140823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178303</v>
+        <v>0.178999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.314343</v>
+        <v>0.309285</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135942</v>
+        <v>0.135826</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177081</v>
+        <v>0.177721</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316767</v>
+        <v>0.312606</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131163</v>
+        <v>0.130946</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175871</v>
+        <v>0.176466</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319639</v>
+        <v>0.314833</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12599</v>
+        <v>0.12598</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174671</v>
+        <v>0.175296</v>
       </c>
       <c r="D117" t="n">
-        <v>0.322019</v>
+        <v>0.316238</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121141</v>
+        <v>0.120953</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173527</v>
+        <v>0.174046</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323348</v>
+        <v>0.316965</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116427</v>
+        <v>0.116167</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172275</v>
+        <v>0.172882</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324757</v>
+        <v>0.319604</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111238</v>
+        <v>0.111161</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171115</v>
+        <v>0.171633</v>
       </c>
       <c r="D120" t="n">
-        <v>0.325095</v>
+        <v>0.321036</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106424</v>
+        <v>0.106409</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169861</v>
+        <v>0.170408</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302643</v>
+        <v>0.298542</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101497</v>
+        <v>0.101475</v>
       </c>
       <c r="C122" t="n">
-        <v>0.16862</v>
+        <v>0.169111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304149</v>
+        <v>0.300232</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966014</v>
+        <v>0.0965432</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185465</v>
+        <v>0.186177</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305565</v>
+        <v>0.302027</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.161475</v>
+        <v>0.169872</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183921</v>
+        <v>0.184634</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307751</v>
+        <v>0.302968</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.158635</v>
+        <v>0.165344</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18263</v>
+        <v>0.183216</v>
       </c>
       <c r="D125" t="n">
-        <v>0.309716</v>
+        <v>0.30408</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.154433</v>
+        <v>0.16012</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181161</v>
+        <v>0.181972</v>
       </c>
       <c r="D126" t="n">
-        <v>0.310448</v>
+        <v>0.305185</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.150955</v>
+        <v>0.158868</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179881</v>
+        <v>0.18054</v>
       </c>
       <c r="D127" t="n">
-        <v>0.31273</v>
+        <v>0.308276</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.146306</v>
+        <v>0.163537</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178553</v>
+        <v>0.179667</v>
       </c>
       <c r="D128" t="n">
-        <v>0.31595</v>
+        <v>0.310338</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14095</v>
+        <v>0.157581</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177368</v>
+        <v>0.178307</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31871</v>
+        <v>0.313784</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136951</v>
+        <v>0.14906</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176203</v>
+        <v>0.179622</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321446</v>
+        <v>0.337386</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.132626</v>
+        <v>0.148475</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174971</v>
+        <v>0.175915</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323841</v>
+        <v>0.318021</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.127083</v>
+        <v>0.129817</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173824</v>
+        <v>0.174377</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32491</v>
+        <v>0.31958</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.122907</v>
+        <v>0.123412</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172561</v>
+        <v>0.173224</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326171</v>
+        <v>0.320393</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.117875</v>
+        <v>0.118287</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171227</v>
+        <v>0.171981</v>
       </c>
       <c r="D134" t="n">
-        <v>0.326629</v>
+        <v>0.321873</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.117007</v>
+        <v>0.11338</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170016</v>
+        <v>0.170777</v>
       </c>
       <c r="D135" t="n">
-        <v>0.302905</v>
+        <v>0.298584</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102414</v>
+        <v>0.108054</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168962</v>
+        <v>0.169526</v>
       </c>
       <c r="D136" t="n">
-        <v>0.304874</v>
+        <v>0.300664</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975625</v>
+        <v>0.102932</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185708</v>
+        <v>0.196098</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306343</v>
+        <v>0.30206</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160978</v>
+        <v>0.170837</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184157</v>
+        <v>0.193977</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307788</v>
+        <v>0.303425</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15709</v>
+        <v>0.166628</v>
       </c>
       <c r="C139" t="n">
-        <v>0.18289</v>
+        <v>0.19226</v>
       </c>
       <c r="D139" t="n">
-        <v>0.308975</v>
+        <v>0.30452</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152717</v>
+        <v>0.161338</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181398</v>
+        <v>0.190299</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310895</v>
+        <v>0.30599</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148127</v>
+        <v>0.156669</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180143</v>
+        <v>0.189205</v>
       </c>
       <c r="D141" t="n">
-        <v>0.313346</v>
+        <v>0.30736</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143014</v>
+        <v>0.152199</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178804</v>
+        <v>0.187241</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31593</v>
+        <v>0.310482</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.137925</v>
+        <v>0.145603</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177532</v>
+        <v>0.185595</v>
       </c>
       <c r="D143" t="n">
-        <v>0.318424</v>
+        <v>0.313443</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0735305</v>
+        <v>0.0664834</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160141</v>
+        <v>0.163116</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268553</v>
+        <v>0.267656</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0741001</v>
+        <v>0.06687079999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160472</v>
+        <v>0.162951</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269722</v>
+        <v>0.270546</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0730386</v>
+        <v>0.0665169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161119</v>
+        <v>0.163135</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272464</v>
+        <v>0.273982</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071105</v>
+        <v>0.066862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159921</v>
+        <v>0.163281</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274381</v>
+        <v>0.274292</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0712026</v>
+        <v>0.06690980000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160344</v>
+        <v>0.162878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.275667</v>
+        <v>0.277272</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07014339999999999</v>
+        <v>0.0665419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159987</v>
+        <v>0.162503</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2687</v>
+        <v>0.271528</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0687593</v>
+        <v>0.067409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160084</v>
+        <v>0.162033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268734</v>
+        <v>0.271042</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0677582</v>
+        <v>0.06657730000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168215</v>
+        <v>0.171831</v>
       </c>
       <c r="D9" t="n">
-        <v>0.269008</v>
+        <v>0.272027</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124654</v>
+        <v>0.100465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168182</v>
+        <v>0.171792</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274179</v>
+        <v>0.275817</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123627</v>
+        <v>0.100084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168387</v>
+        <v>0.170544</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274984</v>
+        <v>0.276147</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122994</v>
+        <v>0.09777189999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168378</v>
+        <v>0.168823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278414</v>
+        <v>0.277836</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.120607</v>
+        <v>0.09708269999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167399</v>
+        <v>0.168233</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280117</v>
+        <v>0.280813</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117375</v>
+        <v>0.0965825</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167153</v>
+        <v>0.167754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281164</v>
+        <v>0.280417</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115594</v>
+        <v>0.0954535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167094</v>
+        <v>0.167216</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282979</v>
+        <v>0.284132</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112974</v>
+        <v>0.0942378</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169417</v>
+        <v>0.166535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283526</v>
+        <v>0.282315</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110372</v>
+        <v>0.091568</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169144</v>
+        <v>0.165711</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283447</v>
+        <v>0.284862</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.107904</v>
+        <v>0.09097520000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.168538</v>
+        <v>0.165586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284191</v>
+        <v>0.285117</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103817</v>
+        <v>0.08967940000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>0.167123</v>
+        <v>0.166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286785</v>
+        <v>0.28636</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09864050000000001</v>
+        <v>0.08654829999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167472</v>
+        <v>0.164927</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288881</v>
+        <v>0.288271</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09455379999999999</v>
+        <v>0.08461780000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166164</v>
+        <v>0.164796</v>
       </c>
       <c r="D21" t="n">
-        <v>0.278793</v>
+        <v>0.278081</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0900735</v>
+        <v>0.0828233</v>
       </c>
       <c r="C22" t="n">
-        <v>0.165728</v>
+        <v>0.164492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.278811</v>
+        <v>0.27921</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08621379999999999</v>
+        <v>0.0812219</v>
       </c>
       <c r="C23" t="n">
-        <v>0.182769</v>
+        <v>0.174556</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279515</v>
+        <v>0.279514</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150464</v>
+        <v>0.135231</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180094</v>
+        <v>0.173725</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280252</v>
+        <v>0.280579</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147249</v>
+        <v>0.134059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179058</v>
+        <v>0.173063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281799</v>
+        <v>0.281393</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.143715</v>
+        <v>0.130958</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176486</v>
+        <v>0.172201</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283353</v>
+        <v>0.28319</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140284</v>
+        <v>0.128219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17608</v>
+        <v>0.171156</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283768</v>
+        <v>0.284748</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135856</v>
+        <v>0.125083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175044</v>
+        <v>0.172436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.285697</v>
+        <v>0.284945</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132244</v>
+        <v>0.122261</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174862</v>
+        <v>0.17119</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288034</v>
+        <v>0.286853</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.127797</v>
+        <v>0.118477</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172771</v>
+        <v>0.169671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289162</v>
+        <v>0.288067</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12367</v>
+        <v>0.114443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172113</v>
+        <v>0.168699</v>
       </c>
       <c r="D31" t="n">
-        <v>0.290686</v>
+        <v>0.290008</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118988</v>
+        <v>0.11</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170972</v>
+        <v>0.168053</v>
       </c>
       <c r="D32" t="n">
-        <v>0.292408</v>
+        <v>0.290604</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114619</v>
+        <v>0.105589</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169696</v>
+        <v>0.166867</v>
       </c>
       <c r="D33" t="n">
-        <v>0.291707</v>
+        <v>0.291232</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109809</v>
+        <v>0.101219</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168886</v>
+        <v>0.166563</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293692</v>
+        <v>0.294939</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105259</v>
+        <v>0.096958</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166926</v>
+        <v>0.165807</v>
       </c>
       <c r="D35" t="n">
-        <v>0.282325</v>
+        <v>0.282222</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0995543</v>
+        <v>0.0924418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166019</v>
+        <v>0.165798</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283833</v>
+        <v>0.284503</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.093958</v>
+        <v>0.0901431</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183138</v>
+        <v>0.182652</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284924</v>
+        <v>0.289836</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157665</v>
+        <v>0.156883</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182034</v>
+        <v>0.185867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286561</v>
+        <v>0.290562</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154776</v>
+        <v>0.150818</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180738</v>
+        <v>0.178727</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288186</v>
+        <v>0.286284</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.151233</v>
+        <v>0.145599</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179826</v>
+        <v>0.177419</v>
       </c>
       <c r="D40" t="n">
-        <v>0.287683</v>
+        <v>0.286784</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14686</v>
+        <v>0.141853</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178956</v>
+        <v>0.176505</v>
       </c>
       <c r="D41" t="n">
-        <v>0.289446</v>
+        <v>0.287878</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142947</v>
+        <v>0.137581</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177692</v>
+        <v>0.175499</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291125</v>
+        <v>0.289502</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13816</v>
+        <v>0.133762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.17647</v>
+        <v>0.175315</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291378</v>
+        <v>0.290642</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133527</v>
+        <v>0.129208</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175181</v>
+        <v>0.17422</v>
       </c>
       <c r="D44" t="n">
-        <v>0.293288</v>
+        <v>0.291643</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129022</v>
+        <v>0.124956</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174224</v>
+        <v>0.173506</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293439</v>
+        <v>0.292677</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123772</v>
+        <v>0.120516</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173047</v>
+        <v>0.172276</v>
       </c>
       <c r="D46" t="n">
-        <v>0.294289</v>
+        <v>0.293674</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119223</v>
+        <v>0.116294</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17228</v>
+        <v>0.170942</v>
       </c>
       <c r="D47" t="n">
-        <v>0.295224</v>
+        <v>0.294721</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114055</v>
+        <v>0.111772</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1713</v>
+        <v>0.170223</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295278</v>
+        <v>0.295368</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109144</v>
+        <v>0.107264</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170293</v>
+        <v>0.169629</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296947</v>
+        <v>0.296662</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104385</v>
+        <v>0.102706</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168898</v>
+        <v>0.168367</v>
       </c>
       <c r="D50" t="n">
-        <v>0.285663</v>
+        <v>0.285205</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09888710000000001</v>
+        <v>0.0975987</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185761</v>
+        <v>0.185018</v>
       </c>
       <c r="D51" t="n">
-        <v>0.286772</v>
+        <v>0.285853</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0933316</v>
+        <v>0.0929793</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184343</v>
+        <v>0.183273</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287247</v>
+        <v>0.286888</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158422</v>
+        <v>0.156792</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183136</v>
+        <v>0.182064</v>
       </c>
       <c r="D53" t="n">
-        <v>0.289012</v>
+        <v>0.288304</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154371</v>
+        <v>0.152927</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181618</v>
+        <v>0.180858</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290163</v>
+        <v>0.288443</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150294</v>
+        <v>0.148636</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180366</v>
+        <v>0.17973</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291063</v>
+        <v>0.290444</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145994</v>
+        <v>0.144418</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178986</v>
+        <v>0.178541</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293206</v>
+        <v>0.291338</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14124</v>
+        <v>0.139915</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177661</v>
+        <v>0.177396</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294591</v>
+        <v>0.292773</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136167</v>
+        <v>0.134848</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176747</v>
+        <v>0.176435</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295072</v>
+        <v>0.294156</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131288</v>
+        <v>0.130374</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175425</v>
+        <v>0.175158</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297586</v>
+        <v>0.295593</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126366</v>
+        <v>0.125658</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174464</v>
+        <v>0.174182</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298118</v>
+        <v>0.296309</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121349</v>
+        <v>0.12075</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173251</v>
+        <v>0.173249</v>
       </c>
       <c r="D61" t="n">
-        <v>0.29844</v>
+        <v>0.297718</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116743</v>
+        <v>0.116102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172324</v>
+        <v>0.172108</v>
       </c>
       <c r="D62" t="n">
-        <v>0.298999</v>
+        <v>0.298597</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111693</v>
+        <v>0.11115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170961</v>
+        <v>0.171145</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30028</v>
+        <v>0.299985</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106813</v>
+        <v>0.106449</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16985</v>
+        <v>0.170005</v>
       </c>
       <c r="D64" t="n">
-        <v>0.292347</v>
+        <v>0.292038</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101686</v>
+        <v>0.101591</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168651</v>
+        <v>0.168934</v>
       </c>
       <c r="D65" t="n">
-        <v>0.294414</v>
+        <v>0.293553</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968991</v>
+        <v>0.0967007</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185544</v>
+        <v>0.185845</v>
       </c>
       <c r="D66" t="n">
-        <v>0.295888</v>
+        <v>0.295823</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160506</v>
+        <v>0.160086</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184132</v>
+        <v>0.184713</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297876</v>
+        <v>0.297608</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156363</v>
+        <v>0.156359</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182622</v>
+        <v>0.182918</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300145</v>
+        <v>0.298698</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151925</v>
+        <v>0.152187</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181524</v>
+        <v>0.181774</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302279</v>
+        <v>0.301078</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147478</v>
+        <v>0.147134</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179974</v>
+        <v>0.180423</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304423</v>
+        <v>0.302069</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142698</v>
+        <v>0.142588</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178791</v>
+        <v>0.179354</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306245</v>
+        <v>0.304122</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138277</v>
+        <v>0.137967</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177672</v>
+        <v>0.177947</v>
       </c>
       <c r="D72" t="n">
-        <v>0.309261</v>
+        <v>0.306083</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133304</v>
+        <v>0.133003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17647</v>
+        <v>0.176615</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311644</v>
+        <v>0.308243</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128214</v>
+        <v>0.127859</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175243</v>
+        <v>0.17544</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315284</v>
+        <v>0.30081</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1233</v>
+        <v>0.123885</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173832</v>
+        <v>0.174914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317174</v>
+        <v>0.308155</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118266</v>
+        <v>0.118629</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173038</v>
+        <v>0.17442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32112</v>
+        <v>0.310933</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113544</v>
+        <v>0.113497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171977</v>
+        <v>0.17269</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322361</v>
+        <v>0.31414</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10858</v>
+        <v>0.108684</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170742</v>
+        <v>0.171295</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313215</v>
+        <v>0.310818</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103654</v>
+        <v>0.103821</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169798</v>
+        <v>0.17016</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315604</v>
+        <v>0.312314</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09890889999999999</v>
+        <v>0.0989954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186704</v>
+        <v>0.188281</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319295</v>
+        <v>0.321237</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161471</v>
+        <v>0.16548</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184461</v>
+        <v>0.187768</v>
       </c>
       <c r="D81" t="n">
-        <v>0.313723</v>
+        <v>0.341095</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.15752</v>
+        <v>0.163879</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183137</v>
+        <v>0.189567</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314651</v>
+        <v>0.315746</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.152823</v>
+        <v>0.15322</v>
       </c>
       <c r="C83" t="n">
-        <v>0.18168</v>
+        <v>0.182428</v>
       </c>
       <c r="D83" t="n">
-        <v>0.316476</v>
+        <v>0.306898</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14833</v>
+        <v>0.148945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180336</v>
+        <v>0.181235</v>
       </c>
       <c r="D84" t="n">
-        <v>0.318039</v>
+        <v>0.309978</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143902</v>
+        <v>0.143532</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179097</v>
+        <v>0.17993</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319876</v>
+        <v>0.312784</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138758</v>
+        <v>0.138867</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1779</v>
+        <v>0.178646</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321468</v>
+        <v>0.316198</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133893</v>
+        <v>0.133851</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176713</v>
+        <v>0.177578</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323762</v>
+        <v>0.319734</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128766</v>
+        <v>0.128775</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175666</v>
+        <v>0.17646</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325713</v>
+        <v>0.318552</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124222</v>
+        <v>0.123937</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174588</v>
+        <v>0.175207</v>
       </c>
       <c r="D89" t="n">
-        <v>0.329931</v>
+        <v>0.309353</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119257</v>
+        <v>0.118992</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173416</v>
+        <v>0.174021</v>
       </c>
       <c r="D90" t="n">
-        <v>0.330324</v>
+        <v>0.313362</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114203</v>
+        <v>0.114234</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172222</v>
+        <v>0.172766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.330288</v>
+        <v>0.316656</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109303</v>
+        <v>0.109402</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171008</v>
+        <v>0.171684</v>
       </c>
       <c r="D92" t="n">
-        <v>0.298708</v>
+        <v>0.29361</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104371</v>
+        <v>0.104309</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169835</v>
+        <v>0.170457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301161</v>
+        <v>0.288917</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994279</v>
+        <v>0.09940930000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186244</v>
+        <v>0.186807</v>
       </c>
       <c r="D94" t="n">
-        <v>0.302203</v>
+        <v>0.291612</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162439</v>
+        <v>0.162464</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184795</v>
+        <v>0.185283</v>
       </c>
       <c r="D95" t="n">
-        <v>0.303784</v>
+        <v>0.294644</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158522</v>
+        <v>0.158916</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183333</v>
+        <v>0.183865</v>
       </c>
       <c r="D96" t="n">
-        <v>0.305254</v>
+        <v>0.298086</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154163</v>
+        <v>0.154288</v>
       </c>
       <c r="C97" t="n">
-        <v>0.18203</v>
+        <v>0.182486</v>
       </c>
       <c r="D97" t="n">
-        <v>0.307516</v>
+        <v>0.291469</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149889</v>
+        <v>0.149726</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180567</v>
+        <v>0.181092</v>
       </c>
       <c r="D98" t="n">
-        <v>0.309117</v>
+        <v>0.295338</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145347</v>
+        <v>0.144951</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179269</v>
+        <v>0.179758</v>
       </c>
       <c r="D99" t="n">
-        <v>0.311309</v>
+        <v>0.299049</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140414</v>
+        <v>0.140039</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178129</v>
+        <v>0.178443</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314691</v>
+        <v>0.296383</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135335</v>
+        <v>0.135088</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176816</v>
+        <v>0.177218</v>
       </c>
       <c r="D101" t="n">
-        <v>0.317274</v>
+        <v>0.299908</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130186</v>
+        <v>0.130109</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175584</v>
+        <v>0.176023</v>
       </c>
       <c r="D102" t="n">
-        <v>0.319355</v>
+        <v>0.304006</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125137</v>
+        <v>0.125265</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174476</v>
+        <v>0.174771</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322519</v>
+        <v>0.300401</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12008</v>
+        <v>0.120288</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173294</v>
+        <v>0.173586</v>
       </c>
       <c r="D104" t="n">
-        <v>0.322795</v>
+        <v>0.303722</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11519</v>
+        <v>0.115255</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172143</v>
+        <v>0.172411</v>
       </c>
       <c r="D105" t="n">
-        <v>0.324435</v>
+        <v>0.301955</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110313</v>
+        <v>0.110206</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170816</v>
+        <v>0.171078</v>
       </c>
       <c r="D106" t="n">
-        <v>0.325043</v>
+        <v>0.307158</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10543</v>
+        <v>0.105622</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169507</v>
+        <v>0.170335</v>
       </c>
       <c r="D107" t="n">
-        <v>0.30022</v>
+        <v>0.286555</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100467</v>
+        <v>0.100687</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186732</v>
+        <v>0.187626</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302346</v>
+        <v>0.289459</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0957543</v>
+        <v>0.09570629999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185243</v>
+        <v>0.186069</v>
       </c>
       <c r="D109" t="n">
-        <v>0.304765</v>
+        <v>0.289749</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159955</v>
+        <v>0.160184</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184048</v>
+        <v>0.184571</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306359</v>
+        <v>0.291779</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155769</v>
+        <v>0.156549</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182411</v>
+        <v>0.18469</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307474</v>
+        <v>0.294563</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150833</v>
+        <v>0.156452</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180939</v>
+        <v>0.188653</v>
       </c>
       <c r="D112" t="n">
-        <v>0.30874</v>
+        <v>0.29399</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146181</v>
+        <v>0.146147</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179582</v>
+        <v>0.179915</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311162</v>
+        <v>0.293159</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141356</v>
+        <v>0.140904</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178303</v>
+        <v>0.178687</v>
       </c>
       <c r="D114" t="n">
-        <v>0.314343</v>
+        <v>0.29309</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135942</v>
+        <v>0.136092</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177081</v>
+        <v>0.177454</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316767</v>
+        <v>0.296917</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131163</v>
+        <v>0.131101</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175871</v>
+        <v>0.176248</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319639</v>
+        <v>0.297249</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12599</v>
+        <v>0.126017</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174671</v>
+        <v>0.17503</v>
       </c>
       <c r="D117" t="n">
-        <v>0.322019</v>
+        <v>0.298004</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121141</v>
+        <v>0.121237</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173527</v>
+        <v>0.173895</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323348</v>
+        <v>0.298806</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116427</v>
+        <v>0.116262</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172275</v>
+        <v>0.172633</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324757</v>
+        <v>0.29993</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111238</v>
+        <v>0.111351</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171115</v>
+        <v>0.171481</v>
       </c>
       <c r="D120" t="n">
-        <v>0.325095</v>
+        <v>0.304676</v>
       </c>
     </row>
     <row r="121">
@@ -4916,10 +4916,10 @@
         <v>0.106424</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169861</v>
+        <v>0.170261</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302643</v>
+        <v>0.289015</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101497</v>
+        <v>0.101523</v>
       </c>
       <c r="C122" t="n">
-        <v>0.16862</v>
+        <v>0.168918</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304149</v>
+        <v>0.289392</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966014</v>
+        <v>0.09651029999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185465</v>
+        <v>0.185923</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305565</v>
+        <v>0.290886</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.161475</v>
+        <v>0.169797</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183921</v>
+        <v>0.184386</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307751</v>
+        <v>0.2894</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.158635</v>
+        <v>0.165221</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18263</v>
+        <v>0.183007</v>
       </c>
       <c r="D125" t="n">
-        <v>0.309716</v>
+        <v>0.290905</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.154433</v>
+        <v>0.160577</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181161</v>
+        <v>0.181579</v>
       </c>
       <c r="D126" t="n">
-        <v>0.310448</v>
+        <v>0.291576</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.150955</v>
+        <v>0.155143</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179881</v>
+        <v>0.180285</v>
       </c>
       <c r="D127" t="n">
-        <v>0.31273</v>
+        <v>0.293302</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.146306</v>
+        <v>0.150077</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178553</v>
+        <v>0.178959</v>
       </c>
       <c r="D128" t="n">
-        <v>0.31595</v>
+        <v>0.293557</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14095</v>
+        <v>0.144557</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177368</v>
+        <v>0.177704</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31871</v>
+        <v>0.295107</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136951</v>
+        <v>0.13908</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176203</v>
+        <v>0.176498</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321446</v>
+        <v>0.297453</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.132626</v>
+        <v>0.134874</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174971</v>
+        <v>0.175365</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323841</v>
+        <v>0.298603</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.127083</v>
+        <v>0.128483</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173824</v>
+        <v>0.174176</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32491</v>
+        <v>0.298893</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.122907</v>
+        <v>0.12325</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172561</v>
+        <v>0.172949</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326171</v>
+        <v>0.301767</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.117875</v>
+        <v>0.118529</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171227</v>
+        <v>0.171753</v>
       </c>
       <c r="D134" t="n">
-        <v>0.326629</v>
+        <v>0.303337</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.117007</v>
+        <v>0.11321</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170016</v>
+        <v>0.170412</v>
       </c>
       <c r="D135" t="n">
-        <v>0.302905</v>
+        <v>0.287626</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102414</v>
+        <v>0.108051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168962</v>
+        <v>0.169147</v>
       </c>
       <c r="D136" t="n">
-        <v>0.304874</v>
+        <v>0.28841</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975625</v>
+        <v>0.10277</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185708</v>
+        <v>0.195714</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306343</v>
+        <v>0.289237</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160978</v>
+        <v>0.17052</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184157</v>
+        <v>0.193759</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307788</v>
+        <v>0.289905</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15709</v>
+        <v>0.166235</v>
       </c>
       <c r="C139" t="n">
-        <v>0.18289</v>
+        <v>0.191731</v>
       </c>
       <c r="D139" t="n">
-        <v>0.308975</v>
+        <v>0.291442</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152717</v>
+        <v>0.161282</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181398</v>
+        <v>0.190268</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310895</v>
+        <v>0.291053</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148127</v>
+        <v>0.156474</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180143</v>
+        <v>0.188371</v>
       </c>
       <c r="D141" t="n">
-        <v>0.313346</v>
+        <v>0.292509</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143014</v>
+        <v>0.150865</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178804</v>
+        <v>0.18795</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31593</v>
+        <v>0.293826</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.137925</v>
+        <v>0.145828</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177532</v>
+        <v>0.185193</v>
       </c>
       <c r="D143" t="n">
-        <v>0.318424</v>
+        <v>0.294625</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0735305</v>
+        <v>0.0651323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.160141</v>
+        <v>0.167218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268553</v>
+        <v>0.274173</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0741001</v>
+        <v>0.0643865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.160472</v>
+        <v>0.166475</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269722</v>
+        <v>0.276591</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0730386</v>
+        <v>0.0641427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.161119</v>
+        <v>0.166174</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272464</v>
+        <v>0.278624</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.071105</v>
+        <v>0.06453490000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.159921</v>
+        <v>0.165358</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274381</v>
+        <v>0.279843</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0712026</v>
+        <v>0.0645404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.160344</v>
+        <v>0.16471</v>
       </c>
       <c r="D6" t="n">
-        <v>0.275667</v>
+        <v>0.280599</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07014339999999999</v>
+        <v>0.0649388</v>
       </c>
       <c r="C7" t="n">
-        <v>0.159987</v>
+        <v>0.164227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2687</v>
+        <v>0.272941</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0687593</v>
+        <v>0.0658535</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160084</v>
+        <v>0.163309</v>
       </c>
       <c r="D8" t="n">
-        <v>0.268734</v>
+        <v>0.272778</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0677582</v>
+        <v>0.0657667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.168215</v>
+        <v>0.177066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.269008</v>
+        <v>0.274158</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124654</v>
+        <v>0.0931994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.168182</v>
+        <v>0.176353</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274179</v>
+        <v>0.279588</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.123627</v>
+        <v>0.0923554</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168387</v>
+        <v>0.176024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274984</v>
+        <v>0.280263</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.122994</v>
+        <v>0.09218759999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.168378</v>
+        <v>0.174822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.278414</v>
+        <v>0.283724</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.120607</v>
+        <v>0.0913885</v>
       </c>
       <c r="C13" t="n">
-        <v>0.167399</v>
+        <v>0.173992</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280117</v>
+        <v>0.284908</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117375</v>
+        <v>0.0927207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.167153</v>
+        <v>0.173863</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281164</v>
+        <v>0.283934</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115594</v>
+        <v>0.0903984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.167094</v>
+        <v>0.173409</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282979</v>
+        <v>0.287559</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112974</v>
+        <v>0.089555</v>
       </c>
       <c r="C16" t="n">
-        <v>0.169417</v>
+        <v>0.172111</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283526</v>
+        <v>0.288634</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110372</v>
+        <v>0.0876258</v>
       </c>
       <c r="C17" t="n">
-        <v>0.169144</v>
+        <v>0.170889</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283447</v>
+        <v>0.288912</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.107904</v>
+        <v>0.0862754</v>
       </c>
       <c r="C18" t="n">
-        <v>0.168538</v>
+        <v>0.169999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284191</v>
+        <v>0.289757</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103817</v>
+        <v>0.0880373</v>
       </c>
       <c r="C19" t="n">
-        <v>0.167123</v>
+        <v>0.171036</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286785</v>
+        <v>0.292138</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09864050000000001</v>
+        <v>0.0867436</v>
       </c>
       <c r="C20" t="n">
-        <v>0.167472</v>
+        <v>0.169114</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288881</v>
+        <v>0.29405</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09455379999999999</v>
+        <v>0.08528959999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.166164</v>
+        <v>0.167503</v>
       </c>
       <c r="D21" t="n">
-        <v>0.278793</v>
+        <v>0.282713</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0900735</v>
+        <v>0.08411929999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.165728</v>
+        <v>0.166478</v>
       </c>
       <c r="D22" t="n">
-        <v>0.278811</v>
+        <v>0.28361</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08621379999999999</v>
+        <v>0.0819283</v>
       </c>
       <c r="C23" t="n">
-        <v>0.182769</v>
+        <v>0.184707</v>
       </c>
       <c r="D23" t="n">
-        <v>0.279515</v>
+        <v>0.28494</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150464</v>
+        <v>0.13692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.180094</v>
+        <v>0.182595</v>
       </c>
       <c r="D24" t="n">
-        <v>0.280252</v>
+        <v>0.285898</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147249</v>
+        <v>0.134435</v>
       </c>
       <c r="C25" t="n">
-        <v>0.179058</v>
+        <v>0.181307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.281799</v>
+        <v>0.287201</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.143715</v>
+        <v>0.131959</v>
       </c>
       <c r="C26" t="n">
-        <v>0.176486</v>
+        <v>0.179965</v>
       </c>
       <c r="D26" t="n">
-        <v>0.283353</v>
+        <v>0.288903</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140284</v>
+        <v>0.130203</v>
       </c>
       <c r="C27" t="n">
-        <v>0.17608</v>
+        <v>0.178798</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283768</v>
+        <v>0.290023</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135856</v>
+        <v>0.126168</v>
       </c>
       <c r="C28" t="n">
-        <v>0.175044</v>
+        <v>0.177557</v>
       </c>
       <c r="D28" t="n">
-        <v>0.285697</v>
+        <v>0.291454</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.132244</v>
+        <v>0.124672</v>
       </c>
       <c r="C29" t="n">
-        <v>0.174862</v>
+        <v>0.176149</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288034</v>
+        <v>0.293585</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.127797</v>
+        <v>0.120268</v>
       </c>
       <c r="C30" t="n">
-        <v>0.172771</v>
+        <v>0.17472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289162</v>
+        <v>0.295374</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12367</v>
+        <v>0.117339</v>
       </c>
       <c r="C31" t="n">
-        <v>0.172113</v>
+        <v>0.173528</v>
       </c>
       <c r="D31" t="n">
-        <v>0.290686</v>
+        <v>0.296641</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.118988</v>
+        <v>0.11351</v>
       </c>
       <c r="C32" t="n">
-        <v>0.170972</v>
+        <v>0.172553</v>
       </c>
       <c r="D32" t="n">
-        <v>0.292408</v>
+        <v>0.298016</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114619</v>
+        <v>0.109296</v>
       </c>
       <c r="C33" t="n">
-        <v>0.169696</v>
+        <v>0.171409</v>
       </c>
       <c r="D33" t="n">
-        <v>0.291707</v>
+        <v>0.297932</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109809</v>
+        <v>0.10498</v>
       </c>
       <c r="C34" t="n">
-        <v>0.168886</v>
+        <v>0.170181</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293692</v>
+        <v>0.301103</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105259</v>
+        <v>0.100441</v>
       </c>
       <c r="C35" t="n">
-        <v>0.166926</v>
+        <v>0.168756</v>
       </c>
       <c r="D35" t="n">
-        <v>0.282325</v>
+        <v>0.288001</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0995543</v>
+        <v>0.09594510000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.166019</v>
+        <v>0.167964</v>
       </c>
       <c r="D36" t="n">
-        <v>0.283833</v>
+        <v>0.288573</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.093958</v>
+        <v>0.09208810000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.183138</v>
+        <v>0.185562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284924</v>
+        <v>0.289344</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157665</v>
+        <v>0.157084</v>
       </c>
       <c r="C38" t="n">
-        <v>0.182034</v>
+        <v>0.183963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286561</v>
+        <v>0.291512</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.154776</v>
+        <v>0.153348</v>
       </c>
       <c r="C39" t="n">
-        <v>0.180738</v>
+        <v>0.182638</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288186</v>
+        <v>0.291786</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.151233</v>
+        <v>0.150111</v>
       </c>
       <c r="C40" t="n">
-        <v>0.179826</v>
+        <v>0.181149</v>
       </c>
       <c r="D40" t="n">
-        <v>0.287683</v>
+        <v>0.293461</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.14686</v>
+        <v>0.145664</v>
       </c>
       <c r="C41" t="n">
-        <v>0.178956</v>
+        <v>0.18005</v>
       </c>
       <c r="D41" t="n">
-        <v>0.289446</v>
+        <v>0.295473</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142947</v>
+        <v>0.141852</v>
       </c>
       <c r="C42" t="n">
-        <v>0.177692</v>
+        <v>0.178634</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291125</v>
+        <v>0.295562</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.13816</v>
+        <v>0.138187</v>
       </c>
       <c r="C43" t="n">
-        <v>0.17647</v>
+        <v>0.177569</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291378</v>
+        <v>0.298391</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133527</v>
+        <v>0.133114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.175181</v>
+        <v>0.176392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.293288</v>
+        <v>0.299679</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129022</v>
+        <v>0.128493</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174224</v>
+        <v>0.174961</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293439</v>
+        <v>0.29851</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123772</v>
+        <v>0.124343</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173047</v>
+        <v>0.173648</v>
       </c>
       <c r="D46" t="n">
-        <v>0.294289</v>
+        <v>0.299483</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119223</v>
+        <v>0.119204</v>
       </c>
       <c r="C47" t="n">
-        <v>0.17228</v>
+        <v>0.172046</v>
       </c>
       <c r="D47" t="n">
-        <v>0.295224</v>
+        <v>0.299857</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114055</v>
+        <v>0.114153</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1713</v>
+        <v>0.17124</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295278</v>
+        <v>0.301535</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109144</v>
+        <v>0.108722</v>
       </c>
       <c r="C49" t="n">
-        <v>0.170293</v>
+        <v>0.169814</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296947</v>
+        <v>0.303382</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104385</v>
+        <v>0.103798</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168898</v>
+        <v>0.168683</v>
       </c>
       <c r="D50" t="n">
-        <v>0.285663</v>
+        <v>0.290988</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09888710000000001</v>
+        <v>0.0986805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.185761</v>
+        <v>0.186351</v>
       </c>
       <c r="D51" t="n">
-        <v>0.286772</v>
+        <v>0.291656</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0933316</v>
+        <v>0.09375609999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184343</v>
+        <v>0.18508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287247</v>
+        <v>0.292858</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.158422</v>
+        <v>0.159884</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183136</v>
+        <v>0.183582</v>
       </c>
       <c r="D53" t="n">
-        <v>0.289012</v>
+        <v>0.293828</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.154371</v>
+        <v>0.156063</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181618</v>
+        <v>0.181869</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290163</v>
+        <v>0.29486</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.150294</v>
+        <v>0.151898</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180366</v>
+        <v>0.180732</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291063</v>
+        <v>0.296501</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.145994</v>
+        <v>0.147236</v>
       </c>
       <c r="C56" t="n">
-        <v>0.178986</v>
+        <v>0.179271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293206</v>
+        <v>0.298193</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14124</v>
+        <v>0.142725</v>
       </c>
       <c r="C57" t="n">
-        <v>0.177661</v>
+        <v>0.178053</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294591</v>
+        <v>0.299592</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.136167</v>
+        <v>0.13806</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176747</v>
+        <v>0.176766</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295072</v>
+        <v>0.301373</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131288</v>
+        <v>0.133235</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175425</v>
+        <v>0.175533</v>
       </c>
       <c r="D59" t="n">
-        <v>0.297586</v>
+        <v>0.302008</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.126366</v>
+        <v>0.128101</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174464</v>
+        <v>0.174209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298118</v>
+        <v>0.30331</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.121349</v>
+        <v>0.123113</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173251</v>
+        <v>0.173039</v>
       </c>
       <c r="D61" t="n">
-        <v>0.29844</v>
+        <v>0.304789</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.116743</v>
+        <v>0.11808</v>
       </c>
       <c r="C62" t="n">
-        <v>0.172324</v>
+        <v>0.171799</v>
       </c>
       <c r="D62" t="n">
-        <v>0.298999</v>
+        <v>0.305622</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.111693</v>
+        <v>0.112888</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170961</v>
+        <v>0.170512</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30028</v>
+        <v>0.30618</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.106813</v>
+        <v>0.107804</v>
       </c>
       <c r="C64" t="n">
-        <v>0.16985</v>
+        <v>0.169497</v>
       </c>
       <c r="D64" t="n">
-        <v>0.292347</v>
+        <v>0.297755</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.101686</v>
+        <v>0.102946</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168651</v>
+        <v>0.16831</v>
       </c>
       <c r="D65" t="n">
-        <v>0.294414</v>
+        <v>0.29995</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0968991</v>
+        <v>0.0975408</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185544</v>
+        <v>0.185626</v>
       </c>
       <c r="D66" t="n">
-        <v>0.295888</v>
+        <v>0.301165</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.160506</v>
+        <v>0.163624</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184132</v>
+        <v>0.184167</v>
       </c>
       <c r="D67" t="n">
-        <v>0.297876</v>
+        <v>0.303683</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.156363</v>
+        <v>0.1598</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182622</v>
+        <v>0.182699</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300145</v>
+        <v>0.305182</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151925</v>
+        <v>0.15569</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181524</v>
+        <v>0.181321</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302279</v>
+        <v>0.307003</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.147478</v>
+        <v>0.151226</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179974</v>
+        <v>0.180005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304423</v>
+        <v>0.3092</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142698</v>
+        <v>0.146209</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178791</v>
+        <v>0.178654</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306245</v>
+        <v>0.312467</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138277</v>
+        <v>0.14138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177672</v>
+        <v>0.177374</v>
       </c>
       <c r="D72" t="n">
-        <v>0.309261</v>
+        <v>0.314327</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.133304</v>
+        <v>0.136243</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17647</v>
+        <v>0.176139</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311644</v>
+        <v>0.317012</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.128214</v>
+        <v>0.131238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175243</v>
+        <v>0.174871</v>
       </c>
       <c r="D74" t="n">
-        <v>0.315284</v>
+        <v>0.317883</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1233</v>
+        <v>0.126025</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173832</v>
+        <v>0.173587</v>
       </c>
       <c r="D75" t="n">
-        <v>0.317174</v>
+        <v>0.320179</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.118266</v>
+        <v>0.120979</v>
       </c>
       <c r="C76" t="n">
-        <v>0.173038</v>
+        <v>0.172604</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32112</v>
+        <v>0.322553</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.113544</v>
+        <v>0.115712</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171977</v>
+        <v>0.171464</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322361</v>
+        <v>0.324115</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.10858</v>
+        <v>0.110714</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170742</v>
+        <v>0.170214</v>
       </c>
       <c r="D78" t="n">
-        <v>0.313215</v>
+        <v>0.315077</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.103654</v>
+        <v>0.105508</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169798</v>
+        <v>0.169054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.315604</v>
+        <v>0.316439</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09890889999999999</v>
+        <v>0.10058</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186704</v>
+        <v>0.186059</v>
       </c>
       <c r="D80" t="n">
-        <v>0.319295</v>
+        <v>0.317132</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.161471</v>
+        <v>0.164661</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184461</v>
+        <v>0.184562</v>
       </c>
       <c r="D81" t="n">
-        <v>0.313723</v>
+        <v>0.318417</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.15752</v>
+        <v>0.160554</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183137</v>
+        <v>0.183084</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314651</v>
+        <v>0.31964</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.152823</v>
+        <v>0.156604</v>
       </c>
       <c r="C83" t="n">
-        <v>0.18168</v>
+        <v>0.181784</v>
       </c>
       <c r="D83" t="n">
-        <v>0.316476</v>
+        <v>0.319535</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14833</v>
+        <v>0.151912</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180336</v>
+        <v>0.180295</v>
       </c>
       <c r="D84" t="n">
-        <v>0.318039</v>
+        <v>0.32124</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.143902</v>
+        <v>0.146954</v>
       </c>
       <c r="C85" t="n">
-        <v>0.179097</v>
+        <v>0.178953</v>
       </c>
       <c r="D85" t="n">
-        <v>0.319876</v>
+        <v>0.323584</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.138758</v>
+        <v>0.141916</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1779</v>
+        <v>0.177781</v>
       </c>
       <c r="D86" t="n">
-        <v>0.321468</v>
+        <v>0.326342</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.133893</v>
+        <v>0.136824</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176713</v>
+        <v>0.176567</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323762</v>
+        <v>0.328788</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.128766</v>
+        <v>0.131825</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175666</v>
+        <v>0.175336</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325713</v>
+        <v>0.330781</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.124222</v>
+        <v>0.126292</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174588</v>
+        <v>0.173915</v>
       </c>
       <c r="D89" t="n">
-        <v>0.329931</v>
+        <v>0.329458</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.119257</v>
+        <v>0.121443</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173416</v>
+        <v>0.17291</v>
       </c>
       <c r="D90" t="n">
-        <v>0.330324</v>
+        <v>0.331981</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.114203</v>
+        <v>0.11645</v>
       </c>
       <c r="C91" t="n">
-        <v>0.172222</v>
+        <v>0.171735</v>
       </c>
       <c r="D91" t="n">
-        <v>0.330288</v>
+        <v>0.333549</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.109303</v>
+        <v>0.111237</v>
       </c>
       <c r="C92" t="n">
-        <v>0.171008</v>
+        <v>0.170611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.298708</v>
+        <v>0.302023</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.104371</v>
+        <v>0.106025</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169835</v>
+        <v>0.169368</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301161</v>
+        <v>0.302521</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0994279</v>
+        <v>0.100981</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186244</v>
+        <v>0.186411</v>
       </c>
       <c r="D94" t="n">
-        <v>0.302203</v>
+        <v>0.304492</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.162439</v>
+        <v>0.165709</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184795</v>
+        <v>0.184864</v>
       </c>
       <c r="D95" t="n">
-        <v>0.303784</v>
+        <v>0.306594</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.158522</v>
+        <v>0.162014</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183333</v>
+        <v>0.183334</v>
       </c>
       <c r="D96" t="n">
-        <v>0.305254</v>
+        <v>0.308465</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.154163</v>
+        <v>0.157851</v>
       </c>
       <c r="C97" t="n">
-        <v>0.18203</v>
+        <v>0.181945</v>
       </c>
       <c r="D97" t="n">
-        <v>0.307516</v>
+        <v>0.308302</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.149889</v>
+        <v>0.153272</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180567</v>
+        <v>0.180566</v>
       </c>
       <c r="D98" t="n">
-        <v>0.309117</v>
+        <v>0.310266</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.145347</v>
+        <v>0.148337</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179269</v>
+        <v>0.179234</v>
       </c>
       <c r="D99" t="n">
-        <v>0.311309</v>
+        <v>0.313092</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.140414</v>
+        <v>0.142996</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178129</v>
+        <v>0.178017</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314691</v>
+        <v>0.314882</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.135335</v>
+        <v>0.137817</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176816</v>
+        <v>0.176833</v>
       </c>
       <c r="D101" t="n">
-        <v>0.317274</v>
+        <v>0.318595</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.130186</v>
+        <v>0.132799</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175584</v>
+        <v>0.175606</v>
       </c>
       <c r="D102" t="n">
-        <v>0.319355</v>
+        <v>0.321568</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.125137</v>
+        <v>0.127469</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174476</v>
+        <v>0.174402</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322519</v>
+        <v>0.322108</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12008</v>
+        <v>0.12243</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173294</v>
+        <v>0.173266</v>
       </c>
       <c r="D104" t="n">
-        <v>0.322795</v>
+        <v>0.323644</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11519</v>
+        <v>0.117252</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172143</v>
+        <v>0.172085</v>
       </c>
       <c r="D105" t="n">
-        <v>0.324435</v>
+        <v>0.325259</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.110313</v>
+        <v>0.112176</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170816</v>
+        <v>0.17081</v>
       </c>
       <c r="D106" t="n">
-        <v>0.325043</v>
+        <v>0.327419</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10543</v>
+        <v>0.106983</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169507</v>
+        <v>0.169608</v>
       </c>
       <c r="D107" t="n">
-        <v>0.30022</v>
+        <v>0.301059</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.100467</v>
+        <v>0.101813</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186732</v>
+        <v>0.186764</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302346</v>
+        <v>0.303592</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0957543</v>
+        <v>0.0966939</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185243</v>
+        <v>0.185186</v>
       </c>
       <c r="D109" t="n">
-        <v>0.304765</v>
+        <v>0.304623</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.159955</v>
+        <v>0.162618</v>
       </c>
       <c r="C110" t="n">
-        <v>0.184048</v>
+        <v>0.183745</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306359</v>
+        <v>0.306332</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.155769</v>
+        <v>0.158275</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182411</v>
+        <v>0.182309</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307474</v>
+        <v>0.307374</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.150833</v>
+        <v>0.153588</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180939</v>
+        <v>0.180956</v>
       </c>
       <c r="D112" t="n">
-        <v>0.30874</v>
+        <v>0.309287</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.146181</v>
+        <v>0.149022</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179582</v>
+        <v>0.179643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311162</v>
+        <v>0.310906</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.141356</v>
+        <v>0.143907</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178303</v>
+        <v>0.178283</v>
       </c>
       <c r="D114" t="n">
-        <v>0.314343</v>
+        <v>0.313471</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.135942</v>
+        <v>0.138888</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177081</v>
+        <v>0.177109</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316767</v>
+        <v>0.316622</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131163</v>
+        <v>0.133897</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175871</v>
+        <v>0.175902</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319639</v>
+        <v>0.319591</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.12599</v>
+        <v>0.128743</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174671</v>
+        <v>0.174684</v>
       </c>
       <c r="D117" t="n">
-        <v>0.322019</v>
+        <v>0.32158</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.121141</v>
+        <v>0.123655</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173527</v>
+        <v>0.173511</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323348</v>
+        <v>0.322303</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.116427</v>
+        <v>0.118473</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172275</v>
+        <v>0.172346</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324757</v>
+        <v>0.324572</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.111238</v>
+        <v>0.113323</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171115</v>
+        <v>0.171091</v>
       </c>
       <c r="D120" t="n">
-        <v>0.325095</v>
+        <v>0.326343</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.106424</v>
+        <v>0.108178</v>
       </c>
       <c r="C121" t="n">
         <v>0.169861</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302643</v>
+        <v>0.302816</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.101497</v>
+        <v>0.102816</v>
       </c>
       <c r="C122" t="n">
-        <v>0.16862</v>
+        <v>0.168688</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304149</v>
+        <v>0.304827</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0966014</v>
+        <v>0.0978096</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185465</v>
+        <v>0.18559</v>
       </c>
       <c r="D123" t="n">
-        <v>0.305565</v>
+        <v>0.3066</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.161475</v>
+        <v>0.172461</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183921</v>
+        <v>0.184096</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307751</v>
+        <v>0.307431</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.158635</v>
+        <v>0.168373</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18263</v>
+        <v>0.18258</v>
       </c>
       <c r="D125" t="n">
-        <v>0.309716</v>
+        <v>0.308783</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.154433</v>
+        <v>0.16324</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181161</v>
+        <v>0.181181</v>
       </c>
       <c r="D126" t="n">
-        <v>0.310448</v>
+        <v>0.310505</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.150955</v>
+        <v>0.157984</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179881</v>
+        <v>0.179847</v>
       </c>
       <c r="D127" t="n">
-        <v>0.31273</v>
+        <v>0.312336</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.146306</v>
+        <v>0.152699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178553</v>
+        <v>0.178615</v>
       </c>
       <c r="D128" t="n">
-        <v>0.31595</v>
+        <v>0.314597</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.14095</v>
+        <v>0.146983</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177368</v>
+        <v>0.177327</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31871</v>
+        <v>0.318122</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.136951</v>
+        <v>0.141485</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176203</v>
+        <v>0.176094</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321446</v>
+        <v>0.321121</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.132626</v>
+        <v>0.136076</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174971</v>
+        <v>0.174908</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323841</v>
+        <v>0.322373</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.127083</v>
+        <v>0.130677</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173824</v>
+        <v>0.173698</v>
       </c>
       <c r="D132" t="n">
-        <v>0.32491</v>
+        <v>0.323524</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.122907</v>
+        <v>0.125498</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172561</v>
+        <v>0.172527</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326171</v>
+        <v>0.325108</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.117875</v>
+        <v>0.11992</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171227</v>
+        <v>0.171287</v>
       </c>
       <c r="D134" t="n">
-        <v>0.326629</v>
+        <v>0.326919</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.117007</v>
+        <v>0.114571</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170016</v>
+        <v>0.170105</v>
       </c>
       <c r="D135" t="n">
-        <v>0.302905</v>
+        <v>0.303147</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.102414</v>
+        <v>0.109243</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168962</v>
+        <v>0.169012</v>
       </c>
       <c r="D136" t="n">
-        <v>0.304874</v>
+        <v>0.304646</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0975625</v>
+        <v>0.103846</v>
       </c>
       <c r="C137" t="n">
-        <v>0.185708</v>
+        <v>0.195123</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306343</v>
+        <v>0.306493</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.160978</v>
+        <v>0.174192</v>
       </c>
       <c r="C138" t="n">
-        <v>0.184157</v>
+        <v>0.193207</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307788</v>
+        <v>0.307683</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.15709</v>
+        <v>0.169709</v>
       </c>
       <c r="C139" t="n">
-        <v>0.18289</v>
+        <v>0.191228</v>
       </c>
       <c r="D139" t="n">
-        <v>0.308975</v>
+        <v>0.308929</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.152717</v>
+        <v>0.164987</v>
       </c>
       <c r="C140" t="n">
-        <v>0.181398</v>
+        <v>0.18944</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310895</v>
+        <v>0.309993</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.148127</v>
+        <v>0.159746</v>
       </c>
       <c r="C141" t="n">
-        <v>0.180143</v>
+        <v>0.187756</v>
       </c>
       <c r="D141" t="n">
-        <v>0.313346</v>
+        <v>0.312215</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.143014</v>
+        <v>0.154316</v>
       </c>
       <c r="C142" t="n">
-        <v>0.178804</v>
+        <v>0.186044</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31593</v>
+        <v>0.31459</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.137925</v>
+        <v>0.148629</v>
       </c>
       <c r="C143" t="n">
-        <v>0.177532</v>
+        <v>0.18466</v>
       </c>
       <c r="D143" t="n">
-        <v>0.318424</v>
+        <v>0.317739</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0651323</v>
+        <v>0.0650333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.167218</v>
+        <v>0.165846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.274173</v>
+        <v>0.272814</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0643865</v>
+        <v>0.0647103</v>
       </c>
       <c r="C3" t="n">
-        <v>0.166475</v>
+        <v>0.165997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.276591</v>
+        <v>0.275584</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0641427</v>
+        <v>0.0645206</v>
       </c>
       <c r="C4" t="n">
-        <v>0.166174</v>
+        <v>0.166022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.278624</v>
+        <v>0.278161</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06453490000000001</v>
+        <v>0.06456779999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.165358</v>
+        <v>0.165609</v>
       </c>
       <c r="D5" t="n">
-        <v>0.279843</v>
+        <v>0.277959</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0645404</v>
+        <v>0.0647035</v>
       </c>
       <c r="C6" t="n">
-        <v>0.16471</v>
+        <v>0.164868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.280599</v>
+        <v>0.281166</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0649388</v>
+        <v>0.0651225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.164227</v>
+        <v>0.163986</v>
       </c>
       <c r="D7" t="n">
-        <v>0.272941</v>
+        <v>0.27219</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0658535</v>
+        <v>0.0654878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.163309</v>
+        <v>0.162899</v>
       </c>
       <c r="D8" t="n">
-        <v>0.272778</v>
+        <v>0.275001</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0657667</v>
+        <v>0.066451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177066</v>
+        <v>0.177724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.274158</v>
+        <v>0.274168</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0931994</v>
+        <v>0.09292209999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176353</v>
+        <v>0.176524</v>
       </c>
       <c r="D10" t="n">
-        <v>0.279588</v>
+        <v>0.278198</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0923554</v>
+        <v>0.0924402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176024</v>
+        <v>0.176441</v>
       </c>
       <c r="D11" t="n">
-        <v>0.280263</v>
+        <v>0.279817</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09218759999999999</v>
+        <v>0.093196</v>
       </c>
       <c r="C12" t="n">
-        <v>0.174822</v>
+        <v>0.175442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283724</v>
+        <v>0.283431</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0913885</v>
+        <v>0.0923408</v>
       </c>
       <c r="C13" t="n">
-        <v>0.173992</v>
+        <v>0.174517</v>
       </c>
       <c r="D13" t="n">
-        <v>0.284908</v>
+        <v>0.284597</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0927207</v>
+        <v>0.0907761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.173863</v>
+        <v>0.17359</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283934</v>
+        <v>0.285483</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0903984</v>
+        <v>0.0907116</v>
       </c>
       <c r="C15" t="n">
-        <v>0.173409</v>
+        <v>0.172769</v>
       </c>
       <c r="D15" t="n">
-        <v>0.287559</v>
+        <v>0.286553</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.089555</v>
+        <v>0.0894626</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172111</v>
+        <v>0.172106</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288634</v>
+        <v>0.287962</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0876258</v>
+        <v>0.0883123</v>
       </c>
       <c r="C17" t="n">
-        <v>0.170889</v>
+        <v>0.171326</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288912</v>
+        <v>0.289027</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0862754</v>
+        <v>0.0874957</v>
       </c>
       <c r="C18" t="n">
-        <v>0.169999</v>
+        <v>0.170466</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289757</v>
+        <v>0.290151</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0880373</v>
+        <v>0.0882706</v>
       </c>
       <c r="C19" t="n">
-        <v>0.171036</v>
+        <v>0.170551</v>
       </c>
       <c r="D19" t="n">
-        <v>0.292138</v>
+        <v>0.291794</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0867436</v>
+        <v>0.086879</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169114</v>
+        <v>0.169375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29405</v>
+        <v>0.292637</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08528959999999999</v>
+        <v>0.0852754</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167503</v>
+        <v>0.167118</v>
       </c>
       <c r="D21" t="n">
-        <v>0.282713</v>
+        <v>0.283439</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08411929999999999</v>
+        <v>0.08204350000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166478</v>
+        <v>0.165991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.28361</v>
+        <v>0.283935</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0819283</v>
+        <v>0.0817199</v>
       </c>
       <c r="C23" t="n">
-        <v>0.184707</v>
+        <v>0.184668</v>
       </c>
       <c r="D23" t="n">
-        <v>0.28494</v>
+        <v>0.284109</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13692</v>
+        <v>0.135304</v>
       </c>
       <c r="C24" t="n">
-        <v>0.182595</v>
+        <v>0.182918</v>
       </c>
       <c r="D24" t="n">
-        <v>0.285898</v>
+        <v>0.286646</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134435</v>
+        <v>0.134484</v>
       </c>
       <c r="C25" t="n">
-        <v>0.181307</v>
+        <v>0.180888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.287201</v>
+        <v>0.287923</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.131959</v>
+        <v>0.131807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.179965</v>
+        <v>0.180006</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288903</v>
+        <v>0.287848</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.130203</v>
+        <v>0.130196</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178798</v>
+        <v>0.178921</v>
       </c>
       <c r="D27" t="n">
-        <v>0.290023</v>
+        <v>0.289472</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126168</v>
+        <v>0.126176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177557</v>
+        <v>0.177531</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291454</v>
+        <v>0.291369</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.124672</v>
+        <v>0.123463</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176149</v>
+        <v>0.176303</v>
       </c>
       <c r="D29" t="n">
-        <v>0.293585</v>
+        <v>0.29289</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120268</v>
+        <v>0.119824</v>
       </c>
       <c r="C30" t="n">
-        <v>0.17472</v>
+        <v>0.175306</v>
       </c>
       <c r="D30" t="n">
-        <v>0.295374</v>
+        <v>0.294273</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117339</v>
+        <v>0.116816</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173528</v>
+        <v>0.173913</v>
       </c>
       <c r="D31" t="n">
-        <v>0.296641</v>
+        <v>0.29665</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.11351</v>
+        <v>0.112729</v>
       </c>
       <c r="C32" t="n">
-        <v>0.172553</v>
+        <v>0.17281</v>
       </c>
       <c r="D32" t="n">
-        <v>0.298016</v>
+        <v>0.297584</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.109296</v>
+        <v>0.109154</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171409</v>
+        <v>0.171673</v>
       </c>
       <c r="D33" t="n">
-        <v>0.297932</v>
+        <v>0.297396</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10498</v>
+        <v>0.104863</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170181</v>
+        <v>0.170293</v>
       </c>
       <c r="D34" t="n">
-        <v>0.301103</v>
+        <v>0.299488</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100441</v>
+        <v>0.09999669999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.168756</v>
+        <v>0.169229</v>
       </c>
       <c r="D35" t="n">
-        <v>0.288001</v>
+        <v>0.287289</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09594510000000001</v>
+        <v>0.09627189999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167964</v>
+        <v>0.167363</v>
       </c>
       <c r="D36" t="n">
-        <v>0.288573</v>
+        <v>0.288082</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09208810000000001</v>
+        <v>0.0921819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.185562</v>
+        <v>0.18566</v>
       </c>
       <c r="D37" t="n">
-        <v>0.289344</v>
+        <v>0.290416</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157084</v>
+        <v>0.156639</v>
       </c>
       <c r="C38" t="n">
-        <v>0.183963</v>
+        <v>0.184082</v>
       </c>
       <c r="D38" t="n">
-        <v>0.291512</v>
+        <v>0.290503</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153348</v>
+        <v>0.153908</v>
       </c>
       <c r="C39" t="n">
-        <v>0.182638</v>
+        <v>0.18262</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291786</v>
+        <v>0.291924</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150111</v>
+        <v>0.149965</v>
       </c>
       <c r="C40" t="n">
-        <v>0.181149</v>
+        <v>0.181159</v>
       </c>
       <c r="D40" t="n">
-        <v>0.293461</v>
+        <v>0.292264</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145664</v>
+        <v>0.146188</v>
       </c>
       <c r="C41" t="n">
-        <v>0.18005</v>
+        <v>0.180112</v>
       </c>
       <c r="D41" t="n">
-        <v>0.295473</v>
+        <v>0.294392</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141852</v>
+        <v>0.142185</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178634</v>
+        <v>0.178863</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295562</v>
+        <v>0.295737</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138187</v>
+        <v>0.137537</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177569</v>
+        <v>0.177595</v>
       </c>
       <c r="D43" t="n">
-        <v>0.298391</v>
+        <v>0.297618</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133114</v>
+        <v>0.133204</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176392</v>
+        <v>0.176294</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299679</v>
+        <v>0.297865</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128493</v>
+        <v>0.128197</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174961</v>
+        <v>0.174978</v>
       </c>
       <c r="D45" t="n">
-        <v>0.29851</v>
+        <v>0.299237</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124343</v>
+        <v>0.123919</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173648</v>
+        <v>0.173696</v>
       </c>
       <c r="D46" t="n">
-        <v>0.299483</v>
+        <v>0.299743</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119204</v>
+        <v>0.11928</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172046</v>
+        <v>0.172453</v>
       </c>
       <c r="D47" t="n">
-        <v>0.299857</v>
+        <v>0.300322</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114153</v>
+        <v>0.114105</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17124</v>
+        <v>0.171256</v>
       </c>
       <c r="D48" t="n">
-        <v>0.301535</v>
+        <v>0.301313</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108722</v>
+        <v>0.109109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169814</v>
+        <v>0.169883</v>
       </c>
       <c r="D49" t="n">
-        <v>0.303382</v>
+        <v>0.302222</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103798</v>
+        <v>0.1039</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168683</v>
+        <v>0.168491</v>
       </c>
       <c r="D50" t="n">
-        <v>0.290988</v>
+        <v>0.290805</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0986805</v>
+        <v>0.0985893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186351</v>
+        <v>0.186223</v>
       </c>
       <c r="D51" t="n">
-        <v>0.291656</v>
+        <v>0.291257</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09375609999999999</v>
+        <v>0.0934908</v>
       </c>
       <c r="C52" t="n">
-        <v>0.18508</v>
+        <v>0.184883</v>
       </c>
       <c r="D52" t="n">
-        <v>0.292858</v>
+        <v>0.292339</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159884</v>
+        <v>0.160179</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183582</v>
+        <v>0.183595</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293828</v>
+        <v>0.293405</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156063</v>
+        <v>0.156656</v>
       </c>
       <c r="C54" t="n">
-        <v>0.181869</v>
+        <v>0.182013</v>
       </c>
       <c r="D54" t="n">
-        <v>0.29486</v>
+        <v>0.294848</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151898</v>
+        <v>0.15243</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180732</v>
+        <v>0.180699</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296501</v>
+        <v>0.296671</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147236</v>
+        <v>0.147799</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179271</v>
+        <v>0.179388</v>
       </c>
       <c r="D56" t="n">
-        <v>0.298193</v>
+        <v>0.29784</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142725</v>
+        <v>0.143184</v>
       </c>
       <c r="C57" t="n">
-        <v>0.178053</v>
+        <v>0.17796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.299592</v>
+        <v>0.299141</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13806</v>
+        <v>0.138521</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176766</v>
+        <v>0.176903</v>
       </c>
       <c r="D58" t="n">
-        <v>0.301373</v>
+        <v>0.300364</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133235</v>
+        <v>0.133382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175533</v>
+        <v>0.175427</v>
       </c>
       <c r="D59" t="n">
-        <v>0.302008</v>
+        <v>0.301426</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128101</v>
+        <v>0.128236</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174209</v>
+        <v>0.174179</v>
       </c>
       <c r="D60" t="n">
-        <v>0.30331</v>
+        <v>0.302745</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123113</v>
+        <v>0.123425</v>
       </c>
       <c r="C61" t="n">
-        <v>0.173039</v>
+        <v>0.172995</v>
       </c>
       <c r="D61" t="n">
-        <v>0.304789</v>
+        <v>0.303729</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.11808</v>
+        <v>0.118146</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171799</v>
+        <v>0.171814</v>
       </c>
       <c r="D62" t="n">
-        <v>0.305622</v>
+        <v>0.304971</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112888</v>
+        <v>0.113249</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170512</v>
+        <v>0.170559</v>
       </c>
       <c r="D63" t="n">
-        <v>0.30618</v>
+        <v>0.305978</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.107804</v>
+        <v>0.108192</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169497</v>
+        <v>0.169527</v>
       </c>
       <c r="D64" t="n">
-        <v>0.297755</v>
+        <v>0.29764</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102946</v>
+        <v>0.102973</v>
       </c>
       <c r="C65" t="n">
-        <v>0.16831</v>
+        <v>0.168296</v>
       </c>
       <c r="D65" t="n">
-        <v>0.29995</v>
+        <v>0.298941</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0975408</v>
+        <v>0.09760969999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.185626</v>
+        <v>0.18558</v>
       </c>
       <c r="D66" t="n">
-        <v>0.301165</v>
+        <v>0.30071</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163624</v>
+        <v>0.163494</v>
       </c>
       <c r="C67" t="n">
-        <v>0.184167</v>
+        <v>0.183988</v>
       </c>
       <c r="D67" t="n">
-        <v>0.303683</v>
+        <v>0.302832</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.1598</v>
+        <v>0.159476</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182699</v>
+        <v>0.182387</v>
       </c>
       <c r="D68" t="n">
-        <v>0.305182</v>
+        <v>0.304098</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15569</v>
+        <v>0.155163</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181321</v>
+        <v>0.181064</v>
       </c>
       <c r="D69" t="n">
-        <v>0.307003</v>
+        <v>0.306564</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.151226</v>
+        <v>0.150527</v>
       </c>
       <c r="C70" t="n">
-        <v>0.180005</v>
+        <v>0.179863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3092</v>
+        <v>0.309202</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146209</v>
+        <v>0.146094</v>
       </c>
       <c r="C71" t="n">
-        <v>0.178654</v>
+        <v>0.17861</v>
       </c>
       <c r="D71" t="n">
-        <v>0.312467</v>
+        <v>0.311356</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.14138</v>
+        <v>0.141316</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177374</v>
+        <v>0.177353</v>
       </c>
       <c r="D72" t="n">
-        <v>0.314327</v>
+        <v>0.313532</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136243</v>
+        <v>0.13588</v>
       </c>
       <c r="C73" t="n">
-        <v>0.176139</v>
+        <v>0.17604</v>
       </c>
       <c r="D73" t="n">
-        <v>0.317012</v>
+        <v>0.316949</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131238</v>
+        <v>0.130979</v>
       </c>
       <c r="C74" t="n">
-        <v>0.174871</v>
+        <v>0.174854</v>
       </c>
       <c r="D74" t="n">
-        <v>0.317883</v>
+        <v>0.321441</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126025</v>
+        <v>0.125624</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173587</v>
+        <v>0.173725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320179</v>
+        <v>0.323243</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120979</v>
+        <v>0.120802</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172604</v>
+        <v>0.172548</v>
       </c>
       <c r="D76" t="n">
-        <v>0.322553</v>
+        <v>0.323715</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115712</v>
+        <v>0.115658</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171464</v>
+        <v>0.171371</v>
       </c>
       <c r="D77" t="n">
-        <v>0.324115</v>
+        <v>0.324945</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110714</v>
+        <v>0.110524</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170214</v>
+        <v>0.170082</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315077</v>
+        <v>0.315665</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105508</v>
+        <v>0.105296</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169054</v>
+        <v>0.169009</v>
       </c>
       <c r="D79" t="n">
-        <v>0.316439</v>
+        <v>0.316137</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.10058</v>
+        <v>0.0999572</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186059</v>
+        <v>0.186128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.317132</v>
+        <v>0.316644</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164661</v>
+        <v>0.164666</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184562</v>
+        <v>0.184564</v>
       </c>
       <c r="D81" t="n">
-        <v>0.318417</v>
+        <v>0.317831</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160554</v>
+        <v>0.160745</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183084</v>
+        <v>0.183062</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31964</v>
+        <v>0.318455</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156604</v>
+        <v>0.156619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181784</v>
+        <v>0.181676</v>
       </c>
       <c r="D83" t="n">
-        <v>0.319535</v>
+        <v>0.321226</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151912</v>
+        <v>0.15206</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180295</v>
+        <v>0.180282</v>
       </c>
       <c r="D84" t="n">
-        <v>0.32124</v>
+        <v>0.322537</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146954</v>
+        <v>0.147107</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178953</v>
+        <v>0.178988</v>
       </c>
       <c r="D85" t="n">
-        <v>0.323584</v>
+        <v>0.324139</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.141916</v>
+        <v>0.141992</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177781</v>
+        <v>0.177748</v>
       </c>
       <c r="D86" t="n">
-        <v>0.326342</v>
+        <v>0.326505</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136824</v>
+        <v>0.13687</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176567</v>
+        <v>0.176503</v>
       </c>
       <c r="D87" t="n">
-        <v>0.328788</v>
+        <v>0.328427</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131825</v>
+        <v>0.131535</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175336</v>
+        <v>0.175294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.330781</v>
+        <v>0.331582</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126292</v>
+        <v>0.12652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.173915</v>
+        <v>0.174198</v>
       </c>
       <c r="D89" t="n">
-        <v>0.329458</v>
+        <v>0.335496</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121443</v>
+        <v>0.121465</v>
       </c>
       <c r="C90" t="n">
-        <v>0.17291</v>
+        <v>0.173002</v>
       </c>
       <c r="D90" t="n">
-        <v>0.331981</v>
+        <v>0.335467</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11645</v>
+        <v>0.116238</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171735</v>
+        <v>0.171796</v>
       </c>
       <c r="D91" t="n">
-        <v>0.333549</v>
+        <v>0.33503</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111237</v>
+        <v>0.111089</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170611</v>
+        <v>0.170566</v>
       </c>
       <c r="D92" t="n">
-        <v>0.302023</v>
+        <v>0.303353</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106025</v>
+        <v>0.105957</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169368</v>
+        <v>0.169281</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302521</v>
+        <v>0.306085</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100981</v>
+        <v>0.100772</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186411</v>
+        <v>0.186314</v>
       </c>
       <c r="D94" t="n">
-        <v>0.304492</v>
+        <v>0.307291</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165709</v>
+        <v>0.165836</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184864</v>
+        <v>0.184883</v>
       </c>
       <c r="D95" t="n">
-        <v>0.306594</v>
+        <v>0.308298</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162014</v>
+        <v>0.161958</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183334</v>
+        <v>0.183373</v>
       </c>
       <c r="D96" t="n">
-        <v>0.308465</v>
+        <v>0.309143</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157851</v>
+        <v>0.157719</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181945</v>
+        <v>0.181956</v>
       </c>
       <c r="D97" t="n">
-        <v>0.308302</v>
+        <v>0.3129</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153272</v>
+        <v>0.15306</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180566</v>
+        <v>0.180535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.310266</v>
+        <v>0.314447</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148337</v>
+        <v>0.14811</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179234</v>
+        <v>0.179209</v>
       </c>
       <c r="D99" t="n">
-        <v>0.313092</v>
+        <v>0.31657</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.142996</v>
+        <v>0.143258</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178017</v>
+        <v>0.177992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.314882</v>
+        <v>0.320605</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137817</v>
+        <v>0.137826</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176833</v>
+        <v>0.176823</v>
       </c>
       <c r="D101" t="n">
-        <v>0.318595</v>
+        <v>0.322716</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132799</v>
+        <v>0.132707</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175606</v>
+        <v>0.175552</v>
       </c>
       <c r="D102" t="n">
-        <v>0.321568</v>
+        <v>0.324981</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127469</v>
+        <v>0.127801</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174402</v>
+        <v>0.174352</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322108</v>
+        <v>0.32825</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12243</v>
+        <v>0.122614</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173266</v>
+        <v>0.173224</v>
       </c>
       <c r="D104" t="n">
-        <v>0.323644</v>
+        <v>0.329113</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117252</v>
+        <v>0.117348</v>
       </c>
       <c r="C105" t="n">
-        <v>0.172085</v>
+        <v>0.171799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.325259</v>
+        <v>0.329165</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112176</v>
+        <v>0.112197</v>
       </c>
       <c r="C106" t="n">
-        <v>0.17081</v>
+        <v>0.170831</v>
       </c>
       <c r="D106" t="n">
-        <v>0.327419</v>
+        <v>0.330801</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.106983</v>
+        <v>0.107035</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169608</v>
+        <v>0.169682</v>
       </c>
       <c r="D107" t="n">
-        <v>0.301059</v>
+        <v>0.305636</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101813</v>
+        <v>0.101905</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186764</v>
+        <v>0.186692</v>
       </c>
       <c r="D108" t="n">
-        <v>0.303592</v>
+        <v>0.306576</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966939</v>
+        <v>0.0967943</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185186</v>
+        <v>0.185182</v>
       </c>
       <c r="D109" t="n">
-        <v>0.304623</v>
+        <v>0.309064</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162618</v>
+        <v>0.162952</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183745</v>
+        <v>0.183702</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306332</v>
+        <v>0.310259</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158275</v>
+        <v>0.158521</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182309</v>
+        <v>0.182274</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307374</v>
+        <v>0.312651</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153588</v>
+        <v>0.153885</v>
       </c>
       <c r="C112" t="n">
-        <v>0.180956</v>
+        <v>0.18088</v>
       </c>
       <c r="D112" t="n">
-        <v>0.309287</v>
+        <v>0.313828</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149022</v>
+        <v>0.149438</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179643</v>
+        <v>0.179641</v>
       </c>
       <c r="D113" t="n">
-        <v>0.310906</v>
+        <v>0.31692</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.143907</v>
+        <v>0.144255</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178283</v>
+        <v>0.178349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313471</v>
+        <v>0.319688</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.138888</v>
+        <v>0.139183</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177109</v>
+        <v>0.177032</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316622</v>
+        <v>0.321557</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133897</v>
+        <v>0.133769</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175902</v>
+        <v>0.175877</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319591</v>
+        <v>0.324816</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128743</v>
+        <v>0.128622</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174684</v>
+        <v>0.174669</v>
       </c>
       <c r="D117" t="n">
-        <v>0.32158</v>
+        <v>0.327832</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123655</v>
+        <v>0.123547</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173511</v>
+        <v>0.173428</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322303</v>
+        <v>0.329521</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118473</v>
+        <v>0.118452</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172346</v>
+        <v>0.172228</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324572</v>
+        <v>0.330303</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113323</v>
+        <v>0.113335</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171091</v>
+        <v>0.171117</v>
       </c>
       <c r="D120" t="n">
-        <v>0.326343</v>
+        <v>0.331161</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108178</v>
+        <v>0.108162</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169861</v>
+        <v>0.169872</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302816</v>
+        <v>0.307233</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102816</v>
+        <v>0.102996</v>
       </c>
       <c r="C122" t="n">
         <v>0.168688</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304827</v>
+        <v>0.30906</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978096</v>
+        <v>0.0978198</v>
       </c>
       <c r="C123" t="n">
-        <v>0.18559</v>
+        <v>0.185519</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3066</v>
+        <v>0.310635</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172461</v>
+        <v>0.172912</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184096</v>
+        <v>0.184052</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307431</v>
+        <v>0.312578</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168373</v>
+        <v>0.168743</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18258</v>
+        <v>0.18255</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308783</v>
+        <v>0.313917</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16324</v>
+        <v>0.163738</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181181</v>
+        <v>0.181224</v>
       </c>
       <c r="D126" t="n">
-        <v>0.310505</v>
+        <v>0.31597</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.157984</v>
+        <v>0.158292</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179847</v>
+        <v>0.179891</v>
       </c>
       <c r="D127" t="n">
-        <v>0.312336</v>
+        <v>0.318427</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.152699</v>
+        <v>0.1528</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178615</v>
+        <v>0.17861</v>
       </c>
       <c r="D128" t="n">
-        <v>0.314597</v>
+        <v>0.321249</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.146983</v>
+        <v>0.147367</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177327</v>
+        <v>0.177384</v>
       </c>
       <c r="D129" t="n">
-        <v>0.318122</v>
+        <v>0.324086</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141485</v>
+        <v>0.141809</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176094</v>
+        <v>0.176155</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321121</v>
+        <v>0.326466</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136076</v>
+        <v>0.136376</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174908</v>
+        <v>0.174888</v>
       </c>
       <c r="D131" t="n">
-        <v>0.322373</v>
+        <v>0.32897</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.130677</v>
+        <v>0.130828</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173698</v>
+        <v>0.173687</v>
       </c>
       <c r="D132" t="n">
-        <v>0.323524</v>
+        <v>0.331369</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125498</v>
+        <v>0.125519</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172527</v>
+        <v>0.172546</v>
       </c>
       <c r="D133" t="n">
-        <v>0.325108</v>
+        <v>0.331798</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.11992</v>
+        <v>0.120109</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171287</v>
+        <v>0.171256</v>
       </c>
       <c r="D134" t="n">
-        <v>0.326919</v>
+        <v>0.331836</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114571</v>
+        <v>0.11444</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170105</v>
+        <v>0.170021</v>
       </c>
       <c r="D135" t="n">
-        <v>0.303147</v>
+        <v>0.307785</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109243</v>
+        <v>0.109382</v>
       </c>
       <c r="C136" t="n">
-        <v>0.169012</v>
+        <v>0.168911</v>
       </c>
       <c r="D136" t="n">
-        <v>0.304646</v>
+        <v>0.309437</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.103846</v>
+        <v>0.104053</v>
       </c>
       <c r="C137" t="n">
-        <v>0.195123</v>
+        <v>0.194926</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306493</v>
+        <v>0.311433</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174192</v>
+        <v>0.174198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.193207</v>
+        <v>0.193095</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307683</v>
+        <v>0.312889</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169709</v>
+        <v>0.16993</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191228</v>
+        <v>0.191281</v>
       </c>
       <c r="D139" t="n">
-        <v>0.308929</v>
+        <v>0.314496</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164987</v>
+        <v>0.164832</v>
       </c>
       <c r="C140" t="n">
-        <v>0.18944</v>
+        <v>0.18945</v>
       </c>
       <c r="D140" t="n">
-        <v>0.309993</v>
+        <v>0.316181</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159746</v>
+        <v>0.159739</v>
       </c>
       <c r="C141" t="n">
-        <v>0.187756</v>
+        <v>0.187775</v>
       </c>
       <c r="D141" t="n">
-        <v>0.312215</v>
+        <v>0.318161</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154316</v>
+        <v>0.15387</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186044</v>
+        <v>0.186131</v>
       </c>
       <c r="D142" t="n">
-        <v>0.31459</v>
+        <v>0.321988</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148629</v>
+        <v>0.148488</v>
       </c>
       <c r="C143" t="n">
-        <v>0.18466</v>
+        <v>0.184583</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317739</v>
+        <v>0.324355</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0650333</v>
+        <v>0.0785698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.165846</v>
+        <v>0.278661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.272814</v>
+        <v>0.161377</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.27075</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0647103</v>
+        <v>0.07801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.165997</v>
+        <v>0.281787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.275584</v>
+        <v>0.161805</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.271662</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0645206</v>
+        <v>0.076334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.166022</v>
+        <v>0.284602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.278161</v>
+        <v>0.16165</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.271133</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06456779999999999</v>
+        <v>0.07526380000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.165609</v>
+        <v>0.285648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.277959</v>
+        <v>0.161383</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.274026</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0647035</v>
+        <v>0.075381</v>
       </c>
       <c r="C6" t="n">
-        <v>0.164868</v>
+        <v>0.287433</v>
       </c>
       <c r="D6" t="n">
-        <v>0.281166</v>
+        <v>0.161432</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.270847</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0651225</v>
+        <v>0.0733709</v>
       </c>
       <c r="C7" t="n">
-        <v>0.163986</v>
+        <v>0.274449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27219</v>
+        <v>0.160883</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.274797</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0654878</v>
+        <v>0.07293719999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162899</v>
+        <v>0.276621</v>
       </c>
       <c r="D8" t="n">
-        <v>0.275001</v>
+        <v>0.160682</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.271653</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.066451</v>
+        <v>0.0715915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.177724</v>
+        <v>0.278775</v>
       </c>
       <c r="D9" t="n">
-        <v>0.274168</v>
+        <v>0.168008</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.280982</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09292209999999999</v>
+        <v>0.126204</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176524</v>
+        <v>0.281341</v>
       </c>
       <c r="D10" t="n">
-        <v>0.278198</v>
+        <v>0.167609</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.283694</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0924402</v>
+        <v>0.121989</v>
       </c>
       <c r="C11" t="n">
-        <v>0.176441</v>
+        <v>0.282871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.279817</v>
+        <v>0.167601</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.281135</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.093196</v>
+        <v>0.121594</v>
       </c>
       <c r="C12" t="n">
-        <v>0.175442</v>
+        <v>0.286431</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283431</v>
+        <v>0.167266</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.283407</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0923408</v>
+        <v>0.117472</v>
       </c>
       <c r="C13" t="n">
-        <v>0.174517</v>
+        <v>0.286907</v>
       </c>
       <c r="D13" t="n">
-        <v>0.284597</v>
+        <v>0.166521</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.278207</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0907761</v>
+        <v>0.117571</v>
       </c>
       <c r="C14" t="n">
-        <v>0.17359</v>
+        <v>0.288799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.285483</v>
+        <v>0.167893</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.278501</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0907116</v>
+        <v>0.115645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.172769</v>
+        <v>0.290491</v>
       </c>
       <c r="D15" t="n">
-        <v>0.286553</v>
+        <v>0.16697</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.277398</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0894626</v>
+        <v>0.112146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.172106</v>
+        <v>0.290309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.287962</v>
+        <v>0.166146</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.276845</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0883123</v>
+        <v>0.109733</v>
       </c>
       <c r="C17" t="n">
-        <v>0.171326</v>
+        <v>0.291906</v>
       </c>
       <c r="D17" t="n">
-        <v>0.289027</v>
+        <v>0.165718</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.27666</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0874957</v>
+        <v>0.106337</v>
       </c>
       <c r="C18" t="n">
-        <v>0.170466</v>
+        <v>0.292277</v>
       </c>
       <c r="D18" t="n">
-        <v>0.290151</v>
+        <v>0.164994</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.275895</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0882706</v>
+        <v>0.103632</v>
       </c>
       <c r="C19" t="n">
-        <v>0.170551</v>
+        <v>0.293213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.291794</v>
+        <v>0.164471</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.273221</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.086879</v>
+        <v>0.0991889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.169375</v>
+        <v>0.294434</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292637</v>
+        <v>0.164271</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.275609</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0852754</v>
+        <v>0.0962592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167118</v>
+        <v>0.283856</v>
       </c>
       <c r="D21" t="n">
-        <v>0.283439</v>
+        <v>0.163875</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.272189</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08204350000000001</v>
+        <v>0.09309190000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.165991</v>
+        <v>0.284349</v>
       </c>
       <c r="D22" t="n">
-        <v>0.283935</v>
+        <v>0.163013</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.272107</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0817199</v>
+        <v>0.0899575</v>
       </c>
       <c r="C23" t="n">
-        <v>0.184668</v>
+        <v>0.284879</v>
       </c>
       <c r="D23" t="n">
-        <v>0.284109</v>
+        <v>0.173693</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.285413</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135304</v>
+        <v>0.150258</v>
       </c>
       <c r="C24" t="n">
-        <v>0.182918</v>
+        <v>0.286239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286646</v>
+        <v>0.173392</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.284843</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134484</v>
+        <v>0.147224</v>
       </c>
       <c r="C25" t="n">
-        <v>0.180888</v>
+        <v>0.287601</v>
       </c>
       <c r="D25" t="n">
-        <v>0.287923</v>
+        <v>0.171978</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.284983</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.131807</v>
+        <v>0.14444</v>
       </c>
       <c r="C26" t="n">
-        <v>0.180006</v>
+        <v>0.2876</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287848</v>
+        <v>0.172057</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.280853</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.130196</v>
+        <v>0.140705</v>
       </c>
       <c r="C27" t="n">
-        <v>0.178921</v>
+        <v>0.288997</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289472</v>
+        <v>0.172897</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.281688</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126176</v>
+        <v>0.137402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.177531</v>
+        <v>0.290481</v>
       </c>
       <c r="D28" t="n">
-        <v>0.291369</v>
+        <v>0.17029</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.279487</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.123463</v>
+        <v>0.133721</v>
       </c>
       <c r="C29" t="n">
-        <v>0.176303</v>
+        <v>0.291662</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29289</v>
+        <v>0.171219</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.280677</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119824</v>
+        <v>0.128955</v>
       </c>
       <c r="C30" t="n">
-        <v>0.175306</v>
+        <v>0.29328</v>
       </c>
       <c r="D30" t="n">
-        <v>0.294273</v>
+        <v>0.169221</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.280292</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116816</v>
+        <v>0.12512</v>
       </c>
       <c r="C31" t="n">
-        <v>0.173913</v>
+        <v>0.294138</v>
       </c>
       <c r="D31" t="n">
-        <v>0.29665</v>
+        <v>0.168358</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.280893</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.112729</v>
+        <v>0.120441</v>
       </c>
       <c r="C32" t="n">
-        <v>0.17281</v>
+        <v>0.293505</v>
       </c>
       <c r="D32" t="n">
-        <v>0.297584</v>
+        <v>0.168837</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.278407</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.109154</v>
+        <v>0.114693</v>
       </c>
       <c r="C33" t="n">
-        <v>0.171673</v>
+        <v>0.296216</v>
       </c>
       <c r="D33" t="n">
-        <v>0.297396</v>
+        <v>0.16865</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.279064</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104863</v>
+        <v>0.109617</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170293</v>
+        <v>0.297426</v>
       </c>
       <c r="D34" t="n">
-        <v>0.299488</v>
+        <v>0.166213</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.276623</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09999669999999999</v>
+        <v>0.104777</v>
       </c>
       <c r="C35" t="n">
-        <v>0.169229</v>
+        <v>0.285782</v>
       </c>
       <c r="D35" t="n">
-        <v>0.287289</v>
+        <v>0.165749</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.275242</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.09627189999999999</v>
+        <v>0.100498</v>
       </c>
       <c r="C36" t="n">
-        <v>0.167363</v>
+        <v>0.286008</v>
       </c>
       <c r="D36" t="n">
-        <v>0.288082</v>
+        <v>0.165377</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.273643</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0921819</v>
+        <v>0.095885</v>
       </c>
       <c r="C37" t="n">
-        <v>0.18566</v>
+        <v>0.287226</v>
       </c>
       <c r="D37" t="n">
-        <v>0.290416</v>
+        <v>0.181607</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.28665</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156639</v>
+        <v>0.159284</v>
       </c>
       <c r="C38" t="n">
-        <v>0.184082</v>
+        <v>0.28761</v>
       </c>
       <c r="D38" t="n">
-        <v>0.290503</v>
+        <v>0.179581</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.288314</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153908</v>
+        <v>0.156717</v>
       </c>
       <c r="C39" t="n">
-        <v>0.18262</v>
+        <v>0.289069</v>
       </c>
       <c r="D39" t="n">
-        <v>0.291924</v>
+        <v>0.179549</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.283276</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149965</v>
+        <v>0.153778</v>
       </c>
       <c r="C40" t="n">
-        <v>0.181159</v>
+        <v>0.291258</v>
       </c>
       <c r="D40" t="n">
-        <v>0.292264</v>
+        <v>0.177059</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.283897</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146188</v>
+        <v>0.149985</v>
       </c>
       <c r="C41" t="n">
-        <v>0.180112</v>
+        <v>0.292044</v>
       </c>
       <c r="D41" t="n">
-        <v>0.294392</v>
+        <v>0.176741</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.282851</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142185</v>
+        <v>0.146067</v>
       </c>
       <c r="C42" t="n">
-        <v>0.178863</v>
+        <v>0.292541</v>
       </c>
       <c r="D42" t="n">
-        <v>0.295737</v>
+        <v>0.175916</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.282467</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137537</v>
+        <v>0.14153</v>
       </c>
       <c r="C43" t="n">
-        <v>0.177595</v>
+        <v>0.294038</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297618</v>
+        <v>0.174191</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.280855</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133204</v>
+        <v>0.136851</v>
       </c>
       <c r="C44" t="n">
-        <v>0.176294</v>
+        <v>0.29517</v>
       </c>
       <c r="D44" t="n">
-        <v>0.297865</v>
+        <v>0.173126</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.281927</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128197</v>
+        <v>0.131807</v>
       </c>
       <c r="C45" t="n">
-        <v>0.174978</v>
+        <v>0.295882</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299237</v>
+        <v>0.17289</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.278974</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.123919</v>
+        <v>0.126538</v>
       </c>
       <c r="C46" t="n">
-        <v>0.173696</v>
+        <v>0.29714</v>
       </c>
       <c r="D46" t="n">
-        <v>0.299743</v>
+        <v>0.171398</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.278439</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.11928</v>
+        <v>0.121426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.172453</v>
+        <v>0.297698</v>
       </c>
       <c r="D47" t="n">
-        <v>0.300322</v>
+        <v>0.170656</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.280525</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114105</v>
+        <v>0.115851</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171256</v>
+        <v>0.298015</v>
       </c>
       <c r="D48" t="n">
-        <v>0.301313</v>
+        <v>0.169676</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.275232</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109109</v>
+        <v>0.110881</v>
       </c>
       <c r="C49" t="n">
-        <v>0.169883</v>
+        <v>0.2997</v>
       </c>
       <c r="D49" t="n">
-        <v>0.302222</v>
+        <v>0.168742</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.274341</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1039</v>
+        <v>0.105341</v>
       </c>
       <c r="C50" t="n">
-        <v>0.168491</v>
+        <v>0.288124</v>
       </c>
       <c r="D50" t="n">
-        <v>0.290805</v>
+        <v>0.167746</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.276063</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0985893</v>
+        <v>0.100086</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186223</v>
+        <v>0.28907</v>
       </c>
       <c r="D51" t="n">
-        <v>0.291257</v>
+        <v>0.184643</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.291693</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0934908</v>
+        <v>0.09492250000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.184883</v>
+        <v>0.290364</v>
       </c>
       <c r="D52" t="n">
-        <v>0.292339</v>
+        <v>0.18327</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.289798</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160179</v>
+        <v>0.161765</v>
       </c>
       <c r="C53" t="n">
-        <v>0.183595</v>
+        <v>0.29106</v>
       </c>
       <c r="D53" t="n">
-        <v>0.293405</v>
+        <v>0.181852</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.287898</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156656</v>
+        <v>0.157751</v>
       </c>
       <c r="C54" t="n">
-        <v>0.182013</v>
+        <v>0.292367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.294848</v>
+        <v>0.180821</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.28715</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.15243</v>
+        <v>0.153367</v>
       </c>
       <c r="C55" t="n">
-        <v>0.180699</v>
+        <v>0.292745</v>
       </c>
       <c r="D55" t="n">
-        <v>0.296671</v>
+        <v>0.179281</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.28391</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147799</v>
+        <v>0.149046</v>
       </c>
       <c r="C56" t="n">
-        <v>0.179388</v>
+        <v>0.294376</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29784</v>
+        <v>0.178364</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.284432</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.143184</v>
+        <v>0.144183</v>
       </c>
       <c r="C57" t="n">
-        <v>0.17796</v>
+        <v>0.295477</v>
       </c>
       <c r="D57" t="n">
-        <v>0.299141</v>
+        <v>0.177349</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.28238</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.138521</v>
+        <v>0.139449</v>
       </c>
       <c r="C58" t="n">
-        <v>0.176903</v>
+        <v>0.297108</v>
       </c>
       <c r="D58" t="n">
-        <v>0.300364</v>
+        <v>0.176061</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.282797</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133382</v>
+        <v>0.134172</v>
       </c>
       <c r="C59" t="n">
-        <v>0.175427</v>
+        <v>0.298193</v>
       </c>
       <c r="D59" t="n">
-        <v>0.301426</v>
+        <v>0.174862</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.281096</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128236</v>
+        <v>0.129251</v>
       </c>
       <c r="C60" t="n">
-        <v>0.174179</v>
+        <v>0.299347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.302745</v>
+        <v>0.17382</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.277033</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123425</v>
+        <v>0.124021</v>
       </c>
       <c r="C61" t="n">
-        <v>0.172995</v>
+        <v>0.300971</v>
       </c>
       <c r="D61" t="n">
-        <v>0.303729</v>
+        <v>0.172776</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.276516</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118146</v>
+        <v>0.118888</v>
       </c>
       <c r="C62" t="n">
-        <v>0.171814</v>
+        <v>0.301872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.304971</v>
+        <v>0.171758</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.276848</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113249</v>
+        <v>0.113656</v>
       </c>
       <c r="C63" t="n">
-        <v>0.170559</v>
+        <v>0.302877</v>
       </c>
       <c r="D63" t="n">
-        <v>0.305978</v>
+        <v>0.170447</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.279088</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108192</v>
+        <v>0.10868</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169527</v>
+        <v>0.295352</v>
       </c>
       <c r="D64" t="n">
-        <v>0.29764</v>
+        <v>0.169347</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.276751</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102973</v>
+        <v>0.103293</v>
       </c>
       <c r="C65" t="n">
-        <v>0.168296</v>
+        <v>0.297121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.298941</v>
+        <v>0.168119</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.276998</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09760969999999999</v>
+        <v>0.09785820000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.18558</v>
+        <v>0.29808</v>
       </c>
       <c r="D66" t="n">
-        <v>0.30071</v>
+        <v>0.185031</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.28964</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163494</v>
+        <v>0.163938</v>
       </c>
       <c r="C67" t="n">
-        <v>0.183988</v>
+        <v>0.300501</v>
       </c>
       <c r="D67" t="n">
-        <v>0.302832</v>
+        <v>0.183681</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.286487</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159476</v>
+        <v>0.16019</v>
       </c>
       <c r="C68" t="n">
-        <v>0.182387</v>
+        <v>0.301419</v>
       </c>
       <c r="D68" t="n">
-        <v>0.304098</v>
+        <v>0.182192</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.28763</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155163</v>
+        <v>0.156112</v>
       </c>
       <c r="C69" t="n">
-        <v>0.181064</v>
+        <v>0.304017</v>
       </c>
       <c r="D69" t="n">
-        <v>0.306564</v>
+        <v>0.181223</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.286477</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150527</v>
+        <v>0.151234</v>
       </c>
       <c r="C70" t="n">
-        <v>0.179863</v>
+        <v>0.306256</v>
       </c>
       <c r="D70" t="n">
-        <v>0.309202</v>
+        <v>0.1797</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.285516</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146094</v>
+        <v>0.1467</v>
       </c>
       <c r="C71" t="n">
-        <v>0.17861</v>
+        <v>0.30713</v>
       </c>
       <c r="D71" t="n">
-        <v>0.311356</v>
+        <v>0.178455</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.28524</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141316</v>
+        <v>0.141537</v>
       </c>
       <c r="C72" t="n">
-        <v>0.177353</v>
+        <v>0.309409</v>
       </c>
       <c r="D72" t="n">
-        <v>0.313532</v>
+        <v>0.177282</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.283961</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13588</v>
+        <v>0.136251</v>
       </c>
       <c r="C73" t="n">
-        <v>0.17604</v>
+        <v>0.312199</v>
       </c>
       <c r="D73" t="n">
-        <v>0.316949</v>
+        <v>0.176083</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.284223</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130979</v>
+        <v>0.131385</v>
       </c>
       <c r="C74" t="n">
-        <v>0.174854</v>
+        <v>0.306165</v>
       </c>
       <c r="D74" t="n">
-        <v>0.321441</v>
+        <v>0.174918</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.280482</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125624</v>
+        <v>0.125975</v>
       </c>
       <c r="C75" t="n">
-        <v>0.173725</v>
+        <v>0.309771</v>
       </c>
       <c r="D75" t="n">
-        <v>0.323243</v>
+        <v>0.173816</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.27945</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120802</v>
+        <v>0.120806</v>
       </c>
       <c r="C76" t="n">
-        <v>0.172548</v>
+        <v>0.312349</v>
       </c>
       <c r="D76" t="n">
-        <v>0.323715</v>
+        <v>0.172569</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.279581</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115658</v>
+        <v>0.115717</v>
       </c>
       <c r="C77" t="n">
-        <v>0.171371</v>
+        <v>0.315075</v>
       </c>
       <c r="D77" t="n">
-        <v>0.324945</v>
+        <v>0.171501</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.279018</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110524</v>
+        <v>0.110491</v>
       </c>
       <c r="C78" t="n">
-        <v>0.170082</v>
+        <v>0.308787</v>
       </c>
       <c r="D78" t="n">
-        <v>0.315665</v>
+        <v>0.170134</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.274384</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105296</v>
+        <v>0.105539</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169009</v>
+        <v>0.31033</v>
       </c>
       <c r="D79" t="n">
-        <v>0.316137</v>
+        <v>0.168946</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.276461</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0999572</v>
+        <v>0.100332</v>
       </c>
       <c r="C80" t="n">
-        <v>0.186128</v>
+        <v>0.311713</v>
       </c>
       <c r="D80" t="n">
-        <v>0.316644</v>
+        <v>0.18571</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.292322</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164666</v>
+        <v>0.164231</v>
       </c>
       <c r="C81" t="n">
-        <v>0.184564</v>
+        <v>0.31323</v>
       </c>
       <c r="D81" t="n">
-        <v>0.317831</v>
+        <v>0.184182</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.289118</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160745</v>
+        <v>0.160433</v>
       </c>
       <c r="C82" t="n">
-        <v>0.183062</v>
+        <v>0.314737</v>
       </c>
       <c r="D82" t="n">
-        <v>0.318455</v>
+        <v>0.182808</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.288247</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156619</v>
+        <v>0.156282</v>
       </c>
       <c r="C83" t="n">
-        <v>0.181676</v>
+        <v>0.31414</v>
       </c>
       <c r="D83" t="n">
-        <v>0.321226</v>
+        <v>0.181466</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.288563</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.15206</v>
+        <v>0.151513</v>
       </c>
       <c r="C84" t="n">
-        <v>0.180282</v>
+        <v>0.315762</v>
       </c>
       <c r="D84" t="n">
-        <v>0.322537</v>
+        <v>0.180095</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.287533</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147107</v>
+        <v>0.146903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.178988</v>
+        <v>0.318579</v>
       </c>
       <c r="D85" t="n">
-        <v>0.324139</v>
+        <v>0.178727</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.286304</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.141992</v>
+        <v>0.141991</v>
       </c>
       <c r="C86" t="n">
-        <v>0.177748</v>
+        <v>0.321262</v>
       </c>
       <c r="D86" t="n">
-        <v>0.326505</v>
+        <v>0.177617</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.283101</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.13687</v>
+        <v>0.136909</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176503</v>
+        <v>0.323652</v>
       </c>
       <c r="D87" t="n">
-        <v>0.328427</v>
+        <v>0.176367</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.280356</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131535</v>
+        <v>0.131753</v>
       </c>
       <c r="C88" t="n">
-        <v>0.175294</v>
+        <v>0.325257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.331582</v>
+        <v>0.175199</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.280392</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.12652</v>
+        <v>0.126506</v>
       </c>
       <c r="C89" t="n">
-        <v>0.174198</v>
+        <v>0.315909</v>
       </c>
       <c r="D89" t="n">
-        <v>0.335496</v>
+        <v>0.174092</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.281045</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121465</v>
+        <v>0.121357</v>
       </c>
       <c r="C90" t="n">
-        <v>0.173002</v>
+        <v>0.318185</v>
       </c>
       <c r="D90" t="n">
-        <v>0.335467</v>
+        <v>0.17285</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.276278</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116238</v>
+        <v>0.116213</v>
       </c>
       <c r="C91" t="n">
-        <v>0.171796</v>
+        <v>0.320763</v>
       </c>
       <c r="D91" t="n">
-        <v>0.33503</v>
+        <v>0.171697</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.277672</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111089</v>
+        <v>0.111081</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170566</v>
+        <v>0.295097</v>
       </c>
       <c r="D92" t="n">
-        <v>0.303353</v>
+        <v>0.170479</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.276009</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.105957</v>
+        <v>0.106023</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169281</v>
+        <v>0.295977</v>
       </c>
       <c r="D93" t="n">
-        <v>0.306085</v>
+        <v>0.169232</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.276803</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100772</v>
+        <v>0.100876</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186314</v>
+        <v>0.297469</v>
       </c>
       <c r="D94" t="n">
-        <v>0.307291</v>
+        <v>0.186238</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.294846</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165836</v>
+        <v>0.165616</v>
       </c>
       <c r="C95" t="n">
-        <v>0.184883</v>
+        <v>0.299469</v>
       </c>
       <c r="D95" t="n">
-        <v>0.308298</v>
+        <v>0.184776</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.289587</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161958</v>
+        <v>0.161892</v>
       </c>
       <c r="C96" t="n">
-        <v>0.183373</v>
+        <v>0.301571</v>
       </c>
       <c r="D96" t="n">
-        <v>0.309143</v>
+        <v>0.183353</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.288815</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157719</v>
+        <v>0.157627</v>
       </c>
       <c r="C97" t="n">
-        <v>0.181956</v>
+        <v>0.296998</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3129</v>
+        <v>0.182029</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.285001</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.15306</v>
+        <v>0.153045</v>
       </c>
       <c r="C98" t="n">
-        <v>0.180535</v>
+        <v>0.299261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.314447</v>
+        <v>0.180636</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.285394</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14811</v>
+        <v>0.148124</v>
       </c>
       <c r="C99" t="n">
-        <v>0.179209</v>
+        <v>0.302162</v>
       </c>
       <c r="D99" t="n">
-        <v>0.31657</v>
+        <v>0.179256</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.283591</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143258</v>
+        <v>0.143096</v>
       </c>
       <c r="C100" t="n">
-        <v>0.177992</v>
+        <v>0.303709</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320605</v>
+        <v>0.178057</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.285928</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137826</v>
+        <v>0.137765</v>
       </c>
       <c r="C101" t="n">
-        <v>0.176823</v>
+        <v>0.306448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.322716</v>
+        <v>0.176775</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.28276</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132707</v>
+        <v>0.132801</v>
       </c>
       <c r="C102" t="n">
-        <v>0.175552</v>
+        <v>0.310136</v>
       </c>
       <c r="D102" t="n">
-        <v>0.324981</v>
+        <v>0.175665</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.281078</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127801</v>
+        <v>0.127657</v>
       </c>
       <c r="C103" t="n">
-        <v>0.174352</v>
+        <v>0.306796</v>
       </c>
       <c r="D103" t="n">
-        <v>0.32825</v>
+        <v>0.174317</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.280155</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122614</v>
+        <v>0.12242</v>
       </c>
       <c r="C104" t="n">
-        <v>0.173224</v>
+        <v>0.30934</v>
       </c>
       <c r="D104" t="n">
-        <v>0.329113</v>
+        <v>0.173185</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.279521</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117348</v>
+        <v>0.11725</v>
       </c>
       <c r="C105" t="n">
-        <v>0.171799</v>
+        <v>0.311905</v>
       </c>
       <c r="D105" t="n">
-        <v>0.329165</v>
+        <v>0.171964</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.279457</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112197</v>
+        <v>0.112112</v>
       </c>
       <c r="C106" t="n">
-        <v>0.170831</v>
+        <v>0.313813</v>
       </c>
       <c r="D106" t="n">
-        <v>0.330801</v>
+        <v>0.170756</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.278278</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107035</v>
+        <v>0.10702</v>
       </c>
       <c r="C107" t="n">
-        <v>0.169682</v>
+        <v>0.290918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.305636</v>
+        <v>0.169512</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.275865</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101905</v>
+        <v>0.101872</v>
       </c>
       <c r="C108" t="n">
-        <v>0.186692</v>
+        <v>0.292794</v>
       </c>
       <c r="D108" t="n">
-        <v>0.306576</v>
+        <v>0.186733</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.292885</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967943</v>
+        <v>0.0966104</v>
       </c>
       <c r="C109" t="n">
-        <v>0.185182</v>
+        <v>0.294234</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309064</v>
+        <v>0.18519</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.29214</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162952</v>
+        <v>0.163181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.183702</v>
+        <v>0.295679</v>
       </c>
       <c r="D110" t="n">
-        <v>0.310259</v>
+        <v>0.183764</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.289121</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158521</v>
+        <v>0.159031</v>
       </c>
       <c r="C111" t="n">
-        <v>0.182274</v>
+        <v>0.295282</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312651</v>
+        <v>0.182269</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.285812</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153885</v>
+        <v>0.154378</v>
       </c>
       <c r="C112" t="n">
-        <v>0.18088</v>
+        <v>0.296912</v>
       </c>
       <c r="D112" t="n">
-        <v>0.313828</v>
+        <v>0.180909</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.289304</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149438</v>
+        <v>0.149186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.179641</v>
+        <v>0.299968</v>
       </c>
       <c r="D113" t="n">
-        <v>0.31692</v>
+        <v>0.179595</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.281765</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144255</v>
+        <v>0.144248</v>
       </c>
       <c r="C114" t="n">
-        <v>0.178349</v>
+        <v>0.299754</v>
       </c>
       <c r="D114" t="n">
-        <v>0.319688</v>
+        <v>0.178396</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.28236</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139183</v>
+        <v>0.138994</v>
       </c>
       <c r="C115" t="n">
-        <v>0.177032</v>
+        <v>0.301842</v>
       </c>
       <c r="D115" t="n">
-        <v>0.321557</v>
+        <v>0.177056</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.283506</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133769</v>
+        <v>0.13388</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175877</v>
+        <v>0.304744</v>
       </c>
       <c r="D116" t="n">
-        <v>0.324816</v>
+        <v>0.175815</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.282489</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128622</v>
+        <v>0.128563</v>
       </c>
       <c r="C117" t="n">
-        <v>0.174669</v>
+        <v>0.305408</v>
       </c>
       <c r="D117" t="n">
-        <v>0.327832</v>
+        <v>0.174734</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.27951</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123547</v>
+        <v>0.123492</v>
       </c>
       <c r="C118" t="n">
-        <v>0.173428</v>
+        <v>0.307885</v>
       </c>
       <c r="D118" t="n">
-        <v>0.329521</v>
+        <v>0.173443</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.277523</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118452</v>
+        <v>0.118464</v>
       </c>
       <c r="C119" t="n">
-        <v>0.172228</v>
+        <v>0.307962</v>
       </c>
       <c r="D119" t="n">
-        <v>0.330303</v>
+        <v>0.172265</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.279182</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113335</v>
+        <v>0.113129</v>
       </c>
       <c r="C120" t="n">
-        <v>0.171117</v>
+        <v>0.310472</v>
       </c>
       <c r="D120" t="n">
-        <v>0.331161</v>
+        <v>0.171018</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.276473</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108162</v>
+        <v>0.108013</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169872</v>
+        <v>0.29361</v>
       </c>
       <c r="D121" t="n">
-        <v>0.307233</v>
+        <v>0.169873</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.276892</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102996</v>
+        <v>0.102901</v>
       </c>
       <c r="C122" t="n">
-        <v>0.168688</v>
+        <v>0.293955</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30906</v>
+        <v>0.16868</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.275816</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978198</v>
+        <v>0.0977628</v>
       </c>
       <c r="C123" t="n">
-        <v>0.185519</v>
+        <v>0.295548</v>
       </c>
       <c r="D123" t="n">
-        <v>0.310635</v>
+        <v>0.185604</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.289797</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.172912</v>
+        <v>0.173028</v>
       </c>
       <c r="C124" t="n">
-        <v>0.184052</v>
+        <v>0.29582</v>
       </c>
       <c r="D124" t="n">
-        <v>0.312578</v>
+        <v>0.18407</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.29229</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168743</v>
+        <v>0.168888</v>
       </c>
       <c r="C125" t="n">
-        <v>0.18255</v>
+        <v>0.297457</v>
       </c>
       <c r="D125" t="n">
-        <v>0.313917</v>
+        <v>0.182541</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.288339</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163738</v>
+        <v>0.163702</v>
       </c>
       <c r="C126" t="n">
-        <v>0.181224</v>
+        <v>0.298432</v>
       </c>
       <c r="D126" t="n">
-        <v>0.31597</v>
+        <v>0.181177</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.286976</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158292</v>
+        <v>0.158768</v>
       </c>
       <c r="C127" t="n">
-        <v>0.179891</v>
+        <v>0.299124</v>
       </c>
       <c r="D127" t="n">
-        <v>0.318427</v>
+        <v>0.179915</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.284306</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1528</v>
+        <v>0.152967</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17861</v>
+        <v>0.30075</v>
       </c>
       <c r="D128" t="n">
-        <v>0.321249</v>
+        <v>0.178443</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.282697</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147367</v>
+        <v>0.147432</v>
       </c>
       <c r="C129" t="n">
-        <v>0.177384</v>
+        <v>0.303137</v>
       </c>
       <c r="D129" t="n">
-        <v>0.324086</v>
+        <v>0.177278</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.281096</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141809</v>
+        <v>0.141975</v>
       </c>
       <c r="C130" t="n">
-        <v>0.176155</v>
+        <v>0.304833</v>
       </c>
       <c r="D130" t="n">
-        <v>0.326466</v>
+        <v>0.176076</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.281267</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136376</v>
+        <v>0.13661</v>
       </c>
       <c r="C131" t="n">
-        <v>0.174888</v>
+        <v>0.306146</v>
       </c>
       <c r="D131" t="n">
-        <v>0.32897</v>
+        <v>0.174889</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.279271</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.130828</v>
+        <v>0.131002</v>
       </c>
       <c r="C132" t="n">
-        <v>0.173687</v>
+        <v>0.307038</v>
       </c>
       <c r="D132" t="n">
-        <v>0.331369</v>
+        <v>0.173751</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.277611</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125519</v>
+        <v>0.125727</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172546</v>
+        <v>0.308538</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331798</v>
+        <v>0.172529</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.27983</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120109</v>
+        <v>0.120213</v>
       </c>
       <c r="C134" t="n">
-        <v>0.171256</v>
+        <v>0.311238</v>
       </c>
       <c r="D134" t="n">
-        <v>0.331836</v>
+        <v>0.17138</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.276196</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.11444</v>
+        <v>0.114864</v>
       </c>
       <c r="C135" t="n">
-        <v>0.170021</v>
+        <v>0.29305</v>
       </c>
       <c r="D135" t="n">
-        <v>0.307785</v>
+        <v>0.170068</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.275866</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109382</v>
+        <v>0.10935</v>
       </c>
       <c r="C136" t="n">
-        <v>0.168911</v>
+        <v>0.293936</v>
       </c>
       <c r="D136" t="n">
-        <v>0.309437</v>
+        <v>0.16884</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.275209</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104053</v>
+        <v>0.103983</v>
       </c>
       <c r="C137" t="n">
-        <v>0.194926</v>
+        <v>0.295193</v>
       </c>
       <c r="D137" t="n">
-        <v>0.311433</v>
+        <v>0.196116</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.297215</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174198</v>
+        <v>0.174103</v>
       </c>
       <c r="C138" t="n">
-        <v>0.193095</v>
+        <v>0.295602</v>
       </c>
       <c r="D138" t="n">
-        <v>0.312889</v>
+        <v>0.193136</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.294804</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16993</v>
+        <v>0.16957</v>
       </c>
       <c r="C139" t="n">
-        <v>0.191281</v>
+        <v>0.296406</v>
       </c>
       <c r="D139" t="n">
-        <v>0.314496</v>
+        <v>0.191085</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.292807</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164832</v>
+        <v>0.164907</v>
       </c>
       <c r="C140" t="n">
-        <v>0.18945</v>
+        <v>0.297767</v>
       </c>
       <c r="D140" t="n">
-        <v>0.316181</v>
+        <v>0.189452</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.292284</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159739</v>
+        <v>0.159763</v>
       </c>
       <c r="C141" t="n">
-        <v>0.187775</v>
+        <v>0.298622</v>
       </c>
       <c r="D141" t="n">
-        <v>0.318161</v>
+        <v>0.187873</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.286689</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15387</v>
+        <v>0.154327</v>
       </c>
       <c r="C142" t="n">
-        <v>0.186131</v>
+        <v>0.300831</v>
       </c>
       <c r="D142" t="n">
-        <v>0.321988</v>
+        <v>0.186202</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.286559</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148488</v>
+        <v>0.148619</v>
       </c>
       <c r="C143" t="n">
-        <v>0.184583</v>
+        <v>0.302162</v>
       </c>
       <c r="D143" t="n">
-        <v>0.324355</v>
+        <v>0.184527</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.287475</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.06514209999999999</v>
+                  <v>0.0785698</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0646888</v>
+                  <v>0.07801</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0647631</v>
+                  <v>0.076334</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.064111</v>
+                  <v>0.07526380000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.06420380000000001</v>
+                  <v>0.075381</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06460630000000001</v>
+                  <v>0.0733709</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.065148</v>
+                  <v>0.07293719999999999</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.065887</v>
+                  <v>0.0715915</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0887059</v>
+                  <v>0.126204</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0899031</v>
+                  <v>0.121989</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0896067</v>
+                  <v>0.121594</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0881233</v>
+                  <v>0.117472</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0885856</v>
+                  <v>0.117571</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0878598</v>
+                  <v>0.115645</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0890312</v>
+                  <v>0.112146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0888992</v>
+                  <v>0.109733</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0874554</v>
+                  <v>0.106337</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0861986</v>
+                  <v>0.103632</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.08517719999999999</v>
+                  <v>0.0991889</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0834608</v>
+                  <v>0.0962592</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0819814</v>
+                  <v>0.09309190000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.080834</v>
+                  <v>0.0899575</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.131692</v>
+                  <v>0.150258</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.129644</v>
+                  <v>0.147224</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.131203</v>
+                  <v>0.14444</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.124779</v>
+                  <v>0.140705</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.122183</v>
+                  <v>0.137402</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.120451</v>
+                  <v>0.133721</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.117679</v>
+                  <v>0.128955</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.114215</v>
+                  <v>0.12512</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.111054</v>
+                  <v>0.120441</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.107336</v>
+                  <v>0.114693</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.102908</v>
+                  <v>0.109617</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0980835</v>
+                  <v>0.104777</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0948746</v>
+                  <v>0.100498</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0908819</v>
+                  <v>0.095885</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.152468</v>
+                  <v>0.159284</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.149102</v>
+                  <v>0.156717</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.145484</v>
+                  <v>0.153778</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.142152</v>
+                  <v>0.149985</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.138137</v>
+                  <v>0.146067</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.134765</v>
+                  <v>0.14153</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.130662</v>
+                  <v>0.136851</v>
                 </pt>
                 <pt idx="43">
+                  <v>0.131807</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.126538</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.121426</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.115851</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.110881</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.105341</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.100086</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.09492250000000001</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.161765</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.157751</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.153367</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.149046</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.144183</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.139449</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.134172</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.129251</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.124021</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.118888</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.113656</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.10868</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.103293</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.09785820000000001</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.163938</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.16019</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.156112</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.151234</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.1467</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.141537</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.136251</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.131385</v>
+                </pt>
+                <pt idx="73">
                   <v>0.125975</v>
                 </pt>
-                <pt idx="44">
-                  <v>0.121565</v>
-                </pt>
-                <pt idx="45">
-                  <v>0.117221</v>
-                </pt>
-                <pt idx="46">
-                  <v>0.112501</v>
-                </pt>
-                <pt idx="47">
-                  <v>0.107345</v>
-                </pt>
-                <pt idx="48">
-                  <v>0.102426</v>
-                </pt>
-                <pt idx="49">
-                  <v>0.0976356</v>
-                </pt>
-                <pt idx="50">
-                  <v>0.0924672</v>
-                </pt>
-                <pt idx="51">
-                  <v>0.15662</v>
-                </pt>
-                <pt idx="52">
-                  <v>0.153117</v>
-                </pt>
-                <pt idx="53">
-                  <v>0.149105</v>
-                </pt>
-                <pt idx="54">
-                  <v>0.144688</v>
-                </pt>
-                <pt idx="55">
-                  <v>0.140245</v>
-                </pt>
-                <pt idx="56">
-                  <v>0.135367</v>
-                </pt>
-                <pt idx="57">
-                  <v>0.130521</v>
-                </pt>
-                <pt idx="58">
-                  <v>0.12587</v>
-                </pt>
-                <pt idx="59">
-                  <v>0.120977</v>
-                </pt>
-                <pt idx="60">
-                  <v>0.116081</v>
-                </pt>
-                <pt idx="61">
-                  <v>0.111088</v>
-                </pt>
-                <pt idx="62">
-                  <v>0.106201</v>
-                </pt>
-                <pt idx="63">
-                  <v>0.101215</v>
-                </pt>
-                <pt idx="64">
-                  <v>0.0972933</v>
-                </pt>
-                <pt idx="65">
-                  <v>0.163331</v>
-                </pt>
-                <pt idx="66">
-                  <v>0.159673</v>
-                </pt>
-                <pt idx="67">
-                  <v>0.156736</v>
-                </pt>
-                <pt idx="68">
-                  <v>0.14762</v>
-                </pt>
-                <pt idx="69">
-                  <v>0.143127</v>
-                </pt>
-                <pt idx="70">
-                  <v>0.138317</v>
-                </pt>
-                <pt idx="71">
-                  <v>0.1333</v>
-                </pt>
-                <pt idx="72">
-                  <v>0.128451</v>
-                </pt>
-                <pt idx="73">
-                  <v>0.123598</v>
-                </pt>
                 <pt idx="74">
-                  <v>0.118686</v>
+                  <v>0.120806</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.11356</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.108773</v>
+                  <v>0.110491</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103816</v>
+                  <v>0.105539</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0990196</v>
+                  <v>0.100332</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.161203</v>
+                  <v>0.164231</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.157427</v>
+                  <v>0.160433</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.153291</v>
+                  <v>0.156282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.148637</v>
+                  <v>0.151513</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.143993</v>
+                  <v>0.146903</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.139036</v>
+                  <v>0.141991</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.134011</v>
+                  <v>0.136909</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.129041</v>
+                  <v>0.131753</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.124071</v>
+                  <v>0.126506</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.119132</v>
+                  <v>0.121357</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.114314</v>
+                  <v>0.116213</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.109231</v>
+                  <v>0.111081</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.104396</v>
+                  <v>0.106023</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0994418</v>
+                  <v>0.100876</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.162412</v>
+                  <v>0.165616</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.158677</v>
+                  <v>0.161892</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.154426</v>
+                  <v>0.157627</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.149842</v>
+                  <v>0.153045</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.144781</v>
+                  <v>0.148124</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.141629</v>
+                  <v>0.143096</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.13847</v>
+                  <v>0.137765</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.133091</v>
+                  <v>0.132801</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.127714</v>
+                  <v>0.127657</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.124488</v>
+                  <v>0.12242</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.115669</v>
+                  <v>0.11725</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.110413</v>
+                  <v>0.112112</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.105489</v>
+                  <v>0.10702</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.100512</v>
+                  <v>0.101872</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0956983</v>
+                  <v>0.0966104</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.159396</v>
+                  <v>0.163181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.155243</v>
+                  <v>0.159031</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.150783</v>
+                  <v>0.154378</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.146049</v>
+                  <v>0.149186</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.141094</v>
+                  <v>0.144248</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.136194</v>
+                  <v>0.138994</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.131178</v>
+                  <v>0.13388</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.126183</v>
+                  <v>0.128563</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.121141</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116219</v>
+                  <v>0.118464</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.111305</v>
+                  <v>0.113129</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.106494</v>
+                  <v>0.108013</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.101612</v>
+                  <v>0.102901</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0967018</v>
+                  <v>0.0977628</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.169744</v>
+                  <v>0.173028</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.165135</v>
+                  <v>0.168888</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.160388</v>
+                  <v>0.163702</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.155819</v>
+                  <v>0.158768</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.164654</v>
+                  <v>0.152967</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.155278</v>
+                  <v>0.147432</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.132116</v>
+                  <v>0.141975</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.127121</v>
+                  <v>0.13661</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.122251</v>
+                  <v>0.131002</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.117233</v>
+                  <v>0.125727</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.112327</v>
+                  <v>0.120213</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.107307</v>
+                  <v>0.114864</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.102502</v>
+                  <v>0.10935</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0975835</v>
+                  <v>0.103983</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.161148</v>
+                  <v>0.174103</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15778</v>
+                  <v>0.16957</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.154339</v>
+                  <v>0.164907</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.151117</v>
+                  <v>0.159763</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.146988</v>
+                  <v>0.154327</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.14255</v>
+                  <v>0.148619</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.160547</v>
+                  <v>0.278661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.15973</v>
+                  <v>0.281787</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.160588</v>
+                  <v>0.284602</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.160445</v>
+                  <v>0.285648</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.160192</v>
+                  <v>0.287433</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160213</v>
+                  <v>0.274449</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160092</v>
+                  <v>0.276621</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.168084</v>
+                  <v>0.278775</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167852</v>
+                  <v>0.281341</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.168048</v>
+                  <v>0.282871</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.168336</v>
+                  <v>0.286431</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.167812</v>
+                  <v>0.286907</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.167109</v>
+                  <v>0.288799</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.16623</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166871</v>
+                  <v>0.290309</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.166478</v>
+                  <v>0.291906</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.165707</v>
+                  <v>0.292277</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.165031</v>
+                  <v>0.293213</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.1649</v>
+                  <v>0.294434</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.164776</v>
+                  <v>0.283856</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163625</v>
+                  <v>0.284349</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.178868</v>
+                  <v>0.284879</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.179678</v>
+                  <v>0.286239</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.178316</v>
+                  <v>0.287601</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.179476</v>
+                  <v>0.2876</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.17654</v>
+                  <v>0.288997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17461</v>
+                  <v>0.290481</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.173279</v>
+                  <v>0.291662</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.173751</v>
+                  <v>0.29328</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.170825</v>
+                  <v>0.294138</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.170453</v>
+                  <v>0.293505</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.169678</v>
+                  <v>0.296216</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.168909</v>
+                  <v>0.297426</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.1673</v>
+                  <v>0.285782</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.166577</v>
+                  <v>0.286008</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.182873</v>
+                  <v>0.287226</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.182937</v>
+                  <v>0.28761</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.181548</v>
+                  <v>0.289069</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.180155</v>
+                  <v>0.291258</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.178188</v>
+                  <v>0.292044</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.178144</v>
+                  <v>0.292541</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.176424</v>
+                  <v>0.294038</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.174992</v>
+                  <v>0.29517</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.174189</v>
+                  <v>0.295882</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.173002</v>
+                  <v>0.29714</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.17202</v>
+                  <v>0.297698</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.170973</v>
+                  <v>0.298015</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.170013</v>
+                  <v>0.2997</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.169078</v>
+                  <v>0.288124</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.185746</v>
+                  <v>0.28907</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.184696</v>
+                  <v>0.290364</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.182971</v>
+                  <v>0.29106</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.181617</v>
+                  <v>0.292367</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.180312</v>
+                  <v>0.292745</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178947</v>
+                  <v>0.294376</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.17791</v>
+                  <v>0.295477</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176813</v>
+                  <v>0.297108</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.175509</v>
+                  <v>0.298193</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.174262</v>
+                  <v>0.299347</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.173234</v>
+                  <v>0.300971</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.172265</v>
+                  <v>0.301872</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170923</v>
+                  <v>0.302877</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169855</v>
+                  <v>0.295352</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168538</v>
+                  <v>0.297121</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.187522</v>
+                  <v>0.29808</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.18675</v>
+                  <v>0.300501</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.186339</v>
+                  <v>0.301419</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.186911</v>
+                  <v>0.304017</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.180146</v>
+                  <v>0.306256</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178878</v>
+                  <v>0.30713</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177773</v>
+                  <v>0.309409</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176452</v>
+                  <v>0.312199</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.175288</v>
+                  <v>0.306165</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.174134</v>
+                  <v>0.309771</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.173057</v>
+                  <v>0.312349</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171904</v>
+                  <v>0.315075</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170816</v>
+                  <v>0.308787</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.169596</v>
+                  <v>0.31033</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.186275</v>
+                  <v>0.311713</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.184867</v>
+                  <v>0.31323</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.183395</v>
+                  <v>0.314737</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181873</v>
+                  <v>0.31414</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.180652</v>
+                  <v>0.315762</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.179425</v>
+                  <v>0.318579</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.178242</v>
+                  <v>0.321262</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.177184</v>
+                  <v>0.323652</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175864</v>
+                  <v>0.325257</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174882</v>
+                  <v>0.315909</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.173752</v>
+                  <v>0.318185</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.1725</v>
+                  <v>0.320763</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.171347</v>
+                  <v>0.295097</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.170199</v>
+                  <v>0.295977</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.186323</v>
+                  <v>0.297469</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184726</v>
+                  <v>0.299469</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183371</v>
+                  <v>0.301571</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.181997</v>
+                  <v>0.296998</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180644</v>
+                  <v>0.299261</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179187</v>
+                  <v>0.302162</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.180805</v>
+                  <v>0.303709</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.18046</v>
+                  <v>0.306448</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.179176</v>
+                  <v>0.310136</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.178397</v>
+                  <v>0.306796</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.179759</v>
+                  <v>0.30934</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.172124</v>
+                  <v>0.311905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.170854</v>
+                  <v>0.313813</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.16969</v>
+                  <v>0.290918</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.186605</v>
+                  <v>0.292794</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.185136</v>
+                  <v>0.294234</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.18361</v>
+                  <v>0.295679</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.182228</v>
+                  <v>0.295282</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180855</v>
+                  <v>0.296912</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179611</v>
+                  <v>0.299968</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.17834</v>
+                  <v>0.299754</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177104</v>
+                  <v>0.301842</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.175923</v>
+                  <v>0.304744</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.17472</v>
+                  <v>0.305408</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173557</v>
+                  <v>0.307885</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172486</v>
+                  <v>0.307962</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171126</v>
+                  <v>0.310472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.169954</v>
+                  <v>0.29361</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.168715</v>
+                  <v>0.293955</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.185407</v>
+                  <v>0.295548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.184197</v>
+                  <v>0.29582</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182592</v>
+                  <v>0.297457</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.181172</v>
+                  <v>0.298432</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179824</v>
+                  <v>0.299124</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.181327</v>
+                  <v>0.30075</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.184076</v>
+                  <v>0.303137</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176121</v>
+                  <v>0.304833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.175</v>
+                  <v>0.306146</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173795</v>
+                  <v>0.307038</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.172613</v>
+                  <v>0.308538</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.171437</v>
+                  <v>0.311238</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170207</v>
+                  <v>0.29305</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.168897</v>
+                  <v>0.293936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.185757</v>
+                  <v>0.295193</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.184278</v>
+                  <v>0.295602</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.182785</v>
+                  <v>0.296406</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.182179</v>
+                  <v>0.297767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.182545</v>
+                  <v>0.298622</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.181802</v>
+                  <v>0.300831</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.181858</v>
+                  <v>0.302162</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.279168</v>
+                  <v>0.161377</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.281786</v>
+                  <v>0.161805</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.283512</v>
+                  <v>0.16165</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.28496</v>
+                  <v>0.161383</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.285631</v>
+                  <v>0.161432</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274944</v>
+                  <v>0.160883</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.275954</v>
+                  <v>0.160682</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.274606</v>
+                  <v>0.168008</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.278916</v>
+                  <v>0.167609</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.281139</v>
+                  <v>0.167601</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.281362</v>
+                  <v>0.167266</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.283914</v>
+                  <v>0.166521</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.286102</v>
+                  <v>0.167893</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.287227</v>
+                  <v>0.16697</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.288543</v>
+                  <v>0.166146</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.288696</v>
+                  <v>0.165718</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.290398</v>
+                  <v>0.164994</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.290918</v>
+                  <v>0.164471</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.294304</v>
+                  <v>0.164271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.281251</v>
+                  <v>0.163875</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.281687</v>
+                  <v>0.163013</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.285584</v>
+                  <v>0.173693</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.288282</v>
+                  <v>0.173392</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.293925</v>
+                  <v>0.171978</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.28808</v>
+                  <v>0.172057</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.287253</v>
+                  <v>0.172897</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.288906</v>
+                  <v>0.17029</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.291093</v>
+                  <v>0.171219</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.292102</v>
+                  <v>0.169221</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.2932</v>
+                  <v>0.168358</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.29395</v>
+                  <v>0.168837</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.296171</v>
+                  <v>0.16865</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.296375</v>
+                  <v>0.166213</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.284355</v>
+                  <v>0.165749</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.284807</v>
+                  <v>0.165377</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.286368</v>
+                  <v>0.181607</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.286301</v>
+                  <v>0.179581</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.287581</v>
+                  <v>0.179549</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.289046</v>
+                  <v>0.177059</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.289677</v>
+                  <v>0.176741</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.29157</v>
+                  <v>0.175916</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.292293</v>
+                  <v>0.174191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.294612</v>
+                  <v>0.173126</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.294556</v>
+                  <v>0.17289</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.295616</v>
+                  <v>0.171398</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.29718</v>
+                  <v>0.170656</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.297434</v>
+                  <v>0.169676</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.299725</v>
+                  <v>0.168742</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.286811</v>
+                  <v>0.167746</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.288448</v>
+                  <v>0.184643</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.288918</v>
+                  <v>0.18327</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.290886</v>
+                  <v>0.181852</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.29162</v>
+                  <v>0.180821</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.292324</v>
+                  <v>0.179281</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.2942</v>
+                  <v>0.178364</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.294805</v>
+                  <v>0.177349</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.29628</v>
+                  <v>0.176061</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.297725</v>
+                  <v>0.174862</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.29819</v>
+                  <v>0.17382</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.300805</v>
+                  <v>0.172776</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.300675</v>
+                  <v>0.171758</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.303057</v>
+                  <v>0.170447</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.293829</v>
+                  <v>0.169347</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.297261</v>
+                  <v>0.168119</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.313275</v>
+                  <v>0.185031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.318938</v>
+                  <v>0.183681</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.339623</v>
+                  <v>0.182192</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.303013</v>
+                  <v>0.181223</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.305083</v>
+                  <v>0.1797</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.306569</v>
+                  <v>0.178455</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.308859</v>
+                  <v>0.177282</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.311401</v>
+                  <v>0.176083</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.322085</v>
+                  <v>0.174918</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.321141</v>
+                  <v>0.173816</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.321192</v>
+                  <v>0.172569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.320741</v>
+                  <v>0.171501</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.313758</v>
+                  <v>0.170134</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.313304</v>
+                  <v>0.168946</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.313135</v>
+                  <v>0.18571</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.31294</v>
+                  <v>0.184182</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.31279</v>
+                  <v>0.182808</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.320675</v>
+                  <v>0.181466</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.319912</v>
+                  <v>0.180095</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.320792</v>
+                  <v>0.178727</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.321485</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.321351</v>
+                  <v>0.176367</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325599</v>
+                  <v>0.175199</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.334543</v>
+                  <v>0.174092</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.333373</v>
+                  <v>0.17285</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.332218</v>
+                  <v>0.171697</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.302307</v>
+                  <v>0.170479</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.308574</v>
+                  <v>0.169232</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.308391</v>
+                  <v>0.186238</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.308094</v>
+                  <v>0.184776</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.308255</v>
+                  <v>0.183353</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.315231</v>
+                  <v>0.182029</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.315597</v>
+                  <v>0.180636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.315973</v>
+                  <v>0.179256</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.33104</v>
+                  <v>0.178057</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.333239</v>
+                  <v>0.176775</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.332252</v>
+                  <v>0.175665</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.338597</v>
+                  <v>0.174317</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.348329</v>
+                  <v>0.173185</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.330354</v>
+                  <v>0.171964</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.329578</v>
+                  <v>0.170756</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.309496</v>
+                  <v>0.169512</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.309787</v>
+                  <v>0.186733</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.313472</v>
+                  <v>0.18519</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.312655</v>
+                  <v>0.183764</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.315875</v>
+                  <v>0.182269</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.315474</v>
+                  <v>0.180909</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.319134</v>
+                  <v>0.179595</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.323312</v>
+                  <v>0.178396</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.323677</v>
+                  <v>0.177056</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.326275</v>
+                  <v>0.175815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.329586</v>
+                  <v>0.174734</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.330913</v>
+                  <v>0.173443</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.331416</v>
+                  <v>0.172265</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.32976</v>
+                  <v>0.171018</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.310192</v>
+                  <v>0.169873</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.312781</v>
+                  <v>0.16868</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.314642</v>
+                  <v>0.185604</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.317251</v>
+                  <v>0.18407</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.318172</v>
+                  <v>0.182541</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.319593</v>
+                  <v>0.181177</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.321859</v>
+                  <v>0.179915</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.334552</v>
+                  <v>0.178443</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.349017</v>
+                  <v>0.177278</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.330436</v>
+                  <v>0.176076</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.331659</v>
+                  <v>0.174889</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.333584</v>
+                  <v>0.173751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.33289</v>
+                  <v>0.172529</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.333662</v>
+                  <v>0.17138</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.311584</v>
+                  <v>0.170068</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.314202</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.316001</v>
+                  <v>0.196116</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.317938</v>
+                  <v>0.193136</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.318881</v>
+                  <v>0.191085</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.320274</v>
+                  <v>0.189452</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.322765</v>
+                  <v>0.187873</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325335</v>
+                  <v>0.186202</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.328026</v>
+                  <v>0.184527</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.27075</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.271662</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.271133</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.274026</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.270847</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.274797</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.271653</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.280982</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.283694</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.281135</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.283407</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.278207</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.278501</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.277398</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.276845</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.27666</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.275895</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.273221</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.275609</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.272189</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.272107</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.285413</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.284843</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.284983</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.280853</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.281688</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.279487</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.280677</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.280292</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.280893</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.278407</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.279064</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.276623</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.275242</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.273643</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.28665</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.288314</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.283276</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.283897</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.282851</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.282467</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.280855</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.281927</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.278974</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.278439</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.280525</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.275232</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.274341</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.276063</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.291693</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.289798</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.287898</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.28715</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.28391</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.284432</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.28238</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.282797</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.277033</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.276516</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.276848</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.279088</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.276751</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.276998</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.28964</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.286487</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.28763</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.286477</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.285516</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.28524</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.283961</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.284223</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.280482</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.27945</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.279581</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.279018</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.274384</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.276461</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.292322</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.289118</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.288247</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.288563</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.287533</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.286304</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.283101</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.280356</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.280392</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.281045</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.276278</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.277672</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.276009</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.276803</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.294846</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.289587</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.288815</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.285001</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.285394</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.283591</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.285928</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.28276</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.281078</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.280155</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.279521</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.279457</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.278278</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.275865</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.292885</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.29214</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.289121</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.285812</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.289304</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.281765</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.28236</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.283506</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.282489</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.27951</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.277523</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.279182</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.276473</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.276892</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.275816</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.289797</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.29229</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.288339</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.286976</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.284306</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.282697</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.281096</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.281267</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.279271</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.277611</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.27983</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.276196</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.275866</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.275209</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.297215</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.294804</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.292807</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.292284</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.286689</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.286559</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.287475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2866,8 +3792,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3216,8 +4142,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3233,12 +4159,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0785698</v>
+        <v>0.0677212</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278661</v>
+        <v>0.265872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161377</v>
+        <v>0.161271</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27075</v>
+        <v>0.273167</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07801</v>
+        <v>0.06780369999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281787</v>
+        <v>0.262952</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161805</v>
+        <v>0.161411</v>
       </c>
       <c r="E3" t="n">
-        <v>0.271662</v>
+        <v>0.273353</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.076334</v>
+        <v>0.0676213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.284602</v>
+        <v>0.260533</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16165</v>
+        <v>0.161373</v>
       </c>
       <c r="E4" t="n">
-        <v>0.271133</v>
+        <v>0.273835</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07526380000000001</v>
+        <v>0.0668163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285648</v>
+        <v>0.259713</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161383</v>
+        <v>0.16104</v>
       </c>
       <c r="E5" t="n">
-        <v>0.274026</v>
+        <v>0.269006</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.075381</v>
+        <v>0.0680197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.287433</v>
+        <v>0.256953</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161432</v>
+        <v>0.16148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270847</v>
+        <v>0.270014</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0733709</v>
+        <v>0.0676573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.274449</v>
+        <v>0.253453</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160883</v>
+        <v>0.160655</v>
       </c>
       <c r="E7" t="n">
-        <v>0.274797</v>
+        <v>0.271589</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07293719999999999</v>
+        <v>0.0669348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276621</v>
+        <v>0.247086</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160682</v>
+        <v>0.160781</v>
       </c>
       <c r="E8" t="n">
-        <v>0.271653</v>
+        <v>0.271422</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0715915</v>
+        <v>0.06679649999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278775</v>
+        <v>0.241624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168008</v>
+        <v>0.167797</v>
       </c>
       <c r="E9" t="n">
-        <v>0.280982</v>
+        <v>0.286405</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126204</v>
+        <v>0.115143</v>
       </c>
       <c r="C10" t="n">
-        <v>0.281341</v>
+        <v>0.288442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167609</v>
+        <v>0.167594</v>
       </c>
       <c r="E10" t="n">
-        <v>0.283694</v>
+        <v>0.283948</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121989</v>
+        <v>0.113005</v>
       </c>
       <c r="C11" t="n">
-        <v>0.282871</v>
+        <v>0.286129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167601</v>
+        <v>0.167593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.281135</v>
+        <v>0.280622</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121594</v>
+        <v>0.11281</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286431</v>
+        <v>0.287561</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167266</v>
+        <v>0.167388</v>
       </c>
       <c r="E12" t="n">
-        <v>0.283407</v>
+        <v>0.283867</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117472</v>
+        <v>0.111843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.286907</v>
+        <v>0.284194</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166521</v>
+        <v>0.169279</v>
       </c>
       <c r="E13" t="n">
-        <v>0.278207</v>
+        <v>0.277064</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117571</v>
+        <v>0.113442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.288799</v>
+        <v>0.283241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167893</v>
+        <v>0.168057</v>
       </c>
       <c r="E14" t="n">
-        <v>0.278501</v>
+        <v>0.279118</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115645</v>
+        <v>0.109951</v>
       </c>
       <c r="C15" t="n">
-        <v>0.290491</v>
+        <v>0.281167</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16697</v>
+        <v>0.166552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.277398</v>
+        <v>0.280345</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112146</v>
+        <v>0.10658</v>
       </c>
       <c r="C16" t="n">
-        <v>0.290309</v>
+        <v>0.278668</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166146</v>
+        <v>0.165412</v>
       </c>
       <c r="E16" t="n">
-        <v>0.276845</v>
+        <v>0.278254</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109733</v>
+        <v>0.105314</v>
       </c>
       <c r="C17" t="n">
-        <v>0.291906</v>
+        <v>0.274554</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165718</v>
+        <v>0.166016</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27666</v>
+        <v>0.274429</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.106337</v>
+        <v>0.102492</v>
       </c>
       <c r="C18" t="n">
-        <v>0.292277</v>
+        <v>0.272414</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164994</v>
+        <v>0.165697</v>
       </c>
       <c r="E18" t="n">
-        <v>0.275895</v>
+        <v>0.277292</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103632</v>
+        <v>0.0994607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.293213</v>
+        <v>0.269417</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164471</v>
+        <v>0.165076</v>
       </c>
       <c r="E19" t="n">
-        <v>0.273221</v>
+        <v>0.272806</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0991889</v>
+        <v>0.0965227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294434</v>
+        <v>0.265137</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164271</v>
+        <v>0.164173</v>
       </c>
       <c r="E20" t="n">
-        <v>0.275609</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0962592</v>
+        <v>0.0922304</v>
       </c>
       <c r="C21" t="n">
-        <v>0.283856</v>
+        <v>0.259384</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163875</v>
+        <v>0.163473</v>
       </c>
       <c r="E21" t="n">
-        <v>0.272189</v>
+        <v>0.269749</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09309190000000001</v>
+        <v>0.0894235</v>
       </c>
       <c r="C22" t="n">
-        <v>0.284349</v>
+        <v>0.254659</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163013</v>
+        <v>0.162907</v>
       </c>
       <c r="E22" t="n">
-        <v>0.272107</v>
+        <v>0.27223</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0899575</v>
+        <v>0.08546189999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.284879</v>
+        <v>0.247893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173693</v>
+        <v>0.176541</v>
       </c>
       <c r="E23" t="n">
-        <v>0.285413</v>
+        <v>0.285061</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150258</v>
+        <v>0.150097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286239</v>
+        <v>0.297438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.173392</v>
+        <v>0.175105</v>
       </c>
       <c r="E24" t="n">
-        <v>0.284843</v>
+        <v>0.285862</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147224</v>
+        <v>0.148296</v>
       </c>
       <c r="C25" t="n">
-        <v>0.287601</v>
+        <v>0.295751</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171978</v>
+        <v>0.173355</v>
       </c>
       <c r="E25" t="n">
-        <v>0.284983</v>
+        <v>0.284281</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.14444</v>
+        <v>0.14542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2876</v>
+        <v>0.294062</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172057</v>
+        <v>0.173798</v>
       </c>
       <c r="E26" t="n">
-        <v>0.280853</v>
+        <v>0.28701</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140705</v>
+        <v>0.140867</v>
       </c>
       <c r="C27" t="n">
-        <v>0.288997</v>
+        <v>0.291777</v>
       </c>
       <c r="D27" t="n">
-        <v>0.172897</v>
+        <v>0.172668</v>
       </c>
       <c r="E27" t="n">
-        <v>0.281688</v>
+        <v>0.282775</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137402</v>
+        <v>0.1369</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290481</v>
+        <v>0.290124</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17029</v>
+        <v>0.169948</v>
       </c>
       <c r="E28" t="n">
-        <v>0.279487</v>
+        <v>0.280633</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133721</v>
+        <v>0.132437</v>
       </c>
       <c r="C29" t="n">
-        <v>0.291662</v>
+        <v>0.286674</v>
       </c>
       <c r="D29" t="n">
-        <v>0.171219</v>
+        <v>0.170069</v>
       </c>
       <c r="E29" t="n">
-        <v>0.280677</v>
+        <v>0.280357</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.128955</v>
+        <v>0.129175</v>
       </c>
       <c r="C30" t="n">
-        <v>0.29328</v>
+        <v>0.284408</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169221</v>
+        <v>0.169241</v>
       </c>
       <c r="E30" t="n">
-        <v>0.280292</v>
+        <v>0.276088</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12512</v>
+        <v>0.124936</v>
       </c>
       <c r="C31" t="n">
-        <v>0.294138</v>
+        <v>0.282253</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168358</v>
+        <v>0.1698</v>
       </c>
       <c r="E31" t="n">
-        <v>0.280893</v>
+        <v>0.279395</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.120441</v>
+        <v>0.120926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.293505</v>
+        <v>0.278328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168837</v>
+        <v>0.169226</v>
       </c>
       <c r="E32" t="n">
-        <v>0.278407</v>
+        <v>0.279245</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114693</v>
+        <v>0.115912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.296216</v>
+        <v>0.27545</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16865</v>
+        <v>0.16781</v>
       </c>
       <c r="E33" t="n">
-        <v>0.279064</v>
+        <v>0.278269</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109617</v>
+        <v>0.11067</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297426</v>
+        <v>0.271042</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166213</v>
+        <v>0.167306</v>
       </c>
       <c r="E34" t="n">
-        <v>0.276623</v>
+        <v>0.273942</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104777</v>
+        <v>0.105468</v>
       </c>
       <c r="C35" t="n">
-        <v>0.285782</v>
+        <v>0.266653</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165749</v>
+        <v>0.166574</v>
       </c>
       <c r="E35" t="n">
-        <v>0.275242</v>
+        <v>0.274773</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100498</v>
+        <v>0.100292</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286008</v>
+        <v>0.261276</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165377</v>
+        <v>0.164913</v>
       </c>
       <c r="E36" t="n">
-        <v>0.273643</v>
+        <v>0.276041</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.095885</v>
+        <v>0.0952959</v>
       </c>
       <c r="C37" t="n">
-        <v>0.287226</v>
+        <v>0.255198</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181607</v>
+        <v>0.182306</v>
       </c>
       <c r="E37" t="n">
-        <v>0.28665</v>
+        <v>0.287783</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.159284</v>
+        <v>0.160352</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28761</v>
+        <v>0.302928</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179581</v>
+        <v>0.180133</v>
       </c>
       <c r="E38" t="n">
-        <v>0.288314</v>
+        <v>0.282378</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.156717</v>
+        <v>0.157107</v>
       </c>
       <c r="C39" t="n">
-        <v>0.289069</v>
+        <v>0.299262</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179549</v>
+        <v>0.179588</v>
       </c>
       <c r="E39" t="n">
-        <v>0.283276</v>
+        <v>0.284136</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.153778</v>
+        <v>0.15316</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291258</v>
+        <v>0.29909</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177059</v>
+        <v>0.177299</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283897</v>
+        <v>0.285118</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149985</v>
+        <v>0.149211</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292044</v>
+        <v>0.297353</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176741</v>
+        <v>0.177164</v>
       </c>
       <c r="E41" t="n">
-        <v>0.282851</v>
+        <v>0.282786</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146067</v>
+        <v>0.145267</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292541</v>
+        <v>0.294197</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175916</v>
+        <v>0.175914</v>
       </c>
       <c r="E42" t="n">
-        <v>0.282467</v>
+        <v>0.280206</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14153</v>
+        <v>0.140753</v>
       </c>
       <c r="C43" t="n">
-        <v>0.294038</v>
+        <v>0.292181</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174191</v>
+        <v>0.175128</v>
       </c>
       <c r="E43" t="n">
-        <v>0.280855</v>
+        <v>0.279649</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.136851</v>
+        <v>0.136388</v>
       </c>
       <c r="C44" t="n">
-        <v>0.29517</v>
+        <v>0.288612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173126</v>
+        <v>0.174028</v>
       </c>
       <c r="E44" t="n">
-        <v>0.281927</v>
+        <v>0.279717</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131807</v>
+        <v>0.131548</v>
       </c>
       <c r="C45" t="n">
-        <v>0.295882</v>
+        <v>0.286316</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17289</v>
+        <v>0.172936</v>
       </c>
       <c r="E45" t="n">
-        <v>0.278974</v>
+        <v>0.279142</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126538</v>
+        <v>0.12646</v>
       </c>
       <c r="C46" t="n">
-        <v>0.29714</v>
+        <v>0.282307</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171398</v>
+        <v>0.172408</v>
       </c>
       <c r="E46" t="n">
-        <v>0.278439</v>
+        <v>0.277031</v>
       </c>
     </row>
     <row r="47">
@@ -4946,13 +4946,13 @@
         <v>0.121426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297698</v>
+        <v>0.279239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170656</v>
+        <v>0.171182</v>
       </c>
       <c r="E47" t="n">
-        <v>0.280525</v>
+        <v>0.279663</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.115851</v>
+        <v>0.116106</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298015</v>
+        <v>0.275298</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169676</v>
+        <v>0.170576</v>
       </c>
       <c r="E48" t="n">
-        <v>0.275232</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.110881</v>
+        <v>0.111115</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2997</v>
+        <v>0.270091</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168742</v>
+        <v>0.168794</v>
       </c>
       <c r="E49" t="n">
-        <v>0.274341</v>
+        <v>0.275653</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105341</v>
+        <v>0.105761</v>
       </c>
       <c r="C50" t="n">
-        <v>0.288124</v>
+        <v>0.265159</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167746</v>
+        <v>0.167784</v>
       </c>
       <c r="E50" t="n">
-        <v>0.276063</v>
+        <v>0.27576</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.100086</v>
+        <v>0.100342</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28907</v>
+        <v>0.25879</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184643</v>
+        <v>0.184778</v>
       </c>
       <c r="E51" t="n">
-        <v>0.291693</v>
+        <v>0.289847</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09492250000000001</v>
+        <v>0.0948712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.290364</v>
+        <v>0.250683</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18327</v>
+        <v>0.183224</v>
       </c>
       <c r="E52" t="n">
-        <v>0.289798</v>
+        <v>0.288477</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161765</v>
+        <v>0.161595</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29106</v>
+        <v>0.302218</v>
       </c>
       <c r="D53" t="n">
-        <v>0.181852</v>
+        <v>0.181973</v>
       </c>
       <c r="E53" t="n">
-        <v>0.287898</v>
+        <v>0.287624</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.157751</v>
+        <v>0.157887</v>
       </c>
       <c r="C54" t="n">
-        <v>0.292367</v>
+        <v>0.300472</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180821</v>
+        <v>0.180817</v>
       </c>
       <c r="E54" t="n">
-        <v>0.28715</v>
+        <v>0.287723</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.153367</v>
+        <v>0.153372</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292745</v>
+        <v>0.299089</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179281</v>
+        <v>0.179398</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28391</v>
+        <v>0.285954</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.149046</v>
+        <v>0.148983</v>
       </c>
       <c r="C56" t="n">
-        <v>0.294376</v>
+        <v>0.295795</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178364</v>
+        <v>0.178078</v>
       </c>
       <c r="E56" t="n">
-        <v>0.284432</v>
+        <v>0.286495</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.144183</v>
+        <v>0.144121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295477</v>
+        <v>0.294414</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177349</v>
+        <v>0.176878</v>
       </c>
       <c r="E57" t="n">
-        <v>0.28238</v>
+        <v>0.283366</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.139449</v>
+        <v>0.139264</v>
       </c>
       <c r="C58" t="n">
-        <v>0.297108</v>
+        <v>0.289298</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176061</v>
+        <v>0.175921</v>
       </c>
       <c r="E58" t="n">
-        <v>0.282797</v>
+        <v>0.282642</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134172</v>
+        <v>0.134045</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298193</v>
+        <v>0.288618</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174862</v>
+        <v>0.174694</v>
       </c>
       <c r="E59" t="n">
-        <v>0.281096</v>
+        <v>0.279608</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.129251</v>
+        <v>0.128991</v>
       </c>
       <c r="C60" t="n">
-        <v>0.299347</v>
+        <v>0.283298</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17382</v>
+        <v>0.173807</v>
       </c>
       <c r="E60" t="n">
-        <v>0.277033</v>
+        <v>0.278411</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.124021</v>
+        <v>0.123924</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300971</v>
+        <v>0.280644</v>
       </c>
       <c r="D61" t="n">
-        <v>0.172776</v>
+        <v>0.172812</v>
       </c>
       <c r="E61" t="n">
-        <v>0.276516</v>
+        <v>0.276901</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118888</v>
+        <v>0.118849</v>
       </c>
       <c r="C62" t="n">
-        <v>0.301872</v>
+        <v>0.277502</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171758</v>
+        <v>0.171623</v>
       </c>
       <c r="E62" t="n">
-        <v>0.276848</v>
+        <v>0.274792</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113656</v>
+        <v>0.113557</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302877</v>
+        <v>0.272334</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170447</v>
+        <v>0.169925</v>
       </c>
       <c r="E63" t="n">
-        <v>0.279088</v>
+        <v>0.275045</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10868</v>
+        <v>0.108476</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295352</v>
+        <v>0.267108</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169347</v>
+        <v>0.169246</v>
       </c>
       <c r="E64" t="n">
-        <v>0.276751</v>
+        <v>0.275636</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103293</v>
+        <v>0.103127</v>
       </c>
       <c r="C65" t="n">
-        <v>0.297121</v>
+        <v>0.261723</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168119</v>
+        <v>0.167826</v>
       </c>
       <c r="E65" t="n">
-        <v>0.276998</v>
+        <v>0.275179</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09785820000000001</v>
+        <v>0.0979377</v>
       </c>
       <c r="C66" t="n">
-        <v>0.29808</v>
+        <v>0.25443</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185031</v>
+        <v>0.184979</v>
       </c>
       <c r="E66" t="n">
-        <v>0.28964</v>
+        <v>0.291216</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163938</v>
+        <v>0.164651</v>
       </c>
       <c r="C67" t="n">
-        <v>0.300501</v>
+        <v>0.306426</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183681</v>
+        <v>0.183582</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286487</v>
+        <v>0.288715</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.16019</v>
+        <v>0.160275</v>
       </c>
       <c r="C68" t="n">
-        <v>0.301419</v>
+        <v>0.303124</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182192</v>
+        <v>0.18204</v>
       </c>
       <c r="E68" t="n">
-        <v>0.28763</v>
+        <v>0.287474</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.156112</v>
+        <v>0.155885</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304017</v>
+        <v>0.301675</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181223</v>
+        <v>0.180752</v>
       </c>
       <c r="E69" t="n">
-        <v>0.286477</v>
+        <v>0.285844</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.151234</v>
+        <v>0.151459</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306256</v>
+        <v>0.299185</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1797</v>
+        <v>0.17955</v>
       </c>
       <c r="E70" t="n">
-        <v>0.285516</v>
+        <v>0.284852</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1467</v>
+        <v>0.14654</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30713</v>
+        <v>0.296038</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178455</v>
+        <v>0.178047</v>
       </c>
       <c r="E71" t="n">
-        <v>0.28524</v>
+        <v>0.280496</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141537</v>
+        <v>0.141443</v>
       </c>
       <c r="C72" t="n">
-        <v>0.309409</v>
+        <v>0.29334</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177282</v>
+        <v>0.177112</v>
       </c>
       <c r="E72" t="n">
-        <v>0.283961</v>
+        <v>0.280173</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136251</v>
+        <v>0.136614</v>
       </c>
       <c r="C73" t="n">
-        <v>0.312199</v>
+        <v>0.29059</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176083</v>
+        <v>0.175964</v>
       </c>
       <c r="E73" t="n">
-        <v>0.284223</v>
+        <v>0.28299</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131385</v>
+        <v>0.131408</v>
       </c>
       <c r="C74" t="n">
-        <v>0.306165</v>
+        <v>0.28834</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174918</v>
+        <v>0.174822</v>
       </c>
       <c r="E74" t="n">
-        <v>0.280482</v>
+        <v>0.28188</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125975</v>
+        <v>0.126357</v>
       </c>
       <c r="C75" t="n">
-        <v>0.309771</v>
+        <v>0.284233</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173816</v>
+        <v>0.173628</v>
       </c>
       <c r="E75" t="n">
-        <v>0.27945</v>
+        <v>0.280676</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120806</v>
+        <v>0.121237</v>
       </c>
       <c r="C76" t="n">
-        <v>0.312349</v>
+        <v>0.280707</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172569</v>
+        <v>0.172338</v>
       </c>
       <c r="E76" t="n">
-        <v>0.279581</v>
+        <v>0.277428</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115717</v>
+        <v>0.116031</v>
       </c>
       <c r="C77" t="n">
-        <v>0.315075</v>
+        <v>0.275947</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171501</v>
+        <v>0.171216</v>
       </c>
       <c r="E77" t="n">
-        <v>0.279018</v>
+        <v>0.275948</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110491</v>
+        <v>0.110765</v>
       </c>
       <c r="C78" t="n">
-        <v>0.308787</v>
+        <v>0.270291</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170134</v>
+        <v>0.170161</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274384</v>
+        <v>0.278234</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105539</v>
+        <v>0.105591</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31033</v>
+        <v>0.265175</v>
       </c>
       <c r="D79" t="n">
-        <v>0.168946</v>
+        <v>0.168935</v>
       </c>
       <c r="E79" t="n">
-        <v>0.276461</v>
+        <v>0.275759</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100332</v>
+        <v>0.100329</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311713</v>
+        <v>0.25906</v>
       </c>
       <c r="D80" t="n">
-        <v>0.18571</v>
+        <v>0.185639</v>
       </c>
       <c r="E80" t="n">
-        <v>0.292322</v>
+        <v>0.292878</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164231</v>
+        <v>0.165188</v>
       </c>
       <c r="C81" t="n">
-        <v>0.31323</v>
+        <v>0.307936</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184182</v>
+        <v>0.184123</v>
       </c>
       <c r="E81" t="n">
-        <v>0.289118</v>
+        <v>0.29126</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160433</v>
+        <v>0.161343</v>
       </c>
       <c r="C82" t="n">
-        <v>0.314737</v>
+        <v>0.305321</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182808</v>
+        <v>0.182775</v>
       </c>
       <c r="E82" t="n">
-        <v>0.288247</v>
+        <v>0.288538</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156282</v>
+        <v>0.156945</v>
       </c>
       <c r="C83" t="n">
-        <v>0.31414</v>
+        <v>0.303421</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181466</v>
+        <v>0.181363</v>
       </c>
       <c r="E83" t="n">
-        <v>0.288563</v>
+        <v>0.286792</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151513</v>
+        <v>0.152125</v>
       </c>
       <c r="C84" t="n">
-        <v>0.315762</v>
+        <v>0.301464</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180095</v>
+        <v>0.180008</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287533</v>
+        <v>0.284394</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146903</v>
+        <v>0.147106</v>
       </c>
       <c r="C85" t="n">
-        <v>0.318579</v>
+        <v>0.297328</v>
       </c>
       <c r="D85" t="n">
-        <v>0.178727</v>
+        <v>0.178791</v>
       </c>
       <c r="E85" t="n">
-        <v>0.286304</v>
+        <v>0.285414</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.141991</v>
+        <v>0.142392</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321262</v>
+        <v>0.294186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177617</v>
+        <v>0.177601</v>
       </c>
       <c r="E86" t="n">
-        <v>0.283101</v>
+        <v>0.285989</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136909</v>
+        <v>0.13714</v>
       </c>
       <c r="C87" t="n">
-        <v>0.323652</v>
+        <v>0.290637</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176367</v>
+        <v>0.176368</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280356</v>
+        <v>0.281404</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131753</v>
+        <v>0.131838</v>
       </c>
       <c r="C88" t="n">
-        <v>0.325257</v>
+        <v>0.286941</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175199</v>
+        <v>0.175162</v>
       </c>
       <c r="E88" t="n">
-        <v>0.280392</v>
+        <v>0.281414</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126506</v>
+        <v>0.126732</v>
       </c>
       <c r="C89" t="n">
-        <v>0.315909</v>
+        <v>0.283204</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174092</v>
+        <v>0.174011</v>
       </c>
       <c r="E89" t="n">
-        <v>0.281045</v>
+        <v>0.279108</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121357</v>
+        <v>0.121432</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318185</v>
+        <v>0.279335</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17285</v>
+        <v>0.172847</v>
       </c>
       <c r="E90" t="n">
-        <v>0.276278</v>
+        <v>0.279429</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116213</v>
+        <v>0.1162</v>
       </c>
       <c r="C91" t="n">
-        <v>0.320763</v>
+        <v>0.275147</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171697</v>
+        <v>0.171651</v>
       </c>
       <c r="E91" t="n">
-        <v>0.277672</v>
+        <v>0.279596</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111081</v>
+        <v>0.111052</v>
       </c>
       <c r="C92" t="n">
-        <v>0.295097</v>
+        <v>0.270194</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170479</v>
+        <v>0.170508</v>
       </c>
       <c r="E92" t="n">
-        <v>0.276009</v>
+        <v>0.276181</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106023</v>
+        <v>0.105998</v>
       </c>
       <c r="C93" t="n">
-        <v>0.295977</v>
+        <v>0.264356</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169232</v>
+        <v>0.169207</v>
       </c>
       <c r="E93" t="n">
-        <v>0.276803</v>
+        <v>0.277891</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100876</v>
+        <v>0.100645</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297469</v>
+        <v>0.258012</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186238</v>
+        <v>0.185985</v>
       </c>
       <c r="E94" t="n">
-        <v>0.294846</v>
+        <v>0.293399</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165616</v>
+        <v>0.165966</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299469</v>
+        <v>0.304901</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184776</v>
+        <v>0.184479</v>
       </c>
       <c r="E95" t="n">
-        <v>0.289587</v>
+        <v>0.288551</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161892</v>
+        <v>0.162158</v>
       </c>
       <c r="C96" t="n">
-        <v>0.301571</v>
+        <v>0.302828</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183353</v>
+        <v>0.183154</v>
       </c>
       <c r="E96" t="n">
-        <v>0.288815</v>
+        <v>0.290638</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157627</v>
+        <v>0.158144</v>
       </c>
       <c r="C97" t="n">
-        <v>0.296998</v>
+        <v>0.300918</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182029</v>
+        <v>0.181642</v>
       </c>
       <c r="E97" t="n">
-        <v>0.285001</v>
+        <v>0.287544</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153045</v>
+        <v>0.153379</v>
       </c>
       <c r="C98" t="n">
-        <v>0.299261</v>
+        <v>0.298643</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180636</v>
+        <v>0.180328</v>
       </c>
       <c r="E98" t="n">
-        <v>0.285394</v>
+        <v>0.284758</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148124</v>
+        <v>0.148294</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302162</v>
+        <v>0.295365</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179256</v>
+        <v>0.179036</v>
       </c>
       <c r="E99" t="n">
-        <v>0.283591</v>
+        <v>0.285179</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143096</v>
+        <v>0.143457</v>
       </c>
       <c r="C100" t="n">
-        <v>0.303709</v>
+        <v>0.292837</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178057</v>
+        <v>0.177783</v>
       </c>
       <c r="E100" t="n">
-        <v>0.285928</v>
+        <v>0.281252</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137765</v>
+        <v>0.138274</v>
       </c>
       <c r="C101" t="n">
-        <v>0.306448</v>
+        <v>0.2896</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176775</v>
+        <v>0.176518</v>
       </c>
       <c r="E101" t="n">
-        <v>0.28276</v>
+        <v>0.283495</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132801</v>
+        <v>0.132793</v>
       </c>
       <c r="C102" t="n">
-        <v>0.310136</v>
+        <v>0.286015</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175665</v>
+        <v>0.175324</v>
       </c>
       <c r="E102" t="n">
-        <v>0.281078</v>
+        <v>0.281011</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127657</v>
+        <v>0.127565</v>
       </c>
       <c r="C103" t="n">
-        <v>0.306796</v>
+        <v>0.282183</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174317</v>
+        <v>0.17414</v>
       </c>
       <c r="E103" t="n">
-        <v>0.280155</v>
+        <v>0.281588</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12242</v>
+        <v>0.122572</v>
       </c>
       <c r="C104" t="n">
-        <v>0.30934</v>
+        <v>0.278295</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173185</v>
+        <v>0.173028</v>
       </c>
       <c r="E104" t="n">
-        <v>0.279521</v>
+        <v>0.279619</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11725</v>
+        <v>0.117471</v>
       </c>
       <c r="C105" t="n">
-        <v>0.311905</v>
+        <v>0.273776</v>
       </c>
       <c r="D105" t="n">
-        <v>0.171964</v>
+        <v>0.171815</v>
       </c>
       <c r="E105" t="n">
-        <v>0.279457</v>
+        <v>0.277579</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112112</v>
+        <v>0.11226</v>
       </c>
       <c r="C106" t="n">
-        <v>0.313813</v>
+        <v>0.269027</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170756</v>
+        <v>0.170605</v>
       </c>
       <c r="E106" t="n">
-        <v>0.278278</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10702</v>
+        <v>0.107159</v>
       </c>
       <c r="C107" t="n">
-        <v>0.290918</v>
+        <v>0.26356</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169512</v>
+        <v>0.169458</v>
       </c>
       <c r="E107" t="n">
-        <v>0.275865</v>
+        <v>0.278567</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101872</v>
+        <v>0.101929</v>
       </c>
       <c r="C108" t="n">
-        <v>0.292794</v>
+        <v>0.257249</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186733</v>
+        <v>0.186504</v>
       </c>
       <c r="E108" t="n">
-        <v>0.292885</v>
+        <v>0.292334</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966104</v>
+        <v>0.0967426</v>
       </c>
       <c r="C109" t="n">
-        <v>0.294234</v>
+        <v>0.249927</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18519</v>
+        <v>0.184974</v>
       </c>
       <c r="E109" t="n">
-        <v>0.29214</v>
+        <v>0.291498</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.163181</v>
+        <v>0.162998</v>
       </c>
       <c r="C110" t="n">
-        <v>0.295679</v>
+        <v>0.301814</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183764</v>
+        <v>0.183507</v>
       </c>
       <c r="E110" t="n">
-        <v>0.289121</v>
+        <v>0.292875</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.159031</v>
+        <v>0.158658</v>
       </c>
       <c r="C111" t="n">
-        <v>0.295282</v>
+        <v>0.299884</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182269</v>
+        <v>0.182089</v>
       </c>
       <c r="E111" t="n">
-        <v>0.285812</v>
+        <v>0.288884</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154378</v>
+        <v>0.154283</v>
       </c>
       <c r="C112" t="n">
-        <v>0.296912</v>
+        <v>0.297611</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180909</v>
+        <v>0.180673</v>
       </c>
       <c r="E112" t="n">
-        <v>0.289304</v>
+        <v>0.284799</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149186</v>
+        <v>0.149365</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299968</v>
+        <v>0.294838</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179595</v>
+        <v>0.179492</v>
       </c>
       <c r="E113" t="n">
-        <v>0.281765</v>
+        <v>0.284635</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144248</v>
+        <v>0.144364</v>
       </c>
       <c r="C114" t="n">
-        <v>0.299754</v>
+        <v>0.291923</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178396</v>
+        <v>0.178162</v>
       </c>
       <c r="E114" t="n">
-        <v>0.28236</v>
+        <v>0.283607</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.138994</v>
+        <v>0.139002</v>
       </c>
       <c r="C115" t="n">
-        <v>0.301842</v>
+        <v>0.289055</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177056</v>
+        <v>0.176945</v>
       </c>
       <c r="E115" t="n">
-        <v>0.283506</v>
+        <v>0.284008</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13388</v>
+        <v>0.134024</v>
       </c>
       <c r="C116" t="n">
-        <v>0.304744</v>
+        <v>0.285528</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175815</v>
+        <v>0.175751</v>
       </c>
       <c r="E116" t="n">
-        <v>0.282489</v>
+        <v>0.282315</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128563</v>
+        <v>0.128761</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305408</v>
+        <v>0.282245</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174734</v>
+        <v>0.174413</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27951</v>
+        <v>0.282897</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123492</v>
+        <v>0.123661</v>
       </c>
       <c r="C118" t="n">
-        <v>0.307885</v>
+        <v>0.278125</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173443</v>
+        <v>0.173327</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277523</v>
+        <v>0.279951</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118464</v>
+        <v>0.118498</v>
       </c>
       <c r="C119" t="n">
-        <v>0.307962</v>
+        <v>0.273488</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172265</v>
+        <v>0.172092</v>
       </c>
       <c r="E119" t="n">
-        <v>0.279182</v>
+        <v>0.280036</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113129</v>
+        <v>0.11326</v>
       </c>
       <c r="C120" t="n">
-        <v>0.310472</v>
+        <v>0.268581</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171018</v>
+        <v>0.171034</v>
       </c>
       <c r="E120" t="n">
-        <v>0.276473</v>
+        <v>0.275232</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108013</v>
+        <v>0.108125</v>
       </c>
       <c r="C121" t="n">
-        <v>0.29361</v>
+        <v>0.263852</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169873</v>
+        <v>0.16968</v>
       </c>
       <c r="E121" t="n">
-        <v>0.276892</v>
+        <v>0.276481</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102901</v>
+        <v>0.103101</v>
       </c>
       <c r="C122" t="n">
-        <v>0.293955</v>
+        <v>0.257905</v>
       </c>
       <c r="D122" t="n">
-        <v>0.16868</v>
+        <v>0.168513</v>
       </c>
       <c r="E122" t="n">
-        <v>0.275816</v>
+        <v>0.277545</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0977628</v>
+        <v>0.0978506</v>
       </c>
       <c r="C123" t="n">
-        <v>0.295548</v>
+        <v>0.250971</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185604</v>
+        <v>0.185328</v>
       </c>
       <c r="E123" t="n">
-        <v>0.289797</v>
+        <v>0.288352</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173028</v>
+        <v>0.173263</v>
       </c>
       <c r="C124" t="n">
-        <v>0.29582</v>
+        <v>0.302386</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18407</v>
+        <v>0.183733</v>
       </c>
       <c r="E124" t="n">
-        <v>0.29229</v>
+        <v>0.289945</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168888</v>
+        <v>0.168624</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297457</v>
+        <v>0.300148</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182541</v>
+        <v>0.182324</v>
       </c>
       <c r="E125" t="n">
-        <v>0.288339</v>
+        <v>0.287331</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163702</v>
+        <v>0.163859</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298432</v>
+        <v>0.298103</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181177</v>
+        <v>0.180947</v>
       </c>
       <c r="E126" t="n">
-        <v>0.286976</v>
+        <v>0.286961</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158768</v>
+        <v>0.158513</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299124</v>
+        <v>0.295541</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179915</v>
+        <v>0.179675</v>
       </c>
       <c r="E127" t="n">
-        <v>0.284306</v>
+        <v>0.285748</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.152967</v>
+        <v>0.152931</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30075</v>
+        <v>0.292443</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178443</v>
+        <v>0.178381</v>
       </c>
       <c r="E128" t="n">
-        <v>0.282697</v>
+        <v>0.283636</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147432</v>
+        <v>0.147768</v>
       </c>
       <c r="C129" t="n">
-        <v>0.303137</v>
+        <v>0.289768</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177278</v>
+        <v>0.177149</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281096</v>
+        <v>0.28422</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141975</v>
+        <v>0.142118</v>
       </c>
       <c r="C130" t="n">
-        <v>0.304833</v>
+        <v>0.286391</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176076</v>
+        <v>0.175903</v>
       </c>
       <c r="E130" t="n">
-        <v>0.281267</v>
+        <v>0.284603</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13661</v>
+        <v>0.136614</v>
       </c>
       <c r="C131" t="n">
-        <v>0.306146</v>
+        <v>0.282928</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174889</v>
+        <v>0.174737</v>
       </c>
       <c r="E131" t="n">
-        <v>0.279271</v>
+        <v>0.278932</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131002</v>
+        <v>0.13115</v>
       </c>
       <c r="C132" t="n">
-        <v>0.307038</v>
+        <v>0.278654</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173751</v>
+        <v>0.173688</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277611</v>
+        <v>0.279786</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125727</v>
+        <v>0.125913</v>
       </c>
       <c r="C133" t="n">
-        <v>0.308538</v>
+        <v>0.275106</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172529</v>
+        <v>0.172438</v>
       </c>
       <c r="E133" t="n">
-        <v>0.27983</v>
+        <v>0.279144</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120213</v>
+        <v>0.120373</v>
       </c>
       <c r="C134" t="n">
-        <v>0.311238</v>
+        <v>0.270123</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17138</v>
+        <v>0.171197</v>
       </c>
       <c r="E134" t="n">
-        <v>0.276196</v>
+        <v>0.278354</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114864</v>
+        <v>0.114897</v>
       </c>
       <c r="C135" t="n">
-        <v>0.29305</v>
+        <v>0.265136</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170068</v>
+        <v>0.16994</v>
       </c>
       <c r="E135" t="n">
-        <v>0.275866</v>
+        <v>0.279748</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10935</v>
+        <v>0.109541</v>
       </c>
       <c r="C136" t="n">
-        <v>0.293936</v>
+        <v>0.25926</v>
       </c>
       <c r="D136" t="n">
-        <v>0.16884</v>
+        <v>0.168744</v>
       </c>
       <c r="E136" t="n">
-        <v>0.275209</v>
+        <v>0.277173</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.103983</v>
+        <v>0.104061</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295193</v>
+        <v>0.252398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196116</v>
+        <v>0.189897</v>
       </c>
       <c r="E137" t="n">
-        <v>0.297215</v>
+        <v>0.290542</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174103</v>
+        <v>0.172361</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295602</v>
+        <v>0.315813</v>
       </c>
       <c r="D138" t="n">
-        <v>0.193136</v>
+        <v>0.192655</v>
       </c>
       <c r="E138" t="n">
-        <v>0.294804</v>
+        <v>0.28834</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16957</v>
+        <v>0.168204</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296406</v>
+        <v>0.313507</v>
       </c>
       <c r="D139" t="n">
-        <v>0.191085</v>
+        <v>0.190773</v>
       </c>
       <c r="E139" t="n">
-        <v>0.292807</v>
+        <v>0.288147</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164907</v>
+        <v>0.163333</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297767</v>
+        <v>0.311646</v>
       </c>
       <c r="D140" t="n">
-        <v>0.189452</v>
+        <v>0.189044</v>
       </c>
       <c r="E140" t="n">
-        <v>0.292284</v>
+        <v>0.28773</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159763</v>
+        <v>0.158536</v>
       </c>
       <c r="C141" t="n">
-        <v>0.298622</v>
+        <v>0.309404</v>
       </c>
       <c r="D141" t="n">
-        <v>0.187873</v>
+        <v>0.187569</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286689</v>
+        <v>0.285487</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154327</v>
+        <v>0.153186</v>
       </c>
       <c r="C142" t="n">
-        <v>0.300831</v>
+        <v>0.307065</v>
       </c>
       <c r="D142" t="n">
-        <v>0.186202</v>
+        <v>0.185871</v>
       </c>
       <c r="E142" t="n">
-        <v>0.286559</v>
+        <v>0.282917</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148619</v>
+        <v>0.147096</v>
       </c>
       <c r="C143" t="n">
-        <v>0.302162</v>
+        <v>0.302039</v>
       </c>
       <c r="D143" t="n">
-        <v>0.184527</v>
+        <v>0.184072</v>
       </c>
       <c r="E143" t="n">
-        <v>0.287475</v>
+        <v>0.283964</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -4178,16 +4178,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0785698</v>
+        <v>0.0807776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278661</v>
+        <v>0.280562</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161377</v>
+        <v>0.161558</v>
       </c>
       <c r="E2" t="n">
-        <v>0.27075</v>
+        <v>0.269665</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4195,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07801</v>
+        <v>0.0784082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281787</v>
+        <v>0.282836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161805</v>
+        <v>0.161339</v>
       </c>
       <c r="E3" t="n">
-        <v>0.271662</v>
+        <v>0.272738</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4212,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.076334</v>
+        <v>0.0760687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.284602</v>
+        <v>0.284128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16165</v>
+        <v>0.162002</v>
       </c>
       <c r="E4" t="n">
-        <v>0.271133</v>
+        <v>0.271179</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4229,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07526380000000001</v>
+        <v>0.07617350000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.285648</v>
+        <v>0.287595</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161383</v>
+        <v>0.161137</v>
       </c>
       <c r="E5" t="n">
-        <v>0.274026</v>
+        <v>0.267836</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4246,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.075381</v>
+        <v>0.0748185</v>
       </c>
       <c r="C6" t="n">
-        <v>0.287433</v>
+        <v>0.288923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161432</v>
+        <v>0.161498</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270847</v>
+        <v>0.270927</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4263,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0733709</v>
+        <v>0.0735328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.274449</v>
+        <v>0.276285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.160883</v>
+        <v>0.16071</v>
       </c>
       <c r="E7" t="n">
-        <v>0.274797</v>
+        <v>0.269007</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4280,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07293719999999999</v>
+        <v>0.07298060000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.276621</v>
+        <v>0.279094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160682</v>
+        <v>0.160411</v>
       </c>
       <c r="E8" t="n">
-        <v>0.271653</v>
+        <v>0.267639</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4297,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0715915</v>
+        <v>0.0715243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278775</v>
+        <v>0.278493</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168008</v>
+        <v>0.167746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.280982</v>
+        <v>0.278891</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4314,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.126204</v>
+        <v>0.121217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.281341</v>
+        <v>0.284369</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167609</v>
+        <v>0.167885</v>
       </c>
       <c r="E10" t="n">
-        <v>0.283694</v>
+        <v>0.281128</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4331,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.121989</v>
+        <v>0.12234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.282871</v>
+        <v>0.284287</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167601</v>
+        <v>0.167893</v>
       </c>
       <c r="E11" t="n">
-        <v>0.281135</v>
+        <v>0.281782</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4348,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.121594</v>
+        <v>0.118729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286431</v>
+        <v>0.286375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167266</v>
+        <v>0.166983</v>
       </c>
       <c r="E12" t="n">
-        <v>0.283407</v>
+        <v>0.280641</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4365,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117472</v>
+        <v>0.117152</v>
       </c>
       <c r="C13" t="n">
-        <v>0.286907</v>
+        <v>0.288627</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166521</v>
+        <v>0.16702</v>
       </c>
       <c r="E13" t="n">
-        <v>0.278207</v>
+        <v>0.277824</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4382,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.117571</v>
+        <v>0.114304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.288799</v>
+        <v>0.288118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.167893</v>
+        <v>0.168219</v>
       </c>
       <c r="E14" t="n">
-        <v>0.278501</v>
+        <v>0.276569</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4399,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115645</v>
+        <v>0.115644</v>
       </c>
       <c r="C15" t="n">
-        <v>0.290491</v>
+        <v>0.291267</v>
       </c>
       <c r="D15" t="n">
-        <v>0.16697</v>
+        <v>0.166483</v>
       </c>
       <c r="E15" t="n">
-        <v>0.277398</v>
+        <v>0.280577</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4416,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112146</v>
+        <v>0.11278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.290309</v>
+        <v>0.292115</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166146</v>
+        <v>0.166207</v>
       </c>
       <c r="E16" t="n">
-        <v>0.276845</v>
+        <v>0.279004</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4433,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.109733</v>
+        <v>0.108622</v>
       </c>
       <c r="C17" t="n">
-        <v>0.291906</v>
+        <v>0.291562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.165718</v>
+        <v>0.16626</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27666</v>
+        <v>0.27723</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4450,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.106337</v>
+        <v>0.106883</v>
       </c>
       <c r="C18" t="n">
-        <v>0.292277</v>
+        <v>0.293491</v>
       </c>
       <c r="D18" t="n">
-        <v>0.164994</v>
+        <v>0.165736</v>
       </c>
       <c r="E18" t="n">
-        <v>0.275895</v>
+        <v>0.278285</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4467,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103632</v>
+        <v>0.103114</v>
       </c>
       <c r="C19" t="n">
-        <v>0.293213</v>
+        <v>0.293415</v>
       </c>
       <c r="D19" t="n">
-        <v>0.164471</v>
+        <v>0.165777</v>
       </c>
       <c r="E19" t="n">
-        <v>0.273221</v>
+        <v>0.275352</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4484,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0991889</v>
+        <v>0.09999230000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.294434</v>
+        <v>0.295984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164271</v>
+        <v>0.164871</v>
       </c>
       <c r="E20" t="n">
-        <v>0.275609</v>
+        <v>0.272418</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4501,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0962592</v>
+        <v>0.09650019999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.283856</v>
+        <v>0.283725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.163875</v>
+        <v>0.164353</v>
       </c>
       <c r="E21" t="n">
-        <v>0.272189</v>
+        <v>0.27183</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4518,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09309190000000001</v>
+        <v>0.0935063</v>
       </c>
       <c r="C22" t="n">
-        <v>0.284349</v>
+        <v>0.285255</v>
       </c>
       <c r="D22" t="n">
-        <v>0.163013</v>
+        <v>0.162786</v>
       </c>
       <c r="E22" t="n">
-        <v>0.272107</v>
+        <v>0.271934</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4535,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0899575</v>
+        <v>0.08906600000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.284879</v>
+        <v>0.286325</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173693</v>
+        <v>0.173798</v>
       </c>
       <c r="E23" t="n">
-        <v>0.285413</v>
+        <v>0.287184</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4552,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.150258</v>
+        <v>0.149147</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286239</v>
+        <v>0.286582</v>
       </c>
       <c r="D24" t="n">
-        <v>0.173392</v>
+        <v>0.172986</v>
       </c>
       <c r="E24" t="n">
-        <v>0.284843</v>
+        <v>0.286683</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4569,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.147224</v>
+        <v>0.146894</v>
       </c>
       <c r="C25" t="n">
-        <v>0.287601</v>
+        <v>0.288986</v>
       </c>
       <c r="D25" t="n">
-        <v>0.171978</v>
+        <v>0.173268</v>
       </c>
       <c r="E25" t="n">
-        <v>0.284983</v>
+        <v>0.284554</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4586,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.14444</v>
+        <v>0.14348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2876</v>
+        <v>0.288602</v>
       </c>
       <c r="D26" t="n">
-        <v>0.172057</v>
+        <v>0.171932</v>
       </c>
       <c r="E26" t="n">
-        <v>0.280853</v>
+        <v>0.281333</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4603,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140705</v>
+        <v>0.140933</v>
       </c>
       <c r="C27" t="n">
-        <v>0.288997</v>
+        <v>0.290856</v>
       </c>
       <c r="D27" t="n">
-        <v>0.172897</v>
+        <v>0.171311</v>
       </c>
       <c r="E27" t="n">
-        <v>0.281688</v>
+        <v>0.283523</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4620,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137402</v>
+        <v>0.137126</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290481</v>
+        <v>0.291399</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17029</v>
+        <v>0.170001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.279487</v>
+        <v>0.278159</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4637,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133721</v>
+        <v>0.133525</v>
       </c>
       <c r="C29" t="n">
-        <v>0.291662</v>
+        <v>0.293073</v>
       </c>
       <c r="D29" t="n">
-        <v>0.171219</v>
+        <v>0.169083</v>
       </c>
       <c r="E29" t="n">
-        <v>0.280677</v>
+        <v>0.278311</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4654,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.128955</v>
+        <v>0.128629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.29328</v>
+        <v>0.294817</v>
       </c>
       <c r="D30" t="n">
-        <v>0.169221</v>
+        <v>0.168839</v>
       </c>
       <c r="E30" t="n">
-        <v>0.280292</v>
+        <v>0.27816</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4671,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12512</v>
+        <v>0.124152</v>
       </c>
       <c r="C31" t="n">
-        <v>0.294138</v>
+        <v>0.295412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.168358</v>
+        <v>0.16836</v>
       </c>
       <c r="E31" t="n">
-        <v>0.280893</v>
+        <v>0.278814</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4688,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.120441</v>
+        <v>0.119255</v>
       </c>
       <c r="C32" t="n">
-        <v>0.293505</v>
+        <v>0.296199</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168837</v>
+        <v>0.168222</v>
       </c>
       <c r="E32" t="n">
-        <v>0.278407</v>
+        <v>0.27803</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4705,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.114693</v>
+        <v>0.11432</v>
       </c>
       <c r="C33" t="n">
-        <v>0.296216</v>
+        <v>0.296843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.16865</v>
+        <v>0.166776</v>
       </c>
       <c r="E33" t="n">
-        <v>0.279064</v>
+        <v>0.274659</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4722,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109617</v>
+        <v>0.109619</v>
       </c>
       <c r="C34" t="n">
-        <v>0.297426</v>
+        <v>0.298285</v>
       </c>
       <c r="D34" t="n">
-        <v>0.166213</v>
+        <v>0.16654</v>
       </c>
       <c r="E34" t="n">
-        <v>0.276623</v>
+        <v>0.276276</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4739,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104777</v>
+        <v>0.104986</v>
       </c>
       <c r="C35" t="n">
-        <v>0.285782</v>
+        <v>0.285971</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165749</v>
+        <v>0.165731</v>
       </c>
       <c r="E35" t="n">
-        <v>0.275242</v>
+        <v>0.272661</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4756,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100498</v>
+        <v>0.100645</v>
       </c>
       <c r="C36" t="n">
-        <v>0.286008</v>
+        <v>0.287599</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165377</v>
+        <v>0.165484</v>
       </c>
       <c r="E36" t="n">
-        <v>0.273643</v>
+        <v>0.273343</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4773,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.095885</v>
+        <v>0.0958278</v>
       </c>
       <c r="C37" t="n">
-        <v>0.287226</v>
+        <v>0.288311</v>
       </c>
       <c r="D37" t="n">
-        <v>0.181607</v>
+        <v>0.180807</v>
       </c>
       <c r="E37" t="n">
-        <v>0.28665</v>
+        <v>0.287122</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4790,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.159284</v>
+        <v>0.158689</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28761</v>
+        <v>0.289181</v>
       </c>
       <c r="D38" t="n">
-        <v>0.179581</v>
+        <v>0.180362</v>
       </c>
       <c r="E38" t="n">
-        <v>0.288314</v>
+        <v>0.286522</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4807,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.156717</v>
+        <v>0.156574</v>
       </c>
       <c r="C39" t="n">
-        <v>0.289069</v>
+        <v>0.290122</v>
       </c>
       <c r="D39" t="n">
-        <v>0.179549</v>
+        <v>0.17977</v>
       </c>
       <c r="E39" t="n">
-        <v>0.283276</v>
+        <v>0.287288</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4824,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.153778</v>
+        <v>0.153583</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291258</v>
+        <v>0.291598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.177059</v>
+        <v>0.178113</v>
       </c>
       <c r="E40" t="n">
-        <v>0.283897</v>
+        <v>0.284593</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4841,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149985</v>
+        <v>0.149461</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292044</v>
+        <v>0.292933</v>
       </c>
       <c r="D41" t="n">
-        <v>0.176741</v>
+        <v>0.1765</v>
       </c>
       <c r="E41" t="n">
-        <v>0.282851</v>
+        <v>0.281281</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4858,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146067</v>
+        <v>0.14568</v>
       </c>
       <c r="C42" t="n">
-        <v>0.292541</v>
+        <v>0.294343</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175916</v>
+        <v>0.175687</v>
       </c>
       <c r="E42" t="n">
-        <v>0.282467</v>
+        <v>0.282625</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4875,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.14153</v>
+        <v>0.140803</v>
       </c>
       <c r="C43" t="n">
-        <v>0.294038</v>
+        <v>0.2956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174191</v>
+        <v>0.174137</v>
       </c>
       <c r="E43" t="n">
-        <v>0.280855</v>
+        <v>0.282441</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +4892,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.136851</v>
+        <v>0.135969</v>
       </c>
       <c r="C44" t="n">
-        <v>0.29517</v>
+        <v>0.296545</v>
       </c>
       <c r="D44" t="n">
-        <v>0.173126</v>
+        <v>0.174152</v>
       </c>
       <c r="E44" t="n">
-        <v>0.281927</v>
+        <v>0.280488</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +4909,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131807</v>
+        <v>0.13109</v>
       </c>
       <c r="C45" t="n">
-        <v>0.295882</v>
+        <v>0.297824</v>
       </c>
       <c r="D45" t="n">
-        <v>0.17289</v>
+        <v>0.173222</v>
       </c>
       <c r="E45" t="n">
-        <v>0.278974</v>
+        <v>0.281785</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +4926,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126538</v>
+        <v>0.126054</v>
       </c>
       <c r="C46" t="n">
-        <v>0.29714</v>
+        <v>0.298548</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171398</v>
+        <v>0.171844</v>
       </c>
       <c r="E46" t="n">
-        <v>0.278439</v>
+        <v>0.282351</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +4943,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121426</v>
+        <v>0.120886</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297698</v>
+        <v>0.298944</v>
       </c>
       <c r="D47" t="n">
-        <v>0.170656</v>
+        <v>0.171172</v>
       </c>
       <c r="E47" t="n">
-        <v>0.280525</v>
+        <v>0.277242</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +4960,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.115851</v>
+        <v>0.11569</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298015</v>
+        <v>0.298968</v>
       </c>
       <c r="D48" t="n">
-        <v>0.169676</v>
+        <v>0.170798</v>
       </c>
       <c r="E48" t="n">
-        <v>0.275232</v>
+        <v>0.279696</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +4977,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.110881</v>
+        <v>0.110541</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2997</v>
+        <v>0.300847</v>
       </c>
       <c r="D49" t="n">
-        <v>0.168742</v>
+        <v>0.169128</v>
       </c>
       <c r="E49" t="n">
-        <v>0.274341</v>
+        <v>0.277074</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +4994,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105341</v>
+        <v>0.105292</v>
       </c>
       <c r="C50" t="n">
-        <v>0.288124</v>
+        <v>0.289053</v>
       </c>
       <c r="D50" t="n">
-        <v>0.167746</v>
+        <v>0.168205</v>
       </c>
       <c r="E50" t="n">
-        <v>0.276063</v>
+        <v>0.273657</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5011,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.100086</v>
+        <v>0.100007</v>
       </c>
       <c r="C51" t="n">
-        <v>0.28907</v>
+        <v>0.290167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184643</v>
+        <v>0.184988</v>
       </c>
       <c r="E51" t="n">
-        <v>0.291693</v>
+        <v>0.289367</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5028,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09492250000000001</v>
+        <v>0.0948777</v>
       </c>
       <c r="C52" t="n">
-        <v>0.290364</v>
+        <v>0.29078</v>
       </c>
       <c r="D52" t="n">
-        <v>0.18327</v>
+        <v>0.183534</v>
       </c>
       <c r="E52" t="n">
-        <v>0.289798</v>
+        <v>0.288415</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5045,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161765</v>
+        <v>0.161991</v>
       </c>
       <c r="C53" t="n">
-        <v>0.29106</v>
+        <v>0.291648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.181852</v>
+        <v>0.182149</v>
       </c>
       <c r="E53" t="n">
-        <v>0.287898</v>
+        <v>0.290896</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5062,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.157751</v>
+        <v>0.158351</v>
       </c>
       <c r="C54" t="n">
-        <v>0.292367</v>
+        <v>0.293035</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180821</v>
+        <v>0.180616</v>
       </c>
       <c r="E54" t="n">
-        <v>0.28715</v>
+        <v>0.28521</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5079,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.153367</v>
+        <v>0.15418</v>
       </c>
       <c r="C55" t="n">
-        <v>0.292745</v>
+        <v>0.294835</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179281</v>
+        <v>0.179576</v>
       </c>
       <c r="E55" t="n">
-        <v>0.28391</v>
+        <v>0.281968</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5096,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.149046</v>
+        <v>0.149336</v>
       </c>
       <c r="C56" t="n">
-        <v>0.294376</v>
+        <v>0.295902</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178364</v>
+        <v>0.17813</v>
       </c>
       <c r="E56" t="n">
-        <v>0.284432</v>
+        <v>0.28233</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5113,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.144183</v>
+        <v>0.144759</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295477</v>
+        <v>0.297436</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177349</v>
+        <v>0.177071</v>
       </c>
       <c r="E57" t="n">
-        <v>0.28238</v>
+        <v>0.281572</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5130,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.139449</v>
+        <v>0.13942</v>
       </c>
       <c r="C58" t="n">
-        <v>0.297108</v>
+        <v>0.298589</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176061</v>
+        <v>0.176001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.282797</v>
+        <v>0.284572</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5147,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134172</v>
+        <v>0.134492</v>
       </c>
       <c r="C59" t="n">
-        <v>0.298193</v>
+        <v>0.300554</v>
       </c>
       <c r="D59" t="n">
-        <v>0.174862</v>
+        <v>0.175144</v>
       </c>
       <c r="E59" t="n">
-        <v>0.281096</v>
+        <v>0.281733</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5164,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.129251</v>
+        <v>0.129077</v>
       </c>
       <c r="C60" t="n">
-        <v>0.299347</v>
+        <v>0.300882</v>
       </c>
       <c r="D60" t="n">
-        <v>0.17382</v>
+        <v>0.173992</v>
       </c>
       <c r="E60" t="n">
-        <v>0.277033</v>
+        <v>0.281802</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5181,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.124021</v>
+        <v>0.12409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.300971</v>
+        <v>0.302226</v>
       </c>
       <c r="D61" t="n">
-        <v>0.172776</v>
+        <v>0.172628</v>
       </c>
       <c r="E61" t="n">
-        <v>0.276516</v>
+        <v>0.276494</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5198,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118888</v>
+        <v>0.118812</v>
       </c>
       <c r="C62" t="n">
-        <v>0.301872</v>
+        <v>0.303139</v>
       </c>
       <c r="D62" t="n">
-        <v>0.171758</v>
+        <v>0.17171</v>
       </c>
       <c r="E62" t="n">
-        <v>0.276848</v>
+        <v>0.274984</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5215,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113656</v>
+        <v>0.113873</v>
       </c>
       <c r="C63" t="n">
-        <v>0.302877</v>
+        <v>0.304148</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170447</v>
+        <v>0.170627</v>
       </c>
       <c r="E63" t="n">
-        <v>0.279088</v>
+        <v>0.275157</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5232,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.10868</v>
+        <v>0.108645</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295352</v>
+        <v>0.295737</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169347</v>
+        <v>0.169362</v>
       </c>
       <c r="E64" t="n">
-        <v>0.276751</v>
+        <v>0.277046</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5249,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103293</v>
+        <v>0.103249</v>
       </c>
       <c r="C65" t="n">
-        <v>0.297121</v>
+        <v>0.297527</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168119</v>
+        <v>0.168086</v>
       </c>
       <c r="E65" t="n">
-        <v>0.276998</v>
+        <v>0.274636</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5266,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09785820000000001</v>
+        <v>0.0981061</v>
       </c>
       <c r="C66" t="n">
-        <v>0.29808</v>
+        <v>0.29865</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185031</v>
+        <v>0.185222</v>
       </c>
       <c r="E66" t="n">
-        <v>0.28964</v>
+        <v>0.289604</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5283,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163938</v>
+        <v>0.163734</v>
       </c>
       <c r="C67" t="n">
-        <v>0.300501</v>
+        <v>0.30144</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183681</v>
+        <v>0.183715</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286487</v>
+        <v>0.286421</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5300,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.16019</v>
+        <v>0.159985</v>
       </c>
       <c r="C68" t="n">
-        <v>0.301419</v>
+        <v>0.302917</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182192</v>
+        <v>0.182524</v>
       </c>
       <c r="E68" t="n">
-        <v>0.28763</v>
+        <v>0.28622</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5317,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.156112</v>
+        <v>0.155756</v>
       </c>
       <c r="C69" t="n">
-        <v>0.304017</v>
+        <v>0.305202</v>
       </c>
       <c r="D69" t="n">
-        <v>0.181223</v>
+        <v>0.180964</v>
       </c>
       <c r="E69" t="n">
-        <v>0.286477</v>
+        <v>0.285784</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5334,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.151234</v>
+        <v>0.15125</v>
       </c>
       <c r="C70" t="n">
-        <v>0.306256</v>
+        <v>0.30723</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1797</v>
+        <v>0.179754</v>
       </c>
       <c r="E70" t="n">
-        <v>0.285516</v>
+        <v>0.285032</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5351,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1467</v>
+        <v>0.146328</v>
       </c>
       <c r="C71" t="n">
-        <v>0.30713</v>
+        <v>0.309103</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178455</v>
+        <v>0.178462</v>
       </c>
       <c r="E71" t="n">
-        <v>0.28524</v>
+        <v>0.283173</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5368,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141537</v>
+        <v>0.141354</v>
       </c>
       <c r="C72" t="n">
-        <v>0.309409</v>
+        <v>0.31171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177282</v>
+        <v>0.177279</v>
       </c>
       <c r="E72" t="n">
-        <v>0.283961</v>
+        <v>0.281461</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5385,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136251</v>
+        <v>0.13629</v>
       </c>
       <c r="C73" t="n">
-        <v>0.312199</v>
+        <v>0.314652</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176083</v>
+        <v>0.176129</v>
       </c>
       <c r="E73" t="n">
-        <v>0.284223</v>
+        <v>0.279677</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5402,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131385</v>
+        <v>0.13112</v>
       </c>
       <c r="C74" t="n">
-        <v>0.306165</v>
+        <v>0.317152</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174918</v>
+        <v>0.174884</v>
       </c>
       <c r="E74" t="n">
-        <v>0.280482</v>
+        <v>0.278626</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5419,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125975</v>
+        <v>0.125873</v>
       </c>
       <c r="C75" t="n">
-        <v>0.309771</v>
+        <v>0.319492</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173816</v>
+        <v>0.173814</v>
       </c>
       <c r="E75" t="n">
-        <v>0.27945</v>
+        <v>0.27779</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5436,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120806</v>
+        <v>0.12083</v>
       </c>
       <c r="C76" t="n">
-        <v>0.312349</v>
+        <v>0.321314</v>
       </c>
       <c r="D76" t="n">
-        <v>0.172569</v>
+        <v>0.17262</v>
       </c>
       <c r="E76" t="n">
-        <v>0.279581</v>
+        <v>0.278852</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5453,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115717</v>
+        <v>0.115667</v>
       </c>
       <c r="C77" t="n">
-        <v>0.315075</v>
+        <v>0.322579</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171501</v>
+        <v>0.171439</v>
       </c>
       <c r="E77" t="n">
-        <v>0.279018</v>
+        <v>0.278435</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5470,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110491</v>
+        <v>0.110544</v>
       </c>
       <c r="C78" t="n">
-        <v>0.308787</v>
+        <v>0.313725</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170134</v>
+        <v>0.170256</v>
       </c>
       <c r="E78" t="n">
-        <v>0.274384</v>
+        <v>0.275028</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5487,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105539</v>
+        <v>0.105336</v>
       </c>
       <c r="C79" t="n">
-        <v>0.31033</v>
+        <v>0.314481</v>
       </c>
       <c r="D79" t="n">
-        <v>0.168946</v>
+        <v>0.169108</v>
       </c>
       <c r="E79" t="n">
-        <v>0.276461</v>
+        <v>0.277117</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5504,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100332</v>
+        <v>0.10007</v>
       </c>
       <c r="C80" t="n">
-        <v>0.311713</v>
+        <v>0.315589</v>
       </c>
       <c r="D80" t="n">
-        <v>0.18571</v>
+        <v>0.18599</v>
       </c>
       <c r="E80" t="n">
-        <v>0.292322</v>
+        <v>0.291139</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5521,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164231</v>
+        <v>0.164294</v>
       </c>
       <c r="C81" t="n">
-        <v>0.31323</v>
+        <v>0.316675</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184182</v>
+        <v>0.184351</v>
       </c>
       <c r="E81" t="n">
-        <v>0.289118</v>
+        <v>0.289888</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5538,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160433</v>
+        <v>0.160615</v>
       </c>
       <c r="C82" t="n">
-        <v>0.314737</v>
+        <v>0.317806</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182808</v>
+        <v>0.182923</v>
       </c>
       <c r="E82" t="n">
-        <v>0.288247</v>
+        <v>0.291795</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5555,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156282</v>
+        <v>0.156309</v>
       </c>
       <c r="C83" t="n">
-        <v>0.31414</v>
+        <v>0.318344</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181466</v>
+        <v>0.181611</v>
       </c>
       <c r="E83" t="n">
-        <v>0.288563</v>
+        <v>0.287367</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5572,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151513</v>
+        <v>0.152015</v>
       </c>
       <c r="C84" t="n">
-        <v>0.315762</v>
+        <v>0.320201</v>
       </c>
       <c r="D84" t="n">
-        <v>0.180095</v>
+        <v>0.1802</v>
       </c>
       <c r="E84" t="n">
-        <v>0.287533</v>
+        <v>0.284601</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5589,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146903</v>
+        <v>0.14699</v>
       </c>
       <c r="C85" t="n">
-        <v>0.318579</v>
+        <v>0.322203</v>
       </c>
       <c r="D85" t="n">
-        <v>0.178727</v>
+        <v>0.179052</v>
       </c>
       <c r="E85" t="n">
-        <v>0.286304</v>
+        <v>0.284527</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5606,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.141991</v>
+        <v>0.141976</v>
       </c>
       <c r="C86" t="n">
-        <v>0.321262</v>
+        <v>0.324063</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177617</v>
+        <v>0.177739</v>
       </c>
       <c r="E86" t="n">
-        <v>0.283101</v>
+        <v>0.28685</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5623,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136909</v>
+        <v>0.136789</v>
       </c>
       <c r="C87" t="n">
-        <v>0.323652</v>
+        <v>0.326571</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176367</v>
+        <v>0.176647</v>
       </c>
       <c r="E87" t="n">
-        <v>0.280356</v>
+        <v>0.282586</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5640,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131753</v>
+        <v>0.131642</v>
       </c>
       <c r="C88" t="n">
-        <v>0.325257</v>
+        <v>0.329052</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175199</v>
+        <v>0.175462</v>
       </c>
       <c r="E88" t="n">
-        <v>0.280392</v>
+        <v>0.283319</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5657,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126506</v>
+        <v>0.126656</v>
       </c>
       <c r="C89" t="n">
-        <v>0.315909</v>
+        <v>0.330435</v>
       </c>
       <c r="D89" t="n">
-        <v>0.174092</v>
+        <v>0.17428</v>
       </c>
       <c r="E89" t="n">
-        <v>0.281045</v>
+        <v>0.28205</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5674,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121357</v>
+        <v>0.121462</v>
       </c>
       <c r="C90" t="n">
-        <v>0.318185</v>
+        <v>0.331776</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17285</v>
+        <v>0.173012</v>
       </c>
       <c r="E90" t="n">
-        <v>0.276278</v>
+        <v>0.278764</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5691,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116213</v>
+        <v>0.116351</v>
       </c>
       <c r="C91" t="n">
-        <v>0.320763</v>
+        <v>0.333373</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171697</v>
+        <v>0.171824</v>
       </c>
       <c r="E91" t="n">
-        <v>0.277672</v>
+        <v>0.278736</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5708,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111081</v>
+        <v>0.111159</v>
       </c>
       <c r="C92" t="n">
-        <v>0.295097</v>
+        <v>0.30164</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170479</v>
+        <v>0.170587</v>
       </c>
       <c r="E92" t="n">
-        <v>0.276009</v>
+        <v>0.279284</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5725,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106023</v>
+        <v>0.105975</v>
       </c>
       <c r="C93" t="n">
-        <v>0.295977</v>
+        <v>0.30323</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169232</v>
+        <v>0.169371</v>
       </c>
       <c r="E93" t="n">
-        <v>0.276803</v>
+        <v>0.276356</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +5742,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100876</v>
+        <v>0.100889</v>
       </c>
       <c r="C94" t="n">
-        <v>0.297469</v>
+        <v>0.304698</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186238</v>
+        <v>0.186409</v>
       </c>
       <c r="E94" t="n">
-        <v>0.294846</v>
+        <v>0.292813</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +5759,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165616</v>
+        <v>0.166076</v>
       </c>
       <c r="C95" t="n">
-        <v>0.299469</v>
+        <v>0.305912</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184776</v>
+        <v>0.184936</v>
       </c>
       <c r="E95" t="n">
-        <v>0.289587</v>
+        <v>0.28974</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +5776,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161892</v>
+        <v>0.162068</v>
       </c>
       <c r="C96" t="n">
-        <v>0.301571</v>
+        <v>0.307306</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183353</v>
+        <v>0.183489</v>
       </c>
       <c r="E96" t="n">
-        <v>0.288815</v>
+        <v>0.288657</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +5793,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157627</v>
+        <v>0.157781</v>
       </c>
       <c r="C97" t="n">
-        <v>0.296998</v>
+        <v>0.309409</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182029</v>
+        <v>0.182093</v>
       </c>
       <c r="E97" t="n">
-        <v>0.285001</v>
+        <v>0.287745</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +5810,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153045</v>
+        <v>0.153244</v>
       </c>
       <c r="C98" t="n">
-        <v>0.299261</v>
+        <v>0.311452</v>
       </c>
       <c r="D98" t="n">
-        <v>0.180636</v>
+        <v>0.18071</v>
       </c>
       <c r="E98" t="n">
-        <v>0.285394</v>
+        <v>0.288517</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +5827,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148124</v>
+        <v>0.147986</v>
       </c>
       <c r="C99" t="n">
-        <v>0.302162</v>
+        <v>0.313515</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179256</v>
+        <v>0.179534</v>
       </c>
       <c r="E99" t="n">
-        <v>0.283591</v>
+        <v>0.285634</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +5844,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143096</v>
+        <v>0.143215</v>
       </c>
       <c r="C100" t="n">
-        <v>0.303709</v>
+        <v>0.316109</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178057</v>
+        <v>0.178063</v>
       </c>
       <c r="E100" t="n">
-        <v>0.285928</v>
+        <v>0.285174</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +5861,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137765</v>
+        <v>0.137949</v>
       </c>
       <c r="C101" t="n">
-        <v>0.306448</v>
+        <v>0.318521</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176775</v>
+        <v>0.176673</v>
       </c>
       <c r="E101" t="n">
-        <v>0.28276</v>
+        <v>0.28239</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +5878,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132801</v>
+        <v>0.13299</v>
       </c>
       <c r="C102" t="n">
-        <v>0.310136</v>
+        <v>0.3211</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175665</v>
+        <v>0.175726</v>
       </c>
       <c r="E102" t="n">
-        <v>0.281078</v>
+        <v>0.281254</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +5895,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127657</v>
+        <v>0.127759</v>
       </c>
       <c r="C103" t="n">
-        <v>0.306796</v>
+        <v>0.323607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174317</v>
+        <v>0.174413</v>
       </c>
       <c r="E103" t="n">
-        <v>0.280155</v>
+        <v>0.279211</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +5912,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12242</v>
+        <v>0.122501</v>
       </c>
       <c r="C104" t="n">
-        <v>0.30934</v>
+        <v>0.324187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173185</v>
+        <v>0.173321</v>
       </c>
       <c r="E104" t="n">
-        <v>0.279521</v>
+        <v>0.280682</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +5929,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11725</v>
+        <v>0.117374</v>
       </c>
       <c r="C105" t="n">
-        <v>0.311905</v>
+        <v>0.325802</v>
       </c>
       <c r="D105" t="n">
-        <v>0.171964</v>
+        <v>0.172106</v>
       </c>
       <c r="E105" t="n">
-        <v>0.279457</v>
+        <v>0.2796</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +5946,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112112</v>
+        <v>0.112273</v>
       </c>
       <c r="C106" t="n">
-        <v>0.313813</v>
+        <v>0.326909</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170756</v>
+        <v>0.170843</v>
       </c>
       <c r="E106" t="n">
-        <v>0.278278</v>
+        <v>0.277142</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +5963,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.10702</v>
+        <v>0.107036</v>
       </c>
       <c r="C107" t="n">
-        <v>0.290918</v>
+        <v>0.302421</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169512</v>
+        <v>0.169642</v>
       </c>
       <c r="E107" t="n">
-        <v>0.275865</v>
+        <v>0.275204</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +5980,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101872</v>
+        <v>0.101823</v>
       </c>
       <c r="C108" t="n">
-        <v>0.292794</v>
+        <v>0.304406</v>
       </c>
       <c r="D108" t="n">
-        <v>0.186733</v>
+        <v>0.18684</v>
       </c>
       <c r="E108" t="n">
-        <v>0.292885</v>
+        <v>0.292339</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +5997,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966104</v>
+        <v>0.0966447</v>
       </c>
       <c r="C109" t="n">
-        <v>0.294234</v>
+        <v>0.305979</v>
       </c>
       <c r="D109" t="n">
-        <v>0.18519</v>
+        <v>0.185316</v>
       </c>
       <c r="E109" t="n">
-        <v>0.29214</v>
+        <v>0.291693</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6014,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.163181</v>
+        <v>0.163155</v>
       </c>
       <c r="C110" t="n">
-        <v>0.295679</v>
+        <v>0.306786</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183764</v>
+        <v>0.183792</v>
       </c>
       <c r="E110" t="n">
-        <v>0.289121</v>
+        <v>0.288512</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6031,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.159031</v>
+        <v>0.159125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.295282</v>
+        <v>0.308805</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182269</v>
+        <v>0.182298</v>
       </c>
       <c r="E111" t="n">
-        <v>0.285812</v>
+        <v>0.289475</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6048,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154378</v>
+        <v>0.154302</v>
       </c>
       <c r="C112" t="n">
-        <v>0.296912</v>
+        <v>0.310088</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180909</v>
+        <v>0.180991</v>
       </c>
       <c r="E112" t="n">
-        <v>0.289304</v>
+        <v>0.287806</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6065,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149186</v>
+        <v>0.149301</v>
       </c>
       <c r="C113" t="n">
-        <v>0.299968</v>
+        <v>0.31318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179595</v>
+        <v>0.179697</v>
       </c>
       <c r="E113" t="n">
-        <v>0.281765</v>
+        <v>0.284298</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6082,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144248</v>
+        <v>0.144453</v>
       </c>
       <c r="C114" t="n">
-        <v>0.299754</v>
+        <v>0.315206</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178396</v>
+        <v>0.178351</v>
       </c>
       <c r="E114" t="n">
-        <v>0.28236</v>
+        <v>0.282789</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6099,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.138994</v>
+        <v>0.139128</v>
       </c>
       <c r="C115" t="n">
-        <v>0.301842</v>
+        <v>0.317848</v>
       </c>
       <c r="D115" t="n">
-        <v>0.177056</v>
+        <v>0.17713</v>
       </c>
       <c r="E115" t="n">
-        <v>0.283506</v>
+        <v>0.284713</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6116,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.13388</v>
+        <v>0.133767</v>
       </c>
       <c r="C116" t="n">
-        <v>0.304744</v>
+        <v>0.320502</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175815</v>
+        <v>0.175907</v>
       </c>
       <c r="E116" t="n">
-        <v>0.282489</v>
+        <v>0.282033</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6133,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128563</v>
+        <v>0.128658</v>
       </c>
       <c r="C117" t="n">
-        <v>0.305408</v>
+        <v>0.322977</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174734</v>
+        <v>0.174724</v>
       </c>
       <c r="E117" t="n">
-        <v>0.27951</v>
+        <v>0.282291</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6150,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123492</v>
+        <v>0.123497</v>
       </c>
       <c r="C118" t="n">
-        <v>0.307885</v>
+        <v>0.324291</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173443</v>
+        <v>0.173545</v>
       </c>
       <c r="E118" t="n">
-        <v>0.277523</v>
+        <v>0.28208</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6167,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118464</v>
+        <v>0.118358</v>
       </c>
       <c r="C119" t="n">
-        <v>0.307962</v>
+        <v>0.325124</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172265</v>
+        <v>0.172324</v>
       </c>
       <c r="E119" t="n">
-        <v>0.279182</v>
+        <v>0.278957</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6184,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113129</v>
+        <v>0.113214</v>
       </c>
       <c r="C120" t="n">
-        <v>0.310472</v>
+        <v>0.326061</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171018</v>
+        <v>0.171101</v>
       </c>
       <c r="E120" t="n">
-        <v>0.276473</v>
+        <v>0.280099</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6201,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108013</v>
+        <v>0.108042</v>
       </c>
       <c r="C121" t="n">
-        <v>0.29361</v>
+        <v>0.30456</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169873</v>
+        <v>0.169987</v>
       </c>
       <c r="E121" t="n">
-        <v>0.276892</v>
+        <v>0.276966</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6218,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102901</v>
+        <v>0.102919</v>
       </c>
       <c r="C122" t="n">
-        <v>0.293955</v>
+        <v>0.306023</v>
       </c>
       <c r="D122" t="n">
-        <v>0.16868</v>
+        <v>0.168768</v>
       </c>
       <c r="E122" t="n">
-        <v>0.275816</v>
+        <v>0.274019</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6235,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0977628</v>
+        <v>0.09779359999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.295548</v>
+        <v>0.307399</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185604</v>
+        <v>0.185596</v>
       </c>
       <c r="E123" t="n">
-        <v>0.289797</v>
+        <v>0.290432</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6252,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173028</v>
+        <v>0.173503</v>
       </c>
       <c r="C124" t="n">
-        <v>0.29582</v>
+        <v>0.309014</v>
       </c>
       <c r="D124" t="n">
-        <v>0.18407</v>
+        <v>0.184065</v>
       </c>
       <c r="E124" t="n">
-        <v>0.29229</v>
+        <v>0.290378</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6269,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168888</v>
+        <v>0.168542</v>
       </c>
       <c r="C125" t="n">
-        <v>0.297457</v>
+        <v>0.310339</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182541</v>
+        <v>0.182651</v>
       </c>
       <c r="E125" t="n">
-        <v>0.288339</v>
+        <v>0.288721</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6286,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163702</v>
+        <v>0.163753</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298432</v>
+        <v>0.312055</v>
       </c>
       <c r="D126" t="n">
-        <v>0.181177</v>
+        <v>0.18132</v>
       </c>
       <c r="E126" t="n">
-        <v>0.286976</v>
+        <v>0.285553</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6303,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158768</v>
+        <v>0.15878</v>
       </c>
       <c r="C127" t="n">
-        <v>0.299124</v>
+        <v>0.314107</v>
       </c>
       <c r="D127" t="n">
-        <v>0.179915</v>
+        <v>0.17993</v>
       </c>
       <c r="E127" t="n">
-        <v>0.284306</v>
+        <v>0.28866</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6320,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.152967</v>
+        <v>0.153081</v>
       </c>
       <c r="C128" t="n">
-        <v>0.30075</v>
+        <v>0.316839</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178443</v>
+        <v>0.178716</v>
       </c>
       <c r="E128" t="n">
-        <v>0.282697</v>
+        <v>0.285268</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6337,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147432</v>
+        <v>0.147672</v>
       </c>
       <c r="C129" t="n">
-        <v>0.303137</v>
+        <v>0.319506</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177278</v>
+        <v>0.177453</v>
       </c>
       <c r="E129" t="n">
-        <v>0.281096</v>
+        <v>0.284488</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6354,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141975</v>
+        <v>0.142068</v>
       </c>
       <c r="C130" t="n">
-        <v>0.304833</v>
+        <v>0.321522</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176076</v>
+        <v>0.176134</v>
       </c>
       <c r="E130" t="n">
-        <v>0.281267</v>
+        <v>0.283134</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6371,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13661</v>
+        <v>0.136456</v>
       </c>
       <c r="C131" t="n">
-        <v>0.306146</v>
+        <v>0.324432</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174889</v>
+        <v>0.174917</v>
       </c>
       <c r="E131" t="n">
-        <v>0.279271</v>
+        <v>0.280487</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6388,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131002</v>
+        <v>0.131255</v>
       </c>
       <c r="C132" t="n">
-        <v>0.307038</v>
+        <v>0.325661</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173751</v>
+        <v>0.173818</v>
       </c>
       <c r="E132" t="n">
-        <v>0.277611</v>
+        <v>0.279162</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6405,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125727</v>
+        <v>0.125366</v>
       </c>
       <c r="C133" t="n">
-        <v>0.308538</v>
+        <v>0.326991</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172529</v>
+        <v>0.172615</v>
       </c>
       <c r="E133" t="n">
-        <v>0.27983</v>
+        <v>0.277417</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6422,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120213</v>
+        <v>0.120158</v>
       </c>
       <c r="C134" t="n">
-        <v>0.311238</v>
+        <v>0.32837</v>
       </c>
       <c r="D134" t="n">
-        <v>0.17138</v>
+        <v>0.171297</v>
       </c>
       <c r="E134" t="n">
-        <v>0.276196</v>
+        <v>0.27707</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6439,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114864</v>
+        <v>0.114791</v>
       </c>
       <c r="C135" t="n">
-        <v>0.29305</v>
+        <v>0.304643</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170068</v>
+        <v>0.170116</v>
       </c>
       <c r="E135" t="n">
-        <v>0.275866</v>
+        <v>0.277167</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6456,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10935</v>
+        <v>0.10942</v>
       </c>
       <c r="C136" t="n">
-        <v>0.293936</v>
+        <v>0.306116</v>
       </c>
       <c r="D136" t="n">
-        <v>0.16884</v>
+        <v>0.168935</v>
       </c>
       <c r="E136" t="n">
-        <v>0.275209</v>
+        <v>0.277129</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6473,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.103983</v>
+        <v>0.104105</v>
       </c>
       <c r="C137" t="n">
-        <v>0.295193</v>
+        <v>0.307822</v>
       </c>
       <c r="D137" t="n">
-        <v>0.196116</v>
+        <v>0.195211</v>
       </c>
       <c r="E137" t="n">
-        <v>0.297215</v>
+        <v>0.297171</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6490,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174103</v>
+        <v>0.174348</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295602</v>
+        <v>0.309265</v>
       </c>
       <c r="D138" t="n">
-        <v>0.193136</v>
+        <v>0.193231</v>
       </c>
       <c r="E138" t="n">
-        <v>0.294804</v>
+        <v>0.29489</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6507,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.16957</v>
+        <v>0.170021</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296406</v>
+        <v>0.310503</v>
       </c>
       <c r="D139" t="n">
-        <v>0.191085</v>
+        <v>0.191364</v>
       </c>
       <c r="E139" t="n">
-        <v>0.292807</v>
+        <v>0.293984</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6524,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164907</v>
+        <v>0.165162</v>
       </c>
       <c r="C140" t="n">
-        <v>0.297767</v>
+        <v>0.312172</v>
       </c>
       <c r="D140" t="n">
-        <v>0.189452</v>
+        <v>0.189501</v>
       </c>
       <c r="E140" t="n">
-        <v>0.292284</v>
+        <v>0.29205</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6541,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159763</v>
+        <v>0.159814</v>
       </c>
       <c r="C141" t="n">
-        <v>0.298622</v>
+        <v>0.314219</v>
       </c>
       <c r="D141" t="n">
-        <v>0.187873</v>
+        <v>0.187875</v>
       </c>
       <c r="E141" t="n">
-        <v>0.286689</v>
+        <v>0.290786</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6558,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154327</v>
+        <v>0.154255</v>
       </c>
       <c r="C142" t="n">
-        <v>0.300831</v>
+        <v>0.316614</v>
       </c>
       <c r="D142" t="n">
-        <v>0.186202</v>
+        <v>0.186239</v>
       </c>
       <c r="E142" t="n">
-        <v>0.286559</v>
+        <v>0.287227</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6575,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148619</v>
+        <v>0.148926</v>
       </c>
       <c r="C143" t="n">
-        <v>0.302162</v>
+        <v>0.319515</v>
       </c>
       <c r="D143" t="n">
-        <v>0.184527</v>
+        <v>0.184716</v>
       </c>
       <c r="E143" t="n">
-        <v>0.287475</v>
+        <v>0.289088</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -4140,7 +4140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4178,16 +4178,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0807776</v>
+        <v>0.0677589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.280562</v>
+        <v>0.264414</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161558</v>
+        <v>0.269832</v>
       </c>
       <c r="E2" t="n">
-        <v>0.269665</v>
+        <v>0.162023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.270195</v>
       </c>
     </row>
     <row r="3">
@@ -4195,16 +4198,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0784082</v>
+        <v>0.06758110000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.282836</v>
+        <v>0.264292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.161339</v>
+        <v>0.270021</v>
       </c>
       <c r="E3" t="n">
-        <v>0.272738</v>
+        <v>0.162245</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.270241</v>
       </c>
     </row>
     <row r="4">
@@ -4212,16 +4218,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0760687</v>
+        <v>0.0676784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.284128</v>
+        <v>0.261365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.162002</v>
+        <v>0.273299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.271179</v>
+        <v>0.161721</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.274605</v>
       </c>
     </row>
     <row r="5">
@@ -4229,16 +4238,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07617350000000001</v>
+        <v>0.0682445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.287595</v>
+        <v>0.259959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.161137</v>
+        <v>0.274918</v>
       </c>
       <c r="E5" t="n">
-        <v>0.267836</v>
+        <v>0.162009</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.271983</v>
       </c>
     </row>
     <row r="6">
@@ -4246,16 +4258,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0748185</v>
+        <v>0.0677416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.288923</v>
+        <v>0.257336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.161498</v>
+        <v>0.277087</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270927</v>
+        <v>0.162133</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.272068</v>
       </c>
     </row>
     <row r="7">
@@ -4263,16 +4278,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0735328</v>
+        <v>0.0677524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276285</v>
+        <v>0.25421</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16071</v>
+        <v>0.268541</v>
       </c>
       <c r="E7" t="n">
-        <v>0.269007</v>
+        <v>0.161851</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.272741</v>
       </c>
     </row>
     <row r="8">
@@ -4280,16 +4298,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07298060000000001</v>
+        <v>0.0675046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279094</v>
+        <v>0.24682</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160411</v>
+        <v>0.271072</v>
       </c>
       <c r="E8" t="n">
-        <v>0.267639</v>
+        <v>0.161849</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.27135</v>
       </c>
     </row>
     <row r="9">
@@ -4297,16 +4318,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0715243</v>
+        <v>0.0681952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.278493</v>
+        <v>0.244352</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167746</v>
+        <v>0.270832</v>
       </c>
       <c r="E9" t="n">
-        <v>0.278891</v>
+        <v>0.167986</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.280135</v>
       </c>
     </row>
     <row r="10">
@@ -4314,16 +4338,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.121217</v>
+        <v>0.100049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.284369</v>
+        <v>0.290727</v>
       </c>
       <c r="D10" t="n">
-        <v>0.167885</v>
+        <v>0.275381</v>
       </c>
       <c r="E10" t="n">
-        <v>0.281128</v>
+        <v>0.169484</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.280541</v>
       </c>
     </row>
     <row r="11">
@@ -4331,16 +4358,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12234</v>
+        <v>0.101033</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284287</v>
+        <v>0.286749</v>
       </c>
       <c r="D11" t="n">
-        <v>0.167893</v>
+        <v>0.276867</v>
       </c>
       <c r="E11" t="n">
-        <v>0.281782</v>
+        <v>0.170479</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.278801</v>
       </c>
     </row>
     <row r="12">
@@ -4348,16 +4378,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.118729</v>
+        <v>0.100715</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286375</v>
+        <v>0.286439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.166983</v>
+        <v>0.279757</v>
       </c>
       <c r="E12" t="n">
-        <v>0.280641</v>
+        <v>0.168264</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.277136</v>
       </c>
     </row>
     <row r="13">
@@ -4365,16 +4398,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.117152</v>
+        <v>0.09980559999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.288627</v>
+        <v>0.284611</v>
       </c>
       <c r="D13" t="n">
-        <v>0.16702</v>
+        <v>0.282323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.277824</v>
+        <v>0.17034</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.27927</v>
       </c>
     </row>
     <row r="14">
@@ -4382,16 +4418,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.114304</v>
+        <v>0.09756919999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.288118</v>
+        <v>0.281839</v>
       </c>
       <c r="D14" t="n">
-        <v>0.168219</v>
+        <v>0.283382</v>
       </c>
       <c r="E14" t="n">
-        <v>0.276569</v>
+        <v>0.167589</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.274667</v>
       </c>
     </row>
     <row r="15">
@@ -4399,16 +4438,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115644</v>
+        <v>0.0963268</v>
       </c>
       <c r="C15" t="n">
-        <v>0.291267</v>
+        <v>0.281786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.166483</v>
+        <v>0.285452</v>
       </c>
       <c r="E15" t="n">
-        <v>0.280577</v>
+        <v>0.166928</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.279111</v>
       </c>
     </row>
     <row r="16">
@@ -4416,16 +4458,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11278</v>
+        <v>0.0951867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.292115</v>
+        <v>0.278887</v>
       </c>
       <c r="D16" t="n">
-        <v>0.166207</v>
+        <v>0.286395</v>
       </c>
       <c r="E16" t="n">
-        <v>0.279004</v>
+        <v>0.165955</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.27671</v>
       </c>
     </row>
     <row r="17">
@@ -4433,16 +4478,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.108622</v>
+        <v>0.0929012</v>
       </c>
       <c r="C17" t="n">
-        <v>0.291562</v>
+        <v>0.275979</v>
       </c>
       <c r="D17" t="n">
-        <v>0.16626</v>
+        <v>0.287314</v>
       </c>
       <c r="E17" t="n">
-        <v>0.27723</v>
+        <v>0.166433</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.277791</v>
       </c>
     </row>
     <row r="18">
@@ -4450,16 +4498,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.106883</v>
+        <v>0.0921293</v>
       </c>
       <c r="C18" t="n">
-        <v>0.293491</v>
+        <v>0.273015</v>
       </c>
       <c r="D18" t="n">
-        <v>0.165736</v>
+        <v>0.289798</v>
       </c>
       <c r="E18" t="n">
-        <v>0.278285</v>
+        <v>0.165885</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.274378</v>
       </c>
     </row>
     <row r="19">
@@ -4467,16 +4518,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.103114</v>
+        <v>0.0899228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.293415</v>
+        <v>0.269916</v>
       </c>
       <c r="D19" t="n">
-        <v>0.165777</v>
+        <v>0.289913</v>
       </c>
       <c r="E19" t="n">
-        <v>0.275352</v>
+        <v>0.165244</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.27332</v>
       </c>
     </row>
     <row r="20">
@@ -4484,16 +4538,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09999230000000001</v>
+        <v>0.0888071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.295984</v>
+        <v>0.265601</v>
       </c>
       <c r="D20" t="n">
-        <v>0.164871</v>
+        <v>0.292271</v>
       </c>
       <c r="E20" t="n">
-        <v>0.272418</v>
+        <v>0.165598</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.273099</v>
       </c>
     </row>
     <row r="21">
@@ -4501,16 +4558,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09650019999999999</v>
+        <v>0.08725280000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.283725</v>
+        <v>0.260611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.164353</v>
+        <v>0.28198</v>
       </c>
       <c r="E21" t="n">
-        <v>0.27183</v>
+        <v>0.164773</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.273661</v>
       </c>
     </row>
     <row r="22">
@@ -4518,16 +4578,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0935063</v>
+        <v>0.0851123</v>
       </c>
       <c r="C22" t="n">
-        <v>0.285255</v>
+        <v>0.256067</v>
       </c>
       <c r="D22" t="n">
-        <v>0.162786</v>
+        <v>0.282387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.271934</v>
+        <v>0.164229</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.273272</v>
       </c>
     </row>
     <row r="23">
@@ -4535,16 +4598,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08906600000000001</v>
+        <v>0.08373029999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.286325</v>
+        <v>0.24915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.173798</v>
+        <v>0.283245</v>
       </c>
       <c r="E23" t="n">
-        <v>0.287184</v>
+        <v>0.175033</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.285161</v>
       </c>
     </row>
     <row r="24">
@@ -4552,16 +4618,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.149147</v>
+        <v>0.134488</v>
       </c>
       <c r="C24" t="n">
-        <v>0.286582</v>
+        <v>0.297365</v>
       </c>
       <c r="D24" t="n">
-        <v>0.172986</v>
+        <v>0.284556</v>
       </c>
       <c r="E24" t="n">
-        <v>0.286683</v>
+        <v>0.174247</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.28325</v>
       </c>
     </row>
     <row r="25">
@@ -4569,16 +4638,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.146894</v>
+        <v>0.132406</v>
       </c>
       <c r="C25" t="n">
-        <v>0.288986</v>
+        <v>0.298359</v>
       </c>
       <c r="D25" t="n">
-        <v>0.173268</v>
+        <v>0.286829</v>
       </c>
       <c r="E25" t="n">
-        <v>0.284554</v>
+        <v>0.173275</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.282283</v>
       </c>
     </row>
     <row r="26">
@@ -4586,16 +4658,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.14348</v>
+        <v>0.130043</v>
       </c>
       <c r="C26" t="n">
-        <v>0.288602</v>
+        <v>0.296565</v>
       </c>
       <c r="D26" t="n">
-        <v>0.171932</v>
+        <v>0.287076</v>
       </c>
       <c r="E26" t="n">
-        <v>0.281333</v>
+        <v>0.174478</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.280605</v>
       </c>
     </row>
     <row r="27">
@@ -4603,16 +4678,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.140933</v>
+        <v>0.127827</v>
       </c>
       <c r="C27" t="n">
-        <v>0.290856</v>
+        <v>0.293451</v>
       </c>
       <c r="D27" t="n">
-        <v>0.171311</v>
+        <v>0.288667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.283523</v>
+        <v>0.172825</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.282817</v>
       </c>
     </row>
     <row r="28">
@@ -4620,16 +4698,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.137126</v>
+        <v>0.125473</v>
       </c>
       <c r="C28" t="n">
-        <v>0.291399</v>
+        <v>0.288528</v>
       </c>
       <c r="D28" t="n">
-        <v>0.170001</v>
+        <v>0.290236</v>
       </c>
       <c r="E28" t="n">
-        <v>0.278159</v>
+        <v>0.169913</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.281153</v>
       </c>
     </row>
     <row r="29">
@@ -4637,16 +4718,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.133525</v>
+        <v>0.122005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.293073</v>
+        <v>0.289345</v>
       </c>
       <c r="D29" t="n">
-        <v>0.169083</v>
+        <v>0.290566</v>
       </c>
       <c r="E29" t="n">
-        <v>0.278311</v>
+        <v>0.169652</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.280679</v>
       </c>
     </row>
     <row r="30">
@@ -4654,16 +4738,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.128629</v>
+        <v>0.118518</v>
       </c>
       <c r="C30" t="n">
-        <v>0.294817</v>
+        <v>0.285859</v>
       </c>
       <c r="D30" t="n">
-        <v>0.168839</v>
+        <v>0.293211</v>
       </c>
       <c r="E30" t="n">
-        <v>0.27816</v>
+        <v>0.16915</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.278268</v>
       </c>
     </row>
     <row r="31">
@@ -4671,16 +4758,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.124152</v>
+        <v>0.114086</v>
       </c>
       <c r="C31" t="n">
-        <v>0.295412</v>
+        <v>0.283034</v>
       </c>
       <c r="D31" t="n">
-        <v>0.16836</v>
+        <v>0.293407</v>
       </c>
       <c r="E31" t="n">
-        <v>0.278814</v>
+        <v>0.168106</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.278707</v>
       </c>
     </row>
     <row r="32">
@@ -4688,16 +4778,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.119255</v>
+        <v>0.110181</v>
       </c>
       <c r="C32" t="n">
-        <v>0.296199</v>
+        <v>0.279158</v>
       </c>
       <c r="D32" t="n">
-        <v>0.168222</v>
+        <v>0.294814</v>
       </c>
       <c r="E32" t="n">
-        <v>0.27803</v>
+        <v>0.168276</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.275385</v>
       </c>
     </row>
     <row r="33">
@@ -4705,16 +4798,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11432</v>
+        <v>0.106866</v>
       </c>
       <c r="C33" t="n">
-        <v>0.296843</v>
+        <v>0.275987</v>
       </c>
       <c r="D33" t="n">
-        <v>0.166776</v>
+        <v>0.294888</v>
       </c>
       <c r="E33" t="n">
-        <v>0.274659</v>
+        <v>0.166921</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.276121</v>
       </c>
     </row>
     <row r="34">
@@ -4722,16 +4818,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.109619</v>
+        <v>0.10255</v>
       </c>
       <c r="C34" t="n">
-        <v>0.298285</v>
+        <v>0.270924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.16654</v>
+        <v>0.297346</v>
       </c>
       <c r="E34" t="n">
-        <v>0.276276</v>
+        <v>0.16653</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.275086</v>
       </c>
     </row>
     <row r="35">
@@ -4739,16 +4838,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.104986</v>
+        <v>0.0978884</v>
       </c>
       <c r="C35" t="n">
-        <v>0.285971</v>
+        <v>0.267203</v>
       </c>
       <c r="D35" t="n">
-        <v>0.165731</v>
+        <v>0.285223</v>
       </c>
       <c r="E35" t="n">
-        <v>0.272661</v>
+        <v>0.165974</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.276294</v>
       </c>
     </row>
     <row r="36">
@@ -4756,16 +4858,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.100645</v>
+        <v>0.0935998</v>
       </c>
       <c r="C36" t="n">
-        <v>0.287599</v>
+        <v>0.258865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.165484</v>
+        <v>0.286355</v>
       </c>
       <c r="E36" t="n">
-        <v>0.273343</v>
+        <v>0.165333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.275898</v>
       </c>
     </row>
     <row r="37">
@@ -4773,16 +4878,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0958278</v>
+        <v>0.08960170000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.288311</v>
+        <v>0.256412</v>
       </c>
       <c r="D37" t="n">
-        <v>0.180807</v>
+        <v>0.287806</v>
       </c>
       <c r="E37" t="n">
-        <v>0.287122</v>
+        <v>0.181464</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.289192</v>
       </c>
     </row>
     <row r="38">
@@ -4790,16 +4898,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.158689</v>
+        <v>0.15391</v>
       </c>
       <c r="C38" t="n">
-        <v>0.289181</v>
+        <v>0.304815</v>
       </c>
       <c r="D38" t="n">
-        <v>0.180362</v>
+        <v>0.288018</v>
       </c>
       <c r="E38" t="n">
-        <v>0.286522</v>
+        <v>0.179231</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.2849</v>
       </c>
     </row>
     <row r="39">
@@ -4807,16 +4918,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.156574</v>
+        <v>0.151799</v>
       </c>
       <c r="C39" t="n">
-        <v>0.290122</v>
+        <v>0.303194</v>
       </c>
       <c r="D39" t="n">
-        <v>0.17977</v>
+        <v>0.289125</v>
       </c>
       <c r="E39" t="n">
-        <v>0.287288</v>
+        <v>0.178574</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.284513</v>
       </c>
     </row>
     <row r="40">
@@ -4824,16 +4938,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.153583</v>
+        <v>0.148131</v>
       </c>
       <c r="C40" t="n">
-        <v>0.291598</v>
+        <v>0.301362</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178113</v>
+        <v>0.290745</v>
       </c>
       <c r="E40" t="n">
-        <v>0.284593</v>
+        <v>0.178001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.284264</v>
       </c>
     </row>
     <row r="41">
@@ -4841,16 +4958,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.149461</v>
+        <v>0.144656</v>
       </c>
       <c r="C41" t="n">
-        <v>0.292933</v>
+        <v>0.298285</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1765</v>
+        <v>0.292037</v>
       </c>
       <c r="E41" t="n">
-        <v>0.281281</v>
+        <v>0.177166</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.283594</v>
       </c>
     </row>
     <row r="42">
@@ -4858,16 +4978,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.14568</v>
+        <v>0.140669</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294343</v>
+        <v>0.296708</v>
       </c>
       <c r="D42" t="n">
-        <v>0.175687</v>
+        <v>0.293068</v>
       </c>
       <c r="E42" t="n">
-        <v>0.282625</v>
+        <v>0.175178</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.280455</v>
       </c>
     </row>
     <row r="43">
@@ -4875,16 +4998,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.140803</v>
+        <v>0.136417</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2956</v>
+        <v>0.293441</v>
       </c>
       <c r="D43" t="n">
-        <v>0.174137</v>
+        <v>0.294774</v>
       </c>
       <c r="E43" t="n">
-        <v>0.282441</v>
+        <v>0.174396</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.281904</v>
       </c>
     </row>
     <row r="44">
@@ -4892,16 +5018,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.135969</v>
+        <v>0.132185</v>
       </c>
       <c r="C44" t="n">
-        <v>0.296545</v>
+        <v>0.291393</v>
       </c>
       <c r="D44" t="n">
-        <v>0.174152</v>
+        <v>0.29587</v>
       </c>
       <c r="E44" t="n">
-        <v>0.280488</v>
+        <v>0.173963</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.280034</v>
       </c>
     </row>
     <row r="45">
@@ -4909,16 +5038,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.13109</v>
+        <v>0.127325</v>
       </c>
       <c r="C45" t="n">
-        <v>0.297824</v>
+        <v>0.287344</v>
       </c>
       <c r="D45" t="n">
-        <v>0.173222</v>
+        <v>0.296951</v>
       </c>
       <c r="E45" t="n">
-        <v>0.281785</v>
+        <v>0.172565</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.278633</v>
       </c>
     </row>
     <row r="46">
@@ -4926,16 +5058,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126054</v>
+        <v>0.122541</v>
       </c>
       <c r="C46" t="n">
-        <v>0.298548</v>
+        <v>0.284356</v>
       </c>
       <c r="D46" t="n">
-        <v>0.171844</v>
+        <v>0.297603</v>
       </c>
       <c r="E46" t="n">
-        <v>0.282351</v>
+        <v>0.171865</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.279714</v>
       </c>
     </row>
     <row r="47">
@@ -4943,16 +5078,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.120886</v>
+        <v>0.118279</v>
       </c>
       <c r="C47" t="n">
-        <v>0.298944</v>
+        <v>0.280214</v>
       </c>
       <c r="D47" t="n">
-        <v>0.171172</v>
+        <v>0.298971</v>
       </c>
       <c r="E47" t="n">
-        <v>0.277242</v>
+        <v>0.171051</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.277304</v>
       </c>
     </row>
     <row r="48">
@@ -4960,16 +5098,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.11569</v>
+        <v>0.113613</v>
       </c>
       <c r="C48" t="n">
-        <v>0.298968</v>
+        <v>0.275881</v>
       </c>
       <c r="D48" t="n">
-        <v>0.170798</v>
+        <v>0.298488</v>
       </c>
       <c r="E48" t="n">
-        <v>0.279696</v>
+        <v>0.169414</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.27623</v>
       </c>
     </row>
     <row r="49">
@@ -4977,16 +5118,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.110541</v>
+        <v>0.10857</v>
       </c>
       <c r="C49" t="n">
-        <v>0.300847</v>
+        <v>0.271454</v>
       </c>
       <c r="D49" t="n">
-        <v>0.169128</v>
+        <v>0.299977</v>
       </c>
       <c r="E49" t="n">
-        <v>0.277074</v>
+        <v>0.168505</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.275342</v>
       </c>
     </row>
     <row r="50">
@@ -4994,16 +5138,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.105292</v>
+        <v>0.103274</v>
       </c>
       <c r="C50" t="n">
-        <v>0.289053</v>
+        <v>0.266312</v>
       </c>
       <c r="D50" t="n">
-        <v>0.168205</v>
+        <v>0.28946</v>
       </c>
       <c r="E50" t="n">
-        <v>0.273657</v>
+        <v>0.16746</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.274634</v>
       </c>
     </row>
     <row r="51">
@@ -5011,16 +5158,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.100007</v>
+        <v>0.0980683</v>
       </c>
       <c r="C51" t="n">
-        <v>0.290167</v>
+        <v>0.25951</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184988</v>
+        <v>0.290376</v>
       </c>
       <c r="E51" t="n">
-        <v>0.289367</v>
+        <v>0.184627</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.290091</v>
       </c>
     </row>
     <row r="52">
@@ -5028,16 +5178,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0948777</v>
+        <v>0.0927531</v>
       </c>
       <c r="C52" t="n">
-        <v>0.29078</v>
+        <v>0.249836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.183534</v>
+        <v>0.291307</v>
       </c>
       <c r="E52" t="n">
-        <v>0.288415</v>
+        <v>0.183181</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.288727</v>
       </c>
     </row>
     <row r="53">
@@ -5045,16 +5198,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161991</v>
+        <v>0.159514</v>
       </c>
       <c r="C53" t="n">
-        <v>0.291648</v>
+        <v>0.305655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.182149</v>
+        <v>0.292621</v>
       </c>
       <c r="E53" t="n">
-        <v>0.290896</v>
+        <v>0.181922</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.286622</v>
       </c>
     </row>
     <row r="54">
@@ -5062,16 +5218,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158351</v>
+        <v>0.156038</v>
       </c>
       <c r="C54" t="n">
-        <v>0.293035</v>
+        <v>0.301931</v>
       </c>
       <c r="D54" t="n">
-        <v>0.180616</v>
+        <v>0.293748</v>
       </c>
       <c r="E54" t="n">
-        <v>0.28521</v>
+        <v>0.180825</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.286518</v>
       </c>
     </row>
     <row r="55">
@@ -5079,16 +5238,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.15418</v>
+        <v>0.151399</v>
       </c>
       <c r="C55" t="n">
-        <v>0.294835</v>
+        <v>0.300413</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179576</v>
+        <v>0.295296</v>
       </c>
       <c r="E55" t="n">
-        <v>0.281968</v>
+        <v>0.179093</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.285913</v>
       </c>
     </row>
     <row r="56">
@@ -5096,16 +5258,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.149336</v>
+        <v>0.147165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.295902</v>
+        <v>0.298428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.17813</v>
+        <v>0.296325</v>
       </c>
       <c r="E56" t="n">
-        <v>0.28233</v>
+        <v>0.178145</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.284507</v>
       </c>
     </row>
     <row r="57">
@@ -5113,16 +5278,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.144759</v>
+        <v>0.142512</v>
       </c>
       <c r="C57" t="n">
-        <v>0.297436</v>
+        <v>0.294827</v>
       </c>
       <c r="D57" t="n">
-        <v>0.177071</v>
+        <v>0.297597</v>
       </c>
       <c r="E57" t="n">
-        <v>0.281572</v>
+        <v>0.177046</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.28237</v>
       </c>
     </row>
     <row r="58">
@@ -5130,16 +5298,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13942</v>
+        <v>0.137486</v>
       </c>
       <c r="C58" t="n">
-        <v>0.298589</v>
+        <v>0.291714</v>
       </c>
       <c r="D58" t="n">
-        <v>0.176001</v>
+        <v>0.298761</v>
       </c>
       <c r="E58" t="n">
-        <v>0.284572</v>
+        <v>0.175773</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.282127</v>
       </c>
     </row>
     <row r="59">
@@ -5147,16 +5318,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134492</v>
+        <v>0.132623</v>
       </c>
       <c r="C59" t="n">
-        <v>0.300554</v>
+        <v>0.288607</v>
       </c>
       <c r="D59" t="n">
-        <v>0.175144</v>
+        <v>0.300301</v>
       </c>
       <c r="E59" t="n">
-        <v>0.281733</v>
+        <v>0.175078</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.282337</v>
       </c>
     </row>
     <row r="60">
@@ -5164,16 +5338,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.129077</v>
+        <v>0.127787</v>
       </c>
       <c r="C60" t="n">
-        <v>0.300882</v>
+        <v>0.28657</v>
       </c>
       <c r="D60" t="n">
-        <v>0.173992</v>
+        <v>0.300086</v>
       </c>
       <c r="E60" t="n">
-        <v>0.281802</v>
+        <v>0.173644</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.279444</v>
       </c>
     </row>
     <row r="61">
@@ -5181,16 +5358,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.12409</v>
+        <v>0.12301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.302226</v>
+        <v>0.282192</v>
       </c>
       <c r="D61" t="n">
-        <v>0.172628</v>
+        <v>0.302415</v>
       </c>
       <c r="E61" t="n">
-        <v>0.276494</v>
+        <v>0.172379</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.2777</v>
       </c>
     </row>
     <row r="62">
@@ -5198,16 +5378,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118812</v>
+        <v>0.117911</v>
       </c>
       <c r="C62" t="n">
-        <v>0.303139</v>
+        <v>0.27791</v>
       </c>
       <c r="D62" t="n">
-        <v>0.17171</v>
+        <v>0.303061</v>
       </c>
       <c r="E62" t="n">
-        <v>0.274984</v>
+        <v>0.171449</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.277013</v>
       </c>
     </row>
     <row r="63">
@@ -5215,16 +5398,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113873</v>
+        <v>0.113134</v>
       </c>
       <c r="C63" t="n">
-        <v>0.304148</v>
+        <v>0.273294</v>
       </c>
       <c r="D63" t="n">
-        <v>0.170627</v>
+        <v>0.303255</v>
       </c>
       <c r="E63" t="n">
-        <v>0.275157</v>
+        <v>0.17024</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.279796</v>
       </c>
     </row>
     <row r="64">
@@ -5232,16 +5418,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108645</v>
+        <v>0.108005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.295737</v>
+        <v>0.267814</v>
       </c>
       <c r="D64" t="n">
-        <v>0.169362</v>
+        <v>0.295874</v>
       </c>
       <c r="E64" t="n">
-        <v>0.277046</v>
+        <v>0.169035</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.27529</v>
       </c>
     </row>
     <row r="65">
@@ -5249,16 +5438,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103249</v>
+        <v>0.103065</v>
       </c>
       <c r="C65" t="n">
-        <v>0.297527</v>
+        <v>0.260632</v>
       </c>
       <c r="D65" t="n">
-        <v>0.168086</v>
+        <v>0.297486</v>
       </c>
       <c r="E65" t="n">
-        <v>0.274636</v>
+        <v>0.167758</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.275196</v>
       </c>
     </row>
     <row r="66">
@@ -5266,16 +5458,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0981061</v>
+        <v>0.09781430000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.29865</v>
+        <v>0.256301</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185222</v>
+        <v>0.29946</v>
       </c>
       <c r="E66" t="n">
-        <v>0.289604</v>
+        <v>0.185018</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.289758</v>
       </c>
     </row>
     <row r="67">
@@ -5283,16 +5478,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163734</v>
+        <v>0.163595</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30144</v>
+        <v>0.306158</v>
       </c>
       <c r="D67" t="n">
-        <v>0.183715</v>
+        <v>0.301633</v>
       </c>
       <c r="E67" t="n">
-        <v>0.286421</v>
+        <v>0.183673</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.288223</v>
       </c>
     </row>
     <row r="68">
@@ -5300,16 +5498,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159985</v>
+        <v>0.159557</v>
       </c>
       <c r="C68" t="n">
-        <v>0.302917</v>
+        <v>0.304921</v>
       </c>
       <c r="D68" t="n">
-        <v>0.182524</v>
+        <v>0.302913</v>
       </c>
       <c r="E68" t="n">
-        <v>0.28622</v>
+        <v>0.182314</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.287296</v>
       </c>
     </row>
     <row r="69">
@@ -5317,16 +5518,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155756</v>
+        <v>0.15551</v>
       </c>
       <c r="C69" t="n">
-        <v>0.305202</v>
+        <v>0.300973</v>
       </c>
       <c r="D69" t="n">
-        <v>0.180964</v>
+        <v>0.305415</v>
       </c>
       <c r="E69" t="n">
-        <v>0.285784</v>
+        <v>0.180951</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.285677</v>
       </c>
     </row>
     <row r="70">
@@ -5334,16 +5538,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.15125</v>
+        <v>0.150826</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30723</v>
+        <v>0.299945</v>
       </c>
       <c r="D70" t="n">
-        <v>0.179754</v>
+        <v>0.307068</v>
       </c>
       <c r="E70" t="n">
-        <v>0.285032</v>
+        <v>0.17974</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.285075</v>
       </c>
     </row>
     <row r="71">
@@ -5351,16 +5558,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146328</v>
+        <v>0.145905</v>
       </c>
       <c r="C71" t="n">
-        <v>0.309103</v>
+        <v>0.298131</v>
       </c>
       <c r="D71" t="n">
-        <v>0.178462</v>
+        <v>0.30936</v>
       </c>
       <c r="E71" t="n">
-        <v>0.283173</v>
+        <v>0.178421</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.284324</v>
       </c>
     </row>
     <row r="72">
@@ -5368,16 +5578,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141354</v>
+        <v>0.141234</v>
       </c>
       <c r="C72" t="n">
-        <v>0.31171</v>
+        <v>0.294592</v>
       </c>
       <c r="D72" t="n">
-        <v>0.177279</v>
+        <v>0.311371</v>
       </c>
       <c r="E72" t="n">
-        <v>0.281461</v>
+        <v>0.177335</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.281435</v>
       </c>
     </row>
     <row r="73">
@@ -5385,16 +5598,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.13629</v>
+        <v>0.136278</v>
       </c>
       <c r="C73" t="n">
-        <v>0.314652</v>
+        <v>0.292087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.176129</v>
+        <v>0.314315</v>
       </c>
       <c r="E73" t="n">
-        <v>0.279677</v>
+        <v>0.176087</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.282247</v>
       </c>
     </row>
     <row r="74">
@@ -5402,16 +5618,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.13112</v>
+        <v>0.131257</v>
       </c>
       <c r="C74" t="n">
-        <v>0.317152</v>
+        <v>0.287691</v>
       </c>
       <c r="D74" t="n">
-        <v>0.174884</v>
+        <v>0.320061</v>
       </c>
       <c r="E74" t="n">
-        <v>0.278626</v>
+        <v>0.174867</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.281682</v>
       </c>
     </row>
     <row r="75">
@@ -5419,16 +5638,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125873</v>
+        <v>0.126155</v>
       </c>
       <c r="C75" t="n">
-        <v>0.319492</v>
+        <v>0.283942</v>
       </c>
       <c r="D75" t="n">
-        <v>0.173814</v>
+        <v>0.321526</v>
       </c>
       <c r="E75" t="n">
-        <v>0.27779</v>
+        <v>0.173667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.277307</v>
       </c>
     </row>
     <row r="76">
@@ -5436,16 +5658,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.12083</v>
+        <v>0.121062</v>
       </c>
       <c r="C76" t="n">
-        <v>0.321314</v>
+        <v>0.280603</v>
       </c>
       <c r="D76" t="n">
-        <v>0.17262</v>
+        <v>0.322183</v>
       </c>
       <c r="E76" t="n">
-        <v>0.278852</v>
+        <v>0.172548</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.278754</v>
       </c>
     </row>
     <row r="77">
@@ -5453,16 +5678,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115667</v>
+        <v>0.115773</v>
       </c>
       <c r="C77" t="n">
-        <v>0.322579</v>
+        <v>0.275767</v>
       </c>
       <c r="D77" t="n">
-        <v>0.171439</v>
+        <v>0.323822</v>
       </c>
       <c r="E77" t="n">
-        <v>0.278435</v>
+        <v>0.171357</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.279751</v>
       </c>
     </row>
     <row r="78">
@@ -5470,16 +5698,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110544</v>
+        <v>0.110692</v>
       </c>
       <c r="C78" t="n">
-        <v>0.313725</v>
+        <v>0.27054</v>
       </c>
       <c r="D78" t="n">
-        <v>0.170256</v>
+        <v>0.314812</v>
       </c>
       <c r="E78" t="n">
-        <v>0.275028</v>
+        <v>0.170048</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.279047</v>
       </c>
     </row>
     <row r="79">
@@ -5487,16 +5718,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105336</v>
+        <v>0.105722</v>
       </c>
       <c r="C79" t="n">
-        <v>0.314481</v>
+        <v>0.266421</v>
       </c>
       <c r="D79" t="n">
-        <v>0.169108</v>
+        <v>0.31534</v>
       </c>
       <c r="E79" t="n">
-        <v>0.277117</v>
+        <v>0.168836</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.274087</v>
       </c>
     </row>
     <row r="80">
@@ -5504,16 +5738,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.10007</v>
+        <v>0.100574</v>
       </c>
       <c r="C80" t="n">
-        <v>0.315589</v>
+        <v>0.260589</v>
       </c>
       <c r="D80" t="n">
-        <v>0.18599</v>
+        <v>0.315943</v>
       </c>
       <c r="E80" t="n">
-        <v>0.291139</v>
+        <v>0.185827</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.290591</v>
       </c>
     </row>
     <row r="81">
@@ -5521,16 +5758,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164294</v>
+        <v>0.164814</v>
       </c>
       <c r="C81" t="n">
-        <v>0.316675</v>
+        <v>0.309801</v>
       </c>
       <c r="D81" t="n">
-        <v>0.184351</v>
+        <v>0.31686</v>
       </c>
       <c r="E81" t="n">
-        <v>0.289888</v>
+        <v>0.184237</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.290699</v>
       </c>
     </row>
     <row r="82">
@@ -5538,16 +5778,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160615</v>
+        <v>0.160904</v>
       </c>
       <c r="C82" t="n">
-        <v>0.317806</v>
+        <v>0.307247</v>
       </c>
       <c r="D82" t="n">
-        <v>0.182923</v>
+        <v>0.317609</v>
       </c>
       <c r="E82" t="n">
-        <v>0.291795</v>
+        <v>0.18282</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.288441</v>
       </c>
     </row>
     <row r="83">
@@ -5555,16 +5798,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156309</v>
+        <v>0.156706</v>
       </c>
       <c r="C83" t="n">
-        <v>0.318344</v>
+        <v>0.304755</v>
       </c>
       <c r="D83" t="n">
-        <v>0.181611</v>
+        <v>0.318699</v>
       </c>
       <c r="E83" t="n">
-        <v>0.287367</v>
+        <v>0.181483</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.287739</v>
       </c>
     </row>
     <row r="84">
@@ -5572,16 +5818,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152015</v>
+        <v>0.151922</v>
       </c>
       <c r="C84" t="n">
-        <v>0.320201</v>
+        <v>0.302489</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1802</v>
+        <v>0.320439</v>
       </c>
       <c r="E84" t="n">
-        <v>0.284601</v>
+        <v>0.180216</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.284856</v>
       </c>
     </row>
     <row r="85">
@@ -5589,16 +5838,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14699</v>
+        <v>0.147308</v>
       </c>
       <c r="C85" t="n">
-        <v>0.322203</v>
+        <v>0.299031</v>
       </c>
       <c r="D85" t="n">
-        <v>0.179052</v>
+        <v>0.321974</v>
       </c>
       <c r="E85" t="n">
-        <v>0.284527</v>
+        <v>0.178753</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.286225</v>
       </c>
     </row>
     <row r="86">
@@ -5606,16 +5858,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.141976</v>
+        <v>0.142268</v>
       </c>
       <c r="C86" t="n">
-        <v>0.324063</v>
+        <v>0.295542</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177739</v>
+        <v>0.324592</v>
       </c>
       <c r="E86" t="n">
-        <v>0.28685</v>
+        <v>0.177679</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.284538</v>
       </c>
     </row>
     <row r="87">
@@ -5623,16 +5878,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136789</v>
+        <v>0.137122</v>
       </c>
       <c r="C87" t="n">
-        <v>0.326571</v>
+        <v>0.291536</v>
       </c>
       <c r="D87" t="n">
-        <v>0.176647</v>
+        <v>0.326348</v>
       </c>
       <c r="E87" t="n">
-        <v>0.282586</v>
+        <v>0.176539</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.282894</v>
       </c>
     </row>
     <row r="88">
@@ -5640,16 +5898,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131642</v>
+        <v>0.132025</v>
       </c>
       <c r="C88" t="n">
-        <v>0.329052</v>
+        <v>0.288011</v>
       </c>
       <c r="D88" t="n">
-        <v>0.175462</v>
+        <v>0.328202</v>
       </c>
       <c r="E88" t="n">
-        <v>0.283319</v>
+        <v>0.175268</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.281171</v>
       </c>
     </row>
     <row r="89">
@@ -5657,16 +5918,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126656</v>
+        <v>0.126834</v>
       </c>
       <c r="C89" t="n">
-        <v>0.330435</v>
+        <v>0.283989</v>
       </c>
       <c r="D89" t="n">
-        <v>0.17428</v>
+        <v>0.333147</v>
       </c>
       <c r="E89" t="n">
-        <v>0.28205</v>
+        <v>0.17409</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.281775</v>
       </c>
     </row>
     <row r="90">
@@ -5674,16 +5938,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121462</v>
+        <v>0.121552</v>
       </c>
       <c r="C90" t="n">
-        <v>0.331776</v>
+        <v>0.280396</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173012</v>
+        <v>0.334466</v>
       </c>
       <c r="E90" t="n">
-        <v>0.278764</v>
+        <v>0.172907</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.280285</v>
       </c>
     </row>
     <row r="91">
@@ -5691,16 +5958,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116351</v>
+        <v>0.116344</v>
       </c>
       <c r="C91" t="n">
-        <v>0.333373</v>
+        <v>0.275083</v>
       </c>
       <c r="D91" t="n">
-        <v>0.171824</v>
+        <v>0.33423</v>
       </c>
       <c r="E91" t="n">
-        <v>0.278736</v>
+        <v>0.171727</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.280648</v>
       </c>
     </row>
     <row r="92">
@@ -5708,16 +5978,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111159</v>
+        <v>0.111209</v>
       </c>
       <c r="C92" t="n">
-        <v>0.30164</v>
+        <v>0.271053</v>
       </c>
       <c r="D92" t="n">
-        <v>0.170587</v>
+        <v>0.302543</v>
       </c>
       <c r="E92" t="n">
-        <v>0.279284</v>
+        <v>0.170519</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.278559</v>
       </c>
     </row>
     <row r="93">
@@ -5725,16 +5998,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.105975</v>
+        <v>0.106038</v>
       </c>
       <c r="C93" t="n">
-        <v>0.30323</v>
+        <v>0.265237</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169371</v>
+        <v>0.303968</v>
       </c>
       <c r="E93" t="n">
-        <v>0.276356</v>
+        <v>0.169275</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.277253</v>
       </c>
     </row>
     <row r="94">
@@ -5742,16 +6018,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100889</v>
+        <v>0.100816</v>
       </c>
       <c r="C94" t="n">
-        <v>0.304698</v>
+        <v>0.258964</v>
       </c>
       <c r="D94" t="n">
-        <v>0.186409</v>
+        <v>0.305338</v>
       </c>
       <c r="E94" t="n">
-        <v>0.292813</v>
+        <v>0.186295</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.29197</v>
       </c>
     </row>
     <row r="95">
@@ -5759,16 +6038,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.166076</v>
+        <v>0.165855</v>
       </c>
       <c r="C95" t="n">
-        <v>0.305912</v>
+        <v>0.319587</v>
       </c>
       <c r="D95" t="n">
-        <v>0.184936</v>
+        <v>0.307073</v>
       </c>
       <c r="E95" t="n">
-        <v>0.28974</v>
+        <v>0.184711</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.289567</v>
       </c>
     </row>
     <row r="96">
@@ -5776,16 +6058,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162068</v>
+        <v>0.162079</v>
       </c>
       <c r="C96" t="n">
-        <v>0.307306</v>
+        <v>0.31677</v>
       </c>
       <c r="D96" t="n">
-        <v>0.183489</v>
+        <v>0.308256</v>
       </c>
       <c r="E96" t="n">
-        <v>0.288657</v>
+        <v>0.183424</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.288759</v>
       </c>
     </row>
     <row r="97">
@@ -5793,16 +6078,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157781</v>
+        <v>0.15778</v>
       </c>
       <c r="C97" t="n">
-        <v>0.309409</v>
+        <v>0.31598</v>
       </c>
       <c r="D97" t="n">
-        <v>0.182093</v>
+        <v>0.311471</v>
       </c>
       <c r="E97" t="n">
-        <v>0.287745</v>
+        <v>0.181942</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.286626</v>
       </c>
     </row>
     <row r="98">
@@ -5810,16 +6098,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153244</v>
+        <v>0.153062</v>
       </c>
       <c r="C98" t="n">
-        <v>0.311452</v>
+        <v>0.312642</v>
       </c>
       <c r="D98" t="n">
-        <v>0.18071</v>
+        <v>0.313322</v>
       </c>
       <c r="E98" t="n">
-        <v>0.288517</v>
+        <v>0.180534</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.286391</v>
       </c>
     </row>
     <row r="99">
@@ -5827,16 +6118,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.147986</v>
+        <v>0.148336</v>
       </c>
       <c r="C99" t="n">
-        <v>0.313515</v>
+        <v>0.308436</v>
       </c>
       <c r="D99" t="n">
-        <v>0.179534</v>
+        <v>0.315965</v>
       </c>
       <c r="E99" t="n">
-        <v>0.285634</v>
+        <v>0.179239</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.285307</v>
       </c>
     </row>
     <row r="100">
@@ -5844,16 +6138,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143215</v>
+        <v>0.143467</v>
       </c>
       <c r="C100" t="n">
-        <v>0.316109</v>
+        <v>0.304872</v>
       </c>
       <c r="D100" t="n">
-        <v>0.178063</v>
+        <v>0.318797</v>
       </c>
       <c r="E100" t="n">
-        <v>0.285174</v>
+        <v>0.177942</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.28443</v>
       </c>
     </row>
     <row r="101">
@@ -5861,16 +6158,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137949</v>
+        <v>0.138041</v>
       </c>
       <c r="C101" t="n">
-        <v>0.318521</v>
+        <v>0.303658</v>
       </c>
       <c r="D101" t="n">
-        <v>0.176673</v>
+        <v>0.321298</v>
       </c>
       <c r="E101" t="n">
-        <v>0.28239</v>
+        <v>0.176667</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.283269</v>
       </c>
     </row>
     <row r="102">
@@ -5878,16 +6178,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.13299</v>
+        <v>0.132879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3211</v>
+        <v>0.29944</v>
       </c>
       <c r="D102" t="n">
-        <v>0.175726</v>
+        <v>0.322718</v>
       </c>
       <c r="E102" t="n">
-        <v>0.281254</v>
+        <v>0.175621</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.281246</v>
       </c>
     </row>
     <row r="103">
@@ -5895,16 +6198,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127759</v>
+        <v>0.127732</v>
       </c>
       <c r="C103" t="n">
-        <v>0.323607</v>
+        <v>0.295835</v>
       </c>
       <c r="D103" t="n">
-        <v>0.174413</v>
+        <v>0.327196</v>
       </c>
       <c r="E103" t="n">
-        <v>0.279211</v>
+        <v>0.174149</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.27999</v>
       </c>
     </row>
     <row r="104">
@@ -5912,16 +6218,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122501</v>
+        <v>0.122533</v>
       </c>
       <c r="C104" t="n">
-        <v>0.324187</v>
+        <v>0.291125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.173321</v>
+        <v>0.327531</v>
       </c>
       <c r="E104" t="n">
-        <v>0.280682</v>
+        <v>0.173142</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.27826</v>
       </c>
     </row>
     <row r="105">
@@ -5929,16 +6238,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117374</v>
+        <v>0.117464</v>
       </c>
       <c r="C105" t="n">
-        <v>0.325802</v>
+        <v>0.285548</v>
       </c>
       <c r="D105" t="n">
-        <v>0.172106</v>
+        <v>0.329042</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2796</v>
+        <v>0.171962</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.279463</v>
       </c>
     </row>
     <row r="106">
@@ -5946,16 +6258,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112273</v>
+        <v>0.11229</v>
       </c>
       <c r="C106" t="n">
-        <v>0.326909</v>
+        <v>0.280836</v>
       </c>
       <c r="D106" t="n">
-        <v>0.170843</v>
+        <v>0.328909</v>
       </c>
       <c r="E106" t="n">
-        <v>0.277142</v>
+        <v>0.170803</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.278708</v>
       </c>
     </row>
     <row r="107">
@@ -5963,16 +6278,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107036</v>
+        <v>0.107156</v>
       </c>
       <c r="C107" t="n">
-        <v>0.302421</v>
+        <v>0.275851</v>
       </c>
       <c r="D107" t="n">
-        <v>0.169642</v>
+        <v>0.304179</v>
       </c>
       <c r="E107" t="n">
-        <v>0.275204</v>
+        <v>0.169556</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.278578</v>
       </c>
     </row>
     <row r="108">
@@ -5980,16 +6298,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101823</v>
+        <v>0.101889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.304406</v>
+        <v>0.268866</v>
       </c>
       <c r="D108" t="n">
-        <v>0.18684</v>
+        <v>0.306166</v>
       </c>
       <c r="E108" t="n">
-        <v>0.292339</v>
+        <v>0.186743</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.292035</v>
       </c>
     </row>
     <row r="109">
@@ -5997,16 +6318,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966447</v>
+        <v>0.0966883</v>
       </c>
       <c r="C109" t="n">
-        <v>0.305979</v>
+        <v>0.26347</v>
       </c>
       <c r="D109" t="n">
-        <v>0.185316</v>
+        <v>0.307425</v>
       </c>
       <c r="E109" t="n">
-        <v>0.291693</v>
+        <v>0.185268</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.290363</v>
       </c>
     </row>
     <row r="110">
@@ -6014,16 +6338,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.163155</v>
+        <v>0.162925</v>
       </c>
       <c r="C110" t="n">
-        <v>0.306786</v>
+        <v>0.31168</v>
       </c>
       <c r="D110" t="n">
-        <v>0.183792</v>
+        <v>0.308923</v>
       </c>
       <c r="E110" t="n">
-        <v>0.288512</v>
+        <v>0.183687</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.289586</v>
       </c>
     </row>
     <row r="111">
@@ -6031,16 +6358,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.159125</v>
+        <v>0.158827</v>
       </c>
       <c r="C111" t="n">
-        <v>0.308805</v>
+        <v>0.308969</v>
       </c>
       <c r="D111" t="n">
-        <v>0.182298</v>
+        <v>0.311076</v>
       </c>
       <c r="E111" t="n">
-        <v>0.289475</v>
+        <v>0.182276</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.287746</v>
       </c>
     </row>
     <row r="112">
@@ -6048,16 +6378,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154302</v>
+        <v>0.154158</v>
       </c>
       <c r="C112" t="n">
-        <v>0.310088</v>
+        <v>0.30641</v>
       </c>
       <c r="D112" t="n">
-        <v>0.180991</v>
+        <v>0.312607</v>
       </c>
       <c r="E112" t="n">
-        <v>0.287806</v>
+        <v>0.180935</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.286495</v>
       </c>
     </row>
     <row r="113">
@@ -6065,16 +6398,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149301</v>
+        <v>0.149356</v>
       </c>
       <c r="C113" t="n">
-        <v>0.31318</v>
+        <v>0.3032</v>
       </c>
       <c r="D113" t="n">
-        <v>0.179697</v>
+        <v>0.314755</v>
       </c>
       <c r="E113" t="n">
-        <v>0.284298</v>
+        <v>0.179684</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.284986</v>
       </c>
     </row>
     <row r="114">
@@ -6082,16 +6418,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144453</v>
+        <v>0.14442</v>
       </c>
       <c r="C114" t="n">
-        <v>0.315206</v>
+        <v>0.299322</v>
       </c>
       <c r="D114" t="n">
-        <v>0.178351</v>
+        <v>0.318474</v>
       </c>
       <c r="E114" t="n">
-        <v>0.282789</v>
+        <v>0.178297</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.284239</v>
       </c>
     </row>
     <row r="115">
@@ -6099,16 +6438,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139128</v>
+        <v>0.139278</v>
       </c>
       <c r="C115" t="n">
-        <v>0.317848</v>
+        <v>0.296605</v>
       </c>
       <c r="D115" t="n">
-        <v>0.17713</v>
+        <v>0.321867</v>
       </c>
       <c r="E115" t="n">
-        <v>0.284713</v>
+        <v>0.177047</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.284985</v>
       </c>
     </row>
     <row r="116">
@@ -6116,16 +6458,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133767</v>
+        <v>0.134122</v>
       </c>
       <c r="C116" t="n">
-        <v>0.320502</v>
+        <v>0.292874</v>
       </c>
       <c r="D116" t="n">
-        <v>0.175907</v>
+        <v>0.323752</v>
       </c>
       <c r="E116" t="n">
-        <v>0.282033</v>
+        <v>0.175944</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.283852</v>
       </c>
     </row>
     <row r="117">
@@ -6133,16 +6478,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128658</v>
+        <v>0.128856</v>
       </c>
       <c r="C117" t="n">
-        <v>0.322977</v>
+        <v>0.288507</v>
       </c>
       <c r="D117" t="n">
-        <v>0.174724</v>
+        <v>0.326316</v>
       </c>
       <c r="E117" t="n">
-        <v>0.282291</v>
+        <v>0.174633</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.281381</v>
       </c>
     </row>
     <row r="118">
@@ -6150,16 +6498,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123497</v>
+        <v>0.123638</v>
       </c>
       <c r="C118" t="n">
-        <v>0.324291</v>
+        <v>0.284909</v>
       </c>
       <c r="D118" t="n">
-        <v>0.173545</v>
+        <v>0.327142</v>
       </c>
       <c r="E118" t="n">
-        <v>0.28208</v>
+        <v>0.173485</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.281374</v>
       </c>
     </row>
     <row r="119">
@@ -6167,16 +6518,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118358</v>
+        <v>0.11836</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325124</v>
+        <v>0.279656</v>
       </c>
       <c r="D119" t="n">
-        <v>0.172324</v>
+        <v>0.32829</v>
       </c>
       <c r="E119" t="n">
-        <v>0.278957</v>
+        <v>0.172214</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.280984</v>
       </c>
     </row>
     <row r="120">
@@ -6184,16 +6538,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113214</v>
+        <v>0.113365</v>
       </c>
       <c r="C120" t="n">
-        <v>0.326061</v>
+        <v>0.275023</v>
       </c>
       <c r="D120" t="n">
-        <v>0.171101</v>
+        <v>0.329068</v>
       </c>
       <c r="E120" t="n">
-        <v>0.280099</v>
+        <v>0.171105</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.27666</v>
       </c>
     </row>
     <row r="121">
@@ -6201,16 +6558,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108042</v>
+        <v>0.108207</v>
       </c>
       <c r="C121" t="n">
-        <v>0.30456</v>
+        <v>0.269623</v>
       </c>
       <c r="D121" t="n">
-        <v>0.169987</v>
+        <v>0.306465</v>
       </c>
       <c r="E121" t="n">
-        <v>0.276966</v>
+        <v>0.169854</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.277044</v>
       </c>
     </row>
     <row r="122">
@@ -6218,16 +6578,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102919</v>
+        <v>0.103</v>
       </c>
       <c r="C122" t="n">
-        <v>0.306023</v>
+        <v>0.263118</v>
       </c>
       <c r="D122" t="n">
-        <v>0.168768</v>
+        <v>0.308031</v>
       </c>
       <c r="E122" t="n">
-        <v>0.274019</v>
+        <v>0.168634</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.275756</v>
       </c>
     </row>
     <row r="123">
@@ -6235,16 +6598,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09779359999999999</v>
+        <v>0.0978511</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307399</v>
+        <v>0.256282</v>
       </c>
       <c r="D123" t="n">
-        <v>0.185596</v>
+        <v>0.30985</v>
       </c>
       <c r="E123" t="n">
-        <v>0.290432</v>
+        <v>0.185512</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.289964</v>
       </c>
     </row>
     <row r="124">
@@ -6252,16 +6618,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173503</v>
+        <v>0.173195</v>
       </c>
       <c r="C124" t="n">
-        <v>0.309014</v>
+        <v>0.30427</v>
       </c>
       <c r="D124" t="n">
-        <v>0.184065</v>
+        <v>0.311687</v>
       </c>
       <c r="E124" t="n">
-        <v>0.290378</v>
+        <v>0.184082</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.290174</v>
       </c>
     </row>
     <row r="125">
@@ -6269,16 +6638,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168542</v>
+        <v>0.168794</v>
       </c>
       <c r="C125" t="n">
-        <v>0.310339</v>
+        <v>0.302409</v>
       </c>
       <c r="D125" t="n">
-        <v>0.182651</v>
+        <v>0.313382</v>
       </c>
       <c r="E125" t="n">
-        <v>0.288721</v>
+        <v>0.182516</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.287955</v>
       </c>
     </row>
     <row r="126">
@@ -6286,16 +6658,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163753</v>
+        <v>0.16398</v>
       </c>
       <c r="C126" t="n">
-        <v>0.312055</v>
+        <v>0.299754</v>
       </c>
       <c r="D126" t="n">
-        <v>0.18132</v>
+        <v>0.314574</v>
       </c>
       <c r="E126" t="n">
-        <v>0.285553</v>
+        <v>0.181166</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.286603</v>
       </c>
     </row>
     <row r="127">
@@ -6303,16 +6678,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15878</v>
+        <v>0.158791</v>
       </c>
       <c r="C127" t="n">
-        <v>0.314107</v>
+        <v>0.296897</v>
       </c>
       <c r="D127" t="n">
-        <v>0.17993</v>
+        <v>0.317742</v>
       </c>
       <c r="E127" t="n">
-        <v>0.28866</v>
+        <v>0.179879</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.285538</v>
       </c>
     </row>
     <row r="128">
@@ -6320,16 +6698,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153081</v>
+        <v>0.153219</v>
       </c>
       <c r="C128" t="n">
-        <v>0.316839</v>
+        <v>0.294324</v>
       </c>
       <c r="D128" t="n">
-        <v>0.178716</v>
+        <v>0.3202</v>
       </c>
       <c r="E128" t="n">
-        <v>0.285268</v>
+        <v>0.178611</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.283572</v>
       </c>
     </row>
     <row r="129">
@@ -6337,16 +6718,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147672</v>
+        <v>0.147758</v>
       </c>
       <c r="C129" t="n">
-        <v>0.319506</v>
+        <v>0.290985</v>
       </c>
       <c r="D129" t="n">
-        <v>0.177453</v>
+        <v>0.323264</v>
       </c>
       <c r="E129" t="n">
-        <v>0.284488</v>
+        <v>0.17729</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.283421</v>
       </c>
     </row>
     <row r="130">
@@ -6354,16 +6738,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142068</v>
+        <v>0.142121</v>
       </c>
       <c r="C130" t="n">
-        <v>0.321522</v>
+        <v>0.28753</v>
       </c>
       <c r="D130" t="n">
-        <v>0.176134</v>
+        <v>0.325914</v>
       </c>
       <c r="E130" t="n">
-        <v>0.283134</v>
+        <v>0.176109</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.280971</v>
       </c>
     </row>
     <row r="131">
@@ -6371,16 +6758,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136456</v>
+        <v>0.13665</v>
       </c>
       <c r="C131" t="n">
-        <v>0.324432</v>
+        <v>0.284102</v>
       </c>
       <c r="D131" t="n">
-        <v>0.174917</v>
+        <v>0.328003</v>
       </c>
       <c r="E131" t="n">
-        <v>0.280487</v>
+        <v>0.174904</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.281467</v>
       </c>
     </row>
     <row r="132">
@@ -6388,16 +6778,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131255</v>
+        <v>0.131097</v>
       </c>
       <c r="C132" t="n">
-        <v>0.325661</v>
+        <v>0.280289</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173818</v>
+        <v>0.329733</v>
       </c>
       <c r="E132" t="n">
-        <v>0.279162</v>
+        <v>0.173673</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.279849</v>
       </c>
     </row>
     <row r="133">
@@ -6405,16 +6798,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125366</v>
+        <v>0.12595</v>
       </c>
       <c r="C133" t="n">
-        <v>0.326991</v>
+        <v>0.275503</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172615</v>
+        <v>0.330479</v>
       </c>
       <c r="E133" t="n">
-        <v>0.277417</v>
+        <v>0.172552</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.278843</v>
       </c>
     </row>
     <row r="134">
@@ -6422,16 +6818,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120158</v>
+        <v>0.120062</v>
       </c>
       <c r="C134" t="n">
-        <v>0.32837</v>
+        <v>0.271002</v>
       </c>
       <c r="D134" t="n">
-        <v>0.171297</v>
+        <v>0.331166</v>
       </c>
       <c r="E134" t="n">
-        <v>0.27707</v>
+        <v>0.171323</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.278676</v>
       </c>
     </row>
     <row r="135">
@@ -6439,16 +6838,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114791</v>
+        <v>0.114865</v>
       </c>
       <c r="C135" t="n">
-        <v>0.304643</v>
+        <v>0.266</v>
       </c>
       <c r="D135" t="n">
-        <v>0.170116</v>
+        <v>0.307026</v>
       </c>
       <c r="E135" t="n">
-        <v>0.277167</v>
+        <v>0.170102</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.278277</v>
       </c>
     </row>
     <row r="136">
@@ -6456,16 +6858,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10942</v>
+        <v>0.109555</v>
       </c>
       <c r="C136" t="n">
-        <v>0.306116</v>
+        <v>0.260399</v>
       </c>
       <c r="D136" t="n">
-        <v>0.168935</v>
+        <v>0.308749</v>
       </c>
       <c r="E136" t="n">
-        <v>0.277129</v>
+        <v>0.168823</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.276561</v>
       </c>
     </row>
     <row r="137">
@@ -6473,16 +6878,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104105</v>
+        <v>0.104097</v>
       </c>
       <c r="C137" t="n">
-        <v>0.307822</v>
+        <v>0.25356</v>
       </c>
       <c r="D137" t="n">
-        <v>0.195211</v>
+        <v>0.310046</v>
       </c>
       <c r="E137" t="n">
-        <v>0.297171</v>
+        <v>0.195013</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.296518</v>
       </c>
     </row>
     <row r="138">
@@ -6490,16 +6898,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174348</v>
+        <v>0.174467</v>
       </c>
       <c r="C138" t="n">
-        <v>0.309265</v>
+        <v>0.324499</v>
       </c>
       <c r="D138" t="n">
-        <v>0.193231</v>
+        <v>0.311876</v>
       </c>
       <c r="E138" t="n">
-        <v>0.29489</v>
+        <v>0.193133</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.294846</v>
       </c>
     </row>
     <row r="139">
@@ -6507,16 +6918,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170021</v>
+        <v>0.170065</v>
       </c>
       <c r="C139" t="n">
-        <v>0.310503</v>
+        <v>0.321887</v>
       </c>
       <c r="D139" t="n">
-        <v>0.191364</v>
+        <v>0.313373</v>
       </c>
       <c r="E139" t="n">
-        <v>0.293984</v>
+        <v>0.191306</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.294022</v>
       </c>
     </row>
     <row r="140">
@@ -6524,16 +6938,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165162</v>
+        <v>0.16517</v>
       </c>
       <c r="C140" t="n">
-        <v>0.312172</v>
+        <v>0.319604</v>
       </c>
       <c r="D140" t="n">
-        <v>0.189501</v>
+        <v>0.315029</v>
       </c>
       <c r="E140" t="n">
-        <v>0.29205</v>
+        <v>0.189557</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.291568</v>
       </c>
     </row>
     <row r="141">
@@ -6541,16 +6958,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159814</v>
+        <v>0.159844</v>
       </c>
       <c r="C141" t="n">
-        <v>0.314219</v>
+        <v>0.316942</v>
       </c>
       <c r="D141" t="n">
-        <v>0.187875</v>
+        <v>0.317296</v>
       </c>
       <c r="E141" t="n">
-        <v>0.290786</v>
+        <v>0.187982</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.290163</v>
       </c>
     </row>
     <row r="142">
@@ -6558,16 +6978,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154255</v>
+        <v>0.15442</v>
       </c>
       <c r="C142" t="n">
-        <v>0.316614</v>
+        <v>0.314727</v>
       </c>
       <c r="D142" t="n">
-        <v>0.186239</v>
+        <v>0.319885</v>
       </c>
       <c r="E142" t="n">
-        <v>0.287227</v>
+        <v>0.186316</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.289424</v>
       </c>
     </row>
     <row r="143">
@@ -6575,16 +6998,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148926</v>
+        <v>0.14899</v>
       </c>
       <c r="C143" t="n">
-        <v>0.319515</v>
+        <v>0.311731</v>
       </c>
       <c r="D143" t="n">
-        <v>0.184716</v>
+        <v>0.323228</v>
       </c>
       <c r="E143" t="n">
-        <v>0.289088</v>
+        <v>0.184616</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.287491</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0785698</v>
+                  <v>0.0677589</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.07801</v>
+                  <v>0.06758110000000001</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.076334</v>
+                  <v>0.0676784</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.07526380000000001</v>
+                  <v>0.0682445</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.075381</v>
+                  <v>0.0677416</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0733709</v>
+                  <v>0.0677524</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.07293719999999999</v>
+                  <v>0.0675046</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0715915</v>
+                  <v>0.0681952</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.126204</v>
+                  <v>0.100049</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.121989</v>
+                  <v>0.101033</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.121594</v>
+                  <v>0.100715</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.117472</v>
+                  <v>0.09980559999999999</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.117571</v>
+                  <v>0.09756919999999999</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.115645</v>
+                  <v>0.0963268</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.112146</v>
+                  <v>0.0951867</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.109733</v>
+                  <v>0.0929012</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.106337</v>
+                  <v>0.0921293</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.103632</v>
+                  <v>0.0899228</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0991889</v>
+                  <v>0.0888071</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0962592</v>
+                  <v>0.08725280000000001</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09309190000000001</v>
+                  <v>0.0851123</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0899575</v>
+                  <v>0.08373029999999999</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.150258</v>
+                  <v>0.134488</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.147224</v>
+                  <v>0.132406</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.14444</v>
+                  <v>0.130043</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.140705</v>
+                  <v>0.127827</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.137402</v>
+                  <v>0.125473</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.133721</v>
+                  <v>0.122005</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.128955</v>
+                  <v>0.118518</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.12512</v>
+                  <v>0.114086</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.120441</v>
+                  <v>0.110181</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.114693</v>
+                  <v>0.106866</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.109617</v>
+                  <v>0.10255</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.104777</v>
+                  <v>0.0978884</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.100498</v>
+                  <v>0.0935998</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.095885</v>
+                  <v>0.08960170000000001</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.159284</v>
+                  <v>0.15391</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.156717</v>
+                  <v>0.151799</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.153778</v>
+                  <v>0.148131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.149985</v>
+                  <v>0.144656</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.146067</v>
+                  <v>0.140669</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.14153</v>
+                  <v>0.136417</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.136851</v>
+                  <v>0.132185</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.131807</v>
+                  <v>0.127325</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.126538</v>
+                  <v>0.122541</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.121426</v>
+                  <v>0.118279</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.115851</v>
+                  <v>0.113613</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.110881</v>
+                  <v>0.10857</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.105341</v>
+                  <v>0.103274</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.100086</v>
+                  <v>0.0980683</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09492250000000001</v>
+                  <v>0.0927531</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.161765</v>
+                  <v>0.159514</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.157751</v>
+                  <v>0.156038</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.153367</v>
+                  <v>0.151399</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.149046</v>
+                  <v>0.147165</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.144183</v>
+                  <v>0.142512</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.139449</v>
+                  <v>0.137486</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.134172</v>
+                  <v>0.132623</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.129251</v>
+                  <v>0.127787</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.124021</v>
+                  <v>0.12301</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.118888</v>
+                  <v>0.117911</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.113656</v>
+                  <v>0.113134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.10868</v>
+                  <v>0.108005</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.103293</v>
+                  <v>0.103065</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09785820000000001</v>
+                  <v>0.09781430000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.163938</v>
+                  <v>0.163595</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.16019</v>
+                  <v>0.159557</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.156112</v>
+                  <v>0.15551</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.151234</v>
+                  <v>0.150826</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.1467</v>
+                  <v>0.145905</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.141537</v>
+                  <v>0.141234</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.136251</v>
+                  <v>0.136278</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.131385</v>
+                  <v>0.131257</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.125975</v>
+                  <v>0.126155</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.120806</v>
+                  <v>0.121062</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.115717</v>
+                  <v>0.115773</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.110491</v>
+                  <v>0.110692</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.105539</v>
+                  <v>0.105722</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.100332</v>
+                  <v>0.100574</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.164231</v>
+                  <v>0.164814</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.160433</v>
+                  <v>0.160904</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.156282</v>
+                  <v>0.156706</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.151513</v>
+                  <v>0.151922</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.146903</v>
+                  <v>0.147308</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.141991</v>
+                  <v>0.142268</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.136909</v>
+                  <v>0.137122</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.131753</v>
+                  <v>0.132025</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.126506</v>
+                  <v>0.126834</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.121357</v>
+                  <v>0.121552</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.116213</v>
+                  <v>0.116344</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.111081</v>
+                  <v>0.111209</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106023</v>
+                  <v>0.106038</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.100876</v>
+                  <v>0.100816</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.165616</v>
+                  <v>0.165855</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.161892</v>
+                  <v>0.162079</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.157627</v>
+                  <v>0.15778</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.153045</v>
+                  <v>0.153062</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.148124</v>
+                  <v>0.148336</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.143096</v>
+                  <v>0.143467</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.137765</v>
+                  <v>0.138041</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.132801</v>
+                  <v>0.132879</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.127657</v>
+                  <v>0.127732</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.12242</v>
+                  <v>0.122533</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.11725</v>
+                  <v>0.117464</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.112112</v>
+                  <v>0.11229</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10702</v>
+                  <v>0.107156</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.101872</v>
+                  <v>0.101889</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0966104</v>
+                  <v>0.0966883</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.163181</v>
+                  <v>0.162925</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.159031</v>
+                  <v>0.158827</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.154378</v>
+                  <v>0.154158</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.149186</v>
+                  <v>0.149356</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.144248</v>
+                  <v>0.14442</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.138994</v>
+                  <v>0.139278</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.13388</v>
+                  <v>0.134122</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.128563</v>
+                  <v>0.128856</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.123492</v>
+                  <v>0.123638</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.118464</v>
+                  <v>0.11836</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113129</v>
+                  <v>0.113365</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.108013</v>
+                  <v>0.108207</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.102901</v>
+                  <v>0.103</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0977628</v>
+                  <v>0.0978511</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.173028</v>
+                  <v>0.173195</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.168888</v>
+                  <v>0.168794</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.163702</v>
+                  <v>0.16398</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.158768</v>
+                  <v>0.158791</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.152967</v>
+                  <v>0.153219</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.147432</v>
+                  <v>0.147758</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.141975</v>
+                  <v>0.142121</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.13661</v>
+                  <v>0.13665</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.131002</v>
+                  <v>0.131097</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.125727</v>
+                  <v>0.12595</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.120213</v>
+                  <v>0.120062</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.114864</v>
+                  <v>0.114865</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.10935</v>
+                  <v>0.109555</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.103983</v>
+                  <v>0.104097</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.174103</v>
+                  <v>0.174467</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.16957</v>
+                  <v>0.170065</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.164907</v>
+                  <v>0.16517</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.159763</v>
+                  <v>0.159844</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.154327</v>
+                  <v>0.15442</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.148619</v>
+                  <v>0.14899</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.278661</v>
+                  <v>0.264414</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.281787</v>
+                  <v>0.264292</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.284602</v>
+                  <v>0.261365</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.285648</v>
+                  <v>0.259959</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.287433</v>
+                  <v>0.257336</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274449</v>
+                  <v>0.25421</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.276621</v>
+                  <v>0.24682</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.278775</v>
+                  <v>0.244352</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.281341</v>
+                  <v>0.290727</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.282871</v>
+                  <v>0.286749</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.286431</v>
+                  <v>0.286439</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.286907</v>
+                  <v>0.284611</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.288799</v>
+                  <v>0.281839</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.290491</v>
+                  <v>0.281786</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.290309</v>
+                  <v>0.278887</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.291906</v>
+                  <v>0.275979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.292277</v>
+                  <v>0.273015</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.293213</v>
+                  <v>0.269916</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.294434</v>
+                  <v>0.265601</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.283856</v>
+                  <v>0.260611</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.284349</v>
+                  <v>0.256067</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.284879</v>
+                  <v>0.24915</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.286239</v>
+                  <v>0.297365</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.287601</v>
+                  <v>0.298359</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.2876</v>
+                  <v>0.296565</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.288997</v>
+                  <v>0.293451</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.290481</v>
+                  <v>0.288528</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.291662</v>
+                  <v>0.289345</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.29328</v>
+                  <v>0.285859</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294138</v>
+                  <v>0.283034</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.293505</v>
+                  <v>0.279158</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.296216</v>
+                  <v>0.275987</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.297426</v>
+                  <v>0.270924</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.285782</v>
+                  <v>0.267203</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.286008</v>
+                  <v>0.258865</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.287226</v>
+                  <v>0.256412</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.28761</v>
+                  <v>0.304815</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.289069</v>
+                  <v>0.303194</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.291258</v>
+                  <v>0.301362</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.292044</v>
+                  <v>0.298285</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.292541</v>
+                  <v>0.296708</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.294038</v>
+                  <v>0.293441</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.29517</v>
+                  <v>0.291393</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.295882</v>
+                  <v>0.287344</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.29714</v>
+                  <v>0.284356</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.297698</v>
+                  <v>0.280214</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.298015</v>
+                  <v>0.275881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.2997</v>
+                  <v>0.271454</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.288124</v>
+                  <v>0.266312</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.28907</v>
+                  <v>0.25951</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.290364</v>
+                  <v>0.249836</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.29106</v>
+                  <v>0.305655</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.292367</v>
+                  <v>0.301931</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.292745</v>
+                  <v>0.300413</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.294376</v>
+                  <v>0.298428</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.295477</v>
+                  <v>0.294827</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.297108</v>
+                  <v>0.291714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.298193</v>
+                  <v>0.288607</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.299347</v>
+                  <v>0.28657</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.300971</v>
+                  <v>0.282192</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.301872</v>
+                  <v>0.27791</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.302877</v>
+                  <v>0.273294</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.295352</v>
+                  <v>0.267814</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.297121</v>
+                  <v>0.260632</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.29808</v>
+                  <v>0.256301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.300501</v>
+                  <v>0.306158</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.301419</v>
+                  <v>0.304921</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.304017</v>
+                  <v>0.300973</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.306256</v>
+                  <v>0.299945</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.30713</v>
+                  <v>0.298131</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.309409</v>
+                  <v>0.294592</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.312199</v>
+                  <v>0.292087</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.306165</v>
+                  <v>0.287691</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.309771</v>
+                  <v>0.283942</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.312349</v>
+                  <v>0.280603</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.315075</v>
+                  <v>0.275767</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.308787</v>
+                  <v>0.27054</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.31033</v>
+                  <v>0.266421</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.311713</v>
+                  <v>0.260589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.31323</v>
+                  <v>0.309801</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.314737</v>
+                  <v>0.307247</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.31414</v>
+                  <v>0.304755</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.315762</v>
+                  <v>0.302489</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.318579</v>
+                  <v>0.299031</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.321262</v>
+                  <v>0.295542</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.323652</v>
+                  <v>0.291536</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325257</v>
+                  <v>0.288011</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.315909</v>
+                  <v>0.283989</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.318185</v>
+                  <v>0.280396</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.320763</v>
+                  <v>0.275083</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.295097</v>
+                  <v>0.271053</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.295977</v>
+                  <v>0.265237</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.297469</v>
+                  <v>0.258964</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.299469</v>
+                  <v>0.319587</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.301571</v>
+                  <v>0.31677</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.296998</v>
+                  <v>0.31598</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.299261</v>
+                  <v>0.312642</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.302162</v>
+                  <v>0.308436</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.303709</v>
+                  <v>0.304872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.306448</v>
+                  <v>0.303658</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.310136</v>
+                  <v>0.29944</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.306796</v>
+                  <v>0.295835</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.30934</v>
+                  <v>0.291125</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.311905</v>
+                  <v>0.285548</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.313813</v>
+                  <v>0.280836</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.290918</v>
+                  <v>0.275851</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.292794</v>
+                  <v>0.268866</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.294234</v>
+                  <v>0.26347</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.295679</v>
+                  <v>0.31168</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.295282</v>
+                  <v>0.308969</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.296912</v>
+                  <v>0.30641</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.299968</v>
+                  <v>0.3032</v>
                 </pt>
                 <pt idx="112">
+                  <v>0.299322</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.296605</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.292874</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.288507</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.284909</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.279656</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.275023</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.269623</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.263118</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.256282</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.30427</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.302409</v>
+                </pt>
+                <pt idx="124">
                   <v>0.299754</v>
                 </pt>
-                <pt idx="113">
-                  <v>0.301842</v>
-                </pt>
-                <pt idx="114">
-                  <v>0.304744</v>
-                </pt>
-                <pt idx="115">
-                  <v>0.305408</v>
-                </pt>
-                <pt idx="116">
-                  <v>0.307885</v>
-                </pt>
-                <pt idx="117">
-                  <v>0.307962</v>
-                </pt>
-                <pt idx="118">
-                  <v>0.310472</v>
-                </pt>
-                <pt idx="119">
-                  <v>0.29361</v>
-                </pt>
-                <pt idx="120">
-                  <v>0.293955</v>
-                </pt>
-                <pt idx="121">
-                  <v>0.295548</v>
-                </pt>
-                <pt idx="122">
-                  <v>0.29582</v>
-                </pt>
-                <pt idx="123">
-                  <v>0.297457</v>
-                </pt>
-                <pt idx="124">
-                  <v>0.298432</v>
-                </pt>
                 <pt idx="125">
-                  <v>0.299124</v>
+                  <v>0.296897</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.30075</v>
+                  <v>0.294324</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.303137</v>
+                  <v>0.290985</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.304833</v>
+                  <v>0.28753</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.306146</v>
+                  <v>0.284102</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.307038</v>
+                  <v>0.280289</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.308538</v>
+                  <v>0.275503</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.311238</v>
+                  <v>0.271002</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.29305</v>
+                  <v>0.266</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.293936</v>
+                  <v>0.260399</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.295193</v>
+                  <v>0.25356</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.295602</v>
+                  <v>0.324499</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.296406</v>
+                  <v>0.321887</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.297767</v>
+                  <v>0.319604</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.298622</v>
+                  <v>0.316942</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.300831</v>
+                  <v>0.314727</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.302162</v>
+                  <v>0.311731</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.161377</v>
+                  <v>0.269832</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.161805</v>
+                  <v>0.270021</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.16165</v>
+                  <v>0.273299</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.161383</v>
+                  <v>0.274918</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.161432</v>
+                  <v>0.277087</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.160883</v>
+                  <v>0.268541</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.160682</v>
+                  <v>0.271072</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.168008</v>
+                  <v>0.270832</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.167609</v>
+                  <v>0.275381</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.167601</v>
+                  <v>0.276867</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.167266</v>
+                  <v>0.279757</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.166521</v>
+                  <v>0.282323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.167893</v>
+                  <v>0.283382</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.16697</v>
+                  <v>0.285452</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.166146</v>
+                  <v>0.286395</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.165718</v>
+                  <v>0.287314</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.164994</v>
+                  <v>0.289798</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.164471</v>
+                  <v>0.289913</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.164271</v>
+                  <v>0.292271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.163875</v>
+                  <v>0.28198</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.163013</v>
+                  <v>0.282387</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.173693</v>
+                  <v>0.283245</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.173392</v>
+                  <v>0.284556</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.171978</v>
+                  <v>0.286829</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.172057</v>
+                  <v>0.287076</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.172897</v>
+                  <v>0.288667</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.17029</v>
+                  <v>0.290236</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.171219</v>
+                  <v>0.290566</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.169221</v>
+                  <v>0.293211</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.168358</v>
+                  <v>0.293407</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.168837</v>
+                  <v>0.294814</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.16865</v>
+                  <v>0.294888</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.166213</v>
+                  <v>0.297346</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.165749</v>
+                  <v>0.285223</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.165377</v>
+                  <v>0.286355</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.181607</v>
+                  <v>0.287806</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.179581</v>
+                  <v>0.288018</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.179549</v>
+                  <v>0.289125</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.177059</v>
+                  <v>0.290745</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.176741</v>
+                  <v>0.292037</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.175916</v>
+                  <v>0.293068</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.174191</v>
+                  <v>0.294774</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.173126</v>
+                  <v>0.29587</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.17289</v>
+                  <v>0.296951</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.171398</v>
+                  <v>0.297603</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.170656</v>
+                  <v>0.298971</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.169676</v>
+                  <v>0.298488</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.168742</v>
+                  <v>0.299977</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.167746</v>
+                  <v>0.28946</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.184643</v>
+                  <v>0.290376</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.18327</v>
+                  <v>0.291307</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.181852</v>
+                  <v>0.292621</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.180821</v>
+                  <v>0.293748</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.179281</v>
+                  <v>0.295296</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.178364</v>
+                  <v>0.296325</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.177349</v>
+                  <v>0.297597</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.176061</v>
+                  <v>0.298761</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.174862</v>
+                  <v>0.300301</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.17382</v>
+                  <v>0.300086</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.172776</v>
+                  <v>0.302415</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.171758</v>
+                  <v>0.303061</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.170447</v>
+                  <v>0.303255</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.169347</v>
+                  <v>0.295874</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.168119</v>
+                  <v>0.297486</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.185031</v>
+                  <v>0.29946</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.183681</v>
+                  <v>0.301633</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.182192</v>
+                  <v>0.302913</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.181223</v>
+                  <v>0.305415</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.1797</v>
+                  <v>0.307068</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.178455</v>
+                  <v>0.30936</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.177282</v>
+                  <v>0.311371</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.176083</v>
+                  <v>0.314315</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.174918</v>
+                  <v>0.320061</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.173816</v>
+                  <v>0.321526</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.172569</v>
+                  <v>0.322183</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.171501</v>
+                  <v>0.323822</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.170134</v>
+                  <v>0.314812</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.168946</v>
+                  <v>0.31534</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.18571</v>
+                  <v>0.315943</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.184182</v>
+                  <v>0.31686</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.182808</v>
+                  <v>0.317609</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.181466</v>
+                  <v>0.318699</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.180095</v>
+                  <v>0.320439</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.178727</v>
+                  <v>0.321974</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.177617</v>
+                  <v>0.324592</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.176367</v>
+                  <v>0.326348</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.175199</v>
+                  <v>0.328202</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.174092</v>
+                  <v>0.333147</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.17285</v>
+                  <v>0.334466</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.171697</v>
+                  <v>0.33423</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.170479</v>
+                  <v>0.302543</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.169232</v>
+                  <v>0.303968</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.186238</v>
+                  <v>0.305338</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.184776</v>
+                  <v>0.307073</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183353</v>
+                  <v>0.308256</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.182029</v>
+                  <v>0.311471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.180636</v>
+                  <v>0.313322</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.179256</v>
+                  <v>0.315965</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.178057</v>
+                  <v>0.318797</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.176775</v>
+                  <v>0.321298</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.175665</v>
+                  <v>0.322718</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.174317</v>
+                  <v>0.327196</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.173185</v>
+                  <v>0.327531</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.171964</v>
+                  <v>0.329042</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.170756</v>
+                  <v>0.328909</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.169512</v>
+                  <v>0.304179</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.186733</v>
+                  <v>0.306166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.18519</v>
+                  <v>0.307425</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.183764</v>
+                  <v>0.308923</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.182269</v>
+                  <v>0.311076</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.180909</v>
+                  <v>0.312607</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.179595</v>
+                  <v>0.314755</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.178396</v>
+                  <v>0.318474</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.177056</v>
+                  <v>0.321867</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.175815</v>
+                  <v>0.323752</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.174734</v>
+                  <v>0.326316</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.173443</v>
+                  <v>0.327142</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.172265</v>
+                  <v>0.32829</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.171018</v>
+                  <v>0.329068</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.169873</v>
+                  <v>0.306465</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.16868</v>
+                  <v>0.308031</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.185604</v>
+                  <v>0.30985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.18407</v>
+                  <v>0.311687</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.182541</v>
+                  <v>0.313382</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.181177</v>
+                  <v>0.314574</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.179915</v>
+                  <v>0.317742</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.178443</v>
+                  <v>0.3202</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.177278</v>
+                  <v>0.323264</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.176076</v>
+                  <v>0.325914</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.174889</v>
+                  <v>0.328003</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.173751</v>
+                  <v>0.329733</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.172529</v>
+                  <v>0.330479</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.17138</v>
+                  <v>0.331166</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.170068</v>
+                  <v>0.307026</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.16884</v>
+                  <v>0.308749</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.196116</v>
+                  <v>0.310046</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.193136</v>
+                  <v>0.311876</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.191085</v>
+                  <v>0.313373</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.189452</v>
+                  <v>0.315029</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.187873</v>
+                  <v>0.317296</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.186202</v>
+                  <v>0.319885</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.184527</v>
+                  <v>0.323228</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.27075</v>
+                  <v>0.162023</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.271662</v>
+                  <v>0.162245</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.271133</v>
+                  <v>0.161721</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.274026</v>
+                  <v>0.162009</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.270847</v>
+                  <v>0.162133</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.274797</v>
+                  <v>0.161851</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.271653</v>
+                  <v>0.161849</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.280982</v>
+                  <v>0.167986</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.283694</v>
+                  <v>0.169484</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.281135</v>
+                  <v>0.170479</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.283407</v>
+                  <v>0.168264</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.278207</v>
+                  <v>0.17034</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.278501</v>
+                  <v>0.167589</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.277398</v>
+                  <v>0.166928</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.276845</v>
+                  <v>0.165955</v>
                 </pt>
                 <pt idx="15">
+                  <v>0.166433</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.165885</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.165244</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.165598</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.164773</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.164229</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.175033</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.174247</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.173275</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.174478</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.172825</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.169913</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.169652</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.16915</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.168106</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.168276</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.166921</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.16653</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.165974</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.165333</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.181464</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.179231</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.178574</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.178001</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.177166</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.175178</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.174396</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.173963</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.172565</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.171865</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.171051</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.169414</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.168505</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.16746</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.184627</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.183181</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.181922</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.180825</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.179093</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.178145</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.177046</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.175773</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.175078</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.173644</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.172379</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.171449</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.17024</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.169035</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.167758</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.185018</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.183673</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.182314</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.180951</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.17974</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.178421</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.177335</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.176087</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.174867</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.173667</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.172548</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.171357</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.170048</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.168836</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.185827</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.184237</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.18282</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.181483</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.180216</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.178753</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.177679</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.176539</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.175268</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.17409</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.172907</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.171727</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.170519</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.169275</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.186295</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.184711</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.183424</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.181942</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.180534</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.179239</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.177942</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.176667</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.175621</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.174149</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.173142</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.171962</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.170803</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.169556</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.186743</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.185268</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.183687</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.182276</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.180935</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.179684</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.178297</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.177047</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.175944</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.174633</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.173485</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.172214</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.171105</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.169854</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.168634</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.185512</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.184082</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.182516</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.181166</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.179879</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.178611</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.17729</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.176109</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.174904</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.173673</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.172552</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.171323</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.170102</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.168823</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.195013</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.193133</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.191306</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.189557</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.187982</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.186316</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.184616</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.270195</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.270241</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.274605</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.271983</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.272068</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.272741</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.27135</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.280135</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.280541</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.278801</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.277136</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.27927</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.274667</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.279111</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.27671</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.277791</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.274378</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.27332</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.273099</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.273661</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.273272</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.285161</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.28325</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.282283</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.280605</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.282817</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.281153</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.280679</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.278268</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.278707</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.275385</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.276121</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.275086</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.276294</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.275898</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.289192</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.2849</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.284513</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.284264</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.283594</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.280455</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.281904</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.280034</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.278633</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.279714</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.277304</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.27623</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.275342</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.274634</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.290091</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.288727</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.286622</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.286518</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.285913</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.284507</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.28237</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.282127</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.282337</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.279444</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.2777</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.277013</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.279796</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.27529</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.275196</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.289758</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.288223</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.287296</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.285677</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.285075</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.284324</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.281435</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.282247</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.281682</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.277307</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.278754</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.279751</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.279047</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.274087</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.290591</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.290699</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.288441</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.287739</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.284856</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.286225</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.284538</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.282894</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.281171</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.281775</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.280285</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.280648</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.278559</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.277253</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.29197</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.289567</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.288759</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.286626</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.286391</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.285307</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.28443</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.283269</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.281246</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.27999</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.27826</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.279463</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.278708</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.278578</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.292035</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.290363</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.289586</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.287746</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.286495</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.284986</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.284239</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.284985</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.283852</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.281381</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.281374</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.280984</v>
+                </pt>
+                <pt idx="118">
                   <v>0.27666</v>
                 </pt>
-                <pt idx="16">
-                  <v>0.275895</v>
-                </pt>
-                <pt idx="17">
-                  <v>0.273221</v>
-                </pt>
-                <pt idx="18">
-                  <v>0.275609</v>
-                </pt>
-                <pt idx="19">
-                  <v>0.272189</v>
-                </pt>
-                <pt idx="20">
-                  <v>0.272107</v>
-                </pt>
-                <pt idx="21">
-                  <v>0.285413</v>
-                </pt>
-                <pt idx="22">
-                  <v>0.284843</v>
-                </pt>
-                <pt idx="23">
-                  <v>0.284983</v>
-                </pt>
-                <pt idx="24">
-                  <v>0.280853</v>
-                </pt>
-                <pt idx="25">
-                  <v>0.281688</v>
-                </pt>
-                <pt idx="26">
-                  <v>0.279487</v>
-                </pt>
-                <pt idx="27">
-                  <v>0.280677</v>
-                </pt>
-                <pt idx="28">
-                  <v>0.280292</v>
-                </pt>
-                <pt idx="29">
-                  <v>0.280893</v>
-                </pt>
-                <pt idx="30">
-                  <v>0.278407</v>
-                </pt>
-                <pt idx="31">
-                  <v>0.279064</v>
-                </pt>
-                <pt idx="32">
-                  <v>0.276623</v>
-                </pt>
-                <pt idx="33">
-                  <v>0.275242</v>
-                </pt>
-                <pt idx="34">
-                  <v>0.273643</v>
-                </pt>
-                <pt idx="35">
-                  <v>0.28665</v>
-                </pt>
-                <pt idx="36">
-                  <v>0.288314</v>
-                </pt>
-                <pt idx="37">
-                  <v>0.283276</v>
-                </pt>
-                <pt idx="38">
-                  <v>0.283897</v>
-                </pt>
-                <pt idx="39">
-                  <v>0.282851</v>
-                </pt>
-                <pt idx="40">
-                  <v>0.282467</v>
-                </pt>
-                <pt idx="41">
-                  <v>0.280855</v>
-                </pt>
-                <pt idx="42">
-                  <v>0.281927</v>
-                </pt>
-                <pt idx="43">
-                  <v>0.278974</v>
-                </pt>
-                <pt idx="44">
-                  <v>0.278439</v>
-                </pt>
-                <pt idx="45">
-                  <v>0.280525</v>
-                </pt>
-                <pt idx="46">
-                  <v>0.275232</v>
-                </pt>
-                <pt idx="47">
-                  <v>0.274341</v>
-                </pt>
-                <pt idx="48">
-                  <v>0.276063</v>
-                </pt>
-                <pt idx="49">
-                  <v>0.291693</v>
-                </pt>
-                <pt idx="50">
-                  <v>0.289798</v>
-                </pt>
-                <pt idx="51">
-                  <v>0.287898</v>
-                </pt>
-                <pt idx="52">
-                  <v>0.28715</v>
-                </pt>
-                <pt idx="53">
-                  <v>0.28391</v>
-                </pt>
-                <pt idx="54">
-                  <v>0.284432</v>
-                </pt>
-                <pt idx="55">
-                  <v>0.28238</v>
-                </pt>
-                <pt idx="56">
-                  <v>0.282797</v>
-                </pt>
-                <pt idx="57">
-                  <v>0.281096</v>
-                </pt>
-                <pt idx="58">
-                  <v>0.277033</v>
-                </pt>
-                <pt idx="59">
-                  <v>0.276516</v>
-                </pt>
-                <pt idx="60">
-                  <v>0.276848</v>
-                </pt>
-                <pt idx="61">
-                  <v>0.279088</v>
-                </pt>
-                <pt idx="62">
-                  <v>0.276751</v>
-                </pt>
-                <pt idx="63">
-                  <v>0.276998</v>
-                </pt>
-                <pt idx="64">
-                  <v>0.28964</v>
-                </pt>
-                <pt idx="65">
-                  <v>0.286487</v>
-                </pt>
-                <pt idx="66">
-                  <v>0.28763</v>
-                </pt>
-                <pt idx="67">
-                  <v>0.286477</v>
-                </pt>
-                <pt idx="68">
-                  <v>0.285516</v>
-                </pt>
-                <pt idx="69">
-                  <v>0.28524</v>
-                </pt>
-                <pt idx="70">
-                  <v>0.283961</v>
-                </pt>
-                <pt idx="71">
-                  <v>0.284223</v>
-                </pt>
-                <pt idx="72">
-                  <v>0.280482</v>
-                </pt>
-                <pt idx="73">
-                  <v>0.27945</v>
-                </pt>
-                <pt idx="74">
-                  <v>0.279581</v>
-                </pt>
-                <pt idx="75">
-                  <v>0.279018</v>
-                </pt>
-                <pt idx="76">
-                  <v>0.274384</v>
-                </pt>
-                <pt idx="77">
-                  <v>0.276461</v>
-                </pt>
-                <pt idx="78">
-                  <v>0.292322</v>
-                </pt>
-                <pt idx="79">
-                  <v>0.289118</v>
-                </pt>
-                <pt idx="80">
-                  <v>0.288247</v>
-                </pt>
-                <pt idx="81">
-                  <v>0.288563</v>
-                </pt>
-                <pt idx="82">
-                  <v>0.287533</v>
-                </pt>
-                <pt idx="83">
-                  <v>0.286304</v>
-                </pt>
-                <pt idx="84">
-                  <v>0.283101</v>
-                </pt>
-                <pt idx="85">
-                  <v>0.280356</v>
-                </pt>
-                <pt idx="86">
-                  <v>0.280392</v>
-                </pt>
-                <pt idx="87">
-                  <v>0.281045</v>
-                </pt>
-                <pt idx="88">
-                  <v>0.276278</v>
-                </pt>
-                <pt idx="89">
-                  <v>0.277672</v>
-                </pt>
-                <pt idx="90">
-                  <v>0.276009</v>
-                </pt>
-                <pt idx="91">
-                  <v>0.276803</v>
-                </pt>
-                <pt idx="92">
+                <pt idx="119">
+                  <v>0.277044</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.275756</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.289964</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.290174</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.287955</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.286603</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.285538</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.283572</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.283421</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.280971</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.281467</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.279849</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.278843</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.278676</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.278277</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.276561</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.296518</v>
+                </pt>
+                <pt idx="136">
                   <v>0.294846</v>
                 </pt>
-                <pt idx="93">
-                  <v>0.289587</v>
-                </pt>
-                <pt idx="94">
-                  <v>0.288815</v>
-                </pt>
-                <pt idx="95">
-                  <v>0.285001</v>
-                </pt>
-                <pt idx="96">
-                  <v>0.285394</v>
-                </pt>
-                <pt idx="97">
-                  <v>0.283591</v>
-                </pt>
-                <pt idx="98">
-                  <v>0.285928</v>
-                </pt>
-                <pt idx="99">
-                  <v>0.28276</v>
-                </pt>
-                <pt idx="100">
-                  <v>0.281078</v>
-                </pt>
-                <pt idx="101">
-                  <v>0.280155</v>
-                </pt>
-                <pt idx="102">
-                  <v>0.279521</v>
-                </pt>
-                <pt idx="103">
-                  <v>0.279457</v>
-                </pt>
-                <pt idx="104">
-                  <v>0.278278</v>
-                </pt>
-                <pt idx="105">
-                  <v>0.275865</v>
-                </pt>
-                <pt idx="106">
-                  <v>0.292885</v>
-                </pt>
-                <pt idx="107">
-                  <v>0.29214</v>
-                </pt>
-                <pt idx="108">
-                  <v>0.289121</v>
-                </pt>
-                <pt idx="109">
-                  <v>0.285812</v>
-                </pt>
-                <pt idx="110">
-                  <v>0.289304</v>
-                </pt>
-                <pt idx="111">
-                  <v>0.281765</v>
-                </pt>
-                <pt idx="112">
-                  <v>0.28236</v>
-                </pt>
-                <pt idx="113">
-                  <v>0.283506</v>
-                </pt>
-                <pt idx="114">
-                  <v>0.282489</v>
-                </pt>
-                <pt idx="115">
-                  <v>0.27951</v>
-                </pt>
-                <pt idx="116">
-                  <v>0.277523</v>
-                </pt>
-                <pt idx="117">
-                  <v>0.279182</v>
-                </pt>
-                <pt idx="118">
-                  <v>0.276473</v>
-                </pt>
-                <pt idx="119">
-                  <v>0.276892</v>
-                </pt>
-                <pt idx="120">
-                  <v>0.275816</v>
-                </pt>
-                <pt idx="121">
-                  <v>0.289797</v>
-                </pt>
-                <pt idx="122">
-                  <v>0.29229</v>
-                </pt>
-                <pt idx="123">
-                  <v>0.288339</v>
-                </pt>
-                <pt idx="124">
-                  <v>0.286976</v>
-                </pt>
-                <pt idx="125">
-                  <v>0.284306</v>
-                </pt>
-                <pt idx="126">
-                  <v>0.282697</v>
-                </pt>
-                <pt idx="127">
-                  <v>0.281096</v>
-                </pt>
-                <pt idx="128">
-                  <v>0.281267</v>
-                </pt>
-                <pt idx="129">
-                  <v>0.279271</v>
-                </pt>
-                <pt idx="130">
-                  <v>0.277611</v>
-                </pt>
-                <pt idx="131">
-                  <v>0.27983</v>
-                </pt>
-                <pt idx="132">
-                  <v>0.276196</v>
-                </pt>
-                <pt idx="133">
-                  <v>0.275866</v>
-                </pt>
-                <pt idx="134">
-                  <v>0.275209</v>
-                </pt>
-                <pt idx="135">
-                  <v>0.297215</v>
-                </pt>
-                <pt idx="136">
-                  <v>0.294804</v>
-                </pt>
                 <pt idx="137">
-                  <v>0.292807</v>
+                  <v>0.294022</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.292284</v>
+                  <v>0.291568</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.286689</v>
+                  <v>0.290163</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.286559</v>
+                  <v>0.289424</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.287475</v>
+                  <v>0.287491</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3793,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4143,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4159,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0677589</v>
+        <v>0.0678889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.264414</v>
+        <v>0.266684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269832</v>
+        <v>0.266582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162023</v>
+        <v>0.162772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.270195</v>
+        <v>0.269683</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06758110000000001</v>
+        <v>0.06778240000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264292</v>
+        <v>0.264386</v>
       </c>
       <c r="D3" t="n">
-        <v>0.270021</v>
+        <v>0.269851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162245</v>
+        <v>0.162008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.270241</v>
+        <v>0.272456</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0676784</v>
+        <v>0.068311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261365</v>
+        <v>0.261126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.273299</v>
+        <v>0.27226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161721</v>
+        <v>0.161849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.274605</v>
+        <v>0.271295</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0682445</v>
+        <v>0.0687238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.259959</v>
+        <v>0.260236</v>
       </c>
       <c r="D5" t="n">
-        <v>0.274918</v>
+        <v>0.273551</v>
       </c>
       <c r="E5" t="n">
-        <v>0.162009</v>
+        <v>0.161806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.271983</v>
+        <v>0.272144</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0677416</v>
+        <v>0.0676863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257336</v>
+        <v>0.257556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277087</v>
+        <v>0.277587</v>
       </c>
       <c r="E6" t="n">
-        <v>0.162133</v>
+        <v>0.161922</v>
       </c>
       <c r="F6" t="n">
-        <v>0.272068</v>
+        <v>0.27135</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0677524</v>
+        <v>0.0675906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.25421</v>
+        <v>0.255626</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268541</v>
+        <v>0.266964</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161851</v>
+        <v>0.161799</v>
       </c>
       <c r="F7" t="n">
-        <v>0.272741</v>
+        <v>0.268732</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0675046</v>
+        <v>0.0679681</v>
       </c>
       <c r="C8" t="n">
-        <v>0.24682</v>
+        <v>0.247444</v>
       </c>
       <c r="D8" t="n">
-        <v>0.271072</v>
+        <v>0.270519</v>
       </c>
       <c r="E8" t="n">
-        <v>0.161849</v>
+        <v>0.162036</v>
       </c>
       <c r="F8" t="n">
-        <v>0.27135</v>
+        <v>0.26981</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0681952</v>
+        <v>0.0685611</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244352</v>
+        <v>0.244567</v>
       </c>
       <c r="D9" t="n">
-        <v>0.270832</v>
+        <v>0.271167</v>
       </c>
       <c r="E9" t="n">
-        <v>0.167986</v>
+        <v>0.168061</v>
       </c>
       <c r="F9" t="n">
-        <v>0.280135</v>
+        <v>0.283224</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100049</v>
+        <v>0.100876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290727</v>
+        <v>0.285303</v>
       </c>
       <c r="D10" t="n">
-        <v>0.275381</v>
+        <v>0.272691</v>
       </c>
       <c r="E10" t="n">
-        <v>0.169484</v>
+        <v>0.171194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280541</v>
+        <v>0.280456</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101033</v>
+        <v>0.101372</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286749</v>
+        <v>0.285578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.276867</v>
+        <v>0.274472</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170479</v>
+        <v>0.170399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.278801</v>
+        <v>0.276914</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100715</v>
+        <v>0.101058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286439</v>
+        <v>0.284596</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279757</v>
+        <v>0.276475</v>
       </c>
       <c r="E12" t="n">
-        <v>0.168264</v>
+        <v>0.17077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.277136</v>
+        <v>0.281486</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09980559999999999</v>
+        <v>0.0997531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.284611</v>
+        <v>0.28219</v>
       </c>
       <c r="D13" t="n">
-        <v>0.282323</v>
+        <v>0.280209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.17034</v>
+        <v>0.168563</v>
       </c>
       <c r="F13" t="n">
-        <v>0.27927</v>
+        <v>0.279672</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09756919999999999</v>
+        <v>0.09806860000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.281839</v>
+        <v>0.279853</v>
       </c>
       <c r="D14" t="n">
-        <v>0.283382</v>
+        <v>0.280852</v>
       </c>
       <c r="E14" t="n">
-        <v>0.167589</v>
+        <v>0.168475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.274667</v>
+        <v>0.27486</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0963268</v>
+        <v>0.0967997</v>
       </c>
       <c r="C15" t="n">
-        <v>0.281786</v>
+        <v>0.280211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285452</v>
+        <v>0.284531</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166928</v>
+        <v>0.169724</v>
       </c>
       <c r="F15" t="n">
-        <v>0.279111</v>
+        <v>0.277563</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0951867</v>
+        <v>0.0950593</v>
       </c>
       <c r="C16" t="n">
-        <v>0.278887</v>
+        <v>0.277175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.286395</v>
+        <v>0.28474</v>
       </c>
       <c r="E16" t="n">
-        <v>0.165955</v>
+        <v>0.166605</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27671</v>
+        <v>0.27561</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0929012</v>
+        <v>0.0934377</v>
       </c>
       <c r="C17" t="n">
-        <v>0.275979</v>
+        <v>0.276814</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287314</v>
+        <v>0.285882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.166433</v>
+        <v>0.165909</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277791</v>
+        <v>0.277433</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0921293</v>
+        <v>0.0911768</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273015</v>
+        <v>0.273726</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289798</v>
+        <v>0.287828</v>
       </c>
       <c r="E18" t="n">
-        <v>0.165885</v>
+        <v>0.166688</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274378</v>
+        <v>0.274569</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0899228</v>
+        <v>0.0901078</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269916</v>
+        <v>0.269212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.289913</v>
+        <v>0.28929</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165244</v>
+        <v>0.165575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.27332</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0888071</v>
+        <v>0.08766790000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.265601</v>
+        <v>0.267348</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292271</v>
+        <v>0.29141</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165598</v>
+        <v>0.165412</v>
       </c>
       <c r="F20" t="n">
-        <v>0.273099</v>
+        <v>0.272211</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08725280000000001</v>
+        <v>0.0865858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260611</v>
+        <v>0.260489</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28198</v>
+        <v>0.280749</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164773</v>
+        <v>0.164574</v>
       </c>
       <c r="F21" t="n">
-        <v>0.273661</v>
+        <v>0.276864</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0851123</v>
+        <v>0.08480989999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256067</v>
+        <v>0.255654</v>
       </c>
       <c r="D22" t="n">
-        <v>0.282387</v>
+        <v>0.280331</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164229</v>
+        <v>0.164254</v>
       </c>
       <c r="F22" t="n">
-        <v>0.273272</v>
+        <v>0.269426</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.08373029999999999</v>
+        <v>0.0832793</v>
       </c>
       <c r="C23" t="n">
-        <v>0.24915</v>
+        <v>0.249592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.283245</v>
+        <v>0.281518</v>
       </c>
       <c r="E23" t="n">
-        <v>0.175033</v>
+        <v>0.176189</v>
       </c>
       <c r="F23" t="n">
-        <v>0.285161</v>
+        <v>0.284079</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.134488</v>
+        <v>0.133359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.297365</v>
+        <v>0.299684</v>
       </c>
       <c r="D24" t="n">
-        <v>0.284556</v>
+        <v>0.283561</v>
       </c>
       <c r="E24" t="n">
-        <v>0.174247</v>
+        <v>0.17313</v>
       </c>
       <c r="F24" t="n">
-        <v>0.28325</v>
+        <v>0.282759</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132406</v>
+        <v>0.132313</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298359</v>
+        <v>0.298541</v>
       </c>
       <c r="D25" t="n">
-        <v>0.286829</v>
+        <v>0.28405</v>
       </c>
       <c r="E25" t="n">
-        <v>0.173275</v>
+        <v>0.172727</v>
       </c>
       <c r="F25" t="n">
-        <v>0.282283</v>
+        <v>0.284604</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130043</v>
+        <v>0.130256</v>
       </c>
       <c r="C26" t="n">
-        <v>0.296565</v>
+        <v>0.292787</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287076</v>
+        <v>0.284624</v>
       </c>
       <c r="E26" t="n">
-        <v>0.174478</v>
+        <v>0.172644</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280605</v>
+        <v>0.280016</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127827</v>
+        <v>0.128311</v>
       </c>
       <c r="C27" t="n">
-        <v>0.293451</v>
+        <v>0.294484</v>
       </c>
       <c r="D27" t="n">
-        <v>0.288667</v>
+        <v>0.285839</v>
       </c>
       <c r="E27" t="n">
-        <v>0.172825</v>
+        <v>0.171265</v>
       </c>
       <c r="F27" t="n">
-        <v>0.282817</v>
+        <v>0.284183</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.125473</v>
+        <v>0.126164</v>
       </c>
       <c r="C28" t="n">
-        <v>0.288528</v>
+        <v>0.292157</v>
       </c>
       <c r="D28" t="n">
-        <v>0.290236</v>
+        <v>0.288176</v>
       </c>
       <c r="E28" t="n">
-        <v>0.169913</v>
+        <v>0.170013</v>
       </c>
       <c r="F28" t="n">
-        <v>0.281153</v>
+        <v>0.282603</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122005</v>
+        <v>0.122426</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289345</v>
+        <v>0.28977</v>
       </c>
       <c r="D29" t="n">
-        <v>0.290566</v>
+        <v>0.289204</v>
       </c>
       <c r="E29" t="n">
-        <v>0.169652</v>
+        <v>0.171118</v>
       </c>
       <c r="F29" t="n">
-        <v>0.280679</v>
+        <v>0.277189</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118518</v>
+        <v>0.118461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.285859</v>
+        <v>0.28584</v>
       </c>
       <c r="D30" t="n">
-        <v>0.293211</v>
+        <v>0.29148</v>
       </c>
       <c r="E30" t="n">
-        <v>0.16915</v>
+        <v>0.169711</v>
       </c>
       <c r="F30" t="n">
-        <v>0.278268</v>
+        <v>0.277436</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114086</v>
+        <v>0.114871</v>
       </c>
       <c r="C31" t="n">
-        <v>0.283034</v>
+        <v>0.284236</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293407</v>
+        <v>0.293036</v>
       </c>
       <c r="E31" t="n">
-        <v>0.168106</v>
+        <v>0.16911</v>
       </c>
       <c r="F31" t="n">
-        <v>0.278707</v>
+        <v>0.279152</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.110181</v>
+        <v>0.111336</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279158</v>
+        <v>0.281147</v>
       </c>
       <c r="D32" t="n">
-        <v>0.294814</v>
+        <v>0.293728</v>
       </c>
       <c r="E32" t="n">
-        <v>0.168276</v>
+        <v>0.167854</v>
       </c>
       <c r="F32" t="n">
-        <v>0.275385</v>
+        <v>0.277764</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106866</v>
+        <v>0.106609</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275987</v>
+        <v>0.276471</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294888</v>
+        <v>0.294785</v>
       </c>
       <c r="E33" t="n">
-        <v>0.166921</v>
+        <v>0.168591</v>
       </c>
       <c r="F33" t="n">
-        <v>0.276121</v>
+        <v>0.274122</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.10255</v>
+        <v>0.102251</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270924</v>
+        <v>0.272605</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297346</v>
+        <v>0.295378</v>
       </c>
       <c r="E34" t="n">
-        <v>0.16653</v>
+        <v>0.166649</v>
       </c>
       <c r="F34" t="n">
-        <v>0.275086</v>
+        <v>0.272774</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0978884</v>
+        <v>0.09831230000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.267203</v>
+        <v>0.268461</v>
       </c>
       <c r="D35" t="n">
-        <v>0.285223</v>
+        <v>0.284678</v>
       </c>
       <c r="E35" t="n">
-        <v>0.165974</v>
+        <v>0.166595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.276294</v>
+        <v>0.27264</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0935998</v>
+        <v>0.0937605</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258865</v>
+        <v>0.263527</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286355</v>
+        <v>0.284697</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165333</v>
+        <v>0.165363</v>
       </c>
       <c r="F36" t="n">
-        <v>0.275898</v>
+        <v>0.272443</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08960170000000001</v>
+        <v>0.0896979</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256412</v>
+        <v>0.257039</v>
       </c>
       <c r="D37" t="n">
-        <v>0.287806</v>
+        <v>0.286123</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181464</v>
+        <v>0.181061</v>
       </c>
       <c r="F37" t="n">
-        <v>0.289192</v>
+        <v>0.287755</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.15391</v>
+        <v>0.154566</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304815</v>
+        <v>0.303604</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288018</v>
+        <v>0.28698</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179231</v>
+        <v>0.179677</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2849</v>
+        <v>0.284501</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151799</v>
+        <v>0.151618</v>
       </c>
       <c r="C39" t="n">
-        <v>0.303194</v>
+        <v>0.302924</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289125</v>
+        <v>0.286786</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178574</v>
+        <v>0.178858</v>
       </c>
       <c r="F39" t="n">
-        <v>0.284513</v>
+        <v>0.286861</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148131</v>
+        <v>0.148336</v>
       </c>
       <c r="C40" t="n">
-        <v>0.301362</v>
+        <v>0.300513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290745</v>
+        <v>0.288929</v>
       </c>
       <c r="E40" t="n">
-        <v>0.178001</v>
+        <v>0.176597</v>
       </c>
       <c r="F40" t="n">
-        <v>0.284264</v>
+        <v>0.286249</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144656</v>
+        <v>0.144788</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298285</v>
+        <v>0.299006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.292037</v>
+        <v>0.290063</v>
       </c>
       <c r="E41" t="n">
-        <v>0.177166</v>
+        <v>0.176807</v>
       </c>
       <c r="F41" t="n">
-        <v>0.283594</v>
+        <v>0.285222</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140669</v>
+        <v>0.140224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296708</v>
+        <v>0.294673</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293068</v>
+        <v>0.291588</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175178</v>
+        <v>0.175174</v>
       </c>
       <c r="F42" t="n">
-        <v>0.280455</v>
+        <v>0.279841</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136417</v>
+        <v>0.136331</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293441</v>
+        <v>0.293934</v>
       </c>
       <c r="D43" t="n">
-        <v>0.294774</v>
+        <v>0.292576</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174396</v>
+        <v>0.174888</v>
       </c>
       <c r="F43" t="n">
-        <v>0.281904</v>
+        <v>0.280992</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.132185</v>
+        <v>0.131768</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291393</v>
+        <v>0.290382</v>
       </c>
       <c r="D44" t="n">
-        <v>0.29587</v>
+        <v>0.294829</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173963</v>
+        <v>0.173633</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280034</v>
+        <v>0.280668</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.127325</v>
+        <v>0.126773</v>
       </c>
       <c r="C45" t="n">
-        <v>0.287344</v>
+        <v>0.284795</v>
       </c>
       <c r="D45" t="n">
-        <v>0.296951</v>
+        <v>0.295224</v>
       </c>
       <c r="E45" t="n">
-        <v>0.172565</v>
+        <v>0.1727</v>
       </c>
       <c r="F45" t="n">
-        <v>0.278633</v>
+        <v>0.280405</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122541</v>
+        <v>0.122298</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284356</v>
+        <v>0.284613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297603</v>
+        <v>0.297055</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171865</v>
+        <v>0.171696</v>
       </c>
       <c r="F46" t="n">
-        <v>0.279714</v>
+        <v>0.278912</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118279</v>
+        <v>0.118071</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280214</v>
+        <v>0.280307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298971</v>
+        <v>0.297511</v>
       </c>
       <c r="E47" t="n">
-        <v>0.171051</v>
+        <v>0.170765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.277304</v>
+        <v>0.275228</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113613</v>
+        <v>0.113566</v>
       </c>
       <c r="C48" t="n">
-        <v>0.275881</v>
+        <v>0.27607</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298488</v>
+        <v>0.298032</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169414</v>
+        <v>0.169999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.27623</v>
+        <v>0.277362</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10857</v>
+        <v>0.108586</v>
       </c>
       <c r="C49" t="n">
-        <v>0.271454</v>
+        <v>0.269332</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299977</v>
+        <v>0.299902</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168505</v>
+        <v>0.168173</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275342</v>
+        <v>0.275952</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103274</v>
+        <v>0.103077</v>
       </c>
       <c r="C50" t="n">
-        <v>0.266312</v>
+        <v>0.265764</v>
       </c>
       <c r="D50" t="n">
-        <v>0.28946</v>
+        <v>0.288371</v>
       </c>
       <c r="E50" t="n">
-        <v>0.16746</v>
+        <v>0.167707</v>
       </c>
       <c r="F50" t="n">
-        <v>0.274634</v>
+        <v>0.273877</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0980683</v>
+        <v>0.097797</v>
       </c>
       <c r="C51" t="n">
-        <v>0.25951</v>
+        <v>0.259778</v>
       </c>
       <c r="D51" t="n">
-        <v>0.290376</v>
+        <v>0.288963</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184627</v>
+        <v>0.184967</v>
       </c>
       <c r="F51" t="n">
-        <v>0.290091</v>
+        <v>0.291515</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927531</v>
+        <v>0.0927835</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249836</v>
+        <v>0.252622</v>
       </c>
       <c r="D52" t="n">
-        <v>0.291307</v>
+        <v>0.289558</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183181</v>
+        <v>0.183011</v>
       </c>
       <c r="F52" t="n">
-        <v>0.288727</v>
+        <v>0.29153</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159514</v>
+        <v>0.15929</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305655</v>
+        <v>0.305273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.292621</v>
+        <v>0.290825</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181922</v>
+        <v>0.181822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.286622</v>
+        <v>0.288884</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156038</v>
+        <v>0.155642</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301931</v>
+        <v>0.302619</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293748</v>
+        <v>0.290717</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180825</v>
+        <v>0.180942</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286518</v>
+        <v>0.286205</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151399</v>
+        <v>0.151215</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300413</v>
+        <v>0.300606</v>
       </c>
       <c r="D55" t="n">
-        <v>0.295296</v>
+        <v>0.292774</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179093</v>
+        <v>0.179156</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285913</v>
+        <v>0.285078</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147165</v>
+        <v>0.146819</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298428</v>
+        <v>0.298689</v>
       </c>
       <c r="D56" t="n">
-        <v>0.296325</v>
+        <v>0.294935</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178145</v>
+        <v>0.178402</v>
       </c>
       <c r="F56" t="n">
-        <v>0.284507</v>
+        <v>0.285753</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142512</v>
+        <v>0.142122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.294827</v>
+        <v>0.29545</v>
       </c>
       <c r="D57" t="n">
-        <v>0.297597</v>
+        <v>0.295428</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177046</v>
+        <v>0.177166</v>
       </c>
       <c r="F57" t="n">
-        <v>0.28237</v>
+        <v>0.284151</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137486</v>
+        <v>0.137512</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291714</v>
+        <v>0.291243</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298761</v>
+        <v>0.296522</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175773</v>
+        <v>0.175874</v>
       </c>
       <c r="F58" t="n">
-        <v>0.282127</v>
+        <v>0.281217</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132623</v>
+        <v>0.132576</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288607</v>
+        <v>0.289252</v>
       </c>
       <c r="D59" t="n">
-        <v>0.300301</v>
+        <v>0.29761</v>
       </c>
       <c r="E59" t="n">
-        <v>0.175078</v>
+        <v>0.174876</v>
       </c>
       <c r="F59" t="n">
-        <v>0.282337</v>
+        <v>0.281745</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127787</v>
+        <v>0.127804</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28657</v>
+        <v>0.285832</v>
       </c>
       <c r="D60" t="n">
-        <v>0.300086</v>
+        <v>0.298799</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173644</v>
+        <v>0.173556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.279444</v>
+        <v>0.281709</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.12301</v>
+        <v>0.123153</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282192</v>
+        <v>0.281727</v>
       </c>
       <c r="D61" t="n">
-        <v>0.302415</v>
+        <v>0.299923</v>
       </c>
       <c r="E61" t="n">
-        <v>0.172379</v>
+        <v>0.17272</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2777</v>
+        <v>0.27954</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.117911</v>
+        <v>0.118014</v>
       </c>
       <c r="C62" t="n">
-        <v>0.27791</v>
+        <v>0.278371</v>
       </c>
       <c r="D62" t="n">
-        <v>0.303061</v>
+        <v>0.301351</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171449</v>
+        <v>0.171462</v>
       </c>
       <c r="F62" t="n">
-        <v>0.277013</v>
+        <v>0.280254</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113134</v>
+        <v>0.113021</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273294</v>
+        <v>0.273705</v>
       </c>
       <c r="D63" t="n">
-        <v>0.303255</v>
+        <v>0.302787</v>
       </c>
       <c r="E63" t="n">
-        <v>0.17024</v>
+        <v>0.170454</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279796</v>
+        <v>0.279242</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108005</v>
+        <v>0.108034</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267814</v>
+        <v>0.267628</v>
       </c>
       <c r="D64" t="n">
-        <v>0.295874</v>
+        <v>0.294383</v>
       </c>
       <c r="E64" t="n">
-        <v>0.169035</v>
+        <v>0.168981</v>
       </c>
       <c r="F64" t="n">
-        <v>0.27529</v>
+        <v>0.275591</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103065</v>
+        <v>0.102837</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260632</v>
+        <v>0.262059</v>
       </c>
       <c r="D65" t="n">
-        <v>0.297486</v>
+        <v>0.296199</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167758</v>
+        <v>0.167969</v>
       </c>
       <c r="F65" t="n">
-        <v>0.275196</v>
+        <v>0.276462</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09781430000000001</v>
+        <v>0.0978184</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256301</v>
+        <v>0.255249</v>
       </c>
       <c r="D66" t="n">
-        <v>0.29946</v>
+        <v>0.298571</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185018</v>
+        <v>0.185119</v>
       </c>
       <c r="F66" t="n">
-        <v>0.289758</v>
+        <v>0.291915</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163595</v>
+        <v>0.163284</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306158</v>
+        <v>0.306545</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301633</v>
+        <v>0.300153</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183673</v>
+        <v>0.183614</v>
       </c>
       <c r="F67" t="n">
-        <v>0.288223</v>
+        <v>0.291325</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159557</v>
+        <v>0.159718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304921</v>
+        <v>0.305257</v>
       </c>
       <c r="D68" t="n">
-        <v>0.302913</v>
+        <v>0.301315</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182314</v>
+        <v>0.182334</v>
       </c>
       <c r="F68" t="n">
-        <v>0.287296</v>
+        <v>0.2883</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.15551</v>
+        <v>0.155353</v>
       </c>
       <c r="C69" t="n">
-        <v>0.300973</v>
+        <v>0.30245</v>
       </c>
       <c r="D69" t="n">
-        <v>0.305415</v>
+        <v>0.303435</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180951</v>
+        <v>0.180983</v>
       </c>
       <c r="F69" t="n">
-        <v>0.285677</v>
+        <v>0.288056</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150826</v>
+        <v>0.150626</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299945</v>
+        <v>0.30033</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307068</v>
+        <v>0.305124</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17974</v>
+        <v>0.179725</v>
       </c>
       <c r="F70" t="n">
-        <v>0.285075</v>
+        <v>0.287498</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145905</v>
+        <v>0.145986</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298131</v>
+        <v>0.296657</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30936</v>
+        <v>0.306903</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178421</v>
+        <v>0.178476</v>
       </c>
       <c r="F71" t="n">
-        <v>0.284324</v>
+        <v>0.2827</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141234</v>
+        <v>0.141247</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294592</v>
+        <v>0.294086</v>
       </c>
       <c r="D72" t="n">
-        <v>0.311371</v>
+        <v>0.308994</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177335</v>
+        <v>0.177176</v>
       </c>
       <c r="F72" t="n">
-        <v>0.281435</v>
+        <v>0.283124</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136278</v>
+        <v>0.136155</v>
       </c>
       <c r="C73" t="n">
-        <v>0.292087</v>
+        <v>0.291261</v>
       </c>
       <c r="D73" t="n">
-        <v>0.314315</v>
+        <v>0.311531</v>
       </c>
       <c r="E73" t="n">
-        <v>0.176087</v>
+        <v>0.175916</v>
       </c>
       <c r="F73" t="n">
-        <v>0.282247</v>
+        <v>0.281403</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131257</v>
+        <v>0.130946</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287691</v>
+        <v>0.287116</v>
       </c>
       <c r="D74" t="n">
-        <v>0.320061</v>
+        <v>0.304313</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174867</v>
+        <v>0.174803</v>
       </c>
       <c r="F74" t="n">
-        <v>0.281682</v>
+        <v>0.280217</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126155</v>
+        <v>0.125976</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283942</v>
+        <v>0.283833</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321526</v>
+        <v>0.307556</v>
       </c>
       <c r="E75" t="n">
-        <v>0.173667</v>
+        <v>0.17374</v>
       </c>
       <c r="F75" t="n">
-        <v>0.277307</v>
+        <v>0.279748</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.121062</v>
+        <v>0.120871</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280603</v>
+        <v>0.279533</v>
       </c>
       <c r="D76" t="n">
-        <v>0.322183</v>
+        <v>0.310607</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172548</v>
+        <v>0.172572</v>
       </c>
       <c r="F76" t="n">
-        <v>0.278754</v>
+        <v>0.277839</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115773</v>
+        <v>0.115788</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275767</v>
+        <v>0.275983</v>
       </c>
       <c r="D77" t="n">
-        <v>0.323822</v>
+        <v>0.31397</v>
       </c>
       <c r="E77" t="n">
-        <v>0.171357</v>
+        <v>0.1714</v>
       </c>
       <c r="F77" t="n">
-        <v>0.279751</v>
+        <v>0.277731</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110692</v>
+        <v>0.110394</v>
       </c>
       <c r="C78" t="n">
-        <v>0.27054</v>
+        <v>0.269987</v>
       </c>
       <c r="D78" t="n">
-        <v>0.314812</v>
+        <v>0.307937</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170048</v>
+        <v>0.170128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.279047</v>
+        <v>0.277245</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105722</v>
+        <v>0.105439</v>
       </c>
       <c r="C79" t="n">
-        <v>0.266421</v>
+        <v>0.265601</v>
       </c>
       <c r="D79" t="n">
-        <v>0.31534</v>
+        <v>0.309346</v>
       </c>
       <c r="E79" t="n">
-        <v>0.168836</v>
+        <v>0.16879</v>
       </c>
       <c r="F79" t="n">
-        <v>0.274087</v>
+        <v>0.276002</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100574</v>
+        <v>0.100312</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260589</v>
+        <v>0.260035</v>
       </c>
       <c r="D80" t="n">
-        <v>0.315943</v>
+        <v>0.310822</v>
       </c>
       <c r="E80" t="n">
-        <v>0.185827</v>
+        <v>0.18586</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290591</v>
+        <v>0.290137</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164814</v>
+        <v>0.164663</v>
       </c>
       <c r="C81" t="n">
-        <v>0.309801</v>
+        <v>0.306793</v>
       </c>
       <c r="D81" t="n">
-        <v>0.31686</v>
+        <v>0.312179</v>
       </c>
       <c r="E81" t="n">
-        <v>0.184237</v>
+        <v>0.18434</v>
       </c>
       <c r="F81" t="n">
-        <v>0.290699</v>
+        <v>0.289955</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160904</v>
+        <v>0.160756</v>
       </c>
       <c r="C82" t="n">
-        <v>0.307247</v>
+        <v>0.305046</v>
       </c>
       <c r="D82" t="n">
-        <v>0.317609</v>
+        <v>0.314302</v>
       </c>
       <c r="E82" t="n">
-        <v>0.18282</v>
+        <v>0.182937</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288441</v>
+        <v>0.288662</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156706</v>
+        <v>0.156494</v>
       </c>
       <c r="C83" t="n">
-        <v>0.304755</v>
+        <v>0.30286</v>
       </c>
       <c r="D83" t="n">
-        <v>0.318699</v>
+        <v>0.312828</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181483</v>
+        <v>0.181569</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287739</v>
+        <v>0.287097</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151922</v>
+        <v>0.151968</v>
       </c>
       <c r="C84" t="n">
-        <v>0.302489</v>
+        <v>0.299674</v>
       </c>
       <c r="D84" t="n">
-        <v>0.320439</v>
+        <v>0.315207</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180216</v>
+        <v>0.180261</v>
       </c>
       <c r="F84" t="n">
-        <v>0.284856</v>
+        <v>0.286256</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147308</v>
+        <v>0.147213</v>
       </c>
       <c r="C85" t="n">
-        <v>0.299031</v>
+        <v>0.297868</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321974</v>
+        <v>0.317924</v>
       </c>
       <c r="E85" t="n">
-        <v>0.178753</v>
+        <v>0.179013</v>
       </c>
       <c r="F85" t="n">
-        <v>0.286225</v>
+        <v>0.283699</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142268</v>
+        <v>0.142203</v>
       </c>
       <c r="C86" t="n">
-        <v>0.295542</v>
+        <v>0.294256</v>
       </c>
       <c r="D86" t="n">
-        <v>0.324592</v>
+        <v>0.319727</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177679</v>
+        <v>0.177533</v>
       </c>
       <c r="F86" t="n">
-        <v>0.284538</v>
+        <v>0.281862</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.137122</v>
+        <v>0.136809</v>
       </c>
       <c r="C87" t="n">
-        <v>0.291536</v>
+        <v>0.290837</v>
       </c>
       <c r="D87" t="n">
-        <v>0.326348</v>
+        <v>0.322056</v>
       </c>
       <c r="E87" t="n">
-        <v>0.176539</v>
+        <v>0.17652</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282894</v>
+        <v>0.282439</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132025</v>
+        <v>0.131678</v>
       </c>
       <c r="C88" t="n">
-        <v>0.288011</v>
+        <v>0.286624</v>
       </c>
       <c r="D88" t="n">
-        <v>0.328202</v>
+        <v>0.325365</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175268</v>
+        <v>0.175348</v>
       </c>
       <c r="F88" t="n">
-        <v>0.281171</v>
+        <v>0.280987</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126834</v>
+        <v>0.126647</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283989</v>
+        <v>0.282588</v>
       </c>
       <c r="D89" t="n">
-        <v>0.333147</v>
+        <v>0.312787</v>
       </c>
       <c r="E89" t="n">
-        <v>0.17409</v>
+        <v>0.174171</v>
       </c>
       <c r="F89" t="n">
-        <v>0.281775</v>
+        <v>0.279075</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121552</v>
+        <v>0.12137</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280396</v>
+        <v>0.278218</v>
       </c>
       <c r="D90" t="n">
-        <v>0.334466</v>
+        <v>0.316028</v>
       </c>
       <c r="E90" t="n">
-        <v>0.172907</v>
+        <v>0.173011</v>
       </c>
       <c r="F90" t="n">
-        <v>0.280285</v>
+        <v>0.277966</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116344</v>
+        <v>0.116362</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275083</v>
+        <v>0.273845</v>
       </c>
       <c r="D91" t="n">
-        <v>0.33423</v>
+        <v>0.318261</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171727</v>
+        <v>0.171817</v>
       </c>
       <c r="F91" t="n">
-        <v>0.280648</v>
+        <v>0.277705</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111209</v>
+        <v>0.111223</v>
       </c>
       <c r="C92" t="n">
-        <v>0.271053</v>
+        <v>0.268892</v>
       </c>
       <c r="D92" t="n">
-        <v>0.302543</v>
+        <v>0.294106</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170519</v>
+        <v>0.170481</v>
       </c>
       <c r="F92" t="n">
-        <v>0.278559</v>
+        <v>0.277449</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106038</v>
+        <v>0.10608</v>
       </c>
       <c r="C93" t="n">
-        <v>0.265237</v>
+        <v>0.263809</v>
       </c>
       <c r="D93" t="n">
-        <v>0.303968</v>
+        <v>0.294138</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169275</v>
+        <v>0.169357</v>
       </c>
       <c r="F93" t="n">
-        <v>0.277253</v>
+        <v>0.276339</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100816</v>
+        <v>0.100747</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258964</v>
+        <v>0.2573</v>
       </c>
       <c r="D94" t="n">
-        <v>0.305338</v>
+        <v>0.295863</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186295</v>
+        <v>0.186288</v>
       </c>
       <c r="F94" t="n">
-        <v>0.29197</v>
+        <v>0.290704</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165855</v>
+        <v>0.165827</v>
       </c>
       <c r="C95" t="n">
-        <v>0.319587</v>
+        <v>0.304294</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307073</v>
+        <v>0.29842</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184711</v>
+        <v>0.184789</v>
       </c>
       <c r="F95" t="n">
-        <v>0.289567</v>
+        <v>0.2891</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162079</v>
+        <v>0.162047</v>
       </c>
       <c r="C96" t="n">
-        <v>0.31677</v>
+        <v>0.302867</v>
       </c>
       <c r="D96" t="n">
-        <v>0.308256</v>
+        <v>0.300815</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183424</v>
+        <v>0.183394</v>
       </c>
       <c r="F96" t="n">
-        <v>0.288759</v>
+        <v>0.28748</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15778</v>
+        <v>0.157915</v>
       </c>
       <c r="C97" t="n">
-        <v>0.31598</v>
+        <v>0.300717</v>
       </c>
       <c r="D97" t="n">
-        <v>0.311471</v>
+        <v>0.293741</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181942</v>
+        <v>0.181941</v>
       </c>
       <c r="F97" t="n">
-        <v>0.286626</v>
+        <v>0.285933</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153062</v>
+        <v>0.153205</v>
       </c>
       <c r="C98" t="n">
-        <v>0.312642</v>
+        <v>0.298257</v>
       </c>
       <c r="D98" t="n">
-        <v>0.313322</v>
+        <v>0.296935</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180534</v>
+        <v>0.180583</v>
       </c>
       <c r="F98" t="n">
-        <v>0.286391</v>
+        <v>0.2849</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148336</v>
+        <v>0.148361</v>
       </c>
       <c r="C99" t="n">
-        <v>0.308436</v>
+        <v>0.295434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.315965</v>
+        <v>0.299585</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179239</v>
+        <v>0.179186</v>
       </c>
       <c r="F99" t="n">
-        <v>0.285307</v>
+        <v>0.283561</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143467</v>
+        <v>0.143262</v>
       </c>
       <c r="C100" t="n">
-        <v>0.304872</v>
+        <v>0.292283</v>
       </c>
       <c r="D100" t="n">
-        <v>0.318797</v>
+        <v>0.301912</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177942</v>
+        <v>0.177986</v>
       </c>
       <c r="F100" t="n">
-        <v>0.28443</v>
+        <v>0.283181</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138041</v>
+        <v>0.138177</v>
       </c>
       <c r="C101" t="n">
-        <v>0.303658</v>
+        <v>0.289214</v>
       </c>
       <c r="D101" t="n">
-        <v>0.321298</v>
+        <v>0.304456</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176667</v>
+        <v>0.176711</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283269</v>
+        <v>0.281283</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132879</v>
+        <v>0.133012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.29944</v>
+        <v>0.285685</v>
       </c>
       <c r="D102" t="n">
-        <v>0.322718</v>
+        <v>0.307478</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175621</v>
+        <v>0.175481</v>
       </c>
       <c r="F102" t="n">
-        <v>0.281246</v>
+        <v>0.279991</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127732</v>
+        <v>0.127706</v>
       </c>
       <c r="C103" t="n">
-        <v>0.295835</v>
+        <v>0.282006</v>
       </c>
       <c r="D103" t="n">
-        <v>0.327196</v>
+        <v>0.303078</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174149</v>
+        <v>0.174337</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27999</v>
+        <v>0.27991</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122533</v>
+        <v>0.122594</v>
       </c>
       <c r="C104" t="n">
-        <v>0.291125</v>
+        <v>0.278054</v>
       </c>
       <c r="D104" t="n">
-        <v>0.327531</v>
+        <v>0.305736</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173142</v>
+        <v>0.173236</v>
       </c>
       <c r="F104" t="n">
-        <v>0.27826</v>
+        <v>0.278353</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117464</v>
+        <v>0.11748</v>
       </c>
       <c r="C105" t="n">
-        <v>0.285548</v>
+        <v>0.273407</v>
       </c>
       <c r="D105" t="n">
-        <v>0.329042</v>
+        <v>0.30828</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171962</v>
+        <v>0.171985</v>
       </c>
       <c r="F105" t="n">
-        <v>0.279463</v>
+        <v>0.27841</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.11229</v>
+        <v>0.112247</v>
       </c>
       <c r="C106" t="n">
-        <v>0.280836</v>
+        <v>0.268282</v>
       </c>
       <c r="D106" t="n">
-        <v>0.328909</v>
+        <v>0.310979</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170803</v>
+        <v>0.170768</v>
       </c>
       <c r="F106" t="n">
-        <v>0.278708</v>
+        <v>0.276423</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107156</v>
+        <v>0.107051</v>
       </c>
       <c r="C107" t="n">
-        <v>0.275851</v>
+        <v>0.263</v>
       </c>
       <c r="D107" t="n">
-        <v>0.304179</v>
+        <v>0.288203</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169556</v>
+        <v>0.169591</v>
       </c>
       <c r="F107" t="n">
-        <v>0.278578</v>
+        <v>0.276403</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101889</v>
+        <v>0.101946</v>
       </c>
       <c r="C108" t="n">
-        <v>0.268866</v>
+        <v>0.256619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.306166</v>
+        <v>0.292013</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186743</v>
+        <v>0.186823</v>
       </c>
       <c r="F108" t="n">
-        <v>0.292035</v>
+        <v>0.291707</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966883</v>
+        <v>0.0967567</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26347</v>
+        <v>0.24992</v>
       </c>
       <c r="D109" t="n">
-        <v>0.307425</v>
+        <v>0.29229</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185268</v>
+        <v>0.185346</v>
       </c>
       <c r="F109" t="n">
-        <v>0.290363</v>
+        <v>0.289479</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162925</v>
+        <v>0.162967</v>
       </c>
       <c r="C110" t="n">
-        <v>0.31168</v>
+        <v>0.30296</v>
       </c>
       <c r="D110" t="n">
-        <v>0.308923</v>
+        <v>0.294392</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183687</v>
+        <v>0.183713</v>
       </c>
       <c r="F110" t="n">
-        <v>0.289586</v>
+        <v>0.287678</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158827</v>
+        <v>0.158764</v>
       </c>
       <c r="C111" t="n">
-        <v>0.308969</v>
+        <v>0.300875</v>
       </c>
       <c r="D111" t="n">
-        <v>0.311076</v>
+        <v>0.292607</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182276</v>
+        <v>0.182293</v>
       </c>
       <c r="F111" t="n">
-        <v>0.287746</v>
+        <v>0.286814</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154158</v>
+        <v>0.154303</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30641</v>
+        <v>0.298487</v>
       </c>
       <c r="D112" t="n">
-        <v>0.312607</v>
+        <v>0.295503</v>
       </c>
       <c r="E112" t="n">
-        <v>0.180935</v>
+        <v>0.18084</v>
       </c>
       <c r="F112" t="n">
-        <v>0.286495</v>
+        <v>0.285431</v>
       </c>
     </row>
     <row r="113">
@@ -7308,16 +7308,16 @@
         <v>0.149356</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3032</v>
+        <v>0.295703</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314755</v>
+        <v>0.296499</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179684</v>
+        <v>0.179571</v>
       </c>
       <c r="F113" t="n">
-        <v>0.284986</v>
+        <v>0.283803</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.14442</v>
+        <v>0.144288</v>
       </c>
       <c r="C114" t="n">
-        <v>0.299322</v>
+        <v>0.292844</v>
       </c>
       <c r="D114" t="n">
-        <v>0.318474</v>
+        <v>0.296399</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178297</v>
+        <v>0.178313</v>
       </c>
       <c r="F114" t="n">
-        <v>0.284239</v>
+        <v>0.282681</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139278</v>
+        <v>0.139228</v>
       </c>
       <c r="C115" t="n">
-        <v>0.296605</v>
+        <v>0.289639</v>
       </c>
       <c r="D115" t="n">
-        <v>0.321867</v>
+        <v>0.299509</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177047</v>
+        <v>0.177089</v>
       </c>
       <c r="F115" t="n">
-        <v>0.284985</v>
+        <v>0.282797</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.134122</v>
+        <v>0.133971</v>
       </c>
       <c r="C116" t="n">
-        <v>0.292874</v>
+        <v>0.286214</v>
       </c>
       <c r="D116" t="n">
-        <v>0.323752</v>
+        <v>0.302004</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175944</v>
+        <v>0.175928</v>
       </c>
       <c r="F116" t="n">
-        <v>0.283852</v>
+        <v>0.281505</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128856</v>
+        <v>0.128823</v>
       </c>
       <c r="C117" t="n">
-        <v>0.288507</v>
+        <v>0.282686</v>
       </c>
       <c r="D117" t="n">
-        <v>0.326316</v>
+        <v>0.301975</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174633</v>
+        <v>0.174627</v>
       </c>
       <c r="F117" t="n">
-        <v>0.281381</v>
+        <v>0.279495</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123638</v>
+        <v>0.123575</v>
       </c>
       <c r="C118" t="n">
-        <v>0.284909</v>
+        <v>0.27869</v>
       </c>
       <c r="D118" t="n">
-        <v>0.327142</v>
+        <v>0.304018</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173485</v>
+        <v>0.173494</v>
       </c>
       <c r="F118" t="n">
-        <v>0.281374</v>
+        <v>0.279065</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11836</v>
+        <v>0.118505</v>
       </c>
       <c r="C119" t="n">
-        <v>0.279656</v>
+        <v>0.274529</v>
       </c>
       <c r="D119" t="n">
-        <v>0.32829</v>
+        <v>0.303983</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172214</v>
+        <v>0.172336</v>
       </c>
       <c r="F119" t="n">
-        <v>0.280984</v>
+        <v>0.278757</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113365</v>
+        <v>0.113398</v>
       </c>
       <c r="C120" t="n">
-        <v>0.275023</v>
+        <v>0.269492</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329068</v>
+        <v>0.306704</v>
       </c>
       <c r="E120" t="n">
-        <v>0.171105</v>
+        <v>0.1711</v>
       </c>
       <c r="F120" t="n">
-        <v>0.27666</v>
+        <v>0.275575</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108207</v>
+        <v>0.108129</v>
       </c>
       <c r="C121" t="n">
-        <v>0.269623</v>
+        <v>0.264149</v>
       </c>
       <c r="D121" t="n">
-        <v>0.306465</v>
+        <v>0.291754</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169854</v>
+        <v>0.169832</v>
       </c>
       <c r="F121" t="n">
-        <v>0.277044</v>
+        <v>0.275917</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.103</v>
+        <v>0.102995</v>
       </c>
       <c r="C122" t="n">
-        <v>0.263118</v>
+        <v>0.257901</v>
       </c>
       <c r="D122" t="n">
-        <v>0.308031</v>
+        <v>0.291334</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168634</v>
+        <v>0.168651</v>
       </c>
       <c r="F122" t="n">
-        <v>0.275756</v>
+        <v>0.274379</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978511</v>
+        <v>0.0978272</v>
       </c>
       <c r="C123" t="n">
-        <v>0.256282</v>
+        <v>0.251101</v>
       </c>
       <c r="D123" t="n">
-        <v>0.30985</v>
+        <v>0.293301</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185512</v>
+        <v>0.185594</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289964</v>
+        <v>0.289659</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173195</v>
+        <v>0.173163</v>
       </c>
       <c r="C124" t="n">
-        <v>0.30427</v>
+        <v>0.303409</v>
       </c>
       <c r="D124" t="n">
-        <v>0.311687</v>
+        <v>0.294055</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184082</v>
+        <v>0.184127</v>
       </c>
       <c r="F124" t="n">
-        <v>0.290174</v>
+        <v>0.288515</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168794</v>
+        <v>0.168798</v>
       </c>
       <c r="C125" t="n">
-        <v>0.302409</v>
+        <v>0.301567</v>
       </c>
       <c r="D125" t="n">
-        <v>0.313382</v>
+        <v>0.294076</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182516</v>
+        <v>0.182547</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287955</v>
+        <v>0.286383</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16398</v>
+        <v>0.16395</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299754</v>
+        <v>0.298971</v>
       </c>
       <c r="D126" t="n">
-        <v>0.314574</v>
+        <v>0.29548</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181166</v>
+        <v>0.181164</v>
       </c>
       <c r="F126" t="n">
-        <v>0.286603</v>
+        <v>0.285385</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158791</v>
+        <v>0.158612</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296897</v>
+        <v>0.296777</v>
       </c>
       <c r="D127" t="n">
-        <v>0.317742</v>
+        <v>0.296351</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179879</v>
+        <v>0.179891</v>
       </c>
       <c r="F127" t="n">
-        <v>0.285538</v>
+        <v>0.284388</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153219</v>
+        <v>0.153084</v>
       </c>
       <c r="C128" t="n">
-        <v>0.294324</v>
+        <v>0.293553</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3202</v>
+        <v>0.297646</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178611</v>
+        <v>0.178524</v>
       </c>
       <c r="F128" t="n">
-        <v>0.283572</v>
+        <v>0.28303</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147758</v>
+        <v>0.147691</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290985</v>
+        <v>0.290606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.323264</v>
+        <v>0.298871</v>
       </c>
       <c r="E129" t="n">
-        <v>0.17729</v>
+        <v>0.177345</v>
       </c>
       <c r="F129" t="n">
-        <v>0.283421</v>
+        <v>0.281704</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142121</v>
+        <v>0.142117</v>
       </c>
       <c r="C130" t="n">
-        <v>0.28753</v>
+        <v>0.287176</v>
       </c>
       <c r="D130" t="n">
-        <v>0.325914</v>
+        <v>0.301197</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176109</v>
+        <v>0.176136</v>
       </c>
       <c r="F130" t="n">
-        <v>0.280971</v>
+        <v>0.28037</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.13665</v>
+        <v>0.136613</v>
       </c>
       <c r="C131" t="n">
-        <v>0.284102</v>
+        <v>0.283663</v>
       </c>
       <c r="D131" t="n">
-        <v>0.328003</v>
+        <v>0.301915</v>
       </c>
       <c r="E131" t="n">
-        <v>0.174904</v>
+        <v>0.17487</v>
       </c>
       <c r="F131" t="n">
-        <v>0.281467</v>
+        <v>0.2792</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131097</v>
+        <v>0.13103</v>
       </c>
       <c r="C132" t="n">
-        <v>0.280289</v>
+        <v>0.279468</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329733</v>
+        <v>0.303431</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173673</v>
+        <v>0.173534</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279849</v>
+        <v>0.279156</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12595</v>
+        <v>0.12573</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275503</v>
+        <v>0.275055</v>
       </c>
       <c r="D133" t="n">
-        <v>0.330479</v>
+        <v>0.305508</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172552</v>
+        <v>0.172515</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278843</v>
+        <v>0.278247</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120062</v>
+        <v>0.120301</v>
       </c>
       <c r="C134" t="n">
-        <v>0.271002</v>
+        <v>0.27088</v>
       </c>
       <c r="D134" t="n">
-        <v>0.331166</v>
+        <v>0.30774</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171323</v>
+        <v>0.171335</v>
       </c>
       <c r="F134" t="n">
-        <v>0.278676</v>
+        <v>0.277178</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114865</v>
+        <v>0.114801</v>
       </c>
       <c r="C135" t="n">
-        <v>0.266</v>
+        <v>0.265511</v>
       </c>
       <c r="D135" t="n">
-        <v>0.307026</v>
+        <v>0.290512</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170102</v>
+        <v>0.170139</v>
       </c>
       <c r="F135" t="n">
-        <v>0.278277</v>
+        <v>0.275743</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109555</v>
+        <v>0.109373</v>
       </c>
       <c r="C136" t="n">
-        <v>0.260399</v>
+        <v>0.259669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.308749</v>
+        <v>0.291562</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168823</v>
+        <v>0.168873</v>
       </c>
       <c r="F136" t="n">
-        <v>0.276561</v>
+        <v>0.275603</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104097</v>
+        <v>0.104008</v>
       </c>
       <c r="C137" t="n">
-        <v>0.25356</v>
+        <v>0.252929</v>
       </c>
       <c r="D137" t="n">
-        <v>0.310046</v>
+        <v>0.293012</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195013</v>
+        <v>0.195071</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296518</v>
+        <v>0.296059</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174467</v>
+        <v>0.174341</v>
       </c>
       <c r="C138" t="n">
-        <v>0.324499</v>
+        <v>0.320551</v>
       </c>
       <c r="D138" t="n">
-        <v>0.311876</v>
+        <v>0.293275</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193133</v>
+        <v>0.193151</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294846</v>
+        <v>0.294334</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.170065</v>
+        <v>0.169911</v>
       </c>
       <c r="C139" t="n">
-        <v>0.321887</v>
+        <v>0.317583</v>
       </c>
       <c r="D139" t="n">
-        <v>0.313373</v>
+        <v>0.293607</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191306</v>
+        <v>0.191191</v>
       </c>
       <c r="F139" t="n">
-        <v>0.294022</v>
+        <v>0.292487</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.16517</v>
+        <v>0.165021</v>
       </c>
       <c r="C140" t="n">
-        <v>0.319604</v>
+        <v>0.314936</v>
       </c>
       <c r="D140" t="n">
-        <v>0.315029</v>
+        <v>0.29464</v>
       </c>
       <c r="E140" t="n">
-        <v>0.189557</v>
+        <v>0.187378</v>
       </c>
       <c r="F140" t="n">
-        <v>0.291568</v>
+        <v>0.290702</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159844</v>
+        <v>0.158467</v>
       </c>
       <c r="C141" t="n">
-        <v>0.316942</v>
+        <v>0.312477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.317296</v>
+        <v>0.295747</v>
       </c>
       <c r="E141" t="n">
-        <v>0.187982</v>
+        <v>0.185453</v>
       </c>
       <c r="F141" t="n">
-        <v>0.290163</v>
+        <v>0.286845</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.15442</v>
+        <v>0.154211</v>
       </c>
       <c r="C142" t="n">
-        <v>0.314727</v>
+        <v>0.307596</v>
       </c>
       <c r="D142" t="n">
-        <v>0.319885</v>
+        <v>0.297339</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186316</v>
+        <v>0.186171</v>
       </c>
       <c r="F142" t="n">
-        <v>0.289424</v>
+        <v>0.287463</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.14899</v>
+        <v>0.148823</v>
       </c>
       <c r="C143" t="n">
-        <v>0.311731</v>
+        <v>0.304996</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323228</v>
+        <v>0.298611</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184616</v>
+        <v>0.184394</v>
       </c>
       <c r="F143" t="n">
-        <v>0.287491</v>
+        <v>0.285171</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0678889</v>
+        <v>0.0686249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266684</v>
+        <v>0.261012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266582</v>
+        <v>0.269494</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162772</v>
+        <v>0.16158</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269683</v>
+        <v>0.270263</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778240000000001</v>
+        <v>0.0692398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264386</v>
+        <v>0.261722</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269851</v>
+        <v>0.269751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162008</v>
+        <v>0.161996</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272456</v>
+        <v>0.272258</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.068311</v>
+        <v>0.0683735</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261126</v>
+        <v>0.259738</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27226</v>
+        <v>0.271875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161849</v>
+        <v>0.16175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271295</v>
+        <v>0.266612</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687238</v>
+        <v>0.0681532</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260236</v>
+        <v>0.257227</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273551</v>
+        <v>0.275474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.161806</v>
+        <v>0.16179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272144</v>
+        <v>0.27158</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676863</v>
+        <v>0.0676049</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257556</v>
+        <v>0.254054</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277587</v>
+        <v>0.279474</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161922</v>
+        <v>0.161829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27135</v>
+        <v>0.270461</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675906</v>
+        <v>0.0675712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255626</v>
+        <v>0.252553</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266964</v>
+        <v>0.267665</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161799</v>
+        <v>0.161399</v>
       </c>
       <c r="F7" t="n">
-        <v>0.268732</v>
+        <v>0.274942</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679681</v>
+        <v>0.0686059</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247444</v>
+        <v>0.244578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270519</v>
+        <v>0.271667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.162036</v>
+        <v>0.16204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26981</v>
+        <v>0.268712</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685611</v>
+        <v>0.06848849999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244567</v>
+        <v>0.241124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271167</v>
+        <v>0.271252</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168061</v>
+        <v>0.168464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.283224</v>
+        <v>0.285207</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100876</v>
+        <v>0.0989138</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285303</v>
+        <v>0.28617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272691</v>
+        <v>0.274027</v>
       </c>
       <c r="E10" t="n">
-        <v>0.171194</v>
+        <v>0.170575</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280456</v>
+        <v>0.281893</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101372</v>
+        <v>0.0999679</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285578</v>
+        <v>0.281862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274472</v>
+        <v>0.277757</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170399</v>
+        <v>0.170083</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276914</v>
+        <v>0.278694</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101058</v>
+        <v>0.0983043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.284596</v>
+        <v>0.285632</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276475</v>
+        <v>0.279876</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17077</v>
+        <v>0.168709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281486</v>
+        <v>0.279328</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997531</v>
+        <v>0.0986448</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28219</v>
+        <v>0.281726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280209</v>
+        <v>0.282029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168563</v>
+        <v>0.168365</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279672</v>
+        <v>0.277468</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09806860000000001</v>
+        <v>0.09669949999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279853</v>
+        <v>0.278961</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280852</v>
+        <v>0.282234</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168475</v>
+        <v>0.167011</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27486</v>
+        <v>0.274925</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0967997</v>
+        <v>0.0961345</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280211</v>
+        <v>0.278713</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284531</v>
+        <v>0.285411</v>
       </c>
       <c r="E15" t="n">
-        <v>0.169724</v>
+        <v>0.166422</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277563</v>
+        <v>0.28005</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0950593</v>
+        <v>0.095023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277175</v>
+        <v>0.278365</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28474</v>
+        <v>0.286679</v>
       </c>
       <c r="E16" t="n">
-        <v>0.166605</v>
+        <v>0.167152</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27561</v>
+        <v>0.275056</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0934377</v>
+        <v>0.09334770000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276814</v>
+        <v>0.273726</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285882</v>
+        <v>0.286855</v>
       </c>
       <c r="E17" t="n">
-        <v>0.165909</v>
+        <v>0.166022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277433</v>
+        <v>0.273237</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0911768</v>
+        <v>0.0913365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273726</v>
+        <v>0.27149</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287828</v>
+        <v>0.289336</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166688</v>
+        <v>0.165571</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274569</v>
+        <v>0.277195</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0901078</v>
+        <v>0.0895654</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269212</v>
+        <v>0.268766</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28929</v>
+        <v>0.29009</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165575</v>
+        <v>0.165094</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2753</v>
+        <v>0.272549</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08766790000000001</v>
+        <v>0.0882699</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267348</v>
+        <v>0.263884</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29141</v>
+        <v>0.291212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165412</v>
+        <v>0.165937</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272211</v>
+        <v>0.274594</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0865858</v>
+        <v>0.0863989</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260489</v>
+        <v>0.259545</v>
       </c>
       <c r="D21" t="n">
-        <v>0.280749</v>
+        <v>0.28084</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164574</v>
+        <v>0.165166</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276864</v>
+        <v>0.270602</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08480989999999999</v>
+        <v>0.0861097</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255654</v>
+        <v>0.254917</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280331</v>
+        <v>0.282973</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164254</v>
+        <v>0.164279</v>
       </c>
       <c r="F22" t="n">
-        <v>0.269426</v>
+        <v>0.273191</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0832793</v>
+        <v>0.0838686</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249592</v>
+        <v>0.247823</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281518</v>
+        <v>0.281976</v>
       </c>
       <c r="E23" t="n">
-        <v>0.176189</v>
+        <v>0.175762</v>
       </c>
       <c r="F23" t="n">
-        <v>0.284079</v>
+        <v>0.286898</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133359</v>
+        <v>0.133703</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299684</v>
+        <v>0.297709</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283561</v>
+        <v>0.283264</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17313</v>
+        <v>0.174141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.282759</v>
+        <v>0.285047</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132313</v>
+        <v>0.130821</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298541</v>
+        <v>0.295652</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28405</v>
+        <v>0.284577</v>
       </c>
       <c r="E25" t="n">
-        <v>0.172727</v>
+        <v>0.174573</v>
       </c>
       <c r="F25" t="n">
-        <v>0.284604</v>
+        <v>0.2826</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130256</v>
+        <v>0.129769</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292787</v>
+        <v>0.295057</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284624</v>
+        <v>0.287275</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172644</v>
+        <v>0.173036</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280016</v>
+        <v>0.279007</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128311</v>
+        <v>0.127306</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294484</v>
+        <v>0.292737</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285839</v>
+        <v>0.28793</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171265</v>
+        <v>0.171926</v>
       </c>
       <c r="F27" t="n">
-        <v>0.284183</v>
+        <v>0.281497</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126164</v>
+        <v>0.124314</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292157</v>
+        <v>0.290331</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288176</v>
+        <v>0.289309</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170013</v>
+        <v>0.170241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282603</v>
+        <v>0.281132</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122426</v>
+        <v>0.121713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28977</v>
+        <v>0.288004</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289204</v>
+        <v>0.290688</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171118</v>
+        <v>0.170719</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277189</v>
+        <v>0.279192</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118461</v>
+        <v>0.11761</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28584</v>
+        <v>0.284721</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29148</v>
+        <v>0.292507</v>
       </c>
       <c r="E30" t="n">
-        <v>0.169711</v>
+        <v>0.168842</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277436</v>
+        <v>0.277994</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114871</v>
+        <v>0.113867</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284236</v>
+        <v>0.282657</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293036</v>
+        <v>0.293843</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16911</v>
+        <v>0.169506</v>
       </c>
       <c r="F31" t="n">
-        <v>0.279152</v>
+        <v>0.277257</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111336</v>
+        <v>0.111036</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281147</v>
+        <v>0.278242</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293728</v>
+        <v>0.294837</v>
       </c>
       <c r="E32" t="n">
-        <v>0.167854</v>
+        <v>0.168295</v>
       </c>
       <c r="F32" t="n">
-        <v>0.277764</v>
+        <v>0.274571</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106609</v>
+        <v>0.106676</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276471</v>
+        <v>0.27469</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294785</v>
+        <v>0.295276</v>
       </c>
       <c r="E33" t="n">
-        <v>0.168591</v>
+        <v>0.169117</v>
       </c>
       <c r="F33" t="n">
-        <v>0.274122</v>
+        <v>0.27548</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102251</v>
+        <v>0.102658</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272605</v>
+        <v>0.270898</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295378</v>
+        <v>0.296356</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166649</v>
+        <v>0.166913</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272774</v>
+        <v>0.274298</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09831230000000001</v>
+        <v>0.0982683</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268461</v>
+        <v>0.266018</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284678</v>
+        <v>0.284628</v>
       </c>
       <c r="E35" t="n">
-        <v>0.166595</v>
+        <v>0.16595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27264</v>
+        <v>0.278433</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937605</v>
+        <v>0.0936234</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263527</v>
+        <v>0.260953</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284697</v>
+        <v>0.285291</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165363</v>
+        <v>0.165339</v>
       </c>
       <c r="F36" t="n">
-        <v>0.272443</v>
+        <v>0.274692</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896979</v>
+        <v>0.0898571</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257039</v>
+        <v>0.254841</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286123</v>
+        <v>0.28665</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181061</v>
+        <v>0.182019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.287755</v>
+        <v>0.289728</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154566</v>
+        <v>0.154628</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303604</v>
+        <v>0.301867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28698</v>
+        <v>0.287176</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179677</v>
+        <v>0.180513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.284501</v>
+        <v>0.285703</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151618</v>
+        <v>0.151396</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302924</v>
+        <v>0.301236</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286786</v>
+        <v>0.288335</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178858</v>
+        <v>0.180052</v>
       </c>
       <c r="F39" t="n">
-        <v>0.286861</v>
+        <v>0.287306</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148336</v>
+        <v>0.147787</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300513</v>
+        <v>0.297645</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288929</v>
+        <v>0.289704</v>
       </c>
       <c r="E40" t="n">
-        <v>0.176597</v>
+        <v>0.177522</v>
       </c>
       <c r="F40" t="n">
-        <v>0.286249</v>
+        <v>0.282581</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144788</v>
+        <v>0.144571</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299006</v>
+        <v>0.297652</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290063</v>
+        <v>0.291189</v>
       </c>
       <c r="E41" t="n">
-        <v>0.176807</v>
+        <v>0.177031</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285222</v>
+        <v>0.282926</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140224</v>
+        <v>0.140982</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294673</v>
+        <v>0.295083</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291588</v>
+        <v>0.292831</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175174</v>
+        <v>0.175781</v>
       </c>
       <c r="F42" t="n">
-        <v>0.279841</v>
+        <v>0.281446</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136331</v>
+        <v>0.136214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293934</v>
+        <v>0.292455</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292576</v>
+        <v>0.294572</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174888</v>
+        <v>0.17478</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280992</v>
+        <v>0.278023</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131768</v>
+        <v>0.131819</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290382</v>
+        <v>0.289901</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294829</v>
+        <v>0.296238</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173633</v>
+        <v>0.173495</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280668</v>
+        <v>0.279528</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126773</v>
+        <v>0.126976</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284795</v>
+        <v>0.285706</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295224</v>
+        <v>0.296522</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1727</v>
+        <v>0.172234</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280405</v>
+        <v>0.282422</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122298</v>
+        <v>0.122687</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284613</v>
+        <v>0.280652</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297055</v>
+        <v>0.297751</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171696</v>
+        <v>0.172779</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278912</v>
+        <v>0.280159</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118071</v>
+        <v>0.118251</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280307</v>
+        <v>0.278887</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297511</v>
+        <v>0.298396</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170765</v>
+        <v>0.170768</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275228</v>
+        <v>0.276195</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113566</v>
+        <v>0.112945</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27607</v>
+        <v>0.273565</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298032</v>
+        <v>0.298457</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169999</v>
+        <v>0.169869</v>
       </c>
       <c r="F48" t="n">
-        <v>0.277362</v>
+        <v>0.274009</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108586</v>
+        <v>0.10807</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269332</v>
+        <v>0.269026</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299902</v>
+        <v>0.300195</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168173</v>
+        <v>0.168737</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275952</v>
+        <v>0.276134</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103077</v>
+        <v>0.103132</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265764</v>
+        <v>0.261901</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288371</v>
+        <v>0.288455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167707</v>
+        <v>0.167514</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273877</v>
+        <v>0.273974</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097797</v>
+        <v>0.0980709</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259778</v>
+        <v>0.256867</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288963</v>
+        <v>0.289368</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184967</v>
+        <v>0.184825</v>
       </c>
       <c r="F51" t="n">
-        <v>0.291515</v>
+        <v>0.290468</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927835</v>
+        <v>0.09284050000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252622</v>
+        <v>0.250643</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289558</v>
+        <v>0.290329</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183011</v>
+        <v>0.183376</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29153</v>
+        <v>0.289712</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15929</v>
+        <v>0.159135</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305273</v>
+        <v>0.303692</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290825</v>
+        <v>0.291907</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181822</v>
+        <v>0.182037</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288884</v>
+        <v>0.288699</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155642</v>
+        <v>0.155787</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302619</v>
+        <v>0.301831</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290717</v>
+        <v>0.292646</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180942</v>
+        <v>0.180633</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286205</v>
+        <v>0.285152</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151215</v>
+        <v>0.151522</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300606</v>
+        <v>0.300042</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292774</v>
+        <v>0.293566</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179156</v>
+        <v>0.179657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285078</v>
+        <v>0.283258</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146819</v>
+        <v>0.147247</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298689</v>
+        <v>0.295432</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294935</v>
+        <v>0.295581</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178402</v>
+        <v>0.178091</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285753</v>
+        <v>0.284492</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142122</v>
+        <v>0.142478</v>
       </c>
       <c r="C57" t="n">
-        <v>0.29545</v>
+        <v>0.294643</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295428</v>
+        <v>0.296383</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177166</v>
+        <v>0.176918</v>
       </c>
       <c r="F57" t="n">
-        <v>0.284151</v>
+        <v>0.283738</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137512</v>
+        <v>0.137782</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291243</v>
+        <v>0.291114</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296522</v>
+        <v>0.297487</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175874</v>
+        <v>0.175803</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281217</v>
+        <v>0.281841</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132576</v>
+        <v>0.133112</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289252</v>
+        <v>0.288474</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29761</v>
+        <v>0.299248</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174876</v>
+        <v>0.174829</v>
       </c>
       <c r="F59" t="n">
-        <v>0.281745</v>
+        <v>0.283321</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127804</v>
+        <v>0.12825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285832</v>
+        <v>0.285184</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298799</v>
+        <v>0.300456</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173556</v>
+        <v>0.173682</v>
       </c>
       <c r="F60" t="n">
-        <v>0.281709</v>
+        <v>0.278859</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123153</v>
+        <v>0.123274</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281727</v>
+        <v>0.281158</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299923</v>
+        <v>0.301801</v>
       </c>
       <c r="E61" t="n">
-        <v>0.17272</v>
+        <v>0.172578</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27954</v>
+        <v>0.281892</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118014</v>
+        <v>0.118419</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278371</v>
+        <v>0.276031</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301351</v>
+        <v>0.302871</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171462</v>
+        <v>0.171467</v>
       </c>
       <c r="F62" t="n">
-        <v>0.280254</v>
+        <v>0.277034</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113021</v>
+        <v>0.113194</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273705</v>
+        <v>0.270999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302787</v>
+        <v>0.303792</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170454</v>
+        <v>0.170336</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279242</v>
+        <v>0.277773</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108034</v>
+        <v>0.1084</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267628</v>
+        <v>0.266324</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294383</v>
+        <v>0.295089</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168981</v>
+        <v>0.168976</v>
       </c>
       <c r="F64" t="n">
-        <v>0.275591</v>
+        <v>0.27683</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102837</v>
+        <v>0.103085</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262059</v>
+        <v>0.26028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296199</v>
+        <v>0.296733</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167969</v>
+        <v>0.167974</v>
       </c>
       <c r="F65" t="n">
-        <v>0.276462</v>
+        <v>0.273234</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0978184</v>
+        <v>0.0979225</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255249</v>
+        <v>0.254075</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298571</v>
+        <v>0.298969</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185119</v>
+        <v>0.18509</v>
       </c>
       <c r="F66" t="n">
-        <v>0.291915</v>
+        <v>0.292429</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163284</v>
+        <v>0.163346</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306545</v>
+        <v>0.305488</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300153</v>
+        <v>0.300563</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183614</v>
+        <v>0.183693</v>
       </c>
       <c r="F67" t="n">
-        <v>0.291325</v>
+        <v>0.289693</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159718</v>
+        <v>0.159343</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305257</v>
+        <v>0.30122</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301315</v>
+        <v>0.30227</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182334</v>
+        <v>0.182141</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2883</v>
+        <v>0.285946</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155353</v>
+        <v>0.155183</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30245</v>
+        <v>0.302325</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303435</v>
+        <v>0.304344</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180983</v>
+        <v>0.180632</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288056</v>
+        <v>0.285827</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150626</v>
+        <v>0.150506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30033</v>
+        <v>0.298966</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305124</v>
+        <v>0.307094</v>
       </c>
       <c r="E70" t="n">
-        <v>0.179725</v>
+        <v>0.17964</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287498</v>
+        <v>0.285771</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145986</v>
+        <v>0.14601</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296657</v>
+        <v>0.297271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306903</v>
+        <v>0.308876</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178476</v>
+        <v>0.178449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2827</v>
+        <v>0.284818</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141247</v>
+        <v>0.141045</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294086</v>
+        <v>0.293716</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308994</v>
+        <v>0.311313</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177176</v>
+        <v>0.17723</v>
       </c>
       <c r="F72" t="n">
-        <v>0.283124</v>
+        <v>0.28243</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136155</v>
+        <v>0.136162</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291261</v>
+        <v>0.290022</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311531</v>
+        <v>0.313872</v>
       </c>
       <c r="E73" t="n">
-        <v>0.175916</v>
+        <v>0.17605</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281403</v>
+        <v>0.281539</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130946</v>
+        <v>0.130722</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287116</v>
+        <v>0.286866</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304313</v>
+        <v>0.317141</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174803</v>
+        <v>0.174881</v>
       </c>
       <c r="F74" t="n">
-        <v>0.280217</v>
+        <v>0.284152</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125976</v>
+        <v>0.125665</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283833</v>
+        <v>0.283485</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307556</v>
+        <v>0.31943</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17374</v>
+        <v>0.173774</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279748</v>
+        <v>0.28037</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120871</v>
+        <v>0.12054</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279533</v>
+        <v>0.279843</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310607</v>
+        <v>0.320751</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172572</v>
+        <v>0.17251</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277839</v>
+        <v>0.277425</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115788</v>
+        <v>0.115352</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275983</v>
+        <v>0.275012</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31397</v>
+        <v>0.322598</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1714</v>
+        <v>0.171329</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277731</v>
+        <v>0.276944</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110394</v>
+        <v>0.110163</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269987</v>
+        <v>0.268204</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307937</v>
+        <v>0.312772</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170128</v>
+        <v>0.170143</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277245</v>
+        <v>0.275284</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105439</v>
+        <v>0.105111</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265601</v>
+        <v>0.26525</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309346</v>
+        <v>0.313914</v>
       </c>
       <c r="E79" t="n">
-        <v>0.16879</v>
+        <v>0.168805</v>
       </c>
       <c r="F79" t="n">
-        <v>0.276002</v>
+        <v>0.273604</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100312</v>
+        <v>0.100024</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260035</v>
+        <v>0.256951</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310822</v>
+        <v>0.314629</v>
       </c>
       <c r="E80" t="n">
-        <v>0.18586</v>
+        <v>0.185863</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290137</v>
+        <v>0.290688</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164663</v>
+        <v>0.164908</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306793</v>
+        <v>0.30773</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312179</v>
+        <v>0.315331</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18434</v>
+        <v>0.184373</v>
       </c>
       <c r="F81" t="n">
-        <v>0.289955</v>
+        <v>0.290071</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160756</v>
+        <v>0.161199</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305046</v>
+        <v>0.306336</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314302</v>
+        <v>0.316741</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182937</v>
+        <v>0.182989</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288662</v>
+        <v>0.2885</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156494</v>
+        <v>0.156801</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30286</v>
+        <v>0.30385</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312828</v>
+        <v>0.317555</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181569</v>
+        <v>0.181643</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287097</v>
+        <v>0.287467</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151968</v>
+        <v>0.152116</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299674</v>
+        <v>0.301162</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315207</v>
+        <v>0.319414</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180261</v>
+        <v>0.180241</v>
       </c>
       <c r="F84" t="n">
-        <v>0.286256</v>
+        <v>0.287508</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147213</v>
+        <v>0.147266</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297868</v>
+        <v>0.298235</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317924</v>
+        <v>0.321138</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179013</v>
+        <v>0.179043</v>
       </c>
       <c r="F85" t="n">
-        <v>0.283699</v>
+        <v>0.284332</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142203</v>
+        <v>0.142266</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294256</v>
+        <v>0.294525</v>
       </c>
       <c r="D86" t="n">
-        <v>0.319727</v>
+        <v>0.32367</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177533</v>
+        <v>0.177781</v>
       </c>
       <c r="F86" t="n">
-        <v>0.281862</v>
+        <v>0.283805</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136809</v>
+        <v>0.137191</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290837</v>
+        <v>0.291068</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322056</v>
+        <v>0.32623</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17652</v>
+        <v>0.176586</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282439</v>
+        <v>0.282143</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131678</v>
+        <v>0.132068</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286624</v>
+        <v>0.286748</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325365</v>
+        <v>0.328215</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175348</v>
+        <v>0.175301</v>
       </c>
       <c r="F88" t="n">
-        <v>0.280987</v>
+        <v>0.283674</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126647</v>
+        <v>0.126859</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282588</v>
+        <v>0.283445</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312787</v>
+        <v>0.330048</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174171</v>
+        <v>0.174184</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279075</v>
+        <v>0.278773</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.12137</v>
+        <v>0.121673</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278218</v>
+        <v>0.279212</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316028</v>
+        <v>0.331226</v>
       </c>
       <c r="E90" t="n">
-        <v>0.173011</v>
+        <v>0.172787</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277966</v>
+        <v>0.277585</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116362</v>
+        <v>0.116221</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273845</v>
+        <v>0.273782</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318261</v>
+        <v>0.332158</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171817</v>
+        <v>0.17182</v>
       </c>
       <c r="F91" t="n">
-        <v>0.277705</v>
+        <v>0.278218</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111223</v>
+        <v>0.111328</v>
       </c>
       <c r="C92" t="n">
-        <v>0.268892</v>
+        <v>0.269525</v>
       </c>
       <c r="D92" t="n">
-        <v>0.294106</v>
+        <v>0.300407</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170481</v>
+        <v>0.170596</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277449</v>
+        <v>0.277496</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10608</v>
+        <v>0.106041</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263809</v>
+        <v>0.263965</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294138</v>
+        <v>0.301689</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169357</v>
+        <v>0.169362</v>
       </c>
       <c r="F93" t="n">
-        <v>0.276339</v>
+        <v>0.279352</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100747</v>
+        <v>0.100872</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2573</v>
+        <v>0.257537</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295863</v>
+        <v>0.303301</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186288</v>
+        <v>0.186219</v>
       </c>
       <c r="F94" t="n">
-        <v>0.290704</v>
+        <v>0.291601</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165827</v>
+        <v>0.165931</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304294</v>
+        <v>0.306221</v>
       </c>
       <c r="D95" t="n">
-        <v>0.29842</v>
+        <v>0.304958</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184789</v>
+        <v>0.184759</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2891</v>
+        <v>0.288857</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162047</v>
+        <v>0.162189</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302867</v>
+        <v>0.30429</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300815</v>
+        <v>0.306251</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183394</v>
+        <v>0.183388</v>
       </c>
       <c r="F96" t="n">
-        <v>0.28748</v>
+        <v>0.288255</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157915</v>
+        <v>0.158023</v>
       </c>
       <c r="C97" t="n">
-        <v>0.300717</v>
+        <v>0.303162</v>
       </c>
       <c r="D97" t="n">
-        <v>0.293741</v>
+        <v>0.308251</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181941</v>
+        <v>0.182025</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285933</v>
+        <v>0.285995</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153205</v>
+        <v>0.15331</v>
       </c>
       <c r="C98" t="n">
-        <v>0.298257</v>
+        <v>0.301696</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296935</v>
+        <v>0.310265</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180583</v>
+        <v>0.180574</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2849</v>
+        <v>0.284749</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148361</v>
+        <v>0.148456</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295434</v>
+        <v>0.299901</v>
       </c>
       <c r="D99" t="n">
-        <v>0.299585</v>
+        <v>0.312783</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179186</v>
+        <v>0.179241</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283561</v>
+        <v>0.284273</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143262</v>
+        <v>0.143449</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292283</v>
+        <v>0.296574</v>
       </c>
       <c r="D100" t="n">
-        <v>0.301912</v>
+        <v>0.315306</v>
       </c>
       <c r="E100" t="n">
         <v>0.177986</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283181</v>
+        <v>0.28439</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138177</v>
+        <v>0.13824</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289214</v>
+        <v>0.294618</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304456</v>
+        <v>0.317861</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176711</v>
+        <v>0.176698</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281283</v>
+        <v>0.283144</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133012</v>
+        <v>0.133063</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285685</v>
+        <v>0.290254</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307478</v>
+        <v>0.320291</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175481</v>
+        <v>0.175591</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279991</v>
+        <v>0.28019</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127706</v>
+        <v>0.128046</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282006</v>
+        <v>0.286317</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303078</v>
+        <v>0.322383</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174337</v>
+        <v>0.174371</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27991</v>
+        <v>0.280435</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122594</v>
+        <v>0.12267</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278054</v>
+        <v>0.282107</v>
       </c>
       <c r="D104" t="n">
-        <v>0.305736</v>
+        <v>0.323489</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173236</v>
+        <v>0.173173</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278353</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11748</v>
+        <v>0.117434</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273407</v>
+        <v>0.277417</v>
       </c>
       <c r="D105" t="n">
-        <v>0.30828</v>
+        <v>0.325151</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171985</v>
+        <v>0.17195</v>
       </c>
       <c r="F105" t="n">
-        <v>0.27841</v>
+        <v>0.280383</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112247</v>
+        <v>0.112286</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268282</v>
+        <v>0.272229</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310979</v>
+        <v>0.326546</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170768</v>
+        <v>0.170831</v>
       </c>
       <c r="F106" t="n">
-        <v>0.276423</v>
+        <v>0.279133</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107051</v>
+        <v>0.107127</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263</v>
+        <v>0.266555</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288203</v>
+        <v>0.300487</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169591</v>
+        <v>0.169489</v>
       </c>
       <c r="F107" t="n">
-        <v>0.276403</v>
+        <v>0.279639</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101946</v>
+        <v>0.101832</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256619</v>
+        <v>0.260082</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292013</v>
+        <v>0.302439</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186823</v>
+        <v>0.186937</v>
       </c>
       <c r="F108" t="n">
-        <v>0.291707</v>
+        <v>0.292189</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967567</v>
+        <v>0.0968629</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24992</v>
+        <v>0.254075</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29229</v>
+        <v>0.303832</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185346</v>
+        <v>0.185157</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289479</v>
+        <v>0.289435</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162967</v>
+        <v>0.16307</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30296</v>
+        <v>0.301648</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294392</v>
+        <v>0.305618</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183713</v>
+        <v>0.183694</v>
       </c>
       <c r="F110" t="n">
-        <v>0.287678</v>
+        <v>0.28981</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158764</v>
+        <v>0.158864</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300875</v>
+        <v>0.299336</v>
       </c>
       <c r="D111" t="n">
-        <v>0.292607</v>
+        <v>0.30735</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182293</v>
+        <v>0.182248</v>
       </c>
       <c r="F111" t="n">
-        <v>0.286814</v>
+        <v>0.287542</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154303</v>
+        <v>0.154315</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298487</v>
+        <v>0.297016</v>
       </c>
       <c r="D112" t="n">
-        <v>0.295503</v>
+        <v>0.309202</v>
       </c>
       <c r="E112" t="n">
-        <v>0.18084</v>
+        <v>0.180969</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285431</v>
+        <v>0.286779</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149356</v>
+        <v>0.149476</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295703</v>
+        <v>0.294551</v>
       </c>
       <c r="D113" t="n">
-        <v>0.296499</v>
+        <v>0.311365</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179571</v>
+        <v>0.179683</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283803</v>
+        <v>0.285269</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144288</v>
+        <v>0.144356</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292844</v>
+        <v>0.292075</v>
       </c>
       <c r="D114" t="n">
-        <v>0.296399</v>
+        <v>0.313911</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178313</v>
+        <v>0.17836</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282681</v>
+        <v>0.282766</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139228</v>
+        <v>0.139227</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289639</v>
+        <v>0.288444</v>
       </c>
       <c r="D115" t="n">
-        <v>0.299509</v>
+        <v>0.316867</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177089</v>
+        <v>0.177103</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282797</v>
+        <v>0.282752</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133971</v>
+        <v>0.133951</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286214</v>
+        <v>0.284866</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302004</v>
+        <v>0.319353</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175928</v>
+        <v>0.175865</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281505</v>
+        <v>0.281664</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128823</v>
+        <v>0.128724</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282686</v>
+        <v>0.281202</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301975</v>
+        <v>0.321088</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174627</v>
+        <v>0.174691</v>
       </c>
       <c r="F117" t="n">
-        <v>0.279495</v>
+        <v>0.280962</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123575</v>
+        <v>0.12358</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27869</v>
+        <v>0.277859</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304018</v>
+        <v>0.323239</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173494</v>
+        <v>0.17345</v>
       </c>
       <c r="F118" t="n">
-        <v>0.279065</v>
+        <v>0.280138</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118505</v>
+        <v>0.11836</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274529</v>
+        <v>0.272913</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303983</v>
+        <v>0.324579</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172336</v>
+        <v>0.172292</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278757</v>
+        <v>0.279964</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113398</v>
+        <v>0.113235</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269492</v>
+        <v>0.268021</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306704</v>
+        <v>0.325345</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1711</v>
+        <v>0.171091</v>
       </c>
       <c r="F120" t="n">
-        <v>0.275575</v>
+        <v>0.278374</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108129</v>
+        <v>0.108074</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264149</v>
+        <v>0.262753</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291754</v>
+        <v>0.302799</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169832</v>
+        <v>0.16983</v>
       </c>
       <c r="F121" t="n">
-        <v>0.275917</v>
+        <v>0.277643</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102995</v>
+        <v>0.102954</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257901</v>
+        <v>0.256902</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291334</v>
+        <v>0.304258</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168651</v>
+        <v>0.168437</v>
       </c>
       <c r="F122" t="n">
-        <v>0.274379</v>
+        <v>0.275682</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978272</v>
+        <v>0.09780610000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251101</v>
+        <v>0.249717</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293301</v>
+        <v>0.306306</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185594</v>
+        <v>0.185588</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289659</v>
+        <v>0.290878</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173163</v>
+        <v>0.173266</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303409</v>
+        <v>0.302189</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294055</v>
+        <v>0.307693</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184127</v>
+        <v>0.184049</v>
       </c>
       <c r="F124" t="n">
-        <v>0.288515</v>
+        <v>0.289987</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168798</v>
+        <v>0.168829</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301567</v>
+        <v>0.300141</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294076</v>
+        <v>0.309282</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182547</v>
+        <v>0.182532</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286383</v>
+        <v>0.287261</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16395</v>
+        <v>0.163743</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298971</v>
+        <v>0.298053</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29548</v>
+        <v>0.311297</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181164</v>
+        <v>0.181169</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285385</v>
+        <v>0.286378</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158612</v>
+        <v>0.158711</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296777</v>
+        <v>0.295211</v>
       </c>
       <c r="D127" t="n">
-        <v>0.296351</v>
+        <v>0.313136</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179891</v>
+        <v>0.179901</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284388</v>
+        <v>0.284253</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153084</v>
+        <v>0.153333</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293553</v>
+        <v>0.292207</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297646</v>
+        <v>0.315544</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178524</v>
+        <v>0.178604</v>
       </c>
       <c r="F128" t="n">
-        <v>0.28303</v>
+        <v>0.282679</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147691</v>
+        <v>0.147564</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290606</v>
+        <v>0.289382</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298871</v>
+        <v>0.318024</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177345</v>
+        <v>0.177293</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281704</v>
+        <v>0.282746</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142117</v>
+        <v>0.142282</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287176</v>
+        <v>0.286031</v>
       </c>
       <c r="D130" t="n">
-        <v>0.301197</v>
+        <v>0.320605</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176136</v>
+        <v>0.176177</v>
       </c>
       <c r="F130" t="n">
-        <v>0.28037</v>
+        <v>0.281468</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136613</v>
+        <v>0.136632</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283663</v>
+        <v>0.282391</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301915</v>
+        <v>0.32334</v>
       </c>
       <c r="E131" t="n">
         <v>0.17487</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2792</v>
+        <v>0.280928</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13103</v>
+        <v>0.131042</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279468</v>
+        <v>0.278589</v>
       </c>
       <c r="D132" t="n">
-        <v>0.303431</v>
+        <v>0.325225</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173534</v>
+        <v>0.173659</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279156</v>
+        <v>0.280337</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12573</v>
+        <v>0.12572</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275055</v>
+        <v>0.273811</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305508</v>
+        <v>0.326486</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172515</v>
+        <v>0.172448</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278247</v>
+        <v>0.278063</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120301</v>
+        <v>0.120338</v>
       </c>
       <c r="C134" t="n">
-        <v>0.27088</v>
+        <v>0.269277</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30774</v>
+        <v>0.32855</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171335</v>
+        <v>0.171297</v>
       </c>
       <c r="F134" t="n">
-        <v>0.277178</v>
+        <v>0.278153</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114801</v>
+        <v>0.115063</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265511</v>
+        <v>0.264104</v>
       </c>
       <c r="D135" t="n">
-        <v>0.290512</v>
+        <v>0.302836</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170139</v>
+        <v>0.170085</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275743</v>
+        <v>0.27679</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109373</v>
+        <v>0.109598</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259669</v>
+        <v>0.258319</v>
       </c>
       <c r="D136" t="n">
-        <v>0.291562</v>
+        <v>0.305037</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168873</v>
+        <v>0.16891</v>
       </c>
       <c r="F136" t="n">
-        <v>0.275603</v>
+        <v>0.277874</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104008</v>
+        <v>0.104135</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252929</v>
+        <v>0.251504</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293012</v>
+        <v>0.306668</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195071</v>
+        <v>0.195085</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296059</v>
+        <v>0.296311</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174341</v>
+        <v>0.174148</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320551</v>
+        <v>0.317912</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293275</v>
+        <v>0.307718</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193151</v>
+        <v>0.193159</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294334</v>
+        <v>0.294678</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169911</v>
+        <v>0.169691</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317583</v>
+        <v>0.316224</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293607</v>
+        <v>0.309008</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191191</v>
+        <v>0.191248</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292487</v>
+        <v>0.292369</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165021</v>
+        <v>0.164819</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314936</v>
+        <v>0.314126</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29464</v>
+        <v>0.310662</v>
       </c>
       <c r="E140" t="n">
-        <v>0.187378</v>
+        <v>0.18946</v>
       </c>
       <c r="F140" t="n">
-        <v>0.290702</v>
+        <v>0.291329</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158467</v>
+        <v>0.159743</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312477</v>
+        <v>0.311717</v>
       </c>
       <c r="D141" t="n">
-        <v>0.295747</v>
+        <v>0.313358</v>
       </c>
       <c r="E141" t="n">
-        <v>0.185453</v>
+        <v>0.18782</v>
       </c>
       <c r="F141" t="n">
-        <v>0.286845</v>
+        <v>0.289108</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154211</v>
+        <v>0.154231</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307596</v>
+        <v>0.308979</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297339</v>
+        <v>0.315474</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186171</v>
+        <v>0.186339</v>
       </c>
       <c r="F142" t="n">
-        <v>0.287463</v>
+        <v>0.288043</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148823</v>
+        <v>0.148905</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304996</v>
+        <v>0.305744</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298611</v>
+        <v>0.317883</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184394</v>
+        <v>0.184667</v>
       </c>
       <c r="F143" t="n">
-        <v>0.285171</v>
+        <v>0.288295</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0686249</v>
+        <v>0.0690504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.261012</v>
+        <v>0.26458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269494</v>
+        <v>0.269441</v>
       </c>
       <c r="E2" t="n">
-        <v>0.16158</v>
+        <v>0.161866</v>
       </c>
       <c r="F2" t="n">
-        <v>0.270263</v>
+        <v>0.270607</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0692398</v>
+        <v>0.0687382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.261722</v>
+        <v>0.263532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269751</v>
+        <v>0.270614</v>
       </c>
       <c r="E3" t="n">
-        <v>0.161996</v>
+        <v>0.162039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272258</v>
+        <v>0.270942</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0683735</v>
+        <v>0.0682714</v>
       </c>
       <c r="C4" t="n">
-        <v>0.259738</v>
+        <v>0.260644</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271875</v>
+        <v>0.274339</v>
       </c>
       <c r="E4" t="n">
-        <v>0.16175</v>
+        <v>0.16154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.266612</v>
+        <v>0.267117</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0681532</v>
+        <v>0.0689085</v>
       </c>
       <c r="C5" t="n">
-        <v>0.257227</v>
+        <v>0.259241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.275474</v>
+        <v>0.276295</v>
       </c>
       <c r="E5" t="n">
-        <v>0.16179</v>
+        <v>0.162022</v>
       </c>
       <c r="F5" t="n">
-        <v>0.27158</v>
+        <v>0.270356</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676049</v>
+        <v>0.0679823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.254054</v>
+        <v>0.254115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.279474</v>
+        <v>0.279137</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161829</v>
+        <v>0.16173</v>
       </c>
       <c r="F6" t="n">
-        <v>0.270461</v>
+        <v>0.268864</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675712</v>
+        <v>0.06798129999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.252553</v>
+        <v>0.252965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.267665</v>
+        <v>0.267706</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161399</v>
+        <v>0.161439</v>
       </c>
       <c r="F7" t="n">
-        <v>0.274942</v>
+        <v>0.272237</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0686059</v>
+        <v>0.068199</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244578</v>
+        <v>0.245377</v>
       </c>
       <c r="D8" t="n">
-        <v>0.271667</v>
+        <v>0.271146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16204</v>
+        <v>0.161862</v>
       </c>
       <c r="F8" t="n">
-        <v>0.268712</v>
+        <v>0.270686</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06848849999999999</v>
+        <v>0.06826260000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0.241124</v>
+        <v>0.242059</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271252</v>
+        <v>0.272229</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168464</v>
+        <v>0.168162</v>
       </c>
       <c r="F9" t="n">
-        <v>0.285207</v>
+        <v>0.278086</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0989138</v>
+        <v>0.0990967</v>
       </c>
       <c r="C10" t="n">
-        <v>0.28617</v>
+        <v>0.286726</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274027</v>
+        <v>0.276212</v>
       </c>
       <c r="E10" t="n">
-        <v>0.170575</v>
+        <v>0.168871</v>
       </c>
       <c r="F10" t="n">
-        <v>0.281893</v>
+        <v>0.282985</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0999679</v>
+        <v>0.100147</v>
       </c>
       <c r="C11" t="n">
-        <v>0.281862</v>
+        <v>0.282852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.277757</v>
+        <v>0.27745</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170083</v>
+        <v>0.170585</v>
       </c>
       <c r="F11" t="n">
-        <v>0.278694</v>
+        <v>0.276447</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0983043</v>
+        <v>0.09979449999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.285632</v>
+        <v>0.284778</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279876</v>
+        <v>0.28015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.168709</v>
+        <v>0.167412</v>
       </c>
       <c r="F12" t="n">
-        <v>0.279328</v>
+        <v>0.283598</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0986448</v>
+        <v>0.0984228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.281726</v>
+        <v>0.284184</v>
       </c>
       <c r="D13" t="n">
-        <v>0.282029</v>
+        <v>0.282419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168365</v>
+        <v>0.168462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.277468</v>
+        <v>0.280568</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09669949999999999</v>
+        <v>0.09835380000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.278961</v>
+        <v>0.281619</v>
       </c>
       <c r="D14" t="n">
-        <v>0.282234</v>
+        <v>0.282532</v>
       </c>
       <c r="E14" t="n">
-        <v>0.167011</v>
+        <v>0.168017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.274925</v>
+        <v>0.276272</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0961345</v>
+        <v>0.0959473</v>
       </c>
       <c r="C15" t="n">
-        <v>0.278713</v>
+        <v>0.278266</v>
       </c>
       <c r="D15" t="n">
-        <v>0.285411</v>
+        <v>0.284628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166422</v>
+        <v>0.166453</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28005</v>
+        <v>0.275361</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.095023</v>
+        <v>0.094789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.278365</v>
+        <v>0.27761</v>
       </c>
       <c r="D16" t="n">
-        <v>0.286679</v>
+        <v>0.286524</v>
       </c>
       <c r="E16" t="n">
-        <v>0.167152</v>
+        <v>0.166267</v>
       </c>
       <c r="F16" t="n">
-        <v>0.275056</v>
+        <v>0.274799</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09334770000000001</v>
+        <v>0.0936386</v>
       </c>
       <c r="C17" t="n">
-        <v>0.273726</v>
+        <v>0.275824</v>
       </c>
       <c r="D17" t="n">
-        <v>0.286855</v>
+        <v>0.286891</v>
       </c>
       <c r="E17" t="n">
-        <v>0.166022</v>
+        <v>0.165943</v>
       </c>
       <c r="F17" t="n">
-        <v>0.273237</v>
+        <v>0.275567</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0913365</v>
+        <v>0.09154089999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27149</v>
+        <v>0.272263</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289336</v>
+        <v>0.288781</v>
       </c>
       <c r="E18" t="n">
-        <v>0.165571</v>
+        <v>0.165526</v>
       </c>
       <c r="F18" t="n">
-        <v>0.277195</v>
+        <v>0.276487</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0895654</v>
+        <v>0.0899414</v>
       </c>
       <c r="C19" t="n">
-        <v>0.268766</v>
+        <v>0.268387</v>
       </c>
       <c r="D19" t="n">
-        <v>0.29009</v>
+        <v>0.28998</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165094</v>
+        <v>0.166927</v>
       </c>
       <c r="F19" t="n">
-        <v>0.272549</v>
+        <v>0.271279</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0882699</v>
+        <v>0.0887384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.263884</v>
+        <v>0.264847</v>
       </c>
       <c r="D20" t="n">
-        <v>0.291212</v>
+        <v>0.292578</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165937</v>
+        <v>0.164925</v>
       </c>
       <c r="F20" t="n">
-        <v>0.274594</v>
+        <v>0.271193</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0863989</v>
+        <v>0.0867252</v>
       </c>
       <c r="C21" t="n">
-        <v>0.259545</v>
+        <v>0.259298</v>
       </c>
       <c r="D21" t="n">
-        <v>0.28084</v>
+        <v>0.281419</v>
       </c>
       <c r="E21" t="n">
-        <v>0.165166</v>
+        <v>0.164148</v>
       </c>
       <c r="F21" t="n">
-        <v>0.270602</v>
+        <v>0.271153</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0861097</v>
+        <v>0.0853328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.254917</v>
+        <v>0.254887</v>
       </c>
       <c r="D22" t="n">
-        <v>0.282973</v>
+        <v>0.281336</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164279</v>
+        <v>0.164353</v>
       </c>
       <c r="F22" t="n">
-        <v>0.273191</v>
+        <v>0.271959</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0838686</v>
+        <v>0.08395560000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.247823</v>
+        <v>0.248306</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281976</v>
+        <v>0.282906</v>
       </c>
       <c r="E23" t="n">
-        <v>0.175762</v>
+        <v>0.173571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.286898</v>
+        <v>0.286701</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133703</v>
+        <v>0.13445</v>
       </c>
       <c r="C24" t="n">
-        <v>0.297709</v>
+        <v>0.298512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283264</v>
+        <v>0.284142</v>
       </c>
       <c r="E24" t="n">
-        <v>0.174141</v>
+        <v>0.176369</v>
       </c>
       <c r="F24" t="n">
-        <v>0.285047</v>
+        <v>0.283993</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.130821</v>
+        <v>0.132867</v>
       </c>
       <c r="C25" t="n">
-        <v>0.295652</v>
+        <v>0.296647</v>
       </c>
       <c r="D25" t="n">
-        <v>0.284577</v>
+        <v>0.284779</v>
       </c>
       <c r="E25" t="n">
-        <v>0.174573</v>
+        <v>0.173374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2826</v>
+        <v>0.282403</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.129769</v>
+        <v>0.129337</v>
       </c>
       <c r="C26" t="n">
-        <v>0.295057</v>
+        <v>0.295626</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287275</v>
+        <v>0.286208</v>
       </c>
       <c r="E26" t="n">
-        <v>0.173036</v>
+        <v>0.171626</v>
       </c>
       <c r="F26" t="n">
-        <v>0.279007</v>
+        <v>0.28018</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127306</v>
+        <v>0.129106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292737</v>
+        <v>0.293356</v>
       </c>
       <c r="D27" t="n">
-        <v>0.28793</v>
+        <v>0.28787</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171926</v>
+        <v>0.174249</v>
       </c>
       <c r="F27" t="n">
-        <v>0.281497</v>
+        <v>0.280551</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.124314</v>
+        <v>0.126784</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290331</v>
+        <v>0.29077</v>
       </c>
       <c r="D28" t="n">
-        <v>0.289309</v>
+        <v>0.289504</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170241</v>
+        <v>0.17068</v>
       </c>
       <c r="F28" t="n">
-        <v>0.281132</v>
+        <v>0.278818</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.121713</v>
+        <v>0.122804</v>
       </c>
       <c r="C29" t="n">
-        <v>0.288004</v>
+        <v>0.287692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.290688</v>
+        <v>0.290666</v>
       </c>
       <c r="E29" t="n">
-        <v>0.170719</v>
+        <v>0.170867</v>
       </c>
       <c r="F29" t="n">
-        <v>0.279192</v>
+        <v>0.279819</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11761</v>
+        <v>0.119105</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284721</v>
+        <v>0.284737</v>
       </c>
       <c r="D30" t="n">
-        <v>0.292507</v>
+        <v>0.292266</v>
       </c>
       <c r="E30" t="n">
-        <v>0.168842</v>
+        <v>0.168536</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277994</v>
+        <v>0.27735</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.113867</v>
+        <v>0.115378</v>
       </c>
       <c r="C31" t="n">
-        <v>0.282657</v>
+        <v>0.282542</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293843</v>
+        <v>0.292747</v>
       </c>
       <c r="E31" t="n">
-        <v>0.169506</v>
+        <v>0.168258</v>
       </c>
       <c r="F31" t="n">
-        <v>0.277257</v>
+        <v>0.278157</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111036</v>
+        <v>0.111333</v>
       </c>
       <c r="C32" t="n">
-        <v>0.278242</v>
+        <v>0.278255</v>
       </c>
       <c r="D32" t="n">
-        <v>0.294837</v>
+        <v>0.295205</v>
       </c>
       <c r="E32" t="n">
-        <v>0.168295</v>
+        <v>0.16833</v>
       </c>
       <c r="F32" t="n">
-        <v>0.274571</v>
+        <v>0.274852</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106676</v>
+        <v>0.107044</v>
       </c>
       <c r="C33" t="n">
-        <v>0.27469</v>
+        <v>0.275088</v>
       </c>
       <c r="D33" t="n">
-        <v>0.295276</v>
+        <v>0.295499</v>
       </c>
       <c r="E33" t="n">
-        <v>0.169117</v>
+        <v>0.167082</v>
       </c>
       <c r="F33" t="n">
-        <v>0.27548</v>
+        <v>0.277287</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102658</v>
+        <v>0.102473</v>
       </c>
       <c r="C34" t="n">
-        <v>0.270898</v>
+        <v>0.270946</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296356</v>
+        <v>0.296251</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166913</v>
+        <v>0.166966</v>
       </c>
       <c r="F34" t="n">
-        <v>0.274298</v>
+        <v>0.276192</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0982683</v>
+        <v>0.0979194</v>
       </c>
       <c r="C35" t="n">
-        <v>0.266018</v>
+        <v>0.266419</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284628</v>
+        <v>0.284356</v>
       </c>
       <c r="E35" t="n">
-        <v>0.16595</v>
+        <v>0.165936</v>
       </c>
       <c r="F35" t="n">
-        <v>0.278433</v>
+        <v>0.273165</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0936234</v>
+        <v>0.0934811</v>
       </c>
       <c r="C36" t="n">
-        <v>0.260953</v>
+        <v>0.260507</v>
       </c>
       <c r="D36" t="n">
-        <v>0.285291</v>
+        <v>0.284809</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165339</v>
+        <v>0.165672</v>
       </c>
       <c r="F36" t="n">
-        <v>0.274692</v>
+        <v>0.272192</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0898571</v>
+        <v>0.08959839999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.254841</v>
+        <v>0.254565</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28665</v>
+        <v>0.286385</v>
       </c>
       <c r="E37" t="n">
-        <v>0.182019</v>
+        <v>0.180633</v>
       </c>
       <c r="F37" t="n">
-        <v>0.289728</v>
+        <v>0.289305</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154628</v>
+        <v>0.154793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301867</v>
+        <v>0.30236</v>
       </c>
       <c r="D38" t="n">
-        <v>0.287176</v>
+        <v>0.288001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.180513</v>
+        <v>0.179876</v>
       </c>
       <c r="F38" t="n">
-        <v>0.285703</v>
+        <v>0.283589</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151396</v>
+        <v>0.151885</v>
       </c>
       <c r="C39" t="n">
-        <v>0.301236</v>
+        <v>0.300769</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288335</v>
+        <v>0.288724</v>
       </c>
       <c r="E39" t="n">
-        <v>0.180052</v>
+        <v>0.178282</v>
       </c>
       <c r="F39" t="n">
-        <v>0.287306</v>
+        <v>0.286568</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.147787</v>
+        <v>0.148555</v>
       </c>
       <c r="C40" t="n">
-        <v>0.297645</v>
+        <v>0.296787</v>
       </c>
       <c r="D40" t="n">
-        <v>0.289704</v>
+        <v>0.289746</v>
       </c>
       <c r="E40" t="n">
-        <v>0.177522</v>
+        <v>0.177838</v>
       </c>
       <c r="F40" t="n">
-        <v>0.282581</v>
+        <v>0.286651</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144571</v>
+        <v>0.14491</v>
       </c>
       <c r="C41" t="n">
-        <v>0.297652</v>
+        <v>0.297991</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291189</v>
+        <v>0.291173</v>
       </c>
       <c r="E41" t="n">
-        <v>0.177031</v>
+        <v>0.176511</v>
       </c>
       <c r="F41" t="n">
-        <v>0.282926</v>
+        <v>0.284212</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140982</v>
+        <v>0.14055</v>
       </c>
       <c r="C42" t="n">
-        <v>0.295083</v>
+        <v>0.295371</v>
       </c>
       <c r="D42" t="n">
-        <v>0.292831</v>
+        <v>0.292731</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175781</v>
+        <v>0.175756</v>
       </c>
       <c r="F42" t="n">
-        <v>0.281446</v>
+        <v>0.281696</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136214</v>
+        <v>0.136274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292455</v>
+        <v>0.292722</v>
       </c>
       <c r="D43" t="n">
-        <v>0.294572</v>
+        <v>0.294497</v>
       </c>
       <c r="E43" t="n">
-        <v>0.17478</v>
+        <v>0.174971</v>
       </c>
       <c r="F43" t="n">
-        <v>0.278023</v>
+        <v>0.281537</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131819</v>
+        <v>0.131823</v>
       </c>
       <c r="C44" t="n">
-        <v>0.289901</v>
+        <v>0.289405</v>
       </c>
       <c r="D44" t="n">
-        <v>0.296238</v>
+        <v>0.295462</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173495</v>
+        <v>0.174033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.279528</v>
+        <v>0.279222</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126976</v>
+        <v>0.127375</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285706</v>
+        <v>0.286101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.296522</v>
+        <v>0.296366</v>
       </c>
       <c r="E45" t="n">
-        <v>0.172234</v>
+        <v>0.173475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.282422</v>
+        <v>0.280526</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122687</v>
+        <v>0.122764</v>
       </c>
       <c r="C46" t="n">
-        <v>0.280652</v>
+        <v>0.281879</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297751</v>
+        <v>0.297754</v>
       </c>
       <c r="E46" t="n">
-        <v>0.172779</v>
+        <v>0.171756</v>
       </c>
       <c r="F46" t="n">
-        <v>0.280159</v>
+        <v>0.275084</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118251</v>
+        <v>0.117801</v>
       </c>
       <c r="C47" t="n">
-        <v>0.278887</v>
+        <v>0.278352</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298396</v>
+        <v>0.29767</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170768</v>
+        <v>0.170571</v>
       </c>
       <c r="F47" t="n">
-        <v>0.276195</v>
+        <v>0.280003</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.112945</v>
+        <v>0.11335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.273565</v>
+        <v>0.274324</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298457</v>
+        <v>0.298733</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169869</v>
+        <v>0.169755</v>
       </c>
       <c r="F48" t="n">
-        <v>0.274009</v>
+        <v>0.276613</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.10807</v>
+        <v>0.108593</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269026</v>
+        <v>0.269906</v>
       </c>
       <c r="D49" t="n">
-        <v>0.300195</v>
+        <v>0.299648</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168737</v>
+        <v>0.168654</v>
       </c>
       <c r="F49" t="n">
-        <v>0.276134</v>
+        <v>0.273557</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103132</v>
+        <v>0.103386</v>
       </c>
       <c r="C50" t="n">
-        <v>0.261901</v>
+        <v>0.264383</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288455</v>
+        <v>0.288023</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167514</v>
+        <v>0.167412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273974</v>
+        <v>0.275569</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0980709</v>
+        <v>0.09832639999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.256867</v>
+        <v>0.257079</v>
       </c>
       <c r="D51" t="n">
-        <v>0.289368</v>
+        <v>0.288731</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184825</v>
+        <v>0.18489</v>
       </c>
       <c r="F51" t="n">
-        <v>0.290468</v>
+        <v>0.28946</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09284050000000001</v>
+        <v>0.0928573</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250643</v>
+        <v>0.249408</v>
       </c>
       <c r="D52" t="n">
-        <v>0.290329</v>
+        <v>0.28948</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183376</v>
+        <v>0.183449</v>
       </c>
       <c r="F52" t="n">
-        <v>0.289712</v>
+        <v>0.29013</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159135</v>
+        <v>0.15996</v>
       </c>
       <c r="C53" t="n">
-        <v>0.303692</v>
+        <v>0.303042</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291907</v>
+        <v>0.291627</v>
       </c>
       <c r="E53" t="n">
-        <v>0.182037</v>
+        <v>0.182268</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288699</v>
+        <v>0.288935</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155787</v>
+        <v>0.156028</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301831</v>
+        <v>0.299752</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292646</v>
+        <v>0.292521</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180633</v>
+        <v>0.181071</v>
       </c>
       <c r="F54" t="n">
-        <v>0.285152</v>
+        <v>0.288119</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151522</v>
+        <v>0.151781</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300042</v>
+        <v>0.298312</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293566</v>
+        <v>0.293789</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179657</v>
+        <v>0.179303</v>
       </c>
       <c r="F55" t="n">
-        <v>0.283258</v>
+        <v>0.285483</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147247</v>
+        <v>0.147163</v>
       </c>
       <c r="C56" t="n">
-        <v>0.295432</v>
+        <v>0.296994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295581</v>
+        <v>0.294942</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178091</v>
+        <v>0.178115</v>
       </c>
       <c r="F56" t="n">
-        <v>0.284492</v>
+        <v>0.282952</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142478</v>
+        <v>0.142524</v>
       </c>
       <c r="C57" t="n">
-        <v>0.294643</v>
+        <v>0.294816</v>
       </c>
       <c r="D57" t="n">
-        <v>0.296383</v>
+        <v>0.296468</v>
       </c>
       <c r="E57" t="n">
-        <v>0.176918</v>
+        <v>0.177104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.283738</v>
+        <v>0.281382</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137782</v>
+        <v>0.13773</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291114</v>
+        <v>0.291929</v>
       </c>
       <c r="D58" t="n">
-        <v>0.297487</v>
+        <v>0.298382</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175803</v>
+        <v>0.17584</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281841</v>
+        <v>0.282166</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133112</v>
+        <v>0.132989</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288474</v>
+        <v>0.287304</v>
       </c>
       <c r="D59" t="n">
-        <v>0.299248</v>
+        <v>0.299373</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174829</v>
+        <v>0.174807</v>
       </c>
       <c r="F59" t="n">
-        <v>0.283321</v>
+        <v>0.281303</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12825</v>
+        <v>0.128082</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285184</v>
+        <v>0.284823</v>
       </c>
       <c r="D60" t="n">
-        <v>0.300456</v>
+        <v>0.3003</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173682</v>
+        <v>0.173614</v>
       </c>
       <c r="F60" t="n">
-        <v>0.278859</v>
+        <v>0.281842</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123274</v>
+        <v>0.123123</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281158</v>
+        <v>0.281296</v>
       </c>
       <c r="D61" t="n">
-        <v>0.301801</v>
+        <v>0.30143</v>
       </c>
       <c r="E61" t="n">
-        <v>0.172578</v>
+        <v>0.172416</v>
       </c>
       <c r="F61" t="n">
-        <v>0.281892</v>
+        <v>0.276401</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118419</v>
+        <v>0.11813</v>
       </c>
       <c r="C62" t="n">
-        <v>0.276031</v>
+        <v>0.276004</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302871</v>
+        <v>0.302243</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171467</v>
+        <v>0.171479</v>
       </c>
       <c r="F62" t="n">
-        <v>0.277034</v>
+        <v>0.276261</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113194</v>
+        <v>0.113207</v>
       </c>
       <c r="C63" t="n">
-        <v>0.270999</v>
+        <v>0.271541</v>
       </c>
       <c r="D63" t="n">
-        <v>0.303792</v>
+        <v>0.303588</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170336</v>
+        <v>0.170241</v>
       </c>
       <c r="F63" t="n">
-        <v>0.277773</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1084</v>
+        <v>0.108068</v>
       </c>
       <c r="C64" t="n">
-        <v>0.266324</v>
+        <v>0.266027</v>
       </c>
       <c r="D64" t="n">
-        <v>0.295089</v>
+        <v>0.294904</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168976</v>
+        <v>0.169258</v>
       </c>
       <c r="F64" t="n">
-        <v>0.27683</v>
+        <v>0.274051</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103085</v>
+        <v>0.103107</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26028</v>
+        <v>0.26085</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296733</v>
+        <v>0.296731</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167974</v>
+        <v>0.167946</v>
       </c>
       <c r="F65" t="n">
-        <v>0.273234</v>
+        <v>0.274448</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0979225</v>
+        <v>0.09808269999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.254075</v>
+        <v>0.253483</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298969</v>
+        <v>0.298783</v>
       </c>
       <c r="E66" t="n">
-        <v>0.18509</v>
+        <v>0.18497</v>
       </c>
       <c r="F66" t="n">
-        <v>0.292429</v>
+        <v>0.290978</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163346</v>
+        <v>0.163428</v>
       </c>
       <c r="C67" t="n">
-        <v>0.305488</v>
+        <v>0.304751</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300563</v>
+        <v>0.30066</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183693</v>
+        <v>0.183688</v>
       </c>
       <c r="F67" t="n">
-        <v>0.289693</v>
+        <v>0.289161</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159343</v>
+        <v>0.159703</v>
       </c>
       <c r="C68" t="n">
-        <v>0.30122</v>
+        <v>0.304434</v>
       </c>
       <c r="D68" t="n">
-        <v>0.30227</v>
+        <v>0.302701</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182141</v>
+        <v>0.182327</v>
       </c>
       <c r="F68" t="n">
-        <v>0.285946</v>
+        <v>0.286427</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155183</v>
+        <v>0.155303</v>
       </c>
       <c r="C69" t="n">
-        <v>0.302325</v>
+        <v>0.30147</v>
       </c>
       <c r="D69" t="n">
-        <v>0.304344</v>
+        <v>0.304795</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180632</v>
+        <v>0.180795</v>
       </c>
       <c r="F69" t="n">
-        <v>0.285827</v>
+        <v>0.287912</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150506</v>
+        <v>0.151061</v>
       </c>
       <c r="C70" t="n">
-        <v>0.298966</v>
+        <v>0.299628</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307094</v>
+        <v>0.306742</v>
       </c>
       <c r="E70" t="n">
-        <v>0.17964</v>
+        <v>0.179649</v>
       </c>
       <c r="F70" t="n">
-        <v>0.285771</v>
+        <v>0.288498</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14601</v>
+        <v>0.14639</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297271</v>
+        <v>0.295494</v>
       </c>
       <c r="D71" t="n">
-        <v>0.308876</v>
+        <v>0.308754</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178449</v>
+        <v>0.178159</v>
       </c>
       <c r="F71" t="n">
-        <v>0.284818</v>
+        <v>0.282246</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141045</v>
+        <v>0.141205</v>
       </c>
       <c r="C72" t="n">
-        <v>0.293716</v>
+        <v>0.293594</v>
       </c>
       <c r="D72" t="n">
-        <v>0.311313</v>
+        <v>0.311719</v>
       </c>
       <c r="E72" t="n">
-        <v>0.17723</v>
+        <v>0.177268</v>
       </c>
       <c r="F72" t="n">
-        <v>0.28243</v>
+        <v>0.282041</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136162</v>
+        <v>0.13653</v>
       </c>
       <c r="C73" t="n">
-        <v>0.290022</v>
+        <v>0.289846</v>
       </c>
       <c r="D73" t="n">
-        <v>0.313872</v>
+        <v>0.314965</v>
       </c>
       <c r="E73" t="n">
-        <v>0.17605</v>
+        <v>0.175979</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281539</v>
+        <v>0.280023</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130722</v>
+        <v>0.131269</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286866</v>
+        <v>0.286555</v>
       </c>
       <c r="D74" t="n">
-        <v>0.317141</v>
+        <v>0.315709</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174881</v>
+        <v>0.174867</v>
       </c>
       <c r="F74" t="n">
-        <v>0.284152</v>
+        <v>0.279886</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125665</v>
+        <v>0.125992</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283485</v>
+        <v>0.282831</v>
       </c>
       <c r="D75" t="n">
-        <v>0.31943</v>
+        <v>0.317893</v>
       </c>
       <c r="E75" t="n">
-        <v>0.173774</v>
+        <v>0.17362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.28037</v>
+        <v>0.280838</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.12054</v>
+        <v>0.120905</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279843</v>
+        <v>0.278551</v>
       </c>
       <c r="D76" t="n">
-        <v>0.320751</v>
+        <v>0.320047</v>
       </c>
       <c r="E76" t="n">
-        <v>0.17251</v>
+        <v>0.1726</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277425</v>
+        <v>0.276399</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115352</v>
+        <v>0.115857</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275012</v>
+        <v>0.27486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322598</v>
+        <v>0.322336</v>
       </c>
       <c r="E77" t="n">
-        <v>0.171329</v>
+        <v>0.171407</v>
       </c>
       <c r="F77" t="n">
-        <v>0.276944</v>
+        <v>0.276751</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110163</v>
+        <v>0.110635</v>
       </c>
       <c r="C78" t="n">
-        <v>0.268204</v>
+        <v>0.270611</v>
       </c>
       <c r="D78" t="n">
-        <v>0.312772</v>
+        <v>0.312345</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170143</v>
+        <v>0.170106</v>
       </c>
       <c r="F78" t="n">
-        <v>0.275284</v>
+        <v>0.277796</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105111</v>
+        <v>0.105501</v>
       </c>
       <c r="C79" t="n">
-        <v>0.26525</v>
+        <v>0.2656</v>
       </c>
       <c r="D79" t="n">
-        <v>0.313914</v>
+        <v>0.313758</v>
       </c>
       <c r="E79" t="n">
-        <v>0.168805</v>
+        <v>0.168861</v>
       </c>
       <c r="F79" t="n">
-        <v>0.273604</v>
+        <v>0.276156</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100024</v>
+        <v>0.100456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.256951</v>
+        <v>0.257881</v>
       </c>
       <c r="D80" t="n">
-        <v>0.314629</v>
+        <v>0.314303</v>
       </c>
       <c r="E80" t="n">
-        <v>0.185863</v>
+        <v>0.185896</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290688</v>
+        <v>0.291264</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164908</v>
+        <v>0.164727</v>
       </c>
       <c r="C81" t="n">
-        <v>0.30773</v>
+        <v>0.313683</v>
       </c>
       <c r="D81" t="n">
-        <v>0.315331</v>
+        <v>0.315625</v>
       </c>
       <c r="E81" t="n">
-        <v>0.184373</v>
+        <v>0.184244</v>
       </c>
       <c r="F81" t="n">
-        <v>0.290071</v>
+        <v>0.289496</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.161199</v>
+        <v>0.160859</v>
       </c>
       <c r="C82" t="n">
-        <v>0.306336</v>
+        <v>0.313247</v>
       </c>
       <c r="D82" t="n">
-        <v>0.316741</v>
+        <v>0.316473</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182989</v>
+        <v>0.182865</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2885</v>
+        <v>0.288392</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156801</v>
+        <v>0.156677</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30385</v>
+        <v>0.310145</v>
       </c>
       <c r="D83" t="n">
-        <v>0.317555</v>
+        <v>0.317086</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181643</v>
+        <v>0.181524</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287467</v>
+        <v>0.288325</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152116</v>
+        <v>0.152253</v>
       </c>
       <c r="C84" t="n">
-        <v>0.301162</v>
+        <v>0.308468</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319414</v>
+        <v>0.319313</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180241</v>
+        <v>0.180177</v>
       </c>
       <c r="F84" t="n">
-        <v>0.287508</v>
+        <v>0.287539</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147266</v>
+        <v>0.147147</v>
       </c>
       <c r="C85" t="n">
-        <v>0.298235</v>
+        <v>0.304839</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321138</v>
+        <v>0.321135</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179043</v>
+        <v>0.178967</v>
       </c>
       <c r="F85" t="n">
-        <v>0.284332</v>
+        <v>0.285411</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142266</v>
+        <v>0.142147</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294525</v>
+        <v>0.301741</v>
       </c>
       <c r="D86" t="n">
-        <v>0.32367</v>
+        <v>0.32353</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177781</v>
+        <v>0.177724</v>
       </c>
       <c r="F86" t="n">
-        <v>0.283805</v>
+        <v>0.283956</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.137191</v>
+        <v>0.137017</v>
       </c>
       <c r="C87" t="n">
-        <v>0.291068</v>
+        <v>0.300357</v>
       </c>
       <c r="D87" t="n">
-        <v>0.32623</v>
+        <v>0.326714</v>
       </c>
       <c r="E87" t="n">
-        <v>0.176586</v>
+        <v>0.176517</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282143</v>
+        <v>0.282586</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132068</v>
+        <v>0.131734</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286748</v>
+        <v>0.297243</v>
       </c>
       <c r="D88" t="n">
-        <v>0.328215</v>
+        <v>0.328013</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175301</v>
+        <v>0.175281</v>
       </c>
       <c r="F88" t="n">
-        <v>0.283674</v>
+        <v>0.281556</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126859</v>
+        <v>0.126634</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283445</v>
+        <v>0.290114</v>
       </c>
       <c r="D89" t="n">
-        <v>0.330048</v>
+        <v>0.328334</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174184</v>
+        <v>0.174156</v>
       </c>
       <c r="F89" t="n">
-        <v>0.278773</v>
+        <v>0.277795</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121673</v>
+        <v>0.121536</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279212</v>
+        <v>0.289488</v>
       </c>
       <c r="D90" t="n">
-        <v>0.331226</v>
+        <v>0.329375</v>
       </c>
       <c r="E90" t="n">
-        <v>0.172787</v>
+        <v>0.172936</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277585</v>
+        <v>0.279889</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116221</v>
+        <v>0.116423</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273782</v>
+        <v>0.284338</v>
       </c>
       <c r="D91" t="n">
-        <v>0.332158</v>
+        <v>0.330646</v>
       </c>
       <c r="E91" t="n">
-        <v>0.17182</v>
+        <v>0.171727</v>
       </c>
       <c r="F91" t="n">
-        <v>0.278218</v>
+        <v>0.276249</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111328</v>
+        <v>0.111045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.269525</v>
+        <v>0.278971</v>
       </c>
       <c r="D92" t="n">
-        <v>0.300407</v>
+        <v>0.29899</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170596</v>
+        <v>0.170517</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277496</v>
+        <v>0.273404</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106041</v>
+        <v>0.106089</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263965</v>
+        <v>0.272042</v>
       </c>
       <c r="D93" t="n">
-        <v>0.301689</v>
+        <v>0.300799</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169362</v>
+        <v>0.16928</v>
       </c>
       <c r="F93" t="n">
-        <v>0.279352</v>
+        <v>0.276352</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100872</v>
+        <v>0.100879</v>
       </c>
       <c r="C94" t="n">
-        <v>0.257537</v>
+        <v>0.267224</v>
       </c>
       <c r="D94" t="n">
-        <v>0.303301</v>
+        <v>0.302672</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186219</v>
+        <v>0.186292</v>
       </c>
       <c r="F94" t="n">
-        <v>0.291601</v>
+        <v>0.290651</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165931</v>
+        <v>0.166057</v>
       </c>
       <c r="C95" t="n">
-        <v>0.306221</v>
+        <v>0.315287</v>
       </c>
       <c r="D95" t="n">
-        <v>0.304958</v>
+        <v>0.304181</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184759</v>
+        <v>0.18476</v>
       </c>
       <c r="F95" t="n">
-        <v>0.288857</v>
+        <v>0.289179</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162189</v>
+        <v>0.162178</v>
       </c>
       <c r="C96" t="n">
-        <v>0.30429</v>
+        <v>0.312915</v>
       </c>
       <c r="D96" t="n">
-        <v>0.306251</v>
+        <v>0.305671</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183388</v>
+        <v>0.183282</v>
       </c>
       <c r="F96" t="n">
-        <v>0.288255</v>
+        <v>0.28794</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.158023</v>
+        <v>0.15776</v>
       </c>
       <c r="C97" t="n">
-        <v>0.303162</v>
+        <v>0.309986</v>
       </c>
       <c r="D97" t="n">
-        <v>0.308251</v>
+        <v>0.30621</v>
       </c>
       <c r="E97" t="n">
-        <v>0.182025</v>
+        <v>0.181984</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285995</v>
+        <v>0.285445</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.15331</v>
+        <v>0.153201</v>
       </c>
       <c r="C98" t="n">
-        <v>0.301696</v>
+        <v>0.309158</v>
       </c>
       <c r="D98" t="n">
-        <v>0.310265</v>
+        <v>0.307895</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180574</v>
+        <v>0.180611</v>
       </c>
       <c r="F98" t="n">
-        <v>0.284749</v>
+        <v>0.286265</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148456</v>
+        <v>0.148288</v>
       </c>
       <c r="C99" t="n">
-        <v>0.299901</v>
+        <v>0.305547</v>
       </c>
       <c r="D99" t="n">
-        <v>0.312783</v>
+        <v>0.310493</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179241</v>
+        <v>0.17925</v>
       </c>
       <c r="F99" t="n">
-        <v>0.284273</v>
+        <v>0.284096</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143449</v>
+        <v>0.14333</v>
       </c>
       <c r="C100" t="n">
-        <v>0.296574</v>
+        <v>0.301661</v>
       </c>
       <c r="D100" t="n">
-        <v>0.315306</v>
+        <v>0.313634</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177986</v>
+        <v>0.178039</v>
       </c>
       <c r="F100" t="n">
-        <v>0.28439</v>
+        <v>0.28265</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.13824</v>
+        <v>0.138254</v>
       </c>
       <c r="C101" t="n">
-        <v>0.294618</v>
+        <v>0.297323</v>
       </c>
       <c r="D101" t="n">
-        <v>0.317861</v>
+        <v>0.316817</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176698</v>
+        <v>0.176777</v>
       </c>
       <c r="F101" t="n">
-        <v>0.283144</v>
+        <v>0.281976</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133063</v>
+        <v>0.132991</v>
       </c>
       <c r="C102" t="n">
-        <v>0.290254</v>
+        <v>0.294176</v>
       </c>
       <c r="D102" t="n">
-        <v>0.320291</v>
+        <v>0.319305</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175591</v>
+        <v>0.175483</v>
       </c>
       <c r="F102" t="n">
-        <v>0.28019</v>
+        <v>0.281565</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.128046</v>
+        <v>0.127702</v>
       </c>
       <c r="C103" t="n">
-        <v>0.286317</v>
+        <v>0.290743</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322383</v>
+        <v>0.320345</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174371</v>
+        <v>0.174365</v>
       </c>
       <c r="F103" t="n">
-        <v>0.280435</v>
+        <v>0.281482</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12267</v>
+        <v>0.122625</v>
       </c>
       <c r="C104" t="n">
-        <v>0.282107</v>
+        <v>0.285917</v>
       </c>
       <c r="D104" t="n">
-        <v>0.323489</v>
+        <v>0.321978</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173173</v>
+        <v>0.173241</v>
       </c>
       <c r="F104" t="n">
-        <v>0.282</v>
+        <v>0.281074</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117434</v>
+        <v>0.117451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.277417</v>
+        <v>0.281799</v>
       </c>
       <c r="D105" t="n">
-        <v>0.325151</v>
+        <v>0.323376</v>
       </c>
       <c r="E105" t="n">
-        <v>0.17195</v>
+        <v>0.171947</v>
       </c>
       <c r="F105" t="n">
-        <v>0.280383</v>
+        <v>0.278021</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112286</v>
+        <v>0.112332</v>
       </c>
       <c r="C106" t="n">
-        <v>0.272229</v>
+        <v>0.276224</v>
       </c>
       <c r="D106" t="n">
-        <v>0.326546</v>
+        <v>0.3252</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170831</v>
+        <v>0.170827</v>
       </c>
       <c r="F106" t="n">
-        <v>0.279133</v>
+        <v>0.276596</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107127</v>
+        <v>0.107074</v>
       </c>
       <c r="C107" t="n">
-        <v>0.266555</v>
+        <v>0.270915</v>
       </c>
       <c r="D107" t="n">
-        <v>0.300487</v>
+        <v>0.299133</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169489</v>
+        <v>0.169571</v>
       </c>
       <c r="F107" t="n">
-        <v>0.279639</v>
+        <v>0.277598</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101832</v>
+        <v>0.101977</v>
       </c>
       <c r="C108" t="n">
-        <v>0.260082</v>
+        <v>0.263809</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302439</v>
+        <v>0.30129</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186937</v>
+        <v>0.186728</v>
       </c>
       <c r="F108" t="n">
-        <v>0.292189</v>
+        <v>0.292017</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0968629</v>
+        <v>0.0967143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.254075</v>
+        <v>0.2581</v>
       </c>
       <c r="D109" t="n">
-        <v>0.303832</v>
+        <v>0.30237</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185157</v>
+        <v>0.185105</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289435</v>
+        <v>0.289497</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.16307</v>
+        <v>0.162937</v>
       </c>
       <c r="C110" t="n">
-        <v>0.301648</v>
+        <v>0.310421</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305618</v>
+        <v>0.303947</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183694</v>
+        <v>0.183728</v>
       </c>
       <c r="F110" t="n">
-        <v>0.28981</v>
+        <v>0.289585</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158864</v>
+        <v>0.158693</v>
       </c>
       <c r="C111" t="n">
-        <v>0.299336</v>
+        <v>0.307733</v>
       </c>
       <c r="D111" t="n">
-        <v>0.30735</v>
+        <v>0.305478</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182248</v>
+        <v>0.18227</v>
       </c>
       <c r="F111" t="n">
-        <v>0.287542</v>
+        <v>0.287739</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154315</v>
+        <v>0.154169</v>
       </c>
       <c r="C112" t="n">
-        <v>0.297016</v>
+        <v>0.30505</v>
       </c>
       <c r="D112" t="n">
-        <v>0.309202</v>
+        <v>0.306501</v>
       </c>
       <c r="E112" t="n">
-        <v>0.180969</v>
+        <v>0.180927</v>
       </c>
       <c r="F112" t="n">
-        <v>0.286779</v>
+        <v>0.285571</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149476</v>
+        <v>0.149388</v>
       </c>
       <c r="C113" t="n">
-        <v>0.294551</v>
+        <v>0.302108</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311365</v>
+        <v>0.308813</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179683</v>
+        <v>0.179613</v>
       </c>
       <c r="F113" t="n">
-        <v>0.285269</v>
+        <v>0.284381</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144356</v>
+        <v>0.144352</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292075</v>
+        <v>0.298546</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313911</v>
+        <v>0.312</v>
       </c>
       <c r="E114" t="n">
-        <v>0.17836</v>
+        <v>0.178323</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282766</v>
+        <v>0.283147</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139227</v>
+        <v>0.139293</v>
       </c>
       <c r="C115" t="n">
-        <v>0.288444</v>
+        <v>0.295422</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316867</v>
+        <v>0.315589</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177103</v>
+        <v>0.177042</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282752</v>
+        <v>0.282958</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133951</v>
+        <v>0.134128</v>
       </c>
       <c r="C116" t="n">
-        <v>0.284866</v>
+        <v>0.290756</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319353</v>
+        <v>0.317942</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175865</v>
+        <v>0.175871</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281664</v>
+        <v>0.281829</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128724</v>
+        <v>0.128901</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281202</v>
+        <v>0.287544</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321088</v>
+        <v>0.319599</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174691</v>
+        <v>0.174649</v>
       </c>
       <c r="F117" t="n">
-        <v>0.280962</v>
+        <v>0.280355</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12358</v>
+        <v>0.123583</v>
       </c>
       <c r="C118" t="n">
-        <v>0.277859</v>
+        <v>0.283082</v>
       </c>
       <c r="D118" t="n">
-        <v>0.323239</v>
+        <v>0.320736</v>
       </c>
       <c r="E118" t="n">
-        <v>0.17345</v>
+        <v>0.173556</v>
       </c>
       <c r="F118" t="n">
-        <v>0.280138</v>
+        <v>0.279607</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.11836</v>
+        <v>0.118593</v>
       </c>
       <c r="C119" t="n">
-        <v>0.272913</v>
+        <v>0.278599</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324579</v>
+        <v>0.321979</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172292</v>
+        <v>0.172311</v>
       </c>
       <c r="F119" t="n">
-        <v>0.279964</v>
+        <v>0.280224</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113235</v>
+        <v>0.113307</v>
       </c>
       <c r="C120" t="n">
-        <v>0.268021</v>
+        <v>0.273576</v>
       </c>
       <c r="D120" t="n">
-        <v>0.325345</v>
+        <v>0.323942</v>
       </c>
       <c r="E120" t="n">
-        <v>0.171091</v>
+        <v>0.171209</v>
       </c>
       <c r="F120" t="n">
-        <v>0.278374</v>
+        <v>0.276274</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108074</v>
+        <v>0.108149</v>
       </c>
       <c r="C121" t="n">
-        <v>0.262753</v>
+        <v>0.268071</v>
       </c>
       <c r="D121" t="n">
-        <v>0.302799</v>
+        <v>0.300883</v>
       </c>
       <c r="E121" t="n">
-        <v>0.16983</v>
+        <v>0.169856</v>
       </c>
       <c r="F121" t="n">
-        <v>0.277643</v>
+        <v>0.277257</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102954</v>
+        <v>0.102955</v>
       </c>
       <c r="C122" t="n">
-        <v>0.256902</v>
+        <v>0.261609</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304258</v>
+        <v>0.30324</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168437</v>
+        <v>0.168648</v>
       </c>
       <c r="F122" t="n">
-        <v>0.275682</v>
+        <v>0.276327</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09780610000000001</v>
+        <v>0.0977547</v>
       </c>
       <c r="C123" t="n">
-        <v>0.249717</v>
+        <v>0.254691</v>
       </c>
       <c r="D123" t="n">
-        <v>0.306306</v>
+        <v>0.303925</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185588</v>
+        <v>0.185284</v>
       </c>
       <c r="F123" t="n">
-        <v>0.290878</v>
+        <v>0.289572</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173266</v>
+        <v>0.163751</v>
       </c>
       <c r="C124" t="n">
-        <v>0.302189</v>
+        <v>0.302253</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307693</v>
+        <v>0.305688</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184049</v>
+        <v>0.184055</v>
       </c>
       <c r="F124" t="n">
-        <v>0.289987</v>
+        <v>0.288768</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168829</v>
+        <v>0.160291</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300141</v>
+        <v>0.300244</v>
       </c>
       <c r="D125" t="n">
-        <v>0.309282</v>
+        <v>0.306513</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182532</v>
+        <v>0.182645</v>
       </c>
       <c r="F125" t="n">
-        <v>0.287261</v>
+        <v>0.287639</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163743</v>
+        <v>0.155296</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298053</v>
+        <v>0.29791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.311297</v>
+        <v>0.308201</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181169</v>
+        <v>0.181174</v>
       </c>
       <c r="F126" t="n">
-        <v>0.286378</v>
+        <v>0.286411</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158711</v>
+        <v>0.150518</v>
       </c>
       <c r="C127" t="n">
-        <v>0.295211</v>
+        <v>0.295317</v>
       </c>
       <c r="D127" t="n">
-        <v>0.313136</v>
+        <v>0.310478</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179901</v>
+        <v>0.179909</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284253</v>
+        <v>0.286069</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153333</v>
+        <v>0.145408</v>
       </c>
       <c r="C128" t="n">
-        <v>0.292207</v>
+        <v>0.292541</v>
       </c>
       <c r="D128" t="n">
-        <v>0.315544</v>
+        <v>0.313101</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178604</v>
+        <v>0.178573</v>
       </c>
       <c r="F128" t="n">
-        <v>0.282679</v>
+        <v>0.283732</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147564</v>
+        <v>0.140561</v>
       </c>
       <c r="C129" t="n">
-        <v>0.289382</v>
+        <v>0.289324</v>
       </c>
       <c r="D129" t="n">
-        <v>0.318024</v>
+        <v>0.316128</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177293</v>
+        <v>0.177348</v>
       </c>
       <c r="F129" t="n">
-        <v>0.282746</v>
+        <v>0.282472</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142282</v>
+        <v>0.137453</v>
       </c>
       <c r="C130" t="n">
-        <v>0.286031</v>
+        <v>0.286035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.320605</v>
+        <v>0.319543</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176177</v>
+        <v>0.176153</v>
       </c>
       <c r="F130" t="n">
-        <v>0.281468</v>
+        <v>0.281659</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136632</v>
+        <v>0.136233</v>
       </c>
       <c r="C131" t="n">
-        <v>0.282391</v>
+        <v>0.282376</v>
       </c>
       <c r="D131" t="n">
-        <v>0.32334</v>
+        <v>0.321994</v>
       </c>
       <c r="E131" t="n">
-        <v>0.17487</v>
+        <v>0.174933</v>
       </c>
       <c r="F131" t="n">
-        <v>0.280928</v>
+        <v>0.281248</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131042</v>
+        <v>0.131383</v>
       </c>
       <c r="C132" t="n">
-        <v>0.278589</v>
+        <v>0.278462</v>
       </c>
       <c r="D132" t="n">
-        <v>0.325225</v>
+        <v>0.322665</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173659</v>
+        <v>0.173759</v>
       </c>
       <c r="F132" t="n">
-        <v>0.280337</v>
+        <v>0.280954</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12572</v>
+        <v>0.125618</v>
       </c>
       <c r="C133" t="n">
-        <v>0.273811</v>
+        <v>0.273938</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326486</v>
+        <v>0.323815</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172448</v>
+        <v>0.172521</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278063</v>
+        <v>0.279317</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120338</v>
+        <v>0.120219</v>
       </c>
       <c r="C134" t="n">
-        <v>0.269277</v>
+        <v>0.268987</v>
       </c>
       <c r="D134" t="n">
-        <v>0.32855</v>
+        <v>0.325886</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171297</v>
+        <v>0.171309</v>
       </c>
       <c r="F134" t="n">
-        <v>0.278153</v>
+        <v>0.277663</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.115063</v>
+        <v>0.114364</v>
       </c>
       <c r="C135" t="n">
-        <v>0.264104</v>
+        <v>0.264287</v>
       </c>
       <c r="D135" t="n">
-        <v>0.302836</v>
+        <v>0.301309</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170085</v>
+        <v>0.170101</v>
       </c>
       <c r="F135" t="n">
-        <v>0.27679</v>
+        <v>0.277253</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109598</v>
+        <v>0.109223</v>
       </c>
       <c r="C136" t="n">
-        <v>0.258319</v>
+        <v>0.258145</v>
       </c>
       <c r="D136" t="n">
-        <v>0.305037</v>
+        <v>0.303067</v>
       </c>
       <c r="E136" t="n">
-        <v>0.16891</v>
+        <v>0.168842</v>
       </c>
       <c r="F136" t="n">
-        <v>0.277874</v>
+        <v>0.276295</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104135</v>
+        <v>0.104055</v>
       </c>
       <c r="C137" t="n">
-        <v>0.251504</v>
+        <v>0.251329</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306668</v>
+        <v>0.30459</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195085</v>
+        <v>0.195287</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296311</v>
+        <v>0.296333</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174148</v>
+        <v>0.174131</v>
       </c>
       <c r="C138" t="n">
-        <v>0.317912</v>
+        <v>0.321395</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307718</v>
+        <v>0.30607</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193159</v>
+        <v>0.193136</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294678</v>
+        <v>0.294767</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169691</v>
+        <v>0.169713</v>
       </c>
       <c r="C139" t="n">
-        <v>0.316224</v>
+        <v>0.319472</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309008</v>
+        <v>0.307285</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191248</v>
+        <v>0.1913</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292369</v>
+        <v>0.293259</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164819</v>
+        <v>0.164823</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314126</v>
+        <v>0.316386</v>
       </c>
       <c r="D140" t="n">
-        <v>0.310662</v>
+        <v>0.308239</v>
       </c>
       <c r="E140" t="n">
-        <v>0.18946</v>
+        <v>0.18967</v>
       </c>
       <c r="F140" t="n">
-        <v>0.291329</v>
+        <v>0.291495</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159743</v>
+        <v>0.159401</v>
       </c>
       <c r="C141" t="n">
-        <v>0.311717</v>
+        <v>0.313624</v>
       </c>
       <c r="D141" t="n">
-        <v>0.313358</v>
+        <v>0.310228</v>
       </c>
       <c r="E141" t="n">
-        <v>0.18782</v>
+        <v>0.187875</v>
       </c>
       <c r="F141" t="n">
-        <v>0.289108</v>
+        <v>0.289926</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154231</v>
+        <v>0.15427</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308979</v>
+        <v>0.310058</v>
       </c>
       <c r="D142" t="n">
-        <v>0.315474</v>
+        <v>0.312958</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186339</v>
+        <v>0.186585</v>
       </c>
       <c r="F142" t="n">
-        <v>0.288043</v>
+        <v>0.288007</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148905</v>
+        <v>0.148948</v>
       </c>
       <c r="C143" t="n">
-        <v>0.305744</v>
+        <v>0.306749</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317883</v>
+        <v>0.316185</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184667</v>
+        <v>0.184735</v>
       </c>
       <c r="F143" t="n">
-        <v>0.288295</v>
+        <v>0.287527</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0678889</v>
+        <v>0.06498379999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266684</v>
+        <v>0.267871</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266582</v>
+        <v>0.277555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162772</v>
+        <v>0.06719319999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269683</v>
+        <v>0.237902</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778240000000001</v>
+        <v>0.0646586</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264386</v>
+        <v>0.266473</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269851</v>
+        <v>0.282905</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162008</v>
+        <v>0.06375989999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272456</v>
+        <v>0.237572</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.068311</v>
+        <v>0.06439060000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261126</v>
+        <v>0.263756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27226</v>
+        <v>0.284792</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161849</v>
+        <v>0.0641231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271295</v>
+        <v>0.235413</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687238</v>
+        <v>0.0639029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260236</v>
+        <v>0.260533</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273551</v>
+        <v>0.284401</v>
       </c>
       <c r="E5" t="n">
-        <v>0.161806</v>
+        <v>0.0634748</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272144</v>
+        <v>0.234691</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676863</v>
+        <v>0.0644178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257556</v>
+        <v>0.25644</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277587</v>
+        <v>0.286951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161922</v>
+        <v>0.06482449999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27135</v>
+        <v>0.232927</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675906</v>
+        <v>0.06459280000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255626</v>
+        <v>0.253617</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266964</v>
+        <v>0.275598</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161799</v>
+        <v>0.0621555</v>
       </c>
       <c r="F7" t="n">
-        <v>0.268732</v>
+        <v>0.231805</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679681</v>
+        <v>0.06488670000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247444</v>
+        <v>0.247187</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270519</v>
+        <v>0.277237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.162036</v>
+        <v>0.06252340000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26981</v>
+        <v>0.231189</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685611</v>
+        <v>0.0656612</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244567</v>
+        <v>0.243943</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271167</v>
+        <v>0.276759</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168061</v>
+        <v>0.104442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.283224</v>
+        <v>0.258538</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100876</v>
+        <v>0.091636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285303</v>
+        <v>0.290178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272691</v>
+        <v>0.278996</v>
       </c>
       <c r="E10" t="n">
-        <v>0.171194</v>
+        <v>0.105397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280456</v>
+        <v>0.256146</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101372</v>
+        <v>0.0949286</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285578</v>
+        <v>0.287465</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274472</v>
+        <v>0.282</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170399</v>
+        <v>0.110468</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276914</v>
+        <v>0.254063</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101058</v>
+        <v>0.0942446</v>
       </c>
       <c r="C12" t="n">
-        <v>0.284596</v>
+        <v>0.285739</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276475</v>
+        <v>0.284564</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17077</v>
+        <v>0.109981</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281486</v>
+        <v>0.251853</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997531</v>
+        <v>0.09446880000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28219</v>
+        <v>0.284988</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280209</v>
+        <v>0.286082</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168563</v>
+        <v>0.107377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279672</v>
+        <v>0.25063</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09806860000000001</v>
+        <v>0.09460730000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279853</v>
+        <v>0.283059</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280852</v>
+        <v>0.287866</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168475</v>
+        <v>0.104882</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27486</v>
+        <v>0.248848</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0967997</v>
+        <v>0.0935086</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280211</v>
+        <v>0.283285</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284531</v>
+        <v>0.288964</v>
       </c>
       <c r="E15" t="n">
-        <v>0.169724</v>
+        <v>0.105963</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277563</v>
+        <v>0.247328</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0950593</v>
+        <v>0.09066879999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277175</v>
+        <v>0.280587</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28474</v>
+        <v>0.289939</v>
       </c>
       <c r="E16" t="n">
-        <v>0.166605</v>
+        <v>0.103012</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27561</v>
+        <v>0.245668</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0934377</v>
+        <v>0.0890048</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276814</v>
+        <v>0.276868</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285882</v>
+        <v>0.290025</v>
       </c>
       <c r="E17" t="n">
-        <v>0.165909</v>
+        <v>0.102312</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277433</v>
+        <v>0.245131</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0911768</v>
+        <v>0.0888809</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273726</v>
+        <v>0.27459</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287828</v>
+        <v>0.292776</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166688</v>
+        <v>0.101967</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274569</v>
+        <v>0.243321</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0901078</v>
+        <v>0.0886257</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269212</v>
+        <v>0.271462</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28929</v>
+        <v>0.292957</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165575</v>
+        <v>0.09978239999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2753</v>
+        <v>0.241931</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08766790000000001</v>
+        <v>0.0865948</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267348</v>
+        <v>0.266884</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29141</v>
+        <v>0.295032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165412</v>
+        <v>0.0973849</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272211</v>
+        <v>0.241174</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0865858</v>
+        <v>0.0854655</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260489</v>
+        <v>0.260761</v>
       </c>
       <c r="D21" t="n">
-        <v>0.280749</v>
+        <v>0.282981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164574</v>
+        <v>0.0959131</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276864</v>
+        <v>0.238704</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08480989999999999</v>
+        <v>0.08482960000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255654</v>
+        <v>0.256245</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280331</v>
+        <v>0.284192</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164254</v>
+        <v>0.0935897</v>
       </c>
       <c r="F22" t="n">
-        <v>0.269426</v>
+        <v>0.237012</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0832793</v>
+        <v>0.081964</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249592</v>
+        <v>0.249077</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281518</v>
+        <v>0.284186</v>
       </c>
       <c r="E23" t="n">
-        <v>0.176189</v>
+        <v>0.127131</v>
       </c>
       <c r="F23" t="n">
-        <v>0.284079</v>
+        <v>0.26582</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133359</v>
+        <v>0.135372</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299684</v>
+        <v>0.299186</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283561</v>
+        <v>0.286131</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17313</v>
+        <v>0.124984</v>
       </c>
       <c r="F24" t="n">
-        <v>0.282759</v>
+        <v>0.264296</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132313</v>
+        <v>0.132856</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298541</v>
+        <v>0.296394</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28405</v>
+        <v>0.287096</v>
       </c>
       <c r="E25" t="n">
-        <v>0.172727</v>
+        <v>0.123286</v>
       </c>
       <c r="F25" t="n">
-        <v>0.284604</v>
+        <v>0.262469</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130256</v>
+        <v>0.131476</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292787</v>
+        <v>0.294065</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284624</v>
+        <v>0.287912</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172644</v>
+        <v>0.121227</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280016</v>
+        <v>0.260653</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128311</v>
+        <v>0.127872</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294484</v>
+        <v>0.292586</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285839</v>
+        <v>0.289194</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171265</v>
+        <v>0.119759</v>
       </c>
       <c r="F27" t="n">
-        <v>0.284183</v>
+        <v>0.258367</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126164</v>
+        <v>0.126012</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292157</v>
+        <v>0.289454</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288176</v>
+        <v>0.288662</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170013</v>
+        <v>0.118883</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282603</v>
+        <v>0.256469</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122426</v>
+        <v>0.123679</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28977</v>
+        <v>0.286702</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289204</v>
+        <v>0.293008</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171118</v>
+        <v>0.117679</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277189</v>
+        <v>0.254609</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118461</v>
+        <v>0.120455</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28584</v>
+        <v>0.284159</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29148</v>
+        <v>0.292906</v>
       </c>
       <c r="E30" t="n">
-        <v>0.169711</v>
+        <v>0.115831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277436</v>
+        <v>0.252815</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114871</v>
+        <v>0.117397</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284236</v>
+        <v>0.282194</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293036</v>
+        <v>0.294946</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16911</v>
+        <v>0.114484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.279152</v>
+        <v>0.250703</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111336</v>
+        <v>0.113639</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281147</v>
+        <v>0.279058</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293728</v>
+        <v>0.296008</v>
       </c>
       <c r="E32" t="n">
-        <v>0.167854</v>
+        <v>0.112383</v>
       </c>
       <c r="F32" t="n">
-        <v>0.277764</v>
+        <v>0.248865</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106609</v>
+        <v>0.109681</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276471</v>
+        <v>0.275171</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294785</v>
+        <v>0.297124</v>
       </c>
       <c r="E33" t="n">
-        <v>0.168591</v>
+        <v>0.110106</v>
       </c>
       <c r="F33" t="n">
-        <v>0.274122</v>
+        <v>0.246865</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102251</v>
+        <v>0.104912</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272605</v>
+        <v>0.271628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295378</v>
+        <v>0.297478</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166649</v>
+        <v>0.107384</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272774</v>
+        <v>0.245283</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09831230000000001</v>
+        <v>0.101489</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268461</v>
+        <v>0.268083</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284678</v>
+        <v>0.285935</v>
       </c>
       <c r="E35" t="n">
-        <v>0.166595</v>
+        <v>0.105481</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27264</v>
+        <v>0.24301</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937605</v>
+        <v>0.096468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263527</v>
+        <v>0.262332</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284697</v>
+        <v>0.286916</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165363</v>
+        <v>0.103077</v>
       </c>
       <c r="F36" t="n">
-        <v>0.272443</v>
+        <v>0.240469</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896979</v>
+        <v>0.0926353</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257039</v>
+        <v>0.256148</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286123</v>
+        <v>0.287435</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181061</v>
+        <v>0.134503</v>
       </c>
       <c r="F37" t="n">
-        <v>0.287755</v>
+        <v>0.270231</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154566</v>
+        <v>0.156238</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303604</v>
+        <v>0.301442</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28698</v>
+        <v>0.288116</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179677</v>
+        <v>0.132126</v>
       </c>
       <c r="F38" t="n">
-        <v>0.284501</v>
+        <v>0.268279</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151618</v>
+        <v>0.153493</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302924</v>
+        <v>0.300513</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286786</v>
+        <v>0.288966</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178858</v>
+        <v>0.131154</v>
       </c>
       <c r="F39" t="n">
-        <v>0.286861</v>
+        <v>0.26558</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148336</v>
+        <v>0.149648</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300513</v>
+        <v>0.299598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288929</v>
+        <v>0.290824</v>
       </c>
       <c r="E40" t="n">
-        <v>0.176597</v>
+        <v>0.128805</v>
       </c>
       <c r="F40" t="n">
-        <v>0.286249</v>
+        <v>0.263031</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144788</v>
+        <v>0.145641</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299006</v>
+        <v>0.298022</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290063</v>
+        <v>0.291784</v>
       </c>
       <c r="E41" t="n">
-        <v>0.176807</v>
+        <v>0.126509</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285222</v>
+        <v>0.261284</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140224</v>
+        <v>0.142176</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294673</v>
+        <v>0.294643</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291588</v>
+        <v>0.292535</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175174</v>
+        <v>0.124588</v>
       </c>
       <c r="F42" t="n">
-        <v>0.279841</v>
+        <v>0.258842</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136331</v>
+        <v>0.137673</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293934</v>
+        <v>0.29254</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292576</v>
+        <v>0.293951</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174888</v>
+        <v>0.122952</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280992</v>
+        <v>0.256929</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131768</v>
+        <v>0.1337</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290382</v>
+        <v>0.289567</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294829</v>
+        <v>0.295317</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173633</v>
+        <v>0.120463</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280668</v>
+        <v>0.25497</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126773</v>
+        <v>0.128974</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284795</v>
+        <v>0.286176</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295224</v>
+        <v>0.295992</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1727</v>
+        <v>0.118401</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280405</v>
+        <v>0.252402</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122298</v>
+        <v>0.124376</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284613</v>
+        <v>0.280737</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297055</v>
+        <v>0.297419</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171696</v>
+        <v>0.116305</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278912</v>
+        <v>0.250366</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118071</v>
+        <v>0.119749</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280307</v>
+        <v>0.279023</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297511</v>
+        <v>0.298896</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170765</v>
+        <v>0.114683</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275228</v>
+        <v>0.248632</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113566</v>
+        <v>0.115148</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27607</v>
+        <v>0.274979</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298032</v>
+        <v>0.29941</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169999</v>
+        <v>0.112215</v>
       </c>
       <c r="F48" t="n">
-        <v>0.277362</v>
+        <v>0.245939</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108586</v>
+        <v>0.109619</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269332</v>
+        <v>0.270488</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299902</v>
+        <v>0.300291</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168173</v>
+        <v>0.109528</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275952</v>
+        <v>0.244033</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103077</v>
+        <v>0.104431</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265764</v>
+        <v>0.264942</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288371</v>
+        <v>0.287903</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167707</v>
+        <v>0.107371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273877</v>
+        <v>0.241962</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097797</v>
+        <v>0.0992097</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259778</v>
+        <v>0.259357</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288963</v>
+        <v>0.288865</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184967</v>
+        <v>0.137726</v>
       </c>
       <c r="F51" t="n">
-        <v>0.291515</v>
+        <v>0.271583</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927835</v>
+        <v>0.0939357</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252622</v>
+        <v>0.251094</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289558</v>
+        <v>0.289591</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183011</v>
+        <v>0.136565</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29153</v>
+        <v>0.269253</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15929</v>
+        <v>0.159937</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305273</v>
+        <v>0.303351</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290825</v>
+        <v>0.291022</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181822</v>
+        <v>0.13336</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288884</v>
+        <v>0.267285</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155642</v>
+        <v>0.156443</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302619</v>
+        <v>0.301997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290717</v>
+        <v>0.292309</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180942</v>
+        <v>0.132276</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286205</v>
+        <v>0.26486</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151215</v>
+        <v>0.151971</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300606</v>
+        <v>0.299882</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292774</v>
+        <v>0.293158</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179156</v>
+        <v>0.129901</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285078</v>
+        <v>0.262397</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146819</v>
+        <v>0.147369</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298689</v>
+        <v>0.2969</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294935</v>
+        <v>0.293757</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178402</v>
+        <v>0.127645</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285753</v>
+        <v>0.260403</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142122</v>
+        <v>0.14297</v>
       </c>
       <c r="C57" t="n">
-        <v>0.29545</v>
+        <v>0.294197</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295428</v>
+        <v>0.296297</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177166</v>
+        <v>0.125229</v>
       </c>
       <c r="F57" t="n">
-        <v>0.284151</v>
+        <v>0.25863</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137512</v>
+        <v>0.13793</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291243</v>
+        <v>0.291592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296522</v>
+        <v>0.296858</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175874</v>
+        <v>0.123723</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281217</v>
+        <v>0.256711</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132576</v>
+        <v>0.13296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289252</v>
+        <v>0.288207</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29761</v>
+        <v>0.298245</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174876</v>
+        <v>0.12107</v>
       </c>
       <c r="F59" t="n">
-        <v>0.281745</v>
+        <v>0.254516</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127804</v>
+        <v>0.12811</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285832</v>
+        <v>0.283761</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298799</v>
+        <v>0.299174</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173556</v>
+        <v>0.119255</v>
       </c>
       <c r="F60" t="n">
-        <v>0.281709</v>
+        <v>0.252228</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123153</v>
+        <v>0.122997</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281727</v>
+        <v>0.280495</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299923</v>
+        <v>0.300284</v>
       </c>
       <c r="E61" t="n">
-        <v>0.17272</v>
+        <v>0.117235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27954</v>
+        <v>0.250338</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118014</v>
+        <v>0.118012</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278371</v>
+        <v>0.276891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301351</v>
+        <v>0.301496</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171462</v>
+        <v>0.114712</v>
       </c>
       <c r="F62" t="n">
-        <v>0.280254</v>
+        <v>0.248177</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113021</v>
+        <v>0.112919</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273705</v>
+        <v>0.273371</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302787</v>
+        <v>0.302744</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170454</v>
+        <v>0.111853</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279242</v>
+        <v>0.245781</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108034</v>
+        <v>0.107813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267628</v>
+        <v>0.267235</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294383</v>
+        <v>0.29495</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168981</v>
+        <v>0.109256</v>
       </c>
       <c r="F64" t="n">
-        <v>0.275591</v>
+        <v>0.243324</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102837</v>
+        <v>0.102743</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262059</v>
+        <v>0.260833</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296199</v>
+        <v>0.296784</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167969</v>
+        <v>0.106909</v>
       </c>
       <c r="F65" t="n">
-        <v>0.276462</v>
+        <v>0.24133</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0978184</v>
+        <v>0.097647</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255249</v>
+        <v>0.253726</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298571</v>
+        <v>0.298222</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185119</v>
+        <v>0.136555</v>
       </c>
       <c r="F66" t="n">
-        <v>0.291915</v>
+        <v>0.270511</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163284</v>
+        <v>0.163801</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306545</v>
+        <v>0.30576</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300153</v>
+        <v>0.300105</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183614</v>
+        <v>0.134631</v>
       </c>
       <c r="F67" t="n">
-        <v>0.291325</v>
+        <v>0.268164</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159718</v>
+        <v>0.159777</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305257</v>
+        <v>0.304266</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301315</v>
+        <v>0.301811</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182334</v>
+        <v>0.132864</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2883</v>
+        <v>0.266219</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155353</v>
+        <v>0.155458</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30245</v>
+        <v>0.3027</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303435</v>
+        <v>0.304056</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180983</v>
+        <v>0.130688</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288056</v>
+        <v>0.263856</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150626</v>
+        <v>0.150769</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30033</v>
+        <v>0.298005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305124</v>
+        <v>0.305985</v>
       </c>
       <c r="E70" t="n">
-        <v>0.179725</v>
+        <v>0.128759</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287498</v>
+        <v>0.261668</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145986</v>
+        <v>0.146081</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296657</v>
+        <v>0.297912</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306903</v>
+        <v>0.308096</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178476</v>
+        <v>0.126742</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2827</v>
+        <v>0.259375</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141247</v>
+        <v>0.140875</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294086</v>
+        <v>0.293266</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308994</v>
+        <v>0.309724</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177176</v>
+        <v>0.124734</v>
       </c>
       <c r="F72" t="n">
-        <v>0.283124</v>
+        <v>0.257592</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136155</v>
+        <v>0.135783</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291261</v>
+        <v>0.290537</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311531</v>
+        <v>0.312415</v>
       </c>
       <c r="E73" t="n">
-        <v>0.175916</v>
+        <v>0.122865</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281403</v>
+        <v>0.255457</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130946</v>
+        <v>0.13058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287116</v>
+        <v>0.286499</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304313</v>
+        <v>0.321054</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174803</v>
+        <v>0.120489</v>
       </c>
       <c r="F74" t="n">
-        <v>0.280217</v>
+        <v>0.253326</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125976</v>
+        <v>0.125496</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283833</v>
+        <v>0.282781</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307556</v>
+        <v>0.321623</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17374</v>
+        <v>0.118143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279748</v>
+        <v>0.251006</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120871</v>
+        <v>0.120391</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279533</v>
+        <v>0.279977</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310607</v>
+        <v>0.322125</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172572</v>
+        <v>0.115875</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277839</v>
+        <v>0.248859</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115788</v>
+        <v>0.115452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275983</v>
+        <v>0.276346</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31397</v>
+        <v>0.322935</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1714</v>
+        <v>0.113541</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277731</v>
+        <v>0.246676</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110394</v>
+        <v>0.110204</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269987</v>
+        <v>0.271605</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307937</v>
+        <v>0.314587</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170128</v>
+        <v>0.110853</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277245</v>
+        <v>0.244668</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105439</v>
+        <v>0.10519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265601</v>
+        <v>0.264766</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309346</v>
+        <v>0.314858</v>
       </c>
       <c r="E79" t="n">
-        <v>0.16879</v>
+        <v>0.108312</v>
       </c>
       <c r="F79" t="n">
-        <v>0.276002</v>
+        <v>0.242383</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100312</v>
+        <v>0.0999659</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260035</v>
+        <v>0.258731</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310822</v>
+        <v>0.315755</v>
       </c>
       <c r="E80" t="n">
-        <v>0.18586</v>
+        <v>0.137691</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290137</v>
+        <v>0.271859</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164663</v>
+        <v>0.164703</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306793</v>
+        <v>0.307896</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312179</v>
+        <v>0.315824</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18434</v>
+        <v>0.135554</v>
       </c>
       <c r="F81" t="n">
-        <v>0.289955</v>
+        <v>0.269537</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160756</v>
+        <v>0.160896</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305046</v>
+        <v>0.305415</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314302</v>
+        <v>0.316462</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182937</v>
+        <v>0.133639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288662</v>
+        <v>0.267403</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156494</v>
+        <v>0.156573</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30286</v>
+        <v>0.303484</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312828</v>
+        <v>0.318793</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181569</v>
+        <v>0.131586</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287097</v>
+        <v>0.264972</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151968</v>
+        <v>0.152307</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299674</v>
+        <v>0.301416</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315207</v>
+        <v>0.319588</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180261</v>
+        <v>0.129736</v>
       </c>
       <c r="F84" t="n">
-        <v>0.286256</v>
+        <v>0.263187</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147213</v>
+        <v>0.147261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297868</v>
+        <v>0.297157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317924</v>
+        <v>0.320715</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179013</v>
+        <v>0.128342</v>
       </c>
       <c r="F85" t="n">
-        <v>0.283699</v>
+        <v>0.261016</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142203</v>
+        <v>0.142154</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294256</v>
+        <v>0.295048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.319727</v>
+        <v>0.322996</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177533</v>
+        <v>0.125881</v>
       </c>
       <c r="F86" t="n">
-        <v>0.281862</v>
+        <v>0.259051</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136809</v>
+        <v>0.137201</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290837</v>
+        <v>0.291662</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322056</v>
+        <v>0.323609</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17652</v>
+        <v>0.123535</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282439</v>
+        <v>0.256791</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131678</v>
+        <v>0.131953</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286624</v>
+        <v>0.287235</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325365</v>
+        <v>0.325527</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175348</v>
+        <v>0.121482</v>
       </c>
       <c r="F88" t="n">
-        <v>0.280987</v>
+        <v>0.254625</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126647</v>
+        <v>0.126747</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282588</v>
+        <v>0.283649</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312787</v>
+        <v>0.335131</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174171</v>
+        <v>0.119255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279075</v>
+        <v>0.252501</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.12137</v>
+        <v>0.121607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278218</v>
+        <v>0.279612</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316028</v>
+        <v>0.33443</v>
       </c>
       <c r="E90" t="n">
-        <v>0.173011</v>
+        <v>0.117021</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277966</v>
+        <v>0.250198</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116362</v>
+        <v>0.116594</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273845</v>
+        <v>0.275235</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318261</v>
+        <v>0.334334</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171817</v>
+        <v>0.114271</v>
       </c>
       <c r="F91" t="n">
-        <v>0.277705</v>
+        <v>0.248082</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111223</v>
+        <v>0.111376</v>
       </c>
       <c r="C92" t="n">
-        <v>0.268892</v>
+        <v>0.270432</v>
       </c>
       <c r="D92" t="n">
-        <v>0.294106</v>
+        <v>0.302931</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170481</v>
+        <v>0.11164</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277449</v>
+        <v>0.246042</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10608</v>
+        <v>0.106169</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263809</v>
+        <v>0.264518</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294138</v>
+        <v>0.304802</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169357</v>
+        <v>0.109074</v>
       </c>
       <c r="F93" t="n">
-        <v>0.276339</v>
+        <v>0.243553</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100747</v>
+        <v>0.100916</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2573</v>
+        <v>0.257928</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295863</v>
+        <v>0.306367</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186288</v>
+        <v>0.138401</v>
       </c>
       <c r="F94" t="n">
-        <v>0.290704</v>
+        <v>0.272947</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165827</v>
+        <v>0.165909</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304294</v>
+        <v>0.304375</v>
       </c>
       <c r="D95" t="n">
-        <v>0.29842</v>
+        <v>0.307287</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184789</v>
+        <v>0.136275</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2891</v>
+        <v>0.270403</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162047</v>
+        <v>0.162103</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302867</v>
+        <v>0.30204</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300815</v>
+        <v>0.3091</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183394</v>
+        <v>0.134149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.28748</v>
+        <v>0.268355</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157915</v>
+        <v>0.157794</v>
       </c>
       <c r="C97" t="n">
-        <v>0.300717</v>
+        <v>0.299898</v>
       </c>
       <c r="D97" t="n">
-        <v>0.293741</v>
+        <v>0.313848</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181941</v>
+        <v>0.131968</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285933</v>
+        <v>0.265897</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153205</v>
+        <v>0.153147</v>
       </c>
       <c r="C98" t="n">
-        <v>0.298257</v>
+        <v>0.297341</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296935</v>
+        <v>0.314967</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180583</v>
+        <v>0.129973</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2849</v>
+        <v>0.263786</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148361</v>
+        <v>0.14833</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295434</v>
+        <v>0.294452</v>
       </c>
       <c r="D99" t="n">
-        <v>0.299585</v>
+        <v>0.316804</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179186</v>
+        <v>0.128354</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283561</v>
+        <v>0.261573</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143262</v>
+        <v>0.143375</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292283</v>
+        <v>0.291715</v>
       </c>
       <c r="D100" t="n">
-        <v>0.301912</v>
+        <v>0.320147</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177986</v>
+        <v>0.126343</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283181</v>
+        <v>0.259572</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138177</v>
+        <v>0.138172</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289214</v>
+        <v>0.288522</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304456</v>
+        <v>0.322291</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176711</v>
+        <v>0.124295</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281283</v>
+        <v>0.257314</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133012</v>
+        <v>0.132831</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285685</v>
+        <v>0.28494</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307478</v>
+        <v>0.323528</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175481</v>
+        <v>0.12209</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279991</v>
+        <v>0.255166</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127706</v>
+        <v>0.127622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282006</v>
+        <v>0.281291</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303078</v>
+        <v>0.328495</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174337</v>
+        <v>0.119839</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27991</v>
+        <v>0.253111</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122594</v>
+        <v>0.12249</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278054</v>
+        <v>0.277307</v>
       </c>
       <c r="D104" t="n">
-        <v>0.305736</v>
+        <v>0.328752</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173236</v>
+        <v>0.117477</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278353</v>
+        <v>0.250963</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11748</v>
+        <v>0.117293</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273407</v>
+        <v>0.272995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.30828</v>
+        <v>0.32825</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171985</v>
+        <v>0.114997</v>
       </c>
       <c r="F105" t="n">
-        <v>0.27841</v>
+        <v>0.248835</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112247</v>
+        <v>0.112163</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268282</v>
+        <v>0.268356</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310979</v>
+        <v>0.328633</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170768</v>
+        <v>0.112497</v>
       </c>
       <c r="F106" t="n">
-        <v>0.276423</v>
+        <v>0.246471</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107051</v>
+        <v>0.107002</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263</v>
+        <v>0.263079</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288203</v>
+        <v>0.306406</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169591</v>
+        <v>0.109899</v>
       </c>
       <c r="F107" t="n">
-        <v>0.276403</v>
+        <v>0.244214</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101946</v>
+        <v>0.101838</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256619</v>
+        <v>0.25669</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292013</v>
+        <v>0.307754</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186823</v>
+        <v>0.138914</v>
       </c>
       <c r="F108" t="n">
-        <v>0.291707</v>
+        <v>0.273338</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967567</v>
+        <v>0.0966171</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24992</v>
+        <v>0.249953</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29229</v>
+        <v>0.309757</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185346</v>
+        <v>0.136756</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289479</v>
+        <v>0.27097</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162967</v>
+        <v>0.162849</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30296</v>
+        <v>0.302404</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294392</v>
+        <v>0.310654</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183713</v>
+        <v>0.134648</v>
       </c>
       <c r="F110" t="n">
-        <v>0.287678</v>
+        <v>0.268762</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158764</v>
+        <v>0.158457</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300875</v>
+        <v>0.300418</v>
       </c>
       <c r="D111" t="n">
-        <v>0.292607</v>
+        <v>0.313113</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182293</v>
+        <v>0.132647</v>
       </c>
       <c r="F111" t="n">
-        <v>0.286814</v>
+        <v>0.266346</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154303</v>
+        <v>0.15419</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298487</v>
+        <v>0.297949</v>
       </c>
       <c r="D112" t="n">
-        <v>0.295503</v>
+        <v>0.314487</v>
       </c>
       <c r="E112" t="n">
-        <v>0.18084</v>
+        <v>0.130598</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285431</v>
+        <v>0.264344</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149356</v>
+        <v>0.149078</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295703</v>
+        <v>0.295057</v>
       </c>
       <c r="D113" t="n">
-        <v>0.296499</v>
+        <v>0.31701</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179571</v>
+        <v>0.128688</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283803</v>
+        <v>0.262144</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144288</v>
+        <v>0.144162</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292844</v>
+        <v>0.292647</v>
       </c>
       <c r="D114" t="n">
-        <v>0.296399</v>
+        <v>0.32088</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178313</v>
+        <v>0.126621</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282681</v>
+        <v>0.260164</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139228</v>
+        <v>0.13903</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289639</v>
+        <v>0.28936</v>
       </c>
       <c r="D115" t="n">
-        <v>0.299509</v>
+        <v>0.323264</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177089</v>
+        <v>0.124665</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282797</v>
+        <v>0.257859</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133971</v>
+        <v>0.133849</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286214</v>
+        <v>0.2857</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302004</v>
+        <v>0.325475</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175928</v>
+        <v>0.122696</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281505</v>
+        <v>0.255794</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128823</v>
+        <v>0.128667</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282686</v>
+        <v>0.281998</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301975</v>
+        <v>0.327665</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174627</v>
+        <v>0.120451</v>
       </c>
       <c r="F117" t="n">
-        <v>0.279495</v>
+        <v>0.253618</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123575</v>
+        <v>0.123415</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27869</v>
+        <v>0.278475</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304018</v>
+        <v>0.328979</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173494</v>
+        <v>0.118003</v>
       </c>
       <c r="F118" t="n">
-        <v>0.279065</v>
+        <v>0.251432</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118505</v>
+        <v>0.118414</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274529</v>
+        <v>0.273934</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303983</v>
+        <v>0.330224</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172336</v>
+        <v>0.115711</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278757</v>
+        <v>0.249186</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113398</v>
+        <v>0.113197</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269492</v>
+        <v>0.269334</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306704</v>
+        <v>0.329886</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1711</v>
+        <v>0.113251</v>
       </c>
       <c r="F120" t="n">
-        <v>0.275575</v>
+        <v>0.246991</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108129</v>
+        <v>0.10811</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264149</v>
+        <v>0.264091</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291754</v>
+        <v>0.307363</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169832</v>
+        <v>0.110483</v>
       </c>
       <c r="F121" t="n">
-        <v>0.275917</v>
+        <v>0.244712</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102995</v>
+        <v>0.102949</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257901</v>
+        <v>0.2584</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291334</v>
+        <v>0.310784</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168651</v>
+        <v>0.107785</v>
       </c>
       <c r="F122" t="n">
-        <v>0.274379</v>
+        <v>0.242314</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978272</v>
+        <v>0.09782730000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251101</v>
+        <v>0.251036</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293301</v>
+        <v>0.31177</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185594</v>
+        <v>0.137131</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289659</v>
+        <v>0.271624</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173163</v>
+        <v>0.173151</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303409</v>
+        <v>0.309336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294055</v>
+        <v>0.313405</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184127</v>
+        <v>0.135046</v>
       </c>
       <c r="F124" t="n">
-        <v>0.288515</v>
+        <v>0.269221</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168798</v>
+        <v>0.168372</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301567</v>
+        <v>0.307301</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294076</v>
+        <v>0.315544</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182547</v>
+        <v>0.133016</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286383</v>
+        <v>0.266987</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16395</v>
+        <v>0.163487</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298971</v>
+        <v>0.305064</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29548</v>
+        <v>0.317098</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181164</v>
+        <v>0.131145</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285385</v>
+        <v>0.264998</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158612</v>
+        <v>0.158335</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296777</v>
+        <v>0.303067</v>
       </c>
       <c r="D127" t="n">
-        <v>0.296351</v>
+        <v>0.319776</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179891</v>
+        <v>0.129033</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284388</v>
+        <v>0.262822</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153084</v>
+        <v>0.152884</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293553</v>
+        <v>0.300278</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297646</v>
+        <v>0.322335</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178524</v>
+        <v>0.127128</v>
       </c>
       <c r="F128" t="n">
-        <v>0.28303</v>
+        <v>0.260627</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147691</v>
+        <v>0.147257</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290606</v>
+        <v>0.297088</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298871</v>
+        <v>0.324893</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177345</v>
+        <v>0.1251</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281704</v>
+        <v>0.258609</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142117</v>
+        <v>0.141894</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287176</v>
+        <v>0.294187</v>
       </c>
       <c r="D130" t="n">
-        <v>0.301197</v>
+        <v>0.328453</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176136</v>
+        <v>0.122971</v>
       </c>
       <c r="F130" t="n">
-        <v>0.28037</v>
+        <v>0.2565</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136613</v>
+        <v>0.136341</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283663</v>
+        <v>0.290739</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301915</v>
+        <v>0.330551</v>
       </c>
       <c r="E131" t="n">
-        <v>0.17487</v>
+        <v>0.120916</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2792</v>
+        <v>0.254345</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13103</v>
+        <v>0.130891</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279468</v>
+        <v>0.287307</v>
       </c>
       <c r="D132" t="n">
-        <v>0.303431</v>
+        <v>0.331779</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173534</v>
+        <v>0.1187</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279156</v>
+        <v>0.252049</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12573</v>
+        <v>0.125414</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275055</v>
+        <v>0.284062</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305508</v>
+        <v>0.331947</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172515</v>
+        <v>0.116253</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278247</v>
+        <v>0.249812</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120301</v>
+        <v>0.120227</v>
       </c>
       <c r="C134" t="n">
-        <v>0.27088</v>
+        <v>0.279535</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30774</v>
+        <v>0.332257</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171335</v>
+        <v>0.113739</v>
       </c>
       <c r="F134" t="n">
-        <v>0.277178</v>
+        <v>0.247525</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114801</v>
+        <v>0.114882</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265511</v>
+        <v>0.274765</v>
       </c>
       <c r="D135" t="n">
-        <v>0.290512</v>
+        <v>0.308665</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170139</v>
+        <v>0.111136</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275743</v>
+        <v>0.245283</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109373</v>
+        <v>0.109483</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259669</v>
+        <v>0.268774</v>
       </c>
       <c r="D136" t="n">
-        <v>0.291562</v>
+        <v>0.311064</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168873</v>
+        <v>0.108418</v>
       </c>
       <c r="F136" t="n">
-        <v>0.275603</v>
+        <v>0.2429</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104008</v>
+        <v>0.10402</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252929</v>
+        <v>0.262609</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293012</v>
+        <v>0.313076</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195071</v>
+        <v>0.146552</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296059</v>
+        <v>0.277203</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174341</v>
+        <v>0.173794</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320551</v>
+        <v>0.315608</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293275</v>
+        <v>0.314274</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193151</v>
+        <v>0.143993</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294334</v>
+        <v>0.274912</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169911</v>
+        <v>0.169443</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317583</v>
+        <v>0.313793</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293607</v>
+        <v>0.316199</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191191</v>
+        <v>0.140927</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292487</v>
+        <v>0.272434</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165021</v>
+        <v>0.164851</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314936</v>
+        <v>0.311967</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29464</v>
+        <v>0.31776</v>
       </c>
       <c r="E140" t="n">
-        <v>0.187378</v>
+        <v>0.139422</v>
       </c>
       <c r="F140" t="n">
-        <v>0.290702</v>
+        <v>0.270055</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158467</v>
+        <v>0.159203</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312477</v>
+        <v>0.309298</v>
       </c>
       <c r="D141" t="n">
-        <v>0.295747</v>
+        <v>0.320084</v>
       </c>
       <c r="E141" t="n">
-        <v>0.185453</v>
+        <v>0.136754</v>
       </c>
       <c r="F141" t="n">
-        <v>0.286845</v>
+        <v>0.26791</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154211</v>
+        <v>0.154058</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307596</v>
+        <v>0.306575</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297339</v>
+        <v>0.322277</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186171</v>
+        <v>0.134528</v>
       </c>
       <c r="F142" t="n">
-        <v>0.287463</v>
+        <v>0.265194</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148823</v>
+        <v>0.148506</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304996</v>
+        <v>0.303108</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298611</v>
+        <v>0.325741</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184394</v>
+        <v>0.132275</v>
       </c>
       <c r="F143" t="n">
-        <v>0.285171</v>
+        <v>0.263113</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06498379999999999</v>
+        <v>0.06488480000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.267871</v>
+        <v>0.266535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.277555</v>
+        <v>0.280924</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06719319999999999</v>
+        <v>0.06416139999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.237902</v>
+        <v>0.237712</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0646586</v>
+        <v>0.0644763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.266473</v>
+        <v>0.264827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.282905</v>
+        <v>0.282628</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06375989999999999</v>
+        <v>0.063522</v>
       </c>
       <c r="F3" t="n">
-        <v>0.237572</v>
+        <v>0.23817</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06439060000000001</v>
+        <v>0.0642172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.263756</v>
+        <v>0.262024</v>
       </c>
       <c r="D4" t="n">
-        <v>0.284792</v>
+        <v>0.283528</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0641231</v>
+        <v>0.0641067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.235413</v>
+        <v>0.234932</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0639029</v>
+        <v>0.06392059999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260533</v>
+        <v>0.25706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.284401</v>
+        <v>0.285274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0634748</v>
+        <v>0.0632347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.234691</v>
+        <v>0.234408</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0644178</v>
+        <v>0.06422310000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25644</v>
+        <v>0.253196</v>
       </c>
       <c r="D6" t="n">
-        <v>0.286951</v>
+        <v>0.285864</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06482449999999999</v>
+        <v>0.0629792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.232927</v>
+        <v>0.233738</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06459280000000001</v>
+        <v>0.06452040000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.253617</v>
+        <v>0.25168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275598</v>
+        <v>0.275686</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0621555</v>
+        <v>0.06435440000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.231805</v>
+        <v>0.231668</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06488670000000001</v>
+        <v>0.0650149</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247187</v>
+        <v>0.24483</v>
       </c>
       <c r="D8" t="n">
-        <v>0.277237</v>
+        <v>0.277732</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06252340000000001</v>
+        <v>0.0614518</v>
       </c>
       <c r="F8" t="n">
-        <v>0.231189</v>
+        <v>0.231805</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0656612</v>
+        <v>0.06554889999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.243943</v>
+        <v>0.242492</v>
       </c>
       <c r="D9" t="n">
-        <v>0.276759</v>
+        <v>0.276977</v>
       </c>
       <c r="E9" t="n">
-        <v>0.104442</v>
+        <v>0.105272</v>
       </c>
       <c r="F9" t="n">
-        <v>0.258538</v>
+        <v>0.257658</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.091636</v>
+        <v>0.0918867</v>
       </c>
       <c r="C10" t="n">
-        <v>0.290178</v>
+        <v>0.28805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.278996</v>
+        <v>0.281542</v>
       </c>
       <c r="E10" t="n">
-        <v>0.105397</v>
+        <v>0.113226</v>
       </c>
       <c r="F10" t="n">
-        <v>0.256146</v>
+        <v>0.256061</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0949286</v>
+        <v>0.095357</v>
       </c>
       <c r="C11" t="n">
-        <v>0.287465</v>
+        <v>0.285567</v>
       </c>
       <c r="D11" t="n">
-        <v>0.282</v>
+        <v>0.282525</v>
       </c>
       <c r="E11" t="n">
-        <v>0.110468</v>
+        <v>0.109673</v>
       </c>
       <c r="F11" t="n">
-        <v>0.254063</v>
+        <v>0.254273</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0942446</v>
+        <v>0.0952498</v>
       </c>
       <c r="C12" t="n">
-        <v>0.285739</v>
+        <v>0.285628</v>
       </c>
       <c r="D12" t="n">
-        <v>0.284564</v>
+        <v>0.285017</v>
       </c>
       <c r="E12" t="n">
-        <v>0.109981</v>
+        <v>0.110822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.251853</v>
+        <v>0.252277</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09446880000000001</v>
+        <v>0.09367929999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.284988</v>
+        <v>0.283255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286082</v>
+        <v>0.286187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.107377</v>
+        <v>0.107084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.25063</v>
+        <v>0.25077</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09460730000000001</v>
+        <v>0.0950565</v>
       </c>
       <c r="C14" t="n">
-        <v>0.283059</v>
+        <v>0.28182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287866</v>
+        <v>0.288428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.104882</v>
+        <v>0.105924</v>
       </c>
       <c r="F14" t="n">
-        <v>0.248848</v>
+        <v>0.248552</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0935086</v>
+        <v>0.0939914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283285</v>
+        <v>0.281775</v>
       </c>
       <c r="D15" t="n">
-        <v>0.288964</v>
+        <v>0.289543</v>
       </c>
       <c r="E15" t="n">
-        <v>0.105963</v>
+        <v>0.105604</v>
       </c>
       <c r="F15" t="n">
-        <v>0.247328</v>
+        <v>0.246708</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.09066879999999999</v>
+        <v>0.0914953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280587</v>
+        <v>0.27801</v>
       </c>
       <c r="D16" t="n">
-        <v>0.289939</v>
+        <v>0.29103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.103012</v>
+        <v>0.105829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.245668</v>
+        <v>0.245886</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0890048</v>
+        <v>0.090473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276868</v>
+        <v>0.276029</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290025</v>
+        <v>0.291137</v>
       </c>
       <c r="E17" t="n">
-        <v>0.102312</v>
+        <v>0.10258</v>
       </c>
       <c r="F17" t="n">
-        <v>0.245131</v>
+        <v>0.244143</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0888809</v>
+        <v>0.0894112</v>
       </c>
       <c r="C18" t="n">
-        <v>0.27459</v>
+        <v>0.272456</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292776</v>
+        <v>0.292608</v>
       </c>
       <c r="E18" t="n">
-        <v>0.101967</v>
+        <v>0.101991</v>
       </c>
       <c r="F18" t="n">
-        <v>0.243321</v>
+        <v>0.243415</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0886257</v>
+        <v>0.0887927</v>
       </c>
       <c r="C19" t="n">
-        <v>0.271462</v>
+        <v>0.270525</v>
       </c>
       <c r="D19" t="n">
-        <v>0.292957</v>
+        <v>0.293934</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09978239999999999</v>
+        <v>0.0999898</v>
       </c>
       <c r="F19" t="n">
-        <v>0.241931</v>
+        <v>0.241477</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0865948</v>
+        <v>0.0860495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.266884</v>
+        <v>0.266515</v>
       </c>
       <c r="D20" t="n">
-        <v>0.295032</v>
+        <v>0.2944</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0973849</v>
+        <v>0.100434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.241174</v>
+        <v>0.24101</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0854655</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260761</v>
+        <v>0.260239</v>
       </c>
       <c r="D21" t="n">
-        <v>0.282981</v>
+        <v>0.283503</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0959131</v>
+        <v>0.09509960000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.238704</v>
+        <v>0.238936</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08482960000000001</v>
+        <v>0.0828112</v>
       </c>
       <c r="C22" t="n">
-        <v>0.256245</v>
+        <v>0.25503</v>
       </c>
       <c r="D22" t="n">
-        <v>0.284192</v>
+        <v>0.284494</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0935897</v>
+        <v>0.0922505</v>
       </c>
       <c r="F22" t="n">
-        <v>0.237012</v>
+        <v>0.237361</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.081964</v>
+        <v>0.0817581</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249077</v>
+        <v>0.248198</v>
       </c>
       <c r="D23" t="n">
-        <v>0.284186</v>
+        <v>0.285131</v>
       </c>
       <c r="E23" t="n">
-        <v>0.127131</v>
+        <v>0.124598</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26582</v>
+        <v>0.266209</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.135372</v>
+        <v>0.136272</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299186</v>
+        <v>0.297601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286131</v>
+        <v>0.286827</v>
       </c>
       <c r="E24" t="n">
-        <v>0.124984</v>
+        <v>0.124478</v>
       </c>
       <c r="F24" t="n">
-        <v>0.264296</v>
+        <v>0.264233</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132856</v>
+        <v>0.133905</v>
       </c>
       <c r="C25" t="n">
-        <v>0.296394</v>
+        <v>0.296557</v>
       </c>
       <c r="D25" t="n">
-        <v>0.287096</v>
+        <v>0.286923</v>
       </c>
       <c r="E25" t="n">
-        <v>0.123286</v>
+        <v>0.123194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.262469</v>
+        <v>0.262229</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.131476</v>
+        <v>0.13257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.294065</v>
+        <v>0.295314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.287912</v>
+        <v>0.288097</v>
       </c>
       <c r="E26" t="n">
-        <v>0.121227</v>
+        <v>0.122483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.260653</v>
+        <v>0.260352</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.127872</v>
+        <v>0.129848</v>
       </c>
       <c r="C27" t="n">
-        <v>0.292586</v>
+        <v>0.292677</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289194</v>
+        <v>0.289222</v>
       </c>
       <c r="E27" t="n">
-        <v>0.119759</v>
+        <v>0.120804</v>
       </c>
       <c r="F27" t="n">
-        <v>0.258367</v>
+        <v>0.258295</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126012</v>
+        <v>0.126664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.289454</v>
+        <v>0.291013</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288662</v>
+        <v>0.290737</v>
       </c>
       <c r="E28" t="n">
-        <v>0.118883</v>
+        <v>0.119253</v>
       </c>
       <c r="F28" t="n">
-        <v>0.256469</v>
+        <v>0.25658</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.123679</v>
+        <v>0.123628</v>
       </c>
       <c r="C29" t="n">
-        <v>0.286702</v>
+        <v>0.287428</v>
       </c>
       <c r="D29" t="n">
-        <v>0.293008</v>
+        <v>0.293653</v>
       </c>
       <c r="E29" t="n">
-        <v>0.117679</v>
+        <v>0.117889</v>
       </c>
       <c r="F29" t="n">
-        <v>0.254609</v>
+        <v>0.254487</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120455</v>
+        <v>0.12085</v>
       </c>
       <c r="C30" t="n">
-        <v>0.284159</v>
+        <v>0.285367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.292906</v>
+        <v>0.294272</v>
       </c>
       <c r="E30" t="n">
-        <v>0.115831</v>
+        <v>0.117885</v>
       </c>
       <c r="F30" t="n">
-        <v>0.252815</v>
+        <v>0.25228</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117397</v>
+        <v>0.117031</v>
       </c>
       <c r="C31" t="n">
-        <v>0.282194</v>
+        <v>0.281924</v>
       </c>
       <c r="D31" t="n">
-        <v>0.294946</v>
+        <v>0.295672</v>
       </c>
       <c r="E31" t="n">
-        <v>0.114484</v>
+        <v>0.114116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.250703</v>
+        <v>0.250666</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.113639</v>
+        <v>0.113371</v>
       </c>
       <c r="C32" t="n">
-        <v>0.279058</v>
+        <v>0.278876</v>
       </c>
       <c r="D32" t="n">
-        <v>0.296008</v>
+        <v>0.296903</v>
       </c>
       <c r="E32" t="n">
-        <v>0.112383</v>
+        <v>0.11359</v>
       </c>
       <c r="F32" t="n">
-        <v>0.248865</v>
+        <v>0.248511</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.109681</v>
+        <v>0.109537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.275171</v>
+        <v>0.275761</v>
       </c>
       <c r="D33" t="n">
-        <v>0.297124</v>
+        <v>0.29683</v>
       </c>
       <c r="E33" t="n">
-        <v>0.110106</v>
+        <v>0.110672</v>
       </c>
       <c r="F33" t="n">
-        <v>0.246865</v>
+        <v>0.246667</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.104912</v>
+        <v>0.10541</v>
       </c>
       <c r="C34" t="n">
-        <v>0.271628</v>
+        <v>0.270638</v>
       </c>
       <c r="D34" t="n">
-        <v>0.297478</v>
+        <v>0.299042</v>
       </c>
       <c r="E34" t="n">
-        <v>0.107384</v>
+        <v>0.108133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.245283</v>
+        <v>0.244875</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.101489</v>
+        <v>0.100906</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268083</v>
+        <v>0.267411</v>
       </c>
       <c r="D35" t="n">
-        <v>0.285935</v>
+        <v>0.286288</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105481</v>
+        <v>0.105288</v>
       </c>
       <c r="F35" t="n">
-        <v>0.24301</v>
+        <v>0.242222</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.096468</v>
+        <v>0.09655270000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262332</v>
+        <v>0.262185</v>
       </c>
       <c r="D36" t="n">
-        <v>0.286916</v>
+        <v>0.286998</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103077</v>
+        <v>0.103595</v>
       </c>
       <c r="F36" t="n">
-        <v>0.240469</v>
+        <v>0.240414</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0926353</v>
+        <v>0.0927381</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256148</v>
+        <v>0.255243</v>
       </c>
       <c r="D37" t="n">
-        <v>0.287435</v>
+        <v>0.288511</v>
       </c>
       <c r="E37" t="n">
-        <v>0.134503</v>
+        <v>0.134868</v>
       </c>
       <c r="F37" t="n">
-        <v>0.270231</v>
+        <v>0.270274</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156238</v>
+        <v>0.156784</v>
       </c>
       <c r="C38" t="n">
-        <v>0.301442</v>
+        <v>0.302422</v>
       </c>
       <c r="D38" t="n">
-        <v>0.288116</v>
+        <v>0.288181</v>
       </c>
       <c r="E38" t="n">
-        <v>0.132126</v>
+        <v>0.132577</v>
       </c>
       <c r="F38" t="n">
-        <v>0.268279</v>
+        <v>0.267608</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153493</v>
+        <v>0.154223</v>
       </c>
       <c r="C39" t="n">
-        <v>0.300513</v>
+        <v>0.300684</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288966</v>
+        <v>0.2892</v>
       </c>
       <c r="E39" t="n">
-        <v>0.131154</v>
+        <v>0.130272</v>
       </c>
       <c r="F39" t="n">
-        <v>0.26558</v>
+        <v>0.265593</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149648</v>
+        <v>0.149903</v>
       </c>
       <c r="C40" t="n">
-        <v>0.299598</v>
+        <v>0.298849</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290824</v>
+        <v>0.291642</v>
       </c>
       <c r="E40" t="n">
-        <v>0.128805</v>
+        <v>0.128093</v>
       </c>
       <c r="F40" t="n">
-        <v>0.263031</v>
+        <v>0.26325</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145641</v>
+        <v>0.145838</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298022</v>
+        <v>0.296832</v>
       </c>
       <c r="D41" t="n">
-        <v>0.291784</v>
+        <v>0.291781</v>
       </c>
       <c r="E41" t="n">
-        <v>0.126509</v>
+        <v>0.126272</v>
       </c>
       <c r="F41" t="n">
-        <v>0.261284</v>
+        <v>0.261163</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142176</v>
+        <v>0.141832</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294643</v>
+        <v>0.294206</v>
       </c>
       <c r="D42" t="n">
-        <v>0.292535</v>
+        <v>0.294206</v>
       </c>
       <c r="E42" t="n">
-        <v>0.124588</v>
+        <v>0.124524</v>
       </c>
       <c r="F42" t="n">
-        <v>0.258842</v>
+        <v>0.258936</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137673</v>
+        <v>0.137905</v>
       </c>
       <c r="C43" t="n">
-        <v>0.29254</v>
+        <v>0.292197</v>
       </c>
       <c r="D43" t="n">
-        <v>0.293951</v>
+        <v>0.295186</v>
       </c>
       <c r="E43" t="n">
-        <v>0.122952</v>
+        <v>0.122813</v>
       </c>
       <c r="F43" t="n">
-        <v>0.256929</v>
+        <v>0.256953</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1337</v>
+        <v>0.133499</v>
       </c>
       <c r="C44" t="n">
-        <v>0.289567</v>
+        <v>0.289597</v>
       </c>
       <c r="D44" t="n">
-        <v>0.295317</v>
+        <v>0.29631</v>
       </c>
       <c r="E44" t="n">
-        <v>0.120463</v>
+        <v>0.120548</v>
       </c>
       <c r="F44" t="n">
-        <v>0.25497</v>
+        <v>0.254702</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128974</v>
+        <v>0.128716</v>
       </c>
       <c r="C45" t="n">
-        <v>0.286176</v>
+        <v>0.286116</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295992</v>
+        <v>0.297534</v>
       </c>
       <c r="E45" t="n">
-        <v>0.118401</v>
+        <v>0.118743</v>
       </c>
       <c r="F45" t="n">
-        <v>0.252402</v>
+        <v>0.252549</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124376</v>
+        <v>0.124266</v>
       </c>
       <c r="C46" t="n">
-        <v>0.280737</v>
+        <v>0.282567</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297419</v>
+        <v>0.298712</v>
       </c>
       <c r="E46" t="n">
-        <v>0.116305</v>
+        <v>0.11641</v>
       </c>
       <c r="F46" t="n">
-        <v>0.250366</v>
+        <v>0.250192</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.119749</v>
+        <v>0.119315</v>
       </c>
       <c r="C47" t="n">
-        <v>0.279023</v>
+        <v>0.279239</v>
       </c>
       <c r="D47" t="n">
-        <v>0.298896</v>
+        <v>0.298844</v>
       </c>
       <c r="E47" t="n">
-        <v>0.114683</v>
+        <v>0.114378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.248632</v>
+        <v>0.248539</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.115148</v>
+        <v>0.114339</v>
       </c>
       <c r="C48" t="n">
-        <v>0.274979</v>
+        <v>0.274239</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29941</v>
+        <v>0.299414</v>
       </c>
       <c r="E48" t="n">
-        <v>0.112215</v>
+        <v>0.112677</v>
       </c>
       <c r="F48" t="n">
-        <v>0.245939</v>
+        <v>0.246001</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109619</v>
+        <v>0.109109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270488</v>
+        <v>0.269467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.300291</v>
+        <v>0.300662</v>
       </c>
       <c r="E49" t="n">
-        <v>0.109528</v>
+        <v>0.1095</v>
       </c>
       <c r="F49" t="n">
-        <v>0.244033</v>
+        <v>0.243827</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104431</v>
+        <v>0.104357</v>
       </c>
       <c r="C50" t="n">
-        <v>0.264942</v>
+        <v>0.263061</v>
       </c>
       <c r="D50" t="n">
-        <v>0.287903</v>
+        <v>0.288814</v>
       </c>
       <c r="E50" t="n">
-        <v>0.107371</v>
+        <v>0.107427</v>
       </c>
       <c r="F50" t="n">
-        <v>0.241962</v>
+        <v>0.241826</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0992097</v>
+        <v>0.0991216</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259357</v>
+        <v>0.258851</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288865</v>
+        <v>0.289407</v>
       </c>
       <c r="E51" t="n">
-        <v>0.137726</v>
+        <v>0.137098</v>
       </c>
       <c r="F51" t="n">
-        <v>0.271583</v>
+        <v>0.271361</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0939357</v>
+        <v>0.09417979999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251094</v>
+        <v>0.25055</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289591</v>
+        <v>0.289784</v>
       </c>
       <c r="E52" t="n">
-        <v>0.136565</v>
+        <v>0.135129</v>
       </c>
       <c r="F52" t="n">
-        <v>0.269253</v>
+        <v>0.269213</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159937</v>
+        <v>0.159697</v>
       </c>
       <c r="C53" t="n">
-        <v>0.303351</v>
+        <v>0.303439</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291022</v>
+        <v>0.291469</v>
       </c>
       <c r="E53" t="n">
-        <v>0.13336</v>
+        <v>0.133505</v>
       </c>
       <c r="F53" t="n">
-        <v>0.267285</v>
+        <v>0.267116</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156443</v>
+        <v>0.156004</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301997</v>
+        <v>0.30165</v>
       </c>
       <c r="D54" t="n">
-        <v>0.292309</v>
+        <v>0.292935</v>
       </c>
       <c r="E54" t="n">
-        <v>0.132276</v>
+        <v>0.131478</v>
       </c>
       <c r="F54" t="n">
-        <v>0.26486</v>
+        <v>0.264696</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151971</v>
+        <v>0.152164</v>
       </c>
       <c r="C55" t="n">
-        <v>0.299882</v>
+        <v>0.298451</v>
       </c>
       <c r="D55" t="n">
-        <v>0.293158</v>
+        <v>0.293765</v>
       </c>
       <c r="E55" t="n">
-        <v>0.129901</v>
+        <v>0.130224</v>
       </c>
       <c r="F55" t="n">
-        <v>0.262397</v>
+        <v>0.262304</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147369</v>
+        <v>0.147583</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2969</v>
+        <v>0.296269</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293757</v>
+        <v>0.295183</v>
       </c>
       <c r="E56" t="n">
-        <v>0.127645</v>
+        <v>0.127754</v>
       </c>
       <c r="F56" t="n">
-        <v>0.260403</v>
+        <v>0.260586</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14297</v>
+        <v>0.143076</v>
       </c>
       <c r="C57" t="n">
-        <v>0.294197</v>
+        <v>0.294075</v>
       </c>
       <c r="D57" t="n">
-        <v>0.296297</v>
+        <v>0.297243</v>
       </c>
       <c r="E57" t="n">
-        <v>0.125229</v>
+        <v>0.125283</v>
       </c>
       <c r="F57" t="n">
-        <v>0.25863</v>
+        <v>0.258607</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.13793</v>
+        <v>0.138126</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291592</v>
+        <v>0.289645</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296858</v>
+        <v>0.297713</v>
       </c>
       <c r="E58" t="n">
-        <v>0.123723</v>
+        <v>0.12334</v>
       </c>
       <c r="F58" t="n">
-        <v>0.256711</v>
+        <v>0.256409</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13296</v>
+        <v>0.133187</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288207</v>
+        <v>0.286909</v>
       </c>
       <c r="D59" t="n">
-        <v>0.298245</v>
+        <v>0.29918</v>
       </c>
       <c r="E59" t="n">
-        <v>0.12107</v>
+        <v>0.121288</v>
       </c>
       <c r="F59" t="n">
-        <v>0.254516</v>
+        <v>0.254347</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.12811</v>
+        <v>0.128223</v>
       </c>
       <c r="C60" t="n">
-        <v>0.283761</v>
+        <v>0.284901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.299174</v>
+        <v>0.301132</v>
       </c>
       <c r="E60" t="n">
-        <v>0.119255</v>
+        <v>0.118556</v>
       </c>
       <c r="F60" t="n">
-        <v>0.252228</v>
+        <v>0.251909</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.122997</v>
+        <v>0.123354</v>
       </c>
       <c r="C61" t="n">
-        <v>0.280495</v>
+        <v>0.280761</v>
       </c>
       <c r="D61" t="n">
-        <v>0.300284</v>
+        <v>0.301993</v>
       </c>
       <c r="E61" t="n">
-        <v>0.117235</v>
+        <v>0.117032</v>
       </c>
       <c r="F61" t="n">
-        <v>0.250338</v>
+        <v>0.249906</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118012</v>
+        <v>0.118289</v>
       </c>
       <c r="C62" t="n">
-        <v>0.276891</v>
+        <v>0.275854</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301496</v>
+        <v>0.302524</v>
       </c>
       <c r="E62" t="n">
-        <v>0.114712</v>
+        <v>0.114486</v>
       </c>
       <c r="F62" t="n">
-        <v>0.248177</v>
+        <v>0.24806</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.112919</v>
+        <v>0.113339</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273371</v>
+        <v>0.272688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302744</v>
+        <v>0.304551</v>
       </c>
       <c r="E63" t="n">
-        <v>0.111853</v>
+        <v>0.11175</v>
       </c>
       <c r="F63" t="n">
-        <v>0.245781</v>
+        <v>0.245727</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.107813</v>
+        <v>0.108001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267235</v>
+        <v>0.266145</v>
       </c>
       <c r="D64" t="n">
-        <v>0.29495</v>
+        <v>0.295818</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109256</v>
+        <v>0.109318</v>
       </c>
       <c r="F64" t="n">
-        <v>0.243324</v>
+        <v>0.24334</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102743</v>
+        <v>0.103068</v>
       </c>
       <c r="C65" t="n">
-        <v>0.260833</v>
+        <v>0.259457</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296784</v>
+        <v>0.297137</v>
       </c>
       <c r="E65" t="n">
-        <v>0.106909</v>
+        <v>0.106764</v>
       </c>
       <c r="F65" t="n">
-        <v>0.24133</v>
+        <v>0.240545</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.097647</v>
+        <v>0.09733609999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253726</v>
+        <v>0.254458</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298222</v>
+        <v>0.298646</v>
       </c>
       <c r="E66" t="n">
-        <v>0.136555</v>
+        <v>0.136649</v>
       </c>
       <c r="F66" t="n">
-        <v>0.270511</v>
+        <v>0.270532</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163801</v>
+        <v>0.163375</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30576</v>
+        <v>0.305481</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300105</v>
+        <v>0.300723</v>
       </c>
       <c r="E67" t="n">
-        <v>0.134631</v>
+        <v>0.134844</v>
       </c>
       <c r="F67" t="n">
-        <v>0.268164</v>
+        <v>0.267878</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159777</v>
+        <v>0.159463</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304266</v>
+        <v>0.304229</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301811</v>
+        <v>0.30243</v>
       </c>
       <c r="E68" t="n">
-        <v>0.132864</v>
+        <v>0.13267</v>
       </c>
       <c r="F68" t="n">
-        <v>0.266219</v>
+        <v>0.266006</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155458</v>
+        <v>0.155152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3027</v>
+        <v>0.301759</v>
       </c>
       <c r="D69" t="n">
-        <v>0.304056</v>
+        <v>0.305142</v>
       </c>
       <c r="E69" t="n">
-        <v>0.130688</v>
+        <v>0.130612</v>
       </c>
       <c r="F69" t="n">
-        <v>0.263856</v>
+        <v>0.26398</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150769</v>
+        <v>0.150498</v>
       </c>
       <c r="C70" t="n">
-        <v>0.298005</v>
+        <v>0.29872</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305985</v>
+        <v>0.307319</v>
       </c>
       <c r="E70" t="n">
-        <v>0.128759</v>
+        <v>0.128575</v>
       </c>
       <c r="F70" t="n">
-        <v>0.261668</v>
+        <v>0.261606</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146081</v>
+        <v>0.145798</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297912</v>
+        <v>0.296201</v>
       </c>
       <c r="D71" t="n">
-        <v>0.308096</v>
+        <v>0.308901</v>
       </c>
       <c r="E71" t="n">
-        <v>0.126742</v>
+        <v>0.126722</v>
       </c>
       <c r="F71" t="n">
-        <v>0.259375</v>
+        <v>0.259107</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.140875</v>
+        <v>0.140673</v>
       </c>
       <c r="C72" t="n">
-        <v>0.293266</v>
+        <v>0.292439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.309724</v>
+        <v>0.311508</v>
       </c>
       <c r="E72" t="n">
-        <v>0.124734</v>
+        <v>0.124739</v>
       </c>
       <c r="F72" t="n">
-        <v>0.257592</v>
+        <v>0.257203</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.135783</v>
+        <v>0.135699</v>
       </c>
       <c r="C73" t="n">
-        <v>0.290537</v>
+        <v>0.290407</v>
       </c>
       <c r="D73" t="n">
-        <v>0.312415</v>
+        <v>0.314551</v>
       </c>
       <c r="E73" t="n">
-        <v>0.122865</v>
+        <v>0.122907</v>
       </c>
       <c r="F73" t="n">
-        <v>0.255457</v>
+        <v>0.255175</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.13058</v>
+        <v>0.13055</v>
       </c>
       <c r="C74" t="n">
-        <v>0.286499</v>
+        <v>0.286183</v>
       </c>
       <c r="D74" t="n">
-        <v>0.321054</v>
+        <v>0.315675</v>
       </c>
       <c r="E74" t="n">
-        <v>0.120489</v>
+        <v>0.120365</v>
       </c>
       <c r="F74" t="n">
-        <v>0.253326</v>
+        <v>0.25326</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125496</v>
+        <v>0.125565</v>
       </c>
       <c r="C75" t="n">
-        <v>0.282781</v>
+        <v>0.281991</v>
       </c>
       <c r="D75" t="n">
-        <v>0.321623</v>
+        <v>0.318066</v>
       </c>
       <c r="E75" t="n">
-        <v>0.118143</v>
+        <v>0.118124</v>
       </c>
       <c r="F75" t="n">
-        <v>0.251006</v>
+        <v>0.251089</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120391</v>
+        <v>0.12049</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279977</v>
+        <v>0.279277</v>
       </c>
       <c r="D76" t="n">
-        <v>0.322125</v>
+        <v>0.32</v>
       </c>
       <c r="E76" t="n">
-        <v>0.115875</v>
+        <v>0.115813</v>
       </c>
       <c r="F76" t="n">
-        <v>0.248859</v>
+        <v>0.248771</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115452</v>
+        <v>0.115228</v>
       </c>
       <c r="C77" t="n">
-        <v>0.276346</v>
+        <v>0.273091</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322935</v>
+        <v>0.322163</v>
       </c>
       <c r="E77" t="n">
         <v>0.113541</v>
       </c>
       <c r="F77" t="n">
-        <v>0.246676</v>
+        <v>0.246477</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110204</v>
+        <v>0.110087</v>
       </c>
       <c r="C78" t="n">
-        <v>0.271605</v>
+        <v>0.270932</v>
       </c>
       <c r="D78" t="n">
-        <v>0.314587</v>
+        <v>0.312115</v>
       </c>
       <c r="E78" t="n">
-        <v>0.110853</v>
+        <v>0.11073</v>
       </c>
       <c r="F78" t="n">
-        <v>0.244668</v>
+        <v>0.244452</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.10519</v>
+        <v>0.105055</v>
       </c>
       <c r="C79" t="n">
-        <v>0.264766</v>
+        <v>0.265831</v>
       </c>
       <c r="D79" t="n">
-        <v>0.314858</v>
+        <v>0.313224</v>
       </c>
       <c r="E79" t="n">
-        <v>0.108312</v>
+        <v>0.108293</v>
       </c>
       <c r="F79" t="n">
-        <v>0.242383</v>
+        <v>0.24198</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0999659</v>
+        <v>0.0998347</v>
       </c>
       <c r="C80" t="n">
-        <v>0.258731</v>
+        <v>0.25669</v>
       </c>
       <c r="D80" t="n">
-        <v>0.315755</v>
+        <v>0.314511</v>
       </c>
       <c r="E80" t="n">
-        <v>0.137691</v>
+        <v>0.137218</v>
       </c>
       <c r="F80" t="n">
-        <v>0.271859</v>
+        <v>0.271562</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164703</v>
+        <v>0.164829</v>
       </c>
       <c r="C81" t="n">
-        <v>0.307896</v>
+        <v>0.306814</v>
       </c>
       <c r="D81" t="n">
-        <v>0.315824</v>
+        <v>0.315819</v>
       </c>
       <c r="E81" t="n">
-        <v>0.135554</v>
+        <v>0.135737</v>
       </c>
       <c r="F81" t="n">
-        <v>0.269537</v>
+        <v>0.269195</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160896</v>
+        <v>0.160864</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305415</v>
+        <v>0.304763</v>
       </c>
       <c r="D82" t="n">
-        <v>0.316462</v>
+        <v>0.316535</v>
       </c>
       <c r="E82" t="n">
-        <v>0.133639</v>
+        <v>0.133897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.267403</v>
+        <v>0.267084</v>
       </c>
     </row>
     <row r="83">
@@ -6708,16 +6708,16 @@
         <v>0.156573</v>
       </c>
       <c r="C83" t="n">
-        <v>0.303484</v>
+        <v>0.30289</v>
       </c>
       <c r="D83" t="n">
-        <v>0.318793</v>
+        <v>0.317651</v>
       </c>
       <c r="E83" t="n">
-        <v>0.131586</v>
+        <v>0.131958</v>
       </c>
       <c r="F83" t="n">
-        <v>0.264972</v>
+        <v>0.26479</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152307</v>
+        <v>0.151967</v>
       </c>
       <c r="C84" t="n">
-        <v>0.301416</v>
+        <v>0.300168</v>
       </c>
       <c r="D84" t="n">
-        <v>0.319588</v>
+        <v>0.319549</v>
       </c>
       <c r="E84" t="n">
-        <v>0.129736</v>
+        <v>0.129883</v>
       </c>
       <c r="F84" t="n">
-        <v>0.263187</v>
+        <v>0.262476</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147261</v>
+        <v>0.146972</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297157</v>
+        <v>0.296271</v>
       </c>
       <c r="D85" t="n">
-        <v>0.320715</v>
+        <v>0.321655</v>
       </c>
       <c r="E85" t="n">
-        <v>0.128342</v>
+        <v>0.127691</v>
       </c>
       <c r="F85" t="n">
-        <v>0.261016</v>
+        <v>0.260326</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142154</v>
+        <v>0.141936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.295048</v>
+        <v>0.293976</v>
       </c>
       <c r="D86" t="n">
-        <v>0.322996</v>
+        <v>0.323269</v>
       </c>
       <c r="E86" t="n">
-        <v>0.125881</v>
+        <v>0.12581</v>
       </c>
       <c r="F86" t="n">
-        <v>0.259051</v>
+        <v>0.258418</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.137201</v>
+        <v>0.136766</v>
       </c>
       <c r="C87" t="n">
-        <v>0.291662</v>
+        <v>0.28999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323609</v>
+        <v>0.326103</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123535</v>
+        <v>0.123732</v>
       </c>
       <c r="F87" t="n">
-        <v>0.256791</v>
+        <v>0.256328</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131953</v>
+        <v>0.131677</v>
       </c>
       <c r="C88" t="n">
-        <v>0.287235</v>
+        <v>0.285854</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325527</v>
+        <v>0.328374</v>
       </c>
       <c r="E88" t="n">
-        <v>0.121482</v>
+        <v>0.121599</v>
       </c>
       <c r="F88" t="n">
-        <v>0.254625</v>
+        <v>0.253915</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126747</v>
+        <v>0.126617</v>
       </c>
       <c r="C89" t="n">
-        <v>0.283649</v>
+        <v>0.282368</v>
       </c>
       <c r="D89" t="n">
-        <v>0.335131</v>
+        <v>0.328213</v>
       </c>
       <c r="E89" t="n">
-        <v>0.119255</v>
+        <v>0.119012</v>
       </c>
       <c r="F89" t="n">
-        <v>0.252501</v>
+        <v>0.251812</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121607</v>
+        <v>0.121498</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279612</v>
+        <v>0.278436</v>
       </c>
       <c r="D90" t="n">
-        <v>0.33443</v>
+        <v>0.329904</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117021</v>
+        <v>0.116759</v>
       </c>
       <c r="F90" t="n">
-        <v>0.250198</v>
+        <v>0.249667</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116594</v>
+        <v>0.116356</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275235</v>
+        <v>0.273805</v>
       </c>
       <c r="D91" t="n">
-        <v>0.334334</v>
+        <v>0.33135</v>
       </c>
       <c r="E91" t="n">
-        <v>0.114271</v>
+        <v>0.114177</v>
       </c>
       <c r="F91" t="n">
-        <v>0.248082</v>
+        <v>0.247528</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111376</v>
+        <v>0.111092</v>
       </c>
       <c r="C92" t="n">
-        <v>0.270432</v>
+        <v>0.268786</v>
       </c>
       <c r="D92" t="n">
-        <v>0.302931</v>
+        <v>0.299337</v>
       </c>
       <c r="E92" t="n">
-        <v>0.11164</v>
+        <v>0.111697</v>
       </c>
       <c r="F92" t="n">
-        <v>0.246042</v>
+        <v>0.245403</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106169</v>
+        <v>0.105954</v>
       </c>
       <c r="C93" t="n">
-        <v>0.264518</v>
+        <v>0.263436</v>
       </c>
       <c r="D93" t="n">
-        <v>0.304802</v>
+        <v>0.300684</v>
       </c>
       <c r="E93" t="n">
-        <v>0.109074</v>
+        <v>0.108986</v>
       </c>
       <c r="F93" t="n">
-        <v>0.243553</v>
+        <v>0.243006</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100916</v>
+        <v>0.100861</v>
       </c>
       <c r="C94" t="n">
-        <v>0.257928</v>
+        <v>0.257135</v>
       </c>
       <c r="D94" t="n">
-        <v>0.306367</v>
+        <v>0.30221</v>
       </c>
       <c r="E94" t="n">
-        <v>0.138401</v>
+        <v>0.138241</v>
       </c>
       <c r="F94" t="n">
-        <v>0.272947</v>
+        <v>0.272426</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165909</v>
+        <v>0.165922</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304375</v>
+        <v>0.304552</v>
       </c>
       <c r="D95" t="n">
-        <v>0.307287</v>
+        <v>0.303898</v>
       </c>
       <c r="E95" t="n">
-        <v>0.136275</v>
+        <v>0.136201</v>
       </c>
       <c r="F95" t="n">
-        <v>0.270403</v>
+        <v>0.270018</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162103</v>
+        <v>0.162191</v>
       </c>
       <c r="C96" t="n">
-        <v>0.30204</v>
+        <v>0.302564</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3091</v>
+        <v>0.305542</v>
       </c>
       <c r="E96" t="n">
-        <v>0.134149</v>
+        <v>0.134161</v>
       </c>
       <c r="F96" t="n">
-        <v>0.268355</v>
+        <v>0.267772</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157794</v>
+        <v>0.157885</v>
       </c>
       <c r="C97" t="n">
-        <v>0.299898</v>
+        <v>0.300071</v>
       </c>
       <c r="D97" t="n">
-        <v>0.313848</v>
+        <v>0.3059</v>
       </c>
       <c r="E97" t="n">
-        <v>0.131968</v>
+        <v>0.131835</v>
       </c>
       <c r="F97" t="n">
-        <v>0.265897</v>
+        <v>0.265563</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153147</v>
+        <v>0.15301</v>
       </c>
       <c r="C98" t="n">
-        <v>0.297341</v>
+        <v>0.297864</v>
       </c>
       <c r="D98" t="n">
-        <v>0.314967</v>
+        <v>0.308116</v>
       </c>
       <c r="E98" t="n">
-        <v>0.129973</v>
+        <v>0.130191</v>
       </c>
       <c r="F98" t="n">
-        <v>0.263786</v>
+        <v>0.263264</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.14833</v>
+        <v>0.148062</v>
       </c>
       <c r="C99" t="n">
-        <v>0.294452</v>
+        <v>0.295016</v>
       </c>
       <c r="D99" t="n">
-        <v>0.316804</v>
+        <v>0.310465</v>
       </c>
       <c r="E99" t="n">
-        <v>0.128354</v>
+        <v>0.128496</v>
       </c>
       <c r="F99" t="n">
-        <v>0.261573</v>
+        <v>0.260818</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143375</v>
+        <v>0.143028</v>
       </c>
       <c r="C100" t="n">
-        <v>0.291715</v>
+        <v>0.291813</v>
       </c>
       <c r="D100" t="n">
-        <v>0.320147</v>
+        <v>0.313472</v>
       </c>
       <c r="E100" t="n">
-        <v>0.126343</v>
+        <v>0.126357</v>
       </c>
       <c r="F100" t="n">
-        <v>0.259572</v>
+        <v>0.258864</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138172</v>
+        <v>0.138111</v>
       </c>
       <c r="C101" t="n">
-        <v>0.288522</v>
+        <v>0.288657</v>
       </c>
       <c r="D101" t="n">
-        <v>0.322291</v>
+        <v>0.316669</v>
       </c>
       <c r="E101" t="n">
-        <v>0.124295</v>
+        <v>0.124278</v>
       </c>
       <c r="F101" t="n">
-        <v>0.257314</v>
+        <v>0.25673</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132831</v>
+        <v>0.132849</v>
       </c>
       <c r="C102" t="n">
-        <v>0.28494</v>
+        <v>0.285294</v>
       </c>
       <c r="D102" t="n">
-        <v>0.323528</v>
+        <v>0.319163</v>
       </c>
       <c r="E102" t="n">
-        <v>0.12209</v>
+        <v>0.122166</v>
       </c>
       <c r="F102" t="n">
-        <v>0.255166</v>
+        <v>0.254607</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127622</v>
+        <v>0.12765</v>
       </c>
       <c r="C103" t="n">
-        <v>0.281291</v>
+        <v>0.281663</v>
       </c>
       <c r="D103" t="n">
-        <v>0.328495</v>
+        <v>0.320187</v>
       </c>
       <c r="E103" t="n">
-        <v>0.119839</v>
+        <v>0.119798</v>
       </c>
       <c r="F103" t="n">
-        <v>0.253111</v>
+        <v>0.252397</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.12249</v>
+        <v>0.122536</v>
       </c>
       <c r="C104" t="n">
-        <v>0.277307</v>
+        <v>0.277368</v>
       </c>
       <c r="D104" t="n">
-        <v>0.328752</v>
+        <v>0.32162</v>
       </c>
       <c r="E104" t="n">
-        <v>0.117477</v>
+        <v>0.117374</v>
       </c>
       <c r="F104" t="n">
-        <v>0.250963</v>
+        <v>0.250153</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117293</v>
+        <v>0.117347</v>
       </c>
       <c r="C105" t="n">
-        <v>0.272995</v>
+        <v>0.272911</v>
       </c>
       <c r="D105" t="n">
-        <v>0.32825</v>
+        <v>0.322911</v>
       </c>
       <c r="E105" t="n">
-        <v>0.114997</v>
+        <v>0.115135</v>
       </c>
       <c r="F105" t="n">
-        <v>0.248835</v>
+        <v>0.247992</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112163</v>
+        <v>0.112407</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268356</v>
+        <v>0.26801</v>
       </c>
       <c r="D106" t="n">
-        <v>0.328633</v>
+        <v>0.325344</v>
       </c>
       <c r="E106" t="n">
-        <v>0.112497</v>
+        <v>0.112577</v>
       </c>
       <c r="F106" t="n">
-        <v>0.246471</v>
+        <v>0.245626</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107002</v>
+        <v>0.107036</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263079</v>
+        <v>0.262701</v>
       </c>
       <c r="D107" t="n">
-        <v>0.306406</v>
+        <v>0.298833</v>
       </c>
       <c r="E107" t="n">
-        <v>0.109899</v>
+        <v>0.109935</v>
       </c>
       <c r="F107" t="n">
-        <v>0.244214</v>
+        <v>0.243554</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101838</v>
+        <v>0.101966</v>
       </c>
       <c r="C108" t="n">
-        <v>0.25669</v>
+        <v>0.256615</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307754</v>
+        <v>0.301143</v>
       </c>
       <c r="E108" t="n">
-        <v>0.138914</v>
+        <v>0.138887</v>
       </c>
       <c r="F108" t="n">
-        <v>0.273338</v>
+        <v>0.272824</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966171</v>
+        <v>0.09680800000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.249953</v>
+        <v>0.249678</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309757</v>
+        <v>0.302552</v>
       </c>
       <c r="E109" t="n">
-        <v>0.136756</v>
+        <v>0.136682</v>
       </c>
       <c r="F109" t="n">
-        <v>0.27097</v>
+        <v>0.270444</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162849</v>
+        <v>0.163054</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302404</v>
+        <v>0.301896</v>
       </c>
       <c r="D110" t="n">
-        <v>0.310654</v>
+        <v>0.304304</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134648</v>
+        <v>0.134605</v>
       </c>
       <c r="F110" t="n">
-        <v>0.268762</v>
+        <v>0.268079</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158457</v>
+        <v>0.158783</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300418</v>
+        <v>0.299651</v>
       </c>
       <c r="D111" t="n">
-        <v>0.313113</v>
+        <v>0.305233</v>
       </c>
       <c r="E111" t="n">
-        <v>0.132647</v>
+        <v>0.132594</v>
       </c>
       <c r="F111" t="n">
-        <v>0.266346</v>
+        <v>0.265814</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.15419</v>
+        <v>0.153854</v>
       </c>
       <c r="C112" t="n">
-        <v>0.297949</v>
+        <v>0.297157</v>
       </c>
       <c r="D112" t="n">
-        <v>0.314487</v>
+        <v>0.306765</v>
       </c>
       <c r="E112" t="n">
-        <v>0.130598</v>
+        <v>0.130563</v>
       </c>
       <c r="F112" t="n">
-        <v>0.264344</v>
+        <v>0.263671</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149078</v>
+        <v>0.149165</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295057</v>
+        <v>0.294594</v>
       </c>
       <c r="D113" t="n">
-        <v>0.31701</v>
+        <v>0.309303</v>
       </c>
       <c r="E113" t="n">
-        <v>0.128688</v>
+        <v>0.128555</v>
       </c>
       <c r="F113" t="n">
-        <v>0.262144</v>
+        <v>0.261539</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144162</v>
+        <v>0.144311</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292647</v>
+        <v>0.291825</v>
       </c>
       <c r="D114" t="n">
-        <v>0.32088</v>
+        <v>0.311612</v>
       </c>
       <c r="E114" t="n">
-        <v>0.126621</v>
+        <v>0.126587</v>
       </c>
       <c r="F114" t="n">
-        <v>0.260164</v>
+        <v>0.259412</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13903</v>
+        <v>0.138935</v>
       </c>
       <c r="C115" t="n">
-        <v>0.28936</v>
+        <v>0.288271</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323264</v>
+        <v>0.315037</v>
       </c>
       <c r="E115" t="n">
-        <v>0.124665</v>
+        <v>0.124641</v>
       </c>
       <c r="F115" t="n">
-        <v>0.257859</v>
+        <v>0.257165</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133849</v>
+        <v>0.133708</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2857</v>
+        <v>0.285301</v>
       </c>
       <c r="D116" t="n">
-        <v>0.325475</v>
+        <v>0.317316</v>
       </c>
       <c r="E116" t="n">
-        <v>0.122696</v>
+        <v>0.12278</v>
       </c>
       <c r="F116" t="n">
-        <v>0.255794</v>
+        <v>0.255029</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128667</v>
+        <v>0.128828</v>
       </c>
       <c r="C117" t="n">
-        <v>0.281998</v>
+        <v>0.281399</v>
       </c>
       <c r="D117" t="n">
-        <v>0.327665</v>
+        <v>0.319749</v>
       </c>
       <c r="E117" t="n">
-        <v>0.120451</v>
+        <v>0.120462</v>
       </c>
       <c r="F117" t="n">
-        <v>0.253618</v>
+        <v>0.252855</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123415</v>
+        <v>0.123548</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278475</v>
+        <v>0.277473</v>
       </c>
       <c r="D118" t="n">
-        <v>0.328979</v>
+        <v>0.320917</v>
       </c>
       <c r="E118" t="n">
-        <v>0.118003</v>
+        <v>0.118185</v>
       </c>
       <c r="F118" t="n">
-        <v>0.251432</v>
+        <v>0.250642</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118414</v>
+        <v>0.118523</v>
       </c>
       <c r="C119" t="n">
-        <v>0.273934</v>
+        <v>0.27351</v>
       </c>
       <c r="D119" t="n">
-        <v>0.330224</v>
+        <v>0.321392</v>
       </c>
       <c r="E119" t="n">
-        <v>0.115711</v>
+        <v>0.11557</v>
       </c>
       <c r="F119" t="n">
-        <v>0.249186</v>
+        <v>0.248512</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113197</v>
+        <v>0.113288</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269334</v>
+        <v>0.26843</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329886</v>
+        <v>0.323931</v>
       </c>
       <c r="E120" t="n">
-        <v>0.113251</v>
+        <v>0.11314</v>
       </c>
       <c r="F120" t="n">
-        <v>0.246991</v>
+        <v>0.246325</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.10811</v>
+        <v>0.108125</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264091</v>
+        <v>0.263215</v>
       </c>
       <c r="D121" t="n">
-        <v>0.307363</v>
+        <v>0.300822</v>
       </c>
       <c r="E121" t="n">
-        <v>0.110483</v>
+        <v>0.110413</v>
       </c>
       <c r="F121" t="n">
-        <v>0.244712</v>
+        <v>0.244126</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102949</v>
+        <v>0.102944</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2584</v>
+        <v>0.257345</v>
       </c>
       <c r="D122" t="n">
-        <v>0.310784</v>
+        <v>0.302933</v>
       </c>
       <c r="E122" t="n">
-        <v>0.107785</v>
+        <v>0.107798</v>
       </c>
       <c r="F122" t="n">
-        <v>0.242314</v>
+        <v>0.241655</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.09782730000000001</v>
+        <v>0.0978093</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251036</v>
+        <v>0.250604</v>
       </c>
       <c r="D123" t="n">
-        <v>0.31177</v>
+        <v>0.304086</v>
       </c>
       <c r="E123" t="n">
-        <v>0.137131</v>
+        <v>0.137141</v>
       </c>
       <c r="F123" t="n">
-        <v>0.271624</v>
+        <v>0.271056</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173151</v>
+        <v>0.172675</v>
       </c>
       <c r="C124" t="n">
-        <v>0.309336</v>
+        <v>0.302044</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313405</v>
+        <v>0.305456</v>
       </c>
       <c r="E124" t="n">
-        <v>0.135046</v>
+        <v>0.135097</v>
       </c>
       <c r="F124" t="n">
-        <v>0.269221</v>
+        <v>0.268625</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168372</v>
+        <v>0.168355</v>
       </c>
       <c r="C125" t="n">
-        <v>0.307301</v>
+        <v>0.300189</v>
       </c>
       <c r="D125" t="n">
-        <v>0.315544</v>
+        <v>0.306591</v>
       </c>
       <c r="E125" t="n">
-        <v>0.133016</v>
+        <v>0.132951</v>
       </c>
       <c r="F125" t="n">
-        <v>0.266987</v>
+        <v>0.266469</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163487</v>
+        <v>0.163158</v>
       </c>
       <c r="C126" t="n">
-        <v>0.305064</v>
+        <v>0.297799</v>
       </c>
       <c r="D126" t="n">
-        <v>0.317098</v>
+        <v>0.307977</v>
       </c>
       <c r="E126" t="n">
-        <v>0.131145</v>
+        <v>0.131027</v>
       </c>
       <c r="F126" t="n">
-        <v>0.264998</v>
+        <v>0.264465</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158335</v>
+        <v>0.158064</v>
       </c>
       <c r="C127" t="n">
-        <v>0.303067</v>
+        <v>0.295109</v>
       </c>
       <c r="D127" t="n">
-        <v>0.319776</v>
+        <v>0.309893</v>
       </c>
       <c r="E127" t="n">
-        <v>0.129033</v>
+        <v>0.129127</v>
       </c>
       <c r="F127" t="n">
-        <v>0.262822</v>
+        <v>0.26212</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.152884</v>
+        <v>0.152554</v>
       </c>
       <c r="C128" t="n">
-        <v>0.300278</v>
+        <v>0.292156</v>
       </c>
       <c r="D128" t="n">
-        <v>0.322335</v>
+        <v>0.312888</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127128</v>
+        <v>0.127118</v>
       </c>
       <c r="F128" t="n">
-        <v>0.260627</v>
+        <v>0.260031</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147257</v>
+        <v>0.14677</v>
       </c>
       <c r="C129" t="n">
-        <v>0.297088</v>
+        <v>0.289192</v>
       </c>
       <c r="D129" t="n">
-        <v>0.324893</v>
+        <v>0.316151</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1251</v>
+        <v>0.125129</v>
       </c>
       <c r="F129" t="n">
-        <v>0.258609</v>
+        <v>0.257839</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141894</v>
+        <v>0.141816</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294187</v>
+        <v>0.28581</v>
       </c>
       <c r="D130" t="n">
-        <v>0.328453</v>
+        <v>0.319171</v>
       </c>
       <c r="E130" t="n">
-        <v>0.122971</v>
+        <v>0.123032</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2565</v>
+        <v>0.255681</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136341</v>
+        <v>0.136227</v>
       </c>
       <c r="C131" t="n">
-        <v>0.290739</v>
+        <v>0.282046</v>
       </c>
       <c r="D131" t="n">
-        <v>0.330551</v>
+        <v>0.320818</v>
       </c>
       <c r="E131" t="n">
-        <v>0.120916</v>
+        <v>0.120891</v>
       </c>
       <c r="F131" t="n">
-        <v>0.254345</v>
+        <v>0.253387</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.130891</v>
+        <v>0.131035</v>
       </c>
       <c r="C132" t="n">
-        <v>0.287307</v>
+        <v>0.278317</v>
       </c>
       <c r="D132" t="n">
-        <v>0.331779</v>
+        <v>0.321379</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1187</v>
+        <v>0.118584</v>
       </c>
       <c r="F132" t="n">
-        <v>0.252049</v>
+        <v>0.251316</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125414</v>
+        <v>0.125454</v>
       </c>
       <c r="C133" t="n">
-        <v>0.284062</v>
+        <v>0.274158</v>
       </c>
       <c r="D133" t="n">
-        <v>0.331947</v>
+        <v>0.323692</v>
       </c>
       <c r="E133" t="n">
-        <v>0.116253</v>
+        <v>0.116239</v>
       </c>
       <c r="F133" t="n">
-        <v>0.249812</v>
+        <v>0.249116</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120227</v>
+        <v>0.120178</v>
       </c>
       <c r="C134" t="n">
-        <v>0.279535</v>
+        <v>0.269692</v>
       </c>
       <c r="D134" t="n">
-        <v>0.332257</v>
+        <v>0.32569</v>
       </c>
       <c r="E134" t="n">
-        <v>0.113739</v>
+        <v>0.113736</v>
       </c>
       <c r="F134" t="n">
-        <v>0.247525</v>
+        <v>0.247041</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114882</v>
+        <v>0.114891</v>
       </c>
       <c r="C135" t="n">
-        <v>0.274765</v>
+        <v>0.264516</v>
       </c>
       <c r="D135" t="n">
-        <v>0.308665</v>
+        <v>0.301096</v>
       </c>
       <c r="E135" t="n">
-        <v>0.111136</v>
+        <v>0.111199</v>
       </c>
       <c r="F135" t="n">
-        <v>0.245283</v>
+        <v>0.244629</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109483</v>
+        <v>0.109466</v>
       </c>
       <c r="C136" t="n">
-        <v>0.268774</v>
+        <v>0.258655</v>
       </c>
       <c r="D136" t="n">
-        <v>0.311064</v>
+        <v>0.30318</v>
       </c>
       <c r="E136" t="n">
-        <v>0.108418</v>
+        <v>0.108398</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2429</v>
+        <v>0.242106</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.10402</v>
+        <v>0.104015</v>
       </c>
       <c r="C137" t="n">
-        <v>0.262609</v>
+        <v>0.251955</v>
       </c>
       <c r="D137" t="n">
-        <v>0.313076</v>
+        <v>0.304111</v>
       </c>
       <c r="E137" t="n">
-        <v>0.146552</v>
+        <v>0.146626</v>
       </c>
       <c r="F137" t="n">
-        <v>0.277203</v>
+        <v>0.276558</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.173794</v>
+        <v>0.173766</v>
       </c>
       <c r="C138" t="n">
-        <v>0.315608</v>
+        <v>0.316492</v>
       </c>
       <c r="D138" t="n">
-        <v>0.314274</v>
+        <v>0.305436</v>
       </c>
       <c r="E138" t="n">
-        <v>0.143993</v>
+        <v>0.144138</v>
       </c>
       <c r="F138" t="n">
-        <v>0.274912</v>
+        <v>0.274491</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169443</v>
+        <v>0.169369</v>
       </c>
       <c r="C139" t="n">
-        <v>0.313793</v>
+        <v>0.314612</v>
       </c>
       <c r="D139" t="n">
-        <v>0.316199</v>
+        <v>0.306701</v>
       </c>
       <c r="E139" t="n">
-        <v>0.140927</v>
+        <v>0.141591</v>
       </c>
       <c r="F139" t="n">
-        <v>0.272434</v>
+        <v>0.271865</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164851</v>
+        <v>0.164345</v>
       </c>
       <c r="C140" t="n">
-        <v>0.311967</v>
+        <v>0.312169</v>
       </c>
       <c r="D140" t="n">
-        <v>0.31776</v>
+        <v>0.308092</v>
       </c>
       <c r="E140" t="n">
-        <v>0.139422</v>
+        <v>0.139222</v>
       </c>
       <c r="F140" t="n">
-        <v>0.270055</v>
+        <v>0.269365</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159203</v>
+        <v>0.159615</v>
       </c>
       <c r="C141" t="n">
-        <v>0.309298</v>
+        <v>0.309115</v>
       </c>
       <c r="D141" t="n">
-        <v>0.320084</v>
+        <v>0.309864</v>
       </c>
       <c r="E141" t="n">
-        <v>0.136754</v>
+        <v>0.136791</v>
       </c>
       <c r="F141" t="n">
-        <v>0.26791</v>
+        <v>0.266964</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154058</v>
+        <v>0.153947</v>
       </c>
       <c r="C142" t="n">
-        <v>0.306575</v>
+        <v>0.306134</v>
       </c>
       <c r="D142" t="n">
-        <v>0.322277</v>
+        <v>0.312619</v>
       </c>
       <c r="E142" t="n">
-        <v>0.134528</v>
+        <v>0.134619</v>
       </c>
       <c r="F142" t="n">
-        <v>0.265194</v>
+        <v>0.26482</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148506</v>
+        <v>0.14863</v>
       </c>
       <c r="C143" t="n">
-        <v>0.303108</v>
+        <v>0.302875</v>
       </c>
       <c r="D143" t="n">
-        <v>0.325741</v>
+        <v>0.315359</v>
       </c>
       <c r="E143" t="n">
-        <v>0.132275</v>
+        <v>0.132204</v>
       </c>
       <c r="F143" t="n">
-        <v>0.263113</v>
+        <v>0.262018</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0678889</v>
+        <v>0.06501170000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266684</v>
+        <v>0.266007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266582</v>
+        <v>0.280206</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162772</v>
+        <v>0.0645352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269683</v>
+        <v>0.237401</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778240000000001</v>
+        <v>0.0645304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264386</v>
+        <v>0.264601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269851</v>
+        <v>0.282172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162008</v>
+        <v>0.0635867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272456</v>
+        <v>0.238161</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.068311</v>
+        <v>0.06442779999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261126</v>
+        <v>0.262952</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27226</v>
+        <v>0.285484</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161849</v>
+        <v>0.0629006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271295</v>
+        <v>0.235559</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687238</v>
+        <v>0.06429799999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260236</v>
+        <v>0.258064</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273551</v>
+        <v>0.286404</v>
       </c>
       <c r="E5" t="n">
-        <v>0.161806</v>
+        <v>0.0645917</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272144</v>
+        <v>0.234678</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676863</v>
+        <v>0.06454940000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257556</v>
+        <v>0.256283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277587</v>
+        <v>0.287938</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161922</v>
+        <v>0.0626217</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27135</v>
+        <v>0.23259</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675906</v>
+        <v>0.0645506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255626</v>
+        <v>0.253197</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266964</v>
+        <v>0.276285</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161799</v>
+        <v>0.0620457</v>
       </c>
       <c r="F7" t="n">
-        <v>0.268732</v>
+        <v>0.232283</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679681</v>
+        <v>0.0651457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247444</v>
+        <v>0.243459</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270519</v>
+        <v>0.278538</v>
       </c>
       <c r="E8" t="n">
-        <v>0.162036</v>
+        <v>0.062315</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26981</v>
+        <v>0.231633</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685611</v>
+        <v>0.0658217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244567</v>
+        <v>0.241747</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271167</v>
+        <v>0.278333</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168061</v>
+        <v>0.104472</v>
       </c>
       <c r="F9" t="n">
-        <v>0.283224</v>
+        <v>0.25759</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100876</v>
+        <v>0.0924465</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285303</v>
+        <v>0.288442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272691</v>
+        <v>0.280464</v>
       </c>
       <c r="E10" t="n">
-        <v>0.171194</v>
+        <v>0.109362</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280456</v>
+        <v>0.25644</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101372</v>
+        <v>0.095237</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285578</v>
+        <v>0.286697</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274472</v>
+        <v>0.282669</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170399</v>
+        <v>0.111018</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276914</v>
+        <v>0.25389</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101058</v>
+        <v>0.0948127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.284596</v>
+        <v>0.286149</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276475</v>
+        <v>0.284809</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17077</v>
+        <v>0.107249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281486</v>
+        <v>0.252161</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997531</v>
+        <v>0.09375749999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28219</v>
+        <v>0.283618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280209</v>
+        <v>0.28661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168563</v>
+        <v>0.107092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279672</v>
+        <v>0.250635</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09806860000000001</v>
+        <v>0.0941959</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279853</v>
+        <v>0.280352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280852</v>
+        <v>0.288783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168475</v>
+        <v>0.106342</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27486</v>
+        <v>0.248361</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0967997</v>
+        <v>0.0921752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280211</v>
+        <v>0.280489</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284531</v>
+        <v>0.289963</v>
       </c>
       <c r="E15" t="n">
-        <v>0.169724</v>
+        <v>0.106053</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277563</v>
+        <v>0.247404</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0950593</v>
+        <v>0.0903693</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277175</v>
+        <v>0.277583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28474</v>
+        <v>0.290193</v>
       </c>
       <c r="E16" t="n">
-        <v>0.166605</v>
+        <v>0.103862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27561</v>
+        <v>0.245783</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0934377</v>
+        <v>0.08977449999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276814</v>
+        <v>0.273056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285882</v>
+        <v>0.291556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.165909</v>
+        <v>0.103162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277433</v>
+        <v>0.244476</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0911768</v>
+        <v>0.0897534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273726</v>
+        <v>0.271312</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287828</v>
+        <v>0.292487</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166688</v>
+        <v>0.101183</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274569</v>
+        <v>0.243218</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0901078</v>
+        <v>0.0875727</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269212</v>
+        <v>0.268631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28929</v>
+        <v>0.294098</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165575</v>
+        <v>0.102815</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2753</v>
+        <v>0.242047</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08766790000000001</v>
+        <v>0.08689910000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267348</v>
+        <v>0.265452</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29141</v>
+        <v>0.295429</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165412</v>
+        <v>0.0967982</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272211</v>
+        <v>0.240954</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0865858</v>
+        <v>0.08624080000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260489</v>
+        <v>0.258999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.280749</v>
+        <v>0.283391</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164574</v>
+        <v>0.0956997</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276864</v>
+        <v>0.238747</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08480989999999999</v>
+        <v>0.08336730000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255654</v>
+        <v>0.254135</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280331</v>
+        <v>0.284615</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164254</v>
+        <v>0.0926811</v>
       </c>
       <c r="F22" t="n">
-        <v>0.269426</v>
+        <v>0.237017</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0832793</v>
+        <v>0.08160870000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249592</v>
+        <v>0.247255</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281518</v>
+        <v>0.28475</v>
       </c>
       <c r="E23" t="n">
-        <v>0.176189</v>
+        <v>0.125483</v>
       </c>
       <c r="F23" t="n">
-        <v>0.284079</v>
+        <v>0.265962</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133359</v>
+        <v>0.135613</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299684</v>
+        <v>0.299239</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283561</v>
+        <v>0.285698</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17313</v>
+        <v>0.124631</v>
       </c>
       <c r="F24" t="n">
-        <v>0.282759</v>
+        <v>0.264228</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132313</v>
+        <v>0.134625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298541</v>
+        <v>0.296745</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28405</v>
+        <v>0.287671</v>
       </c>
       <c r="E25" t="n">
-        <v>0.172727</v>
+        <v>0.12137</v>
       </c>
       <c r="F25" t="n">
-        <v>0.284604</v>
+        <v>0.261972</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130256</v>
+        <v>0.131996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292787</v>
+        <v>0.295102</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284624</v>
+        <v>0.288249</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172644</v>
+        <v>0.120482</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280016</v>
+        <v>0.260477</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128311</v>
+        <v>0.128763</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294484</v>
+        <v>0.292604</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285839</v>
+        <v>0.28964</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171265</v>
+        <v>0.119962</v>
       </c>
       <c r="F27" t="n">
-        <v>0.284183</v>
+        <v>0.25827</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126164</v>
+        <v>0.126483</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292157</v>
+        <v>0.290179</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288176</v>
+        <v>0.291027</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170013</v>
+        <v>0.119864</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282603</v>
+        <v>0.2567</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122426</v>
+        <v>0.12298</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28977</v>
+        <v>0.287623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289204</v>
+        <v>0.292512</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171118</v>
+        <v>0.117295</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277189</v>
+        <v>0.254808</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118461</v>
+        <v>0.120669</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28584</v>
+        <v>0.284613</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29148</v>
+        <v>0.294751</v>
       </c>
       <c r="E30" t="n">
-        <v>0.169711</v>
+        <v>0.116778</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277436</v>
+        <v>0.25284</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114871</v>
+        <v>0.117263</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284236</v>
+        <v>0.28193</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293036</v>
+        <v>0.296327</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16911</v>
+        <v>0.113801</v>
       </c>
       <c r="F31" t="n">
-        <v>0.279152</v>
+        <v>0.251269</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111336</v>
+        <v>0.114506</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281147</v>
+        <v>0.278193</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293728</v>
+        <v>0.296491</v>
       </c>
       <c r="E32" t="n">
-        <v>0.167854</v>
+        <v>0.111823</v>
       </c>
       <c r="F32" t="n">
-        <v>0.277764</v>
+        <v>0.248698</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106609</v>
+        <v>0.11011</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276471</v>
+        <v>0.274338</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294785</v>
+        <v>0.29762</v>
       </c>
       <c r="E33" t="n">
-        <v>0.168591</v>
+        <v>0.110193</v>
       </c>
       <c r="F33" t="n">
-        <v>0.274122</v>
+        <v>0.24696</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102251</v>
+        <v>0.105202</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272605</v>
+        <v>0.270446</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295378</v>
+        <v>0.297921</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166649</v>
+        <v>0.107632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272774</v>
+        <v>0.244855</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09831230000000001</v>
+        <v>0.100494</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268461</v>
+        <v>0.266047</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284678</v>
+        <v>0.28615</v>
       </c>
       <c r="E35" t="n">
-        <v>0.166595</v>
+        <v>0.105833</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27264</v>
+        <v>0.243082</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937605</v>
+        <v>0.0964428</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263527</v>
+        <v>0.26009</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284697</v>
+        <v>0.287285</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165363</v>
+        <v>0.103275</v>
       </c>
       <c r="F36" t="n">
-        <v>0.272443</v>
+        <v>0.240619</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896979</v>
+        <v>0.0925023</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257039</v>
+        <v>0.254615</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286123</v>
+        <v>0.288759</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181061</v>
+        <v>0.134704</v>
       </c>
       <c r="F37" t="n">
-        <v>0.287755</v>
+        <v>0.269988</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154566</v>
+        <v>0.156758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303604</v>
+        <v>0.302936</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28698</v>
+        <v>0.28985</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179677</v>
+        <v>0.131729</v>
       </c>
       <c r="F38" t="n">
-        <v>0.284501</v>
+        <v>0.267765</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151618</v>
+        <v>0.153799</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302924</v>
+        <v>0.299952</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286786</v>
+        <v>0.289929</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178858</v>
+        <v>0.130934</v>
       </c>
       <c r="F39" t="n">
-        <v>0.286861</v>
+        <v>0.265389</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148336</v>
+        <v>0.15018</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300513</v>
+        <v>0.299546</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288929</v>
+        <v>0.291392</v>
       </c>
       <c r="E40" t="n">
-        <v>0.176597</v>
+        <v>0.128667</v>
       </c>
       <c r="F40" t="n">
-        <v>0.286249</v>
+        <v>0.263148</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144788</v>
+        <v>0.146814</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299006</v>
+        <v>0.29755</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290063</v>
+        <v>0.292371</v>
       </c>
       <c r="E41" t="n">
-        <v>0.176807</v>
+        <v>0.126252</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285222</v>
+        <v>0.261435</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140224</v>
+        <v>0.142497</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294673</v>
+        <v>0.294071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291588</v>
+        <v>0.294087</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175174</v>
+        <v>0.12549</v>
       </c>
       <c r="F42" t="n">
-        <v>0.279841</v>
+        <v>0.259186</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136331</v>
+        <v>0.138371</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293934</v>
+        <v>0.291166</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292576</v>
+        <v>0.295761</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174888</v>
+        <v>0.123011</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280992</v>
+        <v>0.25701</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131768</v>
+        <v>0.133587</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290382</v>
+        <v>0.288598</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294829</v>
+        <v>0.296272</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173633</v>
+        <v>0.120308</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280668</v>
+        <v>0.254794</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126773</v>
+        <v>0.129173</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284795</v>
+        <v>0.2862</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295224</v>
+        <v>0.297112</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1727</v>
+        <v>0.118236</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280405</v>
+        <v>0.252565</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122298</v>
+        <v>0.124391</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284613</v>
+        <v>0.282839</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297055</v>
+        <v>0.298925</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171696</v>
+        <v>0.11654</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278912</v>
+        <v>0.250416</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118071</v>
+        <v>0.119683</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280307</v>
+        <v>0.27929</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297511</v>
+        <v>0.29939</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170765</v>
+        <v>0.114404</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275228</v>
+        <v>0.248809</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113566</v>
+        <v>0.11462</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27607</v>
+        <v>0.273786</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298032</v>
+        <v>0.299419</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169999</v>
+        <v>0.11244</v>
       </c>
       <c r="F48" t="n">
-        <v>0.277362</v>
+        <v>0.246079</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108586</v>
+        <v>0.109019</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269332</v>
+        <v>0.26991</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299902</v>
+        <v>0.299851</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168173</v>
+        <v>0.109812</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275952</v>
+        <v>0.243935</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103077</v>
+        <v>0.103924</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265764</v>
+        <v>0.263248</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288371</v>
+        <v>0.288386</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167707</v>
+        <v>0.10714</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273877</v>
+        <v>0.242002</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097797</v>
+        <v>0.0990476</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259778</v>
+        <v>0.258369</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288963</v>
+        <v>0.288881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184967</v>
+        <v>0.137748</v>
       </c>
       <c r="F51" t="n">
-        <v>0.291515</v>
+        <v>0.271312</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927835</v>
+        <v>0.0940497</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252622</v>
+        <v>0.249972</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289558</v>
+        <v>0.289841</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183011</v>
+        <v>0.135357</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29153</v>
+        <v>0.269055</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15929</v>
+        <v>0.160172</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305273</v>
+        <v>0.303847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290825</v>
+        <v>0.291422</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181822</v>
+        <v>0.133494</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288884</v>
+        <v>0.267036</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155642</v>
+        <v>0.156076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302619</v>
+        <v>0.299773</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290717</v>
+        <v>0.292314</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180942</v>
+        <v>0.132978</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286205</v>
+        <v>0.264584</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151215</v>
+        <v>0.152233</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300606</v>
+        <v>0.298395</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292774</v>
+        <v>0.293308</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179156</v>
+        <v>0.129215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285078</v>
+        <v>0.262415</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146819</v>
+        <v>0.147977</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298689</v>
+        <v>0.297466</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294935</v>
+        <v>0.295163</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178402</v>
+        <v>0.128263</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285753</v>
+        <v>0.26053</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142122</v>
+        <v>0.143124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.29545</v>
+        <v>0.293787</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295428</v>
+        <v>0.29678</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177166</v>
+        <v>0.126416</v>
       </c>
       <c r="F57" t="n">
-        <v>0.284151</v>
+        <v>0.258831</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137512</v>
+        <v>0.138373</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291243</v>
+        <v>0.290783</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296522</v>
+        <v>0.297787</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175874</v>
+        <v>0.12343</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281217</v>
+        <v>0.256792</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132576</v>
+        <v>0.133402</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289252</v>
+        <v>0.288413</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29761</v>
+        <v>0.299377</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174876</v>
+        <v>0.121095</v>
       </c>
       <c r="F59" t="n">
-        <v>0.281745</v>
+        <v>0.254207</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127804</v>
+        <v>0.128248</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285832</v>
+        <v>0.283827</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298799</v>
+        <v>0.300351</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173556</v>
+        <v>0.118945</v>
       </c>
       <c r="F60" t="n">
-        <v>0.281709</v>
+        <v>0.252275</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123153</v>
+        <v>0.123435</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281727</v>
+        <v>0.281343</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299923</v>
+        <v>0.30203</v>
       </c>
       <c r="E61" t="n">
-        <v>0.17272</v>
+        <v>0.116836</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27954</v>
+        <v>0.250503</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118014</v>
+        <v>0.118372</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278371</v>
+        <v>0.277083</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301351</v>
+        <v>0.30254</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171462</v>
+        <v>0.114686</v>
       </c>
       <c r="F62" t="n">
-        <v>0.280254</v>
+        <v>0.248152</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113021</v>
+        <v>0.11299</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273705</v>
+        <v>0.271672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302787</v>
+        <v>0.303837</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170454</v>
+        <v>0.112079</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279242</v>
+        <v>0.245805</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108034</v>
+        <v>0.107908</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267628</v>
+        <v>0.26714</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294383</v>
+        <v>0.294978</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168981</v>
+        <v>0.109223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.275591</v>
+        <v>0.243337</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102837</v>
+        <v>0.102797</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262059</v>
+        <v>0.260723</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296199</v>
+        <v>0.296725</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167969</v>
+        <v>0.106537</v>
       </c>
       <c r="F65" t="n">
-        <v>0.276462</v>
+        <v>0.24108</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0978184</v>
+        <v>0.09767670000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255249</v>
+        <v>0.253111</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298571</v>
+        <v>0.298682</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185119</v>
+        <v>0.13682</v>
       </c>
       <c r="F66" t="n">
-        <v>0.291915</v>
+        <v>0.270647</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163284</v>
+        <v>0.163492</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306545</v>
+        <v>0.306557</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300153</v>
+        <v>0.300888</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183614</v>
+        <v>0.134627</v>
       </c>
       <c r="F67" t="n">
-        <v>0.291325</v>
+        <v>0.268029</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159718</v>
+        <v>0.159663</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305257</v>
+        <v>0.303332</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301315</v>
+        <v>0.303141</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182334</v>
+        <v>0.132996</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2883</v>
+        <v>0.266165</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155353</v>
+        <v>0.155292</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30245</v>
+        <v>0.301755</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303435</v>
+        <v>0.30455</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180983</v>
+        <v>0.130687</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288056</v>
+        <v>0.263957</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150626</v>
+        <v>0.150654</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30033</v>
+        <v>0.299015</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305124</v>
+        <v>0.307128</v>
       </c>
       <c r="E70" t="n">
-        <v>0.179725</v>
+        <v>0.128923</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287498</v>
+        <v>0.261725</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145986</v>
+        <v>0.145768</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296657</v>
+        <v>0.29594</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306903</v>
+        <v>0.308839</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178476</v>
+        <v>0.126582</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2827</v>
+        <v>0.25952</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141247</v>
+        <v>0.140647</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294086</v>
+        <v>0.293609</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308994</v>
+        <v>0.310856</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177176</v>
+        <v>0.124738</v>
       </c>
       <c r="F72" t="n">
-        <v>0.283124</v>
+        <v>0.257556</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136155</v>
+        <v>0.135947</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291261</v>
+        <v>0.289564</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311531</v>
+        <v>0.314384</v>
       </c>
       <c r="E73" t="n">
-        <v>0.175916</v>
+        <v>0.122567</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281403</v>
+        <v>0.255344</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130946</v>
+        <v>0.130966</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287116</v>
+        <v>0.286732</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304313</v>
+        <v>0.315383</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174803</v>
+        <v>0.120422</v>
       </c>
       <c r="F74" t="n">
-        <v>0.280217</v>
+        <v>0.253335</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125976</v>
+        <v>0.125762</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283833</v>
+        <v>0.283322</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307556</v>
+        <v>0.317339</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17374</v>
+        <v>0.118228</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279748</v>
+        <v>0.251037</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120871</v>
+        <v>0.120648</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279533</v>
+        <v>0.278693</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310607</v>
+        <v>0.319837</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172572</v>
+        <v>0.115867</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277839</v>
+        <v>0.248879</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115788</v>
+        <v>0.115793</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275983</v>
+        <v>0.274098</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31397</v>
+        <v>0.321313</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1714</v>
+        <v>0.113469</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277731</v>
+        <v>0.246677</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110394</v>
+        <v>0.110409</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269987</v>
+        <v>0.271061</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307937</v>
+        <v>0.312059</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170128</v>
+        <v>0.110748</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277245</v>
+        <v>0.244598</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105439</v>
+        <v>0.105278</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265601</v>
+        <v>0.264291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309346</v>
+        <v>0.312881</v>
       </c>
       <c r="E79" t="n">
-        <v>0.16879</v>
+        <v>0.108279</v>
       </c>
       <c r="F79" t="n">
-        <v>0.276002</v>
+        <v>0.242223</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100312</v>
+        <v>0.100045</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260035</v>
+        <v>0.258357</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310822</v>
+        <v>0.314176</v>
       </c>
       <c r="E80" t="n">
-        <v>0.18586</v>
+        <v>0.137501</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290137</v>
+        <v>0.271557</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164663</v>
+        <v>0.164604</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306793</v>
+        <v>0.30563</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312179</v>
+        <v>0.3156</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18434</v>
+        <v>0.135701</v>
       </c>
       <c r="F81" t="n">
-        <v>0.289955</v>
+        <v>0.268857</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160756</v>
+        <v>0.160273</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305046</v>
+        <v>0.304228</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314302</v>
+        <v>0.316587</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182937</v>
+        <v>0.133757</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288662</v>
+        <v>0.267082</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156494</v>
+        <v>0.156019</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30286</v>
+        <v>0.301938</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312828</v>
+        <v>0.317364</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181569</v>
+        <v>0.131901</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287097</v>
+        <v>0.264686</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151968</v>
+        <v>0.151624</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299674</v>
+        <v>0.299242</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315207</v>
+        <v>0.319348</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180261</v>
+        <v>0.129449</v>
       </c>
       <c r="F84" t="n">
-        <v>0.286256</v>
+        <v>0.262422</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147213</v>
+        <v>0.147068</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297868</v>
+        <v>0.296298</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317924</v>
+        <v>0.321277</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179013</v>
+        <v>0.127784</v>
       </c>
       <c r="F85" t="n">
-        <v>0.283699</v>
+        <v>0.260389</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142203</v>
+        <v>0.142245</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294256</v>
+        <v>0.293728</v>
       </c>
       <c r="D86" t="n">
-        <v>0.319727</v>
+        <v>0.323828</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177533</v>
+        <v>0.125893</v>
       </c>
       <c r="F86" t="n">
-        <v>0.281862</v>
+        <v>0.258312</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136809</v>
+        <v>0.137006</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290837</v>
+        <v>0.289684</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322056</v>
+        <v>0.325927</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17652</v>
+        <v>0.123515</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282439</v>
+        <v>0.256215</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131678</v>
+        <v>0.131847</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286624</v>
+        <v>0.285775</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325365</v>
+        <v>0.328259</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175348</v>
+        <v>0.121484</v>
       </c>
       <c r="F88" t="n">
-        <v>0.280987</v>
+        <v>0.254027</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126647</v>
+        <v>0.126739</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282588</v>
+        <v>0.282149</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312787</v>
+        <v>0.327078</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174171</v>
+        <v>0.11937</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279075</v>
+        <v>0.251863</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.12137</v>
+        <v>0.12158</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278218</v>
+        <v>0.277574</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316028</v>
+        <v>0.329811</v>
       </c>
       <c r="E90" t="n">
-        <v>0.173011</v>
+        <v>0.116988</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277966</v>
+        <v>0.249672</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116362</v>
+        <v>0.116299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273845</v>
+        <v>0.273419</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318261</v>
+        <v>0.33083</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171817</v>
+        <v>0.114251</v>
       </c>
       <c r="F91" t="n">
-        <v>0.277705</v>
+        <v>0.247643</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111223</v>
+        <v>0.111171</v>
       </c>
       <c r="C92" t="n">
-        <v>0.268892</v>
+        <v>0.268677</v>
       </c>
       <c r="D92" t="n">
-        <v>0.294106</v>
+        <v>0.298868</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170481</v>
+        <v>0.111651</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277449</v>
+        <v>0.245429</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10608</v>
+        <v>0.106024</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263809</v>
+        <v>0.262988</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294138</v>
+        <v>0.300376</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169357</v>
+        <v>0.109103</v>
       </c>
       <c r="F93" t="n">
-        <v>0.276339</v>
+        <v>0.243071</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100747</v>
+        <v>0.100765</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2573</v>
+        <v>0.256625</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295863</v>
+        <v>0.302226</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186288</v>
+        <v>0.138227</v>
       </c>
       <c r="F94" t="n">
-        <v>0.290704</v>
+        <v>0.272205</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165827</v>
+        <v>0.16566</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304294</v>
+        <v>0.312701</v>
       </c>
       <c r="D95" t="n">
-        <v>0.29842</v>
+        <v>0.303734</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184789</v>
+        <v>0.136192</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2891</v>
+        <v>0.269534</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162047</v>
+        <v>0.16197</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302867</v>
+        <v>0.310714</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300815</v>
+        <v>0.305287</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183394</v>
+        <v>0.134219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.28748</v>
+        <v>0.267567</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157915</v>
+        <v>0.157499</v>
       </c>
       <c r="C97" t="n">
-        <v>0.300717</v>
+        <v>0.309246</v>
       </c>
       <c r="D97" t="n">
-        <v>0.293741</v>
+        <v>0.305993</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181941</v>
+        <v>0.131979</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285933</v>
+        <v>0.265298</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153205</v>
+        <v>0.153143</v>
       </c>
       <c r="C98" t="n">
-        <v>0.298257</v>
+        <v>0.306438</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296935</v>
+        <v>0.307814</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180583</v>
+        <v>0.130231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2849</v>
+        <v>0.263143</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148361</v>
+        <v>0.148168</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295434</v>
+        <v>0.303989</v>
       </c>
       <c r="D99" t="n">
-        <v>0.299585</v>
+        <v>0.310157</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179186</v>
+        <v>0.128293</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283561</v>
+        <v>0.260987</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143262</v>
+        <v>0.142938</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292283</v>
+        <v>0.300313</v>
       </c>
       <c r="D100" t="n">
-        <v>0.301912</v>
+        <v>0.312628</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177986</v>
+        <v>0.126303</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283181</v>
+        <v>0.259006</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138177</v>
+        <v>0.137758</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289214</v>
+        <v>0.297249</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304456</v>
+        <v>0.315782</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176711</v>
+        <v>0.124136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281283</v>
+        <v>0.256877</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133012</v>
+        <v>0.132738</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285685</v>
+        <v>0.293141</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307478</v>
+        <v>0.318752</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175481</v>
+        <v>0.122172</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279991</v>
+        <v>0.254747</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127706</v>
+        <v>0.127896</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282006</v>
+        <v>0.290137</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303078</v>
+        <v>0.318922</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174337</v>
+        <v>0.119868</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27991</v>
+        <v>0.252611</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122594</v>
+        <v>0.12251</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278054</v>
+        <v>0.287208</v>
       </c>
       <c r="D104" t="n">
-        <v>0.305736</v>
+        <v>0.321215</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173236</v>
+        <v>0.117472</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278353</v>
+        <v>0.25022</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11748</v>
+        <v>0.117451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273407</v>
+        <v>0.282558</v>
       </c>
       <c r="D105" t="n">
-        <v>0.30828</v>
+        <v>0.322699</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171985</v>
+        <v>0.115115</v>
       </c>
       <c r="F105" t="n">
-        <v>0.27841</v>
+        <v>0.248016</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112247</v>
+        <v>0.112268</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268282</v>
+        <v>0.276902</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310979</v>
+        <v>0.325077</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170768</v>
+        <v>0.112528</v>
       </c>
       <c r="F106" t="n">
-        <v>0.276423</v>
+        <v>0.245754</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107051</v>
+        <v>0.107194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263</v>
+        <v>0.272945</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288203</v>
+        <v>0.298198</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169591</v>
+        <v>0.109946</v>
       </c>
       <c r="F107" t="n">
-        <v>0.276403</v>
+        <v>0.243625</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101946</v>
+        <v>0.10194</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256619</v>
+        <v>0.26569</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292013</v>
+        <v>0.299988</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186823</v>
+        <v>0.138935</v>
       </c>
       <c r="F108" t="n">
-        <v>0.291707</v>
+        <v>0.272763</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967567</v>
+        <v>0.0967822</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24992</v>
+        <v>0.260101</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29229</v>
+        <v>0.302086</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185346</v>
+        <v>0.13678</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289479</v>
+        <v>0.270413</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162967</v>
+        <v>0.16281</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30296</v>
+        <v>0.302939</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294392</v>
+        <v>0.303115</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183713</v>
+        <v>0.134579</v>
       </c>
       <c r="F110" t="n">
-        <v>0.287678</v>
+        <v>0.268063</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158764</v>
+        <v>0.158579</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300875</v>
+        <v>0.300428</v>
       </c>
       <c r="D111" t="n">
-        <v>0.292607</v>
+        <v>0.304514</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182293</v>
+        <v>0.132591</v>
       </c>
       <c r="F111" t="n">
-        <v>0.286814</v>
+        <v>0.265723</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154303</v>
+        <v>0.153826</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298487</v>
+        <v>0.29806</v>
       </c>
       <c r="D112" t="n">
-        <v>0.295503</v>
+        <v>0.306323</v>
       </c>
       <c r="E112" t="n">
-        <v>0.18084</v>
+        <v>0.130635</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285431</v>
+        <v>0.263565</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149356</v>
+        <v>0.149103</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295703</v>
+        <v>0.29528</v>
       </c>
       <c r="D113" t="n">
-        <v>0.296499</v>
+        <v>0.308724</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179571</v>
+        <v>0.128635</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283803</v>
+        <v>0.261635</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144288</v>
+        <v>0.143885</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292844</v>
+        <v>0.292143</v>
       </c>
       <c r="D114" t="n">
-        <v>0.296399</v>
+        <v>0.310413</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178313</v>
+        <v>0.126687</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282681</v>
+        <v>0.259411</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139228</v>
+        <v>0.139077</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289639</v>
+        <v>0.289314</v>
       </c>
       <c r="D115" t="n">
-        <v>0.299509</v>
+        <v>0.314231</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177089</v>
+        <v>0.12489</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282797</v>
+        <v>0.256847</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133971</v>
+        <v>0.133764</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286214</v>
+        <v>0.285575</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302004</v>
+        <v>0.317159</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175928</v>
+        <v>0.122529</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281505</v>
+        <v>0.255122</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128823</v>
+        <v>0.128534</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282686</v>
+        <v>0.281545</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301975</v>
+        <v>0.318007</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174627</v>
+        <v>0.120457</v>
       </c>
       <c r="F117" t="n">
-        <v>0.279495</v>
+        <v>0.252881</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123575</v>
+        <v>0.123425</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27869</v>
+        <v>0.277998</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304018</v>
+        <v>0.319583</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173494</v>
+        <v>0.118024</v>
       </c>
       <c r="F118" t="n">
-        <v>0.279065</v>
+        <v>0.250638</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118505</v>
+        <v>0.118384</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274529</v>
+        <v>0.273445</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303983</v>
+        <v>0.321275</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172336</v>
+        <v>0.115675</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278757</v>
+        <v>0.248445</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113398</v>
+        <v>0.113168</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269492</v>
+        <v>0.269246</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306704</v>
+        <v>0.323513</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1711</v>
+        <v>0.113161</v>
       </c>
       <c r="F120" t="n">
-        <v>0.275575</v>
+        <v>0.246272</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108129</v>
+        <v>0.108089</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264149</v>
+        <v>0.263627</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291754</v>
+        <v>0.300442</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169832</v>
+        <v>0.11046</v>
       </c>
       <c r="F121" t="n">
-        <v>0.275917</v>
+        <v>0.244011</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102995</v>
+        <v>0.102942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257901</v>
+        <v>0.257677</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291334</v>
+        <v>0.30198</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168651</v>
+        <v>0.107757</v>
       </c>
       <c r="F122" t="n">
-        <v>0.274379</v>
+        <v>0.24168</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978272</v>
+        <v>0.09778050000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251101</v>
+        <v>0.25054</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293301</v>
+        <v>0.303542</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185594</v>
+        <v>0.13713</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289659</v>
+        <v>0.270766</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173163</v>
+        <v>0.172921</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303409</v>
+        <v>0.302454</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294055</v>
+        <v>0.304758</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184127</v>
+        <v>0.13507</v>
       </c>
       <c r="F124" t="n">
-        <v>0.288515</v>
+        <v>0.268317</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168798</v>
+        <v>0.168513</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301567</v>
+        <v>0.300418</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294076</v>
+        <v>0.305571</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182547</v>
+        <v>0.133055</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286383</v>
+        <v>0.266458</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16395</v>
+        <v>0.163318</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298971</v>
+        <v>0.29803</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29548</v>
+        <v>0.307493</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181164</v>
+        <v>0.131131</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285385</v>
+        <v>0.264314</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158612</v>
+        <v>0.15845</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296777</v>
+        <v>0.295194</v>
       </c>
       <c r="D127" t="n">
-        <v>0.296351</v>
+        <v>0.30942</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179891</v>
+        <v>0.129042</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284388</v>
+        <v>0.262025</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153084</v>
+        <v>0.152946</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293553</v>
+        <v>0.292386</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297646</v>
+        <v>0.312058</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178524</v>
+        <v>0.127124</v>
       </c>
       <c r="F128" t="n">
-        <v>0.28303</v>
+        <v>0.259909</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147691</v>
+        <v>0.147654</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290606</v>
+        <v>0.289341</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298871</v>
+        <v>0.315068</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177345</v>
+        <v>0.125066</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281704</v>
+        <v>0.257906</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142117</v>
+        <v>0.141828</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287176</v>
+        <v>0.285529</v>
       </c>
       <c r="D130" t="n">
-        <v>0.301197</v>
+        <v>0.318053</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176136</v>
+        <v>0.123009</v>
       </c>
       <c r="F130" t="n">
-        <v>0.28037</v>
+        <v>0.25576</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136613</v>
+        <v>0.136436</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283663</v>
+        <v>0.282231</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301915</v>
+        <v>0.320177</v>
       </c>
       <c r="E131" t="n">
-        <v>0.17487</v>
+        <v>0.120876</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2792</v>
+        <v>0.253463</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13103</v>
+        <v>0.130962</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279468</v>
+        <v>0.277959</v>
       </c>
       <c r="D132" t="n">
-        <v>0.303431</v>
+        <v>0.321545</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173534</v>
+        <v>0.118712</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279156</v>
+        <v>0.251353</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12573</v>
+        <v>0.125548</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275055</v>
+        <v>0.273842</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305508</v>
+        <v>0.322484</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172515</v>
+        <v>0.11629</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278247</v>
+        <v>0.249067</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120301</v>
+        <v>0.120321</v>
       </c>
       <c r="C134" t="n">
-        <v>0.27088</v>
+        <v>0.269246</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30774</v>
+        <v>0.324297</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171335</v>
+        <v>0.113775</v>
       </c>
       <c r="F134" t="n">
-        <v>0.277178</v>
+        <v>0.246742</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114801</v>
+        <v>0.114867</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265511</v>
+        <v>0.264356</v>
       </c>
       <c r="D135" t="n">
-        <v>0.290512</v>
+        <v>0.300141</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170139</v>
+        <v>0.111193</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275743</v>
+        <v>0.244585</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109373</v>
+        <v>0.109486</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259669</v>
+        <v>0.258342</v>
       </c>
       <c r="D136" t="n">
-        <v>0.291562</v>
+        <v>0.302248</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168873</v>
+        <v>0.108425</v>
       </c>
       <c r="F136" t="n">
-        <v>0.275603</v>
+        <v>0.242193</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104008</v>
+        <v>0.104095</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252929</v>
+        <v>0.251463</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293012</v>
+        <v>0.303567</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195071</v>
+        <v>0.146532</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296059</v>
+        <v>0.276523</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174341</v>
+        <v>0.173973</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320551</v>
+        <v>0.309496</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293275</v>
+        <v>0.304836</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193151</v>
+        <v>0.144064</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294334</v>
+        <v>0.274149</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169911</v>
+        <v>0.169672</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317583</v>
+        <v>0.307171</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293607</v>
+        <v>0.306147</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191191</v>
+        <v>0.141638</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292487</v>
+        <v>0.271636</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165021</v>
+        <v>0.164514</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314936</v>
+        <v>0.304672</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29464</v>
+        <v>0.307458</v>
       </c>
       <c r="E140" t="n">
-        <v>0.187378</v>
+        <v>0.139316</v>
       </c>
       <c r="F140" t="n">
-        <v>0.290702</v>
+        <v>0.269471</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158467</v>
+        <v>0.159278</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312477</v>
+        <v>0.301208</v>
       </c>
       <c r="D141" t="n">
-        <v>0.295747</v>
+        <v>0.309017</v>
       </c>
       <c r="E141" t="n">
-        <v>0.185453</v>
+        <v>0.137059</v>
       </c>
       <c r="F141" t="n">
-        <v>0.286845</v>
+        <v>0.267166</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154211</v>
+        <v>0.154242</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307596</v>
+        <v>0.298493</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297339</v>
+        <v>0.311702</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186171</v>
+        <v>0.13468</v>
       </c>
       <c r="F142" t="n">
-        <v>0.287463</v>
+        <v>0.264661</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148823</v>
+        <v>0.14876</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304996</v>
+        <v>0.295304</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298611</v>
+        <v>0.314588</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184394</v>
+        <v>0.132366</v>
       </c>
       <c r="F143" t="n">
-        <v>0.285171</v>
+        <v>0.262519</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0678889</v>
+        <v>0.07792060000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266684</v>
+        <v>0.26672</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266582</v>
+        <v>0.269332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162772</v>
+        <v>0.0545987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269683</v>
+        <v>0.238181</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778240000000001</v>
+        <v>0.0770757</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264386</v>
+        <v>0.268747</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269851</v>
+        <v>0.272758</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162008</v>
+        <v>0.0555245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272456</v>
+        <v>0.237545</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.068311</v>
+        <v>0.07623340000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261126</v>
+        <v>0.264224</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27226</v>
+        <v>0.272526</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161849</v>
+        <v>0.0528598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271295</v>
+        <v>0.235768</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687238</v>
+        <v>0.0755924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260236</v>
+        <v>0.263404</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273551</v>
+        <v>0.275437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.161806</v>
+        <v>0.0528723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272144</v>
+        <v>0.23469</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676863</v>
+        <v>0.0751299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257556</v>
+        <v>0.260603</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277587</v>
+        <v>0.276687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161922</v>
+        <v>0.0536683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27135</v>
+        <v>0.233158</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675906</v>
+        <v>0.0728094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255626</v>
+        <v>0.256035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266964</v>
+        <v>0.267911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161799</v>
+        <v>0.054353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.268732</v>
+        <v>0.232698</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679681</v>
+        <v>0.0715582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247444</v>
+        <v>0.248997</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270519</v>
+        <v>0.270604</v>
       </c>
       <c r="E8" t="n">
-        <v>0.162036</v>
+        <v>0.0551005</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26981</v>
+        <v>0.230695</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685611</v>
+        <v>0.07047109999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244567</v>
+        <v>0.244404</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271167</v>
+        <v>0.271809</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168061</v>
+        <v>0.0831982</v>
       </c>
       <c r="F9" t="n">
-        <v>0.283224</v>
+        <v>0.258903</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100876</v>
+        <v>0.124682</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285303</v>
+        <v>0.287813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272691</v>
+        <v>0.274262</v>
       </c>
       <c r="E10" t="n">
-        <v>0.171194</v>
+        <v>0.0956133</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280456</v>
+        <v>0.256052</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101372</v>
+        <v>0.125407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285578</v>
+        <v>0.286143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274472</v>
+        <v>0.274608</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170399</v>
+        <v>0.0900248</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276914</v>
+        <v>0.255065</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101058</v>
+        <v>0.123954</v>
       </c>
       <c r="C12" t="n">
-        <v>0.284596</v>
+        <v>0.286475</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276475</v>
+        <v>0.277738</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17077</v>
+        <v>0.088232</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281486</v>
+        <v>0.252894</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997531</v>
+        <v>0.123756</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28219</v>
+        <v>0.28473</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280209</v>
+        <v>0.280176</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168563</v>
+        <v>0.0926973</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279672</v>
+        <v>0.251628</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09806860000000001</v>
+        <v>0.120782</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279853</v>
+        <v>0.283163</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280852</v>
+        <v>0.279889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168475</v>
+        <v>0.0891451</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27486</v>
+        <v>0.249261</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0967997</v>
+        <v>0.117743</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280211</v>
+        <v>0.282901</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284531</v>
+        <v>0.281758</v>
       </c>
       <c r="E15" t="n">
-        <v>0.169724</v>
+        <v>0.08631900000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277563</v>
+        <v>0.24824</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0950593</v>
+        <v>0.113316</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277175</v>
+        <v>0.281531</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28474</v>
+        <v>0.283017</v>
       </c>
       <c r="E16" t="n">
-        <v>0.166605</v>
+        <v>0.085655</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27561</v>
+        <v>0.245287</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0934377</v>
+        <v>0.110557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276814</v>
+        <v>0.278752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285882</v>
+        <v>0.283323</v>
       </c>
       <c r="E17" t="n">
-        <v>0.165909</v>
+        <v>0.0890022</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277433</v>
+        <v>0.24465</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0911768</v>
+        <v>0.106441</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273726</v>
+        <v>0.275027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287828</v>
+        <v>0.284845</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166688</v>
+        <v>0.0881098</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274569</v>
+        <v>0.243301</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0901078</v>
+        <v>0.10228</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269212</v>
+        <v>0.273023</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28929</v>
+        <v>0.286959</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165575</v>
+        <v>0.0847861</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2753</v>
+        <v>0.24178</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08766790000000001</v>
+        <v>0.0997632</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267348</v>
+        <v>0.269058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29141</v>
+        <v>0.288561</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165412</v>
+        <v>0.0835346</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272211</v>
+        <v>0.240836</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0865858</v>
+        <v>0.0957469</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260489</v>
+        <v>0.264299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.280749</v>
+        <v>0.27798</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164574</v>
+        <v>0.0845687</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276864</v>
+        <v>0.238483</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08480989999999999</v>
+        <v>0.0926921</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255654</v>
+        <v>0.259527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280331</v>
+        <v>0.277939</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164254</v>
+        <v>0.083923</v>
       </c>
       <c r="F22" t="n">
-        <v>0.269426</v>
+        <v>0.236655</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0832793</v>
+        <v>0.0884587</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249592</v>
+        <v>0.251373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281518</v>
+        <v>0.280208</v>
       </c>
       <c r="E23" t="n">
-        <v>0.176189</v>
+        <v>0.11571</v>
       </c>
       <c r="F23" t="n">
-        <v>0.284079</v>
+        <v>0.266037</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133359</v>
+        <v>0.155338</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299684</v>
+        <v>0.297773</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283561</v>
+        <v>0.281331</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17313</v>
+        <v>0.115604</v>
       </c>
       <c r="F24" t="n">
-        <v>0.282759</v>
+        <v>0.264715</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132313</v>
+        <v>0.152</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298541</v>
+        <v>0.297617</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28405</v>
+        <v>0.283195</v>
       </c>
       <c r="E25" t="n">
-        <v>0.172727</v>
+        <v>0.110541</v>
       </c>
       <c r="F25" t="n">
-        <v>0.284604</v>
+        <v>0.262085</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130256</v>
+        <v>0.148555</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292787</v>
+        <v>0.296096</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284624</v>
+        <v>0.281824</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172644</v>
+        <v>0.110417</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280016</v>
+        <v>0.260558</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128311</v>
+        <v>0.144774</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294484</v>
+        <v>0.294659</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285839</v>
+        <v>0.284304</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171265</v>
+        <v>0.110261</v>
       </c>
       <c r="F27" t="n">
-        <v>0.284183</v>
+        <v>0.258507</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126164</v>
+        <v>0.140127</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292157</v>
+        <v>0.292019</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288176</v>
+        <v>0.286018</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170013</v>
+        <v>0.111542</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282603</v>
+        <v>0.256224</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122426</v>
+        <v>0.135583</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28977</v>
+        <v>0.287538</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289204</v>
+        <v>0.286019</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171118</v>
+        <v>0.10937</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277189</v>
+        <v>0.254826</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118461</v>
+        <v>0.131873</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28584</v>
+        <v>0.2882</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29148</v>
+        <v>0.288186</v>
       </c>
       <c r="E30" t="n">
-        <v>0.169711</v>
+        <v>0.108354</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277436</v>
+        <v>0.252533</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114871</v>
+        <v>0.127092</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284236</v>
+        <v>0.286024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293036</v>
+        <v>0.289763</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16911</v>
+        <v>0.104495</v>
       </c>
       <c r="F31" t="n">
-        <v>0.279152</v>
+        <v>0.250916</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111336</v>
+        <v>0.121516</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281147</v>
+        <v>0.28438</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293728</v>
+        <v>0.291387</v>
       </c>
       <c r="E32" t="n">
-        <v>0.167854</v>
+        <v>0.105755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.277764</v>
+        <v>0.249115</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106609</v>
+        <v>0.116441</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276471</v>
+        <v>0.279791</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294785</v>
+        <v>0.29175</v>
       </c>
       <c r="E33" t="n">
-        <v>0.168591</v>
+        <v>0.102638</v>
       </c>
       <c r="F33" t="n">
-        <v>0.274122</v>
+        <v>0.24653</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102251</v>
+        <v>0.111468</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272605</v>
+        <v>0.275133</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295378</v>
+        <v>0.294252</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166649</v>
+        <v>0.10045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272774</v>
+        <v>0.245146</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09831230000000001</v>
+        <v>0.105922</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268461</v>
+        <v>0.270966</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284678</v>
+        <v>0.281923</v>
       </c>
       <c r="E35" t="n">
-        <v>0.166595</v>
+        <v>0.100387</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27264</v>
+        <v>0.242573</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937605</v>
+        <v>0.10077</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263527</v>
+        <v>0.2657</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284697</v>
+        <v>0.282301</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165363</v>
+        <v>0.0986368</v>
       </c>
       <c r="F36" t="n">
-        <v>0.272443</v>
+        <v>0.240487</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896979</v>
+        <v>0.0958889</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257039</v>
+        <v>0.258736</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286123</v>
+        <v>0.284432</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181061</v>
+        <v>0.130073</v>
       </c>
       <c r="F37" t="n">
-        <v>0.287755</v>
+        <v>0.269866</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154566</v>
+        <v>0.162284</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303604</v>
+        <v>0.302898</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28698</v>
+        <v>0.284681</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179677</v>
+        <v>0.127976</v>
       </c>
       <c r="F38" t="n">
-        <v>0.284501</v>
+        <v>0.267324</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151618</v>
+        <v>0.158887</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302924</v>
+        <v>0.302052</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286786</v>
+        <v>0.285137</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178858</v>
+        <v>0.125277</v>
       </c>
       <c r="F39" t="n">
-        <v>0.286861</v>
+        <v>0.265181</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148336</v>
+        <v>0.154881</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300513</v>
+        <v>0.30042</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288929</v>
+        <v>0.286888</v>
       </c>
       <c r="E40" t="n">
-        <v>0.176597</v>
+        <v>0.123401</v>
       </c>
       <c r="F40" t="n">
-        <v>0.286249</v>
+        <v>0.263388</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144788</v>
+        <v>0.15114</v>
       </c>
       <c r="C41" t="n">
         <v>0.299006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290063</v>
+        <v>0.28777</v>
       </c>
       <c r="E41" t="n">
-        <v>0.176807</v>
+        <v>0.122076</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285222</v>
+        <v>0.262321</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140224</v>
+        <v>0.146386</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294673</v>
+        <v>0.296591</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291588</v>
+        <v>0.289767</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175174</v>
+        <v>0.120534</v>
       </c>
       <c r="F42" t="n">
-        <v>0.279841</v>
+        <v>0.259427</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136331</v>
+        <v>0.141554</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293934</v>
+        <v>0.294674</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292576</v>
+        <v>0.290683</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174888</v>
+        <v>0.117869</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280992</v>
+        <v>0.258294</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131768</v>
+        <v>0.136568</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290382</v>
+        <v>0.292062</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294829</v>
+        <v>0.291925</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173633</v>
+        <v>0.117407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280668</v>
+        <v>0.254985</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126773</v>
+        <v>0.131781</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284795</v>
+        <v>0.289051</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295224</v>
+        <v>0.293084</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1727</v>
+        <v>0.115594</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280405</v>
+        <v>0.252699</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122298</v>
+        <v>0.126758</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284613</v>
+        <v>0.285753</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297055</v>
+        <v>0.293886</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171696</v>
+        <v>0.113591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278912</v>
+        <v>0.251268</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118071</v>
+        <v>0.121859</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280307</v>
+        <v>0.281036</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297511</v>
+        <v>0.294632</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170765</v>
+        <v>0.112834</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275228</v>
+        <v>0.249761</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113566</v>
+        <v>0.116443</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27607</v>
+        <v>0.277855</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298032</v>
+        <v>0.295393</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169999</v>
+        <v>0.109263</v>
       </c>
       <c r="F48" t="n">
-        <v>0.277362</v>
+        <v>0.247323</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108586</v>
+        <v>0.11169</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269332</v>
+        <v>0.27403</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299902</v>
+        <v>0.297275</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168173</v>
+        <v>0.107954</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275952</v>
+        <v>0.244702</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103077</v>
+        <v>0.106486</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265764</v>
+        <v>0.267864</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288371</v>
+        <v>0.285544</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167707</v>
+        <v>0.105579</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273877</v>
+        <v>0.242461</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097797</v>
+        <v>0.101055</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259778</v>
+        <v>0.260392</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288963</v>
+        <v>0.285421</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184967</v>
+        <v>0.136164</v>
       </c>
       <c r="F51" t="n">
-        <v>0.291515</v>
+        <v>0.271996</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927835</v>
+        <v>0.0955968</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252622</v>
+        <v>0.254329</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289558</v>
+        <v>0.287048</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183011</v>
+        <v>0.133355</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29153</v>
+        <v>0.270162</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15929</v>
+        <v>0.161946</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305273</v>
+        <v>0.304601</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290825</v>
+        <v>0.288272</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181822</v>
+        <v>0.132322</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288884</v>
+        <v>0.26773</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155642</v>
+        <v>0.158144</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302619</v>
+        <v>0.302127</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290717</v>
+        <v>0.289103</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180942</v>
+        <v>0.130084</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286205</v>
+        <v>0.265574</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151215</v>
+        <v>0.153884</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300606</v>
+        <v>0.30079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292774</v>
+        <v>0.290001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179156</v>
+        <v>0.127648</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285078</v>
+        <v>0.264181</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146819</v>
+        <v>0.149075</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298689</v>
+        <v>0.29831</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294935</v>
+        <v>0.291847</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178402</v>
+        <v>0.126372</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285753</v>
+        <v>0.262204</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142122</v>
+        <v>0.144289</v>
       </c>
       <c r="C57" t="n">
-        <v>0.29545</v>
+        <v>0.297056</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295428</v>
+        <v>0.292888</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177166</v>
+        <v>0.124158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.284151</v>
+        <v>0.260191</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137512</v>
+        <v>0.139371</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291243</v>
+        <v>0.29393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296522</v>
+        <v>0.294219</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175874</v>
+        <v>0.121898</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281217</v>
+        <v>0.257688</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132576</v>
+        <v>0.134528</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289252</v>
+        <v>0.291581</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29761</v>
+        <v>0.29555</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174876</v>
+        <v>0.120093</v>
       </c>
       <c r="F59" t="n">
-        <v>0.281745</v>
+        <v>0.255648</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127804</v>
+        <v>0.129556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285832</v>
+        <v>0.287879</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298799</v>
+        <v>0.296668</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173556</v>
+        <v>0.118518</v>
       </c>
       <c r="F60" t="n">
-        <v>0.281709</v>
+        <v>0.253216</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123153</v>
+        <v>0.124627</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281727</v>
+        <v>0.284438</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299923</v>
+        <v>0.297807</v>
       </c>
       <c r="E61" t="n">
-        <v>0.17272</v>
+        <v>0.116332</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27954</v>
+        <v>0.251387</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118014</v>
+        <v>0.119469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278371</v>
+        <v>0.280597</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301351</v>
+        <v>0.299058</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171462</v>
+        <v>0.114063</v>
       </c>
       <c r="F62" t="n">
-        <v>0.280254</v>
+        <v>0.248955</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113021</v>
+        <v>0.114059</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273705</v>
+        <v>0.275969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302787</v>
+        <v>0.299966</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170454</v>
+        <v>0.111639</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279242</v>
+        <v>0.248101</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108034</v>
+        <v>0.108918</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267628</v>
+        <v>0.270717</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294383</v>
+        <v>0.291841</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168981</v>
+        <v>0.109269</v>
       </c>
       <c r="F64" t="n">
-        <v>0.275591</v>
+        <v>0.245211</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102837</v>
+        <v>0.10378</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262059</v>
+        <v>0.264578</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296199</v>
+        <v>0.29377</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167969</v>
+        <v>0.107383</v>
       </c>
       <c r="F65" t="n">
-        <v>0.276462</v>
+        <v>0.242683</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0978184</v>
+        <v>0.0984719</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255249</v>
+        <v>0.256484</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298571</v>
+        <v>0.295451</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185119</v>
+        <v>0.136548</v>
       </c>
       <c r="F66" t="n">
-        <v>0.291915</v>
+        <v>0.271902</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163284</v>
+        <v>0.163888</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306545</v>
+        <v>0.307</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300153</v>
+        <v>0.296842</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183614</v>
+        <v>0.134667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.291325</v>
+        <v>0.269482</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159718</v>
+        <v>0.159933</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305257</v>
+        <v>0.306282</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301315</v>
+        <v>0.298561</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182334</v>
+        <v>0.132995</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2883</v>
+        <v>0.266775</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155353</v>
+        <v>0.155857</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30245</v>
+        <v>0.303133</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303435</v>
+        <v>0.30037</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180983</v>
+        <v>0.129919</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288056</v>
+        <v>0.265719</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150626</v>
+        <v>0.151419</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30033</v>
+        <v>0.301429</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305124</v>
+        <v>0.301938</v>
       </c>
       <c r="E70" t="n">
-        <v>0.179725</v>
+        <v>0.128538</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287498</v>
+        <v>0.263049</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145986</v>
+        <v>0.146537</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296657</v>
+        <v>0.297504</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306903</v>
+        <v>0.30451</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178476</v>
+        <v>0.126321</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2827</v>
+        <v>0.260279</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141247</v>
+        <v>0.141241</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294086</v>
+        <v>0.295605</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308994</v>
+        <v>0.305962</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177176</v>
+        <v>0.124393</v>
       </c>
       <c r="F72" t="n">
-        <v>0.283124</v>
+        <v>0.258908</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136155</v>
+        <v>0.136492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291261</v>
+        <v>0.292572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311531</v>
+        <v>0.308424</v>
       </c>
       <c r="E73" t="n">
-        <v>0.175916</v>
+        <v>0.122365</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281403</v>
+        <v>0.256523</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130946</v>
+        <v>0.131604</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287116</v>
+        <v>0.290118</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304313</v>
+        <v>0.300055</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174803</v>
+        <v>0.120034</v>
       </c>
       <c r="F74" t="n">
-        <v>0.280217</v>
+        <v>0.254444</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125976</v>
+        <v>0.126343</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283833</v>
+        <v>0.286492</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307556</v>
+        <v>0.303955</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17374</v>
+        <v>0.118119</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279748</v>
+        <v>0.252129</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120871</v>
+        <v>0.121027</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279533</v>
+        <v>0.282085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310607</v>
+        <v>0.30665</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172572</v>
+        <v>0.11593</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277839</v>
+        <v>0.250467</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115788</v>
+        <v>0.115964</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275983</v>
+        <v>0.277109</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31397</v>
+        <v>0.310438</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1714</v>
+        <v>0.113584</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277731</v>
+        <v>0.247606</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110394</v>
+        <v>0.110754</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269987</v>
+        <v>0.273269</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307937</v>
+        <v>0.304897</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170128</v>
+        <v>0.111551</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277245</v>
+        <v>0.24606</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105439</v>
+        <v>0.105557</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265601</v>
+        <v>0.268067</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309346</v>
+        <v>0.309492</v>
       </c>
       <c r="E79" t="n">
-        <v>0.16879</v>
+        <v>0.108921</v>
       </c>
       <c r="F79" t="n">
-        <v>0.276002</v>
+        <v>0.243014</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100312</v>
+        <v>0.100262</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260035</v>
+        <v>0.262128</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310822</v>
+        <v>0.308007</v>
       </c>
       <c r="E80" t="n">
-        <v>0.18586</v>
+        <v>0.137923</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290137</v>
+        <v>0.271018</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164663</v>
+        <v>0.16472</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306793</v>
+        <v>0.303588</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312179</v>
+        <v>0.30943</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18434</v>
+        <v>0.135668</v>
       </c>
       <c r="F81" t="n">
-        <v>0.289955</v>
+        <v>0.269149</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160756</v>
+        <v>0.160875</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305046</v>
+        <v>0.301777</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314302</v>
+        <v>0.311007</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182937</v>
+        <v>0.133266</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288662</v>
+        <v>0.267062</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156494</v>
+        <v>0.15639</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30286</v>
+        <v>0.300907</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312828</v>
+        <v>0.30953</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181569</v>
+        <v>0.131506</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287097</v>
+        <v>0.264802</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151968</v>
+        <v>0.152014</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299674</v>
+        <v>0.297998</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315207</v>
+        <v>0.312661</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180261</v>
+        <v>0.129467</v>
       </c>
       <c r="F84" t="n">
-        <v>0.286256</v>
+        <v>0.262557</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147213</v>
+        <v>0.147014</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297868</v>
+        <v>0.296157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317924</v>
+        <v>0.313853</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179013</v>
+        <v>0.127407</v>
       </c>
       <c r="F85" t="n">
-        <v>0.283699</v>
+        <v>0.260398</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142203</v>
+        <v>0.142046</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294256</v>
+        <v>0.293164</v>
       </c>
       <c r="D86" t="n">
-        <v>0.319727</v>
+        <v>0.317318</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177533</v>
+        <v>0.125483</v>
       </c>
       <c r="F86" t="n">
-        <v>0.281862</v>
+        <v>0.258023</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136809</v>
+        <v>0.137019</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290837</v>
+        <v>0.290608</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322056</v>
+        <v>0.319585</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17652</v>
+        <v>0.123463</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282439</v>
+        <v>0.256083</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131678</v>
+        <v>0.132016</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286624</v>
+        <v>0.287771</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325365</v>
+        <v>0.318556</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175348</v>
+        <v>0.121287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.280987</v>
+        <v>0.253889</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126647</v>
+        <v>0.126803</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282588</v>
+        <v>0.284495</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312787</v>
+        <v>0.308715</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174171</v>
+        <v>0.119266</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279075</v>
+        <v>0.251544</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.12137</v>
+        <v>0.121613</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278218</v>
+        <v>0.280473</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316028</v>
+        <v>0.311501</v>
       </c>
       <c r="E90" t="n">
-        <v>0.173011</v>
+        <v>0.117093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277966</v>
+        <v>0.24933</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116362</v>
+        <v>0.116469</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273845</v>
+        <v>0.275888</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318261</v>
+        <v>0.314534</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171817</v>
+        <v>0.114754</v>
       </c>
       <c r="F91" t="n">
-        <v>0.277705</v>
+        <v>0.247102</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111223</v>
+        <v>0.111056</v>
       </c>
       <c r="C92" t="n">
-        <v>0.268892</v>
+        <v>0.270028</v>
       </c>
       <c r="D92" t="n">
-        <v>0.294106</v>
+        <v>0.290661</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170481</v>
+        <v>0.112468</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277449</v>
+        <v>0.244963</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10608</v>
+        <v>0.106026</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263809</v>
+        <v>0.264851</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294138</v>
+        <v>0.290893</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169357</v>
+        <v>0.110134</v>
       </c>
       <c r="F93" t="n">
-        <v>0.276339</v>
+        <v>0.24253</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100747</v>
+        <v>0.100861</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2573</v>
+        <v>0.257329</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295863</v>
+        <v>0.293381</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186288</v>
+        <v>0.138422</v>
       </c>
       <c r="F94" t="n">
-        <v>0.290704</v>
+        <v>0.271772</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165827</v>
+        <v>0.166132</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304294</v>
+        <v>0.310444</v>
       </c>
       <c r="D95" t="n">
-        <v>0.29842</v>
+        <v>0.295664</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184789</v>
+        <v>0.136182</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2891</v>
+        <v>0.269182</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162047</v>
+        <v>0.162292</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302867</v>
+        <v>0.308262</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300815</v>
+        <v>0.29779</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183394</v>
+        <v>0.134038</v>
       </c>
       <c r="F96" t="n">
-        <v>0.28748</v>
+        <v>0.266995</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157915</v>
+        <v>0.158131</v>
       </c>
       <c r="C97" t="n">
-        <v>0.300717</v>
+        <v>0.307859</v>
       </c>
       <c r="D97" t="n">
-        <v>0.293741</v>
+        <v>0.291887</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181941</v>
+        <v>0.131958</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285933</v>
+        <v>0.264919</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153205</v>
+        <v>0.153008</v>
       </c>
       <c r="C98" t="n">
-        <v>0.298257</v>
+        <v>0.305983</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296935</v>
+        <v>0.293914</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180583</v>
+        <v>0.130216</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2849</v>
+        <v>0.262661</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148361</v>
+        <v>0.148167</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295434</v>
+        <v>0.304205</v>
       </c>
       <c r="D99" t="n">
-        <v>0.299585</v>
+        <v>0.296165</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179186</v>
+        <v>0.128171</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283561</v>
+        <v>0.260406</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143262</v>
+        <v>0.143074</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292283</v>
+        <v>0.302257</v>
       </c>
       <c r="D100" t="n">
-        <v>0.301912</v>
+        <v>0.298935</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177986</v>
+        <v>0.126155</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283181</v>
+        <v>0.258341</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138177</v>
+        <v>0.138162</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289214</v>
+        <v>0.298654</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304456</v>
+        <v>0.300459</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176711</v>
+        <v>0.124049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281283</v>
+        <v>0.256487</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133012</v>
+        <v>0.133036</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285685</v>
+        <v>0.295144</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307478</v>
+        <v>0.302224</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175481</v>
+        <v>0.121966</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279991</v>
+        <v>0.254154</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127706</v>
+        <v>0.127805</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282006</v>
+        <v>0.29091</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303078</v>
+        <v>0.299076</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174337</v>
+        <v>0.119905</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27991</v>
+        <v>0.252105</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122594</v>
+        <v>0.1227</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278054</v>
+        <v>0.2864</v>
       </c>
       <c r="D104" t="n">
-        <v>0.305736</v>
+        <v>0.302179</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173236</v>
+        <v>0.117763</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278353</v>
+        <v>0.249897</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11748</v>
+        <v>0.117466</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273407</v>
+        <v>0.282191</v>
       </c>
       <c r="D105" t="n">
-        <v>0.30828</v>
+        <v>0.303992</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171985</v>
+        <v>0.115544</v>
       </c>
       <c r="F105" t="n">
-        <v>0.27841</v>
+        <v>0.247586</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112247</v>
+        <v>0.112345</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268282</v>
+        <v>0.27751</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310979</v>
+        <v>0.306298</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170768</v>
+        <v>0.113192</v>
       </c>
       <c r="F106" t="n">
-        <v>0.276423</v>
+        <v>0.245241</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107051</v>
+        <v>0.107119</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263</v>
+        <v>0.271216</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288203</v>
+        <v>0.286582</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169591</v>
+        <v>0.110894</v>
       </c>
       <c r="F107" t="n">
-        <v>0.276403</v>
+        <v>0.243078</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101946</v>
+        <v>0.101984</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256619</v>
+        <v>0.264209</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292013</v>
+        <v>0.287647</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186823</v>
+        <v>0.139249</v>
       </c>
       <c r="F108" t="n">
-        <v>0.291707</v>
+        <v>0.271864</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967567</v>
+        <v>0.09685539999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24992</v>
+        <v>0.257191</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29229</v>
+        <v>0.288387</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185346</v>
+        <v>0.136996</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289479</v>
+        <v>0.26965</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162967</v>
+        <v>0.163206</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30296</v>
+        <v>0.302779</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294392</v>
+        <v>0.290819</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183713</v>
+        <v>0.134911</v>
       </c>
       <c r="F110" t="n">
-        <v>0.287678</v>
+        <v>0.26758</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158764</v>
+        <v>0.1589</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300875</v>
+        <v>0.300898</v>
       </c>
       <c r="D111" t="n">
-        <v>0.292607</v>
+        <v>0.289324</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182293</v>
+        <v>0.132868</v>
       </c>
       <c r="F111" t="n">
-        <v>0.286814</v>
+        <v>0.265321</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154303</v>
+        <v>0.154278</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298487</v>
+        <v>0.298786</v>
       </c>
       <c r="D112" t="n">
-        <v>0.295503</v>
+        <v>0.291153</v>
       </c>
       <c r="E112" t="n">
-        <v>0.18084</v>
+        <v>0.13083</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285431</v>
+        <v>0.262968</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149356</v>
+        <v>0.149499</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295703</v>
+        <v>0.296702</v>
       </c>
       <c r="D113" t="n">
-        <v>0.296499</v>
+        <v>0.293741</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179571</v>
+        <v>0.128548</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283803</v>
+        <v>0.260864</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144288</v>
+        <v>0.144264</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292844</v>
+        <v>0.294024</v>
       </c>
       <c r="D114" t="n">
-        <v>0.296399</v>
+        <v>0.292796</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178313</v>
+        <v>0.126357</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282681</v>
+        <v>0.258969</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139228</v>
+        <v>0.139277</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289639</v>
+        <v>0.291683</v>
       </c>
       <c r="D115" t="n">
-        <v>0.299509</v>
+        <v>0.29576</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177089</v>
+        <v>0.124481</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282797</v>
+        <v>0.25669</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133971</v>
+        <v>0.133936</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286214</v>
+        <v>0.288349</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302004</v>
+        <v>0.297064</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175928</v>
+        <v>0.12247</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281505</v>
+        <v>0.254634</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128823</v>
+        <v>0.128854</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282686</v>
+        <v>0.285322</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301975</v>
+        <v>0.297324</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174627</v>
+        <v>0.120425</v>
       </c>
       <c r="F117" t="n">
-        <v>0.279495</v>
+        <v>0.252249</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123575</v>
+        <v>0.123635</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27869</v>
+        <v>0.281206</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304018</v>
+        <v>0.299518</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173494</v>
+        <v>0.118234</v>
       </c>
       <c r="F118" t="n">
-        <v>0.279065</v>
+        <v>0.250195</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118505</v>
+        <v>0.118531</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274529</v>
+        <v>0.277282</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303983</v>
+        <v>0.300121</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172336</v>
+        <v>0.116103</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278757</v>
+        <v>0.247945</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113398</v>
+        <v>0.113329</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269492</v>
+        <v>0.272568</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306704</v>
+        <v>0.302868</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1711</v>
+        <v>0.113884</v>
       </c>
       <c r="F120" t="n">
-        <v>0.275575</v>
+        <v>0.245832</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108129</v>
+        <v>0.108248</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264149</v>
+        <v>0.267079</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291754</v>
+        <v>0.287994</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169832</v>
+        <v>0.111524</v>
       </c>
       <c r="F121" t="n">
-        <v>0.275917</v>
+        <v>0.243324</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102995</v>
+        <v>0.103123</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257901</v>
+        <v>0.260512</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291334</v>
+        <v>0.288258</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168651</v>
+        <v>0.108878</v>
       </c>
       <c r="F122" t="n">
-        <v>0.274379</v>
+        <v>0.240706</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978272</v>
+        <v>0.0978045</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251101</v>
+        <v>0.252489</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293301</v>
+        <v>0.289341</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185594</v>
+        <v>0.13762</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289659</v>
+        <v>0.270071</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173163</v>
+        <v>0.173335</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303409</v>
+        <v>0.303056</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294055</v>
+        <v>0.289909</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184127</v>
+        <v>0.135419</v>
       </c>
       <c r="F124" t="n">
-        <v>0.288515</v>
+        <v>0.267848</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168798</v>
+        <v>0.16877</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301567</v>
+        <v>0.301351</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294076</v>
+        <v>0.290795</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182547</v>
+        <v>0.1333</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286383</v>
+        <v>0.265902</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16395</v>
+        <v>0.163912</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298971</v>
+        <v>0.299467</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29548</v>
+        <v>0.292112</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181164</v>
+        <v>0.13125</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285385</v>
+        <v>0.263599</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158612</v>
+        <v>0.158491</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296777</v>
+        <v>0.297157</v>
       </c>
       <c r="D127" t="n">
-        <v>0.296351</v>
+        <v>0.292548</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179891</v>
+        <v>0.129216</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284388</v>
+        <v>0.261563</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153084</v>
+        <v>0.153444</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293553</v>
+        <v>0.294461</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297646</v>
+        <v>0.293913</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178524</v>
+        <v>0.127215</v>
       </c>
       <c r="F128" t="n">
-        <v>0.28303</v>
+        <v>0.259367</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147691</v>
+        <v>0.147903</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290606</v>
+        <v>0.292188</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298871</v>
+        <v>0.295738</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177345</v>
+        <v>0.125112</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281704</v>
+        <v>0.257115</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142117</v>
+        <v>0.142113</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287176</v>
+        <v>0.288916</v>
       </c>
       <c r="D130" t="n">
-        <v>0.301197</v>
+        <v>0.296909</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176136</v>
+        <v>0.123078</v>
       </c>
       <c r="F130" t="n">
-        <v>0.28037</v>
+        <v>0.254942</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136613</v>
+        <v>0.136677</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283663</v>
+        <v>0.285769</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301915</v>
+        <v>0.298289</v>
       </c>
       <c r="E131" t="n">
-        <v>0.17487</v>
+        <v>0.121032</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2792</v>
+        <v>0.252875</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13103</v>
+        <v>0.131127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279468</v>
+        <v>0.282074</v>
       </c>
       <c r="D132" t="n">
-        <v>0.303431</v>
+        <v>0.299139</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173534</v>
+        <v>0.11894</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279156</v>
+        <v>0.250795</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12573</v>
+        <v>0.125818</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275055</v>
+        <v>0.278541</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305508</v>
+        <v>0.300739</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172515</v>
+        <v>0.116688</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278247</v>
+        <v>0.248541</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120301</v>
+        <v>0.120561</v>
       </c>
       <c r="C134" t="n">
-        <v>0.27088</v>
+        <v>0.273545</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30774</v>
+        <v>0.302412</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171335</v>
+        <v>0.114442</v>
       </c>
       <c r="F134" t="n">
-        <v>0.277178</v>
+        <v>0.246216</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114801</v>
+        <v>0.114986</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265511</v>
+        <v>0.267723</v>
       </c>
       <c r="D135" t="n">
-        <v>0.290512</v>
+        <v>0.287214</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170139</v>
+        <v>0.112103</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275743</v>
+        <v>0.24406</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109373</v>
+        <v>0.109476</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259669</v>
+        <v>0.261882</v>
       </c>
       <c r="D136" t="n">
-        <v>0.291562</v>
+        <v>0.287898</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168873</v>
+        <v>0.109662</v>
       </c>
       <c r="F136" t="n">
-        <v>0.275603</v>
+        <v>0.241494</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104008</v>
+        <v>0.104252</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252929</v>
+        <v>0.254279</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293012</v>
+        <v>0.288983</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195071</v>
+        <v>0.147036</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296059</v>
+        <v>0.275892</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174341</v>
+        <v>0.174288</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320551</v>
+        <v>0.309238</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293275</v>
+        <v>0.289163</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193151</v>
+        <v>0.144467</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294334</v>
+        <v>0.273216</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169911</v>
+        <v>0.169685</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317583</v>
+        <v>0.30715</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293607</v>
+        <v>0.290098</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191191</v>
+        <v>0.142016</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292487</v>
+        <v>0.271005</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165021</v>
+        <v>0.164652</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314936</v>
+        <v>0.305051</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29464</v>
+        <v>0.290744</v>
       </c>
       <c r="E140" t="n">
-        <v>0.187378</v>
+        <v>0.139564</v>
       </c>
       <c r="F140" t="n">
-        <v>0.290702</v>
+        <v>0.268865</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158467</v>
+        <v>0.159671</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312477</v>
+        <v>0.302982</v>
       </c>
       <c r="D141" t="n">
-        <v>0.295747</v>
+        <v>0.292635</v>
       </c>
       <c r="E141" t="n">
-        <v>0.185453</v>
+        <v>0.137119</v>
       </c>
       <c r="F141" t="n">
-        <v>0.286845</v>
+        <v>0.266413</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154211</v>
+        <v>0.154491</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307596</v>
+        <v>0.299983</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297339</v>
+        <v>0.292995</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186171</v>
+        <v>0.134668</v>
       </c>
       <c r="F142" t="n">
-        <v>0.287463</v>
+        <v>0.263962</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148823</v>
+        <v>0.148911</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304996</v>
+        <v>0.296971</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298611</v>
+        <v>0.294333</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184394</v>
+        <v>0.132418</v>
       </c>
       <c r="F143" t="n">
-        <v>0.285171</v>
+        <v>0.261819</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07792060000000001</v>
+        <v>0.0651327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.26672</v>
+        <v>0.270016</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269332</v>
+        <v>0.269122</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0545987</v>
+        <v>0.0598037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.238181</v>
+        <v>0.231457</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0770757</v>
+        <v>0.06405669999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268747</v>
+        <v>0.268263</v>
       </c>
       <c r="D3" t="n">
-        <v>0.272758</v>
+        <v>0.271806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0555245</v>
+        <v>0.0590184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.237545</v>
+        <v>0.231587</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07623340000000001</v>
+        <v>0.0645578</v>
       </c>
       <c r="C4" t="n">
-        <v>0.264224</v>
+        <v>0.267473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.272526</v>
+        <v>0.273978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0528598</v>
+        <v>0.0598765</v>
       </c>
       <c r="F4" t="n">
-        <v>0.235768</v>
+        <v>0.229032</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0755924</v>
+        <v>0.0644726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.263404</v>
+        <v>0.265268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.275437</v>
+        <v>0.277407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0528723</v>
+        <v>0.058383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.23469</v>
+        <v>0.230142</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0751299</v>
+        <v>0.0642973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260603</v>
+        <v>0.261504</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276687</v>
+        <v>0.277237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0536683</v>
+        <v>0.0599721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.233158</v>
+        <v>0.228336</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0728094</v>
+        <v>0.0649766</v>
       </c>
       <c r="C7" t="n">
-        <v>0.256035</v>
+        <v>0.258438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.267911</v>
+        <v>0.267931</v>
       </c>
       <c r="E7" t="n">
-        <v>0.054353</v>
+        <v>0.0603388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.232698</v>
+        <v>0.227932</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0715582</v>
+        <v>0.0658528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248997</v>
+        <v>0.251095</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270604</v>
+        <v>0.270509</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0551005</v>
+        <v>0.0595168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.230695</v>
+        <v>0.227805</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07047109999999999</v>
+        <v>0.0663685</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244404</v>
+        <v>0.246108</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271809</v>
+        <v>0.271106</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0831982</v>
+        <v>0.0966447</v>
       </c>
       <c r="F9" t="n">
-        <v>0.258903</v>
+        <v>0.252064</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.124682</v>
+        <v>0.0930277</v>
       </c>
       <c r="C10" t="n">
-        <v>0.287813</v>
+        <v>0.291835</v>
       </c>
       <c r="D10" t="n">
-        <v>0.274262</v>
+        <v>0.273533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0956133</v>
+        <v>0.101917</v>
       </c>
       <c r="F10" t="n">
-        <v>0.256052</v>
+        <v>0.252052</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.125407</v>
+        <v>0.0964617</v>
       </c>
       <c r="C11" t="n">
-        <v>0.286143</v>
+        <v>0.289252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274608</v>
+        <v>0.275614</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0900248</v>
+        <v>0.102983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.255065</v>
+        <v>0.250728</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.123954</v>
+        <v>0.09597360000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286475</v>
+        <v>0.288471</v>
       </c>
       <c r="D12" t="n">
-        <v>0.277738</v>
+        <v>0.279468</v>
       </c>
       <c r="E12" t="n">
-        <v>0.088232</v>
+        <v>0.102721</v>
       </c>
       <c r="F12" t="n">
-        <v>0.252894</v>
+        <v>0.248886</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.123756</v>
+        <v>0.0941477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28473</v>
+        <v>0.287284</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280176</v>
+        <v>0.279173</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0926973</v>
+        <v>0.105649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.251628</v>
+        <v>0.248146</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.120782</v>
+        <v>0.0932432</v>
       </c>
       <c r="C14" t="n">
-        <v>0.283163</v>
+        <v>0.286684</v>
       </c>
       <c r="D14" t="n">
-        <v>0.279889</v>
+        <v>0.281023</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0891451</v>
+        <v>0.101502</v>
       </c>
       <c r="F14" t="n">
-        <v>0.249261</v>
+        <v>0.246313</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.117743</v>
+        <v>0.092248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282901</v>
+        <v>0.284842</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281758</v>
+        <v>0.282307</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08631900000000001</v>
+        <v>0.0994531</v>
       </c>
       <c r="F15" t="n">
-        <v>0.24824</v>
+        <v>0.244563</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113316</v>
+        <v>0.0924278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.281531</v>
+        <v>0.283869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283017</v>
+        <v>0.284777</v>
       </c>
       <c r="E16" t="n">
-        <v>0.085655</v>
+        <v>0.105479</v>
       </c>
       <c r="F16" t="n">
-        <v>0.245287</v>
+        <v>0.243233</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.110557</v>
+        <v>0.0908075</v>
       </c>
       <c r="C17" t="n">
-        <v>0.278752</v>
+        <v>0.281256</v>
       </c>
       <c r="D17" t="n">
-        <v>0.283323</v>
+        <v>0.284256</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0890022</v>
+        <v>0.09870710000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.24465</v>
+        <v>0.241166</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.106441</v>
+        <v>0.08987249999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275027</v>
+        <v>0.277753</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284845</v>
+        <v>0.285907</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0881098</v>
+        <v>0.103536</v>
       </c>
       <c r="F18" t="n">
-        <v>0.243301</v>
+        <v>0.240276</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.10228</v>
+        <v>0.0881098</v>
       </c>
       <c r="C19" t="n">
-        <v>0.273023</v>
+        <v>0.274013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286959</v>
+        <v>0.286297</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0847861</v>
+        <v>0.093512</v>
       </c>
       <c r="F19" t="n">
-        <v>0.24178</v>
+        <v>0.239149</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0997632</v>
+        <v>0.086116</v>
       </c>
       <c r="C20" t="n">
-        <v>0.269058</v>
+        <v>0.268896</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288561</v>
+        <v>0.288054</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0835346</v>
+        <v>0.0934585</v>
       </c>
       <c r="F20" t="n">
-        <v>0.240836</v>
+        <v>0.238467</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0957469</v>
+        <v>0.08483309999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.264299</v>
+        <v>0.262389</v>
       </c>
       <c r="D21" t="n">
-        <v>0.27798</v>
+        <v>0.279041</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0845687</v>
+        <v>0.0922958</v>
       </c>
       <c r="F21" t="n">
-        <v>0.238483</v>
+        <v>0.236392</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0926921</v>
+        <v>0.08334759999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259527</v>
+        <v>0.259652</v>
       </c>
       <c r="D22" t="n">
-        <v>0.277939</v>
+        <v>0.28003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.083923</v>
+        <v>0.0902324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.236655</v>
+        <v>0.235778</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0884587</v>
+        <v>0.0818446</v>
       </c>
       <c r="C23" t="n">
-        <v>0.251373</v>
+        <v>0.252863</v>
       </c>
       <c r="D23" t="n">
-        <v>0.280208</v>
+        <v>0.280457</v>
       </c>
       <c r="E23" t="n">
-        <v>0.11571</v>
+        <v>0.118999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.266037</v>
+        <v>0.26218</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.155338</v>
+        <v>0.138509</v>
       </c>
       <c r="C24" t="n">
-        <v>0.297773</v>
+        <v>0.3019</v>
       </c>
       <c r="D24" t="n">
-        <v>0.281331</v>
+        <v>0.282603</v>
       </c>
       <c r="E24" t="n">
-        <v>0.115604</v>
+        <v>0.117153</v>
       </c>
       <c r="F24" t="n">
-        <v>0.264715</v>
+        <v>0.261731</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.152</v>
+        <v>0.135386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.297617</v>
+        <v>0.300277</v>
       </c>
       <c r="D25" t="n">
-        <v>0.283195</v>
+        <v>0.280888</v>
       </c>
       <c r="E25" t="n">
-        <v>0.110541</v>
+        <v>0.119086</v>
       </c>
       <c r="F25" t="n">
-        <v>0.262085</v>
+        <v>0.260679</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.148555</v>
+        <v>0.132415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.296096</v>
+        <v>0.297642</v>
       </c>
       <c r="D26" t="n">
-        <v>0.281824</v>
+        <v>0.284197</v>
       </c>
       <c r="E26" t="n">
-        <v>0.110417</v>
+        <v>0.116251</v>
       </c>
       <c r="F26" t="n">
-        <v>0.260558</v>
+        <v>0.25748</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.144774</v>
+        <v>0.12839</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294659</v>
+        <v>0.294281</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284304</v>
+        <v>0.284177</v>
       </c>
       <c r="E27" t="n">
-        <v>0.110261</v>
+        <v>0.113676</v>
       </c>
       <c r="F27" t="n">
-        <v>0.258507</v>
+        <v>0.255831</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.140127</v>
+        <v>0.126148</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292019</v>
+        <v>0.293087</v>
       </c>
       <c r="D28" t="n">
-        <v>0.286018</v>
+        <v>0.28633</v>
       </c>
       <c r="E28" t="n">
-        <v>0.111542</v>
+        <v>0.113058</v>
       </c>
       <c r="F28" t="n">
-        <v>0.256224</v>
+        <v>0.254559</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.135583</v>
+        <v>0.122737</v>
       </c>
       <c r="C29" t="n">
-        <v>0.287538</v>
+        <v>0.291781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.286019</v>
+        <v>0.288475</v>
       </c>
       <c r="E29" t="n">
-        <v>0.10937</v>
+        <v>0.11157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.254826</v>
+        <v>0.254156</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.131873</v>
+        <v>0.11977</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2882</v>
+        <v>0.289413</v>
       </c>
       <c r="D30" t="n">
-        <v>0.288186</v>
+        <v>0.288308</v>
       </c>
       <c r="E30" t="n">
-        <v>0.108354</v>
+        <v>0.109728</v>
       </c>
       <c r="F30" t="n">
-        <v>0.252533</v>
+        <v>0.250904</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127092</v>
+        <v>0.116481</v>
       </c>
       <c r="C31" t="n">
-        <v>0.286024</v>
+        <v>0.286357</v>
       </c>
       <c r="D31" t="n">
-        <v>0.289763</v>
+        <v>0.290121</v>
       </c>
       <c r="E31" t="n">
-        <v>0.104495</v>
+        <v>0.109633</v>
       </c>
       <c r="F31" t="n">
-        <v>0.250916</v>
+        <v>0.250209</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.121516</v>
+        <v>0.112917</v>
       </c>
       <c r="C32" t="n">
-        <v>0.28438</v>
+        <v>0.283027</v>
       </c>
       <c r="D32" t="n">
-        <v>0.291387</v>
+        <v>0.290928</v>
       </c>
       <c r="E32" t="n">
-        <v>0.105755</v>
+        <v>0.107105</v>
       </c>
       <c r="F32" t="n">
-        <v>0.249115</v>
+        <v>0.248484</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.116441</v>
+        <v>0.109897</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279791</v>
+        <v>0.279402</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29175</v>
+        <v>0.293342</v>
       </c>
       <c r="E33" t="n">
-        <v>0.102638</v>
+        <v>0.106229</v>
       </c>
       <c r="F33" t="n">
-        <v>0.24653</v>
+        <v>0.246482</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.111468</v>
+        <v>0.105001</v>
       </c>
       <c r="C34" t="n">
-        <v>0.275133</v>
+        <v>0.275159</v>
       </c>
       <c r="D34" t="n">
-        <v>0.294252</v>
+        <v>0.293968</v>
       </c>
       <c r="E34" t="n">
-        <v>0.10045</v>
+        <v>0.104226</v>
       </c>
       <c r="F34" t="n">
-        <v>0.245146</v>
+        <v>0.244817</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.105922</v>
+        <v>0.100546</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270966</v>
+        <v>0.268599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.281923</v>
+        <v>0.283865</v>
       </c>
       <c r="E35" t="n">
-        <v>0.100387</v>
+        <v>0.10153</v>
       </c>
       <c r="F35" t="n">
-        <v>0.242573</v>
+        <v>0.243055</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.10077</v>
+        <v>0.0955652</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2657</v>
+        <v>0.266581</v>
       </c>
       <c r="D36" t="n">
-        <v>0.282301</v>
+        <v>0.284211</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0986368</v>
+        <v>0.100436</v>
       </c>
       <c r="F36" t="n">
-        <v>0.240487</v>
+        <v>0.240568</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0958889</v>
+        <v>0.0913852</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258736</v>
+        <v>0.260007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284432</v>
+        <v>0.284707</v>
       </c>
       <c r="E37" t="n">
-        <v>0.130073</v>
+        <v>0.130582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.269866</v>
+        <v>0.269852</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162284</v>
+        <v>0.156003</v>
       </c>
       <c r="C38" t="n">
-        <v>0.302898</v>
+        <v>0.304767</v>
       </c>
       <c r="D38" t="n">
-        <v>0.284681</v>
+        <v>0.286061</v>
       </c>
       <c r="E38" t="n">
-        <v>0.127976</v>
+        <v>0.12925</v>
       </c>
       <c r="F38" t="n">
-        <v>0.267324</v>
+        <v>0.267846</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.158887</v>
+        <v>0.152275</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302052</v>
+        <v>0.30257</v>
       </c>
       <c r="D39" t="n">
-        <v>0.285137</v>
+        <v>0.286897</v>
       </c>
       <c r="E39" t="n">
-        <v>0.125277</v>
+        <v>0.126991</v>
       </c>
       <c r="F39" t="n">
-        <v>0.265181</v>
+        <v>0.265325</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.154881</v>
+        <v>0.149098</v>
       </c>
       <c r="C40" t="n">
-        <v>0.30042</v>
+        <v>0.302</v>
       </c>
       <c r="D40" t="n">
-        <v>0.286888</v>
+        <v>0.288534</v>
       </c>
       <c r="E40" t="n">
-        <v>0.123401</v>
+        <v>0.124397</v>
       </c>
       <c r="F40" t="n">
-        <v>0.263388</v>
+        <v>0.263782</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.15114</v>
+        <v>0.145248</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299006</v>
+        <v>0.298126</v>
       </c>
       <c r="D41" t="n">
-        <v>0.28777</v>
+        <v>0.289816</v>
       </c>
       <c r="E41" t="n">
-        <v>0.122076</v>
+        <v>0.123117</v>
       </c>
       <c r="F41" t="n">
-        <v>0.262321</v>
+        <v>0.261752</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.146386</v>
+        <v>0.141046</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296591</v>
+        <v>0.297612</v>
       </c>
       <c r="D42" t="n">
-        <v>0.289767</v>
+        <v>0.290563</v>
       </c>
       <c r="E42" t="n">
-        <v>0.120534</v>
+        <v>0.122277</v>
       </c>
       <c r="F42" t="n">
-        <v>0.259427</v>
+        <v>0.259285</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.141554</v>
+        <v>0.137101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.294674</v>
+        <v>0.295163</v>
       </c>
       <c r="D43" t="n">
-        <v>0.290683</v>
+        <v>0.291283</v>
       </c>
       <c r="E43" t="n">
-        <v>0.117869</v>
+        <v>0.120024</v>
       </c>
       <c r="F43" t="n">
-        <v>0.258294</v>
+        <v>0.257708</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.136568</v>
+        <v>0.132648</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292062</v>
+        <v>0.292944</v>
       </c>
       <c r="D44" t="n">
-        <v>0.291925</v>
+        <v>0.292909</v>
       </c>
       <c r="E44" t="n">
-        <v>0.117407</v>
+        <v>0.116867</v>
       </c>
       <c r="F44" t="n">
-        <v>0.254985</v>
+        <v>0.25564</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131781</v>
+        <v>0.127975</v>
       </c>
       <c r="C45" t="n">
-        <v>0.289051</v>
+        <v>0.285851</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293084</v>
+        <v>0.294061</v>
       </c>
       <c r="E45" t="n">
-        <v>0.115594</v>
+        <v>0.115941</v>
       </c>
       <c r="F45" t="n">
-        <v>0.252699</v>
+        <v>0.253517</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126758</v>
+        <v>0.12359</v>
       </c>
       <c r="C46" t="n">
-        <v>0.285753</v>
+        <v>0.286444</v>
       </c>
       <c r="D46" t="n">
-        <v>0.293886</v>
+        <v>0.294653</v>
       </c>
       <c r="E46" t="n">
-        <v>0.113591</v>
+        <v>0.114564</v>
       </c>
       <c r="F46" t="n">
-        <v>0.251268</v>
+        <v>0.251296</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.121859</v>
+        <v>0.1192</v>
       </c>
       <c r="C47" t="n">
-        <v>0.281036</v>
+        <v>0.283492</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294632</v>
+        <v>0.294633</v>
       </c>
       <c r="E47" t="n">
-        <v>0.112834</v>
+        <v>0.112724</v>
       </c>
       <c r="F47" t="n">
-        <v>0.249761</v>
+        <v>0.249825</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.116443</v>
+        <v>0.114516</v>
       </c>
       <c r="C48" t="n">
-        <v>0.277855</v>
+        <v>0.279693</v>
       </c>
       <c r="D48" t="n">
-        <v>0.295393</v>
+        <v>0.29534</v>
       </c>
       <c r="E48" t="n">
-        <v>0.109263</v>
+        <v>0.108778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.247323</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.11169</v>
+        <v>0.109496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.27403</v>
+        <v>0.275187</v>
       </c>
       <c r="D49" t="n">
-        <v>0.297275</v>
+        <v>0.296771</v>
       </c>
       <c r="E49" t="n">
-        <v>0.107954</v>
+        <v>0.107735</v>
       </c>
       <c r="F49" t="n">
-        <v>0.244702</v>
+        <v>0.24542</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.106486</v>
+        <v>0.104199</v>
       </c>
       <c r="C50" t="n">
-        <v>0.267864</v>
+        <v>0.270101</v>
       </c>
       <c r="D50" t="n">
-        <v>0.285544</v>
+        <v>0.286429</v>
       </c>
       <c r="E50" t="n">
-        <v>0.105579</v>
+        <v>0.104346</v>
       </c>
       <c r="F50" t="n">
-        <v>0.242461</v>
+        <v>0.243538</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.101055</v>
+        <v>0.09874520000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.260392</v>
+        <v>0.261607</v>
       </c>
       <c r="D51" t="n">
-        <v>0.285421</v>
+        <v>0.287018</v>
       </c>
       <c r="E51" t="n">
-        <v>0.136164</v>
+        <v>0.136626</v>
       </c>
       <c r="F51" t="n">
-        <v>0.271996</v>
+        <v>0.27244</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0955968</v>
+        <v>0.0935786</v>
       </c>
       <c r="C52" t="n">
-        <v>0.254329</v>
+        <v>0.254047</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287048</v>
+        <v>0.287351</v>
       </c>
       <c r="E52" t="n">
-        <v>0.133355</v>
+        <v>0.133503</v>
       </c>
       <c r="F52" t="n">
-        <v>0.270162</v>
+        <v>0.269977</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.161946</v>
+        <v>0.159875</v>
       </c>
       <c r="C53" t="n">
-        <v>0.304601</v>
+        <v>0.305658</v>
       </c>
       <c r="D53" t="n">
-        <v>0.288272</v>
+        <v>0.288884</v>
       </c>
       <c r="E53" t="n">
-        <v>0.132322</v>
+        <v>0.132378</v>
       </c>
       <c r="F53" t="n">
-        <v>0.26773</v>
+        <v>0.268359</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.158144</v>
+        <v>0.156116</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302127</v>
+        <v>0.301067</v>
       </c>
       <c r="D54" t="n">
-        <v>0.289103</v>
+        <v>0.290339</v>
       </c>
       <c r="E54" t="n">
-        <v>0.130084</v>
+        <v>0.130647</v>
       </c>
       <c r="F54" t="n">
-        <v>0.265574</v>
+        <v>0.265908</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.153884</v>
+        <v>0.151937</v>
       </c>
       <c r="C55" t="n">
-        <v>0.30079</v>
+        <v>0.301154</v>
       </c>
       <c r="D55" t="n">
-        <v>0.290001</v>
+        <v>0.291837</v>
       </c>
       <c r="E55" t="n">
-        <v>0.127648</v>
+        <v>0.128336</v>
       </c>
       <c r="F55" t="n">
-        <v>0.264181</v>
+        <v>0.263899</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.149075</v>
+        <v>0.147164</v>
       </c>
       <c r="C56" t="n">
-        <v>0.29831</v>
+        <v>0.29957</v>
       </c>
       <c r="D56" t="n">
-        <v>0.291847</v>
+        <v>0.293424</v>
       </c>
       <c r="E56" t="n">
-        <v>0.126372</v>
+        <v>0.127072</v>
       </c>
       <c r="F56" t="n">
-        <v>0.262204</v>
+        <v>0.262159</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.144289</v>
+        <v>0.143011</v>
       </c>
       <c r="C57" t="n">
-        <v>0.297056</v>
+        <v>0.296715</v>
       </c>
       <c r="D57" t="n">
-        <v>0.292888</v>
+        <v>0.294001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.124158</v>
+        <v>0.124981</v>
       </c>
       <c r="F57" t="n">
-        <v>0.260191</v>
+        <v>0.260082</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.139371</v>
+        <v>0.138044</v>
       </c>
       <c r="C58" t="n">
-        <v>0.29393</v>
+        <v>0.293673</v>
       </c>
       <c r="D58" t="n">
-        <v>0.294219</v>
+        <v>0.295396</v>
       </c>
       <c r="E58" t="n">
-        <v>0.121898</v>
+        <v>0.123128</v>
       </c>
       <c r="F58" t="n">
-        <v>0.257688</v>
+        <v>0.258349</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134528</v>
+        <v>0.133231</v>
       </c>
       <c r="C59" t="n">
-        <v>0.291581</v>
+        <v>0.290508</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29555</v>
+        <v>0.29643</v>
       </c>
       <c r="E59" t="n">
-        <v>0.120093</v>
+        <v>0.120371</v>
       </c>
       <c r="F59" t="n">
-        <v>0.255648</v>
+        <v>0.255987</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.129556</v>
+        <v>0.128369</v>
       </c>
       <c r="C60" t="n">
-        <v>0.287879</v>
+        <v>0.286722</v>
       </c>
       <c r="D60" t="n">
-        <v>0.296668</v>
+        <v>0.297367</v>
       </c>
       <c r="E60" t="n">
-        <v>0.118518</v>
+        <v>0.118579</v>
       </c>
       <c r="F60" t="n">
-        <v>0.253216</v>
+        <v>0.254351</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.124627</v>
+        <v>0.123353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.284438</v>
+        <v>0.28519</v>
       </c>
       <c r="D61" t="n">
-        <v>0.297807</v>
+        <v>0.298702</v>
       </c>
       <c r="E61" t="n">
-        <v>0.116332</v>
+        <v>0.116773</v>
       </c>
       <c r="F61" t="n">
-        <v>0.251387</v>
+        <v>0.251936</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.119469</v>
+        <v>0.118144</v>
       </c>
       <c r="C62" t="n">
-        <v>0.280597</v>
+        <v>0.281869</v>
       </c>
       <c r="D62" t="n">
-        <v>0.299058</v>
+        <v>0.299723</v>
       </c>
       <c r="E62" t="n">
-        <v>0.114063</v>
+        <v>0.113848</v>
       </c>
       <c r="F62" t="n">
-        <v>0.248955</v>
+        <v>0.249931</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.114059</v>
+        <v>0.113119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.275969</v>
+        <v>0.277046</v>
       </c>
       <c r="D63" t="n">
-        <v>0.299966</v>
+        <v>0.300534</v>
       </c>
       <c r="E63" t="n">
-        <v>0.111639</v>
+        <v>0.111714</v>
       </c>
       <c r="F63" t="n">
-        <v>0.248101</v>
+        <v>0.247787</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108918</v>
+        <v>0.108192</v>
       </c>
       <c r="C64" t="n">
-        <v>0.270717</v>
+        <v>0.271769</v>
       </c>
       <c r="D64" t="n">
-        <v>0.291841</v>
+        <v>0.293244</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109269</v>
+        <v>0.109464</v>
       </c>
       <c r="F64" t="n">
-        <v>0.245211</v>
+        <v>0.245236</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.10378</v>
+        <v>0.103019</v>
       </c>
       <c r="C65" t="n">
-        <v>0.264578</v>
+        <v>0.266176</v>
       </c>
       <c r="D65" t="n">
-        <v>0.29377</v>
+        <v>0.294993</v>
       </c>
       <c r="E65" t="n">
-        <v>0.107383</v>
+        <v>0.1063</v>
       </c>
       <c r="F65" t="n">
-        <v>0.242683</v>
+        <v>0.242934</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0984719</v>
+        <v>0.09767969999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.256484</v>
+        <v>0.257335</v>
       </c>
       <c r="D66" t="n">
-        <v>0.295451</v>
+        <v>0.297132</v>
       </c>
       <c r="E66" t="n">
-        <v>0.136548</v>
+        <v>0.136845</v>
       </c>
       <c r="F66" t="n">
-        <v>0.271902</v>
+        <v>0.272034</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163888</v>
+        <v>0.163666</v>
       </c>
       <c r="C67" t="n">
-        <v>0.307</v>
+        <v>0.307541</v>
       </c>
       <c r="D67" t="n">
-        <v>0.296842</v>
+        <v>0.298812</v>
       </c>
       <c r="E67" t="n">
-        <v>0.134667</v>
+        <v>0.13495</v>
       </c>
       <c r="F67" t="n">
-        <v>0.269482</v>
+        <v>0.269655</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159933</v>
+        <v>0.159758</v>
       </c>
       <c r="C68" t="n">
-        <v>0.306282</v>
+        <v>0.305252</v>
       </c>
       <c r="D68" t="n">
-        <v>0.298561</v>
+        <v>0.300621</v>
       </c>
       <c r="E68" t="n">
-        <v>0.132995</v>
+        <v>0.1328</v>
       </c>
       <c r="F68" t="n">
-        <v>0.266775</v>
+        <v>0.267875</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155857</v>
+        <v>0.155748</v>
       </c>
       <c r="C69" t="n">
-        <v>0.303133</v>
+        <v>0.303619</v>
       </c>
       <c r="D69" t="n">
-        <v>0.30037</v>
+        <v>0.302504</v>
       </c>
       <c r="E69" t="n">
-        <v>0.129919</v>
+        <v>0.13109</v>
       </c>
       <c r="F69" t="n">
-        <v>0.265719</v>
+        <v>0.265553</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.151419</v>
+        <v>0.15088</v>
       </c>
       <c r="C70" t="n">
-        <v>0.301429</v>
+        <v>0.3006</v>
       </c>
       <c r="D70" t="n">
-        <v>0.301938</v>
+        <v>0.304639</v>
       </c>
       <c r="E70" t="n">
-        <v>0.128538</v>
+        <v>0.129219</v>
       </c>
       <c r="F70" t="n">
-        <v>0.263049</v>
+        <v>0.263745</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146537</v>
+        <v>0.146472</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297504</v>
+        <v>0.298247</v>
       </c>
       <c r="D71" t="n">
-        <v>0.30451</v>
+        <v>0.306841</v>
       </c>
       <c r="E71" t="n">
-        <v>0.126321</v>
+        <v>0.126712</v>
       </c>
       <c r="F71" t="n">
-        <v>0.260279</v>
+        <v>0.261126</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141241</v>
+        <v>0.141528</v>
       </c>
       <c r="C72" t="n">
-        <v>0.295605</v>
+        <v>0.295442</v>
       </c>
       <c r="D72" t="n">
-        <v>0.305962</v>
+        <v>0.308663</v>
       </c>
       <c r="E72" t="n">
-        <v>0.124393</v>
+        <v>0.125127</v>
       </c>
       <c r="F72" t="n">
-        <v>0.258908</v>
+        <v>0.259522</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136492</v>
+        <v>0.136719</v>
       </c>
       <c r="C73" t="n">
-        <v>0.292572</v>
+        <v>0.294212</v>
       </c>
       <c r="D73" t="n">
-        <v>0.308424</v>
+        <v>0.311191</v>
       </c>
       <c r="E73" t="n">
-        <v>0.122365</v>
+        <v>0.12354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.256523</v>
+        <v>0.257423</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131604</v>
+        <v>0.131247</v>
       </c>
       <c r="C74" t="n">
-        <v>0.290118</v>
+        <v>0.290312</v>
       </c>
       <c r="D74" t="n">
-        <v>0.300055</v>
+        <v>0.307434</v>
       </c>
       <c r="E74" t="n">
-        <v>0.120034</v>
+        <v>0.120643</v>
       </c>
       <c r="F74" t="n">
-        <v>0.254444</v>
+        <v>0.255184</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126343</v>
+        <v>0.126019</v>
       </c>
       <c r="C75" t="n">
-        <v>0.286492</v>
+        <v>0.286466</v>
       </c>
       <c r="D75" t="n">
-        <v>0.303955</v>
+        <v>0.3099</v>
       </c>
       <c r="E75" t="n">
-        <v>0.118119</v>
+        <v>0.118428</v>
       </c>
       <c r="F75" t="n">
-        <v>0.252129</v>
+        <v>0.252696</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.121027</v>
+        <v>0.120535</v>
       </c>
       <c r="C76" t="n">
-        <v>0.282085</v>
+        <v>0.283576</v>
       </c>
       <c r="D76" t="n">
-        <v>0.30665</v>
+        <v>0.312926</v>
       </c>
       <c r="E76" t="n">
-        <v>0.11593</v>
+        <v>0.116093</v>
       </c>
       <c r="F76" t="n">
-        <v>0.250467</v>
+        <v>0.250837</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115964</v>
+        <v>0.115679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.277109</v>
+        <v>0.279799</v>
       </c>
       <c r="D77" t="n">
-        <v>0.310438</v>
+        <v>0.315629</v>
       </c>
       <c r="E77" t="n">
-        <v>0.113584</v>
+        <v>0.113875</v>
       </c>
       <c r="F77" t="n">
-        <v>0.247606</v>
+        <v>0.248653</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110754</v>
+        <v>0.110403</v>
       </c>
       <c r="C78" t="n">
-        <v>0.273269</v>
+        <v>0.275735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.304897</v>
+        <v>0.308419</v>
       </c>
       <c r="E78" t="n">
-        <v>0.111551</v>
+        <v>0.110925</v>
       </c>
       <c r="F78" t="n">
-        <v>0.24606</v>
+        <v>0.246451</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105557</v>
+        <v>0.105202</v>
       </c>
       <c r="C79" t="n">
-        <v>0.268067</v>
+        <v>0.271153</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309492</v>
+        <v>0.309187</v>
       </c>
       <c r="E79" t="n">
-        <v>0.108921</v>
+        <v>0.108316</v>
       </c>
       <c r="F79" t="n">
-        <v>0.243014</v>
+        <v>0.243948</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100262</v>
+        <v>0.0999703</v>
       </c>
       <c r="C80" t="n">
-        <v>0.262128</v>
+        <v>0.262496</v>
       </c>
       <c r="D80" t="n">
-        <v>0.308007</v>
+        <v>0.31059</v>
       </c>
       <c r="E80" t="n">
-        <v>0.137923</v>
+        <v>0.137953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.271018</v>
+        <v>0.272457</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.16472</v>
+        <v>0.164933</v>
       </c>
       <c r="C81" t="n">
-        <v>0.303588</v>
+        <v>0.308484</v>
       </c>
       <c r="D81" t="n">
-        <v>0.30943</v>
+        <v>0.312515</v>
       </c>
       <c r="E81" t="n">
-        <v>0.135668</v>
+        <v>0.135664</v>
       </c>
       <c r="F81" t="n">
-        <v>0.269149</v>
+        <v>0.270432</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160875</v>
+        <v>0.161218</v>
       </c>
       <c r="C82" t="n">
-        <v>0.301777</v>
+        <v>0.306509</v>
       </c>
       <c r="D82" t="n">
-        <v>0.311007</v>
+        <v>0.31392</v>
       </c>
       <c r="E82" t="n">
-        <v>0.133266</v>
+        <v>0.133594</v>
       </c>
       <c r="F82" t="n">
-        <v>0.267062</v>
+        <v>0.268603</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.15639</v>
+        <v>0.157188</v>
       </c>
       <c r="C83" t="n">
-        <v>0.300907</v>
+        <v>0.304257</v>
       </c>
       <c r="D83" t="n">
-        <v>0.30953</v>
+        <v>0.313174</v>
       </c>
       <c r="E83" t="n">
-        <v>0.131506</v>
+        <v>0.132014</v>
       </c>
       <c r="F83" t="n">
-        <v>0.264802</v>
+        <v>0.266311</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152014</v>
+        <v>0.151867</v>
       </c>
       <c r="C84" t="n">
-        <v>0.297998</v>
+        <v>0.302483</v>
       </c>
       <c r="D84" t="n">
-        <v>0.312661</v>
+        <v>0.315701</v>
       </c>
       <c r="E84" t="n">
-        <v>0.129467</v>
+        <v>0.1299</v>
       </c>
       <c r="F84" t="n">
-        <v>0.262557</v>
+        <v>0.264278</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147014</v>
+        <v>0.147319</v>
       </c>
       <c r="C85" t="n">
-        <v>0.296157</v>
+        <v>0.299551</v>
       </c>
       <c r="D85" t="n">
-        <v>0.313853</v>
+        <v>0.318428</v>
       </c>
       <c r="E85" t="n">
-        <v>0.127407</v>
+        <v>0.128107</v>
       </c>
       <c r="F85" t="n">
-        <v>0.260398</v>
+        <v>0.262249</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142046</v>
+        <v>0.142071</v>
       </c>
       <c r="C86" t="n">
-        <v>0.293164</v>
+        <v>0.296767</v>
       </c>
       <c r="D86" t="n">
-        <v>0.317318</v>
+        <v>0.320466</v>
       </c>
       <c r="E86" t="n">
-        <v>0.125483</v>
+        <v>0.126039</v>
       </c>
       <c r="F86" t="n">
-        <v>0.258023</v>
+        <v>0.26012</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.137019</v>
+        <v>0.136991</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290608</v>
+        <v>0.292601</v>
       </c>
       <c r="D87" t="n">
-        <v>0.319585</v>
+        <v>0.323424</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123463</v>
+        <v>0.124122</v>
       </c>
       <c r="F87" t="n">
-        <v>0.256083</v>
+        <v>0.257978</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.132016</v>
+        <v>0.131814</v>
       </c>
       <c r="C88" t="n">
-        <v>0.287771</v>
+        <v>0.289654</v>
       </c>
       <c r="D88" t="n">
-        <v>0.318556</v>
+        <v>0.325377</v>
       </c>
       <c r="E88" t="n">
-        <v>0.121287</v>
+        <v>0.121807</v>
       </c>
       <c r="F88" t="n">
-        <v>0.253889</v>
+        <v>0.255833</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126803</v>
+        <v>0.126734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284495</v>
+        <v>0.286266</v>
       </c>
       <c r="D89" t="n">
-        <v>0.308715</v>
+        <v>0.317416</v>
       </c>
       <c r="E89" t="n">
-        <v>0.119266</v>
+        <v>0.119725</v>
       </c>
       <c r="F89" t="n">
-        <v>0.251544</v>
+        <v>0.253451</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121613</v>
+        <v>0.121429</v>
       </c>
       <c r="C90" t="n">
-        <v>0.280473</v>
+        <v>0.28236</v>
       </c>
       <c r="D90" t="n">
-        <v>0.311501</v>
+        <v>0.320222</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117093</v>
+        <v>0.117296</v>
       </c>
       <c r="F90" t="n">
-        <v>0.24933</v>
+        <v>0.251358</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116469</v>
+        <v>0.116339</v>
       </c>
       <c r="C91" t="n">
-        <v>0.275888</v>
+        <v>0.278478</v>
       </c>
       <c r="D91" t="n">
-        <v>0.314534</v>
+        <v>0.32205</v>
       </c>
       <c r="E91" t="n">
-        <v>0.114754</v>
+        <v>0.114695</v>
       </c>
       <c r="F91" t="n">
-        <v>0.247102</v>
+        <v>0.249393</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111056</v>
+        <v>0.111181</v>
       </c>
       <c r="C92" t="n">
-        <v>0.270028</v>
+        <v>0.273248</v>
       </c>
       <c r="D92" t="n">
-        <v>0.290661</v>
+        <v>0.293872</v>
       </c>
       <c r="E92" t="n">
-        <v>0.112468</v>
+        <v>0.112133</v>
       </c>
       <c r="F92" t="n">
-        <v>0.244963</v>
+        <v>0.246656</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.106026</v>
+        <v>0.105906</v>
       </c>
       <c r="C93" t="n">
-        <v>0.264851</v>
+        <v>0.26824</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290893</v>
+        <v>0.294631</v>
       </c>
       <c r="E93" t="n">
-        <v>0.110134</v>
+        <v>0.109374</v>
       </c>
       <c r="F93" t="n">
-        <v>0.24253</v>
+        <v>0.244721</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100861</v>
+        <v>0.100827</v>
       </c>
       <c r="C94" t="n">
-        <v>0.257329</v>
+        <v>0.261644</v>
       </c>
       <c r="D94" t="n">
-        <v>0.293381</v>
+        <v>0.296542</v>
       </c>
       <c r="E94" t="n">
-        <v>0.138422</v>
+        <v>0.138754</v>
       </c>
       <c r="F94" t="n">
-        <v>0.271772</v>
+        <v>0.273314</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.166132</v>
+        <v>0.165467</v>
       </c>
       <c r="C95" t="n">
-        <v>0.310444</v>
+        <v>0.312597</v>
       </c>
       <c r="D95" t="n">
-        <v>0.295664</v>
+        <v>0.297908</v>
       </c>
       <c r="E95" t="n">
-        <v>0.136182</v>
+        <v>0.136217</v>
       </c>
       <c r="F95" t="n">
-        <v>0.269182</v>
+        <v>0.27079</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162292</v>
+        <v>0.162029</v>
       </c>
       <c r="C96" t="n">
-        <v>0.308262</v>
+        <v>0.311615</v>
       </c>
       <c r="D96" t="n">
-        <v>0.29779</v>
+        <v>0.300825</v>
       </c>
       <c r="E96" t="n">
-        <v>0.134038</v>
+        <v>0.134219</v>
       </c>
       <c r="F96" t="n">
-        <v>0.266995</v>
+        <v>0.268732</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.158131</v>
+        <v>0.157931</v>
       </c>
       <c r="C97" t="n">
-        <v>0.307859</v>
+        <v>0.310536</v>
       </c>
       <c r="D97" t="n">
-        <v>0.291887</v>
+        <v>0.297538</v>
       </c>
       <c r="E97" t="n">
-        <v>0.131958</v>
+        <v>0.13271</v>
       </c>
       <c r="F97" t="n">
-        <v>0.264919</v>
+        <v>0.266986</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153008</v>
+        <v>0.153129</v>
       </c>
       <c r="C98" t="n">
-        <v>0.305983</v>
+        <v>0.307616</v>
       </c>
       <c r="D98" t="n">
-        <v>0.293914</v>
+        <v>0.299019</v>
       </c>
       <c r="E98" t="n">
-        <v>0.130216</v>
+        <v>0.13079</v>
       </c>
       <c r="F98" t="n">
-        <v>0.262661</v>
+        <v>0.264635</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148167</v>
+        <v>0.148811</v>
       </c>
       <c r="C99" t="n">
-        <v>0.304205</v>
+        <v>0.305086</v>
       </c>
       <c r="D99" t="n">
-        <v>0.296165</v>
+        <v>0.301717</v>
       </c>
       <c r="E99" t="n">
-        <v>0.128171</v>
+        <v>0.128919</v>
       </c>
       <c r="F99" t="n">
-        <v>0.260406</v>
+        <v>0.26245</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143074</v>
+        <v>0.143766</v>
       </c>
       <c r="C100" t="n">
-        <v>0.302257</v>
+        <v>0.302175</v>
       </c>
       <c r="D100" t="n">
-        <v>0.298935</v>
+        <v>0.304625</v>
       </c>
       <c r="E100" t="n">
-        <v>0.126155</v>
+        <v>0.127052</v>
       </c>
       <c r="F100" t="n">
-        <v>0.258341</v>
+        <v>0.260476</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138162</v>
+        <v>0.138189</v>
       </c>
       <c r="C101" t="n">
-        <v>0.298654</v>
+        <v>0.299308</v>
       </c>
       <c r="D101" t="n">
-        <v>0.300459</v>
+        <v>0.306769</v>
       </c>
       <c r="E101" t="n">
-        <v>0.124049</v>
+        <v>0.12487</v>
       </c>
       <c r="F101" t="n">
-        <v>0.256487</v>
+        <v>0.258424</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133036</v>
+        <v>0.132791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.295144</v>
+        <v>0.296839</v>
       </c>
       <c r="D102" t="n">
-        <v>0.302224</v>
+        <v>0.309463</v>
       </c>
       <c r="E102" t="n">
-        <v>0.121966</v>
+        <v>0.122845</v>
       </c>
       <c r="F102" t="n">
-        <v>0.254154</v>
+        <v>0.256364</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127805</v>
+        <v>0.127931</v>
       </c>
       <c r="C103" t="n">
-        <v>0.29091</v>
+        <v>0.293274</v>
       </c>
       <c r="D103" t="n">
-        <v>0.299076</v>
+        <v>0.307234</v>
       </c>
       <c r="E103" t="n">
-        <v>0.119905</v>
+        <v>0.120576</v>
       </c>
       <c r="F103" t="n">
-        <v>0.252105</v>
+        <v>0.254102</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.1227</v>
+        <v>0.122532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2864</v>
+        <v>0.290194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.302179</v>
+        <v>0.309537</v>
       </c>
       <c r="E104" t="n">
-        <v>0.117763</v>
+        <v>0.118118</v>
       </c>
       <c r="F104" t="n">
-        <v>0.249897</v>
+        <v>0.251909</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117466</v>
+        <v>0.117511</v>
       </c>
       <c r="C105" t="n">
-        <v>0.282191</v>
+        <v>0.286435</v>
       </c>
       <c r="D105" t="n">
-        <v>0.303992</v>
+        <v>0.311427</v>
       </c>
       <c r="E105" t="n">
-        <v>0.115544</v>
+        <v>0.115634</v>
       </c>
       <c r="F105" t="n">
-        <v>0.247586</v>
+        <v>0.249292</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112345</v>
+        <v>0.112166</v>
       </c>
       <c r="C106" t="n">
-        <v>0.27751</v>
+        <v>0.281487</v>
       </c>
       <c r="D106" t="n">
-        <v>0.306298</v>
+        <v>0.313473</v>
       </c>
       <c r="E106" t="n">
-        <v>0.113192</v>
+        <v>0.113174</v>
       </c>
       <c r="F106" t="n">
-        <v>0.245241</v>
+        <v>0.247327</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107119</v>
+        <v>0.106984</v>
       </c>
       <c r="C107" t="n">
-        <v>0.271216</v>
+        <v>0.276245</v>
       </c>
       <c r="D107" t="n">
-        <v>0.286582</v>
+        <v>0.290898</v>
       </c>
       <c r="E107" t="n">
-        <v>0.110894</v>
+        <v>0.110548</v>
       </c>
       <c r="F107" t="n">
-        <v>0.243078</v>
+        <v>0.245047</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101984</v>
+        <v>0.101802</v>
       </c>
       <c r="C108" t="n">
-        <v>0.264209</v>
+        <v>0.269896</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287647</v>
+        <v>0.292838</v>
       </c>
       <c r="E108" t="n">
-        <v>0.139249</v>
+        <v>0.139282</v>
       </c>
       <c r="F108" t="n">
-        <v>0.271864</v>
+        <v>0.274404</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09685539999999999</v>
+        <v>0.09666139999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.257191</v>
+        <v>0.263844</v>
       </c>
       <c r="D109" t="n">
-        <v>0.288387</v>
+        <v>0.293953</v>
       </c>
       <c r="E109" t="n">
-        <v>0.136996</v>
+        <v>0.137003</v>
       </c>
       <c r="F109" t="n">
-        <v>0.26965</v>
+        <v>0.271641</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.163206</v>
+        <v>0.162875</v>
       </c>
       <c r="C110" t="n">
-        <v>0.302779</v>
+        <v>0.303018</v>
       </c>
       <c r="D110" t="n">
-        <v>0.290819</v>
+        <v>0.295588</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134911</v>
+        <v>0.135176</v>
       </c>
       <c r="F110" t="n">
-        <v>0.26758</v>
+        <v>0.269428</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1589</v>
+        <v>0.158702</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300898</v>
+        <v>0.300245</v>
       </c>
       <c r="D111" t="n">
-        <v>0.289324</v>
+        <v>0.296293</v>
       </c>
       <c r="E111" t="n">
-        <v>0.132868</v>
+        <v>0.133247</v>
       </c>
       <c r="F111" t="n">
-        <v>0.265321</v>
+        <v>0.267489</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154278</v>
+        <v>0.154542</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298786</v>
+        <v>0.29872</v>
       </c>
       <c r="D112" t="n">
-        <v>0.291153</v>
+        <v>0.296791</v>
       </c>
       <c r="E112" t="n">
-        <v>0.13083</v>
+        <v>0.131212</v>
       </c>
       <c r="F112" t="n">
-        <v>0.262968</v>
+        <v>0.265197</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149499</v>
+        <v>0.149436</v>
       </c>
       <c r="C113" t="n">
-        <v>0.296702</v>
+        <v>0.295899</v>
       </c>
       <c r="D113" t="n">
-        <v>0.293741</v>
+        <v>0.299427</v>
       </c>
       <c r="E113" t="n">
-        <v>0.128548</v>
+        <v>0.129214</v>
       </c>
       <c r="F113" t="n">
-        <v>0.260864</v>
+        <v>0.263098</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144264</v>
+        <v>0.144627</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294024</v>
+        <v>0.293671</v>
       </c>
       <c r="D114" t="n">
-        <v>0.292796</v>
+        <v>0.299904</v>
       </c>
       <c r="E114" t="n">
-        <v>0.126357</v>
+        <v>0.127218</v>
       </c>
       <c r="F114" t="n">
-        <v>0.258969</v>
+        <v>0.260944</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139277</v>
+        <v>0.13915</v>
       </c>
       <c r="C115" t="n">
-        <v>0.291683</v>
+        <v>0.290999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.29576</v>
+        <v>0.302916</v>
       </c>
       <c r="E115" t="n">
-        <v>0.124481</v>
+        <v>0.125569</v>
       </c>
       <c r="F115" t="n">
-        <v>0.25669</v>
+        <v>0.258809</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133936</v>
+        <v>0.133928</v>
       </c>
       <c r="C116" t="n">
-        <v>0.288349</v>
+        <v>0.287767</v>
       </c>
       <c r="D116" t="n">
-        <v>0.297064</v>
+        <v>0.305679</v>
       </c>
       <c r="E116" t="n">
-        <v>0.12247</v>
+        <v>0.123533</v>
       </c>
       <c r="F116" t="n">
-        <v>0.254634</v>
+        <v>0.256895</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128854</v>
+        <v>0.128569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.285322</v>
+        <v>0.284626</v>
       </c>
       <c r="D117" t="n">
-        <v>0.297324</v>
+        <v>0.305466</v>
       </c>
       <c r="E117" t="n">
-        <v>0.120425</v>
+        <v>0.121112</v>
       </c>
       <c r="F117" t="n">
-        <v>0.252249</v>
+        <v>0.254382</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123635</v>
+        <v>0.123592</v>
       </c>
       <c r="C118" t="n">
-        <v>0.281206</v>
+        <v>0.281362</v>
       </c>
       <c r="D118" t="n">
-        <v>0.299518</v>
+        <v>0.307282</v>
       </c>
       <c r="E118" t="n">
-        <v>0.118234</v>
+        <v>0.11894</v>
       </c>
       <c r="F118" t="n">
-        <v>0.250195</v>
+        <v>0.252372</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118531</v>
+        <v>0.118253</v>
       </c>
       <c r="C119" t="n">
-        <v>0.277282</v>
+        <v>0.277442</v>
       </c>
       <c r="D119" t="n">
-        <v>0.300121</v>
+        <v>0.308689</v>
       </c>
       <c r="E119" t="n">
-        <v>0.116103</v>
+        <v>0.116438</v>
       </c>
       <c r="F119" t="n">
-        <v>0.247945</v>
+        <v>0.250297</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113329</v>
+        <v>0.113268</v>
       </c>
       <c r="C120" t="n">
-        <v>0.272568</v>
+        <v>0.273045</v>
       </c>
       <c r="D120" t="n">
-        <v>0.302868</v>
+        <v>0.310604</v>
       </c>
       <c r="E120" t="n">
-        <v>0.113884</v>
+        <v>0.113926</v>
       </c>
       <c r="F120" t="n">
-        <v>0.245832</v>
+        <v>0.247965</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108248</v>
+        <v>0.108005</v>
       </c>
       <c r="C121" t="n">
-        <v>0.267079</v>
+        <v>0.267746</v>
       </c>
       <c r="D121" t="n">
-        <v>0.287994</v>
+        <v>0.293129</v>
       </c>
       <c r="E121" t="n">
-        <v>0.111524</v>
+        <v>0.111203</v>
       </c>
       <c r="F121" t="n">
-        <v>0.243324</v>
+        <v>0.245291</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.103123</v>
+        <v>0.102876</v>
       </c>
       <c r="C122" t="n">
-        <v>0.260512</v>
+        <v>0.261615</v>
       </c>
       <c r="D122" t="n">
-        <v>0.288258</v>
+        <v>0.29425</v>
       </c>
       <c r="E122" t="n">
-        <v>0.108878</v>
+        <v>0.10838</v>
       </c>
       <c r="F122" t="n">
-        <v>0.240706</v>
+        <v>0.243083</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978045</v>
+        <v>0.0977305</v>
       </c>
       <c r="C123" t="n">
-        <v>0.252489</v>
+        <v>0.25425</v>
       </c>
       <c r="D123" t="n">
-        <v>0.289341</v>
+        <v>0.294692</v>
       </c>
       <c r="E123" t="n">
-        <v>0.13762</v>
+        <v>0.137685</v>
       </c>
       <c r="F123" t="n">
-        <v>0.270071</v>
+        <v>0.272383</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173335</v>
+        <v>0.173449</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303056</v>
+        <v>0.303373</v>
       </c>
       <c r="D124" t="n">
-        <v>0.289909</v>
+        <v>0.295662</v>
       </c>
       <c r="E124" t="n">
-        <v>0.135419</v>
+        <v>0.135692</v>
       </c>
       <c r="F124" t="n">
-        <v>0.267848</v>
+        <v>0.26976</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.16877</v>
+        <v>0.166905</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301351</v>
+        <v>0.300835</v>
       </c>
       <c r="D125" t="n">
-        <v>0.290795</v>
+        <v>0.296872</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1333</v>
+        <v>0.13365</v>
       </c>
       <c r="F125" t="n">
-        <v>0.265902</v>
+        <v>0.267946</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163912</v>
+        <v>0.163759</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299467</v>
+        <v>0.299338</v>
       </c>
       <c r="D126" t="n">
-        <v>0.292112</v>
+        <v>0.298176</v>
       </c>
       <c r="E126" t="n">
-        <v>0.13125</v>
+        <v>0.131631</v>
       </c>
       <c r="F126" t="n">
-        <v>0.263599</v>
+        <v>0.265827</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158491</v>
+        <v>0.158469</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297157</v>
+        <v>0.297113</v>
       </c>
       <c r="D127" t="n">
-        <v>0.292548</v>
+        <v>0.299154</v>
       </c>
       <c r="E127" t="n">
-        <v>0.129216</v>
+        <v>0.129779</v>
       </c>
       <c r="F127" t="n">
-        <v>0.261563</v>
+        <v>0.263906</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153444</v>
+        <v>0.153092</v>
       </c>
       <c r="C128" t="n">
-        <v>0.294461</v>
+        <v>0.294384</v>
       </c>
       <c r="D128" t="n">
-        <v>0.293913</v>
+        <v>0.301506</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127215</v>
+        <v>0.127849</v>
       </c>
       <c r="F128" t="n">
-        <v>0.259367</v>
+        <v>0.261558</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147903</v>
+        <v>0.147212</v>
       </c>
       <c r="C129" t="n">
-        <v>0.292188</v>
+        <v>0.291323</v>
       </c>
       <c r="D129" t="n">
-        <v>0.295738</v>
+        <v>0.303054</v>
       </c>
       <c r="E129" t="n">
-        <v>0.125112</v>
+        <v>0.125887</v>
       </c>
       <c r="F129" t="n">
-        <v>0.257115</v>
+        <v>0.259447</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142113</v>
+        <v>0.142321</v>
       </c>
       <c r="C130" t="n">
-        <v>0.288916</v>
+        <v>0.288341</v>
       </c>
       <c r="D130" t="n">
-        <v>0.296909</v>
+        <v>0.305436</v>
       </c>
       <c r="E130" t="n">
-        <v>0.123078</v>
+        <v>0.123789</v>
       </c>
       <c r="F130" t="n">
-        <v>0.254942</v>
+        <v>0.25718</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136677</v>
+        <v>0.136538</v>
       </c>
       <c r="C131" t="n">
-        <v>0.285769</v>
+        <v>0.285122</v>
       </c>
       <c r="D131" t="n">
-        <v>0.298289</v>
+        <v>0.30695</v>
       </c>
       <c r="E131" t="n">
-        <v>0.121032</v>
+        <v>0.121722</v>
       </c>
       <c r="F131" t="n">
-        <v>0.252875</v>
+        <v>0.255223</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131127</v>
+        <v>0.130881</v>
       </c>
       <c r="C132" t="n">
-        <v>0.282074</v>
+        <v>0.282058</v>
       </c>
       <c r="D132" t="n">
-        <v>0.299139</v>
+        <v>0.308063</v>
       </c>
       <c r="E132" t="n">
-        <v>0.11894</v>
+        <v>0.119539</v>
       </c>
       <c r="F132" t="n">
-        <v>0.250795</v>
+        <v>0.253117</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125818</v>
+        <v>0.125471</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278541</v>
+        <v>0.278518</v>
       </c>
       <c r="D133" t="n">
-        <v>0.300739</v>
+        <v>0.309443</v>
       </c>
       <c r="E133" t="n">
-        <v>0.116688</v>
+        <v>0.117087</v>
       </c>
       <c r="F133" t="n">
-        <v>0.248541</v>
+        <v>0.250787</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120561</v>
+        <v>0.120051</v>
       </c>
       <c r="C134" t="n">
-        <v>0.273545</v>
+        <v>0.274051</v>
       </c>
       <c r="D134" t="n">
-        <v>0.302412</v>
+        <v>0.311724</v>
       </c>
       <c r="E134" t="n">
-        <v>0.114442</v>
+        <v>0.114498</v>
       </c>
       <c r="F134" t="n">
-        <v>0.246216</v>
+        <v>0.248402</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114986</v>
+        <v>0.114827</v>
       </c>
       <c r="C135" t="n">
-        <v>0.267723</v>
+        <v>0.268815</v>
       </c>
       <c r="D135" t="n">
-        <v>0.287214</v>
+        <v>0.292326</v>
       </c>
       <c r="E135" t="n">
-        <v>0.112103</v>
+        <v>0.11194</v>
       </c>
       <c r="F135" t="n">
-        <v>0.24406</v>
+        <v>0.246244</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109476</v>
+        <v>0.10942</v>
       </c>
       <c r="C136" t="n">
-        <v>0.261882</v>
+        <v>0.263002</v>
       </c>
       <c r="D136" t="n">
-        <v>0.287898</v>
+        <v>0.293506</v>
       </c>
       <c r="E136" t="n">
-        <v>0.109662</v>
+        <v>0.109158</v>
       </c>
       <c r="F136" t="n">
-        <v>0.241494</v>
+        <v>0.243703</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104252</v>
+        <v>0.10422</v>
       </c>
       <c r="C137" t="n">
-        <v>0.254279</v>
+        <v>0.255456</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288983</v>
+        <v>0.294246</v>
       </c>
       <c r="E137" t="n">
-        <v>0.147036</v>
+        <v>0.146956</v>
       </c>
       <c r="F137" t="n">
-        <v>0.275892</v>
+        <v>0.278353</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174288</v>
+        <v>0.174305</v>
       </c>
       <c r="C138" t="n">
-        <v>0.309238</v>
+        <v>0.310212</v>
       </c>
       <c r="D138" t="n">
-        <v>0.289163</v>
+        <v>0.295655</v>
       </c>
       <c r="E138" t="n">
-        <v>0.144467</v>
+        <v>0.144668</v>
       </c>
       <c r="F138" t="n">
-        <v>0.273216</v>
+        <v>0.275685</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169685</v>
+        <v>0.169982</v>
       </c>
       <c r="C139" t="n">
-        <v>0.30715</v>
+        <v>0.308131</v>
       </c>
       <c r="D139" t="n">
-        <v>0.290098</v>
+        <v>0.296636</v>
       </c>
       <c r="E139" t="n">
-        <v>0.142016</v>
+        <v>0.142162</v>
       </c>
       <c r="F139" t="n">
-        <v>0.271005</v>
+        <v>0.273348</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164652</v>
+        <v>0.164961</v>
       </c>
       <c r="C140" t="n">
-        <v>0.305051</v>
+        <v>0.305749</v>
       </c>
       <c r="D140" t="n">
-        <v>0.290744</v>
+        <v>0.297433</v>
       </c>
       <c r="E140" t="n">
-        <v>0.139564</v>
+        <v>0.139981</v>
       </c>
       <c r="F140" t="n">
-        <v>0.268865</v>
+        <v>0.271336</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159671</v>
+        <v>0.159806</v>
       </c>
       <c r="C141" t="n">
-        <v>0.302982</v>
+        <v>0.302966</v>
       </c>
       <c r="D141" t="n">
-        <v>0.292635</v>
+        <v>0.298784</v>
       </c>
       <c r="E141" t="n">
-        <v>0.137119</v>
+        <v>0.137776</v>
       </c>
       <c r="F141" t="n">
-        <v>0.266413</v>
+        <v>0.268327</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154491</v>
+        <v>0.154467</v>
       </c>
       <c r="C142" t="n">
-        <v>0.299983</v>
+        <v>0.300577</v>
       </c>
       <c r="D142" t="n">
-        <v>0.292995</v>
+        <v>0.300494</v>
       </c>
       <c r="E142" t="n">
-        <v>0.134668</v>
+        <v>0.135409</v>
       </c>
       <c r="F142" t="n">
-        <v>0.263962</v>
+        <v>0.266511</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148911</v>
+        <v>0.149071</v>
       </c>
       <c r="C143" t="n">
-        <v>0.296971</v>
+        <v>0.297575</v>
       </c>
       <c r="D143" t="n">
-        <v>0.294333</v>
+        <v>0.302289</v>
       </c>
       <c r="E143" t="n">
-        <v>0.132418</v>
+        <v>0.133153</v>
       </c>
       <c r="F143" t="n">
-        <v>0.261819</v>
+        <v>0.264189</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0651327</v>
+        <v>0.07566589999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.270016</v>
+        <v>0.265037</v>
       </c>
       <c r="D2" t="n">
-        <v>0.269122</v>
+        <v>0.277393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0598037</v>
+        <v>0.0517961</v>
       </c>
       <c r="F2" t="n">
-        <v>0.231457</v>
+        <v>0.235947</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06405669999999999</v>
+        <v>0.0744271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.268263</v>
+        <v>0.264094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.271806</v>
+        <v>0.278262</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0590184</v>
+        <v>0.0510475</v>
       </c>
       <c r="F3" t="n">
-        <v>0.231587</v>
+        <v>0.237344</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0645578</v>
+        <v>0.07285560000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.267473</v>
+        <v>0.262674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.273978</v>
+        <v>0.281979</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0598765</v>
+        <v>0.0510198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.229032</v>
+        <v>0.23434</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0644726</v>
+        <v>0.0730411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.265268</v>
+        <v>0.260996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.277407</v>
+        <v>0.28479</v>
       </c>
       <c r="E5" t="n">
-        <v>0.058383</v>
+        <v>0.0499764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.230142</v>
+        <v>0.233106</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0642973</v>
+        <v>0.07164429999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.261504</v>
+        <v>0.258387</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277237</v>
+        <v>0.287081</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0599721</v>
+        <v>0.0490388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.228336</v>
+        <v>0.232607</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0649766</v>
+        <v>0.07095609999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.258438</v>
+        <v>0.255816</v>
       </c>
       <c r="D7" t="n">
-        <v>0.267931</v>
+        <v>0.275731</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0603388</v>
+        <v>0.0504089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.227932</v>
+        <v>0.231547</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0658528</v>
+        <v>0.0700636</v>
       </c>
       <c r="C8" t="n">
-        <v>0.251095</v>
+        <v>0.249715</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270509</v>
+        <v>0.276182</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0595168</v>
+        <v>0.0497772</v>
       </c>
       <c r="F8" t="n">
-        <v>0.227805</v>
+        <v>0.230471</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0663685</v>
+        <v>0.070252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.246108</v>
+        <v>0.24394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271106</v>
+        <v>0.276733</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0966447</v>
+        <v>0.07907649999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.252064</v>
+        <v>0.254892</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0930277</v>
+        <v>0.128934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.291835</v>
+        <v>0.284747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.273533</v>
+        <v>0.281649</v>
       </c>
       <c r="E10" t="n">
-        <v>0.101917</v>
+        <v>0.07754759999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.252052</v>
+        <v>0.254183</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0964617</v>
+        <v>0.126407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.289252</v>
+        <v>0.284073</v>
       </c>
       <c r="D11" t="n">
-        <v>0.275614</v>
+        <v>0.281829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.102983</v>
+        <v>0.0834405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.250728</v>
+        <v>0.252455</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09597360000000001</v>
+        <v>0.126359</v>
       </c>
       <c r="C12" t="n">
-        <v>0.288471</v>
+        <v>0.28557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.279468</v>
+        <v>0.283786</v>
       </c>
       <c r="E12" t="n">
-        <v>0.102721</v>
+        <v>0.08572920000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.248886</v>
+        <v>0.250639</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0941477</v>
+        <v>0.124661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.287284</v>
+        <v>0.283893</v>
       </c>
       <c r="D13" t="n">
-        <v>0.279173</v>
+        <v>0.285375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.105649</v>
+        <v>0.084689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.248146</v>
+        <v>0.249334</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0932432</v>
+        <v>0.120148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.286684</v>
+        <v>0.280862</v>
       </c>
       <c r="D14" t="n">
-        <v>0.281023</v>
+        <v>0.286591</v>
       </c>
       <c r="E14" t="n">
-        <v>0.101502</v>
+        <v>0.0848187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.246313</v>
+        <v>0.247638</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.092248</v>
+        <v>0.118237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.284842</v>
+        <v>0.281816</v>
       </c>
       <c r="D15" t="n">
-        <v>0.282307</v>
+        <v>0.288028</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0994531</v>
+        <v>0.08775910000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.244563</v>
+        <v>0.246392</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0924278</v>
+        <v>0.116324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.283869</v>
+        <v>0.27974</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284777</v>
+        <v>0.288804</v>
       </c>
       <c r="E16" t="n">
-        <v>0.105479</v>
+        <v>0.0954116</v>
       </c>
       <c r="F16" t="n">
-        <v>0.243233</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0908075</v>
+        <v>0.113173</v>
       </c>
       <c r="C17" t="n">
-        <v>0.281256</v>
+        <v>0.277768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284256</v>
+        <v>0.288945</v>
       </c>
       <c r="E17" t="n">
-        <v>0.09870710000000001</v>
+        <v>0.0872054</v>
       </c>
       <c r="F17" t="n">
-        <v>0.241166</v>
+        <v>0.24298</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08987249999999999</v>
+        <v>0.108235</v>
       </c>
       <c r="C18" t="n">
-        <v>0.277753</v>
+        <v>0.275625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.285907</v>
+        <v>0.290266</v>
       </c>
       <c r="E18" t="n">
-        <v>0.103536</v>
+        <v>0.0841571</v>
       </c>
       <c r="F18" t="n">
-        <v>0.240276</v>
+        <v>0.242818</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0881098</v>
+        <v>0.102912</v>
       </c>
       <c r="C19" t="n">
-        <v>0.274013</v>
+        <v>0.272013</v>
       </c>
       <c r="D19" t="n">
-        <v>0.286297</v>
+        <v>0.291459</v>
       </c>
       <c r="E19" t="n">
-        <v>0.093512</v>
+        <v>0.08250349999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.239149</v>
+        <v>0.240859</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.086116</v>
+        <v>0.100102</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268896</v>
+        <v>0.268418</v>
       </c>
       <c r="D20" t="n">
-        <v>0.288054</v>
+        <v>0.292853</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0934585</v>
+        <v>0.0872033</v>
       </c>
       <c r="F20" t="n">
-        <v>0.238467</v>
+        <v>0.24074</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08483309999999999</v>
+        <v>0.09559960000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.262389</v>
+        <v>0.264789</v>
       </c>
       <c r="D21" t="n">
-        <v>0.279041</v>
+        <v>0.281613</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0922958</v>
+        <v>0.0803712</v>
       </c>
       <c r="F21" t="n">
-        <v>0.236392</v>
+        <v>0.23833</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08334759999999999</v>
+        <v>0.0907676</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259652</v>
+        <v>0.259059</v>
       </c>
       <c r="D22" t="n">
-        <v>0.28003</v>
+        <v>0.282956</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0902324</v>
+        <v>0.0794559</v>
       </c>
       <c r="F22" t="n">
-        <v>0.235778</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0818446</v>
+        <v>0.0877701</v>
       </c>
       <c r="C23" t="n">
-        <v>0.252863</v>
+        <v>0.250373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.280457</v>
+        <v>0.282956</v>
       </c>
       <c r="E23" t="n">
-        <v>0.118999</v>
+        <v>0.110321</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26218</v>
+        <v>0.26448</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.138509</v>
+        <v>0.154266</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3019</v>
+        <v>0.297563</v>
       </c>
       <c r="D24" t="n">
-        <v>0.282603</v>
+        <v>0.284388</v>
       </c>
       <c r="E24" t="n">
-        <v>0.117153</v>
+        <v>0.108923</v>
       </c>
       <c r="F24" t="n">
-        <v>0.261731</v>
+        <v>0.263545</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.135386</v>
+        <v>0.151241</v>
       </c>
       <c r="C25" t="n">
-        <v>0.300277</v>
+        <v>0.297764</v>
       </c>
       <c r="D25" t="n">
-        <v>0.280888</v>
+        <v>0.286399</v>
       </c>
       <c r="E25" t="n">
-        <v>0.119086</v>
+        <v>0.108662</v>
       </c>
       <c r="F25" t="n">
-        <v>0.260679</v>
+        <v>0.261689</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.132415</v>
+        <v>0.147867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.297642</v>
+        <v>0.296221</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284197</v>
+        <v>0.286417</v>
       </c>
       <c r="E26" t="n">
-        <v>0.116251</v>
+        <v>0.108286</v>
       </c>
       <c r="F26" t="n">
-        <v>0.25748</v>
+        <v>0.259789</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.12839</v>
+        <v>0.143794</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294281</v>
+        <v>0.294239</v>
       </c>
       <c r="D27" t="n">
-        <v>0.284177</v>
+        <v>0.287997</v>
       </c>
       <c r="E27" t="n">
-        <v>0.113676</v>
+        <v>0.109965</v>
       </c>
       <c r="F27" t="n">
-        <v>0.255831</v>
+        <v>0.25749</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126148</v>
+        <v>0.139126</v>
       </c>
       <c r="C28" t="n">
-        <v>0.293087</v>
+        <v>0.291752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.28633</v>
+        <v>0.288743</v>
       </c>
       <c r="E28" t="n">
-        <v>0.113058</v>
+        <v>0.108633</v>
       </c>
       <c r="F28" t="n">
-        <v>0.254559</v>
+        <v>0.255212</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122737</v>
+        <v>0.134264</v>
       </c>
       <c r="C29" t="n">
-        <v>0.291781</v>
+        <v>0.289198</v>
       </c>
       <c r="D29" t="n">
-        <v>0.288475</v>
+        <v>0.290801</v>
       </c>
       <c r="E29" t="n">
-        <v>0.11157</v>
+        <v>0.107339</v>
       </c>
       <c r="F29" t="n">
-        <v>0.254156</v>
+        <v>0.25483</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11977</v>
+        <v>0.130765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.289413</v>
+        <v>0.286555</v>
       </c>
       <c r="D30" t="n">
-        <v>0.288308</v>
+        <v>0.292231</v>
       </c>
       <c r="E30" t="n">
-        <v>0.109728</v>
+        <v>0.107082</v>
       </c>
       <c r="F30" t="n">
-        <v>0.250904</v>
+        <v>0.252346</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.116481</v>
+        <v>0.126547</v>
       </c>
       <c r="C31" t="n">
-        <v>0.286357</v>
+        <v>0.284103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.290121</v>
+        <v>0.293913</v>
       </c>
       <c r="E31" t="n">
-        <v>0.109633</v>
+        <v>0.104187</v>
       </c>
       <c r="F31" t="n">
-        <v>0.250209</v>
+        <v>0.25087</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.112917</v>
+        <v>0.12176</v>
       </c>
       <c r="C32" t="n">
-        <v>0.283027</v>
+        <v>0.280975</v>
       </c>
       <c r="D32" t="n">
-        <v>0.290928</v>
+        <v>0.294241</v>
       </c>
       <c r="E32" t="n">
-        <v>0.107105</v>
+        <v>0.103833</v>
       </c>
       <c r="F32" t="n">
-        <v>0.248484</v>
+        <v>0.248741</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.109897</v>
+        <v>0.117031</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279402</v>
+        <v>0.279214</v>
       </c>
       <c r="D33" t="n">
-        <v>0.293342</v>
+        <v>0.294387</v>
       </c>
       <c r="E33" t="n">
-        <v>0.106229</v>
+        <v>0.102641</v>
       </c>
       <c r="F33" t="n">
-        <v>0.246482</v>
+        <v>0.24676</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.105001</v>
+        <v>0.112061</v>
       </c>
       <c r="C34" t="n">
-        <v>0.275159</v>
+        <v>0.273591</v>
       </c>
       <c r="D34" t="n">
-        <v>0.293968</v>
+        <v>0.296</v>
       </c>
       <c r="E34" t="n">
-        <v>0.104226</v>
+        <v>0.101054</v>
       </c>
       <c r="F34" t="n">
-        <v>0.244817</v>
+        <v>0.244958</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.100546</v>
+        <v>0.107147</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268599</v>
+        <v>0.270143</v>
       </c>
       <c r="D35" t="n">
-        <v>0.283865</v>
+        <v>0.284785</v>
       </c>
       <c r="E35" t="n">
-        <v>0.10153</v>
+        <v>0.09892090000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.243055</v>
+        <v>0.24296</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0955652</v>
+        <v>0.101906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.266581</v>
+        <v>0.264085</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284211</v>
+        <v>0.285025</v>
       </c>
       <c r="E36" t="n">
-        <v>0.100436</v>
+        <v>0.09690310000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.240568</v>
+        <v>0.240752</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0913852</v>
+        <v>0.0961991</v>
       </c>
       <c r="C37" t="n">
-        <v>0.260007</v>
+        <v>0.257091</v>
       </c>
       <c r="D37" t="n">
-        <v>0.284707</v>
+        <v>0.28611</v>
       </c>
       <c r="E37" t="n">
-        <v>0.130582</v>
+        <v>0.129295</v>
       </c>
       <c r="F37" t="n">
-        <v>0.269852</v>
+        <v>0.270307</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.156003</v>
+        <v>0.161581</v>
       </c>
       <c r="C38" t="n">
-        <v>0.304767</v>
+        <v>0.303906</v>
       </c>
       <c r="D38" t="n">
-        <v>0.286061</v>
+        <v>0.287231</v>
       </c>
       <c r="E38" t="n">
-        <v>0.12925</v>
+        <v>0.125742</v>
       </c>
       <c r="F38" t="n">
-        <v>0.267846</v>
+        <v>0.267727</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.152275</v>
+        <v>0.15859</v>
       </c>
       <c r="C39" t="n">
-        <v>0.30257</v>
+        <v>0.302573</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286897</v>
+        <v>0.288455</v>
       </c>
       <c r="E39" t="n">
-        <v>0.126991</v>
+        <v>0.124221</v>
       </c>
       <c r="F39" t="n">
-        <v>0.265325</v>
+        <v>0.26557</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.149098</v>
+        <v>0.154906</v>
       </c>
       <c r="C40" t="n">
-        <v>0.302</v>
+        <v>0.299207</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288534</v>
+        <v>0.289437</v>
       </c>
       <c r="E40" t="n">
-        <v>0.124397</v>
+        <v>0.123628</v>
       </c>
       <c r="F40" t="n">
-        <v>0.263782</v>
+        <v>0.263224</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.145248</v>
+        <v>0.150288</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298126</v>
+        <v>0.298709</v>
       </c>
       <c r="D41" t="n">
-        <v>0.289816</v>
+        <v>0.290693</v>
       </c>
       <c r="E41" t="n">
-        <v>0.123117</v>
+        <v>0.122561</v>
       </c>
       <c r="F41" t="n">
-        <v>0.261752</v>
+        <v>0.261207</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.141046</v>
+        <v>0.145954</v>
       </c>
       <c r="C42" t="n">
-        <v>0.297612</v>
+        <v>0.296609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.290563</v>
+        <v>0.291787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.122277</v>
+        <v>0.119458</v>
       </c>
       <c r="F42" t="n">
-        <v>0.259285</v>
+        <v>0.259323</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.137101</v>
+        <v>0.141334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.295163</v>
+        <v>0.292909</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291283</v>
+        <v>0.292135</v>
       </c>
       <c r="E43" t="n">
-        <v>0.120024</v>
+        <v>0.1181</v>
       </c>
       <c r="F43" t="n">
-        <v>0.257708</v>
+        <v>0.256807</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.132648</v>
+        <v>0.136232</v>
       </c>
       <c r="C44" t="n">
-        <v>0.292944</v>
+        <v>0.291965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.292909</v>
+        <v>0.294774</v>
       </c>
       <c r="E44" t="n">
-        <v>0.116867</v>
+        <v>0.115038</v>
       </c>
       <c r="F44" t="n">
-        <v>0.25564</v>
+        <v>0.255096</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.127975</v>
+        <v>0.131577</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285851</v>
+        <v>0.288436</v>
       </c>
       <c r="D45" t="n">
-        <v>0.294061</v>
+        <v>0.295341</v>
       </c>
       <c r="E45" t="n">
-        <v>0.115941</v>
+        <v>0.11474</v>
       </c>
       <c r="F45" t="n">
-        <v>0.253517</v>
+        <v>0.252473</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.12359</v>
+        <v>0.126361</v>
       </c>
       <c r="C46" t="n">
-        <v>0.286444</v>
+        <v>0.284777</v>
       </c>
       <c r="D46" t="n">
-        <v>0.294653</v>
+        <v>0.295862</v>
       </c>
       <c r="E46" t="n">
-        <v>0.114564</v>
+        <v>0.113321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.251296</v>
+        <v>0.250635</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1192</v>
+        <v>0.121769</v>
       </c>
       <c r="C47" t="n">
-        <v>0.283492</v>
+        <v>0.2813</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294633</v>
+        <v>0.296412</v>
       </c>
       <c r="E47" t="n">
-        <v>0.112724</v>
+        <v>0.111151</v>
       </c>
       <c r="F47" t="n">
-        <v>0.249825</v>
+        <v>0.248781</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.114516</v>
+        <v>0.116876</v>
       </c>
       <c r="C48" t="n">
-        <v>0.279693</v>
+        <v>0.277352</v>
       </c>
       <c r="D48" t="n">
-        <v>0.29534</v>
+        <v>0.29667</v>
       </c>
       <c r="E48" t="n">
-        <v>0.108778</v>
+        <v>0.109556</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2472</v>
+        <v>0.246009</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109496</v>
+        <v>0.111701</v>
       </c>
       <c r="C49" t="n">
-        <v>0.275187</v>
+        <v>0.273646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296771</v>
+        <v>0.297253</v>
       </c>
       <c r="E49" t="n">
-        <v>0.107735</v>
+        <v>0.107306</v>
       </c>
       <c r="F49" t="n">
-        <v>0.24542</v>
+        <v>0.244148</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104199</v>
+        <v>0.106622</v>
       </c>
       <c r="C50" t="n">
-        <v>0.270101</v>
+        <v>0.267749</v>
       </c>
       <c r="D50" t="n">
-        <v>0.286429</v>
+        <v>0.286059</v>
       </c>
       <c r="E50" t="n">
-        <v>0.104346</v>
+        <v>0.104266</v>
       </c>
       <c r="F50" t="n">
-        <v>0.243538</v>
+        <v>0.242146</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09874520000000001</v>
+        <v>0.101127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.261607</v>
+        <v>0.261043</v>
       </c>
       <c r="D51" t="n">
-        <v>0.287018</v>
+        <v>0.287829</v>
       </c>
       <c r="E51" t="n">
-        <v>0.136626</v>
+        <v>0.134127</v>
       </c>
       <c r="F51" t="n">
-        <v>0.27244</v>
+        <v>0.271631</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0935786</v>
+        <v>0.0955603</v>
       </c>
       <c r="C52" t="n">
-        <v>0.254047</v>
+        <v>0.251237</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287351</v>
+        <v>0.288473</v>
       </c>
       <c r="E52" t="n">
-        <v>0.133503</v>
+        <v>0.131431</v>
       </c>
       <c r="F52" t="n">
-        <v>0.269977</v>
+        <v>0.269368</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.159875</v>
+        <v>0.16182</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305658</v>
+        <v>0.30434</v>
       </c>
       <c r="D53" t="n">
-        <v>0.288884</v>
+        <v>0.290241</v>
       </c>
       <c r="E53" t="n">
-        <v>0.132378</v>
+        <v>0.13026</v>
       </c>
       <c r="F53" t="n">
-        <v>0.268359</v>
+        <v>0.267592</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156116</v>
+        <v>0.158186</v>
       </c>
       <c r="C54" t="n">
-        <v>0.301067</v>
+        <v>0.303383</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290339</v>
+        <v>0.290378</v>
       </c>
       <c r="E54" t="n">
-        <v>0.130647</v>
+        <v>0.128668</v>
       </c>
       <c r="F54" t="n">
-        <v>0.265908</v>
+        <v>0.265319</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151937</v>
+        <v>0.153786</v>
       </c>
       <c r="C55" t="n">
-        <v>0.301154</v>
+        <v>0.300366</v>
       </c>
       <c r="D55" t="n">
-        <v>0.291837</v>
+        <v>0.291765</v>
       </c>
       <c r="E55" t="n">
-        <v>0.128336</v>
+        <v>0.126674</v>
       </c>
       <c r="F55" t="n">
-        <v>0.263899</v>
+        <v>0.262647</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147164</v>
+        <v>0.149506</v>
       </c>
       <c r="C56" t="n">
-        <v>0.29957</v>
+        <v>0.298089</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293424</v>
+        <v>0.2936</v>
       </c>
       <c r="E56" t="n">
-        <v>0.127072</v>
+        <v>0.124517</v>
       </c>
       <c r="F56" t="n">
-        <v>0.262159</v>
+        <v>0.260881</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.143011</v>
+        <v>0.14429</v>
       </c>
       <c r="C57" t="n">
-        <v>0.296715</v>
+        <v>0.295004</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294001</v>
+        <v>0.294769</v>
       </c>
       <c r="E57" t="n">
-        <v>0.124981</v>
+        <v>0.122748</v>
       </c>
       <c r="F57" t="n">
-        <v>0.260082</v>
+        <v>0.258726</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.138044</v>
+        <v>0.139823</v>
       </c>
       <c r="C58" t="n">
-        <v>0.293673</v>
+        <v>0.29294</v>
       </c>
       <c r="D58" t="n">
-        <v>0.295396</v>
+        <v>0.296496</v>
       </c>
       <c r="E58" t="n">
-        <v>0.123128</v>
+        <v>0.121126</v>
       </c>
       <c r="F58" t="n">
-        <v>0.258349</v>
+        <v>0.25655</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133231</v>
+        <v>0.134463</v>
       </c>
       <c r="C59" t="n">
-        <v>0.290508</v>
+        <v>0.290879</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29643</v>
+        <v>0.297728</v>
       </c>
       <c r="E59" t="n">
-        <v>0.120371</v>
+        <v>0.119441</v>
       </c>
       <c r="F59" t="n">
-        <v>0.255987</v>
+        <v>0.254636</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128369</v>
+        <v>0.129173</v>
       </c>
       <c r="C60" t="n">
-        <v>0.286722</v>
+        <v>0.287947</v>
       </c>
       <c r="D60" t="n">
-        <v>0.297367</v>
+        <v>0.298624</v>
       </c>
       <c r="E60" t="n">
-        <v>0.118579</v>
+        <v>0.117738</v>
       </c>
       <c r="F60" t="n">
-        <v>0.254351</v>
+        <v>0.252445</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123353</v>
+        <v>0.123948</v>
       </c>
       <c r="C61" t="n">
-        <v>0.28519</v>
+        <v>0.28391</v>
       </c>
       <c r="D61" t="n">
-        <v>0.298702</v>
+        <v>0.299941</v>
       </c>
       <c r="E61" t="n">
-        <v>0.116773</v>
+        <v>0.115722</v>
       </c>
       <c r="F61" t="n">
-        <v>0.251936</v>
+        <v>0.250355</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118144</v>
+        <v>0.119088</v>
       </c>
       <c r="C62" t="n">
-        <v>0.281869</v>
+        <v>0.278851</v>
       </c>
       <c r="D62" t="n">
-        <v>0.299723</v>
+        <v>0.300344</v>
       </c>
       <c r="E62" t="n">
-        <v>0.113848</v>
+        <v>0.113618</v>
       </c>
       <c r="F62" t="n">
-        <v>0.249931</v>
+        <v>0.248252</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113119</v>
+        <v>0.113863</v>
       </c>
       <c r="C63" t="n">
-        <v>0.277046</v>
+        <v>0.275538</v>
       </c>
       <c r="D63" t="n">
-        <v>0.300534</v>
+        <v>0.30101</v>
       </c>
       <c r="E63" t="n">
-        <v>0.111714</v>
+        <v>0.111548</v>
       </c>
       <c r="F63" t="n">
-        <v>0.247787</v>
+        <v>0.246088</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108192</v>
+        <v>0.108907</v>
       </c>
       <c r="C64" t="n">
-        <v>0.271769</v>
+        <v>0.269899</v>
       </c>
       <c r="D64" t="n">
-        <v>0.293244</v>
+        <v>0.293621</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109464</v>
+        <v>0.108592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.245236</v>
+        <v>0.243608</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.103019</v>
+        <v>0.103809</v>
       </c>
       <c r="C65" t="n">
-        <v>0.266176</v>
+        <v>0.263997</v>
       </c>
       <c r="D65" t="n">
-        <v>0.294993</v>
+        <v>0.295356</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1063</v>
+        <v>0.106271</v>
       </c>
       <c r="F65" t="n">
-        <v>0.242934</v>
+        <v>0.241292</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.09767969999999999</v>
+        <v>0.0984505</v>
       </c>
       <c r="C66" t="n">
-        <v>0.257335</v>
+        <v>0.255762</v>
       </c>
       <c r="D66" t="n">
-        <v>0.297132</v>
+        <v>0.297178</v>
       </c>
       <c r="E66" t="n">
-        <v>0.136845</v>
+        <v>0.134742</v>
       </c>
       <c r="F66" t="n">
-        <v>0.272034</v>
+        <v>0.271121</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163666</v>
+        <v>0.164109</v>
       </c>
       <c r="C67" t="n">
-        <v>0.307541</v>
+        <v>0.307241</v>
       </c>
       <c r="D67" t="n">
-        <v>0.298812</v>
+        <v>0.299087</v>
       </c>
       <c r="E67" t="n">
-        <v>0.13495</v>
+        <v>0.133055</v>
       </c>
       <c r="F67" t="n">
-        <v>0.269655</v>
+        <v>0.268721</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159758</v>
+        <v>0.160294</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305252</v>
+        <v>0.305772</v>
       </c>
       <c r="D68" t="n">
-        <v>0.300621</v>
+        <v>0.301037</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1328</v>
+        <v>0.130816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.267875</v>
+        <v>0.266584</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155748</v>
+        <v>0.156217</v>
       </c>
       <c r="C69" t="n">
-        <v>0.303619</v>
+        <v>0.303109</v>
       </c>
       <c r="D69" t="n">
-        <v>0.302504</v>
+        <v>0.302808</v>
       </c>
       <c r="E69" t="n">
-        <v>0.13109</v>
+        <v>0.129022</v>
       </c>
       <c r="F69" t="n">
-        <v>0.265553</v>
+        <v>0.264174</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.15088</v>
+        <v>0.152068</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3006</v>
+        <v>0.300147</v>
       </c>
       <c r="D70" t="n">
-        <v>0.304639</v>
+        <v>0.305006</v>
       </c>
       <c r="E70" t="n">
-        <v>0.129219</v>
+        <v>0.12692</v>
       </c>
       <c r="F70" t="n">
-        <v>0.263745</v>
+        <v>0.262129</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146472</v>
+        <v>0.14736</v>
       </c>
       <c r="C71" t="n">
-        <v>0.298247</v>
+        <v>0.296926</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306841</v>
+        <v>0.307179</v>
       </c>
       <c r="E71" t="n">
-        <v>0.126712</v>
+        <v>0.125302</v>
       </c>
       <c r="F71" t="n">
-        <v>0.261126</v>
+        <v>0.259628</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141528</v>
+        <v>0.142008</v>
       </c>
       <c r="C72" t="n">
-        <v>0.295442</v>
+        <v>0.294732</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308663</v>
+        <v>0.309294</v>
       </c>
       <c r="E72" t="n">
-        <v>0.125127</v>
+        <v>0.123425</v>
       </c>
       <c r="F72" t="n">
-        <v>0.259522</v>
+        <v>0.257634</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136719</v>
+        <v>0.136643</v>
       </c>
       <c r="C73" t="n">
-        <v>0.294212</v>
+        <v>0.291194</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311191</v>
+        <v>0.312574</v>
       </c>
       <c r="E73" t="n">
-        <v>0.12354</v>
+        <v>0.121455</v>
       </c>
       <c r="F73" t="n">
-        <v>0.257423</v>
+        <v>0.255415</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131247</v>
+        <v>0.131307</v>
       </c>
       <c r="C74" t="n">
-        <v>0.290312</v>
+        <v>0.289557</v>
       </c>
       <c r="D74" t="n">
-        <v>0.307434</v>
+        <v>0.314562</v>
       </c>
       <c r="E74" t="n">
-        <v>0.120643</v>
+        <v>0.119404</v>
       </c>
       <c r="F74" t="n">
-        <v>0.255184</v>
+        <v>0.25344</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126019</v>
+        <v>0.126473</v>
       </c>
       <c r="C75" t="n">
-        <v>0.286466</v>
+        <v>0.2842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3099</v>
+        <v>0.316219</v>
       </c>
       <c r="E75" t="n">
-        <v>0.118428</v>
+        <v>0.117516</v>
       </c>
       <c r="F75" t="n">
-        <v>0.252696</v>
+        <v>0.251399</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120535</v>
+        <v>0.121157</v>
       </c>
       <c r="C76" t="n">
-        <v>0.283576</v>
+        <v>0.282377</v>
       </c>
       <c r="D76" t="n">
-        <v>0.312926</v>
+        <v>0.317928</v>
       </c>
       <c r="E76" t="n">
-        <v>0.116093</v>
+        <v>0.11522</v>
       </c>
       <c r="F76" t="n">
-        <v>0.250837</v>
+        <v>0.249131</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115679</v>
+        <v>0.116015</v>
       </c>
       <c r="C77" t="n">
-        <v>0.279799</v>
+        <v>0.277332</v>
       </c>
       <c r="D77" t="n">
-        <v>0.315629</v>
+        <v>0.31993</v>
       </c>
       <c r="E77" t="n">
-        <v>0.113875</v>
+        <v>0.113166</v>
       </c>
       <c r="F77" t="n">
-        <v>0.248653</v>
+        <v>0.246891</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110403</v>
+        <v>0.110973</v>
       </c>
       <c r="C78" t="n">
-        <v>0.275735</v>
+        <v>0.274981</v>
       </c>
       <c r="D78" t="n">
-        <v>0.308419</v>
+        <v>0.310574</v>
       </c>
       <c r="E78" t="n">
-        <v>0.110925</v>
+        <v>0.1108</v>
       </c>
       <c r="F78" t="n">
-        <v>0.246451</v>
+        <v>0.244919</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105202</v>
+        <v>0.105662</v>
       </c>
       <c r="C79" t="n">
-        <v>0.271153</v>
+        <v>0.26952</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309187</v>
+        <v>0.311647</v>
       </c>
       <c r="E79" t="n">
-        <v>0.108316</v>
+        <v>0.10846</v>
       </c>
       <c r="F79" t="n">
-        <v>0.243948</v>
+        <v>0.242503</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0999703</v>
+        <v>0.100524</v>
       </c>
       <c r="C80" t="n">
-        <v>0.262496</v>
+        <v>0.259768</v>
       </c>
       <c r="D80" t="n">
-        <v>0.31059</v>
+        <v>0.313044</v>
       </c>
       <c r="E80" t="n">
-        <v>0.137953</v>
+        <v>0.136651</v>
       </c>
       <c r="F80" t="n">
-        <v>0.272457</v>
+        <v>0.272009</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164933</v>
+        <v>0.164012</v>
       </c>
       <c r="C81" t="n">
-        <v>0.308484</v>
+        <v>0.31215</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312515</v>
+        <v>0.313855</v>
       </c>
       <c r="E81" t="n">
-        <v>0.135664</v>
+        <v>0.134419</v>
       </c>
       <c r="F81" t="n">
-        <v>0.270432</v>
+        <v>0.269985</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.161218</v>
+        <v>0.160269</v>
       </c>
       <c r="C82" t="n">
-        <v>0.306509</v>
+        <v>0.309601</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31392</v>
+        <v>0.314611</v>
       </c>
       <c r="E82" t="n">
-        <v>0.133594</v>
+        <v>0.132314</v>
       </c>
       <c r="F82" t="n">
-        <v>0.268603</v>
+        <v>0.267507</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.157188</v>
+        <v>0.156307</v>
       </c>
       <c r="C83" t="n">
-        <v>0.304257</v>
+        <v>0.307279</v>
       </c>
       <c r="D83" t="n">
-        <v>0.313174</v>
+        <v>0.315382</v>
       </c>
       <c r="E83" t="n">
-        <v>0.132014</v>
+        <v>0.130301</v>
       </c>
       <c r="F83" t="n">
-        <v>0.266311</v>
+        <v>0.265295</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151867</v>
+        <v>0.151612</v>
       </c>
       <c r="C84" t="n">
-        <v>0.302483</v>
+        <v>0.303784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315701</v>
+        <v>0.317147</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1299</v>
+        <v>0.128464</v>
       </c>
       <c r="F84" t="n">
-        <v>0.264278</v>
+        <v>0.263074</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147319</v>
+        <v>0.147287</v>
       </c>
       <c r="C85" t="n">
-        <v>0.299551</v>
+        <v>0.301546</v>
       </c>
       <c r="D85" t="n">
-        <v>0.318428</v>
+        <v>0.31945</v>
       </c>
       <c r="E85" t="n">
-        <v>0.128107</v>
+        <v>0.126472</v>
       </c>
       <c r="F85" t="n">
-        <v>0.262249</v>
+        <v>0.261063</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142071</v>
+        <v>0.141635</v>
       </c>
       <c r="C86" t="n">
-        <v>0.296767</v>
+        <v>0.298728</v>
       </c>
       <c r="D86" t="n">
-        <v>0.320466</v>
+        <v>0.321693</v>
       </c>
       <c r="E86" t="n">
-        <v>0.126039</v>
+        <v>0.124522</v>
       </c>
       <c r="F86" t="n">
-        <v>0.26012</v>
+        <v>0.258947</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136991</v>
+        <v>0.136693</v>
       </c>
       <c r="C87" t="n">
-        <v>0.292601</v>
+        <v>0.295031</v>
       </c>
       <c r="D87" t="n">
-        <v>0.323424</v>
+        <v>0.323865</v>
       </c>
       <c r="E87" t="n">
-        <v>0.124122</v>
+        <v>0.122679</v>
       </c>
       <c r="F87" t="n">
-        <v>0.257978</v>
+        <v>0.256849</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131814</v>
+        <v>0.131516</v>
       </c>
       <c r="C88" t="n">
-        <v>0.289654</v>
+        <v>0.290148</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325377</v>
+        <v>0.325188</v>
       </c>
       <c r="E88" t="n">
-        <v>0.121807</v>
+        <v>0.120509</v>
       </c>
       <c r="F88" t="n">
-        <v>0.255833</v>
+        <v>0.254091</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126734</v>
+        <v>0.126158</v>
       </c>
       <c r="C89" t="n">
-        <v>0.286266</v>
+        <v>0.285941</v>
       </c>
       <c r="D89" t="n">
-        <v>0.317416</v>
+        <v>0.326592</v>
       </c>
       <c r="E89" t="n">
-        <v>0.119725</v>
+        <v>0.118671</v>
       </c>
       <c r="F89" t="n">
-        <v>0.253451</v>
+        <v>0.252276</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121429</v>
+        <v>0.121262</v>
       </c>
       <c r="C90" t="n">
-        <v>0.28236</v>
+        <v>0.283006</v>
       </c>
       <c r="D90" t="n">
-        <v>0.320222</v>
+        <v>0.327878</v>
       </c>
       <c r="E90" t="n">
-        <v>0.117296</v>
+        <v>0.116714</v>
       </c>
       <c r="F90" t="n">
-        <v>0.251358</v>
+        <v>0.250186</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116339</v>
+        <v>0.11601</v>
       </c>
       <c r="C91" t="n">
-        <v>0.278478</v>
+        <v>0.278086</v>
       </c>
       <c r="D91" t="n">
-        <v>0.32205</v>
+        <v>0.329253</v>
       </c>
       <c r="E91" t="n">
-        <v>0.114695</v>
+        <v>0.114276</v>
       </c>
       <c r="F91" t="n">
-        <v>0.249393</v>
+        <v>0.248074</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111181</v>
+        <v>0.111142</v>
       </c>
       <c r="C92" t="n">
-        <v>0.273248</v>
+        <v>0.273552</v>
       </c>
       <c r="D92" t="n">
-        <v>0.293872</v>
+        <v>0.298212</v>
       </c>
       <c r="E92" t="n">
-        <v>0.112133</v>
+        <v>0.111982</v>
       </c>
       <c r="F92" t="n">
-        <v>0.246656</v>
+        <v>0.245857</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.105906</v>
+        <v>0.105907</v>
       </c>
       <c r="C93" t="n">
-        <v>0.26824</v>
+        <v>0.26794</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294631</v>
+        <v>0.299809</v>
       </c>
       <c r="E93" t="n">
-        <v>0.109374</v>
+        <v>0.109521</v>
       </c>
       <c r="F93" t="n">
-        <v>0.244721</v>
+        <v>0.243474</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100827</v>
+        <v>0.100864</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261644</v>
+        <v>0.261305</v>
       </c>
       <c r="D94" t="n">
-        <v>0.296542</v>
+        <v>0.301526</v>
       </c>
       <c r="E94" t="n">
-        <v>0.138754</v>
+        <v>0.136928</v>
       </c>
       <c r="F94" t="n">
-        <v>0.273314</v>
+        <v>0.27302</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165467</v>
+        <v>0.165901</v>
       </c>
       <c r="C95" t="n">
-        <v>0.312597</v>
+        <v>0.318598</v>
       </c>
       <c r="D95" t="n">
-        <v>0.297908</v>
+        <v>0.303013</v>
       </c>
       <c r="E95" t="n">
-        <v>0.136217</v>
+        <v>0.13478</v>
       </c>
       <c r="F95" t="n">
-        <v>0.27079</v>
+        <v>0.270589</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162029</v>
+        <v>0.162095</v>
       </c>
       <c r="C96" t="n">
-        <v>0.311615</v>
+        <v>0.315992</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300825</v>
+        <v>0.30461</v>
       </c>
       <c r="E96" t="n">
-        <v>0.134219</v>
+        <v>0.133059</v>
       </c>
       <c r="F96" t="n">
-        <v>0.268732</v>
+        <v>0.268208</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157931</v>
+        <v>0.157525</v>
       </c>
       <c r="C97" t="n">
-        <v>0.310536</v>
+        <v>0.314831</v>
       </c>
       <c r="D97" t="n">
-        <v>0.297538</v>
+        <v>0.305087</v>
       </c>
       <c r="E97" t="n">
-        <v>0.13271</v>
+        <v>0.13097</v>
       </c>
       <c r="F97" t="n">
-        <v>0.266986</v>
+        <v>0.266162</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153129</v>
+        <v>0.152733</v>
       </c>
       <c r="C98" t="n">
-        <v>0.307616</v>
+        <v>0.311266</v>
       </c>
       <c r="D98" t="n">
-        <v>0.299019</v>
+        <v>0.307013</v>
       </c>
       <c r="E98" t="n">
-        <v>0.13079</v>
+        <v>0.128996</v>
       </c>
       <c r="F98" t="n">
-        <v>0.264635</v>
+        <v>0.263806</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148811</v>
+        <v>0.147755</v>
       </c>
       <c r="C99" t="n">
-        <v>0.305086</v>
+        <v>0.308945</v>
       </c>
       <c r="D99" t="n">
-        <v>0.301717</v>
+        <v>0.309718</v>
       </c>
       <c r="E99" t="n">
-        <v>0.128919</v>
+        <v>0.127231</v>
       </c>
       <c r="F99" t="n">
-        <v>0.26245</v>
+        <v>0.261605</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143766</v>
+        <v>0.14292</v>
       </c>
       <c r="C100" t="n">
-        <v>0.302175</v>
+        <v>0.306602</v>
       </c>
       <c r="D100" t="n">
-        <v>0.304625</v>
+        <v>0.312232</v>
       </c>
       <c r="E100" t="n">
-        <v>0.127052</v>
+        <v>0.125312</v>
       </c>
       <c r="F100" t="n">
-        <v>0.260476</v>
+        <v>0.259502</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138189</v>
+        <v>0.138092</v>
       </c>
       <c r="C101" t="n">
-        <v>0.299308</v>
+        <v>0.304406</v>
       </c>
       <c r="D101" t="n">
-        <v>0.306769</v>
+        <v>0.315618</v>
       </c>
       <c r="E101" t="n">
-        <v>0.12487</v>
+        <v>0.123403</v>
       </c>
       <c r="F101" t="n">
-        <v>0.258424</v>
+        <v>0.257409</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132791</v>
+        <v>0.132768</v>
       </c>
       <c r="C102" t="n">
-        <v>0.296839</v>
+        <v>0.299591</v>
       </c>
       <c r="D102" t="n">
-        <v>0.309463</v>
+        <v>0.317466</v>
       </c>
       <c r="E102" t="n">
-        <v>0.122845</v>
+        <v>0.121488</v>
       </c>
       <c r="F102" t="n">
-        <v>0.256364</v>
+        <v>0.255326</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127931</v>
+        <v>0.127643</v>
       </c>
       <c r="C103" t="n">
-        <v>0.293274</v>
+        <v>0.297255</v>
       </c>
       <c r="D103" t="n">
-        <v>0.307234</v>
+        <v>0.319124</v>
       </c>
       <c r="E103" t="n">
-        <v>0.120576</v>
+        <v>0.119346</v>
       </c>
       <c r="F103" t="n">
-        <v>0.254102</v>
+        <v>0.253187</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122532</v>
+        <v>0.122603</v>
       </c>
       <c r="C104" t="n">
-        <v>0.290194</v>
+        <v>0.291648</v>
       </c>
       <c r="D104" t="n">
-        <v>0.309537</v>
+        <v>0.320113</v>
       </c>
       <c r="E104" t="n">
-        <v>0.118118</v>
+        <v>0.117313</v>
       </c>
       <c r="F104" t="n">
-        <v>0.251909</v>
+        <v>0.25082</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117511</v>
+        <v>0.117375</v>
       </c>
       <c r="C105" t="n">
-        <v>0.286435</v>
+        <v>0.288639</v>
       </c>
       <c r="D105" t="n">
-        <v>0.311427</v>
+        <v>0.321835</v>
       </c>
       <c r="E105" t="n">
-        <v>0.115634</v>
+        <v>0.115126</v>
       </c>
       <c r="F105" t="n">
-        <v>0.249292</v>
+        <v>0.247977</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112166</v>
+        <v>0.111851</v>
       </c>
       <c r="C106" t="n">
-        <v>0.281487</v>
+        <v>0.284404</v>
       </c>
       <c r="D106" t="n">
-        <v>0.313473</v>
+        <v>0.323224</v>
       </c>
       <c r="E106" t="n">
-        <v>0.113174</v>
+        <v>0.112826</v>
       </c>
       <c r="F106" t="n">
-        <v>0.247327</v>
+        <v>0.246338</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.106984</v>
+        <v>0.107127</v>
       </c>
       <c r="C107" t="n">
-        <v>0.276245</v>
+        <v>0.278438</v>
       </c>
       <c r="D107" t="n">
-        <v>0.290898</v>
+        <v>0.298133</v>
       </c>
       <c r="E107" t="n">
-        <v>0.110548</v>
+        <v>0.110404</v>
       </c>
       <c r="F107" t="n">
-        <v>0.245047</v>
+        <v>0.243975</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101802</v>
+        <v>0.102019</v>
       </c>
       <c r="C108" t="n">
-        <v>0.269896</v>
+        <v>0.271683</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292838</v>
+        <v>0.300409</v>
       </c>
       <c r="E108" t="n">
-        <v>0.139282</v>
+        <v>0.137976</v>
       </c>
       <c r="F108" t="n">
-        <v>0.274404</v>
+        <v>0.273369</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09666139999999999</v>
+        <v>0.0967882</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263844</v>
+        <v>0.265181</v>
       </c>
       <c r="D109" t="n">
-        <v>0.293953</v>
+        <v>0.301722</v>
       </c>
       <c r="E109" t="n">
-        <v>0.137003</v>
+        <v>0.135752</v>
       </c>
       <c r="F109" t="n">
-        <v>0.271641</v>
+        <v>0.271198</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162875</v>
+        <v>0.163006</v>
       </c>
       <c r="C110" t="n">
-        <v>0.303018</v>
+        <v>0.303552</v>
       </c>
       <c r="D110" t="n">
-        <v>0.295588</v>
+        <v>0.303213</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135176</v>
+        <v>0.133701</v>
       </c>
       <c r="F110" t="n">
-        <v>0.269428</v>
+        <v>0.268666</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158702</v>
+        <v>0.15893</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300245</v>
+        <v>0.301213</v>
       </c>
       <c r="D111" t="n">
-        <v>0.296293</v>
+        <v>0.304389</v>
       </c>
       <c r="E111" t="n">
-        <v>0.133247</v>
+        <v>0.131644</v>
       </c>
       <c r="F111" t="n">
-        <v>0.267489</v>
+        <v>0.266493</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154542</v>
+        <v>0.154401</v>
       </c>
       <c r="C112" t="n">
-        <v>0.29872</v>
+        <v>0.298948</v>
       </c>
       <c r="D112" t="n">
-        <v>0.296791</v>
+        <v>0.305642</v>
       </c>
       <c r="E112" t="n">
-        <v>0.131212</v>
+        <v>0.129652</v>
       </c>
       <c r="F112" t="n">
-        <v>0.265197</v>
+        <v>0.264269</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149436</v>
+        <v>0.149104</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295899</v>
+        <v>0.297239</v>
       </c>
       <c r="D113" t="n">
-        <v>0.299427</v>
+        <v>0.307983</v>
       </c>
       <c r="E113" t="n">
-        <v>0.129214</v>
+        <v>0.12763</v>
       </c>
       <c r="F113" t="n">
-        <v>0.263098</v>
+        <v>0.262132</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144627</v>
+        <v>0.144335</v>
       </c>
       <c r="C114" t="n">
-        <v>0.293671</v>
+        <v>0.293952</v>
       </c>
       <c r="D114" t="n">
-        <v>0.299904</v>
+        <v>0.31047</v>
       </c>
       <c r="E114" t="n">
-        <v>0.127218</v>
+        <v>0.125676</v>
       </c>
       <c r="F114" t="n">
-        <v>0.260944</v>
+        <v>0.260099</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13915</v>
+        <v>0.13929</v>
       </c>
       <c r="C115" t="n">
-        <v>0.290999</v>
+        <v>0.291138</v>
       </c>
       <c r="D115" t="n">
-        <v>0.302916</v>
+        <v>0.313993</v>
       </c>
       <c r="E115" t="n">
-        <v>0.125569</v>
+        <v>0.123743</v>
       </c>
       <c r="F115" t="n">
-        <v>0.258809</v>
+        <v>0.257985</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133928</v>
+        <v>0.134002</v>
       </c>
       <c r="C116" t="n">
-        <v>0.287767</v>
+        <v>0.287546</v>
       </c>
       <c r="D116" t="n">
-        <v>0.305679</v>
+        <v>0.316244</v>
       </c>
       <c r="E116" t="n">
-        <v>0.123533</v>
+        <v>0.121828</v>
       </c>
       <c r="F116" t="n">
-        <v>0.256895</v>
+        <v>0.255723</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128569</v>
+        <v>0.128762</v>
       </c>
       <c r="C117" t="n">
-        <v>0.284626</v>
+        <v>0.284144</v>
       </c>
       <c r="D117" t="n">
-        <v>0.305466</v>
+        <v>0.318157</v>
       </c>
       <c r="E117" t="n">
-        <v>0.121112</v>
+        <v>0.120081</v>
       </c>
       <c r="F117" t="n">
-        <v>0.254382</v>
+        <v>0.253668</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123592</v>
+        <v>0.123634</v>
       </c>
       <c r="C118" t="n">
-        <v>0.281362</v>
+        <v>0.281042</v>
       </c>
       <c r="D118" t="n">
-        <v>0.307282</v>
+        <v>0.319855</v>
       </c>
       <c r="E118" t="n">
-        <v>0.11894</v>
+        <v>0.117872</v>
       </c>
       <c r="F118" t="n">
-        <v>0.252372</v>
+        <v>0.251254</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118253</v>
+        <v>0.118512</v>
       </c>
       <c r="C119" t="n">
-        <v>0.277442</v>
+        <v>0.276483</v>
       </c>
       <c r="D119" t="n">
-        <v>0.308689</v>
+        <v>0.321002</v>
       </c>
       <c r="E119" t="n">
-        <v>0.116438</v>
+        <v>0.115677</v>
       </c>
       <c r="F119" t="n">
-        <v>0.250297</v>
+        <v>0.249175</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113268</v>
+        <v>0.113226</v>
       </c>
       <c r="C120" t="n">
-        <v>0.273045</v>
+        <v>0.272794</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310604</v>
+        <v>0.321897</v>
       </c>
       <c r="E120" t="n">
-        <v>0.113926</v>
+        <v>0.113199</v>
       </c>
       <c r="F120" t="n">
-        <v>0.247965</v>
+        <v>0.246609</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108005</v>
+        <v>0.108042</v>
       </c>
       <c r="C121" t="n">
-        <v>0.267746</v>
+        <v>0.267131</v>
       </c>
       <c r="D121" t="n">
-        <v>0.293129</v>
+        <v>0.300459</v>
       </c>
       <c r="E121" t="n">
-        <v>0.111203</v>
+        <v>0.111051</v>
       </c>
       <c r="F121" t="n">
-        <v>0.245291</v>
+        <v>0.244567</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102876</v>
+        <v>0.102974</v>
       </c>
       <c r="C122" t="n">
-        <v>0.261615</v>
+        <v>0.260443</v>
       </c>
       <c r="D122" t="n">
-        <v>0.29425</v>
+        <v>0.30213</v>
       </c>
       <c r="E122" t="n">
-        <v>0.10838</v>
+        <v>0.108531</v>
       </c>
       <c r="F122" t="n">
-        <v>0.243083</v>
+        <v>0.24225</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0977305</v>
+        <v>0.0978532</v>
       </c>
       <c r="C123" t="n">
-        <v>0.25425</v>
+        <v>0.252863</v>
       </c>
       <c r="D123" t="n">
-        <v>0.294692</v>
+        <v>0.303857</v>
       </c>
       <c r="E123" t="n">
-        <v>0.137685</v>
+        <v>0.136338</v>
       </c>
       <c r="F123" t="n">
-        <v>0.272383</v>
+        <v>0.271491</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173449</v>
+        <v>0.172828</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303373</v>
+        <v>0.303241</v>
       </c>
       <c r="D124" t="n">
-        <v>0.295662</v>
+        <v>0.305145</v>
       </c>
       <c r="E124" t="n">
-        <v>0.135692</v>
+        <v>0.134182</v>
       </c>
       <c r="F124" t="n">
-        <v>0.26976</v>
+        <v>0.269286</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.166905</v>
+        <v>0.168602</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300835</v>
+        <v>0.301209</v>
       </c>
       <c r="D125" t="n">
-        <v>0.296872</v>
+        <v>0.306002</v>
       </c>
       <c r="E125" t="n">
-        <v>0.13365</v>
+        <v>0.132217</v>
       </c>
       <c r="F125" t="n">
-        <v>0.267946</v>
+        <v>0.267259</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163759</v>
+        <v>0.163485</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299338</v>
+        <v>0.299074</v>
       </c>
       <c r="D126" t="n">
-        <v>0.298176</v>
+        <v>0.307455</v>
       </c>
       <c r="E126" t="n">
-        <v>0.131631</v>
+        <v>0.130182</v>
       </c>
       <c r="F126" t="n">
-        <v>0.265827</v>
+        <v>0.264864</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158469</v>
+        <v>0.158629</v>
       </c>
       <c r="C127" t="n">
-        <v>0.297113</v>
+        <v>0.29706</v>
       </c>
       <c r="D127" t="n">
-        <v>0.299154</v>
+        <v>0.309497</v>
       </c>
       <c r="E127" t="n">
-        <v>0.129779</v>
+        <v>0.128208</v>
       </c>
       <c r="F127" t="n">
-        <v>0.263906</v>
+        <v>0.26286</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153092</v>
+        <v>0.152991</v>
       </c>
       <c r="C128" t="n">
-        <v>0.294384</v>
+        <v>0.294302</v>
       </c>
       <c r="D128" t="n">
-        <v>0.301506</v>
+        <v>0.311965</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127849</v>
+        <v>0.126218</v>
       </c>
       <c r="F128" t="n">
-        <v>0.261558</v>
+        <v>0.260759</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147212</v>
+        <v>0.148107</v>
       </c>
       <c r="C129" t="n">
-        <v>0.291323</v>
+        <v>0.291462</v>
       </c>
       <c r="D129" t="n">
-        <v>0.303054</v>
+        <v>0.315315</v>
       </c>
       <c r="E129" t="n">
-        <v>0.125887</v>
+        <v>0.124331</v>
       </c>
       <c r="F129" t="n">
-        <v>0.259447</v>
+        <v>0.258614</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142321</v>
+        <v>0.14196</v>
       </c>
       <c r="C130" t="n">
-        <v>0.288341</v>
+        <v>0.288044</v>
       </c>
       <c r="D130" t="n">
-        <v>0.305436</v>
+        <v>0.318027</v>
       </c>
       <c r="E130" t="n">
-        <v>0.123789</v>
+        <v>0.122389</v>
       </c>
       <c r="F130" t="n">
-        <v>0.25718</v>
+        <v>0.256412</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136538</v>
+        <v>0.136625</v>
       </c>
       <c r="C131" t="n">
-        <v>0.285122</v>
+        <v>0.284803</v>
       </c>
       <c r="D131" t="n">
-        <v>0.30695</v>
+        <v>0.320512</v>
       </c>
       <c r="E131" t="n">
-        <v>0.121722</v>
+        <v>0.120439</v>
       </c>
       <c r="F131" t="n">
-        <v>0.255223</v>
+        <v>0.254131</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.130881</v>
+        <v>0.131079</v>
       </c>
       <c r="C132" t="n">
-        <v>0.282058</v>
+        <v>0.281091</v>
       </c>
       <c r="D132" t="n">
-        <v>0.308063</v>
+        <v>0.321214</v>
       </c>
       <c r="E132" t="n">
-        <v>0.119539</v>
+        <v>0.118494</v>
       </c>
       <c r="F132" t="n">
-        <v>0.253117</v>
+        <v>0.251882</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.125471</v>
+        <v>0.125489</v>
       </c>
       <c r="C133" t="n">
-        <v>0.278518</v>
+        <v>0.277957</v>
       </c>
       <c r="D133" t="n">
-        <v>0.309443</v>
+        <v>0.32109</v>
       </c>
       <c r="E133" t="n">
-        <v>0.117087</v>
+        <v>0.116023</v>
       </c>
       <c r="F133" t="n">
-        <v>0.250787</v>
+        <v>0.249636</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120051</v>
+        <v>0.120155</v>
       </c>
       <c r="C134" t="n">
-        <v>0.274051</v>
+        <v>0.272961</v>
       </c>
       <c r="D134" t="n">
-        <v>0.311724</v>
+        <v>0.323945</v>
       </c>
       <c r="E134" t="n">
-        <v>0.114498</v>
+        <v>0.114063</v>
       </c>
       <c r="F134" t="n">
-        <v>0.248402</v>
+        <v>0.247539</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114827</v>
+        <v>0.114774</v>
       </c>
       <c r="C135" t="n">
-        <v>0.268815</v>
+        <v>0.267972</v>
       </c>
       <c r="D135" t="n">
-        <v>0.292326</v>
+        <v>0.300521</v>
       </c>
       <c r="E135" t="n">
-        <v>0.11194</v>
+        <v>0.111686</v>
       </c>
       <c r="F135" t="n">
-        <v>0.246244</v>
+        <v>0.245167</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.10942</v>
+        <v>0.109414</v>
       </c>
       <c r="C136" t="n">
-        <v>0.263002</v>
+        <v>0.261577</v>
       </c>
       <c r="D136" t="n">
-        <v>0.293506</v>
+        <v>0.302291</v>
       </c>
       <c r="E136" t="n">
-        <v>0.109158</v>
+        <v>0.109132</v>
       </c>
       <c r="F136" t="n">
-        <v>0.243703</v>
+        <v>0.242851</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.10422</v>
+        <v>0.104025</v>
       </c>
       <c r="C137" t="n">
-        <v>0.255456</v>
+        <v>0.254228</v>
       </c>
       <c r="D137" t="n">
-        <v>0.294246</v>
+        <v>0.304016</v>
       </c>
       <c r="E137" t="n">
-        <v>0.146956</v>
+        <v>0.145668</v>
       </c>
       <c r="F137" t="n">
-        <v>0.278353</v>
+        <v>0.277018</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174305</v>
+        <v>0.17406</v>
       </c>
       <c r="C138" t="n">
-        <v>0.310212</v>
+        <v>0.309802</v>
       </c>
       <c r="D138" t="n">
-        <v>0.295655</v>
+        <v>0.305103</v>
       </c>
       <c r="E138" t="n">
-        <v>0.144668</v>
+        <v>0.143191</v>
       </c>
       <c r="F138" t="n">
-        <v>0.275685</v>
+        <v>0.274824</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169982</v>
+        <v>0.169527</v>
       </c>
       <c r="C139" t="n">
-        <v>0.308131</v>
+        <v>0.307748</v>
       </c>
       <c r="D139" t="n">
-        <v>0.296636</v>
+        <v>0.306258</v>
       </c>
       <c r="E139" t="n">
-        <v>0.142162</v>
+        <v>0.140739</v>
       </c>
       <c r="F139" t="n">
-        <v>0.273348</v>
+        <v>0.272458</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164961</v>
+        <v>0.164352</v>
       </c>
       <c r="C140" t="n">
-        <v>0.305749</v>
+        <v>0.305372</v>
       </c>
       <c r="D140" t="n">
-        <v>0.297433</v>
+        <v>0.307302</v>
       </c>
       <c r="E140" t="n">
-        <v>0.139981</v>
+        <v>0.138345</v>
       </c>
       <c r="F140" t="n">
-        <v>0.271336</v>
+        <v>0.270312</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159806</v>
+        <v>0.159215</v>
       </c>
       <c r="C141" t="n">
-        <v>0.302966</v>
+        <v>0.30283</v>
       </c>
       <c r="D141" t="n">
-        <v>0.298784</v>
+        <v>0.30904</v>
       </c>
       <c r="E141" t="n">
-        <v>0.137776</v>
+        <v>0.136018</v>
       </c>
       <c r="F141" t="n">
-        <v>0.268327</v>
+        <v>0.267701</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154467</v>
+        <v>0.154521</v>
       </c>
       <c r="C142" t="n">
-        <v>0.300577</v>
+        <v>0.300428</v>
       </c>
       <c r="D142" t="n">
-        <v>0.300494</v>
+        <v>0.311798</v>
       </c>
       <c r="E142" t="n">
-        <v>0.135409</v>
+        <v>0.133752</v>
       </c>
       <c r="F142" t="n">
-        <v>0.266511</v>
+        <v>0.265377</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.149071</v>
+        <v>0.148772</v>
       </c>
       <c r="C143" t="n">
-        <v>0.297575</v>
+        <v>0.297076</v>
       </c>
       <c r="D143" t="n">
-        <v>0.302289</v>
+        <v>0.314621</v>
       </c>
       <c r="E143" t="n">
-        <v>0.133153</v>
+        <v>0.131519</v>
       </c>
       <c r="F143" t="n">
-        <v>0.264189</v>
+        <v>0.263023</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0678889</v>
+        <v>0.0650391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.266684</v>
+        <v>0.268304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.266582</v>
+        <v>0.280676</v>
       </c>
       <c r="E2" t="n">
-        <v>0.162772</v>
+        <v>0.066221</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269683</v>
+        <v>0.236987</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06778240000000001</v>
+        <v>0.0647088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264386</v>
+        <v>0.265295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.269851</v>
+        <v>0.283623</v>
       </c>
       <c r="E3" t="n">
-        <v>0.162008</v>
+        <v>0.06789969999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.272456</v>
+        <v>0.237945</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.068311</v>
+        <v>0.0642325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261126</v>
+        <v>0.261927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.27226</v>
+        <v>0.285168</v>
       </c>
       <c r="E4" t="n">
-        <v>0.161849</v>
+        <v>0.06434380000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.271295</v>
+        <v>0.234984</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0687238</v>
+        <v>0.0643461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260236</v>
+        <v>0.259556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273551</v>
+        <v>0.285968</v>
       </c>
       <c r="E5" t="n">
-        <v>0.161806</v>
+        <v>0.06397170000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.272144</v>
+        <v>0.234725</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0676863</v>
+        <v>0.0648122</v>
       </c>
       <c r="C6" t="n">
-        <v>0.257556</v>
+        <v>0.25747</v>
       </c>
       <c r="D6" t="n">
-        <v>0.277587</v>
+        <v>0.286504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.161922</v>
+        <v>0.06273670000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.27135</v>
+        <v>0.233977</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0675906</v>
+        <v>0.0647742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255626</v>
+        <v>0.253974</v>
       </c>
       <c r="D7" t="n">
-        <v>0.266964</v>
+        <v>0.275717</v>
       </c>
       <c r="E7" t="n">
-        <v>0.161799</v>
+        <v>0.0624755</v>
       </c>
       <c r="F7" t="n">
-        <v>0.268732</v>
+        <v>0.233333</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0679681</v>
+        <v>0.0652044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.247444</v>
+        <v>0.248014</v>
       </c>
       <c r="D8" t="n">
-        <v>0.270519</v>
+        <v>0.277703</v>
       </c>
       <c r="E8" t="n">
-        <v>0.162036</v>
+        <v>0.0623434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.26981</v>
+        <v>0.231135</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0685611</v>
+        <v>0.06599869999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.244567</v>
+        <v>0.243723</v>
       </c>
       <c r="D9" t="n">
-        <v>0.271167</v>
+        <v>0.278378</v>
       </c>
       <c r="E9" t="n">
-        <v>0.168061</v>
+        <v>0.104391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.283224</v>
+        <v>0.258828</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.100876</v>
+        <v>0.0916073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.285303</v>
+        <v>0.289542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.272691</v>
+        <v>0.282362</v>
       </c>
       <c r="E10" t="n">
-        <v>0.171194</v>
+        <v>0.111455</v>
       </c>
       <c r="F10" t="n">
-        <v>0.280456</v>
+        <v>0.255356</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101372</v>
+        <v>0.0949261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.285578</v>
+        <v>0.287272</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274472</v>
+        <v>0.283534</v>
       </c>
       <c r="E11" t="n">
-        <v>0.170399</v>
+        <v>0.111981</v>
       </c>
       <c r="F11" t="n">
-        <v>0.276914</v>
+        <v>0.253822</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.101058</v>
+        <v>0.096229</v>
       </c>
       <c r="C12" t="n">
-        <v>0.284596</v>
+        <v>0.286785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.276475</v>
+        <v>0.285891</v>
       </c>
       <c r="E12" t="n">
-        <v>0.17077</v>
+        <v>0.109036</v>
       </c>
       <c r="F12" t="n">
-        <v>0.281486</v>
+        <v>0.251798</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997531</v>
+        <v>0.0933161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.28219</v>
+        <v>0.285363</v>
       </c>
       <c r="D13" t="n">
-        <v>0.280209</v>
+        <v>0.286741</v>
       </c>
       <c r="E13" t="n">
-        <v>0.168563</v>
+        <v>0.106909</v>
       </c>
       <c r="F13" t="n">
-        <v>0.279672</v>
+        <v>0.250549</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09806860000000001</v>
+        <v>0.0948658</v>
       </c>
       <c r="C14" t="n">
-        <v>0.279853</v>
+        <v>0.282928</v>
       </c>
       <c r="D14" t="n">
-        <v>0.280852</v>
+        <v>0.289379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.168475</v>
+        <v>0.106475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27486</v>
+        <v>0.248731</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0967997</v>
+        <v>0.0933794</v>
       </c>
       <c r="C15" t="n">
-        <v>0.280211</v>
+        <v>0.282117</v>
       </c>
       <c r="D15" t="n">
-        <v>0.284531</v>
+        <v>0.289709</v>
       </c>
       <c r="E15" t="n">
-        <v>0.169724</v>
+        <v>0.10626</v>
       </c>
       <c r="F15" t="n">
-        <v>0.277563</v>
+        <v>0.246938</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0950593</v>
+        <v>0.0925344</v>
       </c>
       <c r="C16" t="n">
-        <v>0.277175</v>
+        <v>0.280152</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28474</v>
+        <v>0.29247</v>
       </c>
       <c r="E16" t="n">
-        <v>0.166605</v>
+        <v>0.105446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27561</v>
+        <v>0.245716</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0934377</v>
+        <v>0.0905942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.276814</v>
+        <v>0.275738</v>
       </c>
       <c r="D17" t="n">
-        <v>0.285882</v>
+        <v>0.291004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.165909</v>
+        <v>0.103122</v>
       </c>
       <c r="F17" t="n">
-        <v>0.277433</v>
+        <v>0.244453</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0911768</v>
+        <v>0.08902409999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.273726</v>
+        <v>0.272897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.287828</v>
+        <v>0.293465</v>
       </c>
       <c r="E18" t="n">
-        <v>0.166688</v>
+        <v>0.102736</v>
       </c>
       <c r="F18" t="n">
-        <v>0.274569</v>
+        <v>0.243425</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0901078</v>
+        <v>0.0883953</v>
       </c>
       <c r="C19" t="n">
-        <v>0.269212</v>
+        <v>0.270424</v>
       </c>
       <c r="D19" t="n">
-        <v>0.28929</v>
+        <v>0.293167</v>
       </c>
       <c r="E19" t="n">
-        <v>0.165575</v>
+        <v>0.0998112</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2753</v>
+        <v>0.241741</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.08766790000000001</v>
+        <v>0.0872247</v>
       </c>
       <c r="C20" t="n">
-        <v>0.267348</v>
+        <v>0.266105</v>
       </c>
       <c r="D20" t="n">
-        <v>0.29141</v>
+        <v>0.294675</v>
       </c>
       <c r="E20" t="n">
-        <v>0.165412</v>
+        <v>0.09764680000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272211</v>
+        <v>0.240893</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0865858</v>
+        <v>0.0859665</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260489</v>
+        <v>0.260238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.280749</v>
+        <v>0.283794</v>
       </c>
       <c r="E21" t="n">
-        <v>0.164574</v>
+        <v>0.09468219999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.276864</v>
+        <v>0.238776</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.08480989999999999</v>
+        <v>0.0842952</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255654</v>
+        <v>0.255402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.280331</v>
+        <v>0.284198</v>
       </c>
       <c r="E22" t="n">
-        <v>0.164254</v>
+        <v>0.0936628</v>
       </c>
       <c r="F22" t="n">
-        <v>0.269426</v>
+        <v>0.236833</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0832793</v>
+        <v>0.0820965</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249592</v>
+        <v>0.249392</v>
       </c>
       <c r="D23" t="n">
-        <v>0.281518</v>
+        <v>0.285843</v>
       </c>
       <c r="E23" t="n">
-        <v>0.176189</v>
+        <v>0.126374</v>
       </c>
       <c r="F23" t="n">
-        <v>0.284079</v>
+        <v>0.266452</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.133359</v>
+        <v>0.136104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299684</v>
+        <v>0.300068</v>
       </c>
       <c r="D24" t="n">
-        <v>0.283561</v>
+        <v>0.286358</v>
       </c>
       <c r="E24" t="n">
-        <v>0.17313</v>
+        <v>0.125424</v>
       </c>
       <c r="F24" t="n">
-        <v>0.282759</v>
+        <v>0.264273</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.132313</v>
+        <v>0.134303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298541</v>
+        <v>0.298584</v>
       </c>
       <c r="D25" t="n">
-        <v>0.28405</v>
+        <v>0.286902</v>
       </c>
       <c r="E25" t="n">
-        <v>0.172727</v>
+        <v>0.123278</v>
       </c>
       <c r="F25" t="n">
-        <v>0.284604</v>
+        <v>0.262212</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.130256</v>
+        <v>0.131202</v>
       </c>
       <c r="C26" t="n">
-        <v>0.292787</v>
+        <v>0.297095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.284624</v>
+        <v>0.288483</v>
       </c>
       <c r="E26" t="n">
-        <v>0.172644</v>
+        <v>0.121926</v>
       </c>
       <c r="F26" t="n">
-        <v>0.280016</v>
+        <v>0.260099</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128311</v>
+        <v>0.128447</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294484</v>
+        <v>0.294267</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285839</v>
+        <v>0.290291</v>
       </c>
       <c r="E27" t="n">
-        <v>0.171265</v>
+        <v>0.119983</v>
       </c>
       <c r="F27" t="n">
-        <v>0.284183</v>
+        <v>0.258461</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126164</v>
+        <v>0.126706</v>
       </c>
       <c r="C28" t="n">
-        <v>0.292157</v>
+        <v>0.290252</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288176</v>
+        <v>0.290572</v>
       </c>
       <c r="E28" t="n">
-        <v>0.170013</v>
+        <v>0.118784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.282603</v>
+        <v>0.257013</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122426</v>
+        <v>0.12412</v>
       </c>
       <c r="C29" t="n">
-        <v>0.28977</v>
+        <v>0.288549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289204</v>
+        <v>0.295495</v>
       </c>
       <c r="E29" t="n">
-        <v>0.171118</v>
+        <v>0.117174</v>
       </c>
       <c r="F29" t="n">
-        <v>0.277189</v>
+        <v>0.254638</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118461</v>
+        <v>0.120787</v>
       </c>
       <c r="C30" t="n">
-        <v>0.28584</v>
+        <v>0.282185</v>
       </c>
       <c r="D30" t="n">
-        <v>0.29148</v>
+        <v>0.294448</v>
       </c>
       <c r="E30" t="n">
-        <v>0.169711</v>
+        <v>0.116534</v>
       </c>
       <c r="F30" t="n">
-        <v>0.277436</v>
+        <v>0.251981</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.114871</v>
+        <v>0.117537</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284236</v>
+        <v>0.283486</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293036</v>
+        <v>0.296959</v>
       </c>
       <c r="E31" t="n">
-        <v>0.16911</v>
+        <v>0.114512</v>
       </c>
       <c r="F31" t="n">
-        <v>0.279152</v>
+        <v>0.250937</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.111336</v>
+        <v>0.113988</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281147</v>
+        <v>0.280326</v>
       </c>
       <c r="D32" t="n">
-        <v>0.293728</v>
+        <v>0.297944</v>
       </c>
       <c r="E32" t="n">
-        <v>0.167854</v>
+        <v>0.112492</v>
       </c>
       <c r="F32" t="n">
-        <v>0.277764</v>
+        <v>0.248724</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.106609</v>
+        <v>0.110244</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276471</v>
+        <v>0.276265</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294785</v>
+        <v>0.297624</v>
       </c>
       <c r="E33" t="n">
-        <v>0.168591</v>
+        <v>0.110487</v>
       </c>
       <c r="F33" t="n">
-        <v>0.274122</v>
+        <v>0.246719</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.102251</v>
+        <v>0.105597</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272605</v>
+        <v>0.272656</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295378</v>
+        <v>0.29888</v>
       </c>
       <c r="E34" t="n">
-        <v>0.166649</v>
+        <v>0.10804</v>
       </c>
       <c r="F34" t="n">
-        <v>0.272774</v>
+        <v>0.245084</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.09831230000000001</v>
+        <v>0.101007</v>
       </c>
       <c r="C35" t="n">
-        <v>0.268461</v>
+        <v>0.26797</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284678</v>
+        <v>0.287367</v>
       </c>
       <c r="E35" t="n">
-        <v>0.166595</v>
+        <v>0.105568</v>
       </c>
       <c r="F35" t="n">
-        <v>0.27264</v>
+        <v>0.242754</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0937605</v>
+        <v>0.0966605</v>
       </c>
       <c r="C36" t="n">
-        <v>0.263527</v>
+        <v>0.262436</v>
       </c>
       <c r="D36" t="n">
-        <v>0.284697</v>
+        <v>0.287064</v>
       </c>
       <c r="E36" t="n">
-        <v>0.165363</v>
+        <v>0.103354</v>
       </c>
       <c r="F36" t="n">
-        <v>0.272443</v>
+        <v>0.240295</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0896979</v>
+        <v>0.09261999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257039</v>
+        <v>0.256311</v>
       </c>
       <c r="D37" t="n">
-        <v>0.286123</v>
+        <v>0.288919</v>
       </c>
       <c r="E37" t="n">
-        <v>0.181061</v>
+        <v>0.134169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.287755</v>
+        <v>0.269991</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.154566</v>
+        <v>0.157261</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303604</v>
+        <v>0.3045</v>
       </c>
       <c r="D38" t="n">
-        <v>0.28698</v>
+        <v>0.289976</v>
       </c>
       <c r="E38" t="n">
-        <v>0.179677</v>
+        <v>0.132631</v>
       </c>
       <c r="F38" t="n">
-        <v>0.284501</v>
+        <v>0.267336</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.151618</v>
+        <v>0.153869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302924</v>
+        <v>0.303017</v>
       </c>
       <c r="D39" t="n">
-        <v>0.286786</v>
+        <v>0.289837</v>
       </c>
       <c r="E39" t="n">
-        <v>0.178858</v>
+        <v>0.130246</v>
       </c>
       <c r="F39" t="n">
-        <v>0.286861</v>
+        <v>0.265113</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.148336</v>
+        <v>0.150582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.300513</v>
+        <v>0.301692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.288929</v>
+        <v>0.29164</v>
       </c>
       <c r="E40" t="n">
-        <v>0.176597</v>
+        <v>0.128149</v>
       </c>
       <c r="F40" t="n">
-        <v>0.286249</v>
+        <v>0.263153</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.144788</v>
+        <v>0.146518</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299006</v>
+        <v>0.299064</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290063</v>
+        <v>0.293026</v>
       </c>
       <c r="E41" t="n">
-        <v>0.176807</v>
+        <v>0.125978</v>
       </c>
       <c r="F41" t="n">
-        <v>0.285222</v>
+        <v>0.261118</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.140224</v>
+        <v>0.142306</v>
       </c>
       <c r="C42" t="n">
-        <v>0.294673</v>
+        <v>0.296434</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291588</v>
+        <v>0.293859</v>
       </c>
       <c r="E42" t="n">
-        <v>0.175174</v>
+        <v>0.124387</v>
       </c>
       <c r="F42" t="n">
-        <v>0.279841</v>
+        <v>0.258948</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.136331</v>
+        <v>0.138023</v>
       </c>
       <c r="C43" t="n">
-        <v>0.293934</v>
+        <v>0.292804</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292576</v>
+        <v>0.295744</v>
       </c>
       <c r="E43" t="n">
-        <v>0.174888</v>
+        <v>0.122626</v>
       </c>
       <c r="F43" t="n">
-        <v>0.280992</v>
+        <v>0.257041</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.131768</v>
+        <v>0.133828</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290382</v>
+        <v>0.290573</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294829</v>
+        <v>0.296908</v>
       </c>
       <c r="E44" t="n">
-        <v>0.173633</v>
+        <v>0.120172</v>
       </c>
       <c r="F44" t="n">
-        <v>0.280668</v>
+        <v>0.255081</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.126773</v>
+        <v>0.129371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284795</v>
+        <v>0.284622</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295224</v>
+        <v>0.297769</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1727</v>
+        <v>0.11861</v>
       </c>
       <c r="F45" t="n">
-        <v>0.280405</v>
+        <v>0.252631</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.122298</v>
+        <v>0.124556</v>
       </c>
       <c r="C46" t="n">
-        <v>0.284613</v>
+        <v>0.28336</v>
       </c>
       <c r="D46" t="n">
-        <v>0.297055</v>
+        <v>0.298508</v>
       </c>
       <c r="E46" t="n">
-        <v>0.171696</v>
+        <v>0.116964</v>
       </c>
       <c r="F46" t="n">
-        <v>0.278912</v>
+        <v>0.250478</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118071</v>
+        <v>0.120045</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280307</v>
+        <v>0.280717</v>
       </c>
       <c r="D47" t="n">
-        <v>0.297511</v>
+        <v>0.299126</v>
       </c>
       <c r="E47" t="n">
-        <v>0.170765</v>
+        <v>0.114562</v>
       </c>
       <c r="F47" t="n">
-        <v>0.275228</v>
+        <v>0.248491</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.113566</v>
+        <v>0.115024</v>
       </c>
       <c r="C48" t="n">
-        <v>0.27607</v>
+        <v>0.276275</v>
       </c>
       <c r="D48" t="n">
-        <v>0.298032</v>
+        <v>0.299114</v>
       </c>
       <c r="E48" t="n">
-        <v>0.169999</v>
+        <v>0.111935</v>
       </c>
       <c r="F48" t="n">
-        <v>0.277362</v>
+        <v>0.245809</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.108586</v>
+        <v>0.109647</v>
       </c>
       <c r="C49" t="n">
-        <v>0.269332</v>
+        <v>0.271398</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299902</v>
+        <v>0.299696</v>
       </c>
       <c r="E49" t="n">
-        <v>0.168173</v>
+        <v>0.109758</v>
       </c>
       <c r="F49" t="n">
-        <v>0.275952</v>
+        <v>0.243861</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.103077</v>
+        <v>0.104424</v>
       </c>
       <c r="C50" t="n">
-        <v>0.265764</v>
+        <v>0.266212</v>
       </c>
       <c r="D50" t="n">
-        <v>0.288371</v>
+        <v>0.289052</v>
       </c>
       <c r="E50" t="n">
-        <v>0.167707</v>
+        <v>0.107265</v>
       </c>
       <c r="F50" t="n">
-        <v>0.273877</v>
+        <v>0.24182</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.097797</v>
+        <v>0.09914530000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.259778</v>
+        <v>0.260403</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288963</v>
+        <v>0.290538</v>
       </c>
       <c r="E51" t="n">
-        <v>0.184967</v>
+        <v>0.136925</v>
       </c>
       <c r="F51" t="n">
-        <v>0.291515</v>
+        <v>0.271373</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0927835</v>
+        <v>0.0938804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.252622</v>
+        <v>0.25305</v>
       </c>
       <c r="D52" t="n">
-        <v>0.289558</v>
+        <v>0.290758</v>
       </c>
       <c r="E52" t="n">
-        <v>0.183011</v>
+        <v>0.135482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.29153</v>
+        <v>0.269162</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.15929</v>
+        <v>0.160386</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305273</v>
+        <v>0.305223</v>
       </c>
       <c r="D53" t="n">
-        <v>0.290825</v>
+        <v>0.291833</v>
       </c>
       <c r="E53" t="n">
-        <v>0.181822</v>
+        <v>0.134169</v>
       </c>
       <c r="F53" t="n">
-        <v>0.288884</v>
+        <v>0.267101</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.155642</v>
+        <v>0.156053</v>
       </c>
       <c r="C54" t="n">
-        <v>0.302619</v>
+        <v>0.30183</v>
       </c>
       <c r="D54" t="n">
-        <v>0.290717</v>
+        <v>0.293681</v>
       </c>
       <c r="E54" t="n">
-        <v>0.180942</v>
+        <v>0.13168</v>
       </c>
       <c r="F54" t="n">
-        <v>0.286205</v>
+        <v>0.264745</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.151215</v>
+        <v>0.152073</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300606</v>
+        <v>0.300058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.292774</v>
+        <v>0.294877</v>
       </c>
       <c r="E55" t="n">
-        <v>0.179156</v>
+        <v>0.129218</v>
       </c>
       <c r="F55" t="n">
-        <v>0.285078</v>
+        <v>0.261838</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.146819</v>
+        <v>0.147521</v>
       </c>
       <c r="C56" t="n">
-        <v>0.298689</v>
+        <v>0.29728</v>
       </c>
       <c r="D56" t="n">
-        <v>0.294935</v>
+        <v>0.295746</v>
       </c>
       <c r="E56" t="n">
-        <v>0.178402</v>
+        <v>0.127614</v>
       </c>
       <c r="F56" t="n">
-        <v>0.285753</v>
+        <v>0.260273</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.142122</v>
+        <v>0.143038</v>
       </c>
       <c r="C57" t="n">
-        <v>0.29545</v>
+        <v>0.295847</v>
       </c>
       <c r="D57" t="n">
-        <v>0.295428</v>
+        <v>0.297611</v>
       </c>
       <c r="E57" t="n">
-        <v>0.177166</v>
+        <v>0.125713</v>
       </c>
       <c r="F57" t="n">
-        <v>0.284151</v>
+        <v>0.258482</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137512</v>
+        <v>0.138272</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291243</v>
+        <v>0.291774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.296522</v>
+        <v>0.298288</v>
       </c>
       <c r="E58" t="n">
-        <v>0.175874</v>
+        <v>0.123506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.281217</v>
+        <v>0.256661</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132576</v>
+        <v>0.133303</v>
       </c>
       <c r="C59" t="n">
-        <v>0.289252</v>
+        <v>0.288564</v>
       </c>
       <c r="D59" t="n">
-        <v>0.29761</v>
+        <v>0.299792</v>
       </c>
       <c r="E59" t="n">
-        <v>0.174876</v>
+        <v>0.121291</v>
       </c>
       <c r="F59" t="n">
-        <v>0.281745</v>
+        <v>0.254451</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.127804</v>
+        <v>0.128261</v>
       </c>
       <c r="C60" t="n">
-        <v>0.285832</v>
+        <v>0.28523</v>
       </c>
       <c r="D60" t="n">
-        <v>0.298799</v>
+        <v>0.300756</v>
       </c>
       <c r="E60" t="n">
-        <v>0.173556</v>
+        <v>0.119088</v>
       </c>
       <c r="F60" t="n">
-        <v>0.281709</v>
+        <v>0.251975</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123153</v>
+        <v>0.123106</v>
       </c>
       <c r="C61" t="n">
-        <v>0.281727</v>
+        <v>0.282311</v>
       </c>
       <c r="D61" t="n">
-        <v>0.299923</v>
+        <v>0.302367</v>
       </c>
       <c r="E61" t="n">
-        <v>0.17272</v>
+        <v>0.11675</v>
       </c>
       <c r="F61" t="n">
-        <v>0.27954</v>
+        <v>0.2502</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118014</v>
+        <v>0.118079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.278371</v>
+        <v>0.277264</v>
       </c>
       <c r="D62" t="n">
-        <v>0.301351</v>
+        <v>0.302674</v>
       </c>
       <c r="E62" t="n">
-        <v>0.171462</v>
+        <v>0.114543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.280254</v>
+        <v>0.24792</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113021</v>
+        <v>0.113037</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273705</v>
+        <v>0.273053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.302787</v>
+        <v>0.304473</v>
       </c>
       <c r="E63" t="n">
-        <v>0.170454</v>
+        <v>0.112129</v>
       </c>
       <c r="F63" t="n">
-        <v>0.279242</v>
+        <v>0.245732</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.108034</v>
+        <v>0.107858</v>
       </c>
       <c r="C64" t="n">
-        <v>0.267628</v>
+        <v>0.268245</v>
       </c>
       <c r="D64" t="n">
-        <v>0.294383</v>
+        <v>0.295742</v>
       </c>
       <c r="E64" t="n">
-        <v>0.168981</v>
+        <v>0.109057</v>
       </c>
       <c r="F64" t="n">
-        <v>0.275591</v>
+        <v>0.243323</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102837</v>
+        <v>0.102757</v>
       </c>
       <c r="C65" t="n">
-        <v>0.262059</v>
+        <v>0.261825</v>
       </c>
       <c r="D65" t="n">
-        <v>0.296199</v>
+        <v>0.29752</v>
       </c>
       <c r="E65" t="n">
-        <v>0.167969</v>
+        <v>0.10646</v>
       </c>
       <c r="F65" t="n">
-        <v>0.276462</v>
+        <v>0.24104</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0978184</v>
+        <v>0.0975719</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255249</v>
+        <v>0.255143</v>
       </c>
       <c r="D66" t="n">
-        <v>0.298571</v>
+        <v>0.299445</v>
       </c>
       <c r="E66" t="n">
-        <v>0.185119</v>
+        <v>0.137356</v>
       </c>
       <c r="F66" t="n">
-        <v>0.291915</v>
+        <v>0.270249</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163284</v>
+        <v>0.163505</v>
       </c>
       <c r="C67" t="n">
-        <v>0.306545</v>
+        <v>0.307072</v>
       </c>
       <c r="D67" t="n">
-        <v>0.300153</v>
+        <v>0.301534</v>
       </c>
       <c r="E67" t="n">
-        <v>0.183614</v>
+        <v>0.134552</v>
       </c>
       <c r="F67" t="n">
-        <v>0.291325</v>
+        <v>0.267927</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159718</v>
+        <v>0.159601</v>
       </c>
       <c r="C68" t="n">
-        <v>0.305257</v>
+        <v>0.304707</v>
       </c>
       <c r="D68" t="n">
-        <v>0.301315</v>
+        <v>0.303473</v>
       </c>
       <c r="E68" t="n">
-        <v>0.182334</v>
+        <v>0.13241</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2883</v>
+        <v>0.266032</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155353</v>
+        <v>0.155431</v>
       </c>
       <c r="C69" t="n">
-        <v>0.30245</v>
+        <v>0.301884</v>
       </c>
       <c r="D69" t="n">
-        <v>0.303435</v>
+        <v>0.305285</v>
       </c>
       <c r="E69" t="n">
-        <v>0.180983</v>
+        <v>0.130792</v>
       </c>
       <c r="F69" t="n">
-        <v>0.288056</v>
+        <v>0.263885</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150626</v>
+        <v>0.150979</v>
       </c>
       <c r="C70" t="n">
-        <v>0.30033</v>
+        <v>0.299507</v>
       </c>
       <c r="D70" t="n">
-        <v>0.305124</v>
+        <v>0.307777</v>
       </c>
       <c r="E70" t="n">
-        <v>0.179725</v>
+        <v>0.128756</v>
       </c>
       <c r="F70" t="n">
-        <v>0.287498</v>
+        <v>0.261608</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.145986</v>
+        <v>0.146063</v>
       </c>
       <c r="C71" t="n">
-        <v>0.296657</v>
+        <v>0.297765</v>
       </c>
       <c r="D71" t="n">
-        <v>0.306903</v>
+        <v>0.309841</v>
       </c>
       <c r="E71" t="n">
-        <v>0.178476</v>
+        <v>0.126559</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2827</v>
+        <v>0.259367</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.141247</v>
+        <v>0.1411</v>
       </c>
       <c r="C72" t="n">
-        <v>0.294086</v>
+        <v>0.29472</v>
       </c>
       <c r="D72" t="n">
-        <v>0.308994</v>
+        <v>0.311609</v>
       </c>
       <c r="E72" t="n">
-        <v>0.177176</v>
+        <v>0.124638</v>
       </c>
       <c r="F72" t="n">
-        <v>0.283124</v>
+        <v>0.257391</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136155</v>
+        <v>0.136167</v>
       </c>
       <c r="C73" t="n">
-        <v>0.291261</v>
+        <v>0.29176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.311531</v>
+        <v>0.314638</v>
       </c>
       <c r="E73" t="n">
-        <v>0.175916</v>
+        <v>0.122738</v>
       </c>
       <c r="F73" t="n">
-        <v>0.281403</v>
+        <v>0.25529</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.130946</v>
+        <v>0.131169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.287116</v>
+        <v>0.288811</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304313</v>
+        <v>0.316899</v>
       </c>
       <c r="E74" t="n">
-        <v>0.174803</v>
+        <v>0.120297</v>
       </c>
       <c r="F74" t="n">
-        <v>0.280217</v>
+        <v>0.252958</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.125976</v>
+        <v>0.126099</v>
       </c>
       <c r="C75" t="n">
-        <v>0.283833</v>
+        <v>0.284525</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307556</v>
+        <v>0.318545</v>
       </c>
       <c r="E75" t="n">
-        <v>0.17374</v>
+        <v>0.117961</v>
       </c>
       <c r="F75" t="n">
-        <v>0.279748</v>
+        <v>0.250761</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120871</v>
+        <v>0.120924</v>
       </c>
       <c r="C76" t="n">
-        <v>0.279533</v>
+        <v>0.280741</v>
       </c>
       <c r="D76" t="n">
-        <v>0.310607</v>
+        <v>0.320246</v>
       </c>
       <c r="E76" t="n">
-        <v>0.172572</v>
+        <v>0.115877</v>
       </c>
       <c r="F76" t="n">
-        <v>0.277839</v>
+        <v>0.248663</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.115788</v>
+        <v>0.11566</v>
       </c>
       <c r="C77" t="n">
-        <v>0.275983</v>
+        <v>0.27635</v>
       </c>
       <c r="D77" t="n">
-        <v>0.31397</v>
+        <v>0.322335</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1714</v>
+        <v>0.113512</v>
       </c>
       <c r="F77" t="n">
-        <v>0.277731</v>
+        <v>0.246551</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.110394</v>
+        <v>0.11064</v>
       </c>
       <c r="C78" t="n">
-        <v>0.269987</v>
+        <v>0.270822</v>
       </c>
       <c r="D78" t="n">
-        <v>0.307937</v>
+        <v>0.312887</v>
       </c>
       <c r="E78" t="n">
-        <v>0.170128</v>
+        <v>0.110537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.277245</v>
+        <v>0.244058</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105439</v>
+        <v>0.105489</v>
       </c>
       <c r="C79" t="n">
-        <v>0.265601</v>
+        <v>0.26704</v>
       </c>
       <c r="D79" t="n">
-        <v>0.309346</v>
+        <v>0.314111</v>
       </c>
       <c r="E79" t="n">
-        <v>0.16879</v>
+        <v>0.108161</v>
       </c>
       <c r="F79" t="n">
-        <v>0.276002</v>
+        <v>0.242116</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100312</v>
+        <v>0.100414</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260035</v>
+        <v>0.258895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.310822</v>
+        <v>0.315171</v>
       </c>
       <c r="E80" t="n">
-        <v>0.18586</v>
+        <v>0.13768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.290137</v>
+        <v>0.27142</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164663</v>
+        <v>0.164737</v>
       </c>
       <c r="C81" t="n">
-        <v>0.306793</v>
+        <v>0.303834</v>
       </c>
       <c r="D81" t="n">
-        <v>0.312179</v>
+        <v>0.316225</v>
       </c>
       <c r="E81" t="n">
-        <v>0.18434</v>
+        <v>0.135579</v>
       </c>
       <c r="F81" t="n">
-        <v>0.289955</v>
+        <v>0.269243</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160756</v>
+        <v>0.160714</v>
       </c>
       <c r="C82" t="n">
-        <v>0.305046</v>
+        <v>0.30166</v>
       </c>
       <c r="D82" t="n">
-        <v>0.314302</v>
+        <v>0.317475</v>
       </c>
       <c r="E82" t="n">
-        <v>0.182937</v>
+        <v>0.133526</v>
       </c>
       <c r="F82" t="n">
-        <v>0.288662</v>
+        <v>0.266996</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156494</v>
+        <v>0.156415</v>
       </c>
       <c r="C83" t="n">
-        <v>0.30286</v>
+        <v>0.299111</v>
       </c>
       <c r="D83" t="n">
-        <v>0.312828</v>
+        <v>0.317812</v>
       </c>
       <c r="E83" t="n">
-        <v>0.181569</v>
+        <v>0.131538</v>
       </c>
       <c r="F83" t="n">
-        <v>0.287097</v>
+        <v>0.264885</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151968</v>
+        <v>0.151856</v>
       </c>
       <c r="C84" t="n">
-        <v>0.299674</v>
+        <v>0.296994</v>
       </c>
       <c r="D84" t="n">
-        <v>0.315207</v>
+        <v>0.31973</v>
       </c>
       <c r="E84" t="n">
-        <v>0.180261</v>
+        <v>0.129916</v>
       </c>
       <c r="F84" t="n">
-        <v>0.286256</v>
+        <v>0.262741</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147213</v>
+        <v>0.146925</v>
       </c>
       <c r="C85" t="n">
-        <v>0.297868</v>
+        <v>0.293841</v>
       </c>
       <c r="D85" t="n">
-        <v>0.317924</v>
+        <v>0.321845</v>
       </c>
       <c r="E85" t="n">
-        <v>0.179013</v>
+        <v>0.127774</v>
       </c>
       <c r="F85" t="n">
-        <v>0.283699</v>
+        <v>0.260328</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142203</v>
+        <v>0.142148</v>
       </c>
       <c r="C86" t="n">
-        <v>0.294256</v>
+        <v>0.291054</v>
       </c>
       <c r="D86" t="n">
-        <v>0.319727</v>
+        <v>0.324155</v>
       </c>
       <c r="E86" t="n">
-        <v>0.177533</v>
+        <v>0.125772</v>
       </c>
       <c r="F86" t="n">
-        <v>0.281862</v>
+        <v>0.258348</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136809</v>
+        <v>0.136848</v>
       </c>
       <c r="C87" t="n">
-        <v>0.290837</v>
+        <v>0.28807</v>
       </c>
       <c r="D87" t="n">
-        <v>0.322056</v>
+        <v>0.32631</v>
       </c>
       <c r="E87" t="n">
-        <v>0.17652</v>
+        <v>0.123675</v>
       </c>
       <c r="F87" t="n">
-        <v>0.282439</v>
+        <v>0.256485</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131678</v>
+        <v>0.131621</v>
       </c>
       <c r="C88" t="n">
-        <v>0.286624</v>
+        <v>0.284185</v>
       </c>
       <c r="D88" t="n">
-        <v>0.325365</v>
+        <v>0.328997</v>
       </c>
       <c r="E88" t="n">
-        <v>0.175348</v>
+        <v>0.121433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.280987</v>
+        <v>0.25426</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126647</v>
+        <v>0.126514</v>
       </c>
       <c r="C89" t="n">
-        <v>0.282588</v>
+        <v>0.280914</v>
       </c>
       <c r="D89" t="n">
-        <v>0.312787</v>
+        <v>0.329135</v>
       </c>
       <c r="E89" t="n">
-        <v>0.174171</v>
+        <v>0.119133</v>
       </c>
       <c r="F89" t="n">
-        <v>0.279075</v>
+        <v>0.252016</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.12137</v>
+        <v>0.121459</v>
       </c>
       <c r="C90" t="n">
-        <v>0.278218</v>
+        <v>0.276249</v>
       </c>
       <c r="D90" t="n">
-        <v>0.316028</v>
+        <v>0.330515</v>
       </c>
       <c r="E90" t="n">
-        <v>0.173011</v>
+        <v>0.116758</v>
       </c>
       <c r="F90" t="n">
-        <v>0.277966</v>
+        <v>0.249828</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.116362</v>
+        <v>0.11628</v>
       </c>
       <c r="C91" t="n">
-        <v>0.273845</v>
+        <v>0.272478</v>
       </c>
       <c r="D91" t="n">
-        <v>0.318261</v>
+        <v>0.331634</v>
       </c>
       <c r="E91" t="n">
-        <v>0.171817</v>
+        <v>0.114235</v>
       </c>
       <c r="F91" t="n">
-        <v>0.277705</v>
+        <v>0.247614</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111223</v>
+        <v>0.111122</v>
       </c>
       <c r="C92" t="n">
-        <v>0.268892</v>
+        <v>0.267455</v>
       </c>
       <c r="D92" t="n">
-        <v>0.294106</v>
+        <v>0.300973</v>
       </c>
       <c r="E92" t="n">
-        <v>0.170481</v>
+        <v>0.111649</v>
       </c>
       <c r="F92" t="n">
-        <v>0.277449</v>
+        <v>0.245598</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.10608</v>
+        <v>0.105954</v>
       </c>
       <c r="C93" t="n">
-        <v>0.263809</v>
+        <v>0.261911</v>
       </c>
       <c r="D93" t="n">
-        <v>0.294138</v>
+        <v>0.302856</v>
       </c>
       <c r="E93" t="n">
-        <v>0.169357</v>
+        <v>0.108961</v>
       </c>
       <c r="F93" t="n">
-        <v>0.276339</v>
+        <v>0.243096</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100747</v>
+        <v>0.100637</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2573</v>
+        <v>0.25536</v>
       </c>
       <c r="D94" t="n">
-        <v>0.295863</v>
+        <v>0.304189</v>
       </c>
       <c r="E94" t="n">
-        <v>0.186288</v>
+        <v>0.138222</v>
       </c>
       <c r="F94" t="n">
-        <v>0.290704</v>
+        <v>0.272132</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165827</v>
+        <v>0.165444</v>
       </c>
       <c r="C95" t="n">
-        <v>0.304294</v>
+        <v>0.306986</v>
       </c>
       <c r="D95" t="n">
-        <v>0.29842</v>
+        <v>0.305588</v>
       </c>
       <c r="E95" t="n">
-        <v>0.184789</v>
+        <v>0.136087</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2891</v>
+        <v>0.269882</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162047</v>
+        <v>0.161877</v>
       </c>
       <c r="C96" t="n">
-        <v>0.302867</v>
+        <v>0.304957</v>
       </c>
       <c r="D96" t="n">
-        <v>0.300815</v>
+        <v>0.30711</v>
       </c>
       <c r="E96" t="n">
-        <v>0.183394</v>
+        <v>0.134128</v>
       </c>
       <c r="F96" t="n">
-        <v>0.28748</v>
+        <v>0.267506</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157915</v>
+        <v>0.157731</v>
       </c>
       <c r="C97" t="n">
-        <v>0.300717</v>
+        <v>0.303279</v>
       </c>
       <c r="D97" t="n">
-        <v>0.293741</v>
+        <v>0.307697</v>
       </c>
       <c r="E97" t="n">
-        <v>0.181941</v>
+        <v>0.131916</v>
       </c>
       <c r="F97" t="n">
-        <v>0.285933</v>
+        <v>0.265416</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.153205</v>
+        <v>0.152822</v>
       </c>
       <c r="C98" t="n">
-        <v>0.298257</v>
+        <v>0.300933</v>
       </c>
       <c r="D98" t="n">
-        <v>0.296935</v>
+        <v>0.309592</v>
       </c>
       <c r="E98" t="n">
-        <v>0.180583</v>
+        <v>0.130185</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2849</v>
+        <v>0.263254</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148361</v>
+        <v>0.148251</v>
       </c>
       <c r="C99" t="n">
-        <v>0.295434</v>
+        <v>0.299446</v>
       </c>
       <c r="D99" t="n">
-        <v>0.299585</v>
+        <v>0.312188</v>
       </c>
       <c r="E99" t="n">
-        <v>0.179186</v>
+        <v>0.128374</v>
       </c>
       <c r="F99" t="n">
-        <v>0.283561</v>
+        <v>0.260973</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143262</v>
+        <v>0.143023</v>
       </c>
       <c r="C100" t="n">
-        <v>0.292283</v>
+        <v>0.296555</v>
       </c>
       <c r="D100" t="n">
-        <v>0.301912</v>
+        <v>0.31483</v>
       </c>
       <c r="E100" t="n">
-        <v>0.177986</v>
+        <v>0.126215</v>
       </c>
       <c r="F100" t="n">
-        <v>0.283181</v>
+        <v>0.258936</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.138177</v>
+        <v>0.137923</v>
       </c>
       <c r="C101" t="n">
-        <v>0.289214</v>
+        <v>0.29454</v>
       </c>
       <c r="D101" t="n">
-        <v>0.304456</v>
+        <v>0.318531</v>
       </c>
       <c r="E101" t="n">
-        <v>0.176711</v>
+        <v>0.124244</v>
       </c>
       <c r="F101" t="n">
-        <v>0.281283</v>
+        <v>0.256759</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.133012</v>
+        <v>0.132833</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285685</v>
+        <v>0.290418</v>
       </c>
       <c r="D102" t="n">
-        <v>0.307478</v>
+        <v>0.320953</v>
       </c>
       <c r="E102" t="n">
-        <v>0.175481</v>
+        <v>0.122209</v>
       </c>
       <c r="F102" t="n">
-        <v>0.279991</v>
+        <v>0.254726</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127706</v>
+        <v>0.127622</v>
       </c>
       <c r="C103" t="n">
-        <v>0.282006</v>
+        <v>0.285961</v>
       </c>
       <c r="D103" t="n">
-        <v>0.303078</v>
+        <v>0.322356</v>
       </c>
       <c r="E103" t="n">
-        <v>0.174337</v>
+        <v>0.119661</v>
       </c>
       <c r="F103" t="n">
-        <v>0.27991</v>
+        <v>0.252539</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122594</v>
+        <v>0.122523</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278054</v>
+        <v>0.282496</v>
       </c>
       <c r="D104" t="n">
-        <v>0.305736</v>
+        <v>0.323354</v>
       </c>
       <c r="E104" t="n">
-        <v>0.173236</v>
+        <v>0.117529</v>
       </c>
       <c r="F104" t="n">
-        <v>0.278353</v>
+        <v>0.250363</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.11748</v>
+        <v>0.117264</v>
       </c>
       <c r="C105" t="n">
-        <v>0.273407</v>
+        <v>0.278315</v>
       </c>
       <c r="D105" t="n">
-        <v>0.30828</v>
+        <v>0.324708</v>
       </c>
       <c r="E105" t="n">
-        <v>0.171985</v>
+        <v>0.11489</v>
       </c>
       <c r="F105" t="n">
-        <v>0.27841</v>
+        <v>0.248143</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112247</v>
+        <v>0.112142</v>
       </c>
       <c r="C106" t="n">
-        <v>0.268282</v>
+        <v>0.273042</v>
       </c>
       <c r="D106" t="n">
-        <v>0.310979</v>
+        <v>0.326471</v>
       </c>
       <c r="E106" t="n">
-        <v>0.170768</v>
+        <v>0.112419</v>
       </c>
       <c r="F106" t="n">
-        <v>0.276423</v>
+        <v>0.245958</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.107051</v>
+        <v>0.106952</v>
       </c>
       <c r="C107" t="n">
-        <v>0.263</v>
+        <v>0.267463</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288203</v>
+        <v>0.301257</v>
       </c>
       <c r="E107" t="n">
-        <v>0.169591</v>
+        <v>0.109853</v>
       </c>
       <c r="F107" t="n">
-        <v>0.276403</v>
+        <v>0.243539</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101946</v>
+        <v>0.101864</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256619</v>
+        <v>0.261036</v>
       </c>
       <c r="D108" t="n">
-        <v>0.292013</v>
+        <v>0.303403</v>
       </c>
       <c r="E108" t="n">
-        <v>0.186823</v>
+        <v>0.138872</v>
       </c>
       <c r="F108" t="n">
-        <v>0.291707</v>
+        <v>0.272497</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0967567</v>
+        <v>0.0966398</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24992</v>
+        <v>0.255159</v>
       </c>
       <c r="D109" t="n">
-        <v>0.29229</v>
+        <v>0.304817</v>
       </c>
       <c r="E109" t="n">
-        <v>0.185346</v>
+        <v>0.136668</v>
       </c>
       <c r="F109" t="n">
-        <v>0.289479</v>
+        <v>0.270329</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162967</v>
+        <v>0.162833</v>
       </c>
       <c r="C110" t="n">
-        <v>0.30296</v>
+        <v>0.309935</v>
       </c>
       <c r="D110" t="n">
-        <v>0.294392</v>
+        <v>0.305908</v>
       </c>
       <c r="E110" t="n">
-        <v>0.183713</v>
+        <v>0.134488</v>
       </c>
       <c r="F110" t="n">
-        <v>0.287678</v>
+        <v>0.267907</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158764</v>
+        <v>0.158441</v>
       </c>
       <c r="C111" t="n">
-        <v>0.300875</v>
+        <v>0.307317</v>
       </c>
       <c r="D111" t="n">
-        <v>0.292607</v>
+        <v>0.307285</v>
       </c>
       <c r="E111" t="n">
-        <v>0.182293</v>
+        <v>0.132544</v>
       </c>
       <c r="F111" t="n">
-        <v>0.286814</v>
+        <v>0.266024</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.154303</v>
+        <v>0.153892</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298487</v>
+        <v>0.304952</v>
       </c>
       <c r="D112" t="n">
-        <v>0.295503</v>
+        <v>0.308858</v>
       </c>
       <c r="E112" t="n">
-        <v>0.18084</v>
+        <v>0.130491</v>
       </c>
       <c r="F112" t="n">
-        <v>0.285431</v>
+        <v>0.263843</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.149356</v>
+        <v>0.148904</v>
       </c>
       <c r="C113" t="n">
-        <v>0.295703</v>
+        <v>0.30226</v>
       </c>
       <c r="D113" t="n">
-        <v>0.296499</v>
+        <v>0.311263</v>
       </c>
       <c r="E113" t="n">
-        <v>0.179571</v>
+        <v>0.128547</v>
       </c>
       <c r="F113" t="n">
-        <v>0.283803</v>
+        <v>0.261572</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.144288</v>
+        <v>0.143968</v>
       </c>
       <c r="C114" t="n">
-        <v>0.292844</v>
+        <v>0.299634</v>
       </c>
       <c r="D114" t="n">
-        <v>0.296399</v>
+        <v>0.313633</v>
       </c>
       <c r="E114" t="n">
-        <v>0.178313</v>
+        <v>0.126612</v>
       </c>
       <c r="F114" t="n">
-        <v>0.282681</v>
+        <v>0.259467</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139228</v>
+        <v>0.139013</v>
       </c>
       <c r="C115" t="n">
-        <v>0.289639</v>
+        <v>0.29662</v>
       </c>
       <c r="D115" t="n">
-        <v>0.299509</v>
+        <v>0.317262</v>
       </c>
       <c r="E115" t="n">
-        <v>0.177089</v>
+        <v>0.124705</v>
       </c>
       <c r="F115" t="n">
-        <v>0.282797</v>
+        <v>0.257342</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133971</v>
+        <v>0.133894</v>
       </c>
       <c r="C116" t="n">
-        <v>0.286214</v>
+        <v>0.293771</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302004</v>
+        <v>0.319899</v>
       </c>
       <c r="E116" t="n">
-        <v>0.175928</v>
+        <v>0.122742</v>
       </c>
       <c r="F116" t="n">
-        <v>0.281505</v>
+        <v>0.25529</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128823</v>
+        <v>0.128638</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282686</v>
+        <v>0.289748</v>
       </c>
       <c r="D117" t="n">
-        <v>0.301975</v>
+        <v>0.321491</v>
       </c>
       <c r="E117" t="n">
-        <v>0.174627</v>
+        <v>0.120408</v>
       </c>
       <c r="F117" t="n">
-        <v>0.279495</v>
+        <v>0.252997</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123575</v>
+        <v>0.123438</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27869</v>
+        <v>0.286701</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304018</v>
+        <v>0.322295</v>
       </c>
       <c r="E118" t="n">
-        <v>0.173494</v>
+        <v>0.118033</v>
       </c>
       <c r="F118" t="n">
-        <v>0.279065</v>
+        <v>0.250822</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118505</v>
+        <v>0.118233</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274529</v>
+        <v>0.282705</v>
       </c>
       <c r="D119" t="n">
-        <v>0.303983</v>
+        <v>0.324005</v>
       </c>
       <c r="E119" t="n">
-        <v>0.172336</v>
+        <v>0.115589</v>
       </c>
       <c r="F119" t="n">
-        <v>0.278757</v>
+        <v>0.248463</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113398</v>
+        <v>0.113143</v>
       </c>
       <c r="C120" t="n">
-        <v>0.269492</v>
+        <v>0.27785</v>
       </c>
       <c r="D120" t="n">
-        <v>0.306704</v>
+        <v>0.325386</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1711</v>
+        <v>0.113103</v>
       </c>
       <c r="F120" t="n">
-        <v>0.275575</v>
+        <v>0.246411</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108129</v>
+        <v>0.108043</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264149</v>
+        <v>0.273058</v>
       </c>
       <c r="D121" t="n">
-        <v>0.291754</v>
+        <v>0.303371</v>
       </c>
       <c r="E121" t="n">
-        <v>0.169832</v>
+        <v>0.110348</v>
       </c>
       <c r="F121" t="n">
-        <v>0.275917</v>
+        <v>0.244048</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102995</v>
+        <v>0.102901</v>
       </c>
       <c r="C122" t="n">
-        <v>0.257901</v>
+        <v>0.267004</v>
       </c>
       <c r="D122" t="n">
-        <v>0.291334</v>
+        <v>0.304941</v>
       </c>
       <c r="E122" t="n">
-        <v>0.168651</v>
+        <v>0.107767</v>
       </c>
       <c r="F122" t="n">
-        <v>0.274379</v>
+        <v>0.241819</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0978272</v>
+        <v>0.0976665</v>
       </c>
       <c r="C123" t="n">
-        <v>0.251101</v>
+        <v>0.260256</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293301</v>
+        <v>0.306615</v>
       </c>
       <c r="E123" t="n">
-        <v>0.185594</v>
+        <v>0.137144</v>
       </c>
       <c r="F123" t="n">
-        <v>0.289659</v>
+        <v>0.270905</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173163</v>
+        <v>0.173142</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303409</v>
+        <v>0.303908</v>
       </c>
       <c r="D124" t="n">
-        <v>0.294055</v>
+        <v>0.307903</v>
       </c>
       <c r="E124" t="n">
-        <v>0.184127</v>
+        <v>0.135087</v>
       </c>
       <c r="F124" t="n">
-        <v>0.288515</v>
+        <v>0.268581</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168798</v>
+        <v>0.168685</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301567</v>
+        <v>0.301632</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294076</v>
+        <v>0.308684</v>
       </c>
       <c r="E125" t="n">
-        <v>0.182547</v>
+        <v>0.132896</v>
       </c>
       <c r="F125" t="n">
-        <v>0.286383</v>
+        <v>0.26647</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.16395</v>
+        <v>0.163285</v>
       </c>
       <c r="C126" t="n">
-        <v>0.298971</v>
+        <v>0.299176</v>
       </c>
       <c r="D126" t="n">
-        <v>0.29548</v>
+        <v>0.310443</v>
       </c>
       <c r="E126" t="n">
-        <v>0.181164</v>
+        <v>0.131088</v>
       </c>
       <c r="F126" t="n">
-        <v>0.285385</v>
+        <v>0.264282</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158612</v>
+        <v>0.158115</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296777</v>
+        <v>0.296198</v>
       </c>
       <c r="D127" t="n">
-        <v>0.296351</v>
+        <v>0.312205</v>
       </c>
       <c r="E127" t="n">
-        <v>0.179891</v>
+        <v>0.128944</v>
       </c>
       <c r="F127" t="n">
-        <v>0.284388</v>
+        <v>0.262252</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153084</v>
+        <v>0.153068</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293553</v>
+        <v>0.293778</v>
       </c>
       <c r="D128" t="n">
-        <v>0.297646</v>
+        <v>0.31519</v>
       </c>
       <c r="E128" t="n">
-        <v>0.178524</v>
+        <v>0.127082</v>
       </c>
       <c r="F128" t="n">
-        <v>0.28303</v>
+        <v>0.260152</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147691</v>
+        <v>0.147439</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290606</v>
+        <v>0.290315</v>
       </c>
       <c r="D129" t="n">
-        <v>0.298871</v>
+        <v>0.318534</v>
       </c>
       <c r="E129" t="n">
-        <v>0.177345</v>
+        <v>0.125037</v>
       </c>
       <c r="F129" t="n">
-        <v>0.281704</v>
+        <v>0.258035</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.142117</v>
+        <v>0.141959</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287176</v>
+        <v>0.286715</v>
       </c>
       <c r="D130" t="n">
-        <v>0.301197</v>
+        <v>0.321367</v>
       </c>
       <c r="E130" t="n">
-        <v>0.176136</v>
+        <v>0.122998</v>
       </c>
       <c r="F130" t="n">
-        <v>0.28037</v>
+        <v>0.255799</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136613</v>
+        <v>0.136513</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283663</v>
+        <v>0.283314</v>
       </c>
       <c r="D131" t="n">
-        <v>0.301915</v>
+        <v>0.323222</v>
       </c>
       <c r="E131" t="n">
-        <v>0.17487</v>
+        <v>0.120876</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2792</v>
+        <v>0.253599</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.13103</v>
+        <v>0.131135</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279468</v>
+        <v>0.279311</v>
       </c>
       <c r="D132" t="n">
-        <v>0.303431</v>
+        <v>0.324757</v>
       </c>
       <c r="E132" t="n">
-        <v>0.173534</v>
+        <v>0.118625</v>
       </c>
       <c r="F132" t="n">
-        <v>0.279156</v>
+        <v>0.251468</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12573</v>
+        <v>0.12569</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275055</v>
+        <v>0.275297</v>
       </c>
       <c r="D133" t="n">
-        <v>0.305508</v>
+        <v>0.325437</v>
       </c>
       <c r="E133" t="n">
-        <v>0.172515</v>
+        <v>0.116191</v>
       </c>
       <c r="F133" t="n">
-        <v>0.278247</v>
+        <v>0.249126</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120301</v>
+        <v>0.120395</v>
       </c>
       <c r="C134" t="n">
-        <v>0.27088</v>
+        <v>0.270537</v>
       </c>
       <c r="D134" t="n">
-        <v>0.30774</v>
+        <v>0.326873</v>
       </c>
       <c r="E134" t="n">
-        <v>0.171335</v>
+        <v>0.11372</v>
       </c>
       <c r="F134" t="n">
-        <v>0.277178</v>
+        <v>0.246871</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.114801</v>
+        <v>0.115052</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265511</v>
+        <v>0.265609</v>
       </c>
       <c r="D135" t="n">
-        <v>0.290512</v>
+        <v>0.30322</v>
       </c>
       <c r="E135" t="n">
-        <v>0.170139</v>
+        <v>0.111089</v>
       </c>
       <c r="F135" t="n">
-        <v>0.275743</v>
+        <v>0.244655</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109373</v>
+        <v>0.109539</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259669</v>
+        <v>0.259971</v>
       </c>
       <c r="D136" t="n">
-        <v>0.291562</v>
+        <v>0.304913</v>
       </c>
       <c r="E136" t="n">
-        <v>0.168873</v>
+        <v>0.108362</v>
       </c>
       <c r="F136" t="n">
-        <v>0.275603</v>
+        <v>0.242244</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104008</v>
+        <v>0.104129</v>
       </c>
       <c r="C137" t="n">
-        <v>0.252929</v>
+        <v>0.253398</v>
       </c>
       <c r="D137" t="n">
-        <v>0.293012</v>
+        <v>0.306542</v>
       </c>
       <c r="E137" t="n">
-        <v>0.195071</v>
+        <v>0.146558</v>
       </c>
       <c r="F137" t="n">
-        <v>0.296059</v>
+        <v>0.277157</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174341</v>
+        <v>0.174028</v>
       </c>
       <c r="C138" t="n">
-        <v>0.320551</v>
+        <v>0.319571</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293275</v>
+        <v>0.307899</v>
       </c>
       <c r="E138" t="n">
-        <v>0.193151</v>
+        <v>0.144017</v>
       </c>
       <c r="F138" t="n">
-        <v>0.294334</v>
+        <v>0.274716</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.169911</v>
+        <v>0.167981</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317583</v>
+        <v>0.317113</v>
       </c>
       <c r="D139" t="n">
-        <v>0.293607</v>
+        <v>0.309107</v>
       </c>
       <c r="E139" t="n">
-        <v>0.191191</v>
+        <v>0.141681</v>
       </c>
       <c r="F139" t="n">
-        <v>0.292487</v>
+        <v>0.272713</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.165021</v>
+        <v>0.164668</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314936</v>
+        <v>0.314681</v>
       </c>
       <c r="D140" t="n">
-        <v>0.29464</v>
+        <v>0.30985</v>
       </c>
       <c r="E140" t="n">
-        <v>0.187378</v>
+        <v>0.13887</v>
       </c>
       <c r="F140" t="n">
-        <v>0.290702</v>
+        <v>0.273427</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.158467</v>
+        <v>0.159459</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312477</v>
+        <v>0.31293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.295747</v>
+        <v>0.312011</v>
       </c>
       <c r="E141" t="n">
-        <v>0.185453</v>
+        <v>0.136905</v>
       </c>
       <c r="F141" t="n">
-        <v>0.286845</v>
+        <v>0.267688</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154211</v>
+        <v>0.154128</v>
       </c>
       <c r="C142" t="n">
-        <v>0.307596</v>
+        <v>0.308637</v>
       </c>
       <c r="D142" t="n">
-        <v>0.297339</v>
+        <v>0.314521</v>
       </c>
       <c r="E142" t="n">
-        <v>0.186171</v>
+        <v>0.134662</v>
       </c>
       <c r="F142" t="n">
-        <v>0.287463</v>
+        <v>0.265197</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148823</v>
+        <v>0.148841</v>
       </c>
       <c r="C143" t="n">
-        <v>0.304996</v>
+        <v>0.305231</v>
       </c>
       <c r="D143" t="n">
-        <v>0.298611</v>
+        <v>0.317805</v>
       </c>
       <c r="E143" t="n">
-        <v>0.184394</v>
+        <v>0.132241</v>
       </c>
       <c r="F143" t="n">
-        <v>0.285171</v>
+        <v>0.262916</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0650391</v>
+        <v>0.0654044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.268304</v>
+        <v>0.267794</v>
       </c>
       <c r="D2" t="n">
-        <v>0.280676</v>
+        <v>0.27874</v>
       </c>
       <c r="E2" t="n">
-        <v>0.066221</v>
+        <v>0.0666096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.236987</v>
+        <v>0.238089</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0647088</v>
+        <v>0.06459959999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.265295</v>
+        <v>0.264661</v>
       </c>
       <c r="D3" t="n">
-        <v>0.283623</v>
+        <v>0.281843</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06789969999999999</v>
+        <v>0.0656274</v>
       </c>
       <c r="F3" t="n">
-        <v>0.237945</v>
+        <v>0.238069</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0642325</v>
+        <v>0.0641239</v>
       </c>
       <c r="C4" t="n">
-        <v>0.261927</v>
+        <v>0.262057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.285168</v>
+        <v>0.282751</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06434380000000001</v>
+        <v>0.06367970000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.234984</v>
+        <v>0.235159</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0643461</v>
+        <v>0.0641108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.259556</v>
+        <v>0.257535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.285968</v>
+        <v>0.286229</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06397170000000001</v>
+        <v>0.0630048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.234725</v>
+        <v>0.234287</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0648122</v>
+        <v>0.0643488</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25747</v>
+        <v>0.254283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.286504</v>
+        <v>0.28673</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06273670000000001</v>
+        <v>0.06334040000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.233977</v>
+        <v>0.23363</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0647742</v>
+        <v>0.0647382</v>
       </c>
       <c r="C7" t="n">
-        <v>0.253974</v>
+        <v>0.25153</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275717</v>
+        <v>0.275141</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0624755</v>
+        <v>0.06283030000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.233333</v>
+        <v>0.232947</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0652044</v>
+        <v>0.0651278</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248014</v>
+        <v>0.245431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.277703</v>
+        <v>0.277587</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0623434</v>
+        <v>0.0624546</v>
       </c>
       <c r="F8" t="n">
-        <v>0.231135</v>
+        <v>0.232212</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06599869999999999</v>
+        <v>0.0658234</v>
       </c>
       <c r="C9" t="n">
-        <v>0.243723</v>
+        <v>0.242723</v>
       </c>
       <c r="D9" t="n">
-        <v>0.278378</v>
+        <v>0.277676</v>
       </c>
       <c r="E9" t="n">
-        <v>0.104391</v>
+        <v>0.106165</v>
       </c>
       <c r="F9" t="n">
-        <v>0.258828</v>
+        <v>0.25823</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0916073</v>
+        <v>0.09293029999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.289542</v>
+        <v>0.290153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.282362</v>
+        <v>0.28172</v>
       </c>
       <c r="E10" t="n">
-        <v>0.111455</v>
+        <v>0.113262</v>
       </c>
       <c r="F10" t="n">
-        <v>0.255356</v>
+        <v>0.256743</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0949261</v>
+        <v>0.0967522</v>
       </c>
       <c r="C11" t="n">
-        <v>0.287272</v>
+        <v>0.288637</v>
       </c>
       <c r="D11" t="n">
-        <v>0.283534</v>
+        <v>0.283241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.111981</v>
+        <v>0.113945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.253822</v>
+        <v>0.25475</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.096229</v>
+        <v>0.0979047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.286785</v>
+        <v>0.28824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.285891</v>
+        <v>0.283713</v>
       </c>
       <c r="E12" t="n">
-        <v>0.109036</v>
+        <v>0.108749</v>
       </c>
       <c r="F12" t="n">
-        <v>0.251798</v>
+        <v>0.251852</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0933161</v>
+        <v>0.0966793</v>
       </c>
       <c r="C13" t="n">
-        <v>0.285363</v>
+        <v>0.283785</v>
       </c>
       <c r="D13" t="n">
-        <v>0.286741</v>
+        <v>0.285902</v>
       </c>
       <c r="E13" t="n">
-        <v>0.106909</v>
+        <v>0.110436</v>
       </c>
       <c r="F13" t="n">
-        <v>0.250549</v>
+        <v>0.25097</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0948658</v>
+        <v>0.0958931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.282928</v>
+        <v>0.282444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.289379</v>
+        <v>0.288429</v>
       </c>
       <c r="E14" t="n">
-        <v>0.106475</v>
+        <v>0.107968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.248731</v>
+        <v>0.248875</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0933794</v>
+        <v>0.0938437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.282117</v>
+        <v>0.280629</v>
       </c>
       <c r="D15" t="n">
-        <v>0.289709</v>
+        <v>0.289748</v>
       </c>
       <c r="E15" t="n">
-        <v>0.10626</v>
+        <v>0.103448</v>
       </c>
       <c r="F15" t="n">
-        <v>0.246938</v>
+        <v>0.246948</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0925344</v>
+        <v>0.0927249</v>
       </c>
       <c r="C16" t="n">
-        <v>0.280152</v>
+        <v>0.27981</v>
       </c>
       <c r="D16" t="n">
-        <v>0.29247</v>
+        <v>0.290233</v>
       </c>
       <c r="E16" t="n">
-        <v>0.105446</v>
+        <v>0.104705</v>
       </c>
       <c r="F16" t="n">
-        <v>0.245716</v>
+        <v>0.245173</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0905942</v>
+        <v>0.09131300000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.275738</v>
+        <v>0.27764</v>
       </c>
       <c r="D17" t="n">
-        <v>0.291004</v>
+        <v>0.291406</v>
       </c>
       <c r="E17" t="n">
-        <v>0.103122</v>
+        <v>0.104149</v>
       </c>
       <c r="F17" t="n">
-        <v>0.244453</v>
+        <v>0.244193</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.08902409999999999</v>
+        <v>0.09002739999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.272897</v>
+        <v>0.274353</v>
       </c>
       <c r="D18" t="n">
-        <v>0.293465</v>
+        <v>0.293811</v>
       </c>
       <c r="E18" t="n">
-        <v>0.102736</v>
+        <v>0.102013</v>
       </c>
       <c r="F18" t="n">
-        <v>0.243425</v>
+        <v>0.243714</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0883953</v>
+        <v>0.0890705</v>
       </c>
       <c r="C19" t="n">
-        <v>0.270424</v>
+        <v>0.270538</v>
       </c>
       <c r="D19" t="n">
-        <v>0.293167</v>
+        <v>0.292712</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0998112</v>
+        <v>0.0985335</v>
       </c>
       <c r="F19" t="n">
-        <v>0.241741</v>
+        <v>0.242073</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0872247</v>
+        <v>0.0872198</v>
       </c>
       <c r="C20" t="n">
-        <v>0.266105</v>
+        <v>0.267233</v>
       </c>
       <c r="D20" t="n">
-        <v>0.294675</v>
+        <v>0.294627</v>
       </c>
       <c r="E20" t="n">
-        <v>0.09764680000000001</v>
+        <v>0.09694369999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.240893</v>
+        <v>0.240846</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0859665</v>
+        <v>0.0861729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.260238</v>
+        <v>0.260259</v>
       </c>
       <c r="D21" t="n">
-        <v>0.283794</v>
+        <v>0.284096</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09468219999999999</v>
+        <v>0.09312479999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.238776</v>
+        <v>0.238523</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0842952</v>
+        <v>0.0840282</v>
       </c>
       <c r="C22" t="n">
-        <v>0.255402</v>
+        <v>0.256947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.284198</v>
+        <v>0.285602</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0936628</v>
+        <v>0.0932077</v>
       </c>
       <c r="F22" t="n">
-        <v>0.236833</v>
+        <v>0.237016</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0820965</v>
+        <v>0.08258359999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.249392</v>
+        <v>0.250736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.285843</v>
+        <v>0.283927</v>
       </c>
       <c r="E23" t="n">
-        <v>0.126374</v>
+        <v>0.125942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.266452</v>
+        <v>0.265816</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.136104</v>
+        <v>0.136894</v>
       </c>
       <c r="C24" t="n">
-        <v>0.300068</v>
+        <v>0.300791</v>
       </c>
       <c r="D24" t="n">
-        <v>0.286358</v>
+        <v>0.28708</v>
       </c>
       <c r="E24" t="n">
-        <v>0.125424</v>
+        <v>0.124859</v>
       </c>
       <c r="F24" t="n">
-        <v>0.264273</v>
+        <v>0.264072</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.134303</v>
+        <v>0.135118</v>
       </c>
       <c r="C25" t="n">
-        <v>0.298584</v>
+        <v>0.298922</v>
       </c>
       <c r="D25" t="n">
-        <v>0.286902</v>
+        <v>0.286528</v>
       </c>
       <c r="E25" t="n">
-        <v>0.123278</v>
+        <v>0.122641</v>
       </c>
       <c r="F25" t="n">
-        <v>0.262212</v>
+        <v>0.262324</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.131202</v>
+        <v>0.13253</v>
       </c>
       <c r="C26" t="n">
-        <v>0.297095</v>
+        <v>0.296307</v>
       </c>
       <c r="D26" t="n">
-        <v>0.288483</v>
+        <v>0.287264</v>
       </c>
       <c r="E26" t="n">
-        <v>0.121926</v>
+        <v>0.122095</v>
       </c>
       <c r="F26" t="n">
-        <v>0.260099</v>
+        <v>0.260377</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.128447</v>
+        <v>0.130088</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294267</v>
+        <v>0.294868</v>
       </c>
       <c r="D27" t="n">
-        <v>0.290291</v>
+        <v>0.290021</v>
       </c>
       <c r="E27" t="n">
-        <v>0.119983</v>
+        <v>0.120593</v>
       </c>
       <c r="F27" t="n">
-        <v>0.258461</v>
+        <v>0.258106</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.126706</v>
+        <v>0.127916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.290252</v>
+        <v>0.291617</v>
       </c>
       <c r="D28" t="n">
-        <v>0.290572</v>
+        <v>0.289281</v>
       </c>
       <c r="E28" t="n">
-        <v>0.118784</v>
+        <v>0.119722</v>
       </c>
       <c r="F28" t="n">
-        <v>0.257013</v>
+        <v>0.256139</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.12412</v>
+        <v>0.124421</v>
       </c>
       <c r="C29" t="n">
-        <v>0.288549</v>
+        <v>0.289484</v>
       </c>
       <c r="D29" t="n">
-        <v>0.295495</v>
+        <v>0.294175</v>
       </c>
       <c r="E29" t="n">
-        <v>0.117174</v>
+        <v>0.117116</v>
       </c>
       <c r="F29" t="n">
-        <v>0.254638</v>
+        <v>0.254332</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120787</v>
+        <v>0.120982</v>
       </c>
       <c r="C30" t="n">
-        <v>0.282185</v>
+        <v>0.285802</v>
       </c>
       <c r="D30" t="n">
-        <v>0.294448</v>
+        <v>0.293473</v>
       </c>
       <c r="E30" t="n">
-        <v>0.116534</v>
+        <v>0.116041</v>
       </c>
       <c r="F30" t="n">
-        <v>0.251981</v>
+        <v>0.25227</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.117537</v>
+        <v>0.117798</v>
       </c>
       <c r="C31" t="n">
-        <v>0.283486</v>
+        <v>0.284361</v>
       </c>
       <c r="D31" t="n">
-        <v>0.296959</v>
+        <v>0.295154</v>
       </c>
       <c r="E31" t="n">
-        <v>0.114512</v>
+        <v>0.114616</v>
       </c>
       <c r="F31" t="n">
-        <v>0.250937</v>
+        <v>0.250776</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.113988</v>
+        <v>0.113703</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280326</v>
+        <v>0.280273</v>
       </c>
       <c r="D32" t="n">
-        <v>0.297944</v>
+        <v>0.295788</v>
       </c>
       <c r="E32" t="n">
-        <v>0.112492</v>
+        <v>0.112426</v>
       </c>
       <c r="F32" t="n">
-        <v>0.248724</v>
+        <v>0.248736</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.110244</v>
+        <v>0.109939</v>
       </c>
       <c r="C33" t="n">
-        <v>0.276265</v>
+        <v>0.276908</v>
       </c>
       <c r="D33" t="n">
-        <v>0.297624</v>
+        <v>0.297591</v>
       </c>
       <c r="E33" t="n">
-        <v>0.110487</v>
+        <v>0.110514</v>
       </c>
       <c r="F33" t="n">
-        <v>0.246719</v>
+        <v>0.246734</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.105597</v>
+        <v>0.10532</v>
       </c>
       <c r="C34" t="n">
-        <v>0.272656</v>
+        <v>0.271628</v>
       </c>
       <c r="D34" t="n">
-        <v>0.29888</v>
+        <v>0.299644</v>
       </c>
       <c r="E34" t="n">
-        <v>0.10804</v>
+        <v>0.107661</v>
       </c>
       <c r="F34" t="n">
-        <v>0.245084</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.101007</v>
+        <v>0.100904</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26797</v>
+        <v>0.267268</v>
       </c>
       <c r="D35" t="n">
-        <v>0.287367</v>
+        <v>0.287296</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105568</v>
+        <v>0.10529</v>
       </c>
       <c r="F35" t="n">
-        <v>0.242754</v>
+        <v>0.242843</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0966605</v>
+        <v>0.0962223</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262436</v>
+        <v>0.262257</v>
       </c>
       <c r="D36" t="n">
-        <v>0.287064</v>
+        <v>0.286954</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103354</v>
+        <v>0.102705</v>
       </c>
       <c r="F36" t="n">
-        <v>0.240295</v>
+        <v>0.240584</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.09261999999999999</v>
+        <v>0.09268179999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256311</v>
+        <v>0.256224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.288919</v>
+        <v>0.288239</v>
       </c>
       <c r="E37" t="n">
-        <v>0.134169</v>
+        <v>0.13451</v>
       </c>
       <c r="F37" t="n">
-        <v>0.269991</v>
+        <v>0.269913</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.157261</v>
+        <v>0.156604</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3045</v>
+        <v>0.304491</v>
       </c>
       <c r="D38" t="n">
-        <v>0.289976</v>
+        <v>0.289561</v>
       </c>
       <c r="E38" t="n">
-        <v>0.132631</v>
+        <v>0.132052</v>
       </c>
       <c r="F38" t="n">
-        <v>0.267336</v>
+        <v>0.267413</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.153869</v>
+        <v>0.153601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.303017</v>
+        <v>0.300134</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289837</v>
+        <v>0.290065</v>
       </c>
       <c r="E39" t="n">
-        <v>0.130246</v>
+        <v>0.130569</v>
       </c>
       <c r="F39" t="n">
-        <v>0.265113</v>
+        <v>0.26522</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.150582</v>
+        <v>0.149825</v>
       </c>
       <c r="C40" t="n">
-        <v>0.301692</v>
+        <v>0.301193</v>
       </c>
       <c r="D40" t="n">
-        <v>0.29164</v>
+        <v>0.290877</v>
       </c>
       <c r="E40" t="n">
-        <v>0.128149</v>
+        <v>0.127423</v>
       </c>
       <c r="F40" t="n">
-        <v>0.263153</v>
+        <v>0.263512</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.146518</v>
+        <v>0.146271</v>
       </c>
       <c r="C41" t="n">
-        <v>0.299064</v>
+        <v>0.29893</v>
       </c>
       <c r="D41" t="n">
-        <v>0.293026</v>
+        <v>0.292185</v>
       </c>
       <c r="E41" t="n">
-        <v>0.125978</v>
+        <v>0.125977</v>
       </c>
       <c r="F41" t="n">
-        <v>0.261118</v>
+        <v>0.261287</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.142306</v>
+        <v>0.141943</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296434</v>
+        <v>0.296329</v>
       </c>
       <c r="D42" t="n">
-        <v>0.293859</v>
+        <v>0.292906</v>
       </c>
       <c r="E42" t="n">
-        <v>0.124387</v>
+        <v>0.124796</v>
       </c>
       <c r="F42" t="n">
-        <v>0.258948</v>
+        <v>0.259035</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.138023</v>
+        <v>0.137751</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292804</v>
+        <v>0.292778</v>
       </c>
       <c r="D43" t="n">
-        <v>0.295744</v>
+        <v>0.294413</v>
       </c>
       <c r="E43" t="n">
-        <v>0.122626</v>
+        <v>0.122424</v>
       </c>
       <c r="F43" t="n">
-        <v>0.257041</v>
+        <v>0.256946</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.133828</v>
+        <v>0.133322</v>
       </c>
       <c r="C44" t="n">
-        <v>0.290573</v>
+        <v>0.288779</v>
       </c>
       <c r="D44" t="n">
-        <v>0.296908</v>
+        <v>0.295151</v>
       </c>
       <c r="E44" t="n">
-        <v>0.120172</v>
+        <v>0.120558</v>
       </c>
       <c r="F44" t="n">
-        <v>0.255081</v>
+        <v>0.255001</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129371</v>
+        <v>0.128623</v>
       </c>
       <c r="C45" t="n">
-        <v>0.284622</v>
+        <v>0.287034</v>
       </c>
       <c r="D45" t="n">
-        <v>0.297769</v>
+        <v>0.296504</v>
       </c>
       <c r="E45" t="n">
-        <v>0.11861</v>
+        <v>0.11837</v>
       </c>
       <c r="F45" t="n">
-        <v>0.252631</v>
+        <v>0.252441</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124556</v>
+        <v>0.12399</v>
       </c>
       <c r="C46" t="n">
-        <v>0.28336</v>
+        <v>0.28412</v>
       </c>
       <c r="D46" t="n">
-        <v>0.298508</v>
+        <v>0.297621</v>
       </c>
       <c r="E46" t="n">
-        <v>0.116964</v>
+        <v>0.116761</v>
       </c>
       <c r="F46" t="n">
-        <v>0.250478</v>
+        <v>0.250501</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.120045</v>
+        <v>0.119513</v>
       </c>
       <c r="C47" t="n">
-        <v>0.280717</v>
+        <v>0.280315</v>
       </c>
       <c r="D47" t="n">
-        <v>0.299126</v>
+        <v>0.298515</v>
       </c>
       <c r="E47" t="n">
-        <v>0.114562</v>
+        <v>0.11454</v>
       </c>
       <c r="F47" t="n">
-        <v>0.248491</v>
+        <v>0.248502</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.115024</v>
+        <v>0.114623</v>
       </c>
       <c r="C48" t="n">
-        <v>0.276275</v>
+        <v>0.275765</v>
       </c>
       <c r="D48" t="n">
-        <v>0.299114</v>
+        <v>0.297449</v>
       </c>
       <c r="E48" t="n">
-        <v>0.111935</v>
+        <v>0.112611</v>
       </c>
       <c r="F48" t="n">
-        <v>0.245809</v>
+        <v>0.246044</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.109647</v>
+        <v>0.109104</v>
       </c>
       <c r="C49" t="n">
-        <v>0.271398</v>
+        <v>0.270101</v>
       </c>
       <c r="D49" t="n">
-        <v>0.299696</v>
+        <v>0.298829</v>
       </c>
       <c r="E49" t="n">
-        <v>0.109758</v>
+        <v>0.109276</v>
       </c>
       <c r="F49" t="n">
-        <v>0.243861</v>
+        <v>0.243803</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.104424</v>
+        <v>0.104111</v>
       </c>
       <c r="C50" t="n">
-        <v>0.266212</v>
+        <v>0.265924</v>
       </c>
       <c r="D50" t="n">
-        <v>0.289052</v>
+        <v>0.287792</v>
       </c>
       <c r="E50" t="n">
-        <v>0.107265</v>
+        <v>0.107065</v>
       </c>
       <c r="F50" t="n">
-        <v>0.24182</v>
+        <v>0.24194</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.09914530000000001</v>
+        <v>0.0988233</v>
       </c>
       <c r="C51" t="n">
-        <v>0.260403</v>
+        <v>0.259779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.290538</v>
+        <v>0.289916</v>
       </c>
       <c r="E51" t="n">
-        <v>0.136925</v>
+        <v>0.137607</v>
       </c>
       <c r="F51" t="n">
-        <v>0.271373</v>
+        <v>0.271791</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0938804</v>
+        <v>0.0939135</v>
       </c>
       <c r="C52" t="n">
-        <v>0.25305</v>
+        <v>0.2514</v>
       </c>
       <c r="D52" t="n">
-        <v>0.290758</v>
+        <v>0.28979</v>
       </c>
       <c r="E52" t="n">
-        <v>0.135482</v>
+        <v>0.13505</v>
       </c>
       <c r="F52" t="n">
-        <v>0.269162</v>
+        <v>0.269493</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.160386</v>
+        <v>0.159659</v>
       </c>
       <c r="C53" t="n">
-        <v>0.305223</v>
+        <v>0.305645</v>
       </c>
       <c r="D53" t="n">
-        <v>0.291833</v>
+        <v>0.291436</v>
       </c>
       <c r="E53" t="n">
-        <v>0.134169</v>
+        <v>0.133393</v>
       </c>
       <c r="F53" t="n">
-        <v>0.267101</v>
+        <v>0.267384</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.156053</v>
+        <v>0.15606</v>
       </c>
       <c r="C54" t="n">
-        <v>0.30183</v>
+        <v>0.303138</v>
       </c>
       <c r="D54" t="n">
-        <v>0.293681</v>
+        <v>0.292963</v>
       </c>
       <c r="E54" t="n">
-        <v>0.13168</v>
+        <v>0.131922</v>
       </c>
       <c r="F54" t="n">
-        <v>0.264745</v>
+        <v>0.26503</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.152073</v>
+        <v>0.151879</v>
       </c>
       <c r="C55" t="n">
-        <v>0.300058</v>
+        <v>0.300476</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294877</v>
+        <v>0.294255</v>
       </c>
       <c r="E55" t="n">
-        <v>0.129218</v>
+        <v>0.130507</v>
       </c>
       <c r="F55" t="n">
-        <v>0.261838</v>
+        <v>0.263093</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.147521</v>
+        <v>0.147958</v>
       </c>
       <c r="C56" t="n">
-        <v>0.29728</v>
+        <v>0.297936</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295746</v>
+        <v>0.29534</v>
       </c>
       <c r="E56" t="n">
-        <v>0.127614</v>
+        <v>0.127319</v>
       </c>
       <c r="F56" t="n">
-        <v>0.260273</v>
+        <v>0.260769</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.143038</v>
+        <v>0.14292</v>
       </c>
       <c r="C57" t="n">
-        <v>0.295847</v>
+        <v>0.295163</v>
       </c>
       <c r="D57" t="n">
-        <v>0.297611</v>
+        <v>0.296653</v>
       </c>
       <c r="E57" t="n">
-        <v>0.125713</v>
+        <v>0.125116</v>
       </c>
       <c r="F57" t="n">
-        <v>0.258482</v>
+        <v>0.258864</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.138272</v>
+        <v>0.137888</v>
       </c>
       <c r="C58" t="n">
-        <v>0.291774</v>
+        <v>0.292778</v>
       </c>
       <c r="D58" t="n">
-        <v>0.298288</v>
+        <v>0.29713</v>
       </c>
       <c r="E58" t="n">
-        <v>0.123506</v>
+        <v>0.123678</v>
       </c>
       <c r="F58" t="n">
-        <v>0.256661</v>
+        <v>0.256923</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133303</v>
+        <v>0.132938</v>
       </c>
       <c r="C59" t="n">
-        <v>0.288564</v>
+        <v>0.289456</v>
       </c>
       <c r="D59" t="n">
-        <v>0.299792</v>
+        <v>0.29864</v>
       </c>
       <c r="E59" t="n">
-        <v>0.121291</v>
+        <v>0.121042</v>
       </c>
       <c r="F59" t="n">
-        <v>0.254451</v>
+        <v>0.254609</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.128261</v>
+        <v>0.127951</v>
       </c>
       <c r="C60" t="n">
-        <v>0.28523</v>
+        <v>0.285306</v>
       </c>
       <c r="D60" t="n">
-        <v>0.300756</v>
+        <v>0.299256</v>
       </c>
       <c r="E60" t="n">
-        <v>0.119088</v>
+        <v>0.119079</v>
       </c>
       <c r="F60" t="n">
-        <v>0.251975</v>
+        <v>0.252359</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.123106</v>
+        <v>0.122835</v>
       </c>
       <c r="C61" t="n">
-        <v>0.282311</v>
+        <v>0.281566</v>
       </c>
       <c r="D61" t="n">
-        <v>0.302367</v>
+        <v>0.301089</v>
       </c>
       <c r="E61" t="n">
-        <v>0.11675</v>
+        <v>0.11687</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2502</v>
+        <v>0.25031</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.118079</v>
+        <v>0.117872</v>
       </c>
       <c r="C62" t="n">
-        <v>0.277264</v>
+        <v>0.277713</v>
       </c>
       <c r="D62" t="n">
-        <v>0.302674</v>
+        <v>0.301834</v>
       </c>
       <c r="E62" t="n">
-        <v>0.114543</v>
+        <v>0.11416</v>
       </c>
       <c r="F62" t="n">
-        <v>0.24792</v>
+        <v>0.248388</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.113037</v>
+        <v>0.112739</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273053</v>
+        <v>0.272536</v>
       </c>
       <c r="D63" t="n">
-        <v>0.304473</v>
+        <v>0.303464</v>
       </c>
       <c r="E63" t="n">
-        <v>0.112129</v>
+        <v>0.111998</v>
       </c>
       <c r="F63" t="n">
-        <v>0.245732</v>
+        <v>0.24619</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.107858</v>
+        <v>0.107871</v>
       </c>
       <c r="C64" t="n">
-        <v>0.268245</v>
+        <v>0.267941</v>
       </c>
       <c r="D64" t="n">
-        <v>0.295742</v>
+        <v>0.2955</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109057</v>
+        <v>0.109379</v>
       </c>
       <c r="F64" t="n">
-        <v>0.243323</v>
+        <v>0.243846</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.102757</v>
+        <v>0.102776</v>
       </c>
       <c r="C65" t="n">
-        <v>0.261825</v>
+        <v>0.261382</v>
       </c>
       <c r="D65" t="n">
-        <v>0.29752</v>
+        <v>0.297047</v>
       </c>
       <c r="E65" t="n">
-        <v>0.10646</v>
+        <v>0.106544</v>
       </c>
       <c r="F65" t="n">
-        <v>0.24104</v>
+        <v>0.241635</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0975719</v>
+        <v>0.0974338</v>
       </c>
       <c r="C66" t="n">
-        <v>0.255143</v>
+        <v>0.254465</v>
       </c>
       <c r="D66" t="n">
-        <v>0.299445</v>
+        <v>0.297985</v>
       </c>
       <c r="E66" t="n">
-        <v>0.137356</v>
+        <v>0.136503</v>
       </c>
       <c r="F66" t="n">
-        <v>0.270249</v>
+        <v>0.270946</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.163505</v>
+        <v>0.163366</v>
       </c>
       <c r="C67" t="n">
-        <v>0.307072</v>
+        <v>0.307448</v>
       </c>
       <c r="D67" t="n">
-        <v>0.301534</v>
+        <v>0.301356</v>
       </c>
       <c r="E67" t="n">
-        <v>0.134552</v>
+        <v>0.134783</v>
       </c>
       <c r="F67" t="n">
-        <v>0.267927</v>
+        <v>0.268457</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.159601</v>
+        <v>0.159804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.304707</v>
+        <v>0.304281</v>
       </c>
       <c r="D68" t="n">
-        <v>0.303473</v>
+        <v>0.303128</v>
       </c>
       <c r="E68" t="n">
-        <v>0.13241</v>
+        <v>0.13293</v>
       </c>
       <c r="F68" t="n">
-        <v>0.266032</v>
+        <v>0.266459</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.155431</v>
+        <v>0.155205</v>
       </c>
       <c r="C69" t="n">
-        <v>0.301884</v>
+        <v>0.302321</v>
       </c>
       <c r="D69" t="n">
-        <v>0.305285</v>
+        <v>0.30447</v>
       </c>
       <c r="E69" t="n">
-        <v>0.130792</v>
+        <v>0.130684</v>
       </c>
       <c r="F69" t="n">
-        <v>0.263885</v>
+        <v>0.264218</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150979</v>
+        <v>0.150582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.299507</v>
+        <v>0.300482</v>
       </c>
       <c r="D70" t="n">
-        <v>0.307777</v>
+        <v>0.30715</v>
       </c>
       <c r="E70" t="n">
-        <v>0.128756</v>
+        <v>0.128586</v>
       </c>
       <c r="F70" t="n">
-        <v>0.261608</v>
+        <v>0.262124</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.146063</v>
+        <v>0.145667</v>
       </c>
       <c r="C71" t="n">
-        <v>0.297765</v>
+        <v>0.296793</v>
       </c>
       <c r="D71" t="n">
-        <v>0.309841</v>
+        <v>0.308673</v>
       </c>
       <c r="E71" t="n">
-        <v>0.126559</v>
+        <v>0.126556</v>
       </c>
       <c r="F71" t="n">
-        <v>0.259367</v>
+        <v>0.25964</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1411</v>
+        <v>0.14087</v>
       </c>
       <c r="C72" t="n">
-        <v>0.29472</v>
+        <v>0.294308</v>
       </c>
       <c r="D72" t="n">
-        <v>0.311609</v>
+        <v>0.31105</v>
       </c>
       <c r="E72" t="n">
-        <v>0.124638</v>
+        <v>0.124543</v>
       </c>
       <c r="F72" t="n">
-        <v>0.257391</v>
+        <v>0.257108</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.136167</v>
+        <v>0.135492</v>
       </c>
       <c r="C73" t="n">
-        <v>0.29176</v>
+        <v>0.289056</v>
       </c>
       <c r="D73" t="n">
-        <v>0.314638</v>
+        <v>0.313908</v>
       </c>
       <c r="E73" t="n">
-        <v>0.122738</v>
+        <v>0.122742</v>
       </c>
       <c r="F73" t="n">
-        <v>0.25529</v>
+        <v>0.255191</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.131169</v>
+        <v>0.13042</v>
       </c>
       <c r="C74" t="n">
-        <v>0.288811</v>
+        <v>0.286994</v>
       </c>
       <c r="D74" t="n">
-        <v>0.316899</v>
+        <v>0.30856</v>
       </c>
       <c r="E74" t="n">
-        <v>0.120297</v>
+        <v>0.120344</v>
       </c>
       <c r="F74" t="n">
-        <v>0.252958</v>
+        <v>0.253255</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126099</v>
+        <v>0.125535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.284525</v>
+        <v>0.284168</v>
       </c>
       <c r="D75" t="n">
-        <v>0.318545</v>
+        <v>0.311908</v>
       </c>
       <c r="E75" t="n">
-        <v>0.117961</v>
+        <v>0.118168</v>
       </c>
       <c r="F75" t="n">
-        <v>0.250761</v>
+        <v>0.250922</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.120924</v>
+        <v>0.120423</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280741</v>
+        <v>0.280935</v>
       </c>
       <c r="D76" t="n">
-        <v>0.320246</v>
+        <v>0.314225</v>
       </c>
       <c r="E76" t="n">
-        <v>0.115877</v>
+        <v>0.115773</v>
       </c>
       <c r="F76" t="n">
-        <v>0.248663</v>
+        <v>0.248787</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.11566</v>
+        <v>0.115193</v>
       </c>
       <c r="C77" t="n">
-        <v>0.27635</v>
+        <v>0.275095</v>
       </c>
       <c r="D77" t="n">
-        <v>0.322335</v>
+        <v>0.317979</v>
       </c>
       <c r="E77" t="n">
-        <v>0.113512</v>
+        <v>0.113498</v>
       </c>
       <c r="F77" t="n">
-        <v>0.246551</v>
+        <v>0.246757</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.11064</v>
+        <v>0.110187</v>
       </c>
       <c r="C78" t="n">
-        <v>0.270822</v>
+        <v>0.269977</v>
       </c>
       <c r="D78" t="n">
-        <v>0.312887</v>
+        <v>0.310135</v>
       </c>
       <c r="E78" t="n">
-        <v>0.110537</v>
+        <v>0.110699</v>
       </c>
       <c r="F78" t="n">
-        <v>0.244058</v>
+        <v>0.244529</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.105489</v>
+        <v>0.105086</v>
       </c>
       <c r="C79" t="n">
-        <v>0.26704</v>
+        <v>0.2649</v>
       </c>
       <c r="D79" t="n">
-        <v>0.314111</v>
+        <v>0.311799</v>
       </c>
       <c r="E79" t="n">
-        <v>0.108161</v>
+        <v>0.108208</v>
       </c>
       <c r="F79" t="n">
-        <v>0.242116</v>
+        <v>0.242026</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.100414</v>
+        <v>0.0998325</v>
       </c>
       <c r="C80" t="n">
-        <v>0.258895</v>
+        <v>0.258266</v>
       </c>
       <c r="D80" t="n">
-        <v>0.315171</v>
+        <v>0.312879</v>
       </c>
       <c r="E80" t="n">
-        <v>0.13768</v>
+        <v>0.137277</v>
       </c>
       <c r="F80" t="n">
-        <v>0.27142</v>
+        <v>0.271407</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.164737</v>
+        <v>0.164597</v>
       </c>
       <c r="C81" t="n">
-        <v>0.303834</v>
+        <v>0.308078</v>
       </c>
       <c r="D81" t="n">
-        <v>0.316225</v>
+        <v>0.314836</v>
       </c>
       <c r="E81" t="n">
-        <v>0.135579</v>
+        <v>0.135625</v>
       </c>
       <c r="F81" t="n">
-        <v>0.269243</v>
+        <v>0.268917</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.160714</v>
+        <v>0.160625</v>
       </c>
       <c r="C82" t="n">
-        <v>0.30166</v>
+        <v>0.305796</v>
       </c>
       <c r="D82" t="n">
-        <v>0.317475</v>
+        <v>0.316399</v>
       </c>
       <c r="E82" t="n">
-        <v>0.133526</v>
+        <v>0.133636</v>
       </c>
       <c r="F82" t="n">
-        <v>0.266996</v>
+        <v>0.266648</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.156415</v>
+        <v>0.156278</v>
       </c>
       <c r="C83" t="n">
-        <v>0.299111</v>
+        <v>0.303244</v>
       </c>
       <c r="D83" t="n">
-        <v>0.317812</v>
+        <v>0.315434</v>
       </c>
       <c r="E83" t="n">
-        <v>0.131538</v>
+        <v>0.131725</v>
       </c>
       <c r="F83" t="n">
-        <v>0.264885</v>
+        <v>0.264539</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151856</v>
+        <v>0.151811</v>
       </c>
       <c r="C84" t="n">
-        <v>0.296994</v>
+        <v>0.300779</v>
       </c>
       <c r="D84" t="n">
-        <v>0.31973</v>
+        <v>0.318059</v>
       </c>
       <c r="E84" t="n">
-        <v>0.129916</v>
+        <v>0.129786</v>
       </c>
       <c r="F84" t="n">
-        <v>0.262741</v>
+        <v>0.262176</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146925</v>
+        <v>0.146682</v>
       </c>
       <c r="C85" t="n">
-        <v>0.293841</v>
+        <v>0.298092</v>
       </c>
       <c r="D85" t="n">
-        <v>0.321845</v>
+        <v>0.320174</v>
       </c>
       <c r="E85" t="n">
-        <v>0.127774</v>
+        <v>0.127811</v>
       </c>
       <c r="F85" t="n">
-        <v>0.260328</v>
+        <v>0.260054</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.142148</v>
+        <v>0.14212</v>
       </c>
       <c r="C86" t="n">
-        <v>0.291054</v>
+        <v>0.294557</v>
       </c>
       <c r="D86" t="n">
-        <v>0.324155</v>
+        <v>0.322924</v>
       </c>
       <c r="E86" t="n">
-        <v>0.125772</v>
+        <v>0.125712</v>
       </c>
       <c r="F86" t="n">
-        <v>0.258348</v>
+        <v>0.257952</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.136848</v>
+        <v>0.136817</v>
       </c>
       <c r="C87" t="n">
-        <v>0.28807</v>
+        <v>0.291081</v>
       </c>
       <c r="D87" t="n">
-        <v>0.32631</v>
+        <v>0.326114</v>
       </c>
       <c r="E87" t="n">
-        <v>0.123675</v>
+        <v>0.123609</v>
       </c>
       <c r="F87" t="n">
-        <v>0.256485</v>
+        <v>0.256255</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.131621</v>
+        <v>0.131713</v>
       </c>
       <c r="C88" t="n">
-        <v>0.284185</v>
+        <v>0.286902</v>
       </c>
       <c r="D88" t="n">
-        <v>0.328997</v>
+        <v>0.32764</v>
       </c>
       <c r="E88" t="n">
-        <v>0.121433</v>
+        <v>0.121466</v>
       </c>
       <c r="F88" t="n">
-        <v>0.25426</v>
+        <v>0.253558</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.126514</v>
+        <v>0.126564</v>
       </c>
       <c r="C89" t="n">
-        <v>0.280914</v>
+        <v>0.283185</v>
       </c>
       <c r="D89" t="n">
-        <v>0.329135</v>
+        <v>0.319476</v>
       </c>
       <c r="E89" t="n">
-        <v>0.119133</v>
+        <v>0.119422</v>
       </c>
       <c r="F89" t="n">
-        <v>0.252016</v>
+        <v>0.251552</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.121459</v>
+        <v>0.121391</v>
       </c>
       <c r="C90" t="n">
-        <v>0.276249</v>
+        <v>0.278215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.330515</v>
+        <v>0.321735</v>
       </c>
       <c r="E90" t="n">
-        <v>0.116758</v>
+        <v>0.116916</v>
       </c>
       <c r="F90" t="n">
-        <v>0.249828</v>
+        <v>0.249228</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.11628</v>
+        <v>0.11618</v>
       </c>
       <c r="C91" t="n">
-        <v>0.272478</v>
+        <v>0.274497</v>
       </c>
       <c r="D91" t="n">
-        <v>0.331634</v>
+        <v>0.323803</v>
       </c>
       <c r="E91" t="n">
-        <v>0.114235</v>
+        <v>0.114257</v>
       </c>
       <c r="F91" t="n">
-        <v>0.247614</v>
+        <v>0.247137</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.111122</v>
+        <v>0.111103</v>
       </c>
       <c r="C92" t="n">
-        <v>0.267455</v>
+        <v>0.269396</v>
       </c>
       <c r="D92" t="n">
-        <v>0.300973</v>
+        <v>0.295682</v>
       </c>
       <c r="E92" t="n">
-        <v>0.111649</v>
+        <v>0.111505</v>
       </c>
       <c r="F92" t="n">
-        <v>0.245598</v>
+        <v>0.244967</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.105954</v>
+        <v>0.105999</v>
       </c>
       <c r="C93" t="n">
-        <v>0.261911</v>
+        <v>0.264529</v>
       </c>
       <c r="D93" t="n">
-        <v>0.302856</v>
+        <v>0.296104</v>
       </c>
       <c r="E93" t="n">
-        <v>0.108961</v>
+        <v>0.10906</v>
       </c>
       <c r="F93" t="n">
-        <v>0.243096</v>
+        <v>0.242759</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.100637</v>
+        <v>0.100737</v>
       </c>
       <c r="C94" t="n">
-        <v>0.25536</v>
+        <v>0.257735</v>
       </c>
       <c r="D94" t="n">
-        <v>0.304189</v>
+        <v>0.298022</v>
       </c>
       <c r="E94" t="n">
-        <v>0.138222</v>
+        <v>0.138149</v>
       </c>
       <c r="F94" t="n">
-        <v>0.272132</v>
+        <v>0.271917</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.165444</v>
+        <v>0.165468</v>
       </c>
       <c r="C95" t="n">
-        <v>0.306986</v>
+        <v>0.304874</v>
       </c>
       <c r="D95" t="n">
-        <v>0.305588</v>
+        <v>0.300134</v>
       </c>
       <c r="E95" t="n">
-        <v>0.136087</v>
+        <v>0.136114</v>
       </c>
       <c r="F95" t="n">
-        <v>0.269882</v>
+        <v>0.269438</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161877</v>
+        <v>0.16178</v>
       </c>
       <c r="C96" t="n">
-        <v>0.304957</v>
+        <v>0.302886</v>
       </c>
       <c r="D96" t="n">
-        <v>0.30711</v>
+        <v>0.302714</v>
       </c>
       <c r="E96" t="n">
-        <v>0.134128</v>
+        <v>0.134089</v>
       </c>
       <c r="F96" t="n">
-        <v>0.267506</v>
+        <v>0.267305</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157731</v>
+        <v>0.157677</v>
       </c>
       <c r="C97" t="n">
-        <v>0.303279</v>
+        <v>0.300679</v>
       </c>
       <c r="D97" t="n">
-        <v>0.307697</v>
+        <v>0.298009</v>
       </c>
       <c r="E97" t="n">
-        <v>0.131916</v>
+        <v>0.131972</v>
       </c>
       <c r="F97" t="n">
-        <v>0.265416</v>
+        <v>0.264961</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.152822</v>
+        <v>0.153035</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300933</v>
+        <v>0.298095</v>
       </c>
       <c r="D98" t="n">
-        <v>0.309592</v>
+        <v>0.299724</v>
       </c>
       <c r="E98" t="n">
-        <v>0.130185</v>
+        <v>0.129879</v>
       </c>
       <c r="F98" t="n">
-        <v>0.263254</v>
+        <v>0.262752</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.148251</v>
+        <v>0.148208</v>
       </c>
       <c r="C99" t="n">
-        <v>0.299446</v>
+        <v>0.295104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.312188</v>
+        <v>0.302878</v>
       </c>
       <c r="E99" t="n">
-        <v>0.128374</v>
+        <v>0.128007</v>
       </c>
       <c r="F99" t="n">
-        <v>0.260973</v>
+        <v>0.260682</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.143023</v>
+        <v>0.142855</v>
       </c>
       <c r="C100" t="n">
-        <v>0.296555</v>
+        <v>0.292328</v>
       </c>
       <c r="D100" t="n">
-        <v>0.31483</v>
+        <v>0.304609</v>
       </c>
       <c r="E100" t="n">
-        <v>0.126215</v>
+        <v>0.126137</v>
       </c>
       <c r="F100" t="n">
-        <v>0.258936</v>
+        <v>0.258479</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.137923</v>
+        <v>0.137924</v>
       </c>
       <c r="C101" t="n">
-        <v>0.29454</v>
+        <v>0.288668</v>
       </c>
       <c r="D101" t="n">
-        <v>0.318531</v>
+        <v>0.30787</v>
       </c>
       <c r="E101" t="n">
-        <v>0.124244</v>
+        <v>0.124238</v>
       </c>
       <c r="F101" t="n">
-        <v>0.256759</v>
+        <v>0.256589</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.132833</v>
+        <v>0.132942</v>
       </c>
       <c r="C102" t="n">
-        <v>0.290418</v>
+        <v>0.285619</v>
       </c>
       <c r="D102" t="n">
-        <v>0.320953</v>
+        <v>0.310878</v>
       </c>
       <c r="E102" t="n">
-        <v>0.122209</v>
+        <v>0.122074</v>
       </c>
       <c r="F102" t="n">
-        <v>0.254726</v>
+        <v>0.254316</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.127622</v>
+        <v>0.127448</v>
       </c>
       <c r="C103" t="n">
-        <v>0.285961</v>
+        <v>0.281767</v>
       </c>
       <c r="D103" t="n">
-        <v>0.322356</v>
+        <v>0.307893</v>
       </c>
       <c r="E103" t="n">
-        <v>0.119661</v>
+        <v>0.119726</v>
       </c>
       <c r="F103" t="n">
-        <v>0.252539</v>
+        <v>0.252135</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.122523</v>
+        <v>0.122513</v>
       </c>
       <c r="C104" t="n">
-        <v>0.282496</v>
+        <v>0.277958</v>
       </c>
       <c r="D104" t="n">
-        <v>0.323354</v>
+        <v>0.310993</v>
       </c>
       <c r="E104" t="n">
-        <v>0.117529</v>
+        <v>0.117475</v>
       </c>
       <c r="F104" t="n">
-        <v>0.250363</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.117264</v>
+        <v>0.117238</v>
       </c>
       <c r="C105" t="n">
-        <v>0.278315</v>
+        <v>0.273448</v>
       </c>
       <c r="D105" t="n">
-        <v>0.324708</v>
+        <v>0.312032</v>
       </c>
       <c r="E105" t="n">
-        <v>0.11489</v>
+        <v>0.11501</v>
       </c>
       <c r="F105" t="n">
-        <v>0.248143</v>
+        <v>0.247542</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.112142</v>
+        <v>0.112061</v>
       </c>
       <c r="C106" t="n">
-        <v>0.273042</v>
+        <v>0.268337</v>
       </c>
       <c r="D106" t="n">
-        <v>0.326471</v>
+        <v>0.314818</v>
       </c>
       <c r="E106" t="n">
-        <v>0.112419</v>
+        <v>0.112529</v>
       </c>
       <c r="F106" t="n">
-        <v>0.245958</v>
+        <v>0.245329</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.106952</v>
+        <v>0.106987</v>
       </c>
       <c r="C107" t="n">
-        <v>0.267463</v>
+        <v>0.262882</v>
       </c>
       <c r="D107" t="n">
-        <v>0.301257</v>
+        <v>0.292496</v>
       </c>
       <c r="E107" t="n">
-        <v>0.109853</v>
+        <v>0.109838</v>
       </c>
       <c r="F107" t="n">
-        <v>0.243539</v>
+        <v>0.243119</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.101864</v>
+        <v>0.101812</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261036</v>
+        <v>0.257161</v>
       </c>
       <c r="D108" t="n">
-        <v>0.303403</v>
+        <v>0.293518</v>
       </c>
       <c r="E108" t="n">
         <v>0.138872</v>
       </c>
       <c r="F108" t="n">
-        <v>0.272497</v>
+        <v>0.272027</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.0966398</v>
+        <v>0.0965289</v>
       </c>
       <c r="C109" t="n">
-        <v>0.255159</v>
+        <v>0.250177</v>
       </c>
       <c r="D109" t="n">
-        <v>0.304817</v>
+        <v>0.294621</v>
       </c>
       <c r="E109" t="n">
-        <v>0.136668</v>
+        <v>0.136555</v>
       </c>
       <c r="F109" t="n">
-        <v>0.270329</v>
+        <v>0.26975</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162833</v>
+        <v>0.162581</v>
       </c>
       <c r="C110" t="n">
-        <v>0.309935</v>
+        <v>0.302916</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305908</v>
+        <v>0.297281</v>
       </c>
       <c r="E110" t="n">
-        <v>0.134488</v>
+        <v>0.134524</v>
       </c>
       <c r="F110" t="n">
-        <v>0.267907</v>
+        <v>0.267472</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.158441</v>
+        <v>0.158394</v>
       </c>
       <c r="C111" t="n">
-        <v>0.307317</v>
+        <v>0.300561</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307285</v>
+        <v>0.296456</v>
       </c>
       <c r="E111" t="n">
-        <v>0.132544</v>
+        <v>0.132535</v>
       </c>
       <c r="F111" t="n">
-        <v>0.266024</v>
+        <v>0.265372</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.153892</v>
+        <v>0.15408</v>
       </c>
       <c r="C112" t="n">
-        <v>0.304952</v>
+        <v>0.298148</v>
       </c>
       <c r="D112" t="n">
-        <v>0.308858</v>
+        <v>0.298605</v>
       </c>
       <c r="E112" t="n">
-        <v>0.130491</v>
+        <v>0.130581</v>
       </c>
       <c r="F112" t="n">
-        <v>0.263843</v>
+        <v>0.263166</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.148904</v>
+        <v>0.149238</v>
       </c>
       <c r="C113" t="n">
-        <v>0.30226</v>
+        <v>0.295146</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311263</v>
+        <v>0.300251</v>
       </c>
       <c r="E113" t="n">
-        <v>0.128547</v>
+        <v>0.128593</v>
       </c>
       <c r="F113" t="n">
-        <v>0.261572</v>
+        <v>0.261335</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.143968</v>
+        <v>0.144052</v>
       </c>
       <c r="C114" t="n">
-        <v>0.299634</v>
+        <v>0.292282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313633</v>
+        <v>0.300133</v>
       </c>
       <c r="E114" t="n">
-        <v>0.126612</v>
+        <v>0.126598</v>
       </c>
       <c r="F114" t="n">
-        <v>0.259467</v>
+        <v>0.259015</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.139013</v>
+        <v>0.13885</v>
       </c>
       <c r="C115" t="n">
-        <v>0.29662</v>
+        <v>0.288848</v>
       </c>
       <c r="D115" t="n">
-        <v>0.317262</v>
+        <v>0.302757</v>
       </c>
       <c r="E115" t="n">
-        <v>0.124705</v>
+        <v>0.124594</v>
       </c>
       <c r="F115" t="n">
-        <v>0.257342</v>
+        <v>0.25687</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.133894</v>
+        <v>0.133959</v>
       </c>
       <c r="C116" t="n">
-        <v>0.293771</v>
+        <v>0.285428</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319899</v>
+        <v>0.306142</v>
       </c>
       <c r="E116" t="n">
-        <v>0.122742</v>
+        <v>0.122502</v>
       </c>
       <c r="F116" t="n">
-        <v>0.25529</v>
+        <v>0.254718</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.128638</v>
+        <v>0.128693</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289748</v>
+        <v>0.282161</v>
       </c>
       <c r="D117" t="n">
-        <v>0.321491</v>
+        <v>0.306511</v>
       </c>
       <c r="E117" t="n">
-        <v>0.120408</v>
+        <v>0.120401</v>
       </c>
       <c r="F117" t="n">
-        <v>0.252997</v>
+        <v>0.252455</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.123438</v>
+        <v>0.123511</v>
       </c>
       <c r="C118" t="n">
-        <v>0.286701</v>
+        <v>0.278139</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322295</v>
+        <v>0.308876</v>
       </c>
       <c r="E118" t="n">
-        <v>0.118033</v>
+        <v>0.117961</v>
       </c>
       <c r="F118" t="n">
-        <v>0.250822</v>
+        <v>0.250245</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.118233</v>
+        <v>0.118276</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282705</v>
+        <v>0.274122</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324005</v>
+        <v>0.309817</v>
       </c>
       <c r="E119" t="n">
-        <v>0.115589</v>
+        <v>0.115548</v>
       </c>
       <c r="F119" t="n">
-        <v>0.248463</v>
+        <v>0.248074</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.113143</v>
+        <v>0.113119</v>
       </c>
       <c r="C120" t="n">
-        <v>0.27785</v>
+        <v>0.26926</v>
       </c>
       <c r="D120" t="n">
-        <v>0.325386</v>
+        <v>0.311977</v>
       </c>
       <c r="E120" t="n">
-        <v>0.113103</v>
+        <v>0.113148</v>
       </c>
       <c r="F120" t="n">
-        <v>0.246411</v>
+        <v>0.245851</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.108043</v>
+        <v>0.108047</v>
       </c>
       <c r="C121" t="n">
-        <v>0.273058</v>
+        <v>0.264226</v>
       </c>
       <c r="D121" t="n">
-        <v>0.303371</v>
+        <v>0.294112</v>
       </c>
       <c r="E121" t="n">
-        <v>0.110348</v>
+        <v>0.110352</v>
       </c>
       <c r="F121" t="n">
-        <v>0.244048</v>
+        <v>0.243624</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.102901</v>
+        <v>0.102918</v>
       </c>
       <c r="C122" t="n">
-        <v>0.267004</v>
+        <v>0.25791</v>
       </c>
       <c r="D122" t="n">
-        <v>0.304941</v>
+        <v>0.295217</v>
       </c>
       <c r="E122" t="n">
-        <v>0.107767</v>
+        <v>0.107716</v>
       </c>
       <c r="F122" t="n">
-        <v>0.241819</v>
+        <v>0.241144</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0976665</v>
+        <v>0.0977344</v>
       </c>
       <c r="C123" t="n">
-        <v>0.260256</v>
+        <v>0.250937</v>
       </c>
       <c r="D123" t="n">
-        <v>0.306615</v>
+        <v>0.296024</v>
       </c>
       <c r="E123" t="n">
-        <v>0.137144</v>
+        <v>0.137099</v>
       </c>
       <c r="F123" t="n">
-        <v>0.270905</v>
+        <v>0.27039</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.173142</v>
+        <v>0.173234</v>
       </c>
       <c r="C124" t="n">
-        <v>0.303908</v>
+        <v>0.303274</v>
       </c>
       <c r="D124" t="n">
-        <v>0.307903</v>
+        <v>0.297143</v>
       </c>
       <c r="E124" t="n">
-        <v>0.135087</v>
+        <v>0.135617</v>
       </c>
       <c r="F124" t="n">
-        <v>0.268581</v>
+        <v>0.268121</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.168685</v>
+        <v>0.168796</v>
       </c>
       <c r="C125" t="n">
-        <v>0.301632</v>
+        <v>0.301277</v>
       </c>
       <c r="D125" t="n">
-        <v>0.308684</v>
+        <v>0.297954</v>
       </c>
       <c r="E125" t="n">
-        <v>0.132896</v>
+        <v>0.132927</v>
       </c>
       <c r="F125" t="n">
-        <v>0.26647</v>
+        <v>0.266052</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.163285</v>
+        <v>0.163542</v>
       </c>
       <c r="C126" t="n">
-        <v>0.299176</v>
+        <v>0.298949</v>
       </c>
       <c r="D126" t="n">
-        <v>0.310443</v>
+        <v>0.299023</v>
       </c>
       <c r="E126" t="n">
-        <v>0.131088</v>
+        <v>0.13102</v>
       </c>
       <c r="F126" t="n">
-        <v>0.264282</v>
+        <v>0.263863</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.158115</v>
+        <v>0.158297</v>
       </c>
       <c r="C127" t="n">
-        <v>0.296198</v>
+        <v>0.296222</v>
       </c>
       <c r="D127" t="n">
-        <v>0.312205</v>
+        <v>0.30001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.128944</v>
+        <v>0.128975</v>
       </c>
       <c r="F127" t="n">
-        <v>0.262252</v>
+        <v>0.261679</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.153068</v>
+        <v>0.153236</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293778</v>
+        <v>0.293272</v>
       </c>
       <c r="D128" t="n">
-        <v>0.31519</v>
+        <v>0.301668</v>
       </c>
       <c r="E128" t="n">
-        <v>0.127082</v>
+        <v>0.127041</v>
       </c>
       <c r="F128" t="n">
-        <v>0.260152</v>
+        <v>0.259364</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.147439</v>
+        <v>0.147482</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290315</v>
+        <v>0.289854</v>
       </c>
       <c r="D129" t="n">
-        <v>0.318534</v>
+        <v>0.303382</v>
       </c>
       <c r="E129" t="n">
-        <v>0.125037</v>
+        <v>0.124948</v>
       </c>
       <c r="F129" t="n">
-        <v>0.258035</v>
+        <v>0.257369</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.141959</v>
+        <v>0.142004</v>
       </c>
       <c r="C130" t="n">
-        <v>0.286715</v>
+        <v>0.286641</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321367</v>
+        <v>0.305701</v>
       </c>
       <c r="E130" t="n">
-        <v>0.122998</v>
+        <v>0.122902</v>
       </c>
       <c r="F130" t="n">
-        <v>0.255799</v>
+        <v>0.25524</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.136513</v>
+        <v>0.136625</v>
       </c>
       <c r="C131" t="n">
-        <v>0.283314</v>
+        <v>0.283141</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323222</v>
+        <v>0.30713</v>
       </c>
       <c r="E131" t="n">
-        <v>0.120876</v>
+        <v>0.120807</v>
       </c>
       <c r="F131" t="n">
-        <v>0.253599</v>
+        <v>0.252999</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.131135</v>
+        <v>0.131154</v>
       </c>
       <c r="C132" t="n">
-        <v>0.279311</v>
+        <v>0.279213</v>
       </c>
       <c r="D132" t="n">
-        <v>0.324757</v>
+        <v>0.309274</v>
       </c>
       <c r="E132" t="n">
-        <v>0.118625</v>
+        <v>0.118606</v>
       </c>
       <c r="F132" t="n">
-        <v>0.251468</v>
+        <v>0.250864</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.12569</v>
+        <v>0.125654</v>
       </c>
       <c r="C133" t="n">
-        <v>0.275297</v>
+        <v>0.275113</v>
       </c>
       <c r="D133" t="n">
-        <v>0.325437</v>
+        <v>0.309765</v>
       </c>
       <c r="E133" t="n">
-        <v>0.116191</v>
+        <v>0.116232</v>
       </c>
       <c r="F133" t="n">
-        <v>0.249126</v>
+        <v>0.248619</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.120395</v>
+        <v>0.120223</v>
       </c>
       <c r="C134" t="n">
-        <v>0.270537</v>
+        <v>0.270341</v>
       </c>
       <c r="D134" t="n">
-        <v>0.326873</v>
+        <v>0.311721</v>
       </c>
       <c r="E134" t="n">
-        <v>0.11372</v>
+        <v>0.113724</v>
       </c>
       <c r="F134" t="n">
-        <v>0.246871</v>
+        <v>0.246347</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.115052</v>
+        <v>0.114806</v>
       </c>
       <c r="C135" t="n">
-        <v>0.265609</v>
+        <v>0.264853</v>
       </c>
       <c r="D135" t="n">
-        <v>0.30322</v>
+        <v>0.292957</v>
       </c>
       <c r="E135" t="n">
-        <v>0.111089</v>
+        <v>0.111083</v>
       </c>
       <c r="F135" t="n">
-        <v>0.244655</v>
+        <v>0.244123</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.109539</v>
+        <v>0.109636</v>
       </c>
       <c r="C136" t="n">
-        <v>0.259971</v>
+        <v>0.259368</v>
       </c>
       <c r="D136" t="n">
-        <v>0.304913</v>
+        <v>0.294497</v>
       </c>
       <c r="E136" t="n">
-        <v>0.108362</v>
+        <v>0.108334</v>
       </c>
       <c r="F136" t="n">
-        <v>0.242244</v>
+        <v>0.24172</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.104129</v>
+        <v>0.10417</v>
       </c>
       <c r="C137" t="n">
-        <v>0.253398</v>
+        <v>0.25261</v>
       </c>
       <c r="D137" t="n">
-        <v>0.306542</v>
+        <v>0.295355</v>
       </c>
       <c r="E137" t="n">
-        <v>0.146558</v>
+        <v>0.143484</v>
       </c>
       <c r="F137" t="n">
-        <v>0.277157</v>
+        <v>0.273479</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.174028</v>
+        <v>0.173966</v>
       </c>
       <c r="C138" t="n">
-        <v>0.319571</v>
+        <v>0.310158</v>
       </c>
       <c r="D138" t="n">
-        <v>0.307899</v>
+        <v>0.296146</v>
       </c>
       <c r="E138" t="n">
-        <v>0.144017</v>
+        <v>0.143925</v>
       </c>
       <c r="F138" t="n">
-        <v>0.274716</v>
+        <v>0.273992</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.167981</v>
+        <v>0.16976</v>
       </c>
       <c r="C139" t="n">
-        <v>0.317113</v>
+        <v>0.30858</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309107</v>
+        <v>0.297728</v>
       </c>
       <c r="E139" t="n">
-        <v>0.141681</v>
+        <v>0.141635</v>
       </c>
       <c r="F139" t="n">
-        <v>0.272713</v>
+        <v>0.271885</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.164668</v>
+        <v>0.164797</v>
       </c>
       <c r="C140" t="n">
-        <v>0.314681</v>
+        <v>0.305922</v>
       </c>
       <c r="D140" t="n">
-        <v>0.30985</v>
+        <v>0.298048</v>
       </c>
       <c r="E140" t="n">
-        <v>0.13887</v>
+        <v>0.139332</v>
       </c>
       <c r="F140" t="n">
-        <v>0.273427</v>
+        <v>0.269431</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.159459</v>
+        <v>0.159544</v>
       </c>
       <c r="C141" t="n">
-        <v>0.31293</v>
+        <v>0.303084</v>
       </c>
       <c r="D141" t="n">
-        <v>0.312011</v>
+        <v>0.300058</v>
       </c>
       <c r="E141" t="n">
-        <v>0.136905</v>
+        <v>0.137014</v>
       </c>
       <c r="F141" t="n">
-        <v>0.267688</v>
+        <v>0.267051</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.154128</v>
+        <v>0.154399</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308637</v>
+        <v>0.299989</v>
       </c>
       <c r="D142" t="n">
-        <v>0.314521</v>
+        <v>0.301119</v>
       </c>
       <c r="E142" t="n">
-        <v>0.134662</v>
+        <v>0.134627</v>
       </c>
       <c r="F142" t="n">
-        <v>0.265197</v>
+        <v>0.264755</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.148841</v>
+        <v>0.149033</v>
       </c>
       <c r="C143" t="n">
-        <v>0.305231</v>
+        <v>0.296044</v>
       </c>
       <c r="D143" t="n">
-        <v>0.317805</v>
+        <v>0.30279</v>
       </c>
       <c r="E143" t="n">
-        <v>0.132241</v>
+        <v>0.132167</v>
       </c>
       <c r="F143" t="n">
-        <v>0.262916</v>
+        <v>0.26233</v>
       </c>
     </row>
   </sheetData>

--- a/clang-arm64/Running erasure.xlsx
+++ b/clang-arm64/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07566589999999999</v>
+        <v>0.0750234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.265037</v>
+        <v>0.265432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.277393</v>
+        <v>0.277691</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0517961</v>
+        <v>0.0521103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.235947</v>
+        <v>0.236702</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0744271</v>
+        <v>0.0747907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.264094</v>
+        <v>0.266004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.278262</v>
+        <v>0.28066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0510475</v>
+        <v>0.0512072</v>
       </c>
       <c r="F3" t="n">
-        <v>0.237344</v>
+        <v>0.235843</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07285560000000001</v>
+        <v>0.0737237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.262674</v>
+        <v>0.262756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.281979</v>
+        <v>0.281888</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0510198</v>
+        <v>0.051159</v>
       </c>
       <c r="F4" t="n">
-        <v>0.23434</v>
+        <v>0.234861</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0730411</v>
+        <v>0.07238459999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.260996</v>
+        <v>0.260913</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28479</v>
+        <v>0.284454</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0499764</v>
+        <v>0.0500414</v>
       </c>
       <c r="F5" t="n">
-        <v>0.233106</v>
+        <v>0.233931</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07164429999999999</v>
+        <v>0.071935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.258387</v>
+        <v>0.260188</v>
       </c>
       <c r="D6" t="n">
-        <v>0.287081</v>
+        <v>0.284266</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0490388</v>
+        <v>0.0494221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.232607</v>
+        <v>0.233509</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07095609999999999</v>
+        <v>0.071496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.255816</v>
+        <v>0.254174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275731</v>
+        <v>0.273763</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0504089</v>
+        <v>0.0503265</v>
       </c>
       <c r="F7" t="n">
-        <v>0.231547</v>
+        <v>0.231912</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0700636</v>
+        <v>0.0706608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.249715</v>
+        <v>0.249163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276182</v>
+        <v>0.276469</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0497772</v>
+        <v>0.0502498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.230471</v>
+        <v>0.231723</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.070252</v>
+        <v>0.0699162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.24394</v>
+        <v>0.242798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.276733</v>
+        <v>0.277737</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07907649999999999</v>
+        <v>0.0773533</v>
       </c>
       <c r="F9" t="n">
-        <v>0.254892</v>
+        <v>0.255076</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.128934</v>
+        <v>0.128095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.284747</v>
+        <v>0.284441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.281649</v>
+        <v>0.279863</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07754759999999999</v>
+        <v>0.0885203</v>
       </c>
       <c r="F10" t="n">
-        <v>0.254183</v>
+        <v>0.253943</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.126407</v>
+        <v>0.127786</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284073</v>
+        <v>0.285262</v>
       </c>
       <c r="D11" t="n">
-        <v>0.281829</v>
+        <v>0.28116</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0834405</v>
+        <v>0.08891350000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.252455</v>
+        <v>0.252093</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.126359</v>
+        <v>0.126714</v>
       </c>
       <c r="C12" t="n">
-        <v>0.28557</v>
+        <v>0.284681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.283786</v>
+        <v>0.283773</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08572920000000001</v>
+        <v>0.08879960000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.250639</v>
+        <v>0.250413</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.124661</v>
+        <v>0.124355</v>
       </c>
       <c r="C13" t="n">
-        <v>0.283893</v>
+        <v>0.284008</v>
       </c>
       <c r="D13" t="n">
-        <v>0.285375</v>
+        <v>0.284695</v>
       </c>
       <c r="E13" t="n">
-        <v>0.084689</v>
+        <v>0.0871</v>
       </c>
       <c r="F13" t="n">
-        <v>0.249334</v>
+        <v>0.249454</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.120148</v>
+        <v>0.122028</v>
       </c>
       <c r="C14" t="n">
-        <v>0.280862</v>
+        <v>0.281544</v>
       </c>
       <c r="D14" t="n">
-        <v>0.286591</v>
+        <v>0.286485</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0848187</v>
+        <v>0.08843380000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.247638</v>
+        <v>0.248077</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.118237</v>
+        <v>0.118969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.281816</v>
+        <v>0.283029</v>
       </c>
       <c r="D15" t="n">
-        <v>0.288028</v>
+        <v>0.287787</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08775910000000001</v>
+        <v>0.0863558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.246392</v>
+        <v>0.246482</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.116324</v>
+        <v>0.117341</v>
       </c>
       <c r="C16" t="n">
-        <v>0.27974</v>
+        <v>0.28052</v>
       </c>
       <c r="D16" t="n">
-        <v>0.288804</v>
+        <v>0.288765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0954116</v>
+        <v>0.0873024</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2453</v>
+        <v>0.244975</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.113173</v>
+        <v>0.113475</v>
       </c>
       <c r="C17" t="n">
-        <v>0.277768</v>
+        <v>0.278646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288945</v>
+        <v>0.288274</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0872054</v>
+        <v>0.087245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.24298</v>
+        <v>0.243608</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.108235</v>
+        <v>0.109321</v>
       </c>
       <c r="C18" t="n">
-        <v>0.275625</v>
+        <v>0.276701</v>
       </c>
       <c r="D18" t="n">
-        <v>0.290266</v>
+        <v>0.28979</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0841571</v>
+        <v>0.0848563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.242818</v>
+        <v>0.242744</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.102912</v>
+        <v>0.104942</v>
       </c>
       <c r="C19" t="n">
-        <v>0.272013</v>
+        <v>0.273329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.291459</v>
+        <v>0.291121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08250349999999999</v>
+        <v>0.0846836</v>
       </c>
       <c r="F19" t="n">
-        <v>0.240859</v>
+        <v>0.241156</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.100102</v>
+        <v>0.100872</v>
       </c>
       <c r="C20" t="n">
-        <v>0.268418</v>
+        <v>0.267885</v>
       </c>
       <c r="D20" t="n">
-        <v>0.292853</v>
+        <v>0.291867</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0872033</v>
+        <v>0.0887661</v>
       </c>
       <c r="F20" t="n">
-        <v>0.24074</v>
+        <v>0.24069</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.09559960000000001</v>
+        <v>0.0953146</v>
       </c>
       <c r="C21" t="n">
-        <v>0.264789</v>
+        <v>0.264585</v>
       </c>
       <c r="D21" t="n">
-        <v>0.281613</v>
+        <v>0.281026</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0803712</v>
+        <v>0.0818942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.23833</v>
+        <v>0.238867</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0907676</v>
+        <v>0.0921747</v>
       </c>
       <c r="C22" t="n">
-        <v>0.259059</v>
+        <v>0.258973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.282956</v>
+        <v>0.28233</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0794559</v>
+        <v>0.0852396</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2371</v>
+        <v>0.237243</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0877701</v>
+        <v>0.08816789999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.250373</v>
+        <v>0.251094</v>
       </c>
       <c r="D23" t="n">
-        <v>0.282956</v>
+        <v>0.283703</v>
       </c>
       <c r="E23" t="n">
-        <v>0.110321</v>
+        <v>0.11123</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26448</v>
+        <v>0.264755</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.154266</v>
+        <v>0.153822</v>
       </c>
       <c r="C24" t="n">
-        <v>0.297563</v>
+        <v>0.297589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.284388</v>
+        <v>0.285082</v>
       </c>
       <c r="E24" t="n">
-        <v>0.108923</v>
+        <v>0.113321</v>
       </c>
       <c r="F24" t="n">
-        <v>0.263545</v>
+        <v>0.263476</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.151241</v>
+        <v>0.150408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.297764</v>
+        <v>0.297217</v>
       </c>
       <c r="D25" t="n">
-        <v>0.286399</v>
+        <v>0.285059</v>
       </c>
       <c r="E25" t="n">
-        <v>0.108662</v>
+        <v>0.115219</v>
       </c>
       <c r="F25" t="n">
-        <v>0.261689</v>
+        <v>0.261248</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.147867</v>
+        <v>0.14714</v>
       </c>
       <c r="C26" t="n">
-        <v>0.296221</v>
+        <v>0.29454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.286417</v>
+        <v>0.286745</v>
       </c>
       <c r="E26" t="n">
-        <v>0.108286</v>
+        <v>0.111494</v>
       </c>
       <c r="F26" t="n">
-        <v>0.259789</v>
+        <v>0.259474</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.143794</v>
+        <v>0.143836</v>
       </c>
       <c r="C27" t="n">
-        <v>0.294239</v>
+        <v>0.293988</v>
       </c>
       <c r="D27" t="n">
-        <v>0.287997</v>
+        <v>0.288225</v>
       </c>
       <c r="E27" t="n">
-        <v>0.109965</v>
+        <v>0.11118</v>
       </c>
       <c r="F27" t="n">
-        <v>0.25749</v>
+        <v>0.257298</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.139126</v>
+        <v>0.139107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.291752</v>
+        <v>0.292026</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288743</v>
+        <v>0.288983</v>
       </c>
       <c r="E28" t="n">
-        <v>0.108633</v>
+        <v>0.11205</v>
       </c>
       <c r="F28" t="n">
-        <v>0.255212</v>
+        <v>0.254971</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.134264</v>
+        <v>0.13517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.289198</v>
+        <v>0.289411</v>
       </c>
       <c r="D29" t="n">
-        <v>0.290801</v>
+        <v>0.290343</v>
       </c>
       <c r="E29" t="n">
-        <v>0.107339</v>
+        <v>0.109601</v>
       </c>
       <c r="F29" t="n">
-        <v>0.25483</v>
+        <v>0.254517</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.130765</v>
+        <v>0.130606</v>
       </c>
       <c r="C30" t="n">
-        <v>0.286555</v>
+        <v>0.287313</v>
       </c>
       <c r="D30" t="n">
-        <v>0.292231</v>
+        <v>0.291579</v>
       </c>
       <c r="E30" t="n">
-        <v>0.107082</v>
+        <v>0.108883</v>
       </c>
       <c r="F30" t="n">
-        <v>0.252346</v>
+        <v>0.252291</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126547</v>
+        <v>0.126309</v>
       </c>
       <c r="C31" t="n">
-        <v>0.284103</v>
+        <v>0.285573</v>
       </c>
       <c r="D31" t="n">
-        <v>0.293913</v>
+        <v>0.293104</v>
       </c>
       <c r="E31" t="n">
-        <v>0.104187</v>
+        <v>0.107618</v>
       </c>
       <c r="F31" t="n">
-        <v>0.25087</v>
+        <v>0.250685</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12176</v>
+        <v>0.121824</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280975</v>
+        <v>0.281969</v>
       </c>
       <c r="D32" t="n">
-        <v>0.294241</v>
+        <v>0.295321</v>
       </c>
       <c r="E32" t="n">
-        <v>0.103833</v>
+        <v>0.105021</v>
       </c>
       <c r="F32" t="n">
-        <v>0.248741</v>
+        <v>0.248661</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.117031</v>
+        <v>0.117387</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279214</v>
+        <v>0.278961</v>
       </c>
       <c r="D33" t="n">
-        <v>0.294387</v>
+        <v>0.294538</v>
       </c>
       <c r="E33" t="n">
-        <v>0.102641</v>
+        <v>0.103036</v>
       </c>
       <c r="F33" t="n">
-        <v>0.24676</v>
+        <v>0.246577</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.112061</v>
+        <v>0.112257</v>
       </c>
       <c r="C34" t="n">
-        <v>0.273591</v>
+        <v>0.274592</v>
       </c>
       <c r="D34" t="n">
-        <v>0.296</v>
+        <v>0.296831</v>
       </c>
       <c r="E34" t="n">
-        <v>0.101054</v>
+        <v>0.102175</v>
       </c>
       <c r="F34" t="n">
-        <v>0.244958</v>
+        <v>0.244712</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.107147</v>
+        <v>0.106879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270143</v>
+        <v>0.269925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.284785</v>
+        <v>0.28412</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09892090000000001</v>
+        <v>0.10011</v>
       </c>
       <c r="F35" t="n">
-        <v>0.24296</v>
+        <v>0.242716</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.101906</v>
+        <v>0.10131</v>
       </c>
       <c r="C36" t="n">
-        <v>0.264085</v>
+        <v>0.263712</v>
       </c>
       <c r="D36" t="n">
-        <v>0.285025</v>
+        <v>0.285246</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09690310000000001</v>
+        <v>0.0958089</v>
       </c>
       <c r="F36" t="n">
-        <v>0.240752</v>
+        <v>0.240594</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0961991</v>
+        <v>0.0959275</v>
       </c>
       <c r="C37" t="n">
-        <v>0.257091</v>
+        <v>0.257005</v>
       </c>
       <c r="D37" t="n">
-        <v>0.28611</v>
+        <v>0.286218</v>
       </c>
       <c r="E37" t="n">
-        <v>0.129295</v>
+        <v>0.130364</v>
       </c>
       <c r="F37" t="n">
-        <v>0.270307</v>
+        <v>0.269695</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161581</v>
+        <v>0.161611</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303906</v>
+        <v>0.302421</v>
       </c>
       <c r="D38" t="n">
-        <v>0.287231</v>
+        <v>0.287195</v>
       </c>
       <c r="E38" t="n">
-        <v>0.125742</v>
+        <v>0.126339</v>
       </c>
       <c r="F38" t="n">
-        <v>0.267727</v>
+        <v>0.267223</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.15859</v>
+        <v>0.158732</v>
       </c>
       <c r="C39" t="n">
-        <v>0.302573</v>
+        <v>0.300568</v>
       </c>
       <c r="D39" t="n">
-        <v>0.288455</v>
+        <v>0.288549</v>
       </c>
       <c r="E39" t="n">
-        <v>0.124221</v>
+        <v>0.125015</v>
       </c>
       <c r="F39" t="n">
-        <v>0.26557</v>
+        <v>0.265031</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.154906</v>
+        <v>0.155114</v>
       </c>
       <c r="C40" t="n">
-        <v>0.299207</v>
+        <v>0.299879</v>
       </c>
       <c r="D40" t="n">
-        <v>0.289437</v>
+        <v>0.289262</v>
       </c>
       <c r="E40" t="n">
-        <v>0.123628</v>
+        <v>0.122626</v>
       </c>
       <c r="F40" t="n">
-        <v>0.263224</v>
+        <v>0.262448</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.150288</v>
+        <v>0.150856</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298709</v>
+        <v>0.297637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.290693</v>
+        <v>0.290834</v>
       </c>
       <c r="E41" t="n">
-        <v>0.122561</v>
+        <v>0.122464</v>
       </c>
       <c r="F41" t="n">
-        <v>0.261207</v>
+        <v>0.261325</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.145954</v>
+        <v>0.146026</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296609</v>
+        <v>0.293539</v>
       </c>
       <c r="D42" t="n">
-        <v>0.291787</v>
+        <v>0.291134</v>
       </c>
       <c r="E42" t="n">
-        <v>0.119458</v>
+        <v>0.119841</v>
       </c>
       <c r="F42" t="n">
-        <v>0.259323</v>
+        <v>0.2585</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.141334</v>
+        <v>0.141072</v>
       </c>
       <c r="C43" t="n">
-        <v>0.292909</v>
+        <v>0.294568</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292135</v>
+        <v>0.293367</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1181</v>
+        <v>0.117535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.256807</v>
+        <v>0.256895</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.136232</v>
+        <v>0.136563</v>
       </c>
       <c r="C44" t="n">
-        <v>0.291965</v>
+        <v>0.291612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294774</v>
+        <v>0.293454</v>
       </c>
       <c r="E44" t="n">
-        <v>0.115038</v>
+        <v>0.11653</v>
       </c>
       <c r="F44" t="n">
-        <v>0.255096</v>
+        <v>0.254946</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131577</v>
+        <v>0.131912</v>
       </c>
       <c r="C45" t="n">
-        <v>0.288436</v>
+        <v>0.289346</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295341</v>
+        <v>0.29508</v>
       </c>
       <c r="E45" t="n">
-  